--- a/mappings/package_F23/transformation/conceptual_mappings.xlsx
+++ b/mappings/package_F23/transformation/conceptual_mappings.xlsx
@@ -363,7 +363,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1548" uniqueCount="1088">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1550" uniqueCount="1090">
   <si>
     <t>Field</t>
   </si>
@@ -398,7 +398,7 @@
     <t>Mapping Version</t>
   </si>
   <si>
-    <t>4.2.1</t>
+    <t>5.1.1</t>
   </si>
   <si>
     <r>
@@ -422,7 +422,7 @@
     <t>EPO version</t>
   </si>
   <si>
-    <t>3.1.0-dev</t>
+    <t>3.1.0</t>
   </si>
   <si>
     <r>
@@ -564,7 +564,7 @@
     <t>CONTRACTING_BODY/ADDRESS_CONTRACTING_BODY</t>
   </si>
   <si>
-    <t>epo:ResultNotice / epo:AgentInRole (from CL1)</t>
+    <t>epo:Notice / epo:AgentInRole (from CL1)</t>
   </si>
   <si>
     <t>?this epo:refersToRole ?value</t>
@@ -2969,7 +2969,7 @@
     <t>OBJECT_CONTRACT</t>
   </si>
   <si>
-    <t>epo:ResultNotice / epo:NoticeAwardInformation</t>
+    <t>epo:Notice / epo:NoticeAwardInformation</t>
   </si>
   <si>
     <t>?this epo:announcesNoticeAwardInformation ?value .</t>
@@ -2984,7 +2984,7 @@
     <t>OBJECT_CONTRACT/VAL_TOTAL</t>
   </si>
   <si>
-    <t>epo:ResultNotice / epo:NoticeAwardInformation / epo:MonetaryValue / xsd:decimal</t>
+    <t>epo:Notice / epo:NoticeAwardInformation / epo:MonetaryValue / xsd:decimal</t>
   </si>
   <si>
     <t>?this epo:announcesNoticeAwardInformation / epo:hasTotalAwardedValue / epo:hasAmountValue ?value .</t>
@@ -3068,7 +3068,7 @@
     <t>OBJECT_CONTRACT/VAL_TOTAL/@CURRENCY</t>
   </si>
   <si>
-    <t>epo:ResultNotice / epo:NoticeAwardInformation / epo:MonetaryValue / at-voc:currency (from currency.json)</t>
+    <t>epo:Notice / epo:NoticeAwardInformation / epo:MonetaryValue / at-voc:currency (from currency.json)</t>
   </si>
   <si>
     <r>
@@ -3108,7 +3108,7 @@
     <t>II.2</t>
   </si>
   <si>
-    <t>epo:ResultNotice / epo:Lot</t>
+    <t>epo:Notice / epo:Lot</t>
   </si>
   <si>
     <t>?this epo:refersToLot ?value .</t>
@@ -3951,6 +3951,41 @@
     <t>PROCEDURE/PT_AWARD_CONTRACT_WITHOUT_PUBLICATION</t>
   </si>
   <si>
+    <t>epo:Procedure / at-voc:procurement-procedure-type</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+      </rPr>
+      <t>?this</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+      </rPr>
+      <t xml:space="preserve"> epo:hasProcedureType &lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>http://publications.europa.eu/resource/authority/procurement-procedure-type/neg-wo-call</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+      </rPr>
+      <t>&gt; .</t>
+    </r>
+  </si>
+  <si>
     <t>IV.1.11</t>
   </si>
   <si>
@@ -3981,7 +4016,7 @@
     <t>PROCEDURE/NOTICE_NUMBER_OJ</t>
   </si>
   <si>
-    <t>epo:ResultNotice / epo:Notice /  epo:Identifier / xsd:string</t>
+    <t>epo:Notice / epo:Notice /  epo:Identifier / xsd:string</t>
   </si>
   <si>
     <r>
@@ -5859,7 +5894,7 @@
     <t>COMPLEMENTARY_INFO/ADDRESS_MEDIATION_BODY</t>
   </si>
   <si>
-    <t>epo:ResultNotice / epo:Mediator</t>
+    <t>epo:Notice / epo:Mediator</t>
   </si>
   <si>
     <t>VI.4.2.1</t>
@@ -6443,7 +6478,7 @@
     <t>COMPLEMENTARY_INFO/DATE_DISPATCH_NOTICE</t>
   </si>
   <si>
-    <t>epo:ResultNotice</t>
+    <t>epo:Notice</t>
   </si>
   <si>
     <r>
@@ -6870,7 +6905,7 @@
     <t>annex_d4.rml.ttl</t>
   </si>
   <si>
-    <t>result_notice.rml.ttl</t>
+    <t>notice.rml.ttl</t>
   </si>
   <si>
     <t>Informal (if possible to become formal)</t>
@@ -7006,7 +7041,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
   </numFmts>
-  <fonts count="35">
+  <fonts count="36">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -7103,6 +7138,12 @@
       <name val="Arial"/>
     </font>
     <font>
+      <u/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
       <u/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
@@ -7638,9 +7679,6 @@
     <xf borderId="0" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
     <xf borderId="0" fillId="15" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
@@ -7782,6 +7820,9 @@
     <xf borderId="0" fillId="6" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="bottom"/>
     </xf>
+    <xf borderId="0" fillId="4" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
     <xf borderId="0" fillId="7" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
@@ -7800,10 +7841,7 @@
     <xf quotePrefix="1" borderId="0" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf quotePrefix="1" borderId="0" fillId="15" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="15" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf quotePrefix="1" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -7818,16 +7856,16 @@
     <xf borderId="0" fillId="16" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="23" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="23" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="4" fontId="24" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="8" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -7842,7 +7880,7 @@
     <xf borderId="0" fillId="10" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="24" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="25" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -7853,6 +7891,9 @@
     </xf>
     <xf borderId="0" fillId="15" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="15" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
@@ -7878,7 +7919,7 @@
     <xf borderId="0" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="25" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="4" fontId="26" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -7887,16 +7928,16 @@
     <xf quotePrefix="1" borderId="0" fillId="15" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="15" fontId="26" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="15" fontId="27" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf quotePrefix="1" borderId="0" fillId="15" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="15" fontId="27" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="15" fontId="28" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="15" fontId="25" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="15" fontId="26" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="15" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -7917,23 +7958,23 @@
     <xf borderId="11" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="28" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="29" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="29" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="10" fillId="0" fontId="30" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="29" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="30" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="29" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="30" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="29" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="30" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -7960,19 +8001,19 @@
     <xf borderId="0" fillId="17" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="30" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="31" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="31" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="32" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="32" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="33" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="33" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="34" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="18" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
@@ -7982,7 +8023,7 @@
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="18" fontId="6" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="4" fontId="34" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="4" fontId="35" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -13457,7 +13498,7 @@
         <v>285</v>
       </c>
       <c r="F62" s="86"/>
-      <c r="G62" s="87" t="s">
+      <c r="G62" s="50" t="s">
         <v>286</v>
       </c>
       <c r="H62" s="50" t="s">
@@ -13481,20 +13522,20 @@
       <c r="B63" s="39" t="s">
         <v>289</v>
       </c>
-      <c r="C63" s="88" t="s">
+      <c r="C63" s="87" t="s">
         <v>290</v>
       </c>
-      <c r="D63" s="89" t="s">
+      <c r="D63" s="88" t="s">
         <v>291</v>
       </c>
       <c r="E63" s="60" t="s">
         <v>292</v>
       </c>
-      <c r="F63" s="88"/>
-      <c r="G63" s="88" t="s">
+      <c r="F63" s="87"/>
+      <c r="G63" s="87" t="s">
         <v>293</v>
       </c>
-      <c r="H63" s="90" t="s">
+      <c r="H63" s="89" t="s">
         <v>294</v>
       </c>
       <c r="I63" s="7"/>
@@ -13545,20 +13586,20 @@
       <c r="B65" s="39" t="s">
         <v>301</v>
       </c>
-      <c r="C65" s="89" t="s">
+      <c r="C65" s="88" t="s">
         <v>302</v>
       </c>
-      <c r="D65" s="89" t="s">
+      <c r="D65" s="88" t="s">
         <v>303</v>
       </c>
-      <c r="E65" s="91" t="s">
+      <c r="E65" s="90" t="s">
         <v>304</v>
       </c>
-      <c r="F65" s="92"/>
-      <c r="G65" s="93" t="s">
+      <c r="F65" s="91"/>
+      <c r="G65" s="92" t="s">
         <v>305</v>
       </c>
-      <c r="H65" s="94" t="s">
+      <c r="H65" s="93" t="s">
         <v>306</v>
       </c>
       <c r="I65" s="7"/>
@@ -13609,20 +13650,20 @@
       <c r="B67" s="39" t="s">
         <v>311</v>
       </c>
-      <c r="C67" s="89" t="s">
+      <c r="C67" s="88" t="s">
         <v>302</v>
       </c>
-      <c r="D67" s="89" t="s">
+      <c r="D67" s="88" t="s">
         <v>303</v>
       </c>
       <c r="E67" s="60" t="s">
         <v>312</v>
       </c>
-      <c r="F67" s="88"/>
-      <c r="G67" s="95" t="s">
+      <c r="F67" s="87"/>
+      <c r="G67" s="94" t="s">
         <v>305</v>
       </c>
-      <c r="H67" s="95" t="s">
+      <c r="H67" s="94" t="s">
         <v>313</v>
       </c>
       <c r="I67" s="7"/>
@@ -13640,7 +13681,7 @@
       <c r="A68" s="47" t="s">
         <v>314</v>
       </c>
-      <c r="B68" s="96"/>
+      <c r="B68" s="95"/>
       <c r="C68" s="57"/>
       <c r="D68" s="57"/>
       <c r="E68" s="82" t="s">
@@ -13668,7 +13709,7 @@
       <c r="A69" s="34" t="s">
         <v>317</v>
       </c>
-      <c r="B69" s="97" t="s">
+      <c r="B69" s="96" t="s">
         <v>318</v>
       </c>
       <c r="C69" s="4"/>
@@ -13757,16 +13798,16 @@
       <c r="B72" s="53" t="s">
         <v>328</v>
       </c>
-      <c r="C72" s="98" t="s">
+      <c r="C72" s="97" t="s">
         <v>329</v>
       </c>
-      <c r="D72" s="98" t="s">
+      <c r="D72" s="97" t="s">
         <v>330</v>
       </c>
       <c r="E72" s="46" t="s">
         <v>331</v>
       </c>
-      <c r="F72" s="98"/>
+      <c r="F72" s="97"/>
       <c r="G72" s="46" t="s">
         <v>332</v>
       </c>
@@ -13804,7 +13845,7 @@
       <c r="G73" s="4" t="s">
         <v>339</v>
       </c>
-      <c r="H73" s="99" t="s">
+      <c r="H73" s="98" t="s">
         <v>340</v>
       </c>
       <c r="I73" s="7"/>
@@ -13906,7 +13947,7 @@
       <c r="G76" s="37" t="s">
         <v>324</v>
       </c>
-      <c r="H76" s="100" t="s">
+      <c r="H76" s="99" t="s">
         <v>358</v>
       </c>
       <c r="I76" s="7"/>
@@ -13927,12 +13968,12 @@
       <c r="B77" s="48" t="s">
         <v>360</v>
       </c>
-      <c r="C77" s="88"/>
-      <c r="D77" s="88"/>
-      <c r="E77" s="88"/>
-      <c r="F77" s="92"/>
-      <c r="G77" s="88"/>
-      <c r="H77" s="88"/>
+      <c r="C77" s="87"/>
+      <c r="D77" s="87"/>
+      <c r="E77" s="87"/>
+      <c r="F77" s="91"/>
+      <c r="G77" s="87"/>
+      <c r="H77" s="87"/>
       <c r="I77" s="7"/>
       <c r="J77" s="7"/>
       <c r="K77" s="7"/>
@@ -13945,26 +13986,26 @@
       <c r="R77" s="28"/>
     </row>
     <row r="78">
-      <c r="A78" s="101" t="s">
+      <c r="A78" s="100" t="s">
         <v>361</v>
       </c>
       <c r="B78" s="56" t="s">
         <v>362</v>
       </c>
-      <c r="C78" s="88" t="s">
+      <c r="C78" s="87" t="s">
         <v>363</v>
       </c>
-      <c r="D78" s="88" t="s">
+      <c r="D78" s="87" t="s">
         <v>364</v>
       </c>
-      <c r="E78" s="88" t="s">
+      <c r="E78" s="87" t="s">
         <v>365</v>
       </c>
-      <c r="F78" s="88"/>
-      <c r="G78" s="88" t="s">
+      <c r="F78" s="87"/>
+      <c r="G78" s="87" t="s">
         <v>366</v>
       </c>
-      <c r="H78" s="88" t="s">
+      <c r="H78" s="87" t="s">
         <v>367</v>
       </c>
       <c r="I78" s="7"/>
@@ -13979,22 +14020,22 @@
       <c r="R78" s="28"/>
     </row>
     <row r="79">
-      <c r="A79" s="101" t="s">
+      <c r="A79" s="100" t="s">
         <v>368</v>
       </c>
       <c r="B79" s="56" t="s">
         <v>369</v>
       </c>
-      <c r="C79" s="88"/>
-      <c r="D79" s="88"/>
-      <c r="E79" s="88" t="s">
+      <c r="C79" s="87"/>
+      <c r="D79" s="87"/>
+      <c r="E79" s="87" t="s">
         <v>370</v>
       </c>
-      <c r="F79" s="88"/>
-      <c r="G79" s="88" t="s">
+      <c r="F79" s="87"/>
+      <c r="G79" s="87" t="s">
         <v>371</v>
       </c>
-      <c r="H79" s="89" t="s">
+      <c r="H79" s="88" t="s">
         <v>372</v>
       </c>
       <c r="I79" s="7"/>
@@ -14067,7 +14108,7 @@
       <c r="D82" s="4" t="s">
         <v>379</v>
       </c>
-      <c r="E82" s="102" t="s">
+      <c r="E82" s="101" t="s">
         <v>380</v>
       </c>
       <c r="F82" s="4"/>
@@ -14096,7 +14137,7 @@
         <v>384</v>
       </c>
       <c r="C83" s="4"/>
-      <c r="D83" s="103" t="s">
+      <c r="D83" s="102" t="s">
         <v>385</v>
       </c>
       <c r="E83" s="4" t="s">
@@ -14106,7 +14147,7 @@
       <c r="G83" s="4" t="s">
         <v>387</v>
       </c>
-      <c r="H83" s="104" t="s">
+      <c r="H83" s="103" t="s">
         <v>388</v>
       </c>
       <c r="I83" s="7"/>
@@ -14336,7 +14377,7 @@
       <c r="G91" s="37" t="s">
         <v>427</v>
       </c>
-      <c r="H91" s="105" t="s">
+      <c r="H91" s="104" t="s">
         <v>428</v>
       </c>
       <c r="I91" s="7"/>
@@ -14352,7 +14393,7 @@
       </c>
       <c r="C92" s="7"/>
       <c r="D92" s="7"/>
-      <c r="E92" s="91" t="s">
+      <c r="E92" s="90" t="s">
         <v>405</v>
       </c>
       <c r="F92" s="7"/>
@@ -14367,15 +14408,15 @@
       <c r="K92" s="7"/>
     </row>
     <row r="93">
-      <c r="A93" s="106" t="s">
+      <c r="A93" s="105" t="s">
         <v>429</v>
       </c>
-      <c r="B93" s="107" t="s">
+      <c r="B93" s="106" t="s">
         <v>8</v>
       </c>
       <c r="C93" s="7"/>
       <c r="D93" s="7"/>
-      <c r="E93" s="91" t="s">
+      <c r="E93" s="90" t="s">
         <v>405</v>
       </c>
       <c r="F93" s="7"/>
@@ -14436,7 +14477,7 @@
       <c r="G95" s="37" t="s">
         <v>443</v>
       </c>
-      <c r="H95" s="100" t="s">
+      <c r="H95" s="99" t="s">
         <v>444</v>
       </c>
       <c r="I95" s="7"/>
@@ -14553,7 +14594,7 @@
       <c r="G100" s="37" t="s">
         <v>461</v>
       </c>
-      <c r="H100" s="105" t="s">
+      <c r="H100" s="104" t="s">
         <v>462</v>
       </c>
       <c r="I100" s="7"/>
@@ -14607,7 +14648,7 @@
       <c r="G102" s="4" t="s">
         <v>436</v>
       </c>
-      <c r="H102" s="108" t="s">
+      <c r="H102" s="107" t="s">
         <v>473</v>
       </c>
       <c r="I102" s="7"/>
@@ -14621,12 +14662,12 @@
       <c r="B103" s="48" t="s">
         <v>475</v>
       </c>
-      <c r="C103" s="109"/>
-      <c r="D103" s="109"/>
-      <c r="E103" s="109"/>
-      <c r="F103" s="109"/>
-      <c r="G103" s="109"/>
-      <c r="H103" s="109"/>
+      <c r="C103" s="108"/>
+      <c r="D103" s="108"/>
+      <c r="E103" s="108"/>
+      <c r="F103" s="108"/>
+      <c r="G103" s="108"/>
+      <c r="H103" s="108"/>
       <c r="I103" s="7"/>
       <c r="J103" s="7"/>
       <c r="K103" s="7"/>
@@ -14638,7 +14679,7 @@
       <c r="B104" s="56" t="s">
         <v>362</v>
       </c>
-      <c r="C104" s="109" t="s">
+      <c r="C104" s="108" t="s">
         <v>477</v>
       </c>
       <c r="D104" s="40" t="s">
@@ -14665,7 +14706,7 @@
       <c r="B105" s="56" t="s">
         <v>369</v>
       </c>
-      <c r="C105" s="109" t="s">
+      <c r="C105" s="108" t="s">
         <v>176</v>
       </c>
       <c r="D105" s="40"/>
@@ -14676,7 +14717,7 @@
       <c r="G105" s="41" t="s">
         <v>483</v>
       </c>
-      <c r="H105" s="99" t="s">
+      <c r="H105" s="98" t="s">
         <v>484</v>
       </c>
       <c r="I105" s="7"/>
@@ -14690,137 +14731,137 @@
       <c r="B106" s="48" t="s">
         <v>486</v>
       </c>
-      <c r="C106" s="88"/>
-      <c r="D106" s="92"/>
-      <c r="E106" s="92"/>
-      <c r="F106" s="92"/>
-      <c r="G106" s="92"/>
-      <c r="H106" s="92"/>
-      <c r="I106" s="92"/>
-      <c r="J106" s="92"/>
-      <c r="K106" s="92"/>
+      <c r="C106" s="87"/>
+      <c r="D106" s="91"/>
+      <c r="E106" s="91"/>
+      <c r="F106" s="91"/>
+      <c r="G106" s="91"/>
+      <c r="H106" s="91"/>
+      <c r="I106" s="91"/>
+      <c r="J106" s="91"/>
+      <c r="K106" s="91"/>
     </row>
     <row r="107">
-      <c r="A107" s="101" t="s">
+      <c r="A107" s="100" t="s">
         <v>487</v>
       </c>
       <c r="B107" s="56" t="s">
         <v>488</v>
       </c>
-      <c r="C107" s="88" t="s">
+      <c r="C107" s="87" t="s">
         <v>489</v>
       </c>
-      <c r="D107" s="88" t="s">
+      <c r="D107" s="87" t="s">
         <v>490</v>
       </c>
-      <c r="E107" s="88" t="s">
+      <c r="E107" s="87" t="s">
         <v>491</v>
       </c>
-      <c r="F107" s="88"/>
-      <c r="G107" s="88" t="s">
+      <c r="F107" s="87"/>
+      <c r="G107" s="87" t="s">
         <v>492</v>
       </c>
-      <c r="H107" s="110" t="s">
+      <c r="H107" s="109" t="s">
         <v>493</v>
       </c>
-      <c r="I107" s="92"/>
-      <c r="J107" s="92"/>
-      <c r="K107" s="92"/>
+      <c r="I107" s="91"/>
+      <c r="J107" s="91"/>
+      <c r="K107" s="91"/>
     </row>
     <row r="108">
-      <c r="A108" s="111" t="s">
+      <c r="A108" s="110" t="s">
         <v>494</v>
       </c>
-      <c r="B108" s="112"/>
-      <c r="C108" s="88"/>
-      <c r="D108" s="88"/>
-      <c r="E108" s="88" t="s">
+      <c r="B108" s="111"/>
+      <c r="C108" s="87"/>
+      <c r="D108" s="87"/>
+      <c r="E108" s="87" t="s">
         <v>495</v>
       </c>
-      <c r="F108" s="88" t="s">
+      <c r="F108" s="87" t="s">
         <v>496</v>
       </c>
-      <c r="G108" s="88" t="s">
+      <c r="G108" s="87" t="s">
         <v>497</v>
       </c>
-      <c r="H108" s="110" t="s">
+      <c r="H108" s="109" t="s">
         <v>498</v>
       </c>
-      <c r="I108" s="92"/>
-      <c r="J108" s="92"/>
-      <c r="K108" s="92"/>
+      <c r="I108" s="91"/>
+      <c r="J108" s="91"/>
+      <c r="K108" s="91"/>
     </row>
     <row r="109">
-      <c r="A109" s="111" t="s">
+      <c r="A109" s="110" t="s">
         <v>499</v>
       </c>
-      <c r="B109" s="112"/>
-      <c r="C109" s="88"/>
-      <c r="D109" s="92"/>
-      <c r="E109" s="91" t="s">
+      <c r="B109" s="111"/>
+      <c r="C109" s="87"/>
+      <c r="D109" s="91"/>
+      <c r="E109" s="90" t="s">
         <v>495</v>
       </c>
-      <c r="F109" s="92" t="s">
+      <c r="F109" s="91" t="s">
         <v>500</v>
       </c>
-      <c r="G109" s="92" t="s">
+      <c r="G109" s="91" t="s">
         <v>497</v>
       </c>
-      <c r="H109" s="92" t="s">
+      <c r="H109" s="91" t="s">
         <v>501</v>
       </c>
-      <c r="I109" s="92"/>
-      <c r="J109" s="92"/>
-      <c r="K109" s="92"/>
+      <c r="I109" s="91"/>
+      <c r="J109" s="91"/>
+      <c r="K109" s="91"/>
     </row>
     <row r="110">
-      <c r="A110" s="101" t="s">
+      <c r="A110" s="100" t="s">
         <v>502</v>
       </c>
       <c r="B110" s="56" t="s">
         <v>503</v>
       </c>
-      <c r="C110" s="88" t="s">
+      <c r="C110" s="87" t="s">
         <v>504</v>
       </c>
-      <c r="D110" s="88" t="s">
+      <c r="D110" s="87" t="s">
         <v>505</v>
       </c>
-      <c r="E110" s="88" t="s">
+      <c r="E110" s="87" t="s">
         <v>506</v>
       </c>
-      <c r="F110" s="88"/>
-      <c r="G110" s="88" t="s">
+      <c r="F110" s="87"/>
+      <c r="G110" s="87" t="s">
         <v>507</v>
       </c>
-      <c r="H110" s="88" t="s">
+      <c r="H110" s="87" t="s">
         <v>508</v>
       </c>
-      <c r="I110" s="92"/>
-      <c r="J110" s="92"/>
-      <c r="K110" s="92"/>
+      <c r="I110" s="91"/>
+      <c r="J110" s="91"/>
+      <c r="K110" s="91"/>
     </row>
     <row r="111">
-      <c r="A111" s="101" t="s">
+      <c r="A111" s="100" t="s">
         <v>509</v>
       </c>
       <c r="B111" s="56" t="s">
         <v>510</v>
       </c>
-      <c r="C111" s="88" t="s">
+      <c r="C111" s="87" t="s">
         <v>511</v>
       </c>
-      <c r="D111" s="88" t="s">
+      <c r="D111" s="87" t="s">
         <v>512</v>
       </c>
-      <c r="E111" s="113" t="s">
+      <c r="E111" s="112" t="s">
         <v>513</v>
       </c>
-      <c r="F111" s="113"/>
-      <c r="G111" s="88" t="s">
+      <c r="F111" s="112"/>
+      <c r="G111" s="87" t="s">
         <v>507</v>
       </c>
-      <c r="H111" s="88" t="s">
+      <c r="H111" s="87" t="s">
         <v>514</v>
       </c>
       <c r="I111" s="7"/>
@@ -14845,7 +14886,7 @@
       <c r="K112" s="7"/>
     </row>
     <row r="113">
-      <c r="A113" s="101" t="s">
+      <c r="A113" s="100" t="s">
         <v>517</v>
       </c>
       <c r="B113" s="56" t="s">
@@ -14872,16 +14913,16 @@
       <c r="K113" s="7"/>
     </row>
     <row r="114">
-      <c r="A114" s="114" t="s">
+      <c r="A114" s="113" t="s">
         <v>517</v>
       </c>
       <c r="B114" s="62" t="s">
         <v>518</v>
       </c>
-      <c r="C114" s="115" t="s">
+      <c r="C114" s="114" t="s">
         <v>519</v>
       </c>
-      <c r="D114" s="116" t="s">
+      <c r="D114" s="115" t="s">
         <v>520</v>
       </c>
       <c r="E114" s="50" t="s">
@@ -14899,7 +14940,7 @@
       <c r="K114" s="7"/>
     </row>
     <row r="115">
-      <c r="A115" s="101" t="s">
+      <c r="A115" s="100" t="s">
         <v>526</v>
       </c>
       <c r="B115" s="56" t="s">
@@ -14918,7 +14959,7 @@
       <c r="G115" s="50" t="s">
         <v>531</v>
       </c>
-      <c r="H115" s="117" t="s">
+      <c r="H115" s="116" t="s">
         <v>532</v>
       </c>
       <c r="I115" s="7"/>
@@ -14938,14 +14979,14 @@
       <c r="D116" s="7" t="s">
         <v>536</v>
       </c>
-      <c r="E116" s="118" t="s">
+      <c r="E116" s="117" t="s">
         <v>537</v>
       </c>
       <c r="F116" s="75"/>
       <c r="G116" s="40" t="s">
         <v>436</v>
       </c>
-      <c r="H116" s="119" t="s">
+      <c r="H116" s="118" t="s">
         <v>538</v>
       </c>
       <c r="I116" s="7"/>
@@ -14956,13 +14997,13 @@
       <c r="A117" s="34" t="s">
         <v>539</v>
       </c>
-      <c r="B117" s="97" t="s">
+      <c r="B117" s="96" t="s">
         <v>540</v>
       </c>
       <c r="C117" s="37"/>
       <c r="D117" s="37"/>
-      <c r="E117" s="120"/>
-      <c r="F117" s="120"/>
+      <c r="E117" s="119"/>
+      <c r="F117" s="119"/>
       <c r="G117" s="50"/>
       <c r="H117" s="50"/>
       <c r="I117" s="7"/>
@@ -15010,7 +15051,7 @@
       <c r="B120" s="56" t="s">
         <v>546</v>
       </c>
-      <c r="C120" s="121" t="s">
+      <c r="C120" s="120" t="s">
         <v>547</v>
       </c>
       <c r="D120" s="14"/>
@@ -15037,7 +15078,7 @@
       </c>
       <c r="C121" s="14"/>
       <c r="D121" s="14"/>
-      <c r="E121" s="122"/>
+      <c r="E121" s="121"/>
       <c r="F121" s="37"/>
       <c r="G121" s="50"/>
       <c r="H121" s="50"/>
@@ -15055,17 +15096,17 @@
       <c r="C122" s="14" t="s">
         <v>555</v>
       </c>
-      <c r="D122" s="123"/>
-      <c r="E122" s="124" t="s">
+      <c r="D122" s="122"/>
+      <c r="E122" s="123" t="s">
         <v>556</v>
       </c>
-      <c r="F122" s="120" t="s">
+      <c r="F122" s="119" t="s">
         <v>557</v>
       </c>
       <c r="G122" s="50" t="s">
         <v>558</v>
       </c>
-      <c r="H122" s="125" t="s">
+      <c r="H122" s="124" t="s">
         <v>559</v>
       </c>
       <c r="I122" s="7"/>
@@ -15083,16 +15124,16 @@
         <v>562</v>
       </c>
       <c r="D123" s="14"/>
-      <c r="E123" s="126" t="s">
+      <c r="E123" s="125" t="s">
         <v>563</v>
       </c>
-      <c r="F123" s="120" t="s">
+      <c r="F123" s="119" t="s">
         <v>557</v>
       </c>
       <c r="G123" s="50" t="s">
         <v>564</v>
       </c>
-      <c r="H123" s="125" t="s">
+      <c r="H123" s="124" t="s">
         <v>565</v>
       </c>
       <c r="I123" s="7"/>
@@ -15140,14 +15181,14 @@
       <c r="B126" s="56" t="s">
         <v>571</v>
       </c>
-      <c r="C126" s="127" t="s">
+      <c r="C126" s="126" t="s">
         <v>572</v>
       </c>
-      <c r="D126" s="127"/>
-      <c r="E126" s="127" t="s">
+      <c r="D126" s="126"/>
+      <c r="E126" s="126" t="s">
         <v>573</v>
       </c>
-      <c r="F126" s="127" t="s">
+      <c r="F126" s="126" t="s">
         <v>557</v>
       </c>
       <c r="G126" s="7" t="s">
@@ -15167,14 +15208,14 @@
       <c r="B127" s="56" t="s">
         <v>577</v>
       </c>
-      <c r="C127" s="128" t="s">
+      <c r="C127" s="127" t="s">
         <v>578</v>
       </c>
-      <c r="D127" s="127"/>
-      <c r="E127" s="127" t="s">
+      <c r="D127" s="126"/>
+      <c r="E127" s="126" t="s">
         <v>579</v>
       </c>
-      <c r="F127" s="127"/>
+      <c r="F127" s="126"/>
       <c r="G127" s="4" t="s">
         <v>549</v>
       </c>
@@ -15192,18 +15233,18 @@
       <c r="B128" s="48" t="s">
         <v>581</v>
       </c>
-      <c r="C128" s="128" t="s">
+      <c r="C128" s="127" t="s">
         <v>582</v>
       </c>
-      <c r="D128" s="127"/>
-      <c r="E128" s="109" t="s">
+      <c r="D128" s="126"/>
+      <c r="E128" s="108" t="s">
         <v>583</v>
       </c>
-      <c r="F128" s="109"/>
+      <c r="F128" s="108"/>
       <c r="G128" s="4" t="s">
         <v>584</v>
       </c>
-      <c r="H128" s="129" t="s">
+      <c r="H128" s="128" t="s">
         <v>585</v>
       </c>
       <c r="I128" s="7"/>
@@ -15219,7 +15260,7 @@
       </c>
       <c r="C129" s="14"/>
       <c r="D129" s="14"/>
-      <c r="E129" s="122"/>
+      <c r="E129" s="121"/>
       <c r="F129" s="37"/>
       <c r="G129" s="50"/>
       <c r="H129" s="50"/>
@@ -15234,20 +15275,20 @@
       <c r="B130" s="56" t="s">
         <v>589</v>
       </c>
-      <c r="C130" s="127" t="s">
+      <c r="C130" s="126" t="s">
         <v>590</v>
       </c>
-      <c r="D130" s="130"/>
-      <c r="E130" s="131" t="s">
+      <c r="D130" s="129"/>
+      <c r="E130" s="130" t="s">
         <v>591</v>
       </c>
-      <c r="F130" s="109" t="s">
+      <c r="F130" s="108" t="s">
         <v>557</v>
       </c>
       <c r="G130" s="4" t="s">
         <v>592</v>
       </c>
-      <c r="H130" s="129" t="s">
+      <c r="H130" s="128" t="s">
         <v>593</v>
       </c>
       <c r="I130" s="7"/>
@@ -15261,14 +15302,14 @@
       <c r="B131" s="56" t="s">
         <v>589</v>
       </c>
-      <c r="C131" s="127" t="s">
+      <c r="C131" s="126" t="s">
         <v>590</v>
       </c>
-      <c r="D131" s="130"/>
-      <c r="E131" s="132" t="s">
+      <c r="D131" s="129"/>
+      <c r="E131" s="131" t="s">
         <v>591</v>
       </c>
-      <c r="F131" s="127" t="s">
+      <c r="F131" s="126" t="s">
         <v>594</v>
       </c>
       <c r="G131" s="7" t="s">
@@ -15282,10 +15323,10 @@
       <c r="K131" s="7"/>
     </row>
     <row r="132">
-      <c r="A132" s="133" t="s">
+      <c r="A132" s="132" t="s">
         <v>596</v>
       </c>
-      <c r="B132" s="97" t="s">
+      <c r="B132" s="96" t="s">
         <v>597</v>
       </c>
       <c r="C132" s="7"/>
@@ -15301,7 +15342,7 @@
       <c r="K132" s="7"/>
     </row>
     <row r="133">
-      <c r="A133" s="134" t="s">
+      <c r="A133" s="133" t="s">
         <v>599</v>
       </c>
       <c r="B133" s="39" t="s">
@@ -15324,35 +15365,35 @@
       <c r="B134" s="48" t="s">
         <v>601</v>
       </c>
-      <c r="C134" s="92"/>
-      <c r="D134" s="92"/>
-      <c r="E134" s="88"/>
-      <c r="F134" s="88"/>
-      <c r="G134" s="88"/>
-      <c r="H134" s="88"/>
+      <c r="C134" s="7"/>
+      <c r="D134" s="7"/>
+      <c r="E134" s="40"/>
+      <c r="F134" s="4"/>
+      <c r="G134" s="4"/>
+      <c r="H134" s="4"/>
       <c r="I134" s="7"/>
       <c r="J134" s="7"/>
       <c r="K134" s="7"/>
     </row>
     <row r="135">
-      <c r="A135" s="101" t="s">
+      <c r="A135" s="100" t="s">
         <v>602</v>
       </c>
       <c r="B135" s="56" t="s">
         <v>603</v>
       </c>
-      <c r="C135" s="92"/>
-      <c r="D135" s="92"/>
-      <c r="E135" s="89" t="s">
+      <c r="C135" s="7"/>
+      <c r="D135" s="7"/>
+      <c r="E135" s="40" t="s">
         <v>604</v>
       </c>
-      <c r="F135" s="88" t="s">
+      <c r="F135" s="4" t="s">
         <v>605</v>
       </c>
-      <c r="G135" s="88" t="s">
+      <c r="G135" s="4" t="s">
         <v>606</v>
       </c>
-      <c r="H135" s="88" t="s">
+      <c r="H135" s="4" t="s">
         <v>607</v>
       </c>
       <c r="I135" s="7"/>
@@ -15360,55 +15401,59 @@
       <c r="K135" s="7"/>
     </row>
     <row r="136">
-      <c r="A136" s="101" t="s">
+      <c r="A136" s="100" t="s">
         <v>608</v>
       </c>
       <c r="B136" s="56" t="s">
         <v>609</v>
       </c>
-      <c r="C136" s="92"/>
-      <c r="D136" s="92"/>
-      <c r="E136" s="89" t="s">
+      <c r="C136" s="7"/>
+      <c r="D136" s="7"/>
+      <c r="E136" s="40" t="s">
         <v>610</v>
       </c>
-      <c r="F136" s="88"/>
-      <c r="G136" s="88"/>
-      <c r="H136" s="88"/>
+      <c r="F136" s="4"/>
+      <c r="G136" s="37" t="s">
+        <v>611</v>
+      </c>
+      <c r="H136" s="134" t="s">
+        <v>612</v>
+      </c>
       <c r="I136" s="7"/>
       <c r="J136" s="7"/>
       <c r="K136" s="7"/>
     </row>
     <row r="137">
       <c r="A137" s="47" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="B137" s="48" t="s">
-        <v>612</v>
-      </c>
-      <c r="C137" s="127" t="s">
-        <v>613</v>
+        <v>614</v>
+      </c>
+      <c r="C137" s="126" t="s">
+        <v>615</v>
       </c>
       <c r="D137" s="85"/>
-      <c r="E137" s="109" t="s">
-        <v>614</v>
+      <c r="E137" s="108" t="s">
+        <v>616</v>
       </c>
       <c r="F137" s="4"/>
       <c r="G137" s="4" t="s">
         <v>324</v>
       </c>
-      <c r="H137" s="104" t="s">
-        <v>615</v>
+      <c r="H137" s="103" t="s">
+        <v>617</v>
       </c>
       <c r="I137" s="7"/>
       <c r="J137" s="7"/>
       <c r="K137" s="7"/>
     </row>
     <row r="138">
-      <c r="A138" s="134" t="s">
-        <v>616</v>
+      <c r="A138" s="133" t="s">
+        <v>618</v>
       </c>
       <c r="B138" s="39" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="C138" s="7"/>
       <c r="D138" s="7"/>
@@ -15422,22 +15467,22 @@
     </row>
     <row r="139">
       <c r="A139" s="49" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="B139" s="48" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="C139" s="14"/>
       <c r="D139" s="14"/>
       <c r="E139" s="50" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="F139" s="37"/>
       <c r="G139" s="50" t="s">
-        <v>621</v>
-      </c>
-      <c r="H139" s="105" t="s">
-        <v>622</v>
+        <v>623</v>
+      </c>
+      <c r="H139" s="104" t="s">
+        <v>624</v>
       </c>
       <c r="I139" s="7"/>
       <c r="J139" s="7"/>
@@ -15445,24 +15490,24 @@
     </row>
     <row r="140">
       <c r="A140" s="47" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="B140" s="48" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="C140" s="135" t="s">
         <v>578</v>
       </c>
       <c r="D140" s="135"/>
       <c r="E140" s="60" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="F140" s="41"/>
       <c r="G140" s="41" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="H140" s="41" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="I140" s="7"/>
       <c r="J140" s="7"/>
@@ -15470,24 +15515,24 @@
     </row>
     <row r="141">
       <c r="A141" s="55" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="B141" s="56" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="C141" s="57" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="D141" s="135"/>
       <c r="E141" s="60" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="F141" s="41"/>
       <c r="G141" s="41" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="H141" s="41" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="I141" s="7"/>
       <c r="J141" s="7"/>
@@ -15495,47 +15540,47 @@
     </row>
     <row r="142">
       <c r="A142" s="47" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="B142" s="48" t="s">
-        <v>633</v>
-      </c>
-      <c r="C142" s="127" t="s">
-        <v>634</v>
+        <v>635</v>
+      </c>
+      <c r="C142" s="126" t="s">
+        <v>636</v>
       </c>
       <c r="D142" s="85"/>
       <c r="E142" s="76" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="F142" s="7"/>
       <c r="G142" s="4" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="H142" s="40" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="I142" s="7"/>
       <c r="J142" s="7"/>
       <c r="K142" s="7"/>
     </row>
     <row r="143">
-      <c r="A143" s="133" t="s">
-        <v>638</v>
-      </c>
-      <c r="B143" s="97" t="s">
-        <v>639</v>
+      <c r="A143" s="132" t="s">
+        <v>640</v>
+      </c>
+      <c r="B143" s="96" t="s">
+        <v>641</v>
       </c>
       <c r="C143" s="7"/>
       <c r="D143" s="7"/>
       <c r="E143" s="136" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="F143" s="4"/>
       <c r="G143" s="4" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="H143" s="4" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="I143" s="7"/>
       <c r="J143" s="7"/>
@@ -15543,28 +15588,28 @@
     </row>
     <row r="144">
       <c r="A144" s="49" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="B144" s="48" t="s">
         <v>6</v>
       </c>
       <c r="C144" s="86" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="D144" s="86" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="E144" s="50" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="F144" s="50" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="G144" s="4" t="s">
-        <v>648</v>
-      </c>
-      <c r="H144" s="108" t="s">
-        <v>649</v>
+        <v>650</v>
+      </c>
+      <c r="H144" s="107" t="s">
+        <v>651</v>
       </c>
       <c r="I144" s="7"/>
       <c r="J144" s="7"/>
@@ -15572,26 +15617,26 @@
     </row>
     <row r="145">
       <c r="A145" s="49" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="B145" s="48" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="C145" s="86" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="D145" s="86" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="E145" s="60" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="F145" s="4"/>
       <c r="G145" s="4" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="H145" s="40" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="I145" s="7"/>
       <c r="J145" s="7"/>
@@ -15599,26 +15644,26 @@
     </row>
     <row r="146">
       <c r="A146" s="137" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="B146" s="138" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="C146" s="139" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="D146" s="139" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="E146" s="60" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="F146" s="41"/>
       <c r="G146" s="41" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="H146" s="41" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="I146" s="7"/>
       <c r="J146" s="7"/>
@@ -15626,40 +15671,40 @@
     </row>
     <row r="147">
       <c r="A147" s="137" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="B147" s="138" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="C147" s="139" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="D147" s="139" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="E147" s="60" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="F147" s="4"/>
       <c r="G147" s="4" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="H147" s="40" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="I147" s="7"/>
       <c r="J147" s="7"/>
       <c r="K147" s="7"/>
     </row>
     <row r="148">
-      <c r="A148" s="134" t="s">
-        <v>662</v>
+      <c r="A148" s="133" t="s">
+        <v>664</v>
       </c>
       <c r="B148" s="39" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="C148" s="140" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="D148" s="86"/>
       <c r="E148" s="4"/>
@@ -15672,111 +15717,111 @@
     </row>
     <row r="149">
       <c r="A149" s="47" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="B149" s="48" t="s">
+        <v>668</v>
+      </c>
+      <c r="C149" s="141" t="s">
         <v>666</v>
       </c>
-      <c r="C149" s="141" t="s">
-        <v>664</v>
-      </c>
-      <c r="D149" s="142"/>
-      <c r="E149" s="88"/>
-      <c r="F149" s="88"/>
-      <c r="G149" s="88"/>
-      <c r="H149" s="88"/>
+      <c r="D149" s="83"/>
+      <c r="E149" s="4"/>
+      <c r="F149" s="4"/>
+      <c r="G149" s="4"/>
+      <c r="H149" s="4"/>
       <c r="I149" s="7"/>
       <c r="J149" s="7"/>
       <c r="K149" s="7"/>
     </row>
     <row r="150">
-      <c r="A150" s="101" t="s">
-        <v>667</v>
+      <c r="A150" s="100" t="s">
+        <v>669</v>
       </c>
       <c r="B150" s="56" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="C150" s="50" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="D150" s="86" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="E150" s="50" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="F150" s="50"/>
       <c r="G150" s="37" t="s">
-        <v>672</v>
-      </c>
-      <c r="H150" s="100" t="s">
-        <v>673</v>
+        <v>674</v>
+      </c>
+      <c r="H150" s="99" t="s">
+        <v>675</v>
       </c>
       <c r="I150" s="7"/>
       <c r="J150" s="7"/>
       <c r="K150" s="7"/>
     </row>
     <row r="151">
-      <c r="A151" s="101" t="s">
-        <v>674</v>
+      <c r="A151" s="100" t="s">
+        <v>676</v>
       </c>
       <c r="B151" s="56" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="C151" s="86" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="D151" s="86" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="E151" s="50" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="F151" s="50"/>
       <c r="G151" s="4" t="s">
-        <v>672</v>
-      </c>
-      <c r="H151" s="129" t="s">
-        <v>677</v>
+        <v>674</v>
+      </c>
+      <c r="H151" s="128" t="s">
+        <v>679</v>
       </c>
       <c r="I151" s="7"/>
       <c r="J151" s="7"/>
       <c r="K151" s="7"/>
     </row>
     <row r="152">
-      <c r="A152" s="101" t="s">
-        <v>678</v>
+      <c r="A152" s="100" t="s">
+        <v>680</v>
       </c>
       <c r="B152" s="56" t="s">
-        <v>679</v>
-      </c>
-      <c r="C152" s="143" t="s">
+        <v>681</v>
+      </c>
+      <c r="C152" s="142" t="s">
         <v>578</v>
       </c>
       <c r="D152" s="86"/>
       <c r="E152" s="41" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="F152" s="41"/>
       <c r="G152" s="41" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="H152" s="41" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="I152" s="7"/>
       <c r="J152" s="7"/>
       <c r="K152" s="7"/>
     </row>
     <row r="153">
-      <c r="A153" s="134" t="s">
-        <v>683</v>
+      <c r="A153" s="133" t="s">
+        <v>685</v>
       </c>
       <c r="B153" s="39" t="s">
-        <v>684</v>
-      </c>
-      <c r="C153" s="144" t="s">
-        <v>664</v>
+        <v>686</v>
+      </c>
+      <c r="C153" s="143" t="s">
+        <v>666</v>
       </c>
       <c r="D153" s="83"/>
       <c r="E153" s="4"/>
@@ -15788,42 +15833,42 @@
       <c r="K153" s="7"/>
     </row>
     <row r="154">
-      <c r="A154" s="101" t="s">
-        <v>685</v>
+      <c r="A154" s="100" t="s">
+        <v>687</v>
       </c>
       <c r="B154" s="56"/>
       <c r="C154" s="86"/>
       <c r="D154" s="7"/>
       <c r="E154" s="60" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="F154" s="50"/>
       <c r="G154" s="37" t="s">
-        <v>686</v>
-      </c>
-      <c r="H154" s="100" t="s">
-        <v>687</v>
+        <v>688</v>
+      </c>
+      <c r="H154" s="99" t="s">
+        <v>689</v>
       </c>
       <c r="I154" s="7"/>
       <c r="J154" s="7"/>
       <c r="K154" s="7"/>
     </row>
     <row r="155">
-      <c r="A155" s="101" t="s">
-        <v>685</v>
+      <c r="A155" s="100" t="s">
+        <v>687</v>
       </c>
       <c r="B155" s="77"/>
       <c r="C155" s="86"/>
       <c r="D155" s="7"/>
       <c r="E155" s="60" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="F155" s="50"/>
       <c r="G155" s="37" t="s">
-        <v>688</v>
-      </c>
-      <c r="H155" s="100" t="s">
-        <v>689</v>
+        <v>690</v>
+      </c>
+      <c r="H155" s="99" t="s">
+        <v>691</v>
       </c>
       <c r="I155" s="7"/>
       <c r="J155" s="7"/>
@@ -15831,26 +15876,26 @@
     </row>
     <row r="156">
       <c r="A156" s="49" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="B156" s="48" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="C156" s="7" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="D156" s="83" t="s">
-        <v>693</v>
-      </c>
-      <c r="E156" s="91" t="s">
-        <v>694</v>
+        <v>695</v>
+      </c>
+      <c r="E156" s="90" t="s">
+        <v>696</v>
       </c>
       <c r="F156" s="7"/>
       <c r="G156" s="4" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="H156" s="40" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
       <c r="I156" s="7"/>
       <c r="J156" s="7"/>
@@ -15858,166 +15903,166 @@
     </row>
     <row r="157">
       <c r="A157" s="49" t="s">
-        <v>696</v>
+        <v>698</v>
       </c>
       <c r="B157" s="48" t="s">
-        <v>697</v>
-      </c>
-      <c r="C157" s="145"/>
-      <c r="D157" s="145"/>
+        <v>699</v>
+      </c>
+      <c r="C157" s="144"/>
+      <c r="D157" s="144"/>
       <c r="E157" s="60" t="s">
-        <v>654</v>
-      </c>
-      <c r="F157" s="146"/>
+        <v>656</v>
+      </c>
+      <c r="F157" s="145"/>
       <c r="G157" s="50" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="H157" s="37" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="I157" s="7"/>
       <c r="J157" s="7"/>
       <c r="K157" s="7"/>
     </row>
     <row r="158">
-      <c r="A158" s="101" t="s">
-        <v>700</v>
+      <c r="A158" s="100" t="s">
+        <v>702</v>
       </c>
       <c r="B158" s="56" t="s">
-        <v>701</v>
+        <v>703</v>
       </c>
       <c r="C158" s="86" t="s">
-        <v>702</v>
+        <v>704</v>
       </c>
       <c r="D158" s="86" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="E158" s="50" t="s">
-        <v>704</v>
+        <v>706</v>
       </c>
       <c r="F158" s="50"/>
       <c r="G158" s="37" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="H158" s="37" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="I158" s="7"/>
       <c r="J158" s="7"/>
       <c r="K158" s="7"/>
     </row>
     <row r="159">
-      <c r="A159" s="101" t="s">
-        <v>707</v>
+      <c r="A159" s="100" t="s">
+        <v>709</v>
       </c>
       <c r="B159" s="56" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="C159" s="86"/>
       <c r="D159" s="86"/>
       <c r="E159" s="50" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="F159" s="50"/>
       <c r="G159" s="4" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
       <c r="H159" s="40" t="s">
-        <v>711</v>
+        <v>713</v>
       </c>
       <c r="I159" s="7"/>
       <c r="J159" s="7"/>
       <c r="K159" s="7"/>
     </row>
     <row r="160">
-      <c r="A160" s="101" t="s">
-        <v>712</v>
+      <c r="A160" s="100" t="s">
+        <v>714</v>
       </c>
       <c r="B160" s="56" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="C160" s="86"/>
       <c r="D160" s="86"/>
       <c r="E160" s="50" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="F160" s="50"/>
       <c r="G160" s="4" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
       <c r="H160" s="40" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="I160" s="7"/>
       <c r="J160" s="7"/>
       <c r="K160" s="7"/>
     </row>
     <row r="161">
-      <c r="A161" s="101" t="s">
-        <v>716</v>
+      <c r="A161" s="100" t="s">
+        <v>718</v>
       </c>
       <c r="B161" s="84" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
       <c r="C161" s="86"/>
       <c r="D161" s="86"/>
       <c r="E161" s="86" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="F161" s="86"/>
       <c r="G161" s="7" t="s">
-        <v>710</v>
-      </c>
-      <c r="H161" s="147" t="s">
-        <v>719</v>
+        <v>712</v>
+      </c>
+      <c r="H161" s="146" t="s">
+        <v>721</v>
       </c>
       <c r="I161" s="7"/>
       <c r="J161" s="7"/>
       <c r="K161" s="7"/>
     </row>
     <row r="162">
-      <c r="A162" s="101" t="s">
-        <v>720</v>
+      <c r="A162" s="100" t="s">
+        <v>722</v>
       </c>
       <c r="B162" s="84" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
       <c r="C162" s="86"/>
       <c r="D162" s="86"/>
       <c r="E162" s="86" t="s">
-        <v>722</v>
+        <v>724</v>
       </c>
       <c r="F162" s="86"/>
       <c r="G162" s="7" t="s">
-        <v>710</v>
-      </c>
-      <c r="H162" s="148" t="s">
-        <v>723</v>
+        <v>712</v>
+      </c>
+      <c r="H162" s="147" t="s">
+        <v>725</v>
       </c>
       <c r="I162" s="7"/>
       <c r="J162" s="7"/>
       <c r="K162" s="7"/>
     </row>
     <row r="163">
-      <c r="A163" s="101" t="s">
-        <v>724</v>
+      <c r="A163" s="100" t="s">
+        <v>726</v>
       </c>
       <c r="B163" s="84" t="s">
-        <v>725</v>
-      </c>
-      <c r="C163" s="149" t="s">
-        <v>726</v>
+        <v>727</v>
+      </c>
+      <c r="C163" s="148" t="s">
+        <v>728</v>
       </c>
       <c r="D163" s="86"/>
       <c r="E163" s="86" t="s">
-        <v>727</v>
+        <v>729</v>
       </c>
       <c r="F163" s="83"/>
       <c r="G163" s="14" t="s">
-        <v>728</v>
-      </c>
-      <c r="H163" s="150" t="s">
-        <v>729</v>
+        <v>730</v>
+      </c>
+      <c r="H163" s="149" t="s">
+        <v>731</v>
       </c>
       <c r="I163" s="7"/>
       <c r="J163" s="7"/>
@@ -16025,13 +16070,13 @@
     </row>
     <row r="164">
       <c r="A164" s="49" t="s">
-        <v>730</v>
-      </c>
-      <c r="B164" s="151" t="s">
-        <v>731</v>
+        <v>732</v>
+      </c>
+      <c r="B164" s="150" t="s">
+        <v>733</v>
       </c>
       <c r="C164" s="140" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="D164" s="86"/>
       <c r="E164" s="83"/>
@@ -16043,8 +16088,8 @@
       <c r="K164" s="7"/>
     </row>
     <row r="165">
-      <c r="A165" s="101" t="s">
-        <v>732</v>
+      <c r="A165" s="100" t="s">
+        <v>734</v>
       </c>
       <c r="B165" s="84" t="s">
         <v>55</v>
@@ -16056,22 +16101,22 @@
         <v>57</v>
       </c>
       <c r="E165" s="86" t="s">
-        <v>733</v>
+        <v>735</v>
       </c>
       <c r="F165" s="86"/>
-      <c r="G165" s="152" t="s">
+      <c r="G165" s="151" t="s">
         <v>59</v>
       </c>
-      <c r="H165" s="152" t="s">
-        <v>734</v>
+      <c r="H165" s="151" t="s">
+        <v>736</v>
       </c>
       <c r="I165" s="7"/>
       <c r="J165" s="7"/>
       <c r="K165" s="7"/>
     </row>
     <row r="166">
-      <c r="A166" s="101" t="s">
-        <v>735</v>
+      <c r="A166" s="100" t="s">
+        <v>737</v>
       </c>
       <c r="B166" s="84" t="s">
         <v>62</v>
@@ -16083,22 +16128,22 @@
         <v>64</v>
       </c>
       <c r="E166" s="86" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="F166" s="86"/>
-      <c r="G166" s="98" t="s">
+      <c r="G166" s="97" t="s">
         <v>66</v>
       </c>
-      <c r="H166" s="98" t="s">
-        <v>737</v>
+      <c r="H166" s="97" t="s">
+        <v>739</v>
       </c>
       <c r="I166" s="7"/>
       <c r="J166" s="7"/>
       <c r="K166" s="7"/>
     </row>
     <row r="167">
-      <c r="A167" s="101" t="s">
-        <v>738</v>
+      <c r="A167" s="100" t="s">
+        <v>740</v>
       </c>
       <c r="B167" s="84" t="s">
         <v>69</v>
@@ -16110,22 +16155,22 @@
         <v>71</v>
       </c>
       <c r="E167" s="86" t="s">
-        <v>739</v>
+        <v>741</v>
       </c>
       <c r="F167" s="86"/>
       <c r="G167" s="7" t="s">
         <v>73</v>
       </c>
       <c r="H167" s="83" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="I167" s="7"/>
       <c r="J167" s="7"/>
       <c r="K167" s="7"/>
     </row>
     <row r="168">
-      <c r="A168" s="101" t="s">
-        <v>741</v>
+      <c r="A168" s="100" t="s">
+        <v>743</v>
       </c>
       <c r="B168" s="84" t="s">
         <v>76</v>
@@ -16137,22 +16182,22 @@
         <v>78</v>
       </c>
       <c r="E168" s="86" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="F168" s="86"/>
       <c r="G168" s="7" t="s">
         <v>73</v>
       </c>
       <c r="H168" s="83" t="s">
-        <v>743</v>
+        <v>745</v>
       </c>
       <c r="I168" s="7"/>
       <c r="J168" s="7"/>
       <c r="K168" s="7"/>
     </row>
     <row r="169">
-      <c r="A169" s="101" t="s">
-        <v>744</v>
+      <c r="A169" s="100" t="s">
+        <v>746</v>
       </c>
       <c r="B169" s="84" t="s">
         <v>82</v>
@@ -16164,24 +16209,24 @@
         <v>84</v>
       </c>
       <c r="E169" s="83" t="s">
-        <v>745</v>
+        <v>747</v>
       </c>
       <c r="F169" s="83" t="s">
-        <v>746</v>
+        <v>748</v>
       </c>
       <c r="G169" s="14" t="s">
         <v>87</v>
       </c>
       <c r="H169" s="86" t="s">
-        <v>747</v>
+        <v>749</v>
       </c>
       <c r="I169" s="7"/>
       <c r="J169" s="7"/>
       <c r="K169" s="7"/>
     </row>
     <row r="170">
-      <c r="A170" s="101" t="s">
-        <v>748</v>
+      <c r="A170" s="100" t="s">
+        <v>750</v>
       </c>
       <c r="B170" s="84" t="s">
         <v>90</v>
@@ -16190,25 +16235,25 @@
         <v>91</v>
       </c>
       <c r="D170" s="86" t="s">
-        <v>749</v>
-      </c>
-      <c r="E170" s="153" t="s">
-        <v>750</v>
-      </c>
-      <c r="F170" s="153"/>
+        <v>751</v>
+      </c>
+      <c r="E170" s="152" t="s">
+        <v>752</v>
+      </c>
+      <c r="F170" s="152"/>
       <c r="G170" s="7" t="s">
         <v>94</v>
       </c>
       <c r="H170" s="83" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="I170" s="7"/>
       <c r="J170" s="7"/>
       <c r="K170" s="7"/>
     </row>
     <row r="171">
-      <c r="A171" s="101" t="s">
-        <v>752</v>
+      <c r="A171" s="100" t="s">
+        <v>754</v>
       </c>
       <c r="B171" s="84" t="s">
         <v>97</v>
@@ -16219,23 +16264,23 @@
       <c r="D171" s="86" t="s">
         <v>99</v>
       </c>
-      <c r="E171" s="153" t="s">
-        <v>753</v>
+      <c r="E171" s="152" t="s">
+        <v>755</v>
       </c>
       <c r="F171" s="86"/>
-      <c r="G171" s="152" t="s">
+      <c r="G171" s="151" t="s">
         <v>101</v>
       </c>
-      <c r="H171" s="152" t="s">
-        <v>754</v>
+      <c r="H171" s="151" t="s">
+        <v>756</v>
       </c>
       <c r="I171" s="7"/>
       <c r="J171" s="7"/>
       <c r="K171" s="7"/>
     </row>
     <row r="172">
-      <c r="A172" s="101" t="s">
-        <v>755</v>
+      <c r="A172" s="100" t="s">
+        <v>757</v>
       </c>
       <c r="B172" s="84" t="s">
         <v>117</v>
@@ -16247,22 +16292,22 @@
         <v>119</v>
       </c>
       <c r="E172" s="86" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="F172" s="86"/>
       <c r="G172" s="86" t="s">
-        <v>757</v>
+        <v>759</v>
       </c>
       <c r="H172" s="86" t="s">
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="I172" s="7"/>
       <c r="J172" s="7"/>
       <c r="K172" s="7"/>
     </row>
     <row r="173">
-      <c r="A173" s="101" t="s">
-        <v>759</v>
+      <c r="A173" s="100" t="s">
+        <v>761</v>
       </c>
       <c r="B173" s="84" t="s">
         <v>111</v>
@@ -16274,25 +16319,25 @@
         <v>113</v>
       </c>
       <c r="E173" s="86" t="s">
-        <v>760</v>
+        <v>762</v>
       </c>
       <c r="F173" s="86"/>
       <c r="G173" s="86" t="s">
-        <v>761</v>
+        <v>763</v>
       </c>
       <c r="H173" s="86" t="s">
-        <v>762</v>
+        <v>764</v>
       </c>
       <c r="I173" s="7"/>
       <c r="J173" s="7"/>
       <c r="K173" s="7"/>
     </row>
     <row r="174">
-      <c r="A174" s="101" t="s">
-        <v>763</v>
+      <c r="A174" s="100" t="s">
+        <v>765</v>
       </c>
       <c r="B174" s="84" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="C174" s="86" t="s">
         <v>133</v>
@@ -16301,22 +16346,22 @@
         <v>134</v>
       </c>
       <c r="E174" s="86" t="s">
-        <v>765</v>
+        <v>767</v>
       </c>
       <c r="F174" s="86"/>
-      <c r="G174" s="98" t="s">
-        <v>757</v>
-      </c>
-      <c r="H174" s="98" t="s">
-        <v>766</v>
+      <c r="G174" s="97" t="s">
+        <v>759</v>
+      </c>
+      <c r="H174" s="97" t="s">
+        <v>768</v>
       </c>
       <c r="I174" s="7"/>
       <c r="J174" s="7"/>
       <c r="K174" s="7"/>
     </row>
     <row r="175">
-      <c r="A175" s="101" t="s">
-        <v>767</v>
+      <c r="A175" s="100" t="s">
+        <v>769</v>
       </c>
       <c r="B175" s="84" t="s">
         <v>124</v>
@@ -16328,41 +16373,41 @@
         <v>126</v>
       </c>
       <c r="E175" s="86" t="s">
-        <v>768</v>
+        <v>770</v>
       </c>
       <c r="F175" s="86"/>
       <c r="G175" s="86" t="s">
-        <v>761</v>
+        <v>763</v>
       </c>
       <c r="H175" s="86" t="s">
-        <v>769</v>
+        <v>771</v>
       </c>
       <c r="I175" s="7"/>
       <c r="J175" s="7"/>
       <c r="K175" s="7"/>
     </row>
     <row r="176">
-      <c r="A176" s="101" t="s">
-        <v>770</v>
+      <c r="A176" s="100" t="s">
+        <v>772</v>
       </c>
       <c r="B176" s="84" t="s">
-        <v>771</v>
+        <v>773</v>
       </c>
       <c r="C176" s="14" t="s">
-        <v>772</v>
+        <v>774</v>
       </c>
       <c r="D176" s="86" t="s">
-        <v>773</v>
-      </c>
-      <c r="E176" s="154" t="s">
-        <v>774</v>
+        <v>775</v>
+      </c>
+      <c r="E176" s="153" t="s">
+        <v>776</v>
       </c>
       <c r="F176" s="75"/>
       <c r="G176" s="7" t="s">
-        <v>775</v>
-      </c>
-      <c r="H176" s="155" t="s">
-        <v>776</v>
+        <v>777</v>
+      </c>
+      <c r="H176" s="154" t="s">
+        <v>778</v>
       </c>
       <c r="I176" s="7"/>
       <c r="J176" s="7"/>
@@ -16373,15 +16418,15 @@
       <c r="B177" s="7"/>
       <c r="C177" s="86"/>
       <c r="D177" s="86"/>
-      <c r="E177" s="154" t="s">
-        <v>774</v>
+      <c r="E177" s="153" t="s">
+        <v>776</v>
       </c>
       <c r="F177" s="75"/>
-      <c r="G177" s="152" t="s">
-        <v>777</v>
-      </c>
-      <c r="H177" s="152" t="s">
-        <v>778</v>
+      <c r="G177" s="151" t="s">
+        <v>779</v>
+      </c>
+      <c r="H177" s="151" t="s">
+        <v>780</v>
       </c>
       <c r="I177" s="7"/>
       <c r="J177" s="7"/>
@@ -16389,13 +16434,13 @@
     </row>
     <row r="178">
       <c r="A178" s="49" t="s">
-        <v>779</v>
-      </c>
-      <c r="B178" s="151" t="s">
-        <v>780</v>
-      </c>
-      <c r="C178" s="144" t="s">
-        <v>664</v>
+        <v>781</v>
+      </c>
+      <c r="B178" s="150" t="s">
+        <v>782</v>
+      </c>
+      <c r="C178" s="143" t="s">
+        <v>666</v>
       </c>
       <c r="D178" s="83"/>
       <c r="E178" s="19"/>
@@ -16407,11 +16452,11 @@
       <c r="K178" s="7"/>
     </row>
     <row r="179">
-      <c r="A179" s="101" t="s">
-        <v>781</v>
+      <c r="A179" s="100" t="s">
+        <v>783</v>
       </c>
       <c r="B179" s="84" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="C179" s="86" t="s">
         <v>477</v>
@@ -16419,237 +16464,237 @@
       <c r="D179" s="86" t="s">
         <v>364</v>
       </c>
-      <c r="E179" s="153" t="s">
-        <v>783</v>
-      </c>
-      <c r="F179" s="153"/>
+      <c r="E179" s="152" t="s">
+        <v>785</v>
+      </c>
+      <c r="F179" s="152"/>
       <c r="G179" s="14" t="s">
         <v>479</v>
       </c>
       <c r="H179" s="86" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="I179" s="7"/>
       <c r="J179" s="7"/>
       <c r="K179" s="7"/>
     </row>
     <row r="180">
-      <c r="A180" s="111" t="s">
-        <v>785</v>
+      <c r="A180" s="110" t="s">
+        <v>787</v>
       </c>
       <c r="B180" s="72" t="s">
         <v>369</v>
       </c>
-      <c r="C180" s="156" t="s">
+      <c r="C180" s="155" t="s">
         <v>176</v>
       </c>
       <c r="D180" s="86"/>
-      <c r="E180" s="153" t="s">
-        <v>786</v>
-      </c>
-      <c r="F180" s="153"/>
+      <c r="E180" s="152" t="s">
+        <v>788</v>
+      </c>
+      <c r="F180" s="152"/>
       <c r="G180" s="14" t="s">
-        <v>787</v>
+        <v>789</v>
       </c>
       <c r="H180" s="86" t="s">
-        <v>788</v>
+        <v>790</v>
       </c>
       <c r="I180" s="7"/>
       <c r="J180" s="7"/>
       <c r="K180" s="7"/>
     </row>
     <row r="181">
-      <c r="A181" s="101" t="s">
-        <v>789</v>
+      <c r="A181" s="100" t="s">
+        <v>791</v>
       </c>
       <c r="B181" s="84" t="s">
-        <v>790</v>
+        <v>792</v>
       </c>
       <c r="C181" s="86" t="s">
-        <v>791</v>
+        <v>793</v>
       </c>
       <c r="D181" s="86" t="s">
-        <v>792</v>
-      </c>
-      <c r="E181" s="153" t="s">
-        <v>793</v>
-      </c>
-      <c r="F181" s="153"/>
+        <v>794</v>
+      </c>
+      <c r="E181" s="152" t="s">
+        <v>795</v>
+      </c>
+      <c r="F181" s="152"/>
       <c r="G181" s="7" t="s">
-        <v>794</v>
+        <v>796</v>
       </c>
       <c r="H181" s="83" t="s">
-        <v>795</v>
+        <v>797</v>
       </c>
       <c r="I181" s="7"/>
       <c r="J181" s="7"/>
       <c r="K181" s="7"/>
     </row>
     <row r="182">
-      <c r="A182" s="111" t="s">
-        <v>796</v>
+      <c r="A182" s="110" t="s">
+        <v>798</v>
       </c>
       <c r="B182" s="72" t="s">
         <v>369</v>
       </c>
-      <c r="C182" s="156" t="s">
+      <c r="C182" s="155" t="s">
         <v>176</v>
       </c>
       <c r="D182" s="86"/>
       <c r="E182" s="86" t="s">
-        <v>797</v>
+        <v>799</v>
       </c>
       <c r="F182" s="86"/>
       <c r="G182" s="7" t="s">
-        <v>798</v>
+        <v>800</v>
       </c>
       <c r="H182" s="83" t="s">
-        <v>799</v>
+        <v>801</v>
       </c>
       <c r="I182" s="7"/>
       <c r="J182" s="7"/>
       <c r="K182" s="7"/>
     </row>
     <row r="183">
-      <c r="A183" s="101" t="s">
-        <v>800</v>
+      <c r="A183" s="100" t="s">
+        <v>802</v>
       </c>
       <c r="B183" s="84" t="s">
-        <v>801</v>
-      </c>
-      <c r="C183" s="92" t="s">
-        <v>802</v>
-      </c>
-      <c r="D183" s="92" t="s">
         <v>803</v>
       </c>
-      <c r="E183" s="157" t="s">
+      <c r="C183" s="91" t="s">
         <v>804</v>
       </c>
-      <c r="F183" s="157"/>
-      <c r="G183" s="92" t="s">
+      <c r="D183" s="91" t="s">
         <v>805</v>
       </c>
-      <c r="H183" s="92" t="s">
+      <c r="E183" s="156" t="s">
         <v>806</v>
+      </c>
+      <c r="F183" s="156"/>
+      <c r="G183" s="91" t="s">
+        <v>807</v>
+      </c>
+      <c r="H183" s="91" t="s">
+        <v>808</v>
       </c>
       <c r="I183" s="7"/>
       <c r="J183" s="7"/>
       <c r="K183" s="7"/>
     </row>
     <row r="184">
-      <c r="A184" s="111" t="s">
-        <v>807</v>
+      <c r="A184" s="110" t="s">
+        <v>809</v>
       </c>
       <c r="B184" s="72" t="s">
         <v>369</v>
       </c>
-      <c r="C184" s="158" t="s">
+      <c r="C184" s="157" t="s">
         <v>176</v>
       </c>
-      <c r="D184" s="92"/>
-      <c r="E184" s="157" t="s">
-        <v>808</v>
-      </c>
-      <c r="F184" s="92"/>
-      <c r="G184" s="142" t="s">
-        <v>809</v>
-      </c>
-      <c r="H184" s="142" t="s">
+      <c r="D184" s="91"/>
+      <c r="E184" s="156" t="s">
         <v>810</v>
+      </c>
+      <c r="F184" s="91"/>
+      <c r="G184" s="158" t="s">
+        <v>811</v>
+      </c>
+      <c r="H184" s="158" t="s">
+        <v>812</v>
       </c>
       <c r="I184" s="7"/>
       <c r="J184" s="7"/>
       <c r="K184" s="7"/>
     </row>
     <row r="185">
-      <c r="A185" s="101" t="s">
-        <v>811</v>
+      <c r="A185" s="100" t="s">
+        <v>813</v>
       </c>
       <c r="B185" s="84" t="s">
-        <v>812</v>
-      </c>
-      <c r="C185" s="92" t="s">
-        <v>813</v>
-      </c>
-      <c r="D185" s="92" t="s">
         <v>814</v>
       </c>
-      <c r="E185" s="92" t="s">
+      <c r="C185" s="91" t="s">
         <v>815</v>
       </c>
-      <c r="F185" s="92"/>
-      <c r="G185" s="92" t="s">
-        <v>805</v>
-      </c>
-      <c r="H185" s="92" t="s">
+      <c r="D185" s="91" t="s">
         <v>816</v>
+      </c>
+      <c r="E185" s="91" t="s">
+        <v>817</v>
+      </c>
+      <c r="F185" s="91"/>
+      <c r="G185" s="91" t="s">
+        <v>807</v>
+      </c>
+      <c r="H185" s="91" t="s">
+        <v>818</v>
       </c>
       <c r="I185" s="7"/>
       <c r="J185" s="7"/>
       <c r="K185" s="7"/>
     </row>
     <row r="186">
-      <c r="A186" s="111" t="s">
-        <v>817</v>
+      <c r="A186" s="110" t="s">
+        <v>819</v>
       </c>
       <c r="B186" s="72" t="s">
         <v>369</v>
       </c>
-      <c r="C186" s="158" t="s">
+      <c r="C186" s="157" t="s">
         <v>176</v>
       </c>
-      <c r="D186" s="92"/>
-      <c r="E186" s="92" t="s">
-        <v>818</v>
-      </c>
-      <c r="F186" s="92"/>
-      <c r="G186" s="142" t="s">
-        <v>809</v>
-      </c>
-      <c r="H186" s="142" t="s">
-        <v>819</v>
+      <c r="D186" s="91"/>
+      <c r="E186" s="91" t="s">
+        <v>820</v>
+      </c>
+      <c r="F186" s="91"/>
+      <c r="G186" s="158" t="s">
+        <v>811</v>
+      </c>
+      <c r="H186" s="158" t="s">
+        <v>821</v>
       </c>
       <c r="I186" s="7"/>
       <c r="J186" s="7"/>
       <c r="K186" s="7"/>
     </row>
     <row r="187">
-      <c r="A187" s="101" t="s">
-        <v>820</v>
+      <c r="A187" s="100" t="s">
+        <v>822</v>
       </c>
       <c r="B187" s="84" t="s">
-        <v>821</v>
-      </c>
-      <c r="C187" s="92" t="s">
-        <v>822</v>
-      </c>
-      <c r="D187" s="92" t="s">
         <v>823</v>
       </c>
-      <c r="E187" s="92" t="s">
+      <c r="C187" s="91" t="s">
         <v>824</v>
       </c>
-      <c r="F187" s="92"/>
-      <c r="G187" s="92" t="s">
+      <c r="D187" s="91" t="s">
         <v>825</v>
       </c>
-      <c r="H187" s="92" t="s">
+      <c r="E187" s="91" t="s">
         <v>826</v>
+      </c>
+      <c r="F187" s="91"/>
+      <c r="G187" s="91" t="s">
+        <v>827</v>
+      </c>
+      <c r="H187" s="91" t="s">
+        <v>828</v>
       </c>
       <c r="I187" s="7"/>
       <c r="J187" s="7"/>
       <c r="K187" s="7"/>
     </row>
     <row r="188">
-      <c r="A188" s="133" t="s">
-        <v>827</v>
+      <c r="A188" s="132" t="s">
+        <v>829</v>
       </c>
       <c r="B188" s="159" t="s">
-        <v>828</v>
+        <v>830</v>
       </c>
       <c r="C188" s="7"/>
-      <c r="D188" s="7"/>
+      <c r="D188" s="83"/>
       <c r="E188" s="7"/>
       <c r="F188" s="7"/>
       <c r="G188" s="7"/>
@@ -16660,15 +16705,15 @@
     </row>
     <row r="189">
       <c r="A189" s="38" t="s">
-        <v>829</v>
+        <v>831</v>
       </c>
       <c r="B189" s="160" t="s">
-        <v>830</v>
-      </c>
-      <c r="C189" s="127"/>
+        <v>832</v>
+      </c>
+      <c r="C189" s="126"/>
       <c r="D189" s="85"/>
       <c r="E189" s="161"/>
-      <c r="F189" s="120"/>
+      <c r="F189" s="119"/>
       <c r="G189" s="86"/>
       <c r="H189" s="86"/>
       <c r="I189" s="7"/>
@@ -16677,24 +16722,24 @@
     </row>
     <row r="190">
       <c r="A190" s="47" t="s">
-        <v>831</v>
-      </c>
-      <c r="B190" s="151" t="s">
-        <v>832</v>
-      </c>
-      <c r="C190" s="127" t="s">
         <v>833</v>
+      </c>
+      <c r="B190" s="150" t="s">
+        <v>834</v>
+      </c>
+      <c r="C190" s="126" t="s">
+        <v>835</v>
       </c>
       <c r="D190" s="85"/>
       <c r="E190" s="161" t="s">
-        <v>834</v>
-      </c>
-      <c r="F190" s="120"/>
+        <v>836</v>
+      </c>
+      <c r="F190" s="119"/>
       <c r="G190" s="7" t="s">
-        <v>835</v>
+        <v>837</v>
       </c>
       <c r="H190" s="33" t="s">
-        <v>836</v>
+        <v>838</v>
       </c>
       <c r="I190" s="7"/>
       <c r="J190" s="7"/>
@@ -16702,24 +16747,24 @@
     </row>
     <row r="191">
       <c r="A191" s="47" t="s">
-        <v>837</v>
-      </c>
-      <c r="B191" s="151" t="s">
-        <v>838</v>
-      </c>
-      <c r="C191" s="127" t="s">
         <v>839</v>
+      </c>
+      <c r="B191" s="150" t="s">
+        <v>840</v>
+      </c>
+      <c r="C191" s="126" t="s">
+        <v>841</v>
       </c>
       <c r="D191" s="85"/>
       <c r="E191" s="161" t="s">
-        <v>840</v>
-      </c>
-      <c r="F191" s="120"/>
+        <v>842</v>
+      </c>
+      <c r="F191" s="119"/>
       <c r="G191" s="7" t="s">
-        <v>835</v>
+        <v>837</v>
       </c>
       <c r="H191" s="33" t="s">
-        <v>841</v>
+        <v>843</v>
       </c>
       <c r="I191" s="7"/>
       <c r="J191" s="7"/>
@@ -16727,32 +16772,32 @@
     </row>
     <row r="192">
       <c r="A192" s="47" t="s">
-        <v>842</v>
-      </c>
-      <c r="B192" s="151" t="s">
-        <v>843</v>
-      </c>
-      <c r="C192" s="127" t="s">
         <v>844</v>
+      </c>
+      <c r="B192" s="150" t="s">
+        <v>845</v>
+      </c>
+      <c r="C192" s="126" t="s">
+        <v>846</v>
       </c>
       <c r="D192" s="85"/>
       <c r="E192" s="161" t="s">
-        <v>845</v>
-      </c>
-      <c r="F192" s="120"/>
+        <v>847</v>
+      </c>
+      <c r="F192" s="119"/>
       <c r="G192" s="7" t="s">
-        <v>835</v>
+        <v>837</v>
       </c>
       <c r="H192" s="33" t="s">
-        <v>846</v>
+        <v>848</v>
       </c>
       <c r="I192" s="7"/>
       <c r="J192" s="7"/>
       <c r="K192" s="7"/>
     </row>
     <row r="193">
-      <c r="A193" s="134" t="s">
-        <v>847</v>
+      <c r="A193" s="133" t="s">
+        <v>849</v>
       </c>
       <c r="B193" s="160" t="s">
         <v>534</v>
@@ -16763,33 +16808,33 @@
       <c r="D193" s="7" t="s">
         <v>536</v>
       </c>
-      <c r="E193" s="153" t="s">
-        <v>848</v>
-      </c>
-      <c r="F193" s="153"/>
+      <c r="E193" s="152" t="s">
+        <v>850</v>
+      </c>
+      <c r="F193" s="152"/>
       <c r="G193" s="162" t="s">
         <v>324</v>
       </c>
       <c r="H193" s="163" t="s">
-        <v>849</v>
+        <v>851</v>
       </c>
       <c r="I193" s="7"/>
       <c r="J193" s="7"/>
       <c r="K193" s="7"/>
     </row>
     <row r="194">
-      <c r="A194" s="134" t="s">
-        <v>850</v>
+      <c r="A194" s="133" t="s">
+        <v>852</v>
       </c>
       <c r="B194" s="160" t="s">
-        <v>851</v>
+        <v>853</v>
       </c>
       <c r="C194" s="140" t="s">
-        <v>664</v>
-      </c>
-      <c r="D194" s="7"/>
-      <c r="E194" s="120"/>
-      <c r="F194" s="120"/>
+        <v>666</v>
+      </c>
+      <c r="D194" s="83"/>
+      <c r="E194" s="119"/>
+      <c r="F194" s="119"/>
       <c r="G194" s="7"/>
       <c r="H194" s="7"/>
       <c r="I194" s="7"/>
@@ -16798,17 +16843,17 @@
     </row>
     <row r="195">
       <c r="A195" s="49" t="s">
-        <v>852</v>
-      </c>
-      <c r="B195" s="151" t="s">
-        <v>853</v>
+        <v>854</v>
+      </c>
+      <c r="B195" s="150" t="s">
+        <v>855</v>
       </c>
       <c r="C195" s="164" t="s">
-        <v>664</v>
-      </c>
-      <c r="D195" s="7"/>
+        <v>666</v>
+      </c>
+      <c r="D195" s="83"/>
       <c r="E195" s="83" t="s">
-        <v>854</v>
+        <v>856</v>
       </c>
       <c r="F195" s="86"/>
       <c r="G195" s="14" t="s">
@@ -16822,8 +16867,8 @@
       <c r="K195" s="7"/>
     </row>
     <row r="196">
-      <c r="A196" s="101" t="s">
-        <v>855</v>
+      <c r="A196" s="100" t="s">
+        <v>857</v>
       </c>
       <c r="B196" s="84" t="s">
         <v>55</v>
@@ -16835,22 +16880,22 @@
         <v>57</v>
       </c>
       <c r="E196" s="86" t="s">
-        <v>856</v>
+        <v>858</v>
       </c>
       <c r="F196" s="86"/>
       <c r="G196" s="83" t="s">
         <v>59</v>
       </c>
       <c r="H196" s="83" t="s">
-        <v>857</v>
+        <v>859</v>
       </c>
       <c r="I196" s="7"/>
       <c r="J196" s="7"/>
       <c r="K196" s="7"/>
     </row>
     <row r="197">
-      <c r="A197" s="101" t="s">
-        <v>858</v>
+      <c r="A197" s="100" t="s">
+        <v>860</v>
       </c>
       <c r="B197" s="84" t="s">
         <v>69</v>
@@ -16862,22 +16907,22 @@
         <v>71</v>
       </c>
       <c r="E197" s="86" t="s">
-        <v>859</v>
+        <v>861</v>
       </c>
       <c r="F197" s="86"/>
       <c r="G197" s="83" t="s">
         <v>73</v>
       </c>
       <c r="H197" s="83" t="s">
-        <v>860</v>
+        <v>862</v>
       </c>
       <c r="I197" s="7"/>
       <c r="J197" s="7"/>
       <c r="K197" s="7"/>
     </row>
     <row r="198">
-      <c r="A198" s="101" t="s">
-        <v>861</v>
+      <c r="A198" s="100" t="s">
+        <v>863</v>
       </c>
       <c r="B198" s="84" t="s">
         <v>76</v>
@@ -16889,22 +16934,22 @@
         <v>78</v>
       </c>
       <c r="E198" s="86" t="s">
-        <v>862</v>
+        <v>864</v>
       </c>
       <c r="F198" s="86"/>
       <c r="G198" s="83" t="s">
         <v>73</v>
       </c>
       <c r="H198" s="83" t="s">
-        <v>863</v>
+        <v>865</v>
       </c>
       <c r="I198" s="7"/>
       <c r="J198" s="7"/>
       <c r="K198" s="7"/>
     </row>
     <row r="199">
-      <c r="A199" s="101" t="s">
-        <v>864</v>
+      <c r="A199" s="100" t="s">
+        <v>866</v>
       </c>
       <c r="B199" s="84" t="s">
         <v>90</v>
@@ -16913,25 +16958,25 @@
         <v>91</v>
       </c>
       <c r="D199" s="86" t="s">
-        <v>749</v>
+        <v>751</v>
       </c>
       <c r="E199" s="86" t="s">
-        <v>865</v>
+        <v>867</v>
       </c>
       <c r="F199" s="86"/>
       <c r="G199" s="83" t="s">
-        <v>866</v>
+        <v>868</v>
       </c>
       <c r="H199" s="83" t="s">
-        <v>867</v>
+        <v>869</v>
       </c>
       <c r="I199" s="7"/>
       <c r="J199" s="7"/>
       <c r="K199" s="7"/>
     </row>
     <row r="200">
-      <c r="A200" s="101" t="s">
-        <v>868</v>
+      <c r="A200" s="100" t="s">
+        <v>870</v>
       </c>
       <c r="B200" s="84" t="s">
         <v>97</v>
@@ -16943,22 +16988,22 @@
         <v>99</v>
       </c>
       <c r="E200" s="86" t="s">
-        <v>869</v>
+        <v>871</v>
       </c>
       <c r="F200" s="86"/>
       <c r="G200" s="86" t="s">
         <v>101</v>
       </c>
       <c r="H200" s="86" t="s">
-        <v>870</v>
+        <v>872</v>
       </c>
       <c r="I200" s="7"/>
       <c r="J200" s="7"/>
       <c r="K200" s="7"/>
     </row>
     <row r="201">
-      <c r="A201" s="101" t="s">
-        <v>871</v>
+      <c r="A201" s="100" t="s">
+        <v>873</v>
       </c>
       <c r="B201" s="84" t="s">
         <v>117</v>
@@ -16970,22 +17015,22 @@
         <v>119</v>
       </c>
       <c r="E201" s="86" t="s">
-        <v>872</v>
+        <v>874</v>
       </c>
       <c r="F201" s="86"/>
       <c r="G201" s="86" t="s">
-        <v>757</v>
+        <v>759</v>
       </c>
       <c r="H201" s="86" t="s">
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="I201" s="7"/>
       <c r="J201" s="7"/>
       <c r="K201" s="7"/>
     </row>
     <row r="202">
-      <c r="A202" s="101" t="s">
-        <v>873</v>
+      <c r="A202" s="100" t="s">
+        <v>875</v>
       </c>
       <c r="B202" s="84" t="s">
         <v>111</v>
@@ -16997,25 +17042,25 @@
         <v>113</v>
       </c>
       <c r="E202" s="86" t="s">
-        <v>874</v>
+        <v>876</v>
       </c>
       <c r="F202" s="86"/>
       <c r="G202" s="86" t="s">
-        <v>761</v>
+        <v>763</v>
       </c>
       <c r="H202" s="86" t="s">
-        <v>762</v>
+        <v>764</v>
       </c>
       <c r="I202" s="7"/>
       <c r="J202" s="7"/>
       <c r="K202" s="7"/>
     </row>
     <row r="203">
-      <c r="A203" s="101" t="s">
-        <v>875</v>
+      <c r="A203" s="100" t="s">
+        <v>877</v>
       </c>
       <c r="B203" s="84" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="C203" s="86" t="s">
         <v>133</v>
@@ -17024,22 +17069,22 @@
         <v>134</v>
       </c>
       <c r="E203" s="86" t="s">
-        <v>876</v>
+        <v>878</v>
       </c>
       <c r="F203" s="86"/>
-      <c r="G203" s="98" t="s">
-        <v>757</v>
-      </c>
-      <c r="H203" s="98" t="s">
-        <v>877</v>
+      <c r="G203" s="97" t="s">
+        <v>759</v>
+      </c>
+      <c r="H203" s="97" t="s">
+        <v>879</v>
       </c>
       <c r="I203" s="7"/>
       <c r="J203" s="7"/>
       <c r="K203" s="7"/>
     </row>
     <row r="204">
-      <c r="A204" s="101" t="s">
-        <v>878</v>
+      <c r="A204" s="100" t="s">
+        <v>880</v>
       </c>
       <c r="B204" s="84" t="s">
         <v>124</v>
@@ -17051,14 +17096,14 @@
         <v>126</v>
       </c>
       <c r="E204" s="86" t="s">
-        <v>879</v>
+        <v>881</v>
       </c>
       <c r="F204" s="86"/>
       <c r="G204" s="86" t="s">
-        <v>761</v>
+        <v>763</v>
       </c>
       <c r="H204" s="86" t="s">
-        <v>769</v>
+        <v>771</v>
       </c>
       <c r="I204" s="7"/>
       <c r="J204" s="7"/>
@@ -17066,21 +17111,21 @@
     </row>
     <row r="205">
       <c r="A205" s="49" t="s">
-        <v>880</v>
-      </c>
-      <c r="B205" s="151" t="s">
-        <v>881</v>
+        <v>882</v>
+      </c>
+      <c r="B205" s="150" t="s">
+        <v>883</v>
       </c>
       <c r="C205" s="164" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="D205" s="165"/>
       <c r="E205" s="83" t="s">
-        <v>882</v>
+        <v>884</v>
       </c>
       <c r="F205" s="14"/>
       <c r="G205" s="14" t="s">
-        <v>883</v>
+        <v>885</v>
       </c>
       <c r="H205" s="14" t="s">
         <v>178</v>
@@ -17090,8 +17135,8 @@
       <c r="K205" s="7"/>
     </row>
     <row r="206">
-      <c r="A206" s="101" t="s">
-        <v>884</v>
+      <c r="A206" s="100" t="s">
+        <v>886</v>
       </c>
       <c r="B206" s="84" t="s">
         <v>55</v>
@@ -17103,22 +17148,22 @@
         <v>57</v>
       </c>
       <c r="E206" s="86" t="s">
-        <v>885</v>
+        <v>887</v>
       </c>
       <c r="F206" s="86"/>
       <c r="G206" s="83" t="s">
         <v>59</v>
       </c>
       <c r="H206" s="83" t="s">
-        <v>886</v>
+        <v>888</v>
       </c>
       <c r="I206" s="7"/>
       <c r="J206" s="7"/>
       <c r="K206" s="7"/>
     </row>
     <row r="207">
-      <c r="A207" s="101" t="s">
-        <v>887</v>
+      <c r="A207" s="100" t="s">
+        <v>889</v>
       </c>
       <c r="B207" s="84" t="s">
         <v>69</v>
@@ -17130,22 +17175,22 @@
         <v>71</v>
       </c>
       <c r="E207" s="86" t="s">
-        <v>888</v>
+        <v>890</v>
       </c>
       <c r="F207" s="86"/>
       <c r="G207" s="83" t="s">
         <v>73</v>
       </c>
       <c r="H207" s="83" t="s">
-        <v>889</v>
+        <v>891</v>
       </c>
       <c r="I207" s="7"/>
       <c r="J207" s="7"/>
       <c r="K207" s="7"/>
     </row>
     <row r="208">
-      <c r="A208" s="101" t="s">
-        <v>890</v>
+      <c r="A208" s="100" t="s">
+        <v>892</v>
       </c>
       <c r="B208" s="84" t="s">
         <v>76</v>
@@ -17157,22 +17202,22 @@
         <v>78</v>
       </c>
       <c r="E208" s="86" t="s">
-        <v>891</v>
+        <v>893</v>
       </c>
       <c r="F208" s="86"/>
       <c r="G208" s="83" t="s">
         <v>73</v>
       </c>
       <c r="H208" s="83" t="s">
-        <v>892</v>
+        <v>894</v>
       </c>
       <c r="I208" s="7"/>
       <c r="J208" s="7"/>
       <c r="K208" s="7"/>
     </row>
     <row r="209">
-      <c r="A209" s="101" t="s">
-        <v>893</v>
+      <c r="A209" s="100" t="s">
+        <v>895</v>
       </c>
       <c r="B209" s="84" t="s">
         <v>90</v>
@@ -17181,25 +17226,25 @@
         <v>91</v>
       </c>
       <c r="D209" s="86" t="s">
-        <v>749</v>
+        <v>751</v>
       </c>
       <c r="E209" s="86" t="s">
-        <v>894</v>
+        <v>896</v>
       </c>
       <c r="F209" s="86"/>
       <c r="G209" s="83" t="s">
         <v>94</v>
       </c>
       <c r="H209" s="83" t="s">
-        <v>895</v>
+        <v>897</v>
       </c>
       <c r="I209" s="7"/>
       <c r="J209" s="7"/>
       <c r="K209" s="7"/>
     </row>
     <row r="210">
-      <c r="A210" s="101" t="s">
-        <v>896</v>
+      <c r="A210" s="100" t="s">
+        <v>898</v>
       </c>
       <c r="B210" s="84" t="s">
         <v>97</v>
@@ -17211,22 +17256,22 @@
         <v>99</v>
       </c>
       <c r="E210" s="86" t="s">
-        <v>897</v>
+        <v>899</v>
       </c>
       <c r="F210" s="86"/>
       <c r="G210" s="83" t="s">
         <v>101</v>
       </c>
       <c r="H210" s="83" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="I210" s="7"/>
       <c r="J210" s="7"/>
       <c r="K210" s="7"/>
     </row>
     <row r="211">
-      <c r="A211" s="101" t="s">
-        <v>899</v>
+      <c r="A211" s="100" t="s">
+        <v>901</v>
       </c>
       <c r="B211" s="84" t="s">
         <v>117</v>
@@ -17238,22 +17283,22 @@
         <v>119</v>
       </c>
       <c r="E211" s="86" t="s">
-        <v>900</v>
+        <v>902</v>
       </c>
       <c r="F211" s="86"/>
       <c r="G211" s="86" t="s">
-        <v>757</v>
+        <v>759</v>
       </c>
       <c r="H211" s="86" t="s">
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="I211" s="7"/>
       <c r="J211" s="7"/>
       <c r="K211" s="7"/>
     </row>
     <row r="212">
-      <c r="A212" s="101" t="s">
-        <v>901</v>
+      <c r="A212" s="100" t="s">
+        <v>903</v>
       </c>
       <c r="B212" s="84" t="s">
         <v>111</v>
@@ -17265,25 +17310,25 @@
         <v>113</v>
       </c>
       <c r="E212" s="86" t="s">
-        <v>902</v>
+        <v>904</v>
       </c>
       <c r="F212" s="86"/>
       <c r="G212" s="86" t="s">
-        <v>761</v>
+        <v>763</v>
       </c>
       <c r="H212" s="86" t="s">
-        <v>762</v>
+        <v>764</v>
       </c>
       <c r="I212" s="7"/>
       <c r="J212" s="7"/>
       <c r="K212" s="7"/>
     </row>
     <row r="213">
-      <c r="A213" s="101" t="s">
-        <v>903</v>
+      <c r="A213" s="100" t="s">
+        <v>905</v>
       </c>
       <c r="B213" s="84" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="C213" s="86" t="s">
         <v>133</v>
@@ -17292,22 +17337,22 @@
         <v>134</v>
       </c>
       <c r="E213" s="86" t="s">
-        <v>904</v>
+        <v>906</v>
       </c>
       <c r="F213" s="86"/>
-      <c r="G213" s="98" t="s">
-        <v>757</v>
-      </c>
-      <c r="H213" s="98" t="s">
-        <v>905</v>
+      <c r="G213" s="97" t="s">
+        <v>759</v>
+      </c>
+      <c r="H213" s="97" t="s">
+        <v>907</v>
       </c>
       <c r="I213" s="7"/>
       <c r="J213" s="7"/>
       <c r="K213" s="7"/>
     </row>
     <row r="214">
-      <c r="A214" s="101" t="s">
-        <v>906</v>
+      <c r="A214" s="100" t="s">
+        <v>908</v>
       </c>
       <c r="B214" s="84" t="s">
         <v>124</v>
@@ -17319,14 +17364,14 @@
         <v>126</v>
       </c>
       <c r="E214" s="86" t="s">
-        <v>907</v>
+        <v>909</v>
       </c>
       <c r="F214" s="86"/>
       <c r="G214" s="86" t="s">
-        <v>761</v>
+        <v>763</v>
       </c>
       <c r="H214" s="86" t="s">
-        <v>769</v>
+        <v>771</v>
       </c>
       <c r="I214" s="7"/>
       <c r="J214" s="7"/>
@@ -17334,26 +17379,26 @@
     </row>
     <row r="215">
       <c r="A215" s="49" t="s">
-        <v>908</v>
-      </c>
-      <c r="B215" s="151" t="s">
-        <v>909</v>
+        <v>910</v>
+      </c>
+      <c r="B215" s="150" t="s">
+        <v>911</v>
       </c>
       <c r="C215" s="86" t="s">
-        <v>910</v>
+        <v>912</v>
       </c>
       <c r="D215" s="86" t="s">
-        <v>911</v>
+        <v>913</v>
       </c>
       <c r="E215" s="86" t="s">
-        <v>912</v>
+        <v>914</v>
       </c>
       <c r="F215" s="86"/>
       <c r="G215" s="162" t="s">
-        <v>913</v>
+        <v>915</v>
       </c>
       <c r="H215" s="163" t="s">
-        <v>914</v>
+        <v>916</v>
       </c>
       <c r="I215" s="7"/>
       <c r="J215" s="7"/>
@@ -17361,15 +17406,15 @@
     </row>
     <row r="216">
       <c r="A216" s="49" t="s">
-        <v>915</v>
-      </c>
-      <c r="B216" s="151" t="s">
-        <v>916</v>
+        <v>917</v>
+      </c>
+      <c r="B216" s="150" t="s">
+        <v>918</v>
       </c>
       <c r="C216" s="7"/>
-      <c r="D216" s="7"/>
+      <c r="D216" s="83"/>
       <c r="E216" s="83" t="s">
-        <v>917</v>
+        <v>919</v>
       </c>
       <c r="F216" s="14"/>
       <c r="G216" s="14" t="s">
@@ -17383,8 +17428,8 @@
       <c r="K216" s="7"/>
     </row>
     <row r="217">
-      <c r="A217" s="101" t="s">
-        <v>918</v>
+      <c r="A217" s="100" t="s">
+        <v>920</v>
       </c>
       <c r="B217" s="84" t="s">
         <v>55</v>
@@ -17396,22 +17441,22 @@
         <v>57</v>
       </c>
       <c r="E217" s="86" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="F217" s="86"/>
       <c r="G217" s="83" t="s">
         <v>59</v>
       </c>
       <c r="H217" s="83" t="s">
-        <v>920</v>
+        <v>922</v>
       </c>
       <c r="I217" s="7"/>
       <c r="J217" s="7"/>
       <c r="K217" s="7"/>
     </row>
     <row r="218">
-      <c r="A218" s="101" t="s">
-        <v>921</v>
+      <c r="A218" s="100" t="s">
+        <v>923</v>
       </c>
       <c r="B218" s="84" t="s">
         <v>69</v>
@@ -17423,22 +17468,22 @@
         <v>71</v>
       </c>
       <c r="E218" s="86" t="s">
-        <v>922</v>
+        <v>924</v>
       </c>
       <c r="F218" s="86"/>
       <c r="G218" s="83" t="s">
         <v>73</v>
       </c>
       <c r="H218" s="83" t="s">
-        <v>923</v>
+        <v>925</v>
       </c>
       <c r="I218" s="7"/>
       <c r="J218" s="7"/>
       <c r="K218" s="7"/>
     </row>
     <row r="219">
-      <c r="A219" s="101" t="s">
-        <v>924</v>
+      <c r="A219" s="100" t="s">
+        <v>926</v>
       </c>
       <c r="B219" s="84" t="s">
         <v>76</v>
@@ -17450,22 +17495,22 @@
         <v>78</v>
       </c>
       <c r="E219" s="86" t="s">
-        <v>925</v>
+        <v>927</v>
       </c>
       <c r="F219" s="86"/>
       <c r="G219" s="83" t="s">
         <v>73</v>
       </c>
-      <c r="H219" s="147" t="s">
-        <v>926</v>
+      <c r="H219" s="146" t="s">
+        <v>928</v>
       </c>
       <c r="I219" s="7"/>
       <c r="J219" s="7"/>
       <c r="K219" s="7"/>
     </row>
     <row r="220">
-      <c r="A220" s="101" t="s">
-        <v>927</v>
+      <c r="A220" s="100" t="s">
+        <v>929</v>
       </c>
       <c r="B220" s="84" t="s">
         <v>90</v>
@@ -17474,25 +17519,25 @@
         <v>91</v>
       </c>
       <c r="D220" s="86" t="s">
-        <v>749</v>
+        <v>751</v>
       </c>
       <c r="E220" s="86" t="s">
-        <v>928</v>
+        <v>930</v>
       </c>
       <c r="F220" s="86"/>
       <c r="G220" s="83" t="s">
         <v>94</v>
       </c>
-      <c r="H220" s="147" t="s">
-        <v>929</v>
+      <c r="H220" s="146" t="s">
+        <v>931</v>
       </c>
       <c r="I220" s="7"/>
       <c r="J220" s="7"/>
       <c r="K220" s="7"/>
     </row>
     <row r="221">
-      <c r="A221" s="101" t="s">
-        <v>930</v>
+      <c r="A221" s="100" t="s">
+        <v>932</v>
       </c>
       <c r="B221" s="84" t="s">
         <v>97</v>
@@ -17504,22 +17549,22 @@
         <v>99</v>
       </c>
       <c r="E221" s="86" t="s">
-        <v>931</v>
+        <v>933</v>
       </c>
       <c r="F221" s="86"/>
       <c r="G221" s="86" t="s">
         <v>101</v>
       </c>
       <c r="H221" s="86" t="s">
-        <v>932</v>
+        <v>934</v>
       </c>
       <c r="I221" s="7"/>
       <c r="J221" s="7"/>
       <c r="K221" s="7"/>
     </row>
     <row r="222">
-      <c r="A222" s="101" t="s">
-        <v>933</v>
+      <c r="A222" s="100" t="s">
+        <v>935</v>
       </c>
       <c r="B222" s="84" t="s">
         <v>117</v>
@@ -17531,22 +17576,22 @@
         <v>119</v>
       </c>
       <c r="E222" s="86" t="s">
-        <v>934</v>
+        <v>936</v>
       </c>
       <c r="F222" s="86"/>
       <c r="G222" s="86" t="s">
-        <v>757</v>
-      </c>
-      <c r="H222" s="150" t="s">
-        <v>758</v>
+        <v>759</v>
+      </c>
+      <c r="H222" s="149" t="s">
+        <v>760</v>
       </c>
       <c r="I222" s="7"/>
       <c r="J222" s="7"/>
       <c r="K222" s="7"/>
     </row>
     <row r="223">
-      <c r="A223" s="101" t="s">
-        <v>935</v>
+      <c r="A223" s="100" t="s">
+        <v>937</v>
       </c>
       <c r="B223" s="84" t="s">
         <v>111</v>
@@ -17558,25 +17603,25 @@
         <v>113</v>
       </c>
       <c r="E223" s="86" t="s">
-        <v>936</v>
+        <v>938</v>
       </c>
       <c r="F223" s="86"/>
       <c r="G223" s="86" t="s">
-        <v>761</v>
+        <v>763</v>
       </c>
       <c r="H223" s="86" t="s">
-        <v>762</v>
+        <v>764</v>
       </c>
       <c r="I223" s="7"/>
       <c r="J223" s="7"/>
       <c r="K223" s="7"/>
     </row>
     <row r="224">
-      <c r="A224" s="101" t="s">
-        <v>937</v>
+      <c r="A224" s="100" t="s">
+        <v>939</v>
       </c>
       <c r="B224" s="84" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="C224" s="86" t="s">
         <v>133</v>
@@ -17585,22 +17630,22 @@
         <v>134</v>
       </c>
       <c r="E224" s="86" t="s">
-        <v>938</v>
+        <v>940</v>
       </c>
       <c r="F224" s="86"/>
-      <c r="G224" s="98" t="s">
-        <v>757</v>
-      </c>
-      <c r="H224" s="98" t="s">
-        <v>939</v>
+      <c r="G224" s="97" t="s">
+        <v>759</v>
+      </c>
+      <c r="H224" s="97" t="s">
+        <v>941</v>
       </c>
       <c r="I224" s="7"/>
       <c r="J224" s="7"/>
       <c r="K224" s="7"/>
     </row>
     <row r="225">
-      <c r="A225" s="101" t="s">
-        <v>940</v>
+      <c r="A225" s="100" t="s">
+        <v>942</v>
       </c>
       <c r="B225" s="84" t="s">
         <v>124</v>
@@ -17612,286 +17657,286 @@
         <v>126</v>
       </c>
       <c r="E225" s="86" t="s">
-        <v>941</v>
+        <v>943</v>
       </c>
       <c r="F225" s="86"/>
       <c r="G225" s="86" t="s">
-        <v>761</v>
+        <v>763</v>
       </c>
       <c r="H225" s="86" t="s">
-        <v>769</v>
+        <v>771</v>
       </c>
       <c r="I225" s="7"/>
       <c r="J225" s="7"/>
       <c r="K225" s="7"/>
     </row>
     <row r="226">
-      <c r="A226" s="134" t="s">
-        <v>942</v>
+      <c r="A226" s="133" t="s">
+        <v>944</v>
       </c>
       <c r="B226" s="160" t="s">
-        <v>943</v>
+        <v>945</v>
       </c>
       <c r="C226" s="166" t="s">
-        <v>944</v>
+        <v>946</v>
       </c>
       <c r="D226" s="166" t="s">
-        <v>945</v>
+        <v>947</v>
       </c>
       <c r="E226" s="167" t="s">
-        <v>946</v>
+        <v>948</v>
       </c>
       <c r="F226" s="167"/>
       <c r="G226" s="83" t="s">
-        <v>947</v>
+        <v>949</v>
       </c>
       <c r="H226" s="168" t="s">
-        <v>948</v>
+        <v>950</v>
       </c>
       <c r="I226" s="7"/>
       <c r="J226" s="7"/>
       <c r="K226" s="7"/>
     </row>
     <row r="227">
-      <c r="A227" s="113" t="s">
-        <v>949</v>
-      </c>
-      <c r="B227" s="92" t="s">
-        <v>950</v>
+      <c r="A227" s="112" t="s">
+        <v>951</v>
+      </c>
+      <c r="B227" s="91" t="s">
+        <v>952</v>
       </c>
       <c r="C227" s="169" t="s">
-        <v>664</v>
-      </c>
-      <c r="D227" s="92"/>
-      <c r="E227" s="92" t="s">
-        <v>951</v>
-      </c>
-      <c r="F227" s="92"/>
-      <c r="G227" s="92"/>
-      <c r="H227" s="92"/>
+        <v>666</v>
+      </c>
+      <c r="D227" s="91"/>
+      <c r="E227" s="91" t="s">
+        <v>953</v>
+      </c>
+      <c r="F227" s="91"/>
+      <c r="G227" s="91"/>
+      <c r="H227" s="91"/>
       <c r="I227" s="7"/>
       <c r="J227" s="7"/>
       <c r="K227" s="7"/>
     </row>
     <row r="228">
-      <c r="A228" s="113" t="s">
-        <v>952</v>
-      </c>
-      <c r="B228" s="92" t="s">
-        <v>953</v>
-      </c>
-      <c r="C228" s="92"/>
-      <c r="D228" s="92"/>
-      <c r="E228" s="92" t="s">
+      <c r="A228" s="112" t="s">
         <v>954</v>
       </c>
-      <c r="F228" s="92"/>
-      <c r="G228" s="92" t="s">
+      <c r="B228" s="91" t="s">
         <v>955</v>
       </c>
-      <c r="H228" s="92" t="s">
+      <c r="C228" s="91"/>
+      <c r="D228" s="91"/>
+      <c r="E228" s="91" t="s">
         <v>956</v>
+      </c>
+      <c r="F228" s="91"/>
+      <c r="G228" s="91" t="s">
+        <v>957</v>
+      </c>
+      <c r="H228" s="91" t="s">
+        <v>958</v>
       </c>
       <c r="I228" s="7"/>
       <c r="J228" s="7"/>
       <c r="K228" s="7"/>
     </row>
     <row r="229">
-      <c r="A229" s="113" t="s">
-        <v>957</v>
-      </c>
-      <c r="B229" s="142" t="s">
-        <v>958</v>
-      </c>
-      <c r="C229" s="92" t="s">
-        <v>664</v>
-      </c>
-      <c r="D229" s="92"/>
-      <c r="E229" s="92"/>
-      <c r="F229" s="92"/>
-      <c r="G229" s="92"/>
-      <c r="H229" s="92"/>
+      <c r="A229" s="112" t="s">
+        <v>959</v>
+      </c>
+      <c r="B229" s="158" t="s">
+        <v>960</v>
+      </c>
+      <c r="C229" s="91" t="s">
+        <v>666</v>
+      </c>
+      <c r="D229" s="91"/>
+      <c r="E229" s="91"/>
+      <c r="F229" s="91"/>
+      <c r="G229" s="91"/>
+      <c r="H229" s="91"/>
       <c r="I229" s="7"/>
       <c r="J229" s="7"/>
       <c r="K229" s="7"/>
     </row>
     <row r="230">
-      <c r="A230" s="113" t="s">
-        <v>959</v>
-      </c>
-      <c r="B230" s="92" t="s">
-        <v>960</v>
-      </c>
-      <c r="C230" s="92"/>
-      <c r="D230" s="92"/>
-      <c r="E230" s="92" t="s">
+      <c r="A230" s="112" t="s">
         <v>961</v>
       </c>
-      <c r="F230" s="92"/>
-      <c r="G230" s="92" t="s">
-        <v>955</v>
-      </c>
-      <c r="H230" s="92" t="s">
+      <c r="B230" s="91" t="s">
         <v>962</v>
+      </c>
+      <c r="C230" s="91"/>
+      <c r="D230" s="91"/>
+      <c r="E230" s="91" t="s">
+        <v>963</v>
+      </c>
+      <c r="F230" s="91"/>
+      <c r="G230" s="91" t="s">
+        <v>957</v>
+      </c>
+      <c r="H230" s="91" t="s">
+        <v>964</v>
       </c>
       <c r="I230" s="7"/>
       <c r="J230" s="7"/>
       <c r="K230" s="7"/>
     </row>
     <row r="231">
-      <c r="A231" s="113" t="s">
-        <v>963</v>
-      </c>
-      <c r="B231" s="92" t="s">
-        <v>964</v>
-      </c>
-      <c r="C231" s="92"/>
-      <c r="D231" s="92"/>
-      <c r="E231" s="92" t="s">
+      <c r="A231" s="112" t="s">
         <v>965</v>
       </c>
-      <c r="F231" s="92"/>
-      <c r="G231" s="92" t="s">
-        <v>955</v>
-      </c>
-      <c r="H231" s="92" t="s">
+      <c r="B231" s="91" t="s">
         <v>966</v>
+      </c>
+      <c r="C231" s="91"/>
+      <c r="D231" s="91"/>
+      <c r="E231" s="91" t="s">
+        <v>967</v>
+      </c>
+      <c r="F231" s="91"/>
+      <c r="G231" s="91" t="s">
+        <v>957</v>
+      </c>
+      <c r="H231" s="91" t="s">
+        <v>968</v>
       </c>
       <c r="I231" s="7"/>
       <c r="J231" s="7"/>
       <c r="K231" s="7"/>
     </row>
     <row r="232">
-      <c r="A232" s="113" t="s">
-        <v>967</v>
-      </c>
-      <c r="B232" s="92" t="s">
-        <v>968</v>
-      </c>
-      <c r="C232" s="92"/>
-      <c r="D232" s="92"/>
-      <c r="E232" s="92" t="s">
+      <c r="A232" s="112" t="s">
         <v>969</v>
       </c>
-      <c r="F232" s="92"/>
-      <c r="G232" s="92" t="s">
-        <v>955</v>
+      <c r="B232" s="91" t="s">
+        <v>970</v>
+      </c>
+      <c r="C232" s="91"/>
+      <c r="D232" s="91"/>
+      <c r="E232" s="91" t="s">
+        <v>971</v>
+      </c>
+      <c r="F232" s="91"/>
+      <c r="G232" s="91" t="s">
+        <v>957</v>
       </c>
       <c r="H232" s="170" t="s">
-        <v>970</v>
+        <v>972</v>
       </c>
       <c r="I232" s="7"/>
       <c r="J232" s="7"/>
       <c r="K232" s="7"/>
     </row>
     <row r="233">
-      <c r="A233" s="113" t="s">
-        <v>971</v>
-      </c>
-      <c r="B233" s="92" t="s">
-        <v>972</v>
-      </c>
-      <c r="C233" s="92"/>
-      <c r="D233" s="92"/>
-      <c r="E233" s="92" t="s">
+      <c r="A233" s="112" t="s">
         <v>973</v>
       </c>
-      <c r="F233" s="92"/>
-      <c r="G233" s="92" t="s">
-        <v>955</v>
+      <c r="B233" s="91" t="s">
+        <v>974</v>
+      </c>
+      <c r="C233" s="91"/>
+      <c r="D233" s="91"/>
+      <c r="E233" s="91" t="s">
+        <v>975</v>
+      </c>
+      <c r="F233" s="91"/>
+      <c r="G233" s="91" t="s">
+        <v>957</v>
       </c>
       <c r="H233" s="170" t="s">
-        <v>974</v>
+        <v>976</v>
       </c>
       <c r="I233" s="7"/>
       <c r="J233" s="7"/>
       <c r="K233" s="7"/>
     </row>
     <row r="234">
-      <c r="A234" s="113" t="s">
-        <v>975</v>
-      </c>
-      <c r="B234" s="92" t="s">
-        <v>976</v>
+      <c r="A234" s="112" t="s">
+        <v>977</v>
+      </c>
+      <c r="B234" s="91" t="s">
+        <v>978</v>
       </c>
       <c r="C234" s="169" t="s">
-        <v>664</v>
-      </c>
-      <c r="D234" s="92"/>
-      <c r="E234" s="92"/>
-      <c r="F234" s="92"/>
-      <c r="G234" s="92"/>
-      <c r="H234" s="92"/>
+        <v>666</v>
+      </c>
+      <c r="D234" s="91"/>
+      <c r="E234" s="91"/>
+      <c r="F234" s="91"/>
+      <c r="G234" s="91"/>
+      <c r="H234" s="91"/>
       <c r="I234" s="7"/>
       <c r="J234" s="7"/>
       <c r="K234" s="7"/>
     </row>
     <row r="235">
-      <c r="A235" s="113" t="s">
-        <v>977</v>
-      </c>
-      <c r="B235" s="92" t="s">
-        <v>978</v>
+      <c r="A235" s="112" t="s">
+        <v>979</v>
+      </c>
+      <c r="B235" s="91" t="s">
+        <v>980</v>
       </c>
       <c r="C235" s="171" t="s">
         <v>578</v>
       </c>
-      <c r="D235" s="92"/>
-      <c r="E235" s="92" t="s">
-        <v>979</v>
-      </c>
-      <c r="F235" s="92"/>
-      <c r="G235" s="92" t="s">
-        <v>955</v>
+      <c r="D235" s="91"/>
+      <c r="E235" s="91" t="s">
+        <v>981</v>
+      </c>
+      <c r="F235" s="91"/>
+      <c r="G235" s="91" t="s">
+        <v>957</v>
       </c>
       <c r="H235" s="172" t="s">
-        <v>980</v>
+        <v>982</v>
       </c>
       <c r="I235" s="7"/>
       <c r="J235" s="7"/>
       <c r="K235" s="7"/>
     </row>
     <row r="236">
-      <c r="A236" s="113" t="s">
-        <v>981</v>
-      </c>
-      <c r="B236" s="92" t="s">
-        <v>982</v>
+      <c r="A236" s="112" t="s">
+        <v>983</v>
+      </c>
+      <c r="B236" s="91" t="s">
+        <v>984</v>
       </c>
       <c r="C236" s="169" t="s">
-        <v>664</v>
-      </c>
-      <c r="D236" s="92"/>
-      <c r="E236" s="92"/>
-      <c r="F236" s="92"/>
-      <c r="G236" s="92"/>
-      <c r="H236" s="92"/>
+        <v>666</v>
+      </c>
+      <c r="D236" s="91"/>
+      <c r="E236" s="91"/>
+      <c r="F236" s="91"/>
+      <c r="G236" s="91"/>
+      <c r="H236" s="91"/>
       <c r="I236" s="7"/>
       <c r="J236" s="7"/>
       <c r="K236" s="7"/>
     </row>
     <row r="237">
-      <c r="A237" s="113" t="s">
-        <v>983</v>
-      </c>
-      <c r="B237" s="92" t="s">
-        <v>984</v>
+      <c r="A237" s="112" t="s">
+        <v>985</v>
+      </c>
+      <c r="B237" s="91" t="s">
+        <v>986</v>
       </c>
       <c r="C237" s="169" t="s">
-        <v>985</v>
-      </c>
-      <c r="D237" s="92" t="s">
-        <v>986</v>
+        <v>987</v>
+      </c>
+      <c r="D237" s="91" t="s">
+        <v>988</v>
       </c>
       <c r="E237" s="173" t="s">
-        <v>987</v>
-      </c>
-      <c r="F237" s="92"/>
-      <c r="G237" s="92" t="s">
-        <v>988</v>
+        <v>989</v>
+      </c>
+      <c r="F237" s="91"/>
+      <c r="G237" s="91" t="s">
+        <v>990</v>
       </c>
       <c r="H237" s="174" t="s">
-        <v>989</v>
+        <v>991</v>
       </c>
       <c r="I237" s="7"/>
       <c r="J237" s="7"/>
@@ -17939,24 +17984,25 @@
     <hyperlink r:id="rId10" ref="H123"/>
     <hyperlink r:id="rId11" ref="H128"/>
     <hyperlink r:id="rId12" ref="H130"/>
-    <hyperlink r:id="rId13" ref="H137"/>
-    <hyperlink r:id="rId14" ref="H150"/>
-    <hyperlink r:id="rId15" ref="H151"/>
-    <hyperlink r:id="rId16" ref="H154"/>
-    <hyperlink r:id="rId17" ref="H155"/>
-    <hyperlink r:id="rId18" ref="H161"/>
-    <hyperlink r:id="rId19" ref="H162"/>
-    <hyperlink r:id="rId20" ref="H163"/>
-    <hyperlink r:id="rId21" ref="H176"/>
-    <hyperlink r:id="rId22" ref="H219"/>
-    <hyperlink r:id="rId23" ref="H220"/>
-    <hyperlink r:id="rId24" ref="H222"/>
-    <hyperlink r:id="rId25" ref="H232"/>
-    <hyperlink r:id="rId26" ref="H233"/>
-    <hyperlink r:id="rId27" ref="H235"/>
+    <hyperlink r:id="rId13" ref="H136"/>
+    <hyperlink r:id="rId14" ref="H137"/>
+    <hyperlink r:id="rId15" ref="H150"/>
+    <hyperlink r:id="rId16" ref="H151"/>
+    <hyperlink r:id="rId17" ref="H154"/>
+    <hyperlink r:id="rId18" ref="H155"/>
+    <hyperlink r:id="rId19" ref="H161"/>
+    <hyperlink r:id="rId20" ref="H162"/>
+    <hyperlink r:id="rId21" ref="H163"/>
+    <hyperlink r:id="rId22" ref="H176"/>
+    <hyperlink r:id="rId23" ref="H219"/>
+    <hyperlink r:id="rId24" ref="H220"/>
+    <hyperlink r:id="rId25" ref="H222"/>
+    <hyperlink r:id="rId26" ref="H232"/>
+    <hyperlink r:id="rId27" ref="H233"/>
+    <hyperlink r:id="rId28" ref="H235"/>
   </hyperlinks>
-  <drawing r:id="rId28"/>
-  <legacyDrawing r:id="rId29"/>
+  <drawing r:id="rId29"/>
+  <legacyDrawing r:id="rId30"/>
 </worksheet>
 </file>
 
@@ -18004,14 +18050,14 @@
         <v>376</v>
       </c>
       <c r="C2" s="179" t="s">
-        <v>990</v>
+        <v>992</v>
       </c>
       <c r="D2" s="179"/>
       <c r="E2" s="178" t="s">
-        <v>991</v>
+        <v>993</v>
       </c>
       <c r="F2" s="178" t="s">
-        <v>992</v>
+        <v>994</v>
       </c>
     </row>
     <row r="3">
@@ -18022,54 +18068,54 @@
         <v>376</v>
       </c>
       <c r="C3" s="86" t="s">
-        <v>990</v>
+        <v>992</v>
       </c>
       <c r="D3" s="86"/>
       <c r="E3" s="40" t="s">
-        <v>993</v>
+        <v>995</v>
       </c>
       <c r="F3" s="40" t="s">
-        <v>994</v>
+        <v>996</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="19" t="s">
-        <v>995</v>
+        <v>997</v>
       </c>
       <c r="B4" s="83" t="s">
-        <v>996</v>
+        <v>998</v>
       </c>
       <c r="C4" s="86" t="s">
-        <v>997</v>
+        <v>999</v>
       </c>
       <c r="D4" s="86" t="s">
-        <v>998</v>
+        <v>1000</v>
       </c>
       <c r="E4" s="40" t="s">
-        <v>999</v>
+        <v>1001</v>
       </c>
       <c r="F4" s="40" t="s">
-        <v>1000</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="4" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="B5" s="83" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>1001</v>
+        <v>1003</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="E5" s="40" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="F5" s="40" t="s">
-        <v>1002</v>
+        <v>1004</v>
       </c>
       <c r="G5" s="180"/>
       <c r="H5" s="180"/>
@@ -22130,36 +22176,36 @@
   <sheetData>
     <row r="2">
       <c r="A2" s="182" t="s">
-        <v>1003</v>
+        <v>1005</v>
       </c>
       <c r="B2" s="183" t="s">
-        <v>1004</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="184" t="s">
-        <v>1005</v>
+        <v>1007</v>
       </c>
       <c r="B3" s="183" t="s">
-        <v>1006</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="185" t="s">
-        <v>1007</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="186" t="s">
-        <v>1008</v>
+        <v>1010</v>
       </c>
       <c r="B6" s="183" t="s">
-        <v>1009</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="7">
       <c r="B7" s="183" t="s">
-        <v>1010</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="8">
@@ -22170,41 +22216,41 @@
     </row>
     <row r="10">
       <c r="A10" s="186" t="s">
-        <v>1011</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="186" t="s">
-        <v>1012</v>
+        <v>1014</v>
       </c>
       <c r="B11" s="187" t="s">
-        <v>1013</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="12">
       <c r="B12" s="188" t="s">
-        <v>1014</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="189"/>
       <c r="B13" s="190" t="s">
-        <v>1015</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="14">
       <c r="B14" s="191" t="s">
-        <v>1016</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="15">
       <c r="B15" s="192" t="s">
-        <v>1017</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="16">
       <c r="B16" s="193" t="s">
-        <v>1018</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="17">
@@ -22213,24 +22259,24 @@
     </row>
     <row r="18">
       <c r="A18" s="186" t="s">
-        <v>1019</v>
+        <v>1021</v>
       </c>
       <c r="B18" s="194" t="s">
-        <v>1020</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="7" t="s">
-        <v>1021</v>
-      </c>
-      <c r="B19" s="128"/>
+        <v>1023</v>
+      </c>
+      <c r="B19" s="127"/>
     </row>
     <row r="21">
       <c r="A21" s="186" t="s">
-        <v>1022</v>
+        <v>1024</v>
       </c>
       <c r="B21" s="195" t="s">
-        <v>1023</v>
+        <v>1025</v>
       </c>
     </row>
   </sheetData>
@@ -22256,57 +22302,57 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>1024</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="37" t="s">
-        <v>1025</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="4" t="s">
-        <v>1026</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="37" t="s">
-        <v>1027</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="4" t="s">
-        <v>1028</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="4" t="s">
-        <v>1029</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="4" t="s">
-        <v>1030</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="37" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="196" t="s">
-        <v>1032</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="4" t="s">
-        <v>1033</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="4" t="s">
-        <v>1034</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="12">
@@ -22335,65 +22381,65 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>1024</v>
+        <v>1026</v>
       </c>
       <c r="B1" s="197" t="s">
-        <v>1035</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="4" t="s">
-        <v>1036</v>
+        <v>1038</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>1037</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="4" t="s">
-        <v>1038</v>
+        <v>1040</v>
       </c>
       <c r="B3" s="7"/>
     </row>
     <row r="4">
       <c r="A4" s="4" t="s">
-        <v>1039</v>
+        <v>1041</v>
       </c>
       <c r="B4" s="7"/>
     </row>
     <row r="5">
       <c r="A5" s="4" t="s">
-        <v>1040</v>
+        <v>1042</v>
       </c>
       <c r="B5" s="7"/>
     </row>
     <row r="6">
       <c r="A6" s="4" t="s">
-        <v>1041</v>
+        <v>1043</v>
       </c>
       <c r="B6" s="7"/>
     </row>
     <row r="7">
       <c r="A7" s="4" t="s">
-        <v>1042</v>
+        <v>1044</v>
       </c>
       <c r="B7" s="7"/>
     </row>
     <row r="8">
       <c r="A8" s="4" t="s">
-        <v>1043</v>
+        <v>1045</v>
       </c>
       <c r="B8" s="7"/>
     </row>
     <row r="9">
       <c r="A9" s="4" t="s">
-        <v>1044</v>
+        <v>1046</v>
       </c>
       <c r="B9" s="7"/>
     </row>
     <row r="10">
-      <c r="A10" s="7" t="s">
-        <v>1045</v>
+      <c r="A10" s="6" t="s">
+        <v>1047</v>
       </c>
     </row>
   </sheetData>
@@ -22437,35 +22483,35 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="198" t="s">
-        <v>1046</v>
+        <v>1048</v>
       </c>
       <c r="C1" s="198" t="s">
-        <v>1047</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="186" t="s">
-        <v>1048</v>
+        <v>1050</v>
       </c>
       <c r="B2" s="186" t="s">
-        <v>1049</v>
+        <v>1051</v>
       </c>
       <c r="C2" s="186" t="s">
-        <v>1050</v>
+        <v>1052</v>
       </c>
       <c r="D2" s="186" t="s">
-        <v>1051</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="40" t="s">
-        <v>1052</v>
+        <v>1054</v>
       </c>
       <c r="B3" s="40" t="s">
-        <v>1053</v>
+        <v>1055</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>1054</v>
+        <v>1056</v>
       </c>
       <c r="D3" s="4" t="str">
         <f t="shared" ref="D3:D4" si="1">RIGHT(A3,LEN(A3) - (FIND(" == ",A3) + 3))</f>
@@ -22474,13 +22520,13 @@
     </row>
     <row r="4">
       <c r="A4" s="40" t="s">
+        <v>1057</v>
+      </c>
+      <c r="B4" s="40" t="s">
         <v>1055</v>
       </c>
-      <c r="B4" s="40" t="s">
-        <v>1053</v>
-      </c>
       <c r="C4" s="4" t="s">
-        <v>1054</v>
+        <v>1056</v>
       </c>
       <c r="D4" s="4" t="str">
         <f t="shared" si="1"/>
@@ -22489,126 +22535,126 @@
     </row>
     <row r="5">
       <c r="A5" s="40" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B5" s="40" t="s">
+        <v>1059</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>1056</v>
-      </c>
-      <c r="B5" s="40" t="s">
-        <v>1057</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>1054</v>
       </c>
       <c r="D5" s="7"/>
     </row>
     <row r="6">
       <c r="A6" s="4" t="s">
-        <v>1058</v>
+        <v>1060</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>1059</v>
+        <v>1061</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>1054</v>
+        <v>1056</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>1060</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="4" t="s">
-        <v>1061</v>
+        <v>1063</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>1062</v>
+        <v>1064</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>1054</v>
+        <v>1056</v>
       </c>
       <c r="D7" s="199" t="s">
-        <v>1063</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="4" t="s">
-        <v>1064</v>
+        <v>1066</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>1065</v>
+        <v>1067</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>1054</v>
+        <v>1056</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>1066</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="83" t="s">
-        <v>1067</v>
+        <v>1069</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>1068</v>
+        <v>1070</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>1054</v>
+        <v>1056</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>1069</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="83" t="s">
+        <v>1072</v>
+      </c>
+      <c r="B10" s="7" t="s">
         <v>1070</v>
       </c>
-      <c r="B10" s="7" t="s">
-        <v>1068</v>
-      </c>
       <c r="C10" s="7" t="s">
-        <v>1054</v>
+        <v>1056</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>1071</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="83" t="s">
-        <v>1072</v>
+        <v>1074</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>1073</v>
+        <v>1075</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>1054</v>
+        <v>1056</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>1074</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="83" t="s">
+        <v>1077</v>
+      </c>
+      <c r="B12" s="7" t="s">
         <v>1075</v>
       </c>
-      <c r="B12" s="7" t="s">
-        <v>1073</v>
-      </c>
       <c r="C12" s="7" t="s">
-        <v>1054</v>
+        <v>1056</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>1076</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="200" t="s">
-        <v>1077</v>
+        <v>1079</v>
       </c>
       <c r="B13" s="200" t="s">
-        <v>1057</v>
+        <v>1059</v>
       </c>
       <c r="C13" s="201" t="s">
-        <v>1054</v>
+        <v>1056</v>
       </c>
       <c r="D13" s="201" t="s">
-        <v>1078</v>
+        <v>1080</v>
       </c>
       <c r="E13" s="202"/>
       <c r="F13" s="202"/>
@@ -22635,16 +22681,16 @@
     </row>
     <row r="14">
       <c r="A14" s="200" t="s">
-        <v>1079</v>
+        <v>1081</v>
       </c>
       <c r="B14" s="200" t="s">
-        <v>1057</v>
+        <v>1059</v>
       </c>
       <c r="C14" s="201" t="s">
-        <v>1054</v>
+        <v>1056</v>
       </c>
       <c r="D14" s="201" t="s">
-        <v>1080</v>
+        <v>1082</v>
       </c>
       <c r="E14" s="202"/>
       <c r="F14" s="202"/>
@@ -22696,51 +22742,51 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="198" t="s">
-        <v>1046</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="186" t="s">
-        <v>1048</v>
+        <v>1050</v>
       </c>
       <c r="B2" s="186" t="s">
-        <v>1049</v>
+        <v>1051</v>
       </c>
       <c r="C2" s="186" t="s">
-        <v>1050</v>
+        <v>1052</v>
       </c>
       <c r="D2" s="186" t="s">
-        <v>1051</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="183" t="s">
-        <v>1081</v>
+        <v>1083</v>
       </c>
       <c r="B3" s="183" t="s">
-        <v>1082</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="183" t="s">
-        <v>1083</v>
+        <v>1085</v>
       </c>
       <c r="B4" s="183" t="s">
-        <v>1084</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="183" t="s">
-        <v>1085</v>
+        <v>1087</v>
       </c>
       <c r="B5" s="183" t="s">
+        <v>1088</v>
+      </c>
+      <c r="C5" s="203" t="s">
         <v>1086</v>
       </c>
-      <c r="C5" s="203" t="s">
-        <v>1084</v>
-      </c>
       <c r="D5" s="183" t="s">
-        <v>1087</v>
+        <v>1089</v>
       </c>
     </row>
   </sheetData>

--- a/mappings/package_F23/transformation/conceptual_mappings.xlsx
+++ b/mappings/package_F23/transformation/conceptual_mappings.xlsx
@@ -363,7 +363,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1550" uniqueCount="1090">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1550" uniqueCount="1091">
   <si>
     <t>Field</t>
   </si>
@@ -4479,6 +4479,9 @@
     <t>AWARD_CONTRACT/AWARDED_CONTRACT/DATE_CONCLUSION_CONTRACT</t>
   </si>
   <si>
+    <t>epo:LotAwardOutcome / xsd:date</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <rFont val="Arial"/>
@@ -6478,7 +6481,7 @@
     <t>COMPLEMENTARY_INFO/DATE_DISPATCH_NOTICE</t>
   </si>
   <si>
-    <t>epo:Notice</t>
+    <t>epo:Notice / xsd:date</t>
   </si>
   <si>
     <r>
@@ -7425,7 +7428,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="204">
+  <cellXfs count="192">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -7498,11 +7501,11 @@
     </xf>
     <xf borderId="3" fillId="0" fontId="9" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="4" fillId="0" fontId="9" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
@@ -7512,9 +7515,6 @@
     </xf>
     <xf borderId="6" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="6" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
     </xf>
     <xf borderId="6" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
@@ -7692,7 +7692,7 @@
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="15" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="8" fillId="15" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
@@ -7745,6 +7745,9 @@
     <xf borderId="0" fillId="13" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
+    <xf borderId="0" fillId="15" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
     <xf borderId="0" fillId="15" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
@@ -7769,10 +7772,10 @@
     <xf borderId="0" fillId="4" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="8" fillId="0" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="4" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="4" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
@@ -7781,20 +7784,8 @@
     <xf borderId="0" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="8" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="9" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="6" fillId="4" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
     <xf borderId="0" fillId="4" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="8" fillId="4" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="13" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
@@ -7805,15 +7796,6 @@
     <xf borderId="0" fillId="0" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="9" fillId="13" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="6" fillId="13" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="6" fillId="10" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
     <xf borderId="0" fillId="5" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="bottom"/>
     </xf>
@@ -7822,9 +7804,6 @@
     </xf>
     <xf borderId="0" fillId="4" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="7" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="10" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
@@ -7842,13 +7821,10 @@
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf quotePrefix="1" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+      <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf quotePrefix="1" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="16" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment vertical="bottom"/>
@@ -7874,9 +7850,6 @@
     <xf borderId="7" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
     <xf borderId="0" fillId="10" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
@@ -7891,9 +7864,6 @@
     </xf>
     <xf borderId="0" fillId="15" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="15" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
@@ -7944,9 +7914,6 @@
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="10" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="11" fillId="0" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
@@ -11476,25 +11443,25 @@
       <c r="D2" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="E2" s="31" t="s">
+      <c r="E2" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="F2" s="31" t="s">
+      <c r="F2" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="G2" s="31" t="s">
+      <c r="G2" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="H2" s="31" t="s">
+      <c r="H2" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="I2" s="32" t="s">
+      <c r="I2" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="J2" s="32" t="s">
+      <c r="J2" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="K2" s="33" t="s">
+      <c r="K2" s="32" t="s">
         <v>42</v>
       </c>
       <c r="L2" s="28"/>
@@ -11514,20 +11481,20 @@
       <c r="Z2" s="28"/>
     </row>
     <row r="3">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="35"/>
+      <c r="B3" s="34"/>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
-      <c r="E3" s="36" t="s">
+      <c r="E3" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="F3" s="37"/>
-      <c r="G3" s="36" t="s">
+      <c r="F3" s="36"/>
+      <c r="G3" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="H3" s="36" t="s">
+      <c r="H3" s="35" t="s">
         <v>46</v>
       </c>
       <c r="I3" s="4"/>
@@ -11542,18 +11509,18 @@
       <c r="R3" s="28"/>
     </row>
     <row r="4">
-      <c r="A4" s="34" t="s">
+      <c r="A4" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="B4" s="35" t="s">
+      <c r="B4" s="34" t="s">
         <v>48</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="37"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
       <c r="K4" s="7"/>
@@ -11566,22 +11533,22 @@
       <c r="R4" s="28"/>
     </row>
     <row r="5">
-      <c r="A5" s="38" t="s">
+      <c r="A5" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="B5" s="39" t="s">
+      <c r="B5" s="38" t="s">
         <v>50</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
-      <c r="E5" s="40" t="s">
+      <c r="E5" s="39" t="s">
         <v>51</v>
       </c>
       <c r="F5" s="4"/>
-      <c r="G5" s="41" t="s">
+      <c r="G5" s="40" t="s">
         <v>52</v>
       </c>
-      <c r="H5" s="37" t="s">
+      <c r="H5" s="36" t="s">
         <v>53</v>
       </c>
       <c r="I5" s="4"/>
@@ -11596,26 +11563,26 @@
       <c r="R5" s="28"/>
     </row>
     <row r="6">
-      <c r="A6" s="42" t="s">
+      <c r="A6" s="41" t="s">
         <v>54</v>
       </c>
-      <c r="B6" s="43" t="s">
+      <c r="B6" s="42" t="s">
         <v>55</v>
       </c>
-      <c r="C6" s="44" t="s">
+      <c r="C6" s="43" t="s">
         <v>56</v>
       </c>
-      <c r="D6" s="44" t="s">
+      <c r="D6" s="43" t="s">
         <v>57</v>
       </c>
-      <c r="E6" s="44" t="s">
+      <c r="E6" s="43" t="s">
         <v>58</v>
       </c>
-      <c r="F6" s="44"/>
-      <c r="G6" s="44" t="s">
+      <c r="F6" s="43"/>
+      <c r="G6" s="43" t="s">
         <v>59</v>
       </c>
-      <c r="H6" s="44" t="s">
+      <c r="H6" s="43" t="s">
         <v>60</v>
       </c>
       <c r="I6" s="4"/>
@@ -11630,26 +11597,26 @@
       <c r="R6" s="28"/>
     </row>
     <row r="7">
-      <c r="A7" s="45" t="s">
+      <c r="A7" s="44" t="s">
         <v>61</v>
       </c>
-      <c r="B7" s="43" t="s">
+      <c r="B7" s="42" t="s">
         <v>62</v>
       </c>
-      <c r="C7" s="46" t="s">
+      <c r="C7" s="45" t="s">
         <v>63</v>
       </c>
-      <c r="D7" s="46" t="s">
+      <c r="D7" s="45" t="s">
         <v>64</v>
       </c>
-      <c r="E7" s="46" t="s">
+      <c r="E7" s="45" t="s">
         <v>65</v>
       </c>
-      <c r="F7" s="46"/>
-      <c r="G7" s="46" t="s">
+      <c r="F7" s="45"/>
+      <c r="G7" s="45" t="s">
         <v>66</v>
       </c>
-      <c r="H7" s="46" t="s">
+      <c r="H7" s="45" t="s">
         <v>67</v>
       </c>
       <c r="I7" s="4"/>
@@ -11664,10 +11631,10 @@
       <c r="R7" s="28"/>
     </row>
     <row r="8">
-      <c r="A8" s="47" t="s">
+      <c r="A8" s="46" t="s">
         <v>68</v>
       </c>
-      <c r="B8" s="48" t="s">
+      <c r="B8" s="47" t="s">
         <v>69</v>
       </c>
       <c r="C8" s="4" t="s">
@@ -11683,7 +11650,7 @@
       <c r="G8" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="H8" s="40" t="s">
+      <c r="H8" s="39" t="s">
         <v>74</v>
       </c>
       <c r="I8" s="4"/>
@@ -11698,10 +11665,10 @@
       <c r="R8" s="28"/>
     </row>
     <row r="9">
-      <c r="A9" s="49" t="s">
+      <c r="A9" s="48" t="s">
         <v>75</v>
       </c>
-      <c r="B9" s="48" t="s">
+      <c r="B9" s="47" t="s">
         <v>76</v>
       </c>
       <c r="C9" s="4" t="s">
@@ -11717,7 +11684,7 @@
       <c r="G9" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="H9" s="40" t="s">
+      <c r="H9" s="39" t="s">
         <v>80</v>
       </c>
       <c r="I9" s="4"/>
@@ -11732,16 +11699,16 @@
       <c r="R9" s="28"/>
     </row>
     <row r="10">
-      <c r="A10" s="49" t="s">
+      <c r="A10" s="48" t="s">
         <v>81</v>
       </c>
-      <c r="B10" s="48" t="s">
+      <c r="B10" s="47" t="s">
         <v>82</v>
       </c>
-      <c r="C10" s="50" t="s">
+      <c r="C10" s="36" t="s">
         <v>83</v>
       </c>
-      <c r="D10" s="50" t="s">
+      <c r="D10" s="36" t="s">
         <v>84</v>
       </c>
       <c r="E10" s="4" t="s">
@@ -11750,10 +11717,10 @@
       <c r="F10" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="G10" s="37" t="s">
+      <c r="G10" s="36" t="s">
         <v>87</v>
       </c>
-      <c r="H10" s="50" t="s">
+      <c r="H10" s="49" t="s">
         <v>88</v>
       </c>
       <c r="I10" s="4"/>
@@ -11768,10 +11735,10 @@
       <c r="R10" s="28"/>
     </row>
     <row r="11">
-      <c r="A11" s="49" t="s">
+      <c r="A11" s="48" t="s">
         <v>89</v>
       </c>
-      <c r="B11" s="48" t="s">
+      <c r="B11" s="47" t="s">
         <v>90</v>
       </c>
       <c r="C11" s="4" t="s">
@@ -11787,7 +11754,7 @@
       <c r="G11" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="H11" s="40" t="s">
+      <c r="H11" s="39" t="s">
         <v>95</v>
       </c>
       <c r="I11" s="4"/>
@@ -11802,26 +11769,26 @@
       <c r="R11" s="28"/>
     </row>
     <row r="12">
-      <c r="A12" s="45" t="s">
+      <c r="A12" s="44" t="s">
         <v>96</v>
       </c>
-      <c r="B12" s="43" t="s">
+      <c r="B12" s="42" t="s">
         <v>97</v>
       </c>
-      <c r="C12" s="44" t="s">
+      <c r="C12" s="43" t="s">
         <v>98</v>
       </c>
-      <c r="D12" s="44" t="s">
+      <c r="D12" s="43" t="s">
         <v>99</v>
       </c>
-      <c r="E12" s="44" t="s">
+      <c r="E12" s="43" t="s">
         <v>100</v>
       </c>
-      <c r="F12" s="44"/>
-      <c r="G12" s="44" t="s">
+      <c r="F12" s="43"/>
+      <c r="G12" s="43" t="s">
         <v>101</v>
       </c>
-      <c r="H12" s="46" t="s">
+      <c r="H12" s="45" t="s">
         <v>102</v>
       </c>
       <c r="I12" s="4"/>
@@ -11836,10 +11803,10 @@
       <c r="R12" s="28"/>
     </row>
     <row r="13">
-      <c r="A13" s="49" t="s">
+      <c r="A13" s="48" t="s">
         <v>103</v>
       </c>
-      <c r="B13" s="48" t="s">
+      <c r="B13" s="47" t="s">
         <v>104</v>
       </c>
       <c r="C13" s="4" t="s">
@@ -11852,10 +11819,10 @@
         <v>107</v>
       </c>
       <c r="F13" s="4"/>
-      <c r="G13" s="37" t="s">
+      <c r="G13" s="36" t="s">
         <v>108</v>
       </c>
-      <c r="H13" s="50" t="s">
+      <c r="H13" s="49" t="s">
         <v>109</v>
       </c>
       <c r="I13" s="4"/>
@@ -11870,10 +11837,10 @@
       <c r="R13" s="28"/>
     </row>
     <row r="14">
-      <c r="A14" s="49" t="s">
+      <c r="A14" s="48" t="s">
         <v>110</v>
       </c>
-      <c r="B14" s="48" t="s">
+      <c r="B14" s="47" t="s">
         <v>111</v>
       </c>
       <c r="C14" s="4" t="s">
@@ -11886,10 +11853,10 @@
         <v>114</v>
       </c>
       <c r="F14" s="4"/>
-      <c r="G14" s="37" t="s">
+      <c r="G14" s="36" t="s">
         <v>108</v>
       </c>
-      <c r="H14" s="51" t="s">
+      <c r="H14" s="50" t="s">
         <v>115</v>
       </c>
       <c r="I14" s="4"/>
@@ -11904,10 +11871,10 @@
       <c r="R14" s="28"/>
     </row>
     <row r="15">
-      <c r="A15" s="47" t="s">
+      <c r="A15" s="46" t="s">
         <v>116</v>
       </c>
-      <c r="B15" s="48" t="s">
+      <c r="B15" s="47" t="s">
         <v>117</v>
       </c>
       <c r="C15" s="4" t="s">
@@ -11920,10 +11887,10 @@
         <v>120</v>
       </c>
       <c r="F15" s="4"/>
-      <c r="G15" s="37" t="s">
+      <c r="G15" s="36" t="s">
         <v>121</v>
       </c>
-      <c r="H15" s="50" t="s">
+      <c r="H15" s="49" t="s">
         <v>122</v>
       </c>
       <c r="I15" s="4"/>
@@ -11938,10 +11905,10 @@
       <c r="R15" s="28"/>
     </row>
     <row r="16">
-      <c r="A16" s="49" t="s">
+      <c r="A16" s="48" t="s">
         <v>123</v>
       </c>
-      <c r="B16" s="48" t="s">
+      <c r="B16" s="47" t="s">
         <v>124</v>
       </c>
       <c r="C16" s="4" t="s">
@@ -11954,10 +11921,10 @@
         <v>127</v>
       </c>
       <c r="F16" s="4"/>
-      <c r="G16" s="37" t="s">
+      <c r="G16" s="36" t="s">
         <v>108</v>
       </c>
-      <c r="H16" s="50" t="s">
+      <c r="H16" s="49" t="s">
         <v>128</v>
       </c>
       <c r="I16" s="4"/>
@@ -11972,10 +11939,10 @@
       <c r="R16" s="28"/>
     </row>
     <row r="17">
-      <c r="A17" s="47" t="s">
+      <c r="A17" s="46" t="s">
         <v>129</v>
       </c>
-      <c r="B17" s="48" t="s">
+      <c r="B17" s="47" t="s">
         <v>130</v>
       </c>
       <c r="C17" s="4"/>
@@ -11996,26 +11963,26 @@
       <c r="R17" s="28"/>
     </row>
     <row r="18">
-      <c r="A18" s="52" t="s">
+      <c r="A18" s="51" t="s">
         <v>131</v>
       </c>
-      <c r="B18" s="53" t="s">
+      <c r="B18" s="52" t="s">
         <v>132</v>
       </c>
-      <c r="C18" s="54" t="s">
+      <c r="C18" s="53" t="s">
         <v>133</v>
       </c>
-      <c r="D18" s="44" t="s">
+      <c r="D18" s="43" t="s">
         <v>134</v>
       </c>
-      <c r="E18" s="44" t="s">
+      <c r="E18" s="43" t="s">
         <v>135</v>
       </c>
-      <c r="F18" s="44"/>
-      <c r="G18" s="46" t="s">
+      <c r="F18" s="43"/>
+      <c r="G18" s="45" t="s">
         <v>121</v>
       </c>
-      <c r="H18" s="46" t="s">
+      <c r="H18" s="45" t="s">
         <v>136</v>
       </c>
       <c r="I18" s="4"/>
@@ -12030,10 +11997,10 @@
       <c r="R18" s="28"/>
     </row>
     <row r="19">
-      <c r="A19" s="55" t="s">
+      <c r="A19" s="54" t="s">
         <v>137</v>
       </c>
-      <c r="B19" s="56" t="s">
+      <c r="B19" s="55" t="s">
         <v>138</v>
       </c>
       <c r="C19" s="4" t="s">
@@ -12049,7 +12016,7 @@
       <c r="G19" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="H19" s="50" t="s">
+      <c r="H19" s="49" t="s">
         <v>143</v>
       </c>
       <c r="I19" s="4"/>
@@ -12064,24 +12031,24 @@
       <c r="R19" s="28"/>
     </row>
     <row r="20">
-      <c r="A20" s="38" t="s">
+      <c r="A20" s="37" t="s">
         <v>144</v>
       </c>
-      <c r="B20" s="39" t="s">
+      <c r="B20" s="38" t="s">
         <v>145</v>
       </c>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
-      <c r="E20" s="57" t="s">
+      <c r="E20" s="56" t="s">
         <v>146</v>
       </c>
-      <c r="F20" s="41" t="s">
+      <c r="F20" s="40" t="s">
         <v>147</v>
       </c>
-      <c r="G20" s="41" t="s">
+      <c r="G20" s="40" t="s">
         <v>148</v>
       </c>
-      <c r="H20" s="41" t="s">
+      <c r="H20" s="40" t="s">
         <v>149</v>
       </c>
       <c r="I20" s="4"/>
@@ -12096,24 +12063,24 @@
       <c r="R20" s="28"/>
     </row>
     <row r="21">
-      <c r="A21" s="47" t="s">
+      <c r="A21" s="46" t="s">
         <v>150</v>
       </c>
-      <c r="B21" s="48" t="s">
+      <c r="B21" s="47" t="s">
         <v>151</v>
       </c>
-      <c r="C21" s="50" t="s">
+      <c r="C21" s="49" t="s">
         <v>152</v>
       </c>
-      <c r="D21" s="50"/>
-      <c r="E21" s="50" t="s">
+      <c r="D21" s="49"/>
+      <c r="E21" s="49" t="s">
         <v>153</v>
       </c>
-      <c r="F21" s="50"/>
-      <c r="G21" s="50" t="s">
+      <c r="F21" s="49"/>
+      <c r="G21" s="49" t="s">
         <v>154</v>
       </c>
-      <c r="H21" s="50" t="s">
+      <c r="H21" s="49" t="s">
         <v>155</v>
       </c>
       <c r="I21" s="4"/>
@@ -12128,26 +12095,26 @@
       <c r="R21" s="28"/>
     </row>
     <row r="22">
-      <c r="A22" s="55" t="s">
+      <c r="A22" s="54" t="s">
         <v>156</v>
       </c>
-      <c r="B22" s="56" t="s">
+      <c r="B22" s="55" t="s">
         <v>157</v>
       </c>
-      <c r="C22" s="50" t="s">
+      <c r="C22" s="49" t="s">
         <v>158</v>
       </c>
-      <c r="D22" s="50"/>
-      <c r="E22" s="50" t="s">
+      <c r="D22" s="49"/>
+      <c r="E22" s="49" t="s">
         <v>159</v>
       </c>
-      <c r="F22" s="50" t="s">
+      <c r="F22" s="49" t="s">
         <v>160</v>
       </c>
-      <c r="G22" s="50" t="s">
+      <c r="G22" s="49" t="s">
         <v>161</v>
       </c>
-      <c r="H22" s="50" t="s">
+      <c r="H22" s="49" t="s">
         <v>162</v>
       </c>
       <c r="I22" s="4"/>
@@ -12162,98 +12129,98 @@
       <c r="R22" s="28"/>
     </row>
     <row r="23">
-      <c r="A23" s="47" t="s">
+      <c r="A23" s="46" t="s">
         <v>163</v>
       </c>
-      <c r="B23" s="48" t="s">
+      <c r="B23" s="47" t="s">
         <v>164</v>
       </c>
-      <c r="C23" s="50" t="s">
+      <c r="C23" s="49" t="s">
         <v>152</v>
       </c>
-      <c r="D23" s="50"/>
-      <c r="E23" s="50" t="s">
+      <c r="D23" s="49"/>
+      <c r="E23" s="49" t="s">
         <v>165</v>
       </c>
-      <c r="F23" s="50"/>
-      <c r="G23" s="50" t="s">
+      <c r="F23" s="49"/>
+      <c r="G23" s="49" t="s">
         <v>154</v>
       </c>
-      <c r="H23" s="50" t="s">
+      <c r="H23" s="49" t="s">
         <v>166</v>
       </c>
       <c r="I23" s="4"/>
       <c r="J23" s="4"/>
       <c r="K23" s="7"/>
-      <c r="L23" s="58"/>
-      <c r="M23" s="58"/>
-      <c r="N23" s="58"/>
-      <c r="O23" s="58"/>
-      <c r="P23" s="58"/>
-      <c r="Q23" s="58"/>
-      <c r="R23" s="58"/>
-      <c r="S23" s="59"/>
-      <c r="T23" s="59"/>
-      <c r="U23" s="59"/>
-      <c r="V23" s="59"/>
-      <c r="W23" s="59"/>
-      <c r="X23" s="59"/>
-      <c r="Y23" s="59"/>
-      <c r="Z23" s="59"/>
+      <c r="L23" s="57"/>
+      <c r="M23" s="57"/>
+      <c r="N23" s="57"/>
+      <c r="O23" s="57"/>
+      <c r="P23" s="57"/>
+      <c r="Q23" s="57"/>
+      <c r="R23" s="57"/>
+      <c r="S23" s="58"/>
+      <c r="T23" s="58"/>
+      <c r="U23" s="58"/>
+      <c r="V23" s="58"/>
+      <c r="W23" s="58"/>
+      <c r="X23" s="58"/>
+      <c r="Y23" s="58"/>
+      <c r="Z23" s="58"/>
     </row>
     <row r="24">
-      <c r="A24" s="55" t="s">
+      <c r="A24" s="54" t="s">
         <v>167</v>
       </c>
-      <c r="B24" s="56" t="s">
+      <c r="B24" s="55" t="s">
         <v>168</v>
       </c>
-      <c r="C24" s="37" t="s">
+      <c r="C24" s="36" t="s">
         <v>169</v>
       </c>
-      <c r="D24" s="50"/>
-      <c r="E24" s="60" t="s">
+      <c r="D24" s="49"/>
+      <c r="E24" s="59" t="s">
         <v>159</v>
       </c>
-      <c r="F24" s="50" t="s">
+      <c r="F24" s="49" t="s">
         <v>170</v>
       </c>
-      <c r="G24" s="50" t="s">
+      <c r="G24" s="49" t="s">
         <v>161</v>
       </c>
-      <c r="H24" s="50" t="s">
+      <c r="H24" s="49" t="s">
         <v>171</v>
       </c>
       <c r="I24" s="4"/>
       <c r="J24" s="4"/>
       <c r="K24" s="7"/>
-      <c r="L24" s="58"/>
-      <c r="M24" s="58"/>
-      <c r="N24" s="58"/>
-      <c r="O24" s="58"/>
-      <c r="P24" s="58"/>
-      <c r="Q24" s="58"/>
-      <c r="R24" s="58"/>
-      <c r="S24" s="59"/>
-      <c r="T24" s="59"/>
-      <c r="U24" s="59"/>
-      <c r="V24" s="59"/>
-      <c r="W24" s="59"/>
-      <c r="X24" s="59"/>
-      <c r="Y24" s="59"/>
-      <c r="Z24" s="59"/>
+      <c r="L24" s="57"/>
+      <c r="M24" s="57"/>
+      <c r="N24" s="57"/>
+      <c r="O24" s="57"/>
+      <c r="P24" s="57"/>
+      <c r="Q24" s="57"/>
+      <c r="R24" s="57"/>
+      <c r="S24" s="58"/>
+      <c r="T24" s="58"/>
+      <c r="U24" s="58"/>
+      <c r="V24" s="58"/>
+      <c r="W24" s="58"/>
+      <c r="X24" s="58"/>
+      <c r="Y24" s="58"/>
+      <c r="Z24" s="58"/>
     </row>
     <row r="25">
-      <c r="A25" s="47" t="s">
+      <c r="A25" s="46" t="s">
         <v>172</v>
       </c>
-      <c r="B25" s="48" t="s">
+      <c r="B25" s="47" t="s">
         <v>173</v>
       </c>
-      <c r="C25" s="50"/>
-      <c r="D25" s="50"/>
-      <c r="E25" s="50"/>
-      <c r="F25" s="50"/>
+      <c r="C25" s="49"/>
+      <c r="D25" s="49"/>
+      <c r="E25" s="49"/>
+      <c r="F25" s="49"/>
       <c r="G25" s="4"/>
       <c r="H25" s="4"/>
       <c r="I25" s="4"/>
@@ -12268,10 +12235,10 @@
       <c r="R25" s="28"/>
     </row>
     <row r="26">
-      <c r="A26" s="55" t="s">
+      <c r="A26" s="54" t="s">
         <v>174</v>
       </c>
-      <c r="B26" s="56" t="s">
+      <c r="B26" s="55" t="s">
         <v>175</v>
       </c>
       <c r="C26" s="4" t="s">
@@ -12282,10 +12249,10 @@
         <v>177</v>
       </c>
       <c r="F26" s="4"/>
-      <c r="G26" s="41" t="s">
+      <c r="G26" s="40" t="s">
         <v>52</v>
       </c>
-      <c r="H26" s="41" t="s">
+      <c r="H26" s="40" t="s">
         <v>178</v>
       </c>
       <c r="I26" s="4"/>
@@ -12300,24 +12267,24 @@
       <c r="R26" s="28"/>
     </row>
     <row r="27">
-      <c r="A27" s="61" t="s">
+      <c r="A27" s="60" t="s">
         <v>174</v>
       </c>
-      <c r="B27" s="62" t="s">
+      <c r="B27" s="61" t="s">
         <v>175</v>
       </c>
-      <c r="C27" s="63" t="s">
+      <c r="C27" s="62" t="s">
         <v>176</v>
       </c>
-      <c r="D27" s="63"/>
-      <c r="E27" s="64" t="s">
+      <c r="D27" s="62"/>
+      <c r="E27" s="63" t="s">
         <v>177</v>
       </c>
       <c r="F27" s="4"/>
-      <c r="G27" s="41" t="s">
+      <c r="G27" s="40" t="s">
         <v>179</v>
       </c>
-      <c r="H27" s="41" t="s">
+      <c r="H27" s="40" t="s">
         <v>180</v>
       </c>
       <c r="I27" s="4"/>
@@ -12332,10 +12299,10 @@
       <c r="R27" s="28"/>
     </row>
     <row r="28">
-      <c r="A28" s="55" t="s">
+      <c r="A28" s="54" t="s">
         <v>181</v>
       </c>
-      <c r="B28" s="56" t="s">
+      <c r="B28" s="55" t="s">
         <v>182</v>
       </c>
       <c r="C28" s="4" t="s">
@@ -12346,15 +12313,15 @@
         <v>183</v>
       </c>
       <c r="F28" s="4"/>
-      <c r="G28" s="65" t="s">
+      <c r="G28" s="64" t="s">
         <v>52</v>
       </c>
-      <c r="H28" s="65" t="s">
+      <c r="H28" s="64" t="s">
         <v>178</v>
       </c>
       <c r="I28" s="4"/>
       <c r="J28" s="4"/>
-      <c r="K28" s="66"/>
+      <c r="K28" s="65"/>
       <c r="L28" s="28"/>
       <c r="M28" s="28"/>
       <c r="N28" s="28"/>
@@ -12364,10 +12331,10 @@
       <c r="R28" s="28"/>
     </row>
     <row r="29">
-      <c r="A29" s="67" t="s">
+      <c r="A29" s="66" t="s">
         <v>184</v>
       </c>
-      <c r="B29" s="68" t="s">
+      <c r="B29" s="67" t="s">
         <v>55</v>
       </c>
       <c r="C29" s="4" t="s">
@@ -12380,52 +12347,52 @@
         <v>185</v>
       </c>
       <c r="F29" s="4"/>
-      <c r="G29" s="65" t="s">
+      <c r="G29" s="64" t="s">
         <v>59</v>
       </c>
-      <c r="H29" s="69" t="s">
+      <c r="H29" s="68" t="s">
         <v>186</v>
       </c>
       <c r="I29" s="4"/>
       <c r="J29" s="4"/>
       <c r="K29" s="7"/>
-      <c r="L29" s="58"/>
-      <c r="M29" s="58"/>
-      <c r="N29" s="58"/>
-      <c r="O29" s="58"/>
-      <c r="P29" s="58"/>
-      <c r="Q29" s="58"/>
-      <c r="R29" s="58"/>
-      <c r="S29" s="59"/>
-      <c r="T29" s="59"/>
-      <c r="U29" s="59"/>
-      <c r="V29" s="59"/>
-      <c r="W29" s="59"/>
-      <c r="X29" s="59"/>
-      <c r="Y29" s="59"/>
-      <c r="Z29" s="59"/>
+      <c r="L29" s="57"/>
+      <c r="M29" s="57"/>
+      <c r="N29" s="57"/>
+      <c r="O29" s="57"/>
+      <c r="P29" s="57"/>
+      <c r="Q29" s="57"/>
+      <c r="R29" s="57"/>
+      <c r="S29" s="58"/>
+      <c r="T29" s="58"/>
+      <c r="U29" s="58"/>
+      <c r="V29" s="58"/>
+      <c r="W29" s="58"/>
+      <c r="X29" s="58"/>
+      <c r="Y29" s="58"/>
+      <c r="Z29" s="58"/>
     </row>
     <row r="30">
-      <c r="A30" s="67" t="s">
+      <c r="A30" s="66" t="s">
         <v>187</v>
       </c>
-      <c r="B30" s="68" t="s">
+      <c r="B30" s="67" t="s">
         <v>62</v>
       </c>
-      <c r="C30" s="50" t="s">
+      <c r="C30" s="49" t="s">
         <v>63</v>
       </c>
-      <c r="D30" s="50" t="s">
+      <c r="D30" s="49" t="s">
         <v>64</v>
       </c>
-      <c r="E30" s="50" t="s">
+      <c r="E30" s="49" t="s">
         <v>188</v>
       </c>
-      <c r="F30" s="50"/>
-      <c r="G30" s="65" t="s">
+      <c r="F30" s="49"/>
+      <c r="G30" s="64" t="s">
         <v>66</v>
       </c>
-      <c r="H30" s="69" t="s">
+      <c r="H30" s="68" t="s">
         <v>189</v>
       </c>
       <c r="I30" s="4"/>
@@ -12440,10 +12407,10 @@
       <c r="R30" s="28"/>
     </row>
     <row r="31">
-      <c r="A31" s="67" t="s">
+      <c r="A31" s="66" t="s">
         <v>190</v>
       </c>
-      <c r="B31" s="68" t="s">
+      <c r="B31" s="67" t="s">
         <v>69</v>
       </c>
       <c r="C31" s="4" t="s">
@@ -12456,10 +12423,10 @@
         <v>191</v>
       </c>
       <c r="F31" s="4"/>
-      <c r="G31" s="65" t="s">
+      <c r="G31" s="64" t="s">
         <v>73</v>
       </c>
-      <c r="H31" s="69" t="s">
+      <c r="H31" s="68" t="s">
         <v>192</v>
       </c>
       <c r="I31" s="4"/>
@@ -12474,10 +12441,10 @@
       <c r="R31" s="28"/>
     </row>
     <row r="32">
-      <c r="A32" s="67" t="s">
+      <c r="A32" s="66" t="s">
         <v>193</v>
       </c>
-      <c r="B32" s="68" t="s">
+      <c r="B32" s="67" t="s">
         <v>76</v>
       </c>
       <c r="C32" s="4" t="s">
@@ -12490,10 +12457,10 @@
         <v>194</v>
       </c>
       <c r="F32" s="4"/>
-      <c r="G32" s="65" t="s">
+      <c r="G32" s="64" t="s">
         <v>73</v>
       </c>
-      <c r="H32" s="69" t="s">
+      <c r="H32" s="68" t="s">
         <v>195</v>
       </c>
       <c r="I32" s="4"/>
@@ -12508,28 +12475,28 @@
       <c r="R32" s="28"/>
     </row>
     <row r="33">
-      <c r="A33" s="67" t="s">
+      <c r="A33" s="66" t="s">
         <v>196</v>
       </c>
-      <c r="B33" s="68" t="s">
+      <c r="B33" s="67" t="s">
         <v>82</v>
       </c>
-      <c r="C33" s="50" t="s">
+      <c r="C33" s="49" t="s">
         <v>83</v>
       </c>
-      <c r="D33" s="50" t="s">
+      <c r="D33" s="49" t="s">
         <v>84</v>
       </c>
-      <c r="E33" s="40" t="s">
+      <c r="E33" s="39" t="s">
         <v>197</v>
       </c>
-      <c r="F33" s="40" t="s">
+      <c r="F33" s="39" t="s">
         <v>198</v>
       </c>
-      <c r="G33" s="65" t="s">
+      <c r="G33" s="64" t="s">
         <v>87</v>
       </c>
-      <c r="H33" s="69" t="s">
+      <c r="H33" s="68" t="s">
         <v>199</v>
       </c>
       <c r="I33" s="4"/>
@@ -12544,10 +12511,10 @@
       <c r="R33" s="28"/>
     </row>
     <row r="34">
-      <c r="A34" s="67" t="s">
+      <c r="A34" s="66" t="s">
         <v>200</v>
       </c>
-      <c r="B34" s="68" t="s">
+      <c r="B34" s="67" t="s">
         <v>90</v>
       </c>
       <c r="C34" s="4" t="s">
@@ -12560,10 +12527,10 @@
         <v>201</v>
       </c>
       <c r="F34" s="4"/>
-      <c r="G34" s="65" t="s">
+      <c r="G34" s="64" t="s">
         <v>94</v>
       </c>
-      <c r="H34" s="69" t="s">
+      <c r="H34" s="68" t="s">
         <v>202</v>
       </c>
       <c r="I34" s="4"/>
@@ -12578,10 +12545,10 @@
       <c r="R34" s="28"/>
     </row>
     <row r="35">
-      <c r="A35" s="67" t="s">
+      <c r="A35" s="66" t="s">
         <v>203</v>
       </c>
-      <c r="B35" s="68" t="s">
+      <c r="B35" s="67" t="s">
         <v>97</v>
       </c>
       <c r="C35" s="4" t="s">
@@ -12594,36 +12561,36 @@
         <v>204</v>
       </c>
       <c r="F35" s="4"/>
-      <c r="G35" s="70" t="s">
+      <c r="G35" s="69" t="s">
         <v>101</v>
       </c>
-      <c r="H35" s="71" t="s">
+      <c r="H35" s="70" t="s">
         <v>205</v>
       </c>
       <c r="I35" s="4"/>
       <c r="J35" s="4"/>
       <c r="K35" s="7"/>
-      <c r="L35" s="58"/>
-      <c r="M35" s="58"/>
-      <c r="N35" s="58"/>
-      <c r="O35" s="58"/>
-      <c r="P35" s="58"/>
-      <c r="Q35" s="58"/>
-      <c r="R35" s="58"/>
-      <c r="S35" s="59"/>
-      <c r="T35" s="59"/>
-      <c r="U35" s="59"/>
-      <c r="V35" s="59"/>
-      <c r="W35" s="59"/>
-      <c r="X35" s="59"/>
-      <c r="Y35" s="59"/>
-      <c r="Z35" s="59"/>
+      <c r="L35" s="57"/>
+      <c r="M35" s="57"/>
+      <c r="N35" s="57"/>
+      <c r="O35" s="57"/>
+      <c r="P35" s="57"/>
+      <c r="Q35" s="57"/>
+      <c r="R35" s="57"/>
+      <c r="S35" s="58"/>
+      <c r="T35" s="58"/>
+      <c r="U35" s="58"/>
+      <c r="V35" s="58"/>
+      <c r="W35" s="58"/>
+      <c r="X35" s="58"/>
+      <c r="Y35" s="58"/>
+      <c r="Z35" s="58"/>
     </row>
     <row r="36">
-      <c r="A36" s="67" t="s">
+      <c r="A36" s="66" t="s">
         <v>206</v>
       </c>
-      <c r="B36" s="68" t="s">
+      <c r="B36" s="67" t="s">
         <v>104</v>
       </c>
       <c r="C36" s="4" t="s">
@@ -12636,10 +12603,10 @@
         <v>207</v>
       </c>
       <c r="F36" s="4"/>
-      <c r="G36" s="65" t="s">
+      <c r="G36" s="64" t="s">
         <v>108</v>
       </c>
-      <c r="H36" s="69" t="s">
+      <c r="H36" s="68" t="s">
         <v>208</v>
       </c>
       <c r="I36" s="7"/>
@@ -12654,10 +12621,10 @@
       <c r="R36" s="28"/>
     </row>
     <row r="37">
-      <c r="A37" s="67" t="s">
+      <c r="A37" s="66" t="s">
         <v>209</v>
       </c>
-      <c r="B37" s="72" t="s">
+      <c r="B37" s="71" t="s">
         <v>111</v>
       </c>
       <c r="C37" s="7" t="s">
@@ -12670,10 +12637,10 @@
         <v>210</v>
       </c>
       <c r="F37" s="7"/>
-      <c r="G37" s="70" t="s">
+      <c r="G37" s="69" t="s">
         <v>108</v>
       </c>
-      <c r="H37" s="71" t="s">
+      <c r="H37" s="70" t="s">
         <v>211</v>
       </c>
       <c r="I37" s="7"/>
@@ -12688,10 +12655,10 @@
       <c r="R37" s="28"/>
     </row>
     <row r="38">
-      <c r="A38" s="67" t="s">
+      <c r="A38" s="66" t="s">
         <v>212</v>
       </c>
-      <c r="B38" s="68" t="s">
+      <c r="B38" s="67" t="s">
         <v>117</v>
       </c>
       <c r="C38" s="7" t="s">
@@ -12704,10 +12671,10 @@
         <v>213</v>
       </c>
       <c r="F38" s="4"/>
-      <c r="G38" s="65" t="s">
+      <c r="G38" s="64" t="s">
         <v>121</v>
       </c>
-      <c r="H38" s="69" t="s">
+      <c r="H38" s="68" t="s">
         <v>214</v>
       </c>
       <c r="I38" s="7"/>
@@ -12722,10 +12689,10 @@
       <c r="R38" s="28"/>
     </row>
     <row r="39">
-      <c r="A39" s="67" t="s">
+      <c r="A39" s="66" t="s">
         <v>215</v>
       </c>
-      <c r="B39" s="68" t="s">
+      <c r="B39" s="67" t="s">
         <v>124</v>
       </c>
       <c r="C39" s="4" t="s">
@@ -12738,10 +12705,10 @@
         <v>216</v>
       </c>
       <c r="F39" s="4"/>
-      <c r="G39" s="65" t="s">
+      <c r="G39" s="64" t="s">
         <v>108</v>
       </c>
-      <c r="H39" s="69" t="s">
+      <c r="H39" s="68" t="s">
         <v>217</v>
       </c>
       <c r="I39" s="7"/>
@@ -12756,10 +12723,10 @@
       <c r="R39" s="28"/>
     </row>
     <row r="40">
-      <c r="A40" s="67" t="s">
+      <c r="A40" s="66" t="s">
         <v>218</v>
       </c>
-      <c r="B40" s="68" t="s">
+      <c r="B40" s="67" t="s">
         <v>130</v>
       </c>
       <c r="C40" s="4"/>
@@ -12771,48 +12738,48 @@
       <c r="I40" s="7"/>
       <c r="J40" s="7"/>
       <c r="K40" s="7"/>
-      <c r="L40" s="58"/>
-      <c r="M40" s="58"/>
-      <c r="N40" s="58"/>
-      <c r="O40" s="58"/>
-      <c r="P40" s="58"/>
-      <c r="Q40" s="58"/>
-      <c r="R40" s="58"/>
-      <c r="S40" s="59"/>
-      <c r="T40" s="59"/>
-      <c r="U40" s="59"/>
-      <c r="V40" s="59"/>
-      <c r="W40" s="59"/>
-      <c r="X40" s="59"/>
-      <c r="Y40" s="59"/>
-      <c r="Z40" s="59"/>
+      <c r="L40" s="57"/>
+      <c r="M40" s="57"/>
+      <c r="N40" s="57"/>
+      <c r="O40" s="57"/>
+      <c r="P40" s="57"/>
+      <c r="Q40" s="57"/>
+      <c r="R40" s="57"/>
+      <c r="S40" s="58"/>
+      <c r="T40" s="58"/>
+      <c r="U40" s="58"/>
+      <c r="V40" s="58"/>
+      <c r="W40" s="58"/>
+      <c r="X40" s="58"/>
+      <c r="Y40" s="58"/>
+      <c r="Z40" s="58"/>
     </row>
     <row r="41">
-      <c r="A41" s="73" t="s">
+      <c r="A41" s="72" t="s">
         <v>219</v>
       </c>
-      <c r="B41" s="44" t="s">
+      <c r="B41" s="43" t="s">
         <v>132</v>
       </c>
-      <c r="C41" s="54" t="s">
+      <c r="C41" s="53" t="s">
         <v>133</v>
       </c>
-      <c r="D41" s="44" t="s">
+      <c r="D41" s="43" t="s">
         <v>134</v>
       </c>
-      <c r="E41" s="44" t="s">
+      <c r="E41" s="43" t="s">
         <v>220</v>
       </c>
-      <c r="F41" s="54"/>
-      <c r="G41" s="74" t="s">
+      <c r="F41" s="43"/>
+      <c r="G41" s="73" t="s">
         <v>121</v>
       </c>
-      <c r="H41" s="74" t="s">
+      <c r="H41" s="73" t="s">
         <v>221</v>
       </c>
-      <c r="I41" s="66"/>
-      <c r="J41" s="66"/>
-      <c r="K41" s="66"/>
+      <c r="I41" s="65"/>
+      <c r="J41" s="65"/>
+      <c r="K41" s="65"/>
       <c r="L41" s="28"/>
       <c r="M41" s="28"/>
       <c r="N41" s="28"/>
@@ -12822,7 +12789,7 @@
       <c r="R41" s="28"/>
     </row>
     <row r="42">
-      <c r="A42" s="75" t="s">
+      <c r="A42" s="74" t="s">
         <v>222</v>
       </c>
       <c r="B42" s="4" t="s">
@@ -12834,14 +12801,14 @@
       <c r="D42" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="E42" s="40" t="s">
+      <c r="E42" s="39" t="s">
         <v>223</v>
       </c>
       <c r="F42" s="4"/>
-      <c r="G42" s="65" t="s">
+      <c r="G42" s="64" t="s">
         <v>142</v>
       </c>
-      <c r="H42" s="65" t="s">
+      <c r="H42" s="64" t="s">
         <v>224</v>
       </c>
       <c r="I42" s="7"/>
@@ -12856,10 +12823,10 @@
       <c r="R42" s="28"/>
     </row>
     <row r="43">
-      <c r="A43" s="47" t="s">
+      <c r="A43" s="46" t="s">
         <v>225</v>
       </c>
-      <c r="B43" s="48" t="s">
+      <c r="B43" s="47" t="s">
         <v>226</v>
       </c>
       <c r="C43" s="4"/>
@@ -12867,7 +12834,7 @@
       <c r="E43" s="4"/>
       <c r="F43" s="4"/>
       <c r="G43" s="4"/>
-      <c r="H43" s="40"/>
+      <c r="H43" s="39"/>
       <c r="I43" s="7"/>
       <c r="J43" s="7"/>
       <c r="K43" s="7"/>
@@ -12880,24 +12847,24 @@
       <c r="R43" s="28"/>
     </row>
     <row r="44">
-      <c r="A44" s="55" t="s">
+      <c r="A44" s="54" t="s">
         <v>227</v>
       </c>
-      <c r="B44" s="56" t="s">
+      <c r="B44" s="55" t="s">
         <v>228</v>
       </c>
-      <c r="C44" s="76" t="s">
+      <c r="C44" s="75" t="s">
         <v>229</v>
       </c>
-      <c r="D44" s="77"/>
-      <c r="E44" s="41" t="s">
+      <c r="D44" s="76"/>
+      <c r="E44" s="40" t="s">
         <v>230</v>
       </c>
-      <c r="F44" s="41"/>
-      <c r="G44" s="41" t="s">
+      <c r="F44" s="40"/>
+      <c r="G44" s="40" t="s">
         <v>231</v>
       </c>
-      <c r="H44" s="41" t="s">
+      <c r="H44" s="40" t="s">
         <v>232</v>
       </c>
       <c r="I44" s="7"/>
@@ -12912,24 +12879,24 @@
       <c r="R44" s="28"/>
     </row>
     <row r="45">
-      <c r="A45" s="55" t="s">
+      <c r="A45" s="54" t="s">
         <v>233</v>
       </c>
-      <c r="B45" s="56" t="s">
+      <c r="B45" s="55" t="s">
         <v>234</v>
       </c>
-      <c r="C45" s="76" t="s">
+      <c r="C45" s="75" t="s">
         <v>235</v>
       </c>
-      <c r="D45" s="77"/>
-      <c r="E45" s="41" t="s">
+      <c r="D45" s="76"/>
+      <c r="E45" s="40" t="s">
         <v>236</v>
       </c>
-      <c r="F45" s="41"/>
-      <c r="G45" s="41" t="s">
+      <c r="F45" s="40"/>
+      <c r="G45" s="40" t="s">
         <v>52</v>
       </c>
-      <c r="H45" s="41" t="s">
+      <c r="H45" s="40" t="s">
         <v>178</v>
       </c>
       <c r="I45" s="7"/>
@@ -12944,27 +12911,27 @@
       <c r="R45" s="28"/>
     </row>
     <row r="46">
-      <c r="A46" s="78" t="s">
+      <c r="A46" s="77" t="s">
         <v>233</v>
       </c>
-      <c r="B46" s="79" t="s">
+      <c r="B46" s="78" t="s">
         <v>234</v>
       </c>
-      <c r="C46" s="80"/>
-      <c r="D46" s="80"/>
-      <c r="E46" s="81" t="s">
+      <c r="C46" s="79"/>
+      <c r="D46" s="79"/>
+      <c r="E46" s="80" t="s">
         <v>236</v>
       </c>
-      <c r="F46" s="82"/>
-      <c r="G46" s="82" t="s">
+      <c r="F46" s="81"/>
+      <c r="G46" s="81" t="s">
         <v>179</v>
       </c>
-      <c r="H46" s="82" t="s">
+      <c r="H46" s="81" t="s">
         <v>180</v>
       </c>
       <c r="I46" s="7"/>
       <c r="J46" s="7"/>
-      <c r="K46" s="83" t="s">
+      <c r="K46" s="82" t="s">
         <v>237</v>
       </c>
       <c r="L46" s="28"/>
@@ -12976,24 +12943,24 @@
       <c r="R46" s="28"/>
     </row>
     <row r="47">
-      <c r="A47" s="55" t="s">
+      <c r="A47" s="54" t="s">
         <v>238</v>
       </c>
-      <c r="B47" s="56" t="s">
+      <c r="B47" s="55" t="s">
         <v>239</v>
       </c>
-      <c r="C47" s="76" t="s">
+      <c r="C47" s="75" t="s">
         <v>235</v>
       </c>
-      <c r="D47" s="77"/>
-      <c r="E47" s="41" t="s">
+      <c r="D47" s="76"/>
+      <c r="E47" s="40" t="s">
         <v>240</v>
       </c>
-      <c r="F47" s="41"/>
-      <c r="G47" s="41" t="s">
+      <c r="F47" s="40"/>
+      <c r="G47" s="40" t="s">
         <v>52</v>
       </c>
-      <c r="H47" s="41" t="s">
+      <c r="H47" s="40" t="s">
         <v>178</v>
       </c>
       <c r="I47" s="4"/>
@@ -13008,26 +12975,26 @@
       <c r="R47" s="28"/>
     </row>
     <row r="48">
-      <c r="A48" s="67" t="s">
+      <c r="A48" s="66" t="s">
         <v>241</v>
       </c>
-      <c r="B48" s="68" t="s">
+      <c r="B48" s="67" t="s">
         <v>55</v>
       </c>
-      <c r="C48" s="76" t="s">
+      <c r="C48" s="75" t="s">
         <v>56</v>
       </c>
-      <c r="D48" s="56" t="s">
+      <c r="D48" s="55" t="s">
         <v>57</v>
       </c>
-      <c r="E48" s="41" t="s">
+      <c r="E48" s="40" t="s">
         <v>242</v>
       </c>
-      <c r="F48" s="41"/>
-      <c r="G48" s="41" t="s">
+      <c r="F48" s="40"/>
+      <c r="G48" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="H48" s="41" t="s">
+      <c r="H48" s="40" t="s">
         <v>243</v>
       </c>
       <c r="I48" s="4"/>
@@ -13042,68 +13009,68 @@
       <c r="R48" s="28"/>
     </row>
     <row r="49">
-      <c r="A49" s="67" t="s">
+      <c r="A49" s="66" t="s">
         <v>244</v>
       </c>
-      <c r="B49" s="68" t="s">
+      <c r="B49" s="67" t="s">
         <v>62</v>
       </c>
-      <c r="C49" s="76" t="s">
+      <c r="C49" s="75" t="s">
         <v>63</v>
       </c>
-      <c r="D49" s="56" t="s">
+      <c r="D49" s="55" t="s">
         <v>64</v>
       </c>
-      <c r="E49" s="41" t="s">
+      <c r="E49" s="40" t="s">
         <v>245</v>
       </c>
-      <c r="F49" s="41"/>
-      <c r="G49" s="41" t="s">
+      <c r="F49" s="40"/>
+      <c r="G49" s="40" t="s">
         <v>66</v>
       </c>
-      <c r="H49" s="41" t="s">
+      <c r="H49" s="40" t="s">
         <v>246</v>
       </c>
       <c r="I49" s="7"/>
       <c r="J49" s="7"/>
       <c r="K49" s="7"/>
-      <c r="L49" s="58"/>
-      <c r="M49" s="58"/>
-      <c r="N49" s="58"/>
-      <c r="O49" s="58"/>
-      <c r="P49" s="58"/>
-      <c r="Q49" s="58"/>
-      <c r="R49" s="58"/>
-      <c r="S49" s="59"/>
-      <c r="T49" s="59"/>
-      <c r="U49" s="59"/>
-      <c r="V49" s="59"/>
-      <c r="W49" s="59"/>
-      <c r="X49" s="59"/>
-      <c r="Y49" s="59"/>
-      <c r="Z49" s="59"/>
+      <c r="L49" s="57"/>
+      <c r="M49" s="57"/>
+      <c r="N49" s="57"/>
+      <c r="O49" s="57"/>
+      <c r="P49" s="57"/>
+      <c r="Q49" s="57"/>
+      <c r="R49" s="57"/>
+      <c r="S49" s="58"/>
+      <c r="T49" s="58"/>
+      <c r="U49" s="58"/>
+      <c r="V49" s="58"/>
+      <c r="W49" s="58"/>
+      <c r="X49" s="58"/>
+      <c r="Y49" s="58"/>
+      <c r="Z49" s="58"/>
     </row>
     <row r="50">
-      <c r="A50" s="67" t="s">
+      <c r="A50" s="66" t="s">
         <v>247</v>
       </c>
-      <c r="B50" s="68" t="s">
+      <c r="B50" s="67" t="s">
         <v>69</v>
       </c>
-      <c r="C50" s="76" t="s">
+      <c r="C50" s="75" t="s">
         <v>70</v>
       </c>
-      <c r="D50" s="56" t="s">
+      <c r="D50" s="55" t="s">
         <v>71</v>
       </c>
-      <c r="E50" s="41" t="s">
+      <c r="E50" s="40" t="s">
         <v>248</v>
       </c>
-      <c r="F50" s="41"/>
-      <c r="G50" s="41" t="s">
+      <c r="F50" s="40"/>
+      <c r="G50" s="40" t="s">
         <v>73</v>
       </c>
-      <c r="H50" s="41" t="s">
+      <c r="H50" s="40" t="s">
         <v>249</v>
       </c>
       <c r="I50" s="7"/>
@@ -13118,26 +13085,26 @@
       <c r="R50" s="28"/>
     </row>
     <row r="51">
-      <c r="A51" s="67" t="s">
+      <c r="A51" s="66" t="s">
         <v>250</v>
       </c>
-      <c r="B51" s="68" t="s">
+      <c r="B51" s="67" t="s">
         <v>76</v>
       </c>
-      <c r="C51" s="76" t="s">
+      <c r="C51" s="75" t="s">
         <v>77</v>
       </c>
-      <c r="D51" s="56" t="s">
+      <c r="D51" s="55" t="s">
         <v>78</v>
       </c>
-      <c r="E51" s="41" t="s">
+      <c r="E51" s="40" t="s">
         <v>251</v>
       </c>
-      <c r="F51" s="41"/>
-      <c r="G51" s="41" t="s">
+      <c r="F51" s="40"/>
+      <c r="G51" s="40" t="s">
         <v>73</v>
       </c>
-      <c r="H51" s="41" t="s">
+      <c r="H51" s="40" t="s">
         <v>252</v>
       </c>
       <c r="I51" s="7"/>
@@ -13152,28 +13119,28 @@
       <c r="R51" s="28"/>
     </row>
     <row r="52">
-      <c r="A52" s="67" t="s">
+      <c r="A52" s="66" t="s">
         <v>253</v>
       </c>
-      <c r="B52" s="68" t="s">
+      <c r="B52" s="67" t="s">
         <v>82</v>
       </c>
-      <c r="C52" s="76" t="s">
+      <c r="C52" s="75" t="s">
         <v>83</v>
       </c>
-      <c r="D52" s="56" t="s">
+      <c r="D52" s="55" t="s">
         <v>84</v>
       </c>
-      <c r="E52" s="41" t="s">
+      <c r="E52" s="40" t="s">
         <v>254</v>
       </c>
-      <c r="F52" s="41" t="s">
+      <c r="F52" s="40" t="s">
         <v>255</v>
       </c>
-      <c r="G52" s="41" t="s">
+      <c r="G52" s="40" t="s">
         <v>87</v>
       </c>
-      <c r="H52" s="41" t="s">
+      <c r="H52" s="40" t="s">
         <v>256</v>
       </c>
       <c r="I52" s="7"/>
@@ -13188,26 +13155,26 @@
       <c r="R52" s="28"/>
     </row>
     <row r="53">
-      <c r="A53" s="67" t="s">
+      <c r="A53" s="66" t="s">
         <v>257</v>
       </c>
-      <c r="B53" s="68" t="s">
+      <c r="B53" s="67" t="s">
         <v>90</v>
       </c>
-      <c r="C53" s="76" t="s">
+      <c r="C53" s="75" t="s">
         <v>91</v>
       </c>
-      <c r="D53" s="84" t="s">
+      <c r="D53" s="83" t="s">
         <v>92</v>
       </c>
-      <c r="E53" s="41" t="s">
+      <c r="E53" s="40" t="s">
         <v>258</v>
       </c>
-      <c r="F53" s="41"/>
-      <c r="G53" s="41" t="s">
+      <c r="F53" s="40"/>
+      <c r="G53" s="40" t="s">
         <v>94</v>
       </c>
-      <c r="H53" s="41" t="s">
+      <c r="H53" s="40" t="s">
         <v>259</v>
       </c>
       <c r="I53" s="7"/>
@@ -13222,26 +13189,26 @@
       <c r="R53" s="28"/>
     </row>
     <row r="54">
-      <c r="A54" s="67" t="s">
+      <c r="A54" s="66" t="s">
         <v>260</v>
       </c>
-      <c r="B54" s="68" t="s">
+      <c r="B54" s="67" t="s">
         <v>97</v>
       </c>
-      <c r="C54" s="85" t="s">
+      <c r="C54" s="84" t="s">
         <v>98</v>
       </c>
-      <c r="D54" s="84" t="s">
+      <c r="D54" s="83" t="s">
         <v>99</v>
       </c>
-      <c r="E54" s="41" t="s">
+      <c r="E54" s="40" t="s">
         <v>261</v>
       </c>
-      <c r="F54" s="41"/>
-      <c r="G54" s="82" t="s">
+      <c r="F54" s="40"/>
+      <c r="G54" s="81" t="s">
         <v>101</v>
       </c>
-      <c r="H54" s="82" t="s">
+      <c r="H54" s="81" t="s">
         <v>262</v>
       </c>
       <c r="I54" s="7"/>
@@ -13256,26 +13223,26 @@
       <c r="R54" s="28"/>
     </row>
     <row r="55">
-      <c r="A55" s="67" t="s">
+      <c r="A55" s="66" t="s">
         <v>263</v>
       </c>
-      <c r="B55" s="68" t="s">
+      <c r="B55" s="67" t="s">
         <v>104</v>
       </c>
-      <c r="C55" s="76" t="s">
+      <c r="C55" s="75" t="s">
         <v>105</v>
       </c>
-      <c r="D55" s="84" t="s">
+      <c r="D55" s="83" t="s">
         <v>106</v>
       </c>
-      <c r="E55" s="41" t="s">
+      <c r="E55" s="40" t="s">
         <v>264</v>
       </c>
-      <c r="F55" s="41"/>
-      <c r="G55" s="82" t="s">
+      <c r="F55" s="40"/>
+      <c r="G55" s="81" t="s">
         <v>108</v>
       </c>
-      <c r="H55" s="82" t="s">
+      <c r="H55" s="81" t="s">
         <v>265</v>
       </c>
       <c r="I55" s="7"/>
@@ -13290,26 +13257,26 @@
       <c r="R55" s="28"/>
     </row>
     <row r="56">
-      <c r="A56" s="67" t="s">
+      <c r="A56" s="66" t="s">
         <v>266</v>
       </c>
-      <c r="B56" s="68" t="s">
+      <c r="B56" s="67" t="s">
         <v>111</v>
       </c>
-      <c r="C56" s="76" t="s">
+      <c r="C56" s="75" t="s">
         <v>112</v>
       </c>
-      <c r="D56" s="56" t="s">
+      <c r="D56" s="55" t="s">
         <v>113</v>
       </c>
-      <c r="E56" s="41" t="s">
+      <c r="E56" s="40" t="s">
         <v>267</v>
       </c>
-      <c r="F56" s="41"/>
-      <c r="G56" s="41" t="s">
+      <c r="F56" s="40"/>
+      <c r="G56" s="40" t="s">
         <v>108</v>
       </c>
-      <c r="H56" s="41" t="s">
+      <c r="H56" s="40" t="s">
         <v>268</v>
       </c>
       <c r="I56" s="7"/>
@@ -13324,26 +13291,26 @@
       <c r="R56" s="28"/>
     </row>
     <row r="57">
-      <c r="A57" s="67" t="s">
+      <c r="A57" s="66" t="s">
         <v>269</v>
       </c>
-      <c r="B57" s="68" t="s">
+      <c r="B57" s="67" t="s">
         <v>117</v>
       </c>
-      <c r="C57" s="76" t="s">
+      <c r="C57" s="75" t="s">
         <v>118</v>
       </c>
-      <c r="D57" s="56" t="s">
+      <c r="D57" s="55" t="s">
         <v>119</v>
       </c>
-      <c r="E57" s="41" t="s">
+      <c r="E57" s="40" t="s">
         <v>270</v>
       </c>
-      <c r="F57" s="41"/>
-      <c r="G57" s="41" t="s">
+      <c r="F57" s="40"/>
+      <c r="G57" s="40" t="s">
         <v>121</v>
       </c>
-      <c r="H57" s="41" t="s">
+      <c r="H57" s="40" t="s">
         <v>271</v>
       </c>
       <c r="I57" s="7"/>
@@ -13358,26 +13325,26 @@
       <c r="R57" s="28"/>
     </row>
     <row r="58">
-      <c r="A58" s="67" t="s">
+      <c r="A58" s="66" t="s">
         <v>272</v>
       </c>
-      <c r="B58" s="68" t="s">
+      <c r="B58" s="67" t="s">
         <v>124</v>
       </c>
-      <c r="C58" s="76" t="s">
+      <c r="C58" s="75" t="s">
         <v>125</v>
       </c>
-      <c r="D58" s="56" t="s">
+      <c r="D58" s="55" t="s">
         <v>126</v>
       </c>
-      <c r="E58" s="41" t="s">
+      <c r="E58" s="40" t="s">
         <v>273</v>
       </c>
-      <c r="F58" s="41"/>
-      <c r="G58" s="41" t="s">
+      <c r="F58" s="40"/>
+      <c r="G58" s="40" t="s">
         <v>108</v>
       </c>
-      <c r="H58" s="41" t="s">
+      <c r="H58" s="40" t="s">
         <v>274</v>
       </c>
       <c r="I58" s="7"/>
@@ -13392,18 +13359,18 @@
       <c r="R58" s="28"/>
     </row>
     <row r="59">
-      <c r="A59" s="67" t="s">
+      <c r="A59" s="66" t="s">
         <v>275</v>
       </c>
-      <c r="B59" s="68" t="s">
+      <c r="B59" s="67" t="s">
         <v>130</v>
       </c>
-      <c r="C59" s="76"/>
-      <c r="D59" s="77"/>
-      <c r="E59" s="41"/>
-      <c r="F59" s="41"/>
-      <c r="G59" s="41"/>
-      <c r="H59" s="41"/>
+      <c r="C59" s="75"/>
+      <c r="D59" s="76"/>
+      <c r="E59" s="40"/>
+      <c r="F59" s="40"/>
+      <c r="G59" s="40"/>
+      <c r="H59" s="40"/>
       <c r="I59" s="7"/>
       <c r="J59" s="7"/>
       <c r="K59" s="7"/>
@@ -13416,26 +13383,26 @@
       <c r="R59" s="28"/>
     </row>
     <row r="60">
-      <c r="A60" s="75" t="s">
+      <c r="A60" s="74" t="s">
         <v>276</v>
       </c>
-      <c r="B60" s="40" t="s">
+      <c r="B60" s="39" t="s">
         <v>132</v>
       </c>
-      <c r="C60" s="85" t="s">
+      <c r="C60" s="84" t="s">
         <v>133</v>
       </c>
-      <c r="D60" s="84" t="s">
+      <c r="D60" s="83" t="s">
         <v>134</v>
       </c>
-      <c r="E60" s="41" t="s">
+      <c r="E60" s="40" t="s">
         <v>277</v>
       </c>
-      <c r="F60" s="41"/>
-      <c r="G60" s="41" t="s">
+      <c r="F60" s="40"/>
+      <c r="G60" s="40" t="s">
         <v>121</v>
       </c>
-      <c r="H60" s="41" t="s">
+      <c r="H60" s="40" t="s">
         <v>278</v>
       </c>
       <c r="I60" s="7"/>
@@ -13450,26 +13417,26 @@
       <c r="R60" s="28"/>
     </row>
     <row r="61">
-      <c r="A61" s="75" t="s">
+      <c r="A61" s="74" t="s">
         <v>279</v>
       </c>
-      <c r="B61" s="40" t="s">
+      <c r="B61" s="39" t="s">
         <v>138</v>
       </c>
-      <c r="C61" s="85" t="s">
+      <c r="C61" s="84" t="s">
         <v>139</v>
       </c>
-      <c r="D61" s="84" t="s">
+      <c r="D61" s="83" t="s">
         <v>140</v>
       </c>
-      <c r="E61" s="41" t="s">
+      <c r="E61" s="40" t="s">
         <v>280</v>
       </c>
-      <c r="F61" s="82"/>
-      <c r="G61" s="41" t="s">
+      <c r="F61" s="81"/>
+      <c r="G61" s="40" t="s">
         <v>142</v>
       </c>
-      <c r="H61" s="41" t="s">
+      <c r="H61" s="40" t="s">
         <v>281</v>
       </c>
       <c r="I61" s="7"/>
@@ -13484,24 +13451,24 @@
       <c r="R61" s="28"/>
     </row>
     <row r="62">
-      <c r="A62" s="47" t="s">
+      <c r="A62" s="46" t="s">
         <v>282</v>
       </c>
-      <c r="B62" s="48" t="s">
+      <c r="B62" s="47" t="s">
         <v>283</v>
       </c>
       <c r="C62" s="14" t="s">
         <v>284</v>
       </c>
-      <c r="D62" s="86"/>
-      <c r="E62" s="50" t="s">
+      <c r="D62" s="85"/>
+      <c r="E62" s="49" t="s">
         <v>285</v>
       </c>
-      <c r="F62" s="86"/>
-      <c r="G62" s="50" t="s">
+      <c r="F62" s="85"/>
+      <c r="G62" s="49" t="s">
         <v>286</v>
       </c>
-      <c r="H62" s="50" t="s">
+      <c r="H62" s="49" t="s">
         <v>287</v>
       </c>
       <c r="I62" s="7"/>
@@ -13516,26 +13483,26 @@
       <c r="R62" s="28"/>
     </row>
     <row r="63">
-      <c r="A63" s="38" t="s">
+      <c r="A63" s="37" t="s">
         <v>288</v>
       </c>
-      <c r="B63" s="39" t="s">
+      <c r="B63" s="38" t="s">
         <v>289</v>
       </c>
-      <c r="C63" s="87" t="s">
+      <c r="C63" s="86" t="s">
         <v>290</v>
       </c>
-      <c r="D63" s="88" t="s">
+      <c r="D63" s="87" t="s">
         <v>291</v>
       </c>
-      <c r="E63" s="60" t="s">
+      <c r="E63" s="59" t="s">
         <v>292</v>
       </c>
       <c r="F63" s="87"/>
       <c r="G63" s="87" t="s">
         <v>293</v>
       </c>
-      <c r="H63" s="89" t="s">
+      <c r="H63" s="88" t="s">
         <v>294</v>
       </c>
       <c r="I63" s="7"/>
@@ -13552,20 +13519,20 @@
       <c r="R63" s="28"/>
     </row>
     <row r="64">
-      <c r="A64" s="49" t="s">
+      <c r="A64" s="48" t="s">
         <v>296</v>
       </c>
-      <c r="B64" s="48"/>
+      <c r="B64" s="47"/>
       <c r="C64" s="4"/>
       <c r="D64" s="4"/>
-      <c r="E64" s="41" t="s">
+      <c r="E64" s="40" t="s">
         <v>297</v>
       </c>
-      <c r="F64" s="41"/>
-      <c r="G64" s="41" t="s">
+      <c r="F64" s="40"/>
+      <c r="G64" s="40" t="s">
         <v>298</v>
       </c>
-      <c r="H64" s="41" t="s">
+      <c r="H64" s="40" t="s">
         <v>299</v>
       </c>
       <c r="I64" s="7"/>
@@ -13580,26 +13547,26 @@
       <c r="R64" s="28"/>
     </row>
     <row r="65">
-      <c r="A65" s="38" t="s">
+      <c r="A65" s="37" t="s">
         <v>300</v>
       </c>
-      <c r="B65" s="39" t="s">
+      <c r="B65" s="38" t="s">
         <v>301</v>
       </c>
-      <c r="C65" s="88" t="s">
+      <c r="C65" s="87" t="s">
         <v>302</v>
       </c>
-      <c r="D65" s="88" t="s">
+      <c r="D65" s="87" t="s">
         <v>303</v>
       </c>
-      <c r="E65" s="90" t="s">
+      <c r="E65" s="89" t="s">
         <v>304</v>
       </c>
-      <c r="F65" s="91"/>
-      <c r="G65" s="92" t="s">
+      <c r="F65" s="90"/>
+      <c r="G65" s="91" t="s">
         <v>305</v>
       </c>
-      <c r="H65" s="93" t="s">
+      <c r="H65" s="92" t="s">
         <v>306</v>
       </c>
       <c r="I65" s="7"/>
@@ -13616,20 +13583,20 @@
       <c r="R65" s="28"/>
     </row>
     <row r="66">
-      <c r="A66" s="49" t="s">
+      <c r="A66" s="48" t="s">
         <v>307</v>
       </c>
-      <c r="B66" s="48"/>
+      <c r="B66" s="47"/>
       <c r="C66" s="4"/>
       <c r="D66" s="4"/>
-      <c r="E66" s="41" t="s">
+      <c r="E66" s="40" t="s">
         <v>308</v>
       </c>
-      <c r="F66" s="41"/>
-      <c r="G66" s="41" t="s">
+      <c r="F66" s="40"/>
+      <c r="G66" s="40" t="s">
         <v>298</v>
       </c>
-      <c r="H66" s="41" t="s">
+      <c r="H66" s="40" t="s">
         <v>309</v>
       </c>
       <c r="I66" s="7"/>
@@ -13644,26 +13611,26 @@
       <c r="R66" s="28"/>
     </row>
     <row r="67">
-      <c r="A67" s="38" t="s">
+      <c r="A67" s="37" t="s">
         <v>310</v>
       </c>
-      <c r="B67" s="39" t="s">
+      <c r="B67" s="38" t="s">
         <v>311</v>
       </c>
-      <c r="C67" s="88" t="s">
+      <c r="C67" s="87" t="s">
         <v>302</v>
       </c>
-      <c r="D67" s="88" t="s">
+      <c r="D67" s="87" t="s">
         <v>303</v>
       </c>
-      <c r="E67" s="60" t="s">
+      <c r="E67" s="59" t="s">
         <v>312</v>
       </c>
       <c r="F67" s="87"/>
-      <c r="G67" s="94" t="s">
+      <c r="G67" s="93" t="s">
         <v>305</v>
       </c>
-      <c r="H67" s="94" t="s">
+      <c r="H67" s="93" t="s">
         <v>313</v>
       </c>
       <c r="I67" s="7"/>
@@ -13678,20 +13645,20 @@
       <c r="R67" s="28"/>
     </row>
     <row r="68">
-      <c r="A68" s="47" t="s">
+      <c r="A68" s="46" t="s">
         <v>314</v>
       </c>
-      <c r="B68" s="95"/>
-      <c r="C68" s="57"/>
-      <c r="D68" s="57"/>
-      <c r="E68" s="82" t="s">
+      <c r="B68" s="94"/>
+      <c r="C68" s="40"/>
+      <c r="D68" s="40"/>
+      <c r="E68" s="81" t="s">
         <v>315</v>
       </c>
-      <c r="F68" s="82"/>
-      <c r="G68" s="82" t="s">
+      <c r="F68" s="81"/>
+      <c r="G68" s="81" t="s">
         <v>298</v>
       </c>
-      <c r="H68" s="82" t="s">
+      <c r="H68" s="81" t="s">
         <v>316</v>
       </c>
       <c r="I68" s="7"/>
@@ -13706,10 +13673,10 @@
       <c r="R68" s="28"/>
     </row>
     <row r="69">
-      <c r="A69" s="34" t="s">
+      <c r="A69" s="33" t="s">
         <v>317</v>
       </c>
-      <c r="B69" s="96" t="s">
+      <c r="B69" s="95" t="s">
         <v>318</v>
       </c>
       <c r="C69" s="4"/>
@@ -13730,15 +13697,15 @@
       <c r="R69" s="28"/>
     </row>
     <row r="70">
-      <c r="A70" s="38" t="s">
+      <c r="A70" s="37" t="s">
         <v>319</v>
       </c>
-      <c r="B70" s="39" t="s">
+      <c r="B70" s="38" t="s">
         <v>320</v>
       </c>
       <c r="C70" s="4"/>
       <c r="D70" s="4"/>
-      <c r="E70" s="40"/>
+      <c r="E70" s="39"/>
       <c r="F70" s="4"/>
       <c r="G70" s="4"/>
       <c r="H70" s="4"/>
@@ -13754,10 +13721,10 @@
       <c r="R70" s="28"/>
     </row>
     <row r="71">
-      <c r="A71" s="47" t="s">
+      <c r="A71" s="46" t="s">
         <v>321</v>
       </c>
-      <c r="B71" s="48" t="s">
+      <c r="B71" s="47" t="s">
         <v>6</v>
       </c>
       <c r="C71" s="4" t="s">
@@ -13792,31 +13759,31 @@
       <c r="R71" s="28"/>
     </row>
     <row r="72">
-      <c r="A72" s="52" t="s">
+      <c r="A72" s="51" t="s">
         <v>327</v>
       </c>
-      <c r="B72" s="53" t="s">
+      <c r="B72" s="52" t="s">
         <v>328</v>
       </c>
-      <c r="C72" s="97" t="s">
+      <c r="C72" s="96" t="s">
         <v>329</v>
       </c>
-      <c r="D72" s="97" t="s">
+      <c r="D72" s="96" t="s">
         <v>330</v>
       </c>
-      <c r="E72" s="46" t="s">
+      <c r="E72" s="45" t="s">
         <v>331</v>
       </c>
-      <c r="F72" s="97"/>
-      <c r="G72" s="46" t="s">
+      <c r="F72" s="96"/>
+      <c r="G72" s="45" t="s">
         <v>332</v>
       </c>
-      <c r="H72" s="46" t="s">
+      <c r="H72" s="45" t="s">
         <v>333</v>
       </c>
-      <c r="I72" s="66"/>
-      <c r="J72" s="66"/>
-      <c r="K72" s="66"/>
+      <c r="I72" s="65"/>
+      <c r="J72" s="65"/>
+      <c r="K72" s="65"/>
       <c r="L72" s="28"/>
       <c r="M72" s="28"/>
       <c r="N72" s="28"/>
@@ -13826,10 +13793,10 @@
       <c r="R72" s="28"/>
     </row>
     <row r="73">
-      <c r="A73" s="49" t="s">
+      <c r="A73" s="48" t="s">
         <v>334</v>
       </c>
-      <c r="B73" s="48" t="s">
+      <c r="B73" s="47" t="s">
         <v>335</v>
       </c>
       <c r="C73" s="4" t="s">
@@ -13845,7 +13812,7 @@
       <c r="G73" s="4" t="s">
         <v>339</v>
       </c>
-      <c r="H73" s="98" t="s">
+      <c r="H73" s="97" t="s">
         <v>340</v>
       </c>
       <c r="I73" s="7"/>
@@ -13860,10 +13827,10 @@
       <c r="R73" s="28"/>
     </row>
     <row r="74">
-      <c r="A74" s="55" t="s">
+      <c r="A74" s="54" t="s">
         <v>341</v>
       </c>
-      <c r="B74" s="56" t="s">
+      <c r="B74" s="55" t="s">
         <v>342</v>
       </c>
       <c r="C74" s="4" t="s">
@@ -13894,10 +13861,10 @@
       <c r="R74" s="28"/>
     </row>
     <row r="75">
-      <c r="A75" s="47" t="s">
+      <c r="A75" s="46" t="s">
         <v>347</v>
       </c>
-      <c r="B75" s="48" t="s">
+      <c r="B75" s="47" t="s">
         <v>348</v>
       </c>
       <c r="C75" s="4" t="s">
@@ -13913,7 +13880,7 @@
       <c r="G75" s="4" t="s">
         <v>352</v>
       </c>
-      <c r="H75" s="40" t="s">
+      <c r="H75" s="39" t="s">
         <v>353</v>
       </c>
       <c r="I75" s="7"/>
@@ -13928,26 +13895,26 @@
       <c r="R75" s="28"/>
     </row>
     <row r="76">
-      <c r="A76" s="47" t="s">
+      <c r="A76" s="46" t="s">
         <v>354</v>
       </c>
-      <c r="B76" s="48" t="s">
+      <c r="B76" s="47" t="s">
         <v>355</v>
       </c>
-      <c r="C76" s="50" t="s">
+      <c r="C76" s="36" t="s">
         <v>356</v>
       </c>
-      <c r="D76" s="50" t="s">
+      <c r="D76" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="E76" s="37" t="s">
+      <c r="E76" s="36" t="s">
         <v>357</v>
       </c>
-      <c r="F76" s="37"/>
-      <c r="G76" s="37" t="s">
+      <c r="F76" s="36"/>
+      <c r="G76" s="36" t="s">
         <v>324</v>
       </c>
-      <c r="H76" s="99" t="s">
+      <c r="H76" s="98" t="s">
         <v>358</v>
       </c>
       <c r="I76" s="7"/>
@@ -13962,18 +13929,18 @@
       <c r="R76" s="28"/>
     </row>
     <row r="77">
-      <c r="A77" s="49" t="s">
+      <c r="A77" s="48" t="s">
         <v>359</v>
       </c>
-      <c r="B77" s="48" t="s">
+      <c r="B77" s="47" t="s">
         <v>360</v>
       </c>
-      <c r="C77" s="87"/>
-      <c r="D77" s="87"/>
+      <c r="C77" s="86"/>
+      <c r="D77" s="86"/>
       <c r="E77" s="87"/>
-      <c r="F77" s="91"/>
-      <c r="G77" s="87"/>
-      <c r="H77" s="87"/>
+      <c r="F77" s="90"/>
+      <c r="G77" s="86"/>
+      <c r="H77" s="86"/>
       <c r="I77" s="7"/>
       <c r="J77" s="7"/>
       <c r="K77" s="7"/>
@@ -13986,26 +13953,26 @@
       <c r="R77" s="28"/>
     </row>
     <row r="78">
-      <c r="A78" s="100" t="s">
+      <c r="A78" s="99" t="s">
         <v>361</v>
       </c>
-      <c r="B78" s="56" t="s">
+      <c r="B78" s="55" t="s">
         <v>362</v>
       </c>
-      <c r="C78" s="87" t="s">
+      <c r="C78" s="86" t="s">
         <v>363</v>
       </c>
-      <c r="D78" s="87" t="s">
+      <c r="D78" s="86" t="s">
         <v>364</v>
       </c>
       <c r="E78" s="87" t="s">
         <v>365</v>
       </c>
       <c r="F78" s="87"/>
-      <c r="G78" s="87" t="s">
+      <c r="G78" s="86" t="s">
         <v>366</v>
       </c>
-      <c r="H78" s="87" t="s">
+      <c r="H78" s="86" t="s">
         <v>367</v>
       </c>
       <c r="I78" s="7"/>
@@ -14020,22 +13987,22 @@
       <c r="R78" s="28"/>
     </row>
     <row r="79">
-      <c r="A79" s="100" t="s">
+      <c r="A79" s="99" t="s">
         <v>368</v>
       </c>
-      <c r="B79" s="56" t="s">
+      <c r="B79" s="55" t="s">
         <v>369</v>
       </c>
-      <c r="C79" s="87"/>
-      <c r="D79" s="87"/>
+      <c r="C79" s="86"/>
+      <c r="D79" s="86"/>
       <c r="E79" s="87" t="s">
         <v>370</v>
       </c>
       <c r="F79" s="87"/>
-      <c r="G79" s="87" t="s">
+      <c r="G79" s="86" t="s">
         <v>371</v>
       </c>
-      <c r="H79" s="88" t="s">
+      <c r="H79" s="87" t="s">
         <v>372</v>
       </c>
       <c r="I79" s="7"/>
@@ -14050,10 +14017,10 @@
       <c r="R79" s="28"/>
     </row>
     <row r="80">
-      <c r="A80" s="47" t="s">
+      <c r="A80" s="46" t="s">
         <v>373</v>
       </c>
-      <c r="B80" s="48" t="s">
+      <c r="B80" s="47" t="s">
         <v>374</v>
       </c>
       <c r="C80" s="4"/>
@@ -14074,10 +14041,10 @@
       <c r="R80" s="28"/>
     </row>
     <row r="81">
-      <c r="A81" s="55" t="s">
+      <c r="A81" s="54" t="s">
         <v>375</v>
       </c>
-      <c r="B81" s="56" t="s">
+      <c r="B81" s="55" t="s">
         <v>376</v>
       </c>
       <c r="C81" s="4"/>
@@ -14098,17 +14065,17 @@
       <c r="R81" s="28"/>
     </row>
     <row r="82">
-      <c r="A82" s="67" t="s">
+      <c r="A82" s="66" t="s">
         <v>377</v>
       </c>
-      <c r="B82" s="68" t="s">
+      <c r="B82" s="67" t="s">
         <v>378</v>
       </c>
       <c r="C82" s="4"/>
       <c r="D82" s="4" t="s">
         <v>379</v>
       </c>
-      <c r="E82" s="101" t="s">
+      <c r="E82" s="100" t="s">
         <v>380</v>
       </c>
       <c r="F82" s="4"/>
@@ -14130,14 +14097,14 @@
       <c r="R82" s="28"/>
     </row>
     <row r="83">
-      <c r="A83" s="67" t="s">
+      <c r="A83" s="66" t="s">
         <v>383</v>
       </c>
-      <c r="B83" s="68" t="s">
+      <c r="B83" s="67" t="s">
         <v>384</v>
       </c>
       <c r="C83" s="4"/>
-      <c r="D83" s="102" t="s">
+      <c r="D83" s="101" t="s">
         <v>385</v>
       </c>
       <c r="E83" s="4" t="s">
@@ -14147,7 +14114,7 @@
       <c r="G83" s="4" t="s">
         <v>387</v>
       </c>
-      <c r="H83" s="103" t="s">
+      <c r="H83" s="102" t="s">
         <v>388</v>
       </c>
       <c r="I83" s="7"/>
@@ -14162,10 +14129,10 @@
       <c r="R83" s="28"/>
     </row>
     <row r="84">
-      <c r="A84" s="67" t="s">
+      <c r="A84" s="66" t="s">
         <v>389</v>
       </c>
-      <c r="B84" s="68" t="s">
+      <c r="B84" s="67" t="s">
         <v>390</v>
       </c>
       <c r="C84" s="4"/>
@@ -14194,10 +14161,10 @@
       <c r="R84" s="28"/>
     </row>
     <row r="85">
-      <c r="A85" s="55" t="s">
+      <c r="A85" s="54" t="s">
         <v>393</v>
       </c>
-      <c r="B85" s="56" t="s">
+      <c r="B85" s="55" t="s">
         <v>394</v>
       </c>
       <c r="C85" s="4" t="s">
@@ -14226,10 +14193,10 @@
       <c r="R85" s="28"/>
     </row>
     <row r="86">
-      <c r="A86" s="55" t="s">
+      <c r="A86" s="54" t="s">
         <v>398</v>
       </c>
-      <c r="B86" s="56" t="s">
+      <c r="B86" s="55" t="s">
         <v>399</v>
       </c>
       <c r="C86" s="4" t="s">
@@ -14258,15 +14225,15 @@
       <c r="R86" s="28"/>
     </row>
     <row r="87">
-      <c r="A87" s="47" t="s">
+      <c r="A87" s="46" t="s">
         <v>403</v>
       </c>
-      <c r="B87" s="48" t="s">
+      <c r="B87" s="47" t="s">
         <v>404</v>
       </c>
       <c r="C87" s="4"/>
       <c r="D87" s="4"/>
-      <c r="E87" s="83" t="s">
+      <c r="E87" s="82" t="s">
         <v>405</v>
       </c>
       <c r="F87" s="7"/>
@@ -14281,26 +14248,26 @@
       <c r="K87" s="7"/>
     </row>
     <row r="88">
-      <c r="A88" s="55" t="s">
+      <c r="A88" s="54" t="s">
         <v>408</v>
       </c>
-      <c r="B88" s="56" t="s">
+      <c r="B88" s="55" t="s">
         <v>409</v>
       </c>
-      <c r="C88" s="50" t="s">
+      <c r="C88" s="36" t="s">
         <v>363</v>
       </c>
-      <c r="D88" s="50" t="s">
+      <c r="D88" s="36" t="s">
         <v>364</v>
       </c>
-      <c r="E88" s="37" t="s">
+      <c r="E88" s="36" t="s">
         <v>410</v>
       </c>
-      <c r="F88" s="37"/>
-      <c r="G88" s="37" t="s">
+      <c r="F88" s="36"/>
+      <c r="G88" s="36" t="s">
         <v>411</v>
       </c>
-      <c r="H88" s="37" t="s">
+      <c r="H88" s="36" t="s">
         <v>412</v>
       </c>
       <c r="I88" s="7"/>
@@ -14308,26 +14275,26 @@
       <c r="K88" s="7"/>
     </row>
     <row r="89">
-      <c r="A89" s="55" t="s">
+      <c r="A89" s="54" t="s">
         <v>413</v>
       </c>
-      <c r="B89" s="56" t="s">
+      <c r="B89" s="55" t="s">
         <v>414</v>
       </c>
-      <c r="C89" s="50" t="s">
+      <c r="C89" s="36" t="s">
         <v>415</v>
       </c>
-      <c r="D89" s="50" t="s">
+      <c r="D89" s="36" t="s">
         <v>416</v>
       </c>
-      <c r="E89" s="37" t="s">
+      <c r="E89" s="36" t="s">
         <v>417</v>
       </c>
-      <c r="F89" s="37"/>
-      <c r="G89" s="37" t="s">
+      <c r="F89" s="36"/>
+      <c r="G89" s="36" t="s">
         <v>411</v>
       </c>
-      <c r="H89" s="50" t="s">
+      <c r="H89" s="49" t="s">
         <v>418</v>
       </c>
       <c r="I89" s="7"/>
@@ -14335,26 +14302,26 @@
       <c r="K89" s="7"/>
     </row>
     <row r="90">
-      <c r="A90" s="55" t="s">
+      <c r="A90" s="54" t="s">
         <v>419</v>
       </c>
-      <c r="B90" s="56" t="s">
+      <c r="B90" s="55" t="s">
         <v>420</v>
       </c>
-      <c r="C90" s="50" t="s">
+      <c r="C90" s="36" t="s">
         <v>421</v>
       </c>
-      <c r="D90" s="50" t="s">
+      <c r="D90" s="36" t="s">
         <v>422</v>
       </c>
-      <c r="E90" s="37" t="s">
+      <c r="E90" s="36" t="s">
         <v>423</v>
       </c>
-      <c r="F90" s="37"/>
-      <c r="G90" s="37" t="s">
+      <c r="F90" s="36"/>
+      <c r="G90" s="36" t="s">
         <v>411</v>
       </c>
-      <c r="H90" s="37" t="s">
+      <c r="H90" s="36" t="s">
         <v>424</v>
       </c>
       <c r="I90" s="7"/>
@@ -14362,22 +14329,22 @@
       <c r="K90" s="7"/>
     </row>
     <row r="91">
-      <c r="A91" s="55" t="s">
+      <c r="A91" s="54" t="s">
         <v>425</v>
       </c>
-      <c r="B91" s="56" t="s">
+      <c r="B91" s="55" t="s">
         <v>369</v>
       </c>
       <c r="C91" s="14"/>
       <c r="D91" s="14"/>
-      <c r="E91" s="37" t="s">
+      <c r="E91" s="36" t="s">
         <v>426</v>
       </c>
       <c r="F91" s="14"/>
-      <c r="G91" s="37" t="s">
+      <c r="G91" s="36" t="s">
         <v>427</v>
       </c>
-      <c r="H91" s="104" t="s">
+      <c r="H91" s="103" t="s">
         <v>428</v>
       </c>
       <c r="I91" s="7"/>
@@ -14385,15 +14352,15 @@
       <c r="K91" s="7"/>
     </row>
     <row r="92">
-      <c r="A92" s="38" t="s">
+      <c r="A92" s="37" t="s">
         <v>429</v>
       </c>
-      <c r="B92" s="39" t="s">
+      <c r="B92" s="38" t="s">
         <v>8</v>
       </c>
       <c r="C92" s="7"/>
       <c r="D92" s="7"/>
-      <c r="E92" s="90" t="s">
+      <c r="E92" s="89" t="s">
         <v>405</v>
       </c>
       <c r="F92" s="7"/>
@@ -14408,22 +14375,22 @@
       <c r="K92" s="7"/>
     </row>
     <row r="93">
-      <c r="A93" s="105" t="s">
+      <c r="A93" s="104" t="s">
         <v>429</v>
       </c>
-      <c r="B93" s="106" t="s">
+      <c r="B93" s="105" t="s">
         <v>8</v>
       </c>
       <c r="C93" s="7"/>
       <c r="D93" s="7"/>
-      <c r="E93" s="90" t="s">
+      <c r="E93" s="89" t="s">
         <v>405</v>
       </c>
       <c r="F93" s="7"/>
-      <c r="G93" s="82" t="s">
+      <c r="G93" s="81" t="s">
         <v>432</v>
       </c>
-      <c r="H93" s="82" t="s">
+      <c r="H93" s="81" t="s">
         <v>433</v>
       </c>
       <c r="I93" s="7"/>
@@ -14431,26 +14398,26 @@
       <c r="K93" s="7"/>
     </row>
     <row r="94">
-      <c r="A94" s="47" t="s">
+      <c r="A94" s="46" t="s">
         <v>434</v>
       </c>
-      <c r="B94" s="48" t="s">
+      <c r="B94" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="C94" s="50" t="s">
+      <c r="C94" s="49" t="s">
         <v>322</v>
       </c>
-      <c r="D94" s="50" t="s">
+      <c r="D94" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="E94" s="50" t="s">
+      <c r="E94" s="49" t="s">
         <v>435</v>
       </c>
-      <c r="F94" s="50"/>
-      <c r="G94" s="37" t="s">
+      <c r="F94" s="49"/>
+      <c r="G94" s="36" t="s">
         <v>436</v>
       </c>
-      <c r="H94" s="50" t="s">
+      <c r="H94" s="49" t="s">
         <v>437</v>
       </c>
       <c r="I94" s="7"/>
@@ -14458,26 +14425,26 @@
       <c r="K94" s="7"/>
     </row>
     <row r="95">
-      <c r="A95" s="55" t="s">
+      <c r="A95" s="54" t="s">
         <v>438</v>
       </c>
-      <c r="B95" s="56" t="s">
+      <c r="B95" s="55" t="s">
         <v>439</v>
       </c>
-      <c r="C95" s="50" t="s">
+      <c r="C95" s="49" t="s">
         <v>440</v>
       </c>
-      <c r="D95" s="50" t="s">
+      <c r="D95" s="49" t="s">
         <v>441</v>
       </c>
-      <c r="E95" s="50" t="s">
+      <c r="E95" s="49" t="s">
         <v>442</v>
       </c>
-      <c r="F95" s="50"/>
-      <c r="G95" s="37" t="s">
+      <c r="F95" s="49"/>
+      <c r="G95" s="36" t="s">
         <v>443</v>
       </c>
-      <c r="H95" s="99" t="s">
+      <c r="H95" s="98" t="s">
         <v>444</v>
       </c>
       <c r="I95" s="7"/>
@@ -14485,10 +14452,10 @@
       <c r="K95" s="7"/>
     </row>
     <row r="96">
-      <c r="A96" s="47" t="s">
+      <c r="A96" s="46" t="s">
         <v>445</v>
       </c>
-      <c r="B96" s="48" t="s">
+      <c r="B96" s="47" t="s">
         <v>446</v>
       </c>
       <c r="C96" s="4"/>
@@ -14502,10 +14469,10 @@
       <c r="K96" s="7"/>
     </row>
     <row r="97">
-      <c r="A97" s="55" t="s">
+      <c r="A97" s="54" t="s">
         <v>447</v>
       </c>
-      <c r="B97" s="56" t="s">
+      <c r="B97" s="55" t="s">
         <v>335</v>
       </c>
       <c r="C97" s="4" t="s">
@@ -14529,10 +14496,10 @@
       <c r="K97" s="7"/>
     </row>
     <row r="98">
-      <c r="A98" s="55" t="s">
+      <c r="A98" s="54" t="s">
         <v>451</v>
       </c>
-      <c r="B98" s="56" t="s">
+      <c r="B98" s="55" t="s">
         <v>342</v>
       </c>
       <c r="C98" s="4" t="s">
@@ -14556,10 +14523,10 @@
       <c r="K98" s="7"/>
     </row>
     <row r="99">
-      <c r="A99" s="47" t="s">
+      <c r="A99" s="46" t="s">
         <v>454</v>
       </c>
-      <c r="B99" s="48" t="s">
+      <c r="B99" s="47" t="s">
         <v>455</v>
       </c>
       <c r="C99" s="4"/>
@@ -14573,10 +14540,10 @@
       <c r="K99" s="7"/>
     </row>
     <row r="100">
-      <c r="A100" s="55" t="s">
+      <c r="A100" s="54" t="s">
         <v>456</v>
       </c>
-      <c r="B100" s="56" t="s">
+      <c r="B100" s="55" t="s">
         <v>82</v>
       </c>
       <c r="C100" s="4" t="s">
@@ -14591,10 +14558,10 @@
       <c r="F100" s="4" t="s">
         <v>460</v>
       </c>
-      <c r="G100" s="37" t="s">
+      <c r="G100" s="36" t="s">
         <v>461</v>
       </c>
-      <c r="H100" s="104" t="s">
+      <c r="H100" s="103" t="s">
         <v>462</v>
       </c>
       <c r="I100" s="7"/>
@@ -14602,26 +14569,26 @@
       <c r="K100" s="7"/>
     </row>
     <row r="101">
-      <c r="A101" s="55" t="s">
+      <c r="A101" s="54" t="s">
         <v>463</v>
       </c>
-      <c r="B101" s="56" t="s">
+      <c r="B101" s="55" t="s">
         <v>464</v>
       </c>
-      <c r="C101" s="50" t="s">
+      <c r="C101" s="36" t="s">
         <v>465</v>
       </c>
-      <c r="D101" s="50" t="s">
+      <c r="D101" s="36" t="s">
         <v>466</v>
       </c>
       <c r="E101" s="4" t="s">
         <v>467</v>
       </c>
       <c r="F101" s="4"/>
-      <c r="G101" s="37" t="s">
+      <c r="G101" s="36" t="s">
         <v>468</v>
       </c>
-      <c r="H101" s="37" t="s">
+      <c r="H101" s="36" t="s">
         <v>469</v>
       </c>
       <c r="I101" s="7"/>
@@ -14629,16 +14596,16 @@
       <c r="K101" s="7"/>
     </row>
     <row r="102">
-      <c r="A102" s="47" t="s">
+      <c r="A102" s="46" t="s">
         <v>470</v>
       </c>
-      <c r="B102" s="48" t="s">
+      <c r="B102" s="47" t="s">
         <v>471</v>
       </c>
-      <c r="C102" s="50" t="s">
+      <c r="C102" s="36" t="s">
         <v>356</v>
       </c>
-      <c r="D102" s="50" t="s">
+      <c r="D102" s="36" t="s">
         <v>8</v>
       </c>
       <c r="E102" s="4" t="s">
@@ -14648,7 +14615,7 @@
       <c r="G102" s="4" t="s">
         <v>436</v>
       </c>
-      <c r="H102" s="107" t="s">
+      <c r="H102" s="106" t="s">
         <v>473</v>
       </c>
       <c r="I102" s="7"/>
@@ -14656,43 +14623,43 @@
       <c r="K102" s="7"/>
     </row>
     <row r="103">
-      <c r="A103" s="47" t="s">
+      <c r="A103" s="46" t="s">
         <v>474</v>
       </c>
-      <c r="B103" s="48" t="s">
+      <c r="B103" s="47" t="s">
         <v>475</v>
       </c>
-      <c r="C103" s="108"/>
-      <c r="D103" s="108"/>
-      <c r="E103" s="108"/>
-      <c r="F103" s="108"/>
-      <c r="G103" s="108"/>
-      <c r="H103" s="108"/>
+      <c r="C103" s="107"/>
+      <c r="D103" s="107"/>
+      <c r="E103" s="75"/>
+      <c r="F103" s="107"/>
+      <c r="G103" s="75"/>
+      <c r="H103" s="75"/>
       <c r="I103" s="7"/>
       <c r="J103" s="7"/>
       <c r="K103" s="7"/>
     </row>
     <row r="104">
-      <c r="A104" s="55" t="s">
+      <c r="A104" s="54" t="s">
         <v>476</v>
       </c>
-      <c r="B104" s="56" t="s">
+      <c r="B104" s="55" t="s">
         <v>362</v>
       </c>
-      <c r="C104" s="108" t="s">
+      <c r="C104" s="107" t="s">
         <v>477</v>
       </c>
-      <c r="D104" s="40" t="s">
+      <c r="D104" s="4" t="s">
         <v>364</v>
       </c>
       <c r="E104" s="4" t="s">
         <v>478</v>
       </c>
       <c r="F104" s="4"/>
-      <c r="G104" s="41" t="s">
+      <c r="G104" s="40" t="s">
         <v>479</v>
       </c>
-      <c r="H104" s="41" t="s">
+      <c r="H104" s="40" t="s">
         <v>480</v>
       </c>
       <c r="I104" s="7"/>
@@ -14700,24 +14667,24 @@
       <c r="K104" s="7"/>
     </row>
     <row r="105">
-      <c r="A105" s="55" t="s">
+      <c r="A105" s="54" t="s">
         <v>481</v>
       </c>
-      <c r="B105" s="56" t="s">
+      <c r="B105" s="55" t="s">
         <v>369</v>
       </c>
-      <c r="C105" s="108" t="s">
+      <c r="C105" s="107" t="s">
         <v>176</v>
       </c>
-      <c r="D105" s="40"/>
+      <c r="D105" s="4"/>
       <c r="E105" s="4" t="s">
         <v>482</v>
       </c>
       <c r="F105" s="4"/>
-      <c r="G105" s="41" t="s">
+      <c r="G105" s="40" t="s">
         <v>483</v>
       </c>
-      <c r="H105" s="98" t="s">
+      <c r="H105" s="97" t="s">
         <v>484</v>
       </c>
       <c r="I105" s="7"/>
@@ -14725,143 +14692,143 @@
       <c r="K105" s="7"/>
     </row>
     <row r="106">
-      <c r="A106" s="49" t="s">
+      <c r="A106" s="48" t="s">
         <v>485</v>
       </c>
-      <c r="B106" s="48" t="s">
+      <c r="B106" s="47" t="s">
         <v>486</v>
       </c>
-      <c r="C106" s="87"/>
-      <c r="D106" s="91"/>
-      <c r="E106" s="91"/>
-      <c r="F106" s="91"/>
-      <c r="G106" s="91"/>
-      <c r="H106" s="91"/>
-      <c r="I106" s="91"/>
-      <c r="J106" s="91"/>
-      <c r="K106" s="91"/>
+      <c r="C106" s="86"/>
+      <c r="D106" s="108"/>
+      <c r="E106" s="108"/>
+      <c r="F106" s="108"/>
+      <c r="G106" s="108"/>
+      <c r="H106" s="108"/>
+      <c r="I106" s="108"/>
+      <c r="J106" s="108"/>
+      <c r="K106" s="90"/>
     </row>
     <row r="107">
-      <c r="A107" s="100" t="s">
+      <c r="A107" s="99" t="s">
         <v>487</v>
       </c>
-      <c r="B107" s="56" t="s">
+      <c r="B107" s="55" t="s">
         <v>488</v>
       </c>
-      <c r="C107" s="87" t="s">
+      <c r="C107" s="86" t="s">
         <v>489</v>
       </c>
-      <c r="D107" s="87" t="s">
+      <c r="D107" s="86" t="s">
         <v>490</v>
       </c>
-      <c r="E107" s="87" t="s">
+      <c r="E107" s="86" t="s">
         <v>491</v>
       </c>
-      <c r="F107" s="87"/>
-      <c r="G107" s="87" t="s">
+      <c r="F107" s="86"/>
+      <c r="G107" s="86" t="s">
         <v>492</v>
       </c>
       <c r="H107" s="109" t="s">
         <v>493</v>
       </c>
-      <c r="I107" s="91"/>
-      <c r="J107" s="91"/>
-      <c r="K107" s="91"/>
+      <c r="I107" s="108"/>
+      <c r="J107" s="108"/>
+      <c r="K107" s="90"/>
     </row>
     <row r="108">
       <c r="A108" s="110" t="s">
         <v>494</v>
       </c>
       <c r="B108" s="111"/>
-      <c r="C108" s="87"/>
-      <c r="D108" s="87"/>
-      <c r="E108" s="87" t="s">
+      <c r="C108" s="86"/>
+      <c r="D108" s="86"/>
+      <c r="E108" s="86" t="s">
         <v>495</v>
       </c>
-      <c r="F108" s="87" t="s">
+      <c r="F108" s="86" t="s">
         <v>496</v>
       </c>
-      <c r="G108" s="87" t="s">
+      <c r="G108" s="86" t="s">
         <v>497</v>
       </c>
       <c r="H108" s="109" t="s">
         <v>498</v>
       </c>
-      <c r="I108" s="91"/>
-      <c r="J108" s="91"/>
-      <c r="K108" s="91"/>
+      <c r="I108" s="108"/>
+      <c r="J108" s="108"/>
+      <c r="K108" s="90"/>
     </row>
     <row r="109">
       <c r="A109" s="110" t="s">
         <v>499</v>
       </c>
       <c r="B109" s="111"/>
-      <c r="C109" s="87"/>
-      <c r="D109" s="91"/>
-      <c r="E109" s="90" t="s">
+      <c r="C109" s="86"/>
+      <c r="D109" s="108"/>
+      <c r="E109" s="89" t="s">
         <v>495</v>
       </c>
-      <c r="F109" s="91" t="s">
+      <c r="F109" s="108" t="s">
         <v>500</v>
       </c>
-      <c r="G109" s="91" t="s">
+      <c r="G109" s="108" t="s">
         <v>497</v>
       </c>
-      <c r="H109" s="91" t="s">
+      <c r="H109" s="108" t="s">
         <v>501</v>
       </c>
-      <c r="I109" s="91"/>
-      <c r="J109" s="91"/>
-      <c r="K109" s="91"/>
+      <c r="I109" s="108"/>
+      <c r="J109" s="108"/>
+      <c r="K109" s="90"/>
     </row>
     <row r="110">
-      <c r="A110" s="100" t="s">
+      <c r="A110" s="99" t="s">
         <v>502</v>
       </c>
-      <c r="B110" s="56" t="s">
+      <c r="B110" s="55" t="s">
         <v>503</v>
       </c>
-      <c r="C110" s="87" t="s">
+      <c r="C110" s="86" t="s">
         <v>504</v>
       </c>
-      <c r="D110" s="87" t="s">
+      <c r="D110" s="86" t="s">
         <v>505</v>
       </c>
-      <c r="E110" s="87" t="s">
+      <c r="E110" s="86" t="s">
         <v>506</v>
       </c>
-      <c r="F110" s="87"/>
-      <c r="G110" s="87" t="s">
+      <c r="F110" s="86"/>
+      <c r="G110" s="86" t="s">
         <v>507</v>
       </c>
-      <c r="H110" s="87" t="s">
+      <c r="H110" s="86" t="s">
         <v>508</v>
       </c>
-      <c r="I110" s="91"/>
-      <c r="J110" s="91"/>
-      <c r="K110" s="91"/>
+      <c r="I110" s="108"/>
+      <c r="J110" s="108"/>
+      <c r="K110" s="90"/>
     </row>
     <row r="111">
-      <c r="A111" s="100" t="s">
+      <c r="A111" s="99" t="s">
         <v>509</v>
       </c>
-      <c r="B111" s="56" t="s">
+      <c r="B111" s="55" t="s">
         <v>510</v>
       </c>
-      <c r="C111" s="87" t="s">
+      <c r="C111" s="86" t="s">
         <v>511</v>
       </c>
-      <c r="D111" s="87" t="s">
+      <c r="D111" s="86" t="s">
         <v>512</v>
       </c>
       <c r="E111" s="112" t="s">
         <v>513</v>
       </c>
       <c r="F111" s="112"/>
-      <c r="G111" s="87" t="s">
+      <c r="G111" s="86" t="s">
         <v>507</v>
       </c>
-      <c r="H111" s="87" t="s">
+      <c r="H111" s="86" t="s">
         <v>514</v>
       </c>
       <c r="I111" s="7"/>
@@ -14869,10 +14836,10 @@
       <c r="K111" s="7"/>
     </row>
     <row r="112">
-      <c r="A112" s="49" t="s">
+      <c r="A112" s="48" t="s">
         <v>515</v>
       </c>
-      <c r="B112" s="48" t="s">
+      <c r="B112" s="47" t="s">
         <v>516</v>
       </c>
       <c r="C112" s="7"/>
@@ -14886,26 +14853,26 @@
       <c r="K112" s="7"/>
     </row>
     <row r="113">
-      <c r="A113" s="100" t="s">
+      <c r="A113" s="99" t="s">
         <v>517</v>
       </c>
-      <c r="B113" s="56" t="s">
+      <c r="B113" s="55" t="s">
         <v>518</v>
       </c>
-      <c r="C113" s="37" t="s">
+      <c r="C113" s="36" t="s">
         <v>519</v>
       </c>
-      <c r="D113" s="50" t="s">
+      <c r="D113" s="49" t="s">
         <v>520</v>
       </c>
-      <c r="E113" s="50" t="s">
+      <c r="E113" s="49" t="s">
         <v>521</v>
       </c>
-      <c r="F113" s="40"/>
-      <c r="G113" s="50" t="s">
+      <c r="F113" s="39"/>
+      <c r="G113" s="49" t="s">
         <v>522</v>
       </c>
-      <c r="H113" s="51" t="s">
+      <c r="H113" s="50" t="s">
         <v>523</v>
       </c>
       <c r="I113" s="7"/>
@@ -14916,7 +14883,7 @@
       <c r="A114" s="113" t="s">
         <v>517</v>
       </c>
-      <c r="B114" s="62" t="s">
+      <c r="B114" s="61" t="s">
         <v>518</v>
       </c>
       <c r="C114" s="114" t="s">
@@ -14925,14 +14892,14 @@
       <c r="D114" s="115" t="s">
         <v>520</v>
       </c>
-      <c r="E114" s="50" t="s">
+      <c r="E114" s="49" t="s">
         <v>524</v>
       </c>
-      <c r="F114" s="40"/>
-      <c r="G114" s="50" t="s">
+      <c r="F114" s="39"/>
+      <c r="G114" s="49" t="s">
         <v>522</v>
       </c>
-      <c r="H114" s="51" t="s">
+      <c r="H114" s="50" t="s">
         <v>525</v>
       </c>
       <c r="I114" s="7"/>
@@ -14940,23 +14907,23 @@
       <c r="K114" s="7"/>
     </row>
     <row r="115">
-      <c r="A115" s="100" t="s">
+      <c r="A115" s="99" t="s">
         <v>526</v>
       </c>
-      <c r="B115" s="56" t="s">
+      <c r="B115" s="55" t="s">
         <v>527</v>
       </c>
-      <c r="C115" s="37" t="s">
+      <c r="C115" s="36" t="s">
         <v>528</v>
       </c>
-      <c r="D115" s="50" t="s">
+      <c r="D115" s="49" t="s">
         <v>529</v>
       </c>
-      <c r="E115" s="50" t="s">
+      <c r="E115" s="49" t="s">
         <v>530</v>
       </c>
-      <c r="F115" s="50"/>
-      <c r="G115" s="50" t="s">
+      <c r="F115" s="49"/>
+      <c r="G115" s="49" t="s">
         <v>531</v>
       </c>
       <c r="H115" s="116" t="s">
@@ -14967,10 +14934,10 @@
       <c r="K115" s="7"/>
     </row>
     <row r="116">
-      <c r="A116" s="49" t="s">
+      <c r="A116" s="48" t="s">
         <v>533</v>
       </c>
-      <c r="B116" s="48" t="s">
+      <c r="B116" s="47" t="s">
         <v>534</v>
       </c>
       <c r="C116" s="7" t="s">
@@ -14979,14 +14946,14 @@
       <c r="D116" s="7" t="s">
         <v>536</v>
       </c>
-      <c r="E116" s="117" t="s">
+      <c r="E116" s="19" t="s">
         <v>537</v>
       </c>
-      <c r="F116" s="75"/>
-      <c r="G116" s="40" t="s">
+      <c r="F116" s="19"/>
+      <c r="G116" s="4" t="s">
         <v>436</v>
       </c>
-      <c r="H116" s="118" t="s">
+      <c r="H116" s="117" t="s">
         <v>538</v>
       </c>
       <c r="I116" s="7"/>
@@ -14994,72 +14961,72 @@
       <c r="K116" s="7"/>
     </row>
     <row r="117">
-      <c r="A117" s="34" t="s">
+      <c r="A117" s="33" t="s">
         <v>539</v>
       </c>
-      <c r="B117" s="96" t="s">
+      <c r="B117" s="95" t="s">
         <v>540</v>
       </c>
-      <c r="C117" s="37"/>
-      <c r="D117" s="37"/>
-      <c r="E117" s="119"/>
+      <c r="C117" s="36"/>
+      <c r="D117" s="36"/>
+      <c r="E117" s="118"/>
       <c r="F117" s="119"/>
-      <c r="G117" s="50"/>
-      <c r="H117" s="50"/>
+      <c r="G117" s="49"/>
+      <c r="H117" s="49"/>
       <c r="I117" s="7"/>
       <c r="J117" s="7"/>
       <c r="K117" s="7"/>
     </row>
     <row r="118">
-      <c r="A118" s="38" t="s">
+      <c r="A118" s="37" t="s">
         <v>541</v>
       </c>
-      <c r="B118" s="39" t="s">
+      <c r="B118" s="38" t="s">
         <v>542</v>
       </c>
-      <c r="C118" s="37"/>
+      <c r="C118" s="36"/>
       <c r="D118" s="14"/>
-      <c r="E118" s="86"/>
+      <c r="E118" s="85"/>
       <c r="F118" s="14"/>
-      <c r="G118" s="86"/>
-      <c r="H118" s="86"/>
+      <c r="G118" s="85"/>
+      <c r="H118" s="85"/>
       <c r="I118" s="7"/>
       <c r="J118" s="7"/>
       <c r="K118" s="7"/>
     </row>
     <row r="119">
-      <c r="A119" s="47" t="s">
+      <c r="A119" s="46" t="s">
         <v>543</v>
       </c>
-      <c r="B119" s="48" t="s">
+      <c r="B119" s="47" t="s">
         <v>544</v>
       </c>
-      <c r="C119" s="37"/>
-      <c r="D119" s="37"/>
-      <c r="E119" s="50"/>
-      <c r="F119" s="37"/>
-      <c r="G119" s="50"/>
-      <c r="H119" s="50"/>
+      <c r="C119" s="36"/>
+      <c r="D119" s="36"/>
+      <c r="E119" s="49"/>
+      <c r="F119" s="36"/>
+      <c r="G119" s="49"/>
+      <c r="H119" s="49"/>
       <c r="I119" s="7"/>
       <c r="J119" s="7"/>
       <c r="K119" s="7"/>
     </row>
     <row r="120">
-      <c r="A120" s="55" t="s">
+      <c r="A120" s="54" t="s">
         <v>545</v>
       </c>
-      <c r="B120" s="56" t="s">
+      <c r="B120" s="55" t="s">
         <v>546</v>
       </c>
       <c r="C120" s="120" t="s">
         <v>547</v>
       </c>
       <c r="D120" s="14"/>
-      <c r="E120" s="50" t="s">
+      <c r="E120" s="49" t="s">
         <v>548</v>
       </c>
-      <c r="F120" s="37"/>
-      <c r="G120" s="50" t="s">
+      <c r="F120" s="36"/>
+      <c r="G120" s="49" t="s">
         <v>549</v>
       </c>
       <c r="H120" s="4" t="s">
@@ -15070,43 +15037,43 @@
       <c r="K120" s="7"/>
     </row>
     <row r="121">
-      <c r="A121" s="47" t="s">
+      <c r="A121" s="46" t="s">
         <v>551</v>
       </c>
-      <c r="B121" s="48" t="s">
+      <c r="B121" s="47" t="s">
         <v>552</v>
       </c>
       <c r="C121" s="14"/>
       <c r="D121" s="14"/>
-      <c r="E121" s="121"/>
-      <c r="F121" s="37"/>
-      <c r="G121" s="50"/>
-      <c r="H121" s="50"/>
+      <c r="E121" s="49"/>
+      <c r="F121" s="36"/>
+      <c r="G121" s="49"/>
+      <c r="H121" s="49"/>
       <c r="I121" s="7"/>
       <c r="J121" s="7"/>
       <c r="K121" s="7"/>
     </row>
     <row r="122">
-      <c r="A122" s="55" t="s">
+      <c r="A122" s="54" t="s">
         <v>553</v>
       </c>
-      <c r="B122" s="56" t="s">
+      <c r="B122" s="55" t="s">
         <v>554</v>
       </c>
       <c r="C122" s="14" t="s">
         <v>555</v>
       </c>
-      <c r="D122" s="122"/>
-      <c r="E122" s="123" t="s">
+      <c r="D122" s="14"/>
+      <c r="E122" s="118" t="s">
         <v>556</v>
       </c>
       <c r="F122" s="119" t="s">
         <v>557</v>
       </c>
-      <c r="G122" s="50" t="s">
+      <c r="G122" s="49" t="s">
         <v>558</v>
       </c>
-      <c r="H122" s="124" t="s">
+      <c r="H122" s="121" t="s">
         <v>559</v>
       </c>
       <c r="I122" s="7"/>
@@ -15114,26 +15081,26 @@
       <c r="K122" s="7"/>
     </row>
     <row r="123">
-      <c r="A123" s="55" t="s">
+      <c r="A123" s="54" t="s">
         <v>560</v>
       </c>
-      <c r="B123" s="56" t="s">
+      <c r="B123" s="55" t="s">
         <v>561</v>
       </c>
       <c r="C123" s="14" t="s">
         <v>562</v>
       </c>
       <c r="D123" s="14"/>
-      <c r="E123" s="125" t="s">
+      <c r="E123" s="118" t="s">
         <v>563</v>
       </c>
       <c r="F123" s="119" t="s">
         <v>557</v>
       </c>
-      <c r="G123" s="50" t="s">
+      <c r="G123" s="49" t="s">
         <v>564</v>
       </c>
-      <c r="H123" s="124" t="s">
+      <c r="H123" s="121" t="s">
         <v>565</v>
       </c>
       <c r="I123" s="7"/>
@@ -15141,60 +15108,60 @@
       <c r="K123" s="7"/>
     </row>
     <row r="124">
-      <c r="A124" s="38" t="s">
+      <c r="A124" s="37" t="s">
         <v>566</v>
       </c>
-      <c r="B124" s="39" t="s">
+      <c r="B124" s="38" t="s">
         <v>567</v>
       </c>
       <c r="C124" s="14"/>
       <c r="D124" s="14"/>
-      <c r="E124" s="50"/>
+      <c r="E124" s="49"/>
       <c r="F124" s="4"/>
       <c r="G124" s="4"/>
-      <c r="H124" s="50"/>
+      <c r="H124" s="49"/>
       <c r="I124" s="7"/>
       <c r="J124" s="7"/>
       <c r="K124" s="7"/>
     </row>
     <row r="125">
-      <c r="A125" s="47" t="s">
+      <c r="A125" s="46" t="s">
         <v>568</v>
       </c>
-      <c r="B125" s="48" t="s">
+      <c r="B125" s="47" t="s">
         <v>569</v>
       </c>
       <c r="C125" s="14"/>
       <c r="D125" s="14"/>
-      <c r="E125" s="50"/>
+      <c r="E125" s="49"/>
       <c r="F125" s="4"/>
       <c r="G125" s="4"/>
-      <c r="H125" s="50"/>
+      <c r="H125" s="49"/>
       <c r="I125" s="7"/>
       <c r="J125" s="7"/>
       <c r="K125" s="7"/>
     </row>
     <row r="126">
-      <c r="A126" s="55" t="s">
+      <c r="A126" s="54" t="s">
         <v>570</v>
       </c>
-      <c r="B126" s="56" t="s">
+      <c r="B126" s="55" t="s">
         <v>571</v>
       </c>
-      <c r="C126" s="126" t="s">
+      <c r="C126" s="122" t="s">
         <v>572</v>
       </c>
-      <c r="D126" s="126"/>
-      <c r="E126" s="126" t="s">
+      <c r="D126" s="122"/>
+      <c r="E126" s="84" t="s">
         <v>573</v>
       </c>
-      <c r="F126" s="126" t="s">
+      <c r="F126" s="122" t="s">
         <v>557</v>
       </c>
       <c r="G126" s="7" t="s">
         <v>574</v>
       </c>
-      <c r="H126" s="83" t="s">
+      <c r="H126" s="82" t="s">
         <v>575</v>
       </c>
       <c r="I126" s="7"/>
@@ -15202,20 +15169,20 @@
       <c r="K126" s="7"/>
     </row>
     <row r="127">
-      <c r="A127" s="55" t="s">
+      <c r="A127" s="54" t="s">
         <v>576</v>
       </c>
-      <c r="B127" s="56" t="s">
+      <c r="B127" s="55" t="s">
         <v>577</v>
       </c>
-      <c r="C127" s="127" t="s">
+      <c r="C127" s="123" t="s">
         <v>578</v>
       </c>
-      <c r="D127" s="126"/>
-      <c r="E127" s="126" t="s">
+      <c r="D127" s="122"/>
+      <c r="E127" s="84" t="s">
         <v>579</v>
       </c>
-      <c r="F127" s="126"/>
+      <c r="F127" s="122"/>
       <c r="G127" s="4" t="s">
         <v>549</v>
       </c>
@@ -15227,24 +15194,24 @@
       <c r="K127" s="7"/>
     </row>
     <row r="128">
-      <c r="A128" s="47" t="s">
+      <c r="A128" s="46" t="s">
         <v>580</v>
       </c>
-      <c r="B128" s="48" t="s">
+      <c r="B128" s="47" t="s">
         <v>581</v>
       </c>
-      <c r="C128" s="127" t="s">
+      <c r="C128" s="123" t="s">
         <v>582</v>
       </c>
-      <c r="D128" s="126"/>
-      <c r="E128" s="108" t="s">
+      <c r="D128" s="122"/>
+      <c r="E128" s="75" t="s">
         <v>583</v>
       </c>
-      <c r="F128" s="108"/>
+      <c r="F128" s="107"/>
       <c r="G128" s="4" t="s">
         <v>584</v>
       </c>
-      <c r="H128" s="128" t="s">
+      <c r="H128" s="124" t="s">
         <v>585</v>
       </c>
       <c r="I128" s="7"/>
@@ -15252,43 +15219,43 @@
       <c r="K128" s="7"/>
     </row>
     <row r="129">
-      <c r="A129" s="47" t="s">
+      <c r="A129" s="46" t="s">
         <v>586</v>
       </c>
-      <c r="B129" s="48" t="s">
+      <c r="B129" s="47" t="s">
         <v>587</v>
       </c>
       <c r="C129" s="14"/>
       <c r="D129" s="14"/>
-      <c r="E129" s="121"/>
-      <c r="F129" s="37"/>
-      <c r="G129" s="50"/>
-      <c r="H129" s="50"/>
+      <c r="E129" s="49"/>
+      <c r="F129" s="36"/>
+      <c r="G129" s="49"/>
+      <c r="H129" s="49"/>
       <c r="I129" s="7"/>
       <c r="J129" s="7"/>
       <c r="K129" s="7"/>
     </row>
     <row r="130">
-      <c r="A130" s="55" t="s">
+      <c r="A130" s="54" t="s">
         <v>588</v>
       </c>
-      <c r="B130" s="56" t="s">
+      <c r="B130" s="55" t="s">
         <v>589</v>
       </c>
-      <c r="C130" s="126" t="s">
+      <c r="C130" s="122" t="s">
         <v>590</v>
       </c>
-      <c r="D130" s="129"/>
-      <c r="E130" s="130" t="s">
+      <c r="D130" s="122"/>
+      <c r="E130" s="75" t="s">
         <v>591</v>
       </c>
-      <c r="F130" s="108" t="s">
+      <c r="F130" s="107" t="s">
         <v>557</v>
       </c>
       <c r="G130" s="4" t="s">
         <v>592</v>
       </c>
-      <c r="H130" s="128" t="s">
+      <c r="H130" s="124" t="s">
         <v>593</v>
       </c>
       <c r="I130" s="7"/>
@@ -15296,26 +15263,26 @@
       <c r="K130" s="7"/>
     </row>
     <row r="131">
-      <c r="A131" s="55" t="s">
+      <c r="A131" s="54" t="s">
         <v>588</v>
       </c>
-      <c r="B131" s="56" t="s">
+      <c r="B131" s="55" t="s">
         <v>589</v>
       </c>
-      <c r="C131" s="126" t="s">
+      <c r="C131" s="122" t="s">
         <v>590</v>
       </c>
-      <c r="D131" s="129"/>
-      <c r="E131" s="131" t="s">
+      <c r="D131" s="122"/>
+      <c r="E131" s="89" t="s">
         <v>591</v>
       </c>
-      <c r="F131" s="126" t="s">
+      <c r="F131" s="122" t="s">
         <v>594</v>
       </c>
       <c r="G131" s="7" t="s">
         <v>592</v>
       </c>
-      <c r="H131" s="83" t="s">
+      <c r="H131" s="82" t="s">
         <v>595</v>
       </c>
       <c r="I131" s="7"/>
@@ -15323,29 +15290,29 @@
       <c r="K131" s="7"/>
     </row>
     <row r="132">
-      <c r="A132" s="132" t="s">
+      <c r="A132" s="125" t="s">
         <v>596</v>
       </c>
-      <c r="B132" s="96" t="s">
+      <c r="B132" s="95" t="s">
         <v>597</v>
       </c>
       <c r="C132" s="7"/>
       <c r="D132" s="7"/>
-      <c r="E132" s="40" t="s">
+      <c r="E132" s="39" t="s">
         <v>598</v>
       </c>
       <c r="F132" s="4"/>
-      <c r="G132" s="41"/>
-      <c r="H132" s="41"/>
+      <c r="G132" s="40"/>
+      <c r="H132" s="40"/>
       <c r="I132" s="7"/>
       <c r="J132" s="7"/>
       <c r="K132" s="7"/>
     </row>
     <row r="133">
-      <c r="A133" s="133" t="s">
+      <c r="A133" s="126" t="s">
         <v>599</v>
       </c>
-      <c r="B133" s="39" t="s">
+      <c r="B133" s="38" t="s">
         <v>8</v>
       </c>
       <c r="C133" s="7"/>
@@ -15359,15 +15326,15 @@
       <c r="K133" s="7"/>
     </row>
     <row r="134">
-      <c r="A134" s="49" t="s">
+      <c r="A134" s="48" t="s">
         <v>600</v>
       </c>
-      <c r="B134" s="48" t="s">
+      <c r="B134" s="47" t="s">
         <v>601</v>
       </c>
       <c r="C134" s="7"/>
       <c r="D134" s="7"/>
-      <c r="E134" s="40"/>
+      <c r="E134" s="39"/>
       <c r="F134" s="4"/>
       <c r="G134" s="4"/>
       <c r="H134" s="4"/>
@@ -15376,15 +15343,15 @@
       <c r="K134" s="7"/>
     </row>
     <row r="135">
-      <c r="A135" s="100" t="s">
+      <c r="A135" s="99" t="s">
         <v>602</v>
       </c>
-      <c r="B135" s="56" t="s">
+      <c r="B135" s="55" t="s">
         <v>603</v>
       </c>
       <c r="C135" s="7"/>
       <c r="D135" s="7"/>
-      <c r="E135" s="40" t="s">
+      <c r="E135" s="39" t="s">
         <v>604</v>
       </c>
       <c r="F135" s="4" t="s">
@@ -15401,22 +15368,22 @@
       <c r="K135" s="7"/>
     </row>
     <row r="136">
-      <c r="A136" s="100" t="s">
+      <c r="A136" s="99" t="s">
         <v>608</v>
       </c>
-      <c r="B136" s="56" t="s">
+      <c r="B136" s="55" t="s">
         <v>609</v>
       </c>
       <c r="C136" s="7"/>
       <c r="D136" s="7"/>
-      <c r="E136" s="40" t="s">
+      <c r="E136" s="39" t="s">
         <v>610</v>
       </c>
       <c r="F136" s="4"/>
-      <c r="G136" s="37" t="s">
+      <c r="G136" s="36" t="s">
         <v>611</v>
       </c>
-      <c r="H136" s="134" t="s">
+      <c r="H136" s="127" t="s">
         <v>612</v>
       </c>
       <c r="I136" s="7"/>
@@ -15424,24 +15391,24 @@
       <c r="K136" s="7"/>
     </row>
     <row r="137">
-      <c r="A137" s="47" t="s">
+      <c r="A137" s="46" t="s">
         <v>613</v>
       </c>
-      <c r="B137" s="48" t="s">
+      <c r="B137" s="47" t="s">
         <v>614</v>
       </c>
-      <c r="C137" s="126" t="s">
+      <c r="C137" s="122" t="s">
         <v>615</v>
       </c>
-      <c r="D137" s="85"/>
-      <c r="E137" s="108" t="s">
+      <c r="D137" s="84"/>
+      <c r="E137" s="75" t="s">
         <v>616</v>
       </c>
       <c r="F137" s="4"/>
       <c r="G137" s="4" t="s">
         <v>324</v>
       </c>
-      <c r="H137" s="103" t="s">
+      <c r="H137" s="102" t="s">
         <v>617</v>
       </c>
       <c r="I137" s="7"/>
@@ -15449,10 +15416,10 @@
       <c r="K137" s="7"/>
     </row>
     <row r="138">
-      <c r="A138" s="133" t="s">
+      <c r="A138" s="126" t="s">
         <v>618</v>
       </c>
-      <c r="B138" s="39" t="s">
+      <c r="B138" s="38" t="s">
         <v>619</v>
       </c>
       <c r="C138" s="7"/>
@@ -15466,22 +15433,22 @@
       <c r="K138" s="7"/>
     </row>
     <row r="139">
-      <c r="A139" s="49" t="s">
+      <c r="A139" s="48" t="s">
         <v>620</v>
       </c>
-      <c r="B139" s="48" t="s">
+      <c r="B139" s="47" t="s">
         <v>621</v>
       </c>
       <c r="C139" s="14"/>
       <c r="D139" s="14"/>
-      <c r="E139" s="50" t="s">
+      <c r="E139" s="49" t="s">
         <v>622</v>
       </c>
-      <c r="F139" s="37"/>
-      <c r="G139" s="50" t="s">
+      <c r="F139" s="36"/>
+      <c r="G139" s="49" t="s">
         <v>623</v>
       </c>
-      <c r="H139" s="104" t="s">
+      <c r="H139" s="103" t="s">
         <v>624</v>
       </c>
       <c r="I139" s="7"/>
@@ -15489,24 +15456,24 @@
       <c r="K139" s="7"/>
     </row>
     <row r="140">
-      <c r="A140" s="47" t="s">
+      <c r="A140" s="46" t="s">
         <v>625</v>
       </c>
-      <c r="B140" s="48" t="s">
+      <c r="B140" s="47" t="s">
         <v>626</v>
       </c>
-      <c r="C140" s="135" t="s">
+      <c r="C140" s="7" t="s">
         <v>578</v>
       </c>
-      <c r="D140" s="135"/>
-      <c r="E140" s="60" t="s">
+      <c r="D140" s="7"/>
+      <c r="E140" s="59" t="s">
         <v>627</v>
       </c>
-      <c r="F140" s="41"/>
-      <c r="G140" s="41" t="s">
+      <c r="F140" s="4"/>
+      <c r="G140" s="4" t="s">
         <v>628</v>
       </c>
-      <c r="H140" s="41" t="s">
+      <c r="H140" s="39" t="s">
         <v>629</v>
       </c>
       <c r="I140" s="7"/>
@@ -15514,24 +15481,24 @@
       <c r="K140" s="7"/>
     </row>
     <row r="141">
-      <c r="A141" s="55" t="s">
+      <c r="A141" s="54" t="s">
         <v>630</v>
       </c>
-      <c r="B141" s="56" t="s">
+      <c r="B141" s="55" t="s">
         <v>626</v>
       </c>
-      <c r="C141" s="57" t="s">
+      <c r="C141" s="4" t="s">
         <v>631</v>
       </c>
-      <c r="D141" s="135"/>
-      <c r="E141" s="60" t="s">
+      <c r="D141" s="7"/>
+      <c r="E141" s="59" t="s">
         <v>632</v>
       </c>
-      <c r="F141" s="41"/>
-      <c r="G141" s="41" t="s">
+      <c r="F141" s="4"/>
+      <c r="G141" s="4" t="s">
         <v>628</v>
       </c>
-      <c r="H141" s="41" t="s">
+      <c r="H141" s="39" t="s">
         <v>633</v>
       </c>
       <c r="I141" s="7"/>
@@ -15539,24 +15506,24 @@
       <c r="K141" s="7"/>
     </row>
     <row r="142">
-      <c r="A142" s="47" t="s">
+      <c r="A142" s="46" t="s">
         <v>634</v>
       </c>
-      <c r="B142" s="48" t="s">
+      <c r="B142" s="47" t="s">
         <v>635</v>
       </c>
-      <c r="C142" s="126" t="s">
+      <c r="C142" s="7" t="s">
         <v>636</v>
       </c>
-      <c r="D142" s="85"/>
-      <c r="E142" s="76" t="s">
+      <c r="D142" s="7"/>
+      <c r="E142" s="39" t="s">
         <v>637</v>
       </c>
       <c r="F142" s="7"/>
       <c r="G142" s="4" t="s">
         <v>638</v>
       </c>
-      <c r="H142" s="40" t="s">
+      <c r="H142" s="39" t="s">
         <v>639</v>
       </c>
       <c r="I142" s="7"/>
@@ -15564,15 +15531,15 @@
       <c r="K142" s="7"/>
     </row>
     <row r="143">
-      <c r="A143" s="132" t="s">
+      <c r="A143" s="125" t="s">
         <v>640</v>
       </c>
-      <c r="B143" s="96" t="s">
+      <c r="B143" s="95" t="s">
         <v>641</v>
       </c>
       <c r="C143" s="7"/>
       <c r="D143" s="7"/>
-      <c r="E143" s="136" t="s">
+      <c r="E143" s="128" t="s">
         <v>642</v>
       </c>
       <c r="F143" s="4"/>
@@ -15587,28 +15554,28 @@
       <c r="K143" s="7"/>
     </row>
     <row r="144">
-      <c r="A144" s="49" t="s">
+      <c r="A144" s="48" t="s">
         <v>645</v>
       </c>
-      <c r="B144" s="48" t="s">
+      <c r="B144" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="C144" s="86" t="s">
+      <c r="C144" s="85" t="s">
         <v>646</v>
       </c>
-      <c r="D144" s="86" t="s">
+      <c r="D144" s="85" t="s">
         <v>647</v>
       </c>
-      <c r="E144" s="50" t="s">
+      <c r="E144" s="49" t="s">
         <v>648</v>
       </c>
-      <c r="F144" s="50" t="s">
+      <c r="F144" s="49" t="s">
         <v>649</v>
       </c>
       <c r="G144" s="4" t="s">
         <v>650</v>
       </c>
-      <c r="H144" s="107" t="s">
+      <c r="H144" s="106" t="s">
         <v>651</v>
       </c>
       <c r="I144" s="7"/>
@@ -15616,26 +15583,26 @@
       <c r="K144" s="7"/>
     </row>
     <row r="145">
-      <c r="A145" s="49" t="s">
+      <c r="A145" s="48" t="s">
         <v>652</v>
       </c>
-      <c r="B145" s="48" t="s">
+      <c r="B145" s="47" t="s">
         <v>653</v>
       </c>
-      <c r="C145" s="86" t="s">
+      <c r="C145" s="85" t="s">
         <v>654</v>
       </c>
-      <c r="D145" s="86" t="s">
+      <c r="D145" s="85" t="s">
         <v>655</v>
       </c>
-      <c r="E145" s="60" t="s">
+      <c r="E145" s="59" t="s">
         <v>656</v>
       </c>
       <c r="F145" s="4"/>
       <c r="G145" s="4" t="s">
         <v>657</v>
       </c>
-      <c r="H145" s="40" t="s">
+      <c r="H145" s="39" t="s">
         <v>658</v>
       </c>
       <c r="I145" s="7"/>
@@ -15643,26 +15610,26 @@
       <c r="K145" s="7"/>
     </row>
     <row r="146">
-      <c r="A146" s="137" t="s">
+      <c r="A146" s="129" t="s">
         <v>652</v>
       </c>
-      <c r="B146" s="138" t="s">
+      <c r="B146" s="130" t="s">
         <v>653</v>
       </c>
-      <c r="C146" s="139" t="s">
+      <c r="C146" s="131" t="s">
         <v>654</v>
       </c>
-      <c r="D146" s="139" t="s">
+      <c r="D146" s="131" t="s">
         <v>655</v>
       </c>
-      <c r="E146" s="60" t="s">
+      <c r="E146" s="59" t="s">
         <v>656</v>
       </c>
-      <c r="F146" s="41"/>
-      <c r="G146" s="41" t="s">
+      <c r="F146" s="40"/>
+      <c r="G146" s="40" t="s">
         <v>659</v>
       </c>
-      <c r="H146" s="41" t="s">
+      <c r="H146" s="40" t="s">
         <v>660</v>
       </c>
       <c r="I146" s="7"/>
@@ -15670,26 +15637,26 @@
       <c r="K146" s="7"/>
     </row>
     <row r="147">
-      <c r="A147" s="137" t="s">
+      <c r="A147" s="129" t="s">
         <v>652</v>
       </c>
-      <c r="B147" s="138" t="s">
+      <c r="B147" s="130" t="s">
         <v>653</v>
       </c>
-      <c r="C147" s="139" t="s">
+      <c r="C147" s="131" t="s">
         <v>654</v>
       </c>
-      <c r="D147" s="139" t="s">
+      <c r="D147" s="131" t="s">
         <v>655</v>
       </c>
-      <c r="E147" s="60" t="s">
+      <c r="E147" s="59" t="s">
         <v>661</v>
       </c>
       <c r="F147" s="4"/>
       <c r="G147" s="4" t="s">
         <v>662</v>
       </c>
-      <c r="H147" s="40" t="s">
+      <c r="H147" s="39" t="s">
         <v>663</v>
       </c>
       <c r="I147" s="7"/>
@@ -15697,16 +15664,16 @@
       <c r="K147" s="7"/>
     </row>
     <row r="148">
-      <c r="A148" s="133" t="s">
+      <c r="A148" s="126" t="s">
         <v>664</v>
       </c>
-      <c r="B148" s="39" t="s">
+      <c r="B148" s="38" t="s">
         <v>665</v>
       </c>
-      <c r="C148" s="140" t="s">
+      <c r="C148" s="132" t="s">
         <v>666</v>
       </c>
-      <c r="D148" s="86"/>
+      <c r="D148" s="85"/>
       <c r="E148" s="4"/>
       <c r="F148" s="4"/>
       <c r="G148" s="4"/>
@@ -15716,16 +15683,16 @@
       <c r="K148" s="7"/>
     </row>
     <row r="149">
-      <c r="A149" s="47" t="s">
+      <c r="A149" s="46" t="s">
         <v>667</v>
       </c>
-      <c r="B149" s="48" t="s">
+      <c r="B149" s="47" t="s">
         <v>668</v>
       </c>
-      <c r="C149" s="141" t="s">
+      <c r="C149" s="133" t="s">
         <v>666</v>
       </c>
-      <c r="D149" s="83"/>
+      <c r="D149" s="7"/>
       <c r="E149" s="4"/>
       <c r="F149" s="4"/>
       <c r="G149" s="4"/>
@@ -15735,26 +15702,26 @@
       <c r="K149" s="7"/>
     </row>
     <row r="150">
-      <c r="A150" s="100" t="s">
+      <c r="A150" s="99" t="s">
         <v>669</v>
       </c>
-      <c r="B150" s="56" t="s">
+      <c r="B150" s="55" t="s">
         <v>670</v>
       </c>
-      <c r="C150" s="50" t="s">
+      <c r="C150" s="49" t="s">
         <v>671</v>
       </c>
-      <c r="D150" s="86" t="s">
+      <c r="D150" s="85" t="s">
         <v>672</v>
       </c>
-      <c r="E150" s="50" t="s">
+      <c r="E150" s="49" t="s">
         <v>673</v>
       </c>
-      <c r="F150" s="50"/>
-      <c r="G150" s="37" t="s">
+      <c r="F150" s="49"/>
+      <c r="G150" s="36" t="s">
         <v>674</v>
       </c>
-      <c r="H150" s="99" t="s">
+      <c r="H150" s="98" t="s">
         <v>675</v>
       </c>
       <c r="I150" s="7"/>
@@ -15762,26 +15729,26 @@
       <c r="K150" s="7"/>
     </row>
     <row r="151">
-      <c r="A151" s="100" t="s">
+      <c r="A151" s="99" t="s">
         <v>676</v>
       </c>
-      <c r="B151" s="56" t="s">
+      <c r="B151" s="55" t="s">
         <v>677</v>
       </c>
-      <c r="C151" s="86" t="s">
+      <c r="C151" s="85" t="s">
         <v>671</v>
       </c>
-      <c r="D151" s="86" t="s">
+      <c r="D151" s="85" t="s">
         <v>672</v>
       </c>
-      <c r="E151" s="50" t="s">
+      <c r="E151" s="49" t="s">
         <v>678</v>
       </c>
-      <c r="F151" s="50"/>
+      <c r="F151" s="49"/>
       <c r="G151" s="4" t="s">
         <v>674</v>
       </c>
-      <c r="H151" s="128" t="s">
+      <c r="H151" s="124" t="s">
         <v>679</v>
       </c>
       <c r="I151" s="7"/>
@@ -15789,24 +15756,24 @@
       <c r="K151" s="7"/>
     </row>
     <row r="152">
-      <c r="A152" s="100" t="s">
+      <c r="A152" s="99" t="s">
         <v>680</v>
       </c>
-      <c r="B152" s="56" t="s">
+      <c r="B152" s="55" t="s">
         <v>681</v>
       </c>
-      <c r="C152" s="142" t="s">
+      <c r="C152" s="134" t="s">
         <v>578</v>
       </c>
-      <c r="D152" s="86"/>
-      <c r="E152" s="41" t="s">
+      <c r="D152" s="85"/>
+      <c r="E152" s="40" t="s">
         <v>682</v>
       </c>
-      <c r="F152" s="41"/>
-      <c r="G152" s="41" t="s">
+      <c r="F152" s="40"/>
+      <c r="G152" s="40" t="s">
         <v>683</v>
       </c>
-      <c r="H152" s="41" t="s">
+      <c r="H152" s="40" t="s">
         <v>684</v>
       </c>
       <c r="I152" s="7"/>
@@ -15814,16 +15781,16 @@
       <c r="K152" s="7"/>
     </row>
     <row r="153">
-      <c r="A153" s="133" t="s">
+      <c r="A153" s="126" t="s">
         <v>685</v>
       </c>
-      <c r="B153" s="39" t="s">
+      <c r="B153" s="38" t="s">
         <v>686</v>
       </c>
-      <c r="C153" s="143" t="s">
+      <c r="C153" s="133" t="s">
         <v>666</v>
       </c>
-      <c r="D153" s="83"/>
+      <c r="D153" s="7"/>
       <c r="E153" s="4"/>
       <c r="F153" s="4"/>
       <c r="G153" s="4"/>
@@ -15833,20 +15800,20 @@
       <c r="K153" s="7"/>
     </row>
     <row r="154">
-      <c r="A154" s="100" t="s">
+      <c r="A154" s="99" t="s">
         <v>687</v>
       </c>
-      <c r="B154" s="56"/>
-      <c r="C154" s="86"/>
+      <c r="B154" s="55"/>
+      <c r="C154" s="85"/>
       <c r="D154" s="7"/>
-      <c r="E154" s="60" t="s">
+      <c r="E154" s="59" t="s">
         <v>656</v>
       </c>
-      <c r="F154" s="50"/>
-      <c r="G154" s="37" t="s">
+      <c r="F154" s="49"/>
+      <c r="G154" s="36" t="s">
         <v>688</v>
       </c>
-      <c r="H154" s="99" t="s">
+      <c r="H154" s="98" t="s">
         <v>689</v>
       </c>
       <c r="I154" s="7"/>
@@ -15854,20 +15821,20 @@
       <c r="K154" s="7"/>
     </row>
     <row r="155">
-      <c r="A155" s="100" t="s">
+      <c r="A155" s="99" t="s">
         <v>687</v>
       </c>
-      <c r="B155" s="77"/>
-      <c r="C155" s="86"/>
+      <c r="B155" s="76"/>
+      <c r="C155" s="85"/>
       <c r="D155" s="7"/>
-      <c r="E155" s="60" t="s">
+      <c r="E155" s="59" t="s">
         <v>656</v>
       </c>
-      <c r="F155" s="50"/>
-      <c r="G155" s="37" t="s">
+      <c r="F155" s="49"/>
+      <c r="G155" s="36" t="s">
         <v>690</v>
       </c>
-      <c r="H155" s="99" t="s">
+      <c r="H155" s="98" t="s">
         <v>691</v>
       </c>
       <c r="I155" s="7"/>
@@ -15875,212 +15842,212 @@
       <c r="K155" s="7"/>
     </row>
     <row r="156">
-      <c r="A156" s="49" t="s">
+      <c r="A156" s="48" t="s">
         <v>692</v>
       </c>
-      <c r="B156" s="48" t="s">
+      <c r="B156" s="47" t="s">
         <v>693</v>
       </c>
       <c r="C156" s="7" t="s">
         <v>694</v>
       </c>
-      <c r="D156" s="83" t="s">
+      <c r="D156" s="7" t="s">
         <v>695</v>
       </c>
-      <c r="E156" s="90" t="s">
+      <c r="E156" s="89" t="s">
         <v>696</v>
       </c>
       <c r="F156" s="7"/>
-      <c r="G156" s="4" t="s">
-        <v>683</v>
-      </c>
-      <c r="H156" s="40" t="s">
+      <c r="G156" s="39" t="s">
         <v>697</v>
+      </c>
+      <c r="H156" s="39" t="s">
+        <v>698</v>
       </c>
       <c r="I156" s="7"/>
       <c r="J156" s="7"/>
       <c r="K156" s="7"/>
     </row>
     <row r="157">
-      <c r="A157" s="49" t="s">
-        <v>698</v>
-      </c>
-      <c r="B157" s="48" t="s">
+      <c r="A157" s="48" t="s">
         <v>699</v>
       </c>
-      <c r="C157" s="144"/>
-      <c r="D157" s="144"/>
-      <c r="E157" s="60" t="s">
+      <c r="B157" s="47" t="s">
+        <v>700</v>
+      </c>
+      <c r="C157" s="135"/>
+      <c r="D157" s="135"/>
+      <c r="E157" s="59" t="s">
         <v>656</v>
       </c>
-      <c r="F157" s="145"/>
-      <c r="G157" s="50" t="s">
-        <v>700</v>
-      </c>
-      <c r="H157" s="37" t="s">
+      <c r="F157" s="136"/>
+      <c r="G157" s="49" t="s">
         <v>701</v>
+      </c>
+      <c r="H157" s="36" t="s">
+        <v>702</v>
       </c>
       <c r="I157" s="7"/>
       <c r="J157" s="7"/>
       <c r="K157" s="7"/>
     </row>
     <row r="158">
-      <c r="A158" s="100" t="s">
-        <v>702</v>
-      </c>
-      <c r="B158" s="56" t="s">
+      <c r="A158" s="99" t="s">
         <v>703</v>
       </c>
-      <c r="C158" s="86" t="s">
+      <c r="B158" s="55" t="s">
         <v>704</v>
       </c>
-      <c r="D158" s="86" t="s">
+      <c r="C158" s="85" t="s">
         <v>705</v>
       </c>
-      <c r="E158" s="50" t="s">
+      <c r="D158" s="85" t="s">
         <v>706</v>
       </c>
-      <c r="F158" s="50"/>
-      <c r="G158" s="37" t="s">
+      <c r="E158" s="49" t="s">
         <v>707</v>
       </c>
-      <c r="H158" s="37" t="s">
+      <c r="F158" s="49"/>
+      <c r="G158" s="36" t="s">
         <v>708</v>
+      </c>
+      <c r="H158" s="36" t="s">
+        <v>709</v>
       </c>
       <c r="I158" s="7"/>
       <c r="J158" s="7"/>
       <c r="K158" s="7"/>
     </row>
     <row r="159">
-      <c r="A159" s="100" t="s">
-        <v>709</v>
-      </c>
-      <c r="B159" s="56" t="s">
+      <c r="A159" s="99" t="s">
         <v>710</v>
       </c>
-      <c r="C159" s="86"/>
-      <c r="D159" s="86"/>
-      <c r="E159" s="50" t="s">
+      <c r="B159" s="55" t="s">
         <v>711</v>
       </c>
-      <c r="F159" s="50"/>
+      <c r="C159" s="85"/>
+      <c r="D159" s="85"/>
+      <c r="E159" s="49" t="s">
+        <v>712</v>
+      </c>
+      <c r="F159" s="49"/>
       <c r="G159" s="4" t="s">
-        <v>712</v>
-      </c>
-      <c r="H159" s="40" t="s">
         <v>713</v>
+      </c>
+      <c r="H159" s="39" t="s">
+        <v>714</v>
       </c>
       <c r="I159" s="7"/>
       <c r="J159" s="7"/>
       <c r="K159" s="7"/>
     </row>
     <row r="160">
-      <c r="A160" s="100" t="s">
-        <v>714</v>
-      </c>
-      <c r="B160" s="56" t="s">
+      <c r="A160" s="99" t="s">
         <v>715</v>
       </c>
-      <c r="C160" s="86"/>
-      <c r="D160" s="86"/>
-      <c r="E160" s="50" t="s">
+      <c r="B160" s="55" t="s">
         <v>716</v>
       </c>
-      <c r="F160" s="50"/>
+      <c r="C160" s="85"/>
+      <c r="D160" s="85"/>
+      <c r="E160" s="49" t="s">
+        <v>717</v>
+      </c>
+      <c r="F160" s="49"/>
       <c r="G160" s="4" t="s">
-        <v>712</v>
-      </c>
-      <c r="H160" s="40" t="s">
-        <v>717</v>
+        <v>713</v>
+      </c>
+      <c r="H160" s="39" t="s">
+        <v>718</v>
       </c>
       <c r="I160" s="7"/>
       <c r="J160" s="7"/>
       <c r="K160" s="7"/>
     </row>
     <row r="161">
-      <c r="A161" s="100" t="s">
-        <v>718</v>
-      </c>
-      <c r="B161" s="84" t="s">
+      <c r="A161" s="99" t="s">
         <v>719</v>
       </c>
-      <c r="C161" s="86"/>
-      <c r="D161" s="86"/>
-      <c r="E161" s="86" t="s">
+      <c r="B161" s="83" t="s">
         <v>720</v>
       </c>
-      <c r="F161" s="86"/>
+      <c r="C161" s="85"/>
+      <c r="D161" s="85"/>
+      <c r="E161" s="85" t="s">
+        <v>721</v>
+      </c>
+      <c r="F161" s="85"/>
       <c r="G161" s="7" t="s">
-        <v>712</v>
-      </c>
-      <c r="H161" s="146" t="s">
-        <v>721</v>
+        <v>713</v>
+      </c>
+      <c r="H161" s="137" t="s">
+        <v>722</v>
       </c>
       <c r="I161" s="7"/>
       <c r="J161" s="7"/>
       <c r="K161" s="7"/>
     </row>
     <row r="162">
-      <c r="A162" s="100" t="s">
-        <v>722</v>
-      </c>
-      <c r="B162" s="84" t="s">
+      <c r="A162" s="99" t="s">
         <v>723</v>
       </c>
-      <c r="C162" s="86"/>
-      <c r="D162" s="86"/>
-      <c r="E162" s="86" t="s">
+      <c r="B162" s="83" t="s">
         <v>724</v>
       </c>
-      <c r="F162" s="86"/>
+      <c r="C162" s="85"/>
+      <c r="D162" s="85"/>
+      <c r="E162" s="85" t="s">
+        <v>725</v>
+      </c>
+      <c r="F162" s="85"/>
       <c r="G162" s="7" t="s">
-        <v>712</v>
-      </c>
-      <c r="H162" s="147" t="s">
-        <v>725</v>
+        <v>713</v>
+      </c>
+      <c r="H162" s="138" t="s">
+        <v>726</v>
       </c>
       <c r="I162" s="7"/>
       <c r="J162" s="7"/>
       <c r="K162" s="7"/>
     </row>
     <row r="163">
-      <c r="A163" s="100" t="s">
-        <v>726</v>
-      </c>
-      <c r="B163" s="84" t="s">
+      <c r="A163" s="99" t="s">
         <v>727</v>
       </c>
-      <c r="C163" s="148" t="s">
+      <c r="B163" s="83" t="s">
         <v>728</v>
       </c>
-      <c r="D163" s="86"/>
-      <c r="E163" s="86" t="s">
+      <c r="C163" s="139" t="s">
         <v>729</v>
       </c>
-      <c r="F163" s="83"/>
+      <c r="D163" s="85"/>
+      <c r="E163" s="85" t="s">
+        <v>730</v>
+      </c>
+      <c r="F163" s="82"/>
       <c r="G163" s="14" t="s">
-        <v>730</v>
-      </c>
-      <c r="H163" s="149" t="s">
         <v>731</v>
+      </c>
+      <c r="H163" s="140" t="s">
+        <v>732</v>
       </c>
       <c r="I163" s="7"/>
       <c r="J163" s="7"/>
       <c r="K163" s="7"/>
     </row>
     <row r="164">
-      <c r="A164" s="49" t="s">
-        <v>732</v>
-      </c>
-      <c r="B164" s="150" t="s">
+      <c r="A164" s="48" t="s">
         <v>733</v>
       </c>
-      <c r="C164" s="140" t="s">
+      <c r="B164" s="141" t="s">
+        <v>734</v>
+      </c>
+      <c r="C164" s="132" t="s">
         <v>666</v>
       </c>
-      <c r="D164" s="86"/>
-      <c r="E164" s="83"/>
-      <c r="F164" s="14"/>
+      <c r="D164" s="85"/>
+      <c r="E164" s="82"/>
+      <c r="F164" s="85"/>
       <c r="G164" s="14"/>
       <c r="H164" s="14"/>
       <c r="I164" s="7"/>
@@ -16088,326 +16055,326 @@
       <c r="K164" s="7"/>
     </row>
     <row r="165">
-      <c r="A165" s="100" t="s">
-        <v>734</v>
-      </c>
-      <c r="B165" s="84" t="s">
+      <c r="A165" s="99" t="s">
+        <v>735</v>
+      </c>
+      <c r="B165" s="83" t="s">
         <v>55</v>
       </c>
       <c r="C165" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="D165" s="86" t="s">
+      <c r="D165" s="85" t="s">
         <v>57</v>
       </c>
-      <c r="E165" s="86" t="s">
-        <v>735</v>
-      </c>
-      <c r="F165" s="86"/>
-      <c r="G165" s="151" t="s">
+      <c r="E165" s="85" t="s">
+        <v>736</v>
+      </c>
+      <c r="F165" s="85"/>
+      <c r="G165" s="142" t="s">
         <v>59</v>
       </c>
-      <c r="H165" s="151" t="s">
-        <v>736</v>
+      <c r="H165" s="142" t="s">
+        <v>737</v>
       </c>
       <c r="I165" s="7"/>
       <c r="J165" s="7"/>
       <c r="K165" s="7"/>
     </row>
     <row r="166">
-      <c r="A166" s="100" t="s">
-        <v>737</v>
-      </c>
-      <c r="B166" s="84" t="s">
+      <c r="A166" s="99" t="s">
+        <v>738</v>
+      </c>
+      <c r="B166" s="83" t="s">
         <v>62</v>
       </c>
       <c r="C166" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="D166" s="86" t="s">
+      <c r="D166" s="85" t="s">
         <v>64</v>
       </c>
-      <c r="E166" s="86" t="s">
-        <v>738</v>
-      </c>
-      <c r="F166" s="86"/>
-      <c r="G166" s="97" t="s">
+      <c r="E166" s="85" t="s">
+        <v>739</v>
+      </c>
+      <c r="F166" s="85"/>
+      <c r="G166" s="96" t="s">
         <v>66</v>
       </c>
-      <c r="H166" s="97" t="s">
-        <v>739</v>
+      <c r="H166" s="96" t="s">
+        <v>740</v>
       </c>
       <c r="I166" s="7"/>
       <c r="J166" s="7"/>
       <c r="K166" s="7"/>
     </row>
     <row r="167">
-      <c r="A167" s="100" t="s">
-        <v>740</v>
-      </c>
-      <c r="B167" s="84" t="s">
+      <c r="A167" s="99" t="s">
+        <v>741</v>
+      </c>
+      <c r="B167" s="83" t="s">
         <v>69</v>
       </c>
       <c r="C167" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="D167" s="86" t="s">
+      <c r="D167" s="85" t="s">
         <v>71</v>
       </c>
-      <c r="E167" s="86" t="s">
-        <v>741</v>
-      </c>
-      <c r="F167" s="86"/>
+      <c r="E167" s="85" t="s">
+        <v>742</v>
+      </c>
+      <c r="F167" s="85"/>
       <c r="G167" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="H167" s="83" t="s">
-        <v>742</v>
+      <c r="H167" s="82" t="s">
+        <v>743</v>
       </c>
       <c r="I167" s="7"/>
       <c r="J167" s="7"/>
       <c r="K167" s="7"/>
     </row>
     <row r="168">
-      <c r="A168" s="100" t="s">
-        <v>743</v>
-      </c>
-      <c r="B168" s="84" t="s">
+      <c r="A168" s="99" t="s">
+        <v>744</v>
+      </c>
+      <c r="B168" s="83" t="s">
         <v>76</v>
       </c>
       <c r="C168" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="D168" s="86" t="s">
+      <c r="D168" s="85" t="s">
         <v>78</v>
       </c>
-      <c r="E168" s="86" t="s">
-        <v>744</v>
-      </c>
-      <c r="F168" s="86"/>
+      <c r="E168" s="85" t="s">
+        <v>745</v>
+      </c>
+      <c r="F168" s="85"/>
       <c r="G168" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="H168" s="83" t="s">
-        <v>745</v>
+      <c r="H168" s="82" t="s">
+        <v>746</v>
       </c>
       <c r="I168" s="7"/>
       <c r="J168" s="7"/>
       <c r="K168" s="7"/>
     </row>
     <row r="169">
-      <c r="A169" s="100" t="s">
-        <v>746</v>
-      </c>
-      <c r="B169" s="84" t="s">
+      <c r="A169" s="99" t="s">
+        <v>747</v>
+      </c>
+      <c r="B169" s="83" t="s">
         <v>82</v>
       </c>
       <c r="C169" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="D169" s="86" t="s">
+      <c r="D169" s="85" t="s">
         <v>84</v>
       </c>
-      <c r="E169" s="83" t="s">
-        <v>747</v>
-      </c>
-      <c r="F169" s="83" t="s">
+      <c r="E169" s="82" t="s">
         <v>748</v>
+      </c>
+      <c r="F169" s="82" t="s">
+        <v>749</v>
       </c>
       <c r="G169" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="H169" s="86" t="s">
-        <v>749</v>
+      <c r="H169" s="85" t="s">
+        <v>750</v>
       </c>
       <c r="I169" s="7"/>
       <c r="J169" s="7"/>
       <c r="K169" s="7"/>
     </row>
     <row r="170">
-      <c r="A170" s="100" t="s">
-        <v>750</v>
-      </c>
-      <c r="B170" s="84" t="s">
+      <c r="A170" s="99" t="s">
+        <v>751</v>
+      </c>
+      <c r="B170" s="83" t="s">
         <v>90</v>
       </c>
       <c r="C170" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="D170" s="86" t="s">
-        <v>751</v>
-      </c>
-      <c r="E170" s="152" t="s">
+      <c r="D170" s="85" t="s">
         <v>752</v>
       </c>
-      <c r="F170" s="152"/>
+      <c r="E170" s="118" t="s">
+        <v>753</v>
+      </c>
+      <c r="F170" s="118"/>
       <c r="G170" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="H170" s="83" t="s">
-        <v>753</v>
+      <c r="H170" s="82" t="s">
+        <v>754</v>
       </c>
       <c r="I170" s="7"/>
       <c r="J170" s="7"/>
       <c r="K170" s="7"/>
     </row>
     <row r="171">
-      <c r="A171" s="100" t="s">
-        <v>754</v>
-      </c>
-      <c r="B171" s="84" t="s">
+      <c r="A171" s="99" t="s">
+        <v>755</v>
+      </c>
+      <c r="B171" s="83" t="s">
         <v>97</v>
       </c>
       <c r="C171" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="D171" s="86" t="s">
+      <c r="D171" s="85" t="s">
         <v>99</v>
       </c>
-      <c r="E171" s="152" t="s">
-        <v>755</v>
-      </c>
-      <c r="F171" s="86"/>
-      <c r="G171" s="151" t="s">
+      <c r="E171" s="118" t="s">
+        <v>756</v>
+      </c>
+      <c r="F171" s="85"/>
+      <c r="G171" s="142" t="s">
         <v>101</v>
       </c>
-      <c r="H171" s="151" t="s">
-        <v>756</v>
+      <c r="H171" s="142" t="s">
+        <v>757</v>
       </c>
       <c r="I171" s="7"/>
       <c r="J171" s="7"/>
       <c r="K171" s="7"/>
     </row>
     <row r="172">
-      <c r="A172" s="100" t="s">
-        <v>757</v>
-      </c>
-      <c r="B172" s="84" t="s">
+      <c r="A172" s="99" t="s">
+        <v>758</v>
+      </c>
+      <c r="B172" s="83" t="s">
         <v>117</v>
       </c>
       <c r="C172" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="D172" s="86" t="s">
+      <c r="D172" s="85" t="s">
         <v>119</v>
       </c>
-      <c r="E172" s="86" t="s">
-        <v>758</v>
-      </c>
-      <c r="F172" s="86"/>
-      <c r="G172" s="86" t="s">
+      <c r="E172" s="85" t="s">
         <v>759</v>
       </c>
-      <c r="H172" s="86" t="s">
+      <c r="F172" s="85"/>
+      <c r="G172" s="85" t="s">
         <v>760</v>
+      </c>
+      <c r="H172" s="85" t="s">
+        <v>761</v>
       </c>
       <c r="I172" s="7"/>
       <c r="J172" s="7"/>
       <c r="K172" s="7"/>
     </row>
     <row r="173">
-      <c r="A173" s="100" t="s">
-        <v>761</v>
-      </c>
-      <c r="B173" s="84" t="s">
+      <c r="A173" s="99" t="s">
+        <v>762</v>
+      </c>
+      <c r="B173" s="83" t="s">
         <v>111</v>
       </c>
       <c r="C173" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="D173" s="86" t="s">
+      <c r="D173" s="85" t="s">
         <v>113</v>
       </c>
-      <c r="E173" s="86" t="s">
-        <v>762</v>
-      </c>
-      <c r="F173" s="86"/>
-      <c r="G173" s="86" t="s">
+      <c r="E173" s="85" t="s">
         <v>763</v>
       </c>
-      <c r="H173" s="86" t="s">
+      <c r="F173" s="85"/>
+      <c r="G173" s="85" t="s">
         <v>764</v>
+      </c>
+      <c r="H173" s="85" t="s">
+        <v>765</v>
       </c>
       <c r="I173" s="7"/>
       <c r="J173" s="7"/>
       <c r="K173" s="7"/>
     </row>
     <row r="174">
-      <c r="A174" s="100" t="s">
-        <v>765</v>
-      </c>
-      <c r="B174" s="84" t="s">
+      <c r="A174" s="99" t="s">
         <v>766</v>
       </c>
-      <c r="C174" s="86" t="s">
+      <c r="B174" s="83" t="s">
+        <v>767</v>
+      </c>
+      <c r="C174" s="85" t="s">
         <v>133</v>
       </c>
-      <c r="D174" s="86" t="s">
+      <c r="D174" s="85" t="s">
         <v>134</v>
       </c>
-      <c r="E174" s="86" t="s">
-        <v>767</v>
-      </c>
-      <c r="F174" s="86"/>
-      <c r="G174" s="97" t="s">
-        <v>759</v>
-      </c>
-      <c r="H174" s="97" t="s">
+      <c r="E174" s="85" t="s">
         <v>768</v>
+      </c>
+      <c r="F174" s="85"/>
+      <c r="G174" s="96" t="s">
+        <v>760</v>
+      </c>
+      <c r="H174" s="96" t="s">
+        <v>769</v>
       </c>
       <c r="I174" s="7"/>
       <c r="J174" s="7"/>
       <c r="K174" s="7"/>
     </row>
     <row r="175">
-      <c r="A175" s="100" t="s">
-        <v>769</v>
-      </c>
-      <c r="B175" s="84" t="s">
+      <c r="A175" s="99" t="s">
+        <v>770</v>
+      </c>
+      <c r="B175" s="83" t="s">
         <v>124</v>
       </c>
       <c r="C175" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="D175" s="86" t="s">
+      <c r="D175" s="85" t="s">
         <v>126</v>
       </c>
-      <c r="E175" s="86" t="s">
-        <v>770</v>
-      </c>
-      <c r="F175" s="86"/>
-      <c r="G175" s="86" t="s">
-        <v>763</v>
-      </c>
-      <c r="H175" s="86" t="s">
+      <c r="E175" s="85" t="s">
         <v>771</v>
+      </c>
+      <c r="F175" s="85"/>
+      <c r="G175" s="85" t="s">
+        <v>764</v>
+      </c>
+      <c r="H175" s="85" t="s">
+        <v>772</v>
       </c>
       <c r="I175" s="7"/>
       <c r="J175" s="7"/>
       <c r="K175" s="7"/>
     </row>
     <row r="176">
-      <c r="A176" s="100" t="s">
-        <v>772</v>
-      </c>
-      <c r="B176" s="84" t="s">
+      <c r="A176" s="99" t="s">
         <v>773</v>
       </c>
+      <c r="B176" s="83" t="s">
+        <v>774</v>
+      </c>
       <c r="C176" s="14" t="s">
-        <v>774</v>
-      </c>
-      <c r="D176" s="86" t="s">
         <v>775</v>
       </c>
-      <c r="E176" s="153" t="s">
+      <c r="D176" s="85" t="s">
         <v>776</v>
       </c>
-      <c r="F176" s="75"/>
+      <c r="E176" s="143" t="s">
+        <v>777</v>
+      </c>
+      <c r="F176" s="74"/>
       <c r="G176" s="7" t="s">
-        <v>777</v>
-      </c>
-      <c r="H176" s="154" t="s">
         <v>778</v>
+      </c>
+      <c r="H176" s="144" t="s">
+        <v>779</v>
       </c>
       <c r="I176" s="7"/>
       <c r="J176" s="7"/>
@@ -16416,33 +16383,33 @@
     <row r="177">
       <c r="A177" s="19"/>
       <c r="B177" s="7"/>
-      <c r="C177" s="86"/>
-      <c r="D177" s="86"/>
-      <c r="E177" s="153" t="s">
-        <v>776</v>
-      </c>
-      <c r="F177" s="75"/>
-      <c r="G177" s="151" t="s">
-        <v>779</v>
-      </c>
-      <c r="H177" s="151" t="s">
+      <c r="C177" s="85"/>
+      <c r="D177" s="85"/>
+      <c r="E177" s="143" t="s">
+        <v>777</v>
+      </c>
+      <c r="F177" s="74"/>
+      <c r="G177" s="142" t="s">
         <v>780</v>
+      </c>
+      <c r="H177" s="142" t="s">
+        <v>781</v>
       </c>
       <c r="I177" s="7"/>
       <c r="J177" s="7"/>
       <c r="K177" s="7"/>
     </row>
     <row r="178">
-      <c r="A178" s="49" t="s">
-        <v>781</v>
-      </c>
-      <c r="B178" s="150" t="s">
+      <c r="A178" s="48" t="s">
         <v>782</v>
       </c>
-      <c r="C178" s="143" t="s">
+      <c r="B178" s="141" t="s">
+        <v>783</v>
+      </c>
+      <c r="C178" s="133" t="s">
         <v>666</v>
       </c>
-      <c r="D178" s="83"/>
+      <c r="D178" s="7"/>
       <c r="E178" s="19"/>
       <c r="F178" s="19"/>
       <c r="G178" s="7"/>
@@ -16452,27 +16419,27 @@
       <c r="K178" s="7"/>
     </row>
     <row r="179">
-      <c r="A179" s="100" t="s">
-        <v>783</v>
-      </c>
-      <c r="B179" s="84" t="s">
+      <c r="A179" s="99" t="s">
         <v>784</v>
       </c>
-      <c r="C179" s="86" t="s">
+      <c r="B179" s="83" t="s">
+        <v>785</v>
+      </c>
+      <c r="C179" s="85" t="s">
         <v>477</v>
       </c>
-      <c r="D179" s="86" t="s">
+      <c r="D179" s="85" t="s">
         <v>364</v>
       </c>
-      <c r="E179" s="152" t="s">
-        <v>785</v>
-      </c>
-      <c r="F179" s="152"/>
+      <c r="E179" s="118" t="s">
+        <v>786</v>
+      </c>
+      <c r="F179" s="118"/>
       <c r="G179" s="14" t="s">
         <v>479</v>
       </c>
-      <c r="H179" s="86" t="s">
-        <v>786</v>
+      <c r="H179" s="85" t="s">
+        <v>787</v>
       </c>
       <c r="I179" s="7"/>
       <c r="J179" s="7"/>
@@ -16480,51 +16447,51 @@
     </row>
     <row r="180">
       <c r="A180" s="110" t="s">
-        <v>787</v>
-      </c>
-      <c r="B180" s="72" t="s">
+        <v>788</v>
+      </c>
+      <c r="B180" s="71" t="s">
         <v>369</v>
       </c>
-      <c r="C180" s="155" t="s">
+      <c r="C180" s="145" t="s">
         <v>176</v>
       </c>
-      <c r="D180" s="86"/>
-      <c r="E180" s="152" t="s">
-        <v>788</v>
-      </c>
-      <c r="F180" s="152"/>
+      <c r="D180" s="85"/>
+      <c r="E180" s="118" t="s">
+        <v>789</v>
+      </c>
+      <c r="F180" s="118"/>
       <c r="G180" s="14" t="s">
-        <v>789</v>
-      </c>
-      <c r="H180" s="86" t="s">
         <v>790</v>
+      </c>
+      <c r="H180" s="85" t="s">
+        <v>791</v>
       </c>
       <c r="I180" s="7"/>
       <c r="J180" s="7"/>
       <c r="K180" s="7"/>
     </row>
     <row r="181">
-      <c r="A181" s="100" t="s">
-        <v>791</v>
-      </c>
-      <c r="B181" s="84" t="s">
+      <c r="A181" s="99" t="s">
         <v>792</v>
       </c>
-      <c r="C181" s="86" t="s">
+      <c r="B181" s="83" t="s">
         <v>793</v>
       </c>
-      <c r="D181" s="86" t="s">
+      <c r="C181" s="85" t="s">
         <v>794</v>
       </c>
-      <c r="E181" s="152" t="s">
+      <c r="D181" s="85" t="s">
         <v>795</v>
       </c>
-      <c r="F181" s="152"/>
+      <c r="E181" s="118" t="s">
+        <v>796</v>
+      </c>
+      <c r="F181" s="118"/>
       <c r="G181" s="7" t="s">
-        <v>796</v>
-      </c>
-      <c r="H181" s="83" t="s">
         <v>797</v>
+      </c>
+      <c r="H181" s="82" t="s">
+        <v>798</v>
       </c>
       <c r="I181" s="7"/>
       <c r="J181" s="7"/>
@@ -16532,51 +16499,51 @@
     </row>
     <row r="182">
       <c r="A182" s="110" t="s">
-        <v>798</v>
-      </c>
-      <c r="B182" s="72" t="s">
+        <v>799</v>
+      </c>
+      <c r="B182" s="71" t="s">
         <v>369</v>
       </c>
-      <c r="C182" s="155" t="s">
+      <c r="C182" s="145" t="s">
         <v>176</v>
       </c>
-      <c r="D182" s="86"/>
-      <c r="E182" s="86" t="s">
-        <v>799</v>
-      </c>
-      <c r="F182" s="86"/>
+      <c r="D182" s="85"/>
+      <c r="E182" s="85" t="s">
+        <v>800</v>
+      </c>
+      <c r="F182" s="85"/>
       <c r="G182" s="7" t="s">
-        <v>800</v>
-      </c>
-      <c r="H182" s="83" t="s">
         <v>801</v>
+      </c>
+      <c r="H182" s="82" t="s">
+        <v>802</v>
       </c>
       <c r="I182" s="7"/>
       <c r="J182" s="7"/>
       <c r="K182" s="7"/>
     </row>
     <row r="183">
-      <c r="A183" s="100" t="s">
-        <v>802</v>
-      </c>
-      <c r="B183" s="84" t="s">
+      <c r="A183" s="99" t="s">
         <v>803</v>
       </c>
-      <c r="C183" s="91" t="s">
+      <c r="B183" s="83" t="s">
         <v>804</v>
       </c>
-      <c r="D183" s="91" t="s">
+      <c r="C183" s="108" t="s">
         <v>805</v>
       </c>
-      <c r="E183" s="156" t="s">
+      <c r="D183" s="108" t="s">
         <v>806</v>
       </c>
-      <c r="F183" s="156"/>
-      <c r="G183" s="91" t="s">
+      <c r="E183" s="146" t="s">
         <v>807</v>
       </c>
-      <c r="H183" s="91" t="s">
+      <c r="F183" s="146"/>
+      <c r="G183" s="90" t="s">
         <v>808</v>
+      </c>
+      <c r="H183" s="90" t="s">
+        <v>809</v>
       </c>
       <c r="I183" s="7"/>
       <c r="J183" s="7"/>
@@ -16584,51 +16551,51 @@
     </row>
     <row r="184">
       <c r="A184" s="110" t="s">
-        <v>809</v>
-      </c>
-      <c r="B184" s="72" t="s">
+        <v>810</v>
+      </c>
+      <c r="B184" s="71" t="s">
         <v>369</v>
       </c>
-      <c r="C184" s="157" t="s">
+      <c r="C184" s="147" t="s">
         <v>176</v>
       </c>
-      <c r="D184" s="91"/>
-      <c r="E184" s="156" t="s">
-        <v>810</v>
-      </c>
-      <c r="F184" s="91"/>
-      <c r="G184" s="158" t="s">
+      <c r="D184" s="108"/>
+      <c r="E184" s="146" t="s">
         <v>811</v>
       </c>
-      <c r="H184" s="158" t="s">
+      <c r="F184" s="108"/>
+      <c r="G184" s="90" t="s">
         <v>812</v>
+      </c>
+      <c r="H184" s="90" t="s">
+        <v>813</v>
       </c>
       <c r="I184" s="7"/>
       <c r="J184" s="7"/>
       <c r="K184" s="7"/>
     </row>
     <row r="185">
-      <c r="A185" s="100" t="s">
-        <v>813</v>
-      </c>
-      <c r="B185" s="84" t="s">
+      <c r="A185" s="99" t="s">
         <v>814</v>
       </c>
-      <c r="C185" s="91" t="s">
+      <c r="B185" s="83" t="s">
         <v>815</v>
       </c>
-      <c r="D185" s="91" t="s">
+      <c r="C185" s="108" t="s">
         <v>816</v>
       </c>
-      <c r="E185" s="91" t="s">
+      <c r="D185" s="108" t="s">
         <v>817</v>
       </c>
-      <c r="F185" s="91"/>
-      <c r="G185" s="91" t="s">
-        <v>807</v>
-      </c>
-      <c r="H185" s="91" t="s">
+      <c r="E185" s="90" t="s">
         <v>818</v>
+      </c>
+      <c r="F185" s="90"/>
+      <c r="G185" s="90" t="s">
+        <v>808</v>
+      </c>
+      <c r="H185" s="90" t="s">
+        <v>819</v>
       </c>
       <c r="I185" s="7"/>
       <c r="J185" s="7"/>
@@ -16636,65 +16603,65 @@
     </row>
     <row r="186">
       <c r="A186" s="110" t="s">
-        <v>819</v>
-      </c>
-      <c r="B186" s="72" t="s">
+        <v>820</v>
+      </c>
+      <c r="B186" s="71" t="s">
         <v>369</v>
       </c>
-      <c r="C186" s="157" t="s">
+      <c r="C186" s="147" t="s">
         <v>176</v>
       </c>
-      <c r="D186" s="91"/>
-      <c r="E186" s="91" t="s">
-        <v>820</v>
-      </c>
-      <c r="F186" s="91"/>
-      <c r="G186" s="158" t="s">
-        <v>811</v>
-      </c>
-      <c r="H186" s="158" t="s">
+      <c r="D186" s="108"/>
+      <c r="E186" s="108" t="s">
         <v>821</v>
+      </c>
+      <c r="F186" s="108"/>
+      <c r="G186" s="90" t="s">
+        <v>812</v>
+      </c>
+      <c r="H186" s="90" t="s">
+        <v>822</v>
       </c>
       <c r="I186" s="7"/>
       <c r="J186" s="7"/>
       <c r="K186" s="7"/>
     </row>
     <row r="187">
-      <c r="A187" s="100" t="s">
-        <v>822</v>
-      </c>
-      <c r="B187" s="84" t="s">
+      <c r="A187" s="99" t="s">
         <v>823</v>
       </c>
-      <c r="C187" s="91" t="s">
+      <c r="B187" s="83" t="s">
         <v>824</v>
       </c>
-      <c r="D187" s="91" t="s">
+      <c r="C187" s="108" t="s">
         <v>825</v>
       </c>
-      <c r="E187" s="91" t="s">
+      <c r="D187" s="108" t="s">
         <v>826</v>
       </c>
-      <c r="F187" s="91"/>
-      <c r="G187" s="91" t="s">
+      <c r="E187" s="108" t="s">
         <v>827</v>
       </c>
-      <c r="H187" s="91" t="s">
+      <c r="F187" s="108"/>
+      <c r="G187" s="108" t="s">
         <v>828</v>
+      </c>
+      <c r="H187" s="108" t="s">
+        <v>829</v>
       </c>
       <c r="I187" s="7"/>
       <c r="J187" s="7"/>
       <c r="K187" s="7"/>
     </row>
     <row r="188">
-      <c r="A188" s="132" t="s">
-        <v>829</v>
-      </c>
-      <c r="B188" s="159" t="s">
+      <c r="A188" s="125" t="s">
         <v>830</v>
       </c>
+      <c r="B188" s="148" t="s">
+        <v>831</v>
+      </c>
       <c r="C188" s="7"/>
-      <c r="D188" s="83"/>
+      <c r="D188" s="7"/>
       <c r="E188" s="7"/>
       <c r="F188" s="7"/>
       <c r="G188" s="7"/>
@@ -16704,135 +16671,135 @@
       <c r="K188" s="7"/>
     </row>
     <row r="189">
-      <c r="A189" s="38" t="s">
-        <v>831</v>
-      </c>
-      <c r="B189" s="160" t="s">
+      <c r="A189" s="37" t="s">
         <v>832</v>
       </c>
-      <c r="C189" s="126"/>
-      <c r="D189" s="85"/>
-      <c r="E189" s="161"/>
+      <c r="B189" s="149" t="s">
+        <v>833</v>
+      </c>
+      <c r="C189" s="122"/>
+      <c r="D189" s="84"/>
+      <c r="E189" s="150"/>
       <c r="F189" s="119"/>
-      <c r="G189" s="86"/>
-      <c r="H189" s="86"/>
+      <c r="G189" s="85"/>
+      <c r="H189" s="85"/>
       <c r="I189" s="7"/>
       <c r="J189" s="7"/>
       <c r="K189" s="7"/>
     </row>
     <row r="190">
-      <c r="A190" s="47" t="s">
-        <v>833</v>
-      </c>
-      <c r="B190" s="150" t="s">
+      <c r="A190" s="46" t="s">
         <v>834</v>
       </c>
-      <c r="C190" s="126" t="s">
+      <c r="B190" s="141" t="s">
         <v>835</v>
       </c>
-      <c r="D190" s="85"/>
-      <c r="E190" s="161" t="s">
+      <c r="C190" s="122" t="s">
         <v>836</v>
+      </c>
+      <c r="D190" s="84"/>
+      <c r="E190" s="150" t="s">
+        <v>837</v>
       </c>
       <c r="F190" s="119"/>
       <c r="G190" s="7" t="s">
-        <v>837</v>
-      </c>
-      <c r="H190" s="33" t="s">
         <v>838</v>
+      </c>
+      <c r="H190" s="32" t="s">
+        <v>839</v>
       </c>
       <c r="I190" s="7"/>
       <c r="J190" s="7"/>
       <c r="K190" s="7"/>
     </row>
     <row r="191">
-      <c r="A191" s="47" t="s">
-        <v>839</v>
-      </c>
-      <c r="B191" s="150" t="s">
+      <c r="A191" s="46" t="s">
         <v>840</v>
       </c>
-      <c r="C191" s="126" t="s">
+      <c r="B191" s="141" t="s">
         <v>841</v>
       </c>
-      <c r="D191" s="85"/>
-      <c r="E191" s="161" t="s">
+      <c r="C191" s="122" t="s">
         <v>842</v>
+      </c>
+      <c r="D191" s="84"/>
+      <c r="E191" s="150" t="s">
+        <v>843</v>
       </c>
       <c r="F191" s="119"/>
       <c r="G191" s="7" t="s">
-        <v>837</v>
-      </c>
-      <c r="H191" s="33" t="s">
-        <v>843</v>
+        <v>838</v>
+      </c>
+      <c r="H191" s="32" t="s">
+        <v>844</v>
       </c>
       <c r="I191" s="7"/>
       <c r="J191" s="7"/>
       <c r="K191" s="7"/>
     </row>
     <row r="192">
-      <c r="A192" s="47" t="s">
-        <v>844</v>
-      </c>
-      <c r="B192" s="150" t="s">
+      <c r="A192" s="46" t="s">
         <v>845</v>
       </c>
-      <c r="C192" s="126" t="s">
+      <c r="B192" s="141" t="s">
         <v>846</v>
       </c>
-      <c r="D192" s="85"/>
-      <c r="E192" s="161" t="s">
+      <c r="C192" s="122" t="s">
         <v>847</v>
+      </c>
+      <c r="D192" s="84"/>
+      <c r="E192" s="150" t="s">
+        <v>848</v>
       </c>
       <c r="F192" s="119"/>
       <c r="G192" s="7" t="s">
-        <v>837</v>
-      </c>
-      <c r="H192" s="33" t="s">
-        <v>848</v>
+        <v>838</v>
+      </c>
+      <c r="H192" s="32" t="s">
+        <v>849</v>
       </c>
       <c r="I192" s="7"/>
       <c r="J192" s="7"/>
       <c r="K192" s="7"/>
     </row>
     <row r="193">
-      <c r="A193" s="133" t="s">
-        <v>849</v>
-      </c>
-      <c r="B193" s="160" t="s">
+      <c r="A193" s="126" t="s">
+        <v>850</v>
+      </c>
+      <c r="B193" s="149" t="s">
         <v>534</v>
       </c>
-      <c r="C193" s="86" t="s">
+      <c r="C193" s="85" t="s">
         <v>535</v>
       </c>
       <c r="D193" s="7" t="s">
         <v>536</v>
       </c>
-      <c r="E193" s="152" t="s">
-        <v>850</v>
-      </c>
-      <c r="F193" s="152"/>
-      <c r="G193" s="162" t="s">
+      <c r="E193" s="118" t="s">
+        <v>851</v>
+      </c>
+      <c r="F193" s="118"/>
+      <c r="G193" s="151" t="s">
         <v>324</v>
       </c>
-      <c r="H193" s="163" t="s">
-        <v>851</v>
+      <c r="H193" s="152" t="s">
+        <v>852</v>
       </c>
       <c r="I193" s="7"/>
       <c r="J193" s="7"/>
       <c r="K193" s="7"/>
     </row>
     <row r="194">
-      <c r="A194" s="133" t="s">
-        <v>852</v>
-      </c>
-      <c r="B194" s="160" t="s">
+      <c r="A194" s="126" t="s">
         <v>853</v>
       </c>
-      <c r="C194" s="140" t="s">
+      <c r="B194" s="149" t="s">
+        <v>854</v>
+      </c>
+      <c r="C194" s="132" t="s">
         <v>666</v>
       </c>
-      <c r="D194" s="83"/>
+      <c r="D194" s="7"/>
       <c r="E194" s="119"/>
       <c r="F194" s="119"/>
       <c r="G194" s="7"/>
@@ -16842,20 +16809,20 @@
       <c r="K194" s="7"/>
     </row>
     <row r="195">
-      <c r="A195" s="49" t="s">
-        <v>854</v>
-      </c>
-      <c r="B195" s="150" t="s">
+      <c r="A195" s="48" t="s">
         <v>855</v>
       </c>
-      <c r="C195" s="164" t="s">
+      <c r="B195" s="141" t="s">
+        <v>856</v>
+      </c>
+      <c r="C195" s="153" t="s">
         <v>666</v>
       </c>
-      <c r="D195" s="83"/>
-      <c r="E195" s="83" t="s">
-        <v>856</v>
-      </c>
-      <c r="F195" s="86"/>
+      <c r="D195" s="7"/>
+      <c r="E195" s="82" t="s">
+        <v>857</v>
+      </c>
+      <c r="F195" s="85"/>
       <c r="G195" s="14" t="s">
         <v>52</v>
       </c>
@@ -16867,265 +16834,265 @@
       <c r="K195" s="7"/>
     </row>
     <row r="196">
-      <c r="A196" s="100" t="s">
-        <v>857</v>
-      </c>
-      <c r="B196" s="84" t="s">
+      <c r="A196" s="99" t="s">
+        <v>858</v>
+      </c>
+      <c r="B196" s="83" t="s">
         <v>55</v>
       </c>
-      <c r="C196" s="86" t="s">
+      <c r="C196" s="85" t="s">
         <v>56</v>
       </c>
-      <c r="D196" s="86" t="s">
+      <c r="D196" s="85" t="s">
         <v>57</v>
       </c>
-      <c r="E196" s="86" t="s">
-        <v>858</v>
-      </c>
-      <c r="F196" s="86"/>
-      <c r="G196" s="83" t="s">
+      <c r="E196" s="85" t="s">
+        <v>859</v>
+      </c>
+      <c r="F196" s="85"/>
+      <c r="G196" s="82" t="s">
         <v>59</v>
       </c>
-      <c r="H196" s="83" t="s">
-        <v>859</v>
+      <c r="H196" s="82" t="s">
+        <v>860</v>
       </c>
       <c r="I196" s="7"/>
       <c r="J196" s="7"/>
       <c r="K196" s="7"/>
     </row>
     <row r="197">
-      <c r="A197" s="100" t="s">
-        <v>860</v>
-      </c>
-      <c r="B197" s="84" t="s">
+      <c r="A197" s="99" t="s">
+        <v>861</v>
+      </c>
+      <c r="B197" s="83" t="s">
         <v>69</v>
       </c>
-      <c r="C197" s="86" t="s">
+      <c r="C197" s="85" t="s">
         <v>70</v>
       </c>
-      <c r="D197" s="86" t="s">
+      <c r="D197" s="85" t="s">
         <v>71</v>
       </c>
-      <c r="E197" s="86" t="s">
-        <v>861</v>
-      </c>
-      <c r="F197" s="86"/>
-      <c r="G197" s="83" t="s">
+      <c r="E197" s="85" t="s">
+        <v>862</v>
+      </c>
+      <c r="F197" s="85"/>
+      <c r="G197" s="82" t="s">
         <v>73</v>
       </c>
-      <c r="H197" s="83" t="s">
-        <v>862</v>
+      <c r="H197" s="82" t="s">
+        <v>863</v>
       </c>
       <c r="I197" s="7"/>
       <c r="J197" s="7"/>
       <c r="K197" s="7"/>
     </row>
     <row r="198">
-      <c r="A198" s="100" t="s">
-        <v>863</v>
-      </c>
-      <c r="B198" s="84" t="s">
+      <c r="A198" s="99" t="s">
+        <v>864</v>
+      </c>
+      <c r="B198" s="83" t="s">
         <v>76</v>
       </c>
-      <c r="C198" s="86" t="s">
+      <c r="C198" s="85" t="s">
         <v>77</v>
       </c>
-      <c r="D198" s="86" t="s">
+      <c r="D198" s="85" t="s">
         <v>78</v>
       </c>
-      <c r="E198" s="86" t="s">
-        <v>864</v>
-      </c>
-      <c r="F198" s="86"/>
-      <c r="G198" s="83" t="s">
+      <c r="E198" s="85" t="s">
+        <v>865</v>
+      </c>
+      <c r="F198" s="85"/>
+      <c r="G198" s="82" t="s">
         <v>73</v>
       </c>
-      <c r="H198" s="83" t="s">
-        <v>865</v>
+      <c r="H198" s="82" t="s">
+        <v>866</v>
       </c>
       <c r="I198" s="7"/>
       <c r="J198" s="7"/>
       <c r="K198" s="7"/>
     </row>
     <row r="199">
-      <c r="A199" s="100" t="s">
-        <v>866</v>
-      </c>
-      <c r="B199" s="84" t="s">
+      <c r="A199" s="99" t="s">
+        <v>867</v>
+      </c>
+      <c r="B199" s="83" t="s">
         <v>90</v>
       </c>
-      <c r="C199" s="86" t="s">
+      <c r="C199" s="85" t="s">
         <v>91</v>
       </c>
-      <c r="D199" s="86" t="s">
-        <v>751</v>
-      </c>
-      <c r="E199" s="86" t="s">
-        <v>867</v>
-      </c>
-      <c r="F199" s="86"/>
-      <c r="G199" s="83" t="s">
+      <c r="D199" s="85" t="s">
+        <v>752</v>
+      </c>
+      <c r="E199" s="85" t="s">
         <v>868</v>
       </c>
-      <c r="H199" s="83" t="s">
+      <c r="F199" s="85"/>
+      <c r="G199" s="82" t="s">
         <v>869</v>
+      </c>
+      <c r="H199" s="82" t="s">
+        <v>870</v>
       </c>
       <c r="I199" s="7"/>
       <c r="J199" s="7"/>
       <c r="K199" s="7"/>
     </row>
     <row r="200">
-      <c r="A200" s="100" t="s">
-        <v>870</v>
-      </c>
-      <c r="B200" s="84" t="s">
+      <c r="A200" s="99" t="s">
+        <v>871</v>
+      </c>
+      <c r="B200" s="83" t="s">
         <v>97</v>
       </c>
-      <c r="C200" s="86" t="s">
+      <c r="C200" s="85" t="s">
         <v>98</v>
       </c>
-      <c r="D200" s="86" t="s">
+      <c r="D200" s="85" t="s">
         <v>99</v>
       </c>
-      <c r="E200" s="86" t="s">
-        <v>871</v>
-      </c>
-      <c r="F200" s="86"/>
-      <c r="G200" s="86" t="s">
+      <c r="E200" s="85" t="s">
+        <v>872</v>
+      </c>
+      <c r="F200" s="85"/>
+      <c r="G200" s="85" t="s">
         <v>101</v>
       </c>
-      <c r="H200" s="86" t="s">
-        <v>872</v>
+      <c r="H200" s="85" t="s">
+        <v>873</v>
       </c>
       <c r="I200" s="7"/>
       <c r="J200" s="7"/>
       <c r="K200" s="7"/>
     </row>
     <row r="201">
-      <c r="A201" s="100" t="s">
-        <v>873</v>
-      </c>
-      <c r="B201" s="84" t="s">
+      <c r="A201" s="99" t="s">
+        <v>874</v>
+      </c>
+      <c r="B201" s="83" t="s">
         <v>117</v>
       </c>
-      <c r="C201" s="86" t="s">
+      <c r="C201" s="85" t="s">
         <v>118</v>
       </c>
-      <c r="D201" s="86" t="s">
+      <c r="D201" s="85" t="s">
         <v>119</v>
       </c>
-      <c r="E201" s="86" t="s">
-        <v>874</v>
-      </c>
-      <c r="F201" s="86"/>
-      <c r="G201" s="86" t="s">
-        <v>759</v>
-      </c>
-      <c r="H201" s="86" t="s">
+      <c r="E201" s="85" t="s">
+        <v>875</v>
+      </c>
+      <c r="F201" s="85"/>
+      <c r="G201" s="85" t="s">
         <v>760</v>
+      </c>
+      <c r="H201" s="85" t="s">
+        <v>761</v>
       </c>
       <c r="I201" s="7"/>
       <c r="J201" s="7"/>
       <c r="K201" s="7"/>
     </row>
     <row r="202">
-      <c r="A202" s="100" t="s">
-        <v>875</v>
-      </c>
-      <c r="B202" s="84" t="s">
+      <c r="A202" s="99" t="s">
+        <v>876</v>
+      </c>
+      <c r="B202" s="83" t="s">
         <v>111</v>
       </c>
-      <c r="C202" s="86" t="s">
+      <c r="C202" s="85" t="s">
         <v>112</v>
       </c>
-      <c r="D202" s="86" t="s">
+      <c r="D202" s="85" t="s">
         <v>113</v>
       </c>
-      <c r="E202" s="86" t="s">
-        <v>876</v>
-      </c>
-      <c r="F202" s="86"/>
-      <c r="G202" s="86" t="s">
-        <v>763</v>
-      </c>
-      <c r="H202" s="86" t="s">
+      <c r="E202" s="85" t="s">
+        <v>877</v>
+      </c>
+      <c r="F202" s="85"/>
+      <c r="G202" s="85" t="s">
         <v>764</v>
+      </c>
+      <c r="H202" s="85" t="s">
+        <v>765</v>
       </c>
       <c r="I202" s="7"/>
       <c r="J202" s="7"/>
       <c r="K202" s="7"/>
     </row>
     <row r="203">
-      <c r="A203" s="100" t="s">
-        <v>877</v>
-      </c>
-      <c r="B203" s="84" t="s">
-        <v>766</v>
-      </c>
-      <c r="C203" s="86" t="s">
+      <c r="A203" s="99" t="s">
+        <v>878</v>
+      </c>
+      <c r="B203" s="83" t="s">
+        <v>767</v>
+      </c>
+      <c r="C203" s="85" t="s">
         <v>133</v>
       </c>
-      <c r="D203" s="86" t="s">
+      <c r="D203" s="85" t="s">
         <v>134</v>
       </c>
-      <c r="E203" s="86" t="s">
-        <v>878</v>
-      </c>
-      <c r="F203" s="86"/>
-      <c r="G203" s="97" t="s">
-        <v>759</v>
-      </c>
-      <c r="H203" s="97" t="s">
+      <c r="E203" s="85" t="s">
         <v>879</v>
+      </c>
+      <c r="F203" s="85"/>
+      <c r="G203" s="96" t="s">
+        <v>760</v>
+      </c>
+      <c r="H203" s="96" t="s">
+        <v>880</v>
       </c>
       <c r="I203" s="7"/>
       <c r="J203" s="7"/>
       <c r="K203" s="7"/>
     </row>
     <row r="204">
-      <c r="A204" s="100" t="s">
-        <v>880</v>
-      </c>
-      <c r="B204" s="84" t="s">
+      <c r="A204" s="99" t="s">
+        <v>881</v>
+      </c>
+      <c r="B204" s="83" t="s">
         <v>124</v>
       </c>
-      <c r="C204" s="86" t="s">
+      <c r="C204" s="85" t="s">
         <v>125</v>
       </c>
-      <c r="D204" s="86" t="s">
+      <c r="D204" s="85" t="s">
         <v>126</v>
       </c>
-      <c r="E204" s="86" t="s">
-        <v>881</v>
-      </c>
-      <c r="F204" s="86"/>
-      <c r="G204" s="86" t="s">
-        <v>763</v>
-      </c>
-      <c r="H204" s="86" t="s">
-        <v>771</v>
+      <c r="E204" s="85" t="s">
+        <v>882</v>
+      </c>
+      <c r="F204" s="85"/>
+      <c r="G204" s="85" t="s">
+        <v>764</v>
+      </c>
+      <c r="H204" s="85" t="s">
+        <v>772</v>
       </c>
       <c r="I204" s="7"/>
       <c r="J204" s="7"/>
       <c r="K204" s="7"/>
     </row>
     <row r="205">
-      <c r="A205" s="49" t="s">
-        <v>882</v>
-      </c>
-      <c r="B205" s="150" t="s">
+      <c r="A205" s="48" t="s">
         <v>883</v>
       </c>
-      <c r="C205" s="164" t="s">
+      <c r="B205" s="141" t="s">
+        <v>884</v>
+      </c>
+      <c r="C205" s="153" t="s">
         <v>666</v>
       </c>
-      <c r="D205" s="165"/>
-      <c r="E205" s="83" t="s">
-        <v>884</v>
-      </c>
-      <c r="F205" s="14"/>
+      <c r="D205" s="154"/>
+      <c r="E205" s="82" t="s">
+        <v>885</v>
+      </c>
+      <c r="F205" s="85"/>
       <c r="G205" s="14" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="H205" s="14" t="s">
         <v>178</v>
@@ -17135,288 +17102,288 @@
       <c r="K205" s="7"/>
     </row>
     <row r="206">
-      <c r="A206" s="100" t="s">
-        <v>886</v>
-      </c>
-      <c r="B206" s="84" t="s">
+      <c r="A206" s="99" t="s">
+        <v>887</v>
+      </c>
+      <c r="B206" s="83" t="s">
         <v>55</v>
       </c>
-      <c r="C206" s="86" t="s">
+      <c r="C206" s="85" t="s">
         <v>56</v>
       </c>
-      <c r="D206" s="86" t="s">
+      <c r="D206" s="85" t="s">
         <v>57</v>
       </c>
-      <c r="E206" s="86" t="s">
-        <v>887</v>
-      </c>
-      <c r="F206" s="86"/>
-      <c r="G206" s="83" t="s">
+      <c r="E206" s="85" t="s">
+        <v>888</v>
+      </c>
+      <c r="F206" s="85"/>
+      <c r="G206" s="82" t="s">
         <v>59</v>
       </c>
-      <c r="H206" s="83" t="s">
-        <v>888</v>
+      <c r="H206" s="82" t="s">
+        <v>889</v>
       </c>
       <c r="I206" s="7"/>
       <c r="J206" s="7"/>
       <c r="K206" s="7"/>
     </row>
     <row r="207">
-      <c r="A207" s="100" t="s">
-        <v>889</v>
-      </c>
-      <c r="B207" s="84" t="s">
+      <c r="A207" s="99" t="s">
+        <v>890</v>
+      </c>
+      <c r="B207" s="83" t="s">
         <v>69</v>
       </c>
-      <c r="C207" s="86" t="s">
+      <c r="C207" s="85" t="s">
         <v>70</v>
       </c>
-      <c r="D207" s="86" t="s">
+      <c r="D207" s="85" t="s">
         <v>71</v>
       </c>
-      <c r="E207" s="86" t="s">
-        <v>890</v>
-      </c>
-      <c r="F207" s="86"/>
-      <c r="G207" s="83" t="s">
+      <c r="E207" s="85" t="s">
+        <v>891</v>
+      </c>
+      <c r="F207" s="85"/>
+      <c r="G207" s="82" t="s">
         <v>73</v>
       </c>
-      <c r="H207" s="83" t="s">
-        <v>891</v>
+      <c r="H207" s="82" t="s">
+        <v>892</v>
       </c>
       <c r="I207" s="7"/>
       <c r="J207" s="7"/>
       <c r="K207" s="7"/>
     </row>
     <row r="208">
-      <c r="A208" s="100" t="s">
-        <v>892</v>
-      </c>
-      <c r="B208" s="84" t="s">
+      <c r="A208" s="99" t="s">
+        <v>893</v>
+      </c>
+      <c r="B208" s="83" t="s">
         <v>76</v>
       </c>
-      <c r="C208" s="86" t="s">
+      <c r="C208" s="85" t="s">
         <v>77</v>
       </c>
-      <c r="D208" s="86" t="s">
+      <c r="D208" s="85" t="s">
         <v>78</v>
       </c>
-      <c r="E208" s="86" t="s">
-        <v>893</v>
-      </c>
-      <c r="F208" s="86"/>
-      <c r="G208" s="83" t="s">
+      <c r="E208" s="85" t="s">
+        <v>894</v>
+      </c>
+      <c r="F208" s="85"/>
+      <c r="G208" s="82" t="s">
         <v>73</v>
       </c>
-      <c r="H208" s="83" t="s">
-        <v>894</v>
+      <c r="H208" s="82" t="s">
+        <v>895</v>
       </c>
       <c r="I208" s="7"/>
       <c r="J208" s="7"/>
       <c r="K208" s="7"/>
     </row>
     <row r="209">
-      <c r="A209" s="100" t="s">
-        <v>895</v>
-      </c>
-      <c r="B209" s="84" t="s">
+      <c r="A209" s="99" t="s">
+        <v>896</v>
+      </c>
+      <c r="B209" s="83" t="s">
         <v>90</v>
       </c>
-      <c r="C209" s="86" t="s">
+      <c r="C209" s="85" t="s">
         <v>91</v>
       </c>
-      <c r="D209" s="86" t="s">
-        <v>751</v>
-      </c>
-      <c r="E209" s="86" t="s">
-        <v>896</v>
-      </c>
-      <c r="F209" s="86"/>
-      <c r="G209" s="83" t="s">
+      <c r="D209" s="85" t="s">
+        <v>752</v>
+      </c>
+      <c r="E209" s="85" t="s">
+        <v>897</v>
+      </c>
+      <c r="F209" s="85"/>
+      <c r="G209" s="82" t="s">
         <v>94</v>
       </c>
-      <c r="H209" s="83" t="s">
-        <v>897</v>
+      <c r="H209" s="82" t="s">
+        <v>898</v>
       </c>
       <c r="I209" s="7"/>
       <c r="J209" s="7"/>
       <c r="K209" s="7"/>
     </row>
     <row r="210">
-      <c r="A210" s="100" t="s">
-        <v>898</v>
-      </c>
-      <c r="B210" s="84" t="s">
+      <c r="A210" s="99" t="s">
+        <v>899</v>
+      </c>
+      <c r="B210" s="83" t="s">
         <v>97</v>
       </c>
-      <c r="C210" s="86" t="s">
+      <c r="C210" s="85" t="s">
         <v>98</v>
       </c>
-      <c r="D210" s="86" t="s">
+      <c r="D210" s="85" t="s">
         <v>99</v>
       </c>
-      <c r="E210" s="86" t="s">
-        <v>899</v>
-      </c>
-      <c r="F210" s="86"/>
-      <c r="G210" s="83" t="s">
+      <c r="E210" s="85" t="s">
+        <v>900</v>
+      </c>
+      <c r="F210" s="85"/>
+      <c r="G210" s="82" t="s">
         <v>101</v>
       </c>
-      <c r="H210" s="83" t="s">
-        <v>900</v>
+      <c r="H210" s="82" t="s">
+        <v>901</v>
       </c>
       <c r="I210" s="7"/>
       <c r="J210" s="7"/>
       <c r="K210" s="7"/>
     </row>
     <row r="211">
-      <c r="A211" s="100" t="s">
-        <v>901</v>
-      </c>
-      <c r="B211" s="84" t="s">
+      <c r="A211" s="99" t="s">
+        <v>902</v>
+      </c>
+      <c r="B211" s="83" t="s">
         <v>117</v>
       </c>
-      <c r="C211" s="86" t="s">
+      <c r="C211" s="85" t="s">
         <v>118</v>
       </c>
-      <c r="D211" s="86" t="s">
+      <c r="D211" s="85" t="s">
         <v>119</v>
       </c>
-      <c r="E211" s="86" t="s">
-        <v>902</v>
-      </c>
-      <c r="F211" s="86"/>
-      <c r="G211" s="86" t="s">
-        <v>759</v>
-      </c>
-      <c r="H211" s="86" t="s">
+      <c r="E211" s="85" t="s">
+        <v>903</v>
+      </c>
+      <c r="F211" s="85"/>
+      <c r="G211" s="85" t="s">
         <v>760</v>
+      </c>
+      <c r="H211" s="85" t="s">
+        <v>761</v>
       </c>
       <c r="I211" s="7"/>
       <c r="J211" s="7"/>
       <c r="K211" s="7"/>
     </row>
     <row r="212">
-      <c r="A212" s="100" t="s">
-        <v>903</v>
-      </c>
-      <c r="B212" s="84" t="s">
+      <c r="A212" s="99" t="s">
+        <v>904</v>
+      </c>
+      <c r="B212" s="83" t="s">
         <v>111</v>
       </c>
-      <c r="C212" s="86" t="s">
+      <c r="C212" s="85" t="s">
         <v>112</v>
       </c>
-      <c r="D212" s="86" t="s">
+      <c r="D212" s="85" t="s">
         <v>113</v>
       </c>
-      <c r="E212" s="86" t="s">
-        <v>904</v>
-      </c>
-      <c r="F212" s="86"/>
-      <c r="G212" s="86" t="s">
-        <v>763</v>
-      </c>
-      <c r="H212" s="86" t="s">
+      <c r="E212" s="85" t="s">
+        <v>905</v>
+      </c>
+      <c r="F212" s="85"/>
+      <c r="G212" s="85" t="s">
         <v>764</v>
+      </c>
+      <c r="H212" s="85" t="s">
+        <v>765</v>
       </c>
       <c r="I212" s="7"/>
       <c r="J212" s="7"/>
       <c r="K212" s="7"/>
     </row>
     <row r="213">
-      <c r="A213" s="100" t="s">
-        <v>905</v>
-      </c>
-      <c r="B213" s="84" t="s">
-        <v>766</v>
-      </c>
-      <c r="C213" s="86" t="s">
+      <c r="A213" s="99" t="s">
+        <v>906</v>
+      </c>
+      <c r="B213" s="83" t="s">
+        <v>767</v>
+      </c>
+      <c r="C213" s="85" t="s">
         <v>133</v>
       </c>
-      <c r="D213" s="86" t="s">
+      <c r="D213" s="85" t="s">
         <v>134</v>
       </c>
-      <c r="E213" s="86" t="s">
-        <v>906</v>
-      </c>
-      <c r="F213" s="86"/>
-      <c r="G213" s="97" t="s">
-        <v>759</v>
-      </c>
-      <c r="H213" s="97" t="s">
+      <c r="E213" s="85" t="s">
         <v>907</v>
+      </c>
+      <c r="F213" s="85"/>
+      <c r="G213" s="96" t="s">
+        <v>760</v>
+      </c>
+      <c r="H213" s="96" t="s">
+        <v>908</v>
       </c>
       <c r="I213" s="7"/>
       <c r="J213" s="7"/>
       <c r="K213" s="7"/>
     </row>
     <row r="214">
-      <c r="A214" s="100" t="s">
-        <v>908</v>
-      </c>
-      <c r="B214" s="84" t="s">
+      <c r="A214" s="99" t="s">
+        <v>909</v>
+      </c>
+      <c r="B214" s="83" t="s">
         <v>124</v>
       </c>
-      <c r="C214" s="86" t="s">
+      <c r="C214" s="85" t="s">
         <v>125</v>
       </c>
-      <c r="D214" s="86" t="s">
+      <c r="D214" s="85" t="s">
         <v>126</v>
       </c>
-      <c r="E214" s="86" t="s">
-        <v>909</v>
-      </c>
-      <c r="F214" s="86"/>
-      <c r="G214" s="86" t="s">
-        <v>763</v>
-      </c>
-      <c r="H214" s="86" t="s">
-        <v>771</v>
+      <c r="E214" s="85" t="s">
+        <v>910</v>
+      </c>
+      <c r="F214" s="85"/>
+      <c r="G214" s="85" t="s">
+        <v>764</v>
+      </c>
+      <c r="H214" s="85" t="s">
+        <v>772</v>
       </c>
       <c r="I214" s="7"/>
       <c r="J214" s="7"/>
       <c r="K214" s="7"/>
     </row>
     <row r="215">
-      <c r="A215" s="49" t="s">
-        <v>910</v>
-      </c>
-      <c r="B215" s="150" t="s">
+      <c r="A215" s="48" t="s">
         <v>911</v>
       </c>
-      <c r="C215" s="86" t="s">
+      <c r="B215" s="141" t="s">
         <v>912</v>
       </c>
-      <c r="D215" s="86" t="s">
+      <c r="C215" s="85" t="s">
         <v>913</v>
       </c>
-      <c r="E215" s="86" t="s">
+      <c r="D215" s="85" t="s">
         <v>914</v>
       </c>
-      <c r="F215" s="86"/>
-      <c r="G215" s="162" t="s">
+      <c r="E215" s="85" t="s">
         <v>915</v>
       </c>
-      <c r="H215" s="163" t="s">
+      <c r="F215" s="85"/>
+      <c r="G215" s="151" t="s">
         <v>916</v>
+      </c>
+      <c r="H215" s="152" t="s">
+        <v>917</v>
       </c>
       <c r="I215" s="7"/>
       <c r="J215" s="7"/>
       <c r="K215" s="7"/>
     </row>
     <row r="216">
-      <c r="A216" s="49" t="s">
-        <v>917</v>
-      </c>
-      <c r="B216" s="150" t="s">
+      <c r="A216" s="48" t="s">
         <v>918</v>
       </c>
+      <c r="B216" s="141" t="s">
+        <v>919</v>
+      </c>
       <c r="C216" s="7"/>
-      <c r="D216" s="83"/>
-      <c r="E216" s="83" t="s">
-        <v>919</v>
-      </c>
-      <c r="F216" s="14"/>
+      <c r="D216" s="7"/>
+      <c r="E216" s="82" t="s">
+        <v>920</v>
+      </c>
+      <c r="F216" s="85"/>
       <c r="G216" s="14" t="s">
         <v>52</v>
       </c>
@@ -17428,270 +17395,270 @@
       <c r="K216" s="7"/>
     </row>
     <row r="217">
-      <c r="A217" s="100" t="s">
-        <v>920</v>
-      </c>
-      <c r="B217" s="84" t="s">
+      <c r="A217" s="99" t="s">
+        <v>921</v>
+      </c>
+      <c r="B217" s="83" t="s">
         <v>55</v>
       </c>
-      <c r="C217" s="86" t="s">
+      <c r="C217" s="85" t="s">
         <v>56</v>
       </c>
-      <c r="D217" s="86" t="s">
+      <c r="D217" s="85" t="s">
         <v>57</v>
       </c>
-      <c r="E217" s="86" t="s">
-        <v>921</v>
-      </c>
-      <c r="F217" s="86"/>
-      <c r="G217" s="83" t="s">
+      <c r="E217" s="85" t="s">
+        <v>922</v>
+      </c>
+      <c r="F217" s="85"/>
+      <c r="G217" s="82" t="s">
         <v>59</v>
       </c>
-      <c r="H217" s="83" t="s">
-        <v>922</v>
+      <c r="H217" s="82" t="s">
+        <v>923</v>
       </c>
       <c r="I217" s="7"/>
       <c r="J217" s="7"/>
       <c r="K217" s="7"/>
     </row>
     <row r="218">
-      <c r="A218" s="100" t="s">
-        <v>923</v>
-      </c>
-      <c r="B218" s="84" t="s">
+      <c r="A218" s="99" t="s">
+        <v>924</v>
+      </c>
+      <c r="B218" s="83" t="s">
         <v>69</v>
       </c>
-      <c r="C218" s="86" t="s">
+      <c r="C218" s="85" t="s">
         <v>70</v>
       </c>
-      <c r="D218" s="86" t="s">
+      <c r="D218" s="85" t="s">
         <v>71</v>
       </c>
-      <c r="E218" s="86" t="s">
-        <v>924</v>
-      </c>
-      <c r="F218" s="86"/>
-      <c r="G218" s="83" t="s">
+      <c r="E218" s="85" t="s">
+        <v>925</v>
+      </c>
+      <c r="F218" s="85"/>
+      <c r="G218" s="82" t="s">
         <v>73</v>
       </c>
-      <c r="H218" s="83" t="s">
-        <v>925</v>
+      <c r="H218" s="82" t="s">
+        <v>926</v>
       </c>
       <c r="I218" s="7"/>
       <c r="J218" s="7"/>
       <c r="K218" s="7"/>
     </row>
     <row r="219">
-      <c r="A219" s="100" t="s">
-        <v>926</v>
-      </c>
-      <c r="B219" s="84" t="s">
+      <c r="A219" s="99" t="s">
+        <v>927</v>
+      </c>
+      <c r="B219" s="83" t="s">
         <v>76</v>
       </c>
-      <c r="C219" s="86" t="s">
+      <c r="C219" s="85" t="s">
         <v>77</v>
       </c>
-      <c r="D219" s="86" t="s">
+      <c r="D219" s="85" t="s">
         <v>78</v>
       </c>
-      <c r="E219" s="86" t="s">
-        <v>927</v>
-      </c>
-      <c r="F219" s="86"/>
-      <c r="G219" s="83" t="s">
+      <c r="E219" s="85" t="s">
+        <v>928</v>
+      </c>
+      <c r="F219" s="85"/>
+      <c r="G219" s="82" t="s">
         <v>73</v>
       </c>
-      <c r="H219" s="146" t="s">
-        <v>928</v>
+      <c r="H219" s="137" t="s">
+        <v>929</v>
       </c>
       <c r="I219" s="7"/>
       <c r="J219" s="7"/>
       <c r="K219" s="7"/>
     </row>
     <row r="220">
-      <c r="A220" s="100" t="s">
-        <v>929</v>
-      </c>
-      <c r="B220" s="84" t="s">
+      <c r="A220" s="99" t="s">
+        <v>930</v>
+      </c>
+      <c r="B220" s="83" t="s">
         <v>90</v>
       </c>
-      <c r="C220" s="86" t="s">
+      <c r="C220" s="85" t="s">
         <v>91</v>
       </c>
-      <c r="D220" s="86" t="s">
-        <v>751</v>
-      </c>
-      <c r="E220" s="86" t="s">
-        <v>930</v>
-      </c>
-      <c r="F220" s="86"/>
-      <c r="G220" s="83" t="s">
+      <c r="D220" s="85" t="s">
+        <v>752</v>
+      </c>
+      <c r="E220" s="85" t="s">
+        <v>931</v>
+      </c>
+      <c r="F220" s="85"/>
+      <c r="G220" s="82" t="s">
         <v>94</v>
       </c>
-      <c r="H220" s="146" t="s">
-        <v>931</v>
+      <c r="H220" s="137" t="s">
+        <v>932</v>
       </c>
       <c r="I220" s="7"/>
       <c r="J220" s="7"/>
       <c r="K220" s="7"/>
     </row>
     <row r="221">
-      <c r="A221" s="100" t="s">
-        <v>932</v>
-      </c>
-      <c r="B221" s="84" t="s">
+      <c r="A221" s="99" t="s">
+        <v>933</v>
+      </c>
+      <c r="B221" s="83" t="s">
         <v>97</v>
       </c>
-      <c r="C221" s="86" t="s">
+      <c r="C221" s="85" t="s">
         <v>98</v>
       </c>
-      <c r="D221" s="86" t="s">
+      <c r="D221" s="85" t="s">
         <v>99</v>
       </c>
-      <c r="E221" s="86" t="s">
-        <v>933</v>
-      </c>
-      <c r="F221" s="86"/>
-      <c r="G221" s="86" t="s">
+      <c r="E221" s="85" t="s">
+        <v>934</v>
+      </c>
+      <c r="F221" s="85"/>
+      <c r="G221" s="85" t="s">
         <v>101</v>
       </c>
-      <c r="H221" s="86" t="s">
-        <v>934</v>
+      <c r="H221" s="85" t="s">
+        <v>935</v>
       </c>
       <c r="I221" s="7"/>
       <c r="J221" s="7"/>
       <c r="K221" s="7"/>
     </row>
     <row r="222">
-      <c r="A222" s="100" t="s">
-        <v>935</v>
-      </c>
-      <c r="B222" s="84" t="s">
+      <c r="A222" s="99" t="s">
+        <v>936</v>
+      </c>
+      <c r="B222" s="83" t="s">
         <v>117</v>
       </c>
-      <c r="C222" s="86" t="s">
+      <c r="C222" s="85" t="s">
         <v>118</v>
       </c>
-      <c r="D222" s="86" t="s">
+      <c r="D222" s="85" t="s">
         <v>119</v>
       </c>
-      <c r="E222" s="86" t="s">
-        <v>936</v>
-      </c>
-      <c r="F222" s="86"/>
-      <c r="G222" s="86" t="s">
-        <v>759</v>
-      </c>
-      <c r="H222" s="149" t="s">
+      <c r="E222" s="85" t="s">
+        <v>937</v>
+      </c>
+      <c r="F222" s="85"/>
+      <c r="G222" s="85" t="s">
         <v>760</v>
+      </c>
+      <c r="H222" s="140" t="s">
+        <v>761</v>
       </c>
       <c r="I222" s="7"/>
       <c r="J222" s="7"/>
       <c r="K222" s="7"/>
     </row>
     <row r="223">
-      <c r="A223" s="100" t="s">
-        <v>937</v>
-      </c>
-      <c r="B223" s="84" t="s">
+      <c r="A223" s="99" t="s">
+        <v>938</v>
+      </c>
+      <c r="B223" s="83" t="s">
         <v>111</v>
       </c>
-      <c r="C223" s="86" t="s">
+      <c r="C223" s="85" t="s">
         <v>112</v>
       </c>
-      <c r="D223" s="86" t="s">
+      <c r="D223" s="85" t="s">
         <v>113</v>
       </c>
-      <c r="E223" s="86" t="s">
-        <v>938</v>
-      </c>
-      <c r="F223" s="86"/>
-      <c r="G223" s="86" t="s">
-        <v>763</v>
-      </c>
-      <c r="H223" s="86" t="s">
+      <c r="E223" s="85" t="s">
+        <v>939</v>
+      </c>
+      <c r="F223" s="85"/>
+      <c r="G223" s="85" t="s">
         <v>764</v>
+      </c>
+      <c r="H223" s="85" t="s">
+        <v>765</v>
       </c>
       <c r="I223" s="7"/>
       <c r="J223" s="7"/>
       <c r="K223" s="7"/>
     </row>
     <row r="224">
-      <c r="A224" s="100" t="s">
-        <v>939</v>
-      </c>
-      <c r="B224" s="84" t="s">
-        <v>766</v>
-      </c>
-      <c r="C224" s="86" t="s">
+      <c r="A224" s="99" t="s">
+        <v>940</v>
+      </c>
+      <c r="B224" s="83" t="s">
+        <v>767</v>
+      </c>
+      <c r="C224" s="85" t="s">
         <v>133</v>
       </c>
-      <c r="D224" s="86" t="s">
+      <c r="D224" s="85" t="s">
         <v>134</v>
       </c>
-      <c r="E224" s="86" t="s">
-        <v>940</v>
-      </c>
-      <c r="F224" s="86"/>
-      <c r="G224" s="97" t="s">
-        <v>759</v>
-      </c>
-      <c r="H224" s="97" t="s">
+      <c r="E224" s="85" t="s">
         <v>941</v>
+      </c>
+      <c r="F224" s="85"/>
+      <c r="G224" s="96" t="s">
+        <v>760</v>
+      </c>
+      <c r="H224" s="96" t="s">
+        <v>942</v>
       </c>
       <c r="I224" s="7"/>
       <c r="J224" s="7"/>
       <c r="K224" s="7"/>
     </row>
     <row r="225">
-      <c r="A225" s="100" t="s">
-        <v>942</v>
-      </c>
-      <c r="B225" s="84" t="s">
+      <c r="A225" s="99" t="s">
+        <v>943</v>
+      </c>
+      <c r="B225" s="83" t="s">
         <v>124</v>
       </c>
-      <c r="C225" s="86" t="s">
+      <c r="C225" s="85" t="s">
         <v>125</v>
       </c>
-      <c r="D225" s="86" t="s">
+      <c r="D225" s="85" t="s">
         <v>126</v>
       </c>
-      <c r="E225" s="86" t="s">
-        <v>943</v>
-      </c>
-      <c r="F225" s="86"/>
-      <c r="G225" s="86" t="s">
-        <v>763</v>
-      </c>
-      <c r="H225" s="86" t="s">
-        <v>771</v>
+      <c r="E225" s="85" t="s">
+        <v>944</v>
+      </c>
+      <c r="F225" s="85"/>
+      <c r="G225" s="85" t="s">
+        <v>764</v>
+      </c>
+      <c r="H225" s="85" t="s">
+        <v>772</v>
       </c>
       <c r="I225" s="7"/>
       <c r="J225" s="7"/>
       <c r="K225" s="7"/>
     </row>
     <row r="226">
-      <c r="A226" s="133" t="s">
-        <v>944</v>
-      </c>
-      <c r="B226" s="160" t="s">
+      <c r="A226" s="126" t="s">
         <v>945</v>
       </c>
-      <c r="C226" s="166" t="s">
+      <c r="B226" s="149" t="s">
         <v>946</v>
       </c>
-      <c r="D226" s="166" t="s">
+      <c r="C226" s="155" t="s">
         <v>947</v>
       </c>
-      <c r="E226" s="167" t="s">
+      <c r="D226" s="155" t="s">
         <v>948</v>
       </c>
-      <c r="F226" s="167"/>
-      <c r="G226" s="83" t="s">
+      <c r="E226" s="156" t="s">
         <v>949</v>
       </c>
-      <c r="H226" s="168" t="s">
+      <c r="F226" s="156"/>
+      <c r="G226" s="82" t="s">
         <v>950</v>
+      </c>
+      <c r="H226" s="157" t="s">
+        <v>951</v>
       </c>
       <c r="I226" s="7"/>
       <c r="J226" s="7"/>
@@ -17699,43 +17666,43 @@
     </row>
     <row r="227">
       <c r="A227" s="112" t="s">
-        <v>951</v>
-      </c>
-      <c r="B227" s="91" t="s">
         <v>952</v>
       </c>
-      <c r="C227" s="169" t="s">
+      <c r="B227" s="108" t="s">
+        <v>953</v>
+      </c>
+      <c r="C227" s="158" t="s">
         <v>666</v>
       </c>
-      <c r="D227" s="91"/>
-      <c r="E227" s="91" t="s">
-        <v>953</v>
-      </c>
-      <c r="F227" s="91"/>
-      <c r="G227" s="91"/>
-      <c r="H227" s="91"/>
+      <c r="D227" s="108"/>
+      <c r="E227" s="108" t="s">
+        <v>954</v>
+      </c>
+      <c r="F227" s="108"/>
+      <c r="G227" s="108"/>
+      <c r="H227" s="108"/>
       <c r="I227" s="7"/>
       <c r="J227" s="7"/>
       <c r="K227" s="7"/>
     </row>
     <row r="228">
       <c r="A228" s="112" t="s">
-        <v>954</v>
-      </c>
-      <c r="B228" s="91" t="s">
         <v>955</v>
       </c>
-      <c r="C228" s="91"/>
-      <c r="D228" s="91"/>
-      <c r="E228" s="91" t="s">
+      <c r="B228" s="108" t="s">
         <v>956</v>
       </c>
-      <c r="F228" s="91"/>
-      <c r="G228" s="91" t="s">
+      <c r="C228" s="108"/>
+      <c r="D228" s="108"/>
+      <c r="E228" s="108" t="s">
         <v>957</v>
       </c>
-      <c r="H228" s="91" t="s">
+      <c r="F228" s="108"/>
+      <c r="G228" s="108" t="s">
         <v>958</v>
+      </c>
+      <c r="H228" s="108" t="s">
+        <v>959</v>
       </c>
       <c r="I228" s="7"/>
       <c r="J228" s="7"/>
@@ -17743,41 +17710,41 @@
     </row>
     <row r="229">
       <c r="A229" s="112" t="s">
-        <v>959</v>
-      </c>
-      <c r="B229" s="158" t="s">
         <v>960</v>
       </c>
-      <c r="C229" s="91" t="s">
+      <c r="B229" s="90" t="s">
+        <v>961</v>
+      </c>
+      <c r="C229" s="108" t="s">
         <v>666</v>
       </c>
-      <c r="D229" s="91"/>
-      <c r="E229" s="91"/>
-      <c r="F229" s="91"/>
-      <c r="G229" s="91"/>
-      <c r="H229" s="91"/>
+      <c r="D229" s="108"/>
+      <c r="E229" s="108"/>
+      <c r="F229" s="108"/>
+      <c r="G229" s="108"/>
+      <c r="H229" s="108"/>
       <c r="I229" s="7"/>
       <c r="J229" s="7"/>
       <c r="K229" s="7"/>
     </row>
     <row r="230">
       <c r="A230" s="112" t="s">
-        <v>961</v>
-      </c>
-      <c r="B230" s="91" t="s">
         <v>962</v>
       </c>
-      <c r="C230" s="91"/>
-      <c r="D230" s="91"/>
-      <c r="E230" s="91" t="s">
+      <c r="B230" s="108" t="s">
         <v>963</v>
       </c>
-      <c r="F230" s="91"/>
-      <c r="G230" s="91" t="s">
-        <v>957</v>
-      </c>
-      <c r="H230" s="91" t="s">
+      <c r="C230" s="108"/>
+      <c r="D230" s="108"/>
+      <c r="E230" s="108" t="s">
         <v>964</v>
+      </c>
+      <c r="F230" s="108"/>
+      <c r="G230" s="108" t="s">
+        <v>958</v>
+      </c>
+      <c r="H230" s="108" t="s">
+        <v>965</v>
       </c>
       <c r="I230" s="7"/>
       <c r="J230" s="7"/>
@@ -17785,22 +17752,22 @@
     </row>
     <row r="231">
       <c r="A231" s="112" t="s">
-        <v>965</v>
-      </c>
-      <c r="B231" s="91" t="s">
         <v>966</v>
       </c>
-      <c r="C231" s="91"/>
-      <c r="D231" s="91"/>
-      <c r="E231" s="91" t="s">
+      <c r="B231" s="108" t="s">
         <v>967</v>
       </c>
-      <c r="F231" s="91"/>
-      <c r="G231" s="91" t="s">
-        <v>957</v>
-      </c>
-      <c r="H231" s="91" t="s">
+      <c r="C231" s="108"/>
+      <c r="D231" s="108"/>
+      <c r="E231" s="108" t="s">
         <v>968</v>
+      </c>
+      <c r="F231" s="108"/>
+      <c r="G231" s="108" t="s">
+        <v>958</v>
+      </c>
+      <c r="H231" s="108" t="s">
+        <v>969</v>
       </c>
       <c r="I231" s="7"/>
       <c r="J231" s="7"/>
@@ -17808,22 +17775,22 @@
     </row>
     <row r="232">
       <c r="A232" s="112" t="s">
-        <v>969</v>
-      </c>
-      <c r="B232" s="91" t="s">
         <v>970</v>
       </c>
-      <c r="C232" s="91"/>
-      <c r="D232" s="91"/>
-      <c r="E232" s="91" t="s">
+      <c r="B232" s="108" t="s">
         <v>971</v>
       </c>
-      <c r="F232" s="91"/>
-      <c r="G232" s="91" t="s">
-        <v>957</v>
-      </c>
-      <c r="H232" s="170" t="s">
+      <c r="C232" s="108"/>
+      <c r="D232" s="108"/>
+      <c r="E232" s="108" t="s">
         <v>972</v>
+      </c>
+      <c r="F232" s="108"/>
+      <c r="G232" s="108" t="s">
+        <v>958</v>
+      </c>
+      <c r="H232" s="159" t="s">
+        <v>973</v>
       </c>
       <c r="I232" s="7"/>
       <c r="J232" s="7"/>
@@ -17831,22 +17798,22 @@
     </row>
     <row r="233">
       <c r="A233" s="112" t="s">
-        <v>973</v>
-      </c>
-      <c r="B233" s="91" t="s">
         <v>974</v>
       </c>
-      <c r="C233" s="91"/>
-      <c r="D233" s="91"/>
-      <c r="E233" s="91" t="s">
+      <c r="B233" s="108" t="s">
         <v>975</v>
       </c>
-      <c r="F233" s="91"/>
-      <c r="G233" s="91" t="s">
-        <v>957</v>
-      </c>
-      <c r="H233" s="170" t="s">
+      <c r="C233" s="108"/>
+      <c r="D233" s="108"/>
+      <c r="E233" s="108" t="s">
         <v>976</v>
+      </c>
+      <c r="F233" s="108"/>
+      <c r="G233" s="108" t="s">
+        <v>958</v>
+      </c>
+      <c r="H233" s="159" t="s">
+        <v>977</v>
       </c>
       <c r="I233" s="7"/>
       <c r="J233" s="7"/>
@@ -17854,43 +17821,43 @@
     </row>
     <row r="234">
       <c r="A234" s="112" t="s">
-        <v>977</v>
-      </c>
-      <c r="B234" s="91" t="s">
         <v>978</v>
       </c>
-      <c r="C234" s="169" t="s">
+      <c r="B234" s="108" t="s">
+        <v>979</v>
+      </c>
+      <c r="C234" s="158" t="s">
         <v>666</v>
       </c>
-      <c r="D234" s="91"/>
-      <c r="E234" s="91"/>
-      <c r="F234" s="91"/>
-      <c r="G234" s="91"/>
-      <c r="H234" s="91"/>
+      <c r="D234" s="108"/>
+      <c r="E234" s="108"/>
+      <c r="F234" s="108"/>
+      <c r="G234" s="108"/>
+      <c r="H234" s="108"/>
       <c r="I234" s="7"/>
       <c r="J234" s="7"/>
       <c r="K234" s="7"/>
     </row>
     <row r="235">
       <c r="A235" s="112" t="s">
-        <v>979</v>
-      </c>
-      <c r="B235" s="91" t="s">
         <v>980</v>
       </c>
-      <c r="C235" s="171" t="s">
+      <c r="B235" s="108" t="s">
+        <v>981</v>
+      </c>
+      <c r="C235" s="160" t="s">
         <v>578</v>
       </c>
-      <c r="D235" s="91"/>
-      <c r="E235" s="91" t="s">
-        <v>981</v>
-      </c>
-      <c r="F235" s="91"/>
-      <c r="G235" s="91" t="s">
-        <v>957</v>
-      </c>
-      <c r="H235" s="172" t="s">
+      <c r="D235" s="108"/>
+      <c r="E235" s="108" t="s">
         <v>982</v>
+      </c>
+      <c r="F235" s="108"/>
+      <c r="G235" s="108" t="s">
+        <v>958</v>
+      </c>
+      <c r="H235" s="161" t="s">
+        <v>983</v>
       </c>
       <c r="I235" s="7"/>
       <c r="J235" s="7"/>
@@ -17898,45 +17865,45 @@
     </row>
     <row r="236">
       <c r="A236" s="112" t="s">
-        <v>983</v>
-      </c>
-      <c r="B236" s="91" t="s">
         <v>984</v>
       </c>
-      <c r="C236" s="169" t="s">
+      <c r="B236" s="108" t="s">
+        <v>985</v>
+      </c>
+      <c r="C236" s="158" t="s">
         <v>666</v>
       </c>
-      <c r="D236" s="91"/>
-      <c r="E236" s="91"/>
-      <c r="F236" s="91"/>
-      <c r="G236" s="91"/>
-      <c r="H236" s="91"/>
+      <c r="D236" s="108"/>
+      <c r="E236" s="108"/>
+      <c r="F236" s="108"/>
+      <c r="G236" s="108"/>
+      <c r="H236" s="108"/>
       <c r="I236" s="7"/>
       <c r="J236" s="7"/>
       <c r="K236" s="7"/>
     </row>
     <row r="237">
       <c r="A237" s="112" t="s">
-        <v>985</v>
-      </c>
-      <c r="B237" s="91" t="s">
         <v>986</v>
       </c>
-      <c r="C237" s="169" t="s">
+      <c r="B237" s="108" t="s">
         <v>987</v>
       </c>
-      <c r="D237" s="91" t="s">
+      <c r="C237" s="158" t="s">
         <v>988</v>
       </c>
-      <c r="E237" s="173" t="s">
+      <c r="D237" s="108" t="s">
         <v>989</v>
       </c>
-      <c r="F237" s="91"/>
-      <c r="G237" s="91" t="s">
+      <c r="E237" s="162" t="s">
         <v>990</v>
       </c>
-      <c r="H237" s="174" t="s">
+      <c r="F237" s="108"/>
+      <c r="G237" s="108" t="s">
         <v>991</v>
+      </c>
+      <c r="H237" s="163" t="s">
+        <v>992</v>
       </c>
       <c r="I237" s="7"/>
       <c r="J237" s="7"/>
@@ -18023,156 +17990,156 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="175" t="s">
+      <c r="A1" s="164" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="176" t="s">
+      <c r="B1" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="176" t="s">
+      <c r="C1" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="D1" s="176" t="s">
+      <c r="D1" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="E1" s="176" t="s">
+      <c r="E1" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="F1" s="176" t="s">
+      <c r="F1" s="26" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="177" t="s">
+      <c r="A2" s="165" t="s">
         <v>375</v>
       </c>
-      <c r="B2" s="178" t="s">
+      <c r="B2" s="166" t="s">
         <v>376</v>
       </c>
-      <c r="C2" s="179" t="s">
-        <v>992</v>
-      </c>
-      <c r="D2" s="179"/>
-      <c r="E2" s="178" t="s">
+      <c r="C2" s="167" t="s">
         <v>993</v>
       </c>
-      <c r="F2" s="178" t="s">
+      <c r="D2" s="167"/>
+      <c r="E2" s="166" t="s">
         <v>994</v>
+      </c>
+      <c r="F2" s="166" t="s">
+        <v>995</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="19" t="s">
         <v>375</v>
       </c>
-      <c r="B3" s="83" t="s">
+      <c r="B3" s="82" t="s">
         <v>376</v>
       </c>
-      <c r="C3" s="86" t="s">
-        <v>992</v>
-      </c>
-      <c r="D3" s="86"/>
-      <c r="E3" s="40" t="s">
-        <v>995</v>
-      </c>
-      <c r="F3" s="40" t="s">
+      <c r="C3" s="85" t="s">
+        <v>993</v>
+      </c>
+      <c r="D3" s="85"/>
+      <c r="E3" s="39" t="s">
         <v>996</v>
+      </c>
+      <c r="F3" s="39" t="s">
+        <v>997</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="19" t="s">
-        <v>997</v>
-      </c>
-      <c r="B4" s="83" t="s">
         <v>998</v>
       </c>
-      <c r="C4" s="86" t="s">
+      <c r="B4" s="82" t="s">
         <v>999</v>
       </c>
-      <c r="D4" s="86" t="s">
+      <c r="C4" s="85" t="s">
         <v>1000</v>
       </c>
-      <c r="E4" s="40" t="s">
+      <c r="D4" s="85" t="s">
         <v>1001</v>
       </c>
-      <c r="F4" s="40" t="s">
+      <c r="E4" s="39" t="s">
         <v>1002</v>
+      </c>
+      <c r="F4" s="39" t="s">
+        <v>1003</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="4" t="s">
         <v>652</v>
       </c>
-      <c r="B5" s="83" t="s">
+      <c r="B5" s="82" t="s">
         <v>653</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>655</v>
       </c>
-      <c r="E5" s="40" t="s">
+      <c r="E5" s="39" t="s">
         <v>661</v>
       </c>
-      <c r="F5" s="40" t="s">
-        <v>1004</v>
-      </c>
-      <c r="G5" s="180"/>
-      <c r="H5" s="180"/>
-      <c r="I5" s="180"/>
-      <c r="J5" s="180"/>
-      <c r="K5" s="180"/>
-      <c r="L5" s="180"/>
-      <c r="M5" s="180"/>
-      <c r="N5" s="180"/>
-      <c r="O5" s="180"/>
-      <c r="P5" s="180"/>
-      <c r="Q5" s="180"/>
-      <c r="R5" s="180"/>
-      <c r="S5" s="180"/>
-      <c r="T5" s="180"/>
-      <c r="U5" s="180"/>
-      <c r="V5" s="180"/>
-      <c r="W5" s="180"/>
-      <c r="X5" s="180"/>
-      <c r="Y5" s="180"/>
-      <c r="Z5" s="180"/>
+      <c r="F5" s="39" t="s">
+        <v>1005</v>
+      </c>
+      <c r="G5" s="168"/>
+      <c r="H5" s="168"/>
+      <c r="I5" s="168"/>
+      <c r="J5" s="168"/>
+      <c r="K5" s="168"/>
+      <c r="L5" s="168"/>
+      <c r="M5" s="168"/>
+      <c r="N5" s="168"/>
+      <c r="O5" s="168"/>
+      <c r="P5" s="168"/>
+      <c r="Q5" s="168"/>
+      <c r="R5" s="168"/>
+      <c r="S5" s="168"/>
+      <c r="T5" s="168"/>
+      <c r="U5" s="168"/>
+      <c r="V5" s="168"/>
+      <c r="W5" s="168"/>
+      <c r="X5" s="168"/>
+      <c r="Y5" s="168"/>
+      <c r="Z5" s="168"/>
     </row>
     <row r="6">
       <c r="A6" s="7"/>
-      <c r="B6" s="83"/>
-      <c r="C6" s="181"/>
+      <c r="B6" s="82"/>
+      <c r="C6" s="169"/>
       <c r="D6" s="7"/>
-      <c r="E6" s="40"/>
-      <c r="F6" s="40"/>
-      <c r="G6" s="180"/>
-      <c r="H6" s="180"/>
-      <c r="I6" s="180"/>
-      <c r="J6" s="180"/>
-      <c r="K6" s="180"/>
-      <c r="L6" s="180"/>
-      <c r="M6" s="180"/>
-      <c r="N6" s="180"/>
-      <c r="O6" s="180"/>
-      <c r="P6" s="180"/>
-      <c r="Q6" s="180"/>
-      <c r="R6" s="180"/>
-      <c r="S6" s="180"/>
-      <c r="T6" s="180"/>
-      <c r="U6" s="180"/>
-      <c r="V6" s="180"/>
-      <c r="W6" s="180"/>
-      <c r="X6" s="180"/>
-      <c r="Y6" s="180"/>
-      <c r="Z6" s="180"/>
+      <c r="E6" s="39"/>
+      <c r="F6" s="39"/>
+      <c r="G6" s="168"/>
+      <c r="H6" s="168"/>
+      <c r="I6" s="168"/>
+      <c r="J6" s="168"/>
+      <c r="K6" s="168"/>
+      <c r="L6" s="168"/>
+      <c r="M6" s="168"/>
+      <c r="N6" s="168"/>
+      <c r="O6" s="168"/>
+      <c r="P6" s="168"/>
+      <c r="Q6" s="168"/>
+      <c r="R6" s="168"/>
+      <c r="S6" s="168"/>
+      <c r="T6" s="168"/>
+      <c r="U6" s="168"/>
+      <c r="V6" s="168"/>
+      <c r="W6" s="168"/>
+      <c r="X6" s="168"/>
+      <c r="Y6" s="168"/>
+      <c r="Z6" s="168"/>
     </row>
     <row r="7">
       <c r="A7" s="19"/>
-      <c r="B7" s="40"/>
+      <c r="B7" s="39"/>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40"/>
+      <c r="E7" s="39"/>
+      <c r="F7" s="39"/>
     </row>
     <row r="8">
       <c r="E8" s="28"/>
@@ -22175,108 +22142,108 @@
   </cols>
   <sheetData>
     <row r="2">
-      <c r="A2" s="182" t="s">
-        <v>1005</v>
-      </c>
-      <c r="B2" s="183" t="s">
+      <c r="A2" s="170" t="s">
         <v>1006</v>
       </c>
+      <c r="B2" s="171" t="s">
+        <v>1007</v>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" s="184" t="s">
-        <v>1007</v>
-      </c>
-      <c r="B3" s="183" t="s">
+      <c r="A3" s="172" t="s">
         <v>1008</v>
       </c>
+      <c r="B3" s="171" t="s">
+        <v>1009</v>
+      </c>
     </row>
     <row r="4">
-      <c r="A4" s="185" t="s">
-        <v>1009</v>
+      <c r="A4" s="173" t="s">
+        <v>1010</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="186" t="s">
-        <v>1010</v>
-      </c>
-      <c r="B6" s="183" t="s">
+      <c r="A6" s="174" t="s">
         <v>1011</v>
       </c>
+      <c r="B6" s="171" t="s">
+        <v>1012</v>
+      </c>
     </row>
     <row r="7">
-      <c r="B7" s="183" t="s">
-        <v>1012</v>
+      <c r="B7" s="171" t="s">
+        <v>1013</v>
       </c>
     </row>
     <row r="8">
-      <c r="B8" s="183"/>
+      <c r="B8" s="171"/>
     </row>
     <row r="9">
-      <c r="B9" s="183"/>
+      <c r="B9" s="171"/>
     </row>
     <row r="10">
-      <c r="A10" s="186" t="s">
-        <v>1013</v>
+      <c r="A10" s="174" t="s">
+        <v>1014</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="186" t="s">
-        <v>1014</v>
-      </c>
-      <c r="B11" s="187" t="s">
+      <c r="A11" s="174" t="s">
         <v>1015</v>
       </c>
+      <c r="B11" s="175" t="s">
+        <v>1016</v>
+      </c>
     </row>
     <row r="12">
-      <c r="B12" s="188" t="s">
-        <v>1016</v>
+      <c r="B12" s="176" t="s">
+        <v>1017</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="189"/>
-      <c r="B13" s="190" t="s">
-        <v>1017</v>
+      <c r="A13" s="177"/>
+      <c r="B13" s="178" t="s">
+        <v>1018</v>
       </c>
     </row>
     <row r="14">
-      <c r="B14" s="191" t="s">
-        <v>1018</v>
+      <c r="B14" s="179" t="s">
+        <v>1019</v>
       </c>
     </row>
     <row r="15">
-      <c r="B15" s="192" t="s">
-        <v>1019</v>
+      <c r="B15" s="180" t="s">
+        <v>1020</v>
       </c>
     </row>
     <row r="16">
-      <c r="B16" s="193" t="s">
-        <v>1020</v>
+      <c r="B16" s="181" t="s">
+        <v>1021</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="186"/>
+      <c r="A17" s="174"/>
       <c r="B17" s="28"/>
     </row>
     <row r="18">
-      <c r="A18" s="186" t="s">
-        <v>1021</v>
-      </c>
-      <c r="B18" s="194" t="s">
+      <c r="A18" s="174" t="s">
         <v>1022</v>
+      </c>
+      <c r="B18" s="182" t="s">
+        <v>1023</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="7" t="s">
-        <v>1023</v>
-      </c>
-      <c r="B19" s="127"/>
+        <v>1024</v>
+      </c>
+      <c r="B19" s="123"/>
     </row>
     <row r="21">
-      <c r="A21" s="186" t="s">
-        <v>1024</v>
-      </c>
-      <c r="B21" s="195" t="s">
+      <c r="A21" s="174" t="s">
         <v>1025</v>
+      </c>
+      <c r="B21" s="183" t="s">
+        <v>1026</v>
       </c>
     </row>
   </sheetData>
@@ -22302,57 +22269,57 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="37" t="s">
-        <v>1027</v>
+      <c r="A2" s="36" t="s">
+        <v>1028</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="4" t="s">
-        <v>1028</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="37" t="s">
-        <v>1029</v>
+      <c r="A4" s="36" t="s">
+        <v>1030</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="4" t="s">
-        <v>1030</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="4" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="4" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="37" t="s">
-        <v>1033</v>
+      <c r="A8" s="36" t="s">
+        <v>1034</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="196" t="s">
-        <v>1034</v>
+      <c r="A9" s="184" t="s">
+        <v>1035</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="4" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="4" t="s">
-        <v>1036</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="12">
@@ -22381,65 +22348,65 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>1026</v>
-      </c>
-      <c r="B1" s="197" t="s">
-        <v>1037</v>
+        <v>1027</v>
+      </c>
+      <c r="B1" s="185" t="s">
+        <v>1038</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="4" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="4" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="B3" s="7"/>
     </row>
     <row r="4">
       <c r="A4" s="4" t="s">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="B4" s="7"/>
     </row>
     <row r="5">
       <c r="A5" s="4" t="s">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="B5" s="7"/>
     </row>
     <row r="6">
       <c r="A6" s="4" t="s">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="B6" s="7"/>
     </row>
     <row r="7">
       <c r="A7" s="4" t="s">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="B7" s="7"/>
     </row>
     <row r="8">
       <c r="A8" s="4" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="B8" s="7"/>
     </row>
     <row r="9">
       <c r="A9" s="4" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="B9" s="7"/>
     </row>
     <row r="10">
       <c r="A10" s="6" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
     </row>
   </sheetData>
@@ -22458,7 +22425,7 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="187"/>
+      <c r="A1" s="175"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -22482,36 +22449,36 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="198" t="s">
-        <v>1048</v>
-      </c>
-      <c r="C1" s="198" t="s">
+      <c r="A1" s="186" t="s">
         <v>1049</v>
       </c>
+      <c r="C1" s="186" t="s">
+        <v>1050</v>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="186" t="s">
-        <v>1050</v>
-      </c>
-      <c r="B2" s="186" t="s">
+      <c r="A2" s="174" t="s">
         <v>1051</v>
       </c>
-      <c r="C2" s="186" t="s">
+      <c r="B2" s="174" t="s">
         <v>1052</v>
       </c>
-      <c r="D2" s="186" t="s">
+      <c r="C2" s="174" t="s">
         <v>1053</v>
       </c>
+      <c r="D2" s="174" t="s">
+        <v>1054</v>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" s="40" t="s">
-        <v>1054</v>
-      </c>
-      <c r="B3" s="40" t="s">
+      <c r="A3" s="39" t="s">
         <v>1055</v>
       </c>
+      <c r="B3" s="39" t="s">
+        <v>1056</v>
+      </c>
       <c r="C3" s="4" t="s">
-        <v>1056</v>
+        <v>1057</v>
       </c>
       <c r="D3" s="4" t="str">
         <f t="shared" ref="D3:D4" si="1">RIGHT(A3,LEN(A3) - (FIND(" == ",A3) + 3))</f>
@@ -22519,14 +22486,14 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="40" t="s">
+      <c r="A4" s="39" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B4" s="39" t="s">
+        <v>1056</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>1057</v>
-      </c>
-      <c r="B4" s="40" t="s">
-        <v>1055</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>1056</v>
       </c>
       <c r="D4" s="4" t="str">
         <f t="shared" si="1"/>
@@ -22534,186 +22501,186 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="40" t="s">
-        <v>1058</v>
-      </c>
-      <c r="B5" s="40" t="s">
+      <c r="A5" s="39" t="s">
         <v>1059</v>
       </c>
+      <c r="B5" s="39" t="s">
+        <v>1060</v>
+      </c>
       <c r="C5" s="4" t="s">
-        <v>1056</v>
+        <v>1057</v>
       </c>
       <c r="D5" s="7"/>
     </row>
     <row r="6">
       <c r="A6" s="4" t="s">
-        <v>1060</v>
+        <v>1061</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>1061</v>
+        <v>1062</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>1056</v>
+        <v>1057</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="4" t="s">
-        <v>1063</v>
+        <v>1064</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>1064</v>
+        <v>1065</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>1056</v>
-      </c>
-      <c r="D7" s="199" t="s">
-        <v>1065</v>
+        <v>1057</v>
+      </c>
+      <c r="D7" s="187" t="s">
+        <v>1066</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="4" t="s">
-        <v>1066</v>
+        <v>1067</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>1067</v>
+        <v>1068</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>1056</v>
+        <v>1057</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="83" t="s">
-        <v>1069</v>
+      <c r="A9" s="82" t="s">
+        <v>1070</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>1056</v>
+        <v>1057</v>
       </c>
       <c r="D9" s="7" t="s">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="82" t="s">
+        <v>1073</v>
+      </c>
+      <c r="B10" s="7" t="s">
         <v>1071</v>
       </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="83" t="s">
-        <v>1072</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>1070</v>
-      </c>
       <c r="C10" s="7" t="s">
-        <v>1056</v>
+        <v>1057</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="83" t="s">
-        <v>1074</v>
+      <c r="A11" s="82" t="s">
+        <v>1075</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>1056</v>
+        <v>1057</v>
       </c>
       <c r="D11" s="7" t="s">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="82" t="s">
+        <v>1078</v>
+      </c>
+      <c r="B12" s="7" t="s">
         <v>1076</v>
       </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="83" t="s">
-        <v>1077</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>1075</v>
-      </c>
       <c r="C12" s="7" t="s">
-        <v>1056</v>
+        <v>1057</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>1078</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="200" t="s">
-        <v>1079</v>
-      </c>
-      <c r="B13" s="200" t="s">
-        <v>1059</v>
-      </c>
-      <c r="C13" s="201" t="s">
-        <v>1056</v>
-      </c>
-      <c r="D13" s="201" t="s">
+      <c r="A13" s="188" t="s">
         <v>1080</v>
       </c>
-      <c r="E13" s="202"/>
-      <c r="F13" s="202"/>
-      <c r="G13" s="202"/>
-      <c r="H13" s="202"/>
-      <c r="I13" s="202"/>
-      <c r="J13" s="202"/>
-      <c r="K13" s="202"/>
-      <c r="L13" s="202"/>
-      <c r="M13" s="202"/>
-      <c r="N13" s="202"/>
-      <c r="O13" s="202"/>
-      <c r="P13" s="202"/>
-      <c r="Q13" s="202"/>
-      <c r="R13" s="202"/>
-      <c r="S13" s="202"/>
-      <c r="T13" s="202"/>
-      <c r="U13" s="202"/>
-      <c r="V13" s="202"/>
-      <c r="W13" s="202"/>
-      <c r="X13" s="202"/>
-      <c r="Y13" s="202"/>
-      <c r="Z13" s="202"/>
+      <c r="B13" s="188" t="s">
+        <v>1060</v>
+      </c>
+      <c r="C13" s="189" t="s">
+        <v>1057</v>
+      </c>
+      <c r="D13" s="189" t="s">
+        <v>1081</v>
+      </c>
+      <c r="E13" s="190"/>
+      <c r="F13" s="190"/>
+      <c r="G13" s="190"/>
+      <c r="H13" s="190"/>
+      <c r="I13" s="190"/>
+      <c r="J13" s="190"/>
+      <c r="K13" s="190"/>
+      <c r="L13" s="190"/>
+      <c r="M13" s="190"/>
+      <c r="N13" s="190"/>
+      <c r="O13" s="190"/>
+      <c r="P13" s="190"/>
+      <c r="Q13" s="190"/>
+      <c r="R13" s="190"/>
+      <c r="S13" s="190"/>
+      <c r="T13" s="190"/>
+      <c r="U13" s="190"/>
+      <c r="V13" s="190"/>
+      <c r="W13" s="190"/>
+      <c r="X13" s="190"/>
+      <c r="Y13" s="190"/>
+      <c r="Z13" s="190"/>
     </row>
     <row r="14">
-      <c r="A14" s="200" t="s">
-        <v>1081</v>
-      </c>
-      <c r="B14" s="200" t="s">
-        <v>1059</v>
-      </c>
-      <c r="C14" s="201" t="s">
-        <v>1056</v>
-      </c>
-      <c r="D14" s="201" t="s">
+      <c r="A14" s="188" t="s">
         <v>1082</v>
       </c>
-      <c r="E14" s="202"/>
-      <c r="F14" s="202"/>
-      <c r="G14" s="202"/>
-      <c r="H14" s="202"/>
-      <c r="I14" s="202"/>
-      <c r="J14" s="202"/>
-      <c r="K14" s="202"/>
-      <c r="L14" s="202"/>
-      <c r="M14" s="202"/>
-      <c r="N14" s="202"/>
-      <c r="O14" s="202"/>
-      <c r="P14" s="202"/>
-      <c r="Q14" s="202"/>
-      <c r="R14" s="202"/>
-      <c r="S14" s="202"/>
-      <c r="T14" s="202"/>
-      <c r="U14" s="202"/>
-      <c r="V14" s="202"/>
-      <c r="W14" s="202"/>
-      <c r="X14" s="202"/>
-      <c r="Y14" s="202"/>
-      <c r="Z14" s="202"/>
+      <c r="B14" s="188" t="s">
+        <v>1060</v>
+      </c>
+      <c r="C14" s="189" t="s">
+        <v>1057</v>
+      </c>
+      <c r="D14" s="189" t="s">
+        <v>1083</v>
+      </c>
+      <c r="E14" s="190"/>
+      <c r="F14" s="190"/>
+      <c r="G14" s="190"/>
+      <c r="H14" s="190"/>
+      <c r="I14" s="190"/>
+      <c r="J14" s="190"/>
+      <c r="K14" s="190"/>
+      <c r="L14" s="190"/>
+      <c r="M14" s="190"/>
+      <c r="N14" s="190"/>
+      <c r="O14" s="190"/>
+      <c r="P14" s="190"/>
+      <c r="Q14" s="190"/>
+      <c r="R14" s="190"/>
+      <c r="S14" s="190"/>
+      <c r="T14" s="190"/>
+      <c r="U14" s="190"/>
+      <c r="V14" s="190"/>
+      <c r="W14" s="190"/>
+      <c r="X14" s="190"/>
+      <c r="Y14" s="190"/>
+      <c r="Z14" s="190"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -22741,52 +22708,52 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="198" t="s">
-        <v>1048</v>
+      <c r="A1" s="186" t="s">
+        <v>1049</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="186" t="s">
-        <v>1050</v>
-      </c>
-      <c r="B2" s="186" t="s">
+      <c r="A2" s="174" t="s">
         <v>1051</v>
       </c>
-      <c r="C2" s="186" t="s">
+      <c r="B2" s="174" t="s">
         <v>1052</v>
       </c>
-      <c r="D2" s="186" t="s">
+      <c r="C2" s="174" t="s">
         <v>1053</v>
       </c>
+      <c r="D2" s="174" t="s">
+        <v>1054</v>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" s="183" t="s">
-        <v>1083</v>
-      </c>
-      <c r="B3" s="183" t="s">
+      <c r="A3" s="171" t="s">
         <v>1084</v>
       </c>
+      <c r="B3" s="171" t="s">
+        <v>1085</v>
+      </c>
     </row>
     <row r="4">
-      <c r="A4" s="183" t="s">
-        <v>1085</v>
-      </c>
-      <c r="B4" s="183" t="s">
+      <c r="A4" s="171" t="s">
         <v>1086</v>
       </c>
+      <c r="B4" s="171" t="s">
+        <v>1087</v>
+      </c>
     </row>
     <row r="5">
-      <c r="A5" s="183" t="s">
+      <c r="A5" s="171" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B5" s="171" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C5" s="191" t="s">
         <v>1087</v>
       </c>
-      <c r="B5" s="183" t="s">
-        <v>1088</v>
-      </c>
-      <c r="C5" s="203" t="s">
-        <v>1086</v>
-      </c>
-      <c r="D5" s="183" t="s">
-        <v>1089</v>
+      <c r="D5" s="171" t="s">
+        <v>1090</v>
       </c>
     </row>
   </sheetData>

--- a/mappings/package_F23/transformation/conceptual_mappings.xlsx
+++ b/mappings/package_F23/transformation/conceptual_mappings.xlsx
@@ -363,7 +363,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1550" uniqueCount="1091">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1551" uniqueCount="1092">
   <si>
     <t>Field</t>
   </si>
@@ -398,7 +398,7 @@
     <t>Mapping Version</t>
   </si>
   <si>
-    <t>5.1.1</t>
+    <t>5.5.0</t>
   </si>
   <si>
     <r>
@@ -4461,7 +4461,10 @@
     <t>epo:LotAwardOutcome / epo:TenderAwardOutcome / epo:Winner</t>
   </si>
   <si>
-    <t>?this epo:comprisesTenderAwardOutcome / epo:awardsLotToWinner ?value</t>
+    <t>?this epo:comprisesTenderAwardOutcome / epo:indicatesAwardOfLotToWinner ?value</t>
+  </si>
+  <si>
+    <t>Winner is created only if there is a contractor identified through the `AWARD_CONTRACT/AWARDED_CONTRACT/CONTRACTORS/CONTRACTOR` XPath</t>
   </si>
   <si>
     <t>V.2.1</t>
@@ -7428,7 +7431,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="192">
+  <cellXfs count="193">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -7815,6 +7818,9 @@
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="4" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf quotePrefix="1" borderId="0" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -15619,17 +15625,17 @@
       <c r="C146" s="131" t="s">
         <v>654</v>
       </c>
-      <c r="D146" s="131" t="s">
+      <c r="D146" s="132" t="s">
         <v>655</v>
       </c>
       <c r="E146" s="59" t="s">
         <v>656</v>
       </c>
-      <c r="F146" s="40"/>
-      <c r="G146" s="40" t="s">
+      <c r="F146" s="4"/>
+      <c r="G146" s="4" t="s">
         <v>659</v>
       </c>
-      <c r="H146" s="40" t="s">
+      <c r="H146" s="39" t="s">
         <v>660</v>
       </c>
       <c r="I146" s="7"/>
@@ -15670,7 +15676,7 @@
       <c r="B148" s="38" t="s">
         <v>665</v>
       </c>
-      <c r="C148" s="132" t="s">
+      <c r="C148" s="133" t="s">
         <v>666</v>
       </c>
       <c r="D148" s="85"/>
@@ -15689,7 +15695,7 @@
       <c r="B149" s="47" t="s">
         <v>668</v>
       </c>
-      <c r="C149" s="133" t="s">
+      <c r="C149" s="134" t="s">
         <v>666</v>
       </c>
       <c r="D149" s="7"/>
@@ -15762,7 +15768,7 @@
       <c r="B152" s="55" t="s">
         <v>681</v>
       </c>
-      <c r="C152" s="134" t="s">
+      <c r="C152" s="135" t="s">
         <v>578</v>
       </c>
       <c r="D152" s="85"/>
@@ -15787,7 +15793,7 @@
       <c r="B153" s="38" t="s">
         <v>686</v>
       </c>
-      <c r="C153" s="133" t="s">
+      <c r="C153" s="134" t="s">
         <v>666</v>
       </c>
       <c r="D153" s="7"/>
@@ -15839,30 +15845,32 @@
       </c>
       <c r="I155" s="7"/>
       <c r="J155" s="7"/>
-      <c r="K155" s="7"/>
+      <c r="K155" s="7" t="s">
+        <v>692</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" s="48" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="B156" s="47" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="C156" s="7" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="D156" s="7" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="E156" s="89" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="F156" s="7"/>
       <c r="G156" s="39" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="H156" s="39" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="I156" s="7"/>
       <c r="J156" s="7"/>
@@ -15870,22 +15878,22 @@
     </row>
     <row r="157">
       <c r="A157" s="48" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="B157" s="47" t="s">
-        <v>700</v>
-      </c>
-      <c r="C157" s="135"/>
-      <c r="D157" s="135"/>
+        <v>701</v>
+      </c>
+      <c r="C157" s="136"/>
+      <c r="D157" s="136"/>
       <c r="E157" s="59" t="s">
         <v>656</v>
       </c>
-      <c r="F157" s="136"/>
+      <c r="F157" s="137"/>
       <c r="G157" s="49" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="H157" s="36" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="I157" s="7"/>
       <c r="J157" s="7"/>
@@ -15893,26 +15901,26 @@
     </row>
     <row r="158">
       <c r="A158" s="99" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="B158" s="55" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="C158" s="85" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="D158" s="85" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="E158" s="49" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="F158" s="49"/>
       <c r="G158" s="36" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="H158" s="36" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="I158" s="7"/>
       <c r="J158" s="7"/>
@@ -15920,22 +15928,22 @@
     </row>
     <row r="159">
       <c r="A159" s="99" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="B159" s="55" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="C159" s="85"/>
       <c r="D159" s="85"/>
       <c r="E159" s="49" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="F159" s="49"/>
       <c r="G159" s="4" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="H159" s="39" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="I159" s="7"/>
       <c r="J159" s="7"/>
@@ -15943,22 +15951,22 @@
     </row>
     <row r="160">
       <c r="A160" s="99" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="B160" s="55" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="C160" s="85"/>
       <c r="D160" s="85"/>
       <c r="E160" s="49" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="F160" s="49"/>
       <c r="G160" s="4" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="H160" s="39" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="I160" s="7"/>
       <c r="J160" s="7"/>
@@ -15966,22 +15974,22 @@
     </row>
     <row r="161">
       <c r="A161" s="99" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="B161" s="83" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="C161" s="85"/>
       <c r="D161" s="85"/>
       <c r="E161" s="85" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="F161" s="85"/>
       <c r="G161" s="7" t="s">
-        <v>713</v>
-      </c>
-      <c r="H161" s="137" t="s">
-        <v>722</v>
+        <v>714</v>
+      </c>
+      <c r="H161" s="138" t="s">
+        <v>723</v>
       </c>
       <c r="I161" s="7"/>
       <c r="J161" s="7"/>
@@ -15989,22 +15997,22 @@
     </row>
     <row r="162">
       <c r="A162" s="99" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="B162" s="83" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="C162" s="85"/>
       <c r="D162" s="85"/>
       <c r="E162" s="85" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="F162" s="85"/>
       <c r="G162" s="7" t="s">
-        <v>713</v>
-      </c>
-      <c r="H162" s="138" t="s">
-        <v>726</v>
+        <v>714</v>
+      </c>
+      <c r="H162" s="139" t="s">
+        <v>727</v>
       </c>
       <c r="I162" s="7"/>
       <c r="J162" s="7"/>
@@ -16012,24 +16020,24 @@
     </row>
     <row r="163">
       <c r="A163" s="99" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="B163" s="83" t="s">
-        <v>728</v>
-      </c>
-      <c r="C163" s="139" t="s">
         <v>729</v>
+      </c>
+      <c r="C163" s="140" t="s">
+        <v>730</v>
       </c>
       <c r="D163" s="85"/>
       <c r="E163" s="85" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="F163" s="82"/>
       <c r="G163" s="14" t="s">
-        <v>731</v>
-      </c>
-      <c r="H163" s="140" t="s">
         <v>732</v>
+      </c>
+      <c r="H163" s="141" t="s">
+        <v>733</v>
       </c>
       <c r="I163" s="7"/>
       <c r="J163" s="7"/>
@@ -16037,12 +16045,12 @@
     </row>
     <row r="164">
       <c r="A164" s="48" t="s">
-        <v>733</v>
-      </c>
-      <c r="B164" s="141" t="s">
         <v>734</v>
       </c>
-      <c r="C164" s="132" t="s">
+      <c r="B164" s="142" t="s">
+        <v>735</v>
+      </c>
+      <c r="C164" s="133" t="s">
         <v>666</v>
       </c>
       <c r="D164" s="85"/>
@@ -16056,7 +16064,7 @@
     </row>
     <row r="165">
       <c r="A165" s="99" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="B165" s="83" t="s">
         <v>55</v>
@@ -16068,14 +16076,14 @@
         <v>57</v>
       </c>
       <c r="E165" s="85" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="F165" s="85"/>
-      <c r="G165" s="142" t="s">
+      <c r="G165" s="143" t="s">
         <v>59</v>
       </c>
-      <c r="H165" s="142" t="s">
-        <v>737</v>
+      <c r="H165" s="143" t="s">
+        <v>738</v>
       </c>
       <c r="I165" s="7"/>
       <c r="J165" s="7"/>
@@ -16083,7 +16091,7 @@
     </row>
     <row r="166">
       <c r="A166" s="99" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="B166" s="83" t="s">
         <v>62</v>
@@ -16095,14 +16103,14 @@
         <v>64</v>
       </c>
       <c r="E166" s="85" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="F166" s="85"/>
       <c r="G166" s="96" t="s">
         <v>66</v>
       </c>
       <c r="H166" s="96" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="I166" s="7"/>
       <c r="J166" s="7"/>
@@ -16110,7 +16118,7 @@
     </row>
     <row r="167">
       <c r="A167" s="99" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="B167" s="83" t="s">
         <v>69</v>
@@ -16122,14 +16130,14 @@
         <v>71</v>
       </c>
       <c r="E167" s="85" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="F167" s="85"/>
       <c r="G167" s="7" t="s">
         <v>73</v>
       </c>
       <c r="H167" s="82" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="I167" s="7"/>
       <c r="J167" s="7"/>
@@ -16137,7 +16145,7 @@
     </row>
     <row r="168">
       <c r="A168" s="99" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="B168" s="83" t="s">
         <v>76</v>
@@ -16149,14 +16157,14 @@
         <v>78</v>
       </c>
       <c r="E168" s="85" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="F168" s="85"/>
       <c r="G168" s="7" t="s">
         <v>73</v>
       </c>
       <c r="H168" s="82" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="I168" s="7"/>
       <c r="J168" s="7"/>
@@ -16164,7 +16172,7 @@
     </row>
     <row r="169">
       <c r="A169" s="99" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="B169" s="83" t="s">
         <v>82</v>
@@ -16176,16 +16184,16 @@
         <v>84</v>
       </c>
       <c r="E169" s="82" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="F169" s="82" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="G169" s="14" t="s">
         <v>87</v>
       </c>
       <c r="H169" s="85" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="I169" s="7"/>
       <c r="J169" s="7"/>
@@ -16193,7 +16201,7 @@
     </row>
     <row r="170">
       <c r="A170" s="99" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="B170" s="83" t="s">
         <v>90</v>
@@ -16202,17 +16210,17 @@
         <v>91</v>
       </c>
       <c r="D170" s="85" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="E170" s="118" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="F170" s="118"/>
       <c r="G170" s="7" t="s">
         <v>94</v>
       </c>
       <c r="H170" s="82" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="I170" s="7"/>
       <c r="J170" s="7"/>
@@ -16220,7 +16228,7 @@
     </row>
     <row r="171">
       <c r="A171" s="99" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="B171" s="83" t="s">
         <v>97</v>
@@ -16232,14 +16240,14 @@
         <v>99</v>
       </c>
       <c r="E171" s="118" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="F171" s="85"/>
-      <c r="G171" s="142" t="s">
+      <c r="G171" s="143" t="s">
         <v>101</v>
       </c>
-      <c r="H171" s="142" t="s">
-        <v>757</v>
+      <c r="H171" s="143" t="s">
+        <v>758</v>
       </c>
       <c r="I171" s="7"/>
       <c r="J171" s="7"/>
@@ -16247,7 +16255,7 @@
     </row>
     <row r="172">
       <c r="A172" s="99" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="B172" s="83" t="s">
         <v>117</v>
@@ -16259,14 +16267,14 @@
         <v>119</v>
       </c>
       <c r="E172" s="85" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="F172" s="85"/>
       <c r="G172" s="85" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="H172" s="85" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="I172" s="7"/>
       <c r="J172" s="7"/>
@@ -16274,7 +16282,7 @@
     </row>
     <row r="173">
       <c r="A173" s="99" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="B173" s="83" t="s">
         <v>111</v>
@@ -16286,14 +16294,14 @@
         <v>113</v>
       </c>
       <c r="E173" s="85" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="F173" s="85"/>
       <c r="G173" s="85" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="H173" s="85" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="I173" s="7"/>
       <c r="J173" s="7"/>
@@ -16301,10 +16309,10 @@
     </row>
     <row r="174">
       <c r="A174" s="99" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="B174" s="83" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="C174" s="85" t="s">
         <v>133</v>
@@ -16313,14 +16321,14 @@
         <v>134</v>
       </c>
       <c r="E174" s="85" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="F174" s="85"/>
       <c r="G174" s="96" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="H174" s="96" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="I174" s="7"/>
       <c r="J174" s="7"/>
@@ -16328,7 +16336,7 @@
     </row>
     <row r="175">
       <c r="A175" s="99" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="B175" s="83" t="s">
         <v>124</v>
@@ -16340,14 +16348,14 @@
         <v>126</v>
       </c>
       <c r="E175" s="85" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="F175" s="85"/>
       <c r="G175" s="85" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="H175" s="85" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="I175" s="7"/>
       <c r="J175" s="7"/>
@@ -16355,26 +16363,26 @@
     </row>
     <row r="176">
       <c r="A176" s="99" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="B176" s="83" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="C176" s="14" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="D176" s="85" t="s">
-        <v>776</v>
-      </c>
-      <c r="E176" s="143" t="s">
         <v>777</v>
+      </c>
+      <c r="E176" s="144" t="s">
+        <v>778</v>
       </c>
       <c r="F176" s="74"/>
       <c r="G176" s="7" t="s">
-        <v>778</v>
-      </c>
-      <c r="H176" s="144" t="s">
         <v>779</v>
+      </c>
+      <c r="H176" s="145" t="s">
+        <v>780</v>
       </c>
       <c r="I176" s="7"/>
       <c r="J176" s="7"/>
@@ -16385,15 +16393,15 @@
       <c r="B177" s="7"/>
       <c r="C177" s="85"/>
       <c r="D177" s="85"/>
-      <c r="E177" s="143" t="s">
-        <v>777</v>
+      <c r="E177" s="144" t="s">
+        <v>778</v>
       </c>
       <c r="F177" s="74"/>
-      <c r="G177" s="142" t="s">
-        <v>780</v>
-      </c>
-      <c r="H177" s="142" t="s">
+      <c r="G177" s="143" t="s">
         <v>781</v>
+      </c>
+      <c r="H177" s="143" t="s">
+        <v>782</v>
       </c>
       <c r="I177" s="7"/>
       <c r="J177" s="7"/>
@@ -16401,12 +16409,12 @@
     </row>
     <row r="178">
       <c r="A178" s="48" t="s">
-        <v>782</v>
-      </c>
-      <c r="B178" s="141" t="s">
         <v>783</v>
       </c>
-      <c r="C178" s="133" t="s">
+      <c r="B178" s="142" t="s">
+        <v>784</v>
+      </c>
+      <c r="C178" s="134" t="s">
         <v>666</v>
       </c>
       <c r="D178" s="7"/>
@@ -16420,10 +16428,10 @@
     </row>
     <row r="179">
       <c r="A179" s="99" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="B179" s="83" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="C179" s="85" t="s">
         <v>477</v>
@@ -16432,14 +16440,14 @@
         <v>364</v>
       </c>
       <c r="E179" s="118" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="F179" s="118"/>
       <c r="G179" s="14" t="s">
         <v>479</v>
       </c>
       <c r="H179" s="85" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="I179" s="7"/>
       <c r="J179" s="7"/>
@@ -16447,24 +16455,24 @@
     </row>
     <row r="180">
       <c r="A180" s="110" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="B180" s="71" t="s">
         <v>369</v>
       </c>
-      <c r="C180" s="145" t="s">
+      <c r="C180" s="146" t="s">
         <v>176</v>
       </c>
       <c r="D180" s="85"/>
       <c r="E180" s="118" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="F180" s="118"/>
       <c r="G180" s="14" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="H180" s="85" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="I180" s="7"/>
       <c r="J180" s="7"/>
@@ -16472,26 +16480,26 @@
     </row>
     <row r="181">
       <c r="A181" s="99" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="B181" s="83" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="C181" s="85" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="D181" s="85" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="E181" s="118" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="F181" s="118"/>
       <c r="G181" s="7" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="H181" s="82" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="I181" s="7"/>
       <c r="J181" s="7"/>
@@ -16499,24 +16507,24 @@
     </row>
     <row r="182">
       <c r="A182" s="110" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="B182" s="71" t="s">
         <v>369</v>
       </c>
-      <c r="C182" s="145" t="s">
+      <c r="C182" s="146" t="s">
         <v>176</v>
       </c>
       <c r="D182" s="85"/>
       <c r="E182" s="85" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="F182" s="85"/>
       <c r="G182" s="7" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="H182" s="82" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="I182" s="7"/>
       <c r="J182" s="7"/>
@@ -16524,26 +16532,26 @@
     </row>
     <row r="183">
       <c r="A183" s="99" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="B183" s="83" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="C183" s="108" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="D183" s="108" t="s">
-        <v>806</v>
-      </c>
-      <c r="E183" s="146" t="s">
         <v>807</v>
       </c>
-      <c r="F183" s="146"/>
+      <c r="E183" s="147" t="s">
+        <v>808</v>
+      </c>
+      <c r="F183" s="147"/>
       <c r="G183" s="90" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="H183" s="90" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="I183" s="7"/>
       <c r="J183" s="7"/>
@@ -16551,24 +16559,24 @@
     </row>
     <row r="184">
       <c r="A184" s="110" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="B184" s="71" t="s">
         <v>369</v>
       </c>
-      <c r="C184" s="147" t="s">
+      <c r="C184" s="148" t="s">
         <v>176</v>
       </c>
       <c r="D184" s="108"/>
-      <c r="E184" s="146" t="s">
-        <v>811</v>
+      <c r="E184" s="147" t="s">
+        <v>812</v>
       </c>
       <c r="F184" s="108"/>
       <c r="G184" s="90" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="H184" s="90" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="I184" s="7"/>
       <c r="J184" s="7"/>
@@ -16576,26 +16584,26 @@
     </row>
     <row r="185">
       <c r="A185" s="99" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="B185" s="83" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="C185" s="108" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="D185" s="108" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="E185" s="90" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="F185" s="90"/>
       <c r="G185" s="90" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="H185" s="90" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="I185" s="7"/>
       <c r="J185" s="7"/>
@@ -16603,24 +16611,24 @@
     </row>
     <row r="186">
       <c r="A186" s="110" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="B186" s="71" t="s">
         <v>369</v>
       </c>
-      <c r="C186" s="147" t="s">
+      <c r="C186" s="148" t="s">
         <v>176</v>
       </c>
       <c r="D186" s="108"/>
       <c r="E186" s="108" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="F186" s="108"/>
       <c r="G186" s="90" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="H186" s="90" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="I186" s="7"/>
       <c r="J186" s="7"/>
@@ -16628,26 +16636,26 @@
     </row>
     <row r="187">
       <c r="A187" s="99" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="B187" s="83" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="C187" s="108" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="D187" s="108" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="E187" s="108" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="F187" s="108"/>
       <c r="G187" s="108" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="H187" s="108" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="I187" s="7"/>
       <c r="J187" s="7"/>
@@ -16655,10 +16663,10 @@
     </row>
     <row r="188">
       <c r="A188" s="125" t="s">
-        <v>830</v>
-      </c>
-      <c r="B188" s="148" t="s">
         <v>831</v>
+      </c>
+      <c r="B188" s="149" t="s">
+        <v>832</v>
       </c>
       <c r="C188" s="7"/>
       <c r="D188" s="7"/>
@@ -16672,14 +16680,14 @@
     </row>
     <row r="189">
       <c r="A189" s="37" t="s">
-        <v>832</v>
-      </c>
-      <c r="B189" s="149" t="s">
         <v>833</v>
+      </c>
+      <c r="B189" s="150" t="s">
+        <v>834</v>
       </c>
       <c r="C189" s="122"/>
       <c r="D189" s="84"/>
-      <c r="E189" s="150"/>
+      <c r="E189" s="151"/>
       <c r="F189" s="119"/>
       <c r="G189" s="85"/>
       <c r="H189" s="85"/>
@@ -16689,24 +16697,24 @@
     </row>
     <row r="190">
       <c r="A190" s="46" t="s">
-        <v>834</v>
-      </c>
-      <c r="B190" s="141" t="s">
         <v>835</v>
       </c>
+      <c r="B190" s="142" t="s">
+        <v>836</v>
+      </c>
       <c r="C190" s="122" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="D190" s="84"/>
-      <c r="E190" s="150" t="s">
-        <v>837</v>
+      <c r="E190" s="151" t="s">
+        <v>838</v>
       </c>
       <c r="F190" s="119"/>
       <c r="G190" s="7" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="H190" s="32" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="I190" s="7"/>
       <c r="J190" s="7"/>
@@ -16714,24 +16722,24 @@
     </row>
     <row r="191">
       <c r="A191" s="46" t="s">
-        <v>840</v>
-      </c>
-      <c r="B191" s="141" t="s">
         <v>841</v>
       </c>
+      <c r="B191" s="142" t="s">
+        <v>842</v>
+      </c>
       <c r="C191" s="122" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="D191" s="84"/>
-      <c r="E191" s="150" t="s">
-        <v>843</v>
+      <c r="E191" s="151" t="s">
+        <v>844</v>
       </c>
       <c r="F191" s="119"/>
       <c r="G191" s="7" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="H191" s="32" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="I191" s="7"/>
       <c r="J191" s="7"/>
@@ -16739,24 +16747,24 @@
     </row>
     <row r="192">
       <c r="A192" s="46" t="s">
-        <v>845</v>
-      </c>
-      <c r="B192" s="141" t="s">
         <v>846</v>
       </c>
+      <c r="B192" s="142" t="s">
+        <v>847</v>
+      </c>
       <c r="C192" s="122" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="D192" s="84"/>
-      <c r="E192" s="150" t="s">
-        <v>848</v>
+      <c r="E192" s="151" t="s">
+        <v>849</v>
       </c>
       <c r="F192" s="119"/>
       <c r="G192" s="7" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="H192" s="32" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="I192" s="7"/>
       <c r="J192" s="7"/>
@@ -16764,9 +16772,9 @@
     </row>
     <row r="193">
       <c r="A193" s="126" t="s">
-        <v>850</v>
-      </c>
-      <c r="B193" s="149" t="s">
+        <v>851</v>
+      </c>
+      <c r="B193" s="150" t="s">
         <v>534</v>
       </c>
       <c r="C193" s="85" t="s">
@@ -16776,14 +16784,14 @@
         <v>536</v>
       </c>
       <c r="E193" s="118" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="F193" s="118"/>
-      <c r="G193" s="151" t="s">
+      <c r="G193" s="152" t="s">
         <v>324</v>
       </c>
-      <c r="H193" s="152" t="s">
-        <v>852</v>
+      <c r="H193" s="153" t="s">
+        <v>853</v>
       </c>
       <c r="I193" s="7"/>
       <c r="J193" s="7"/>
@@ -16791,12 +16799,12 @@
     </row>
     <row r="194">
       <c r="A194" s="126" t="s">
-        <v>853</v>
-      </c>
-      <c r="B194" s="149" t="s">
         <v>854</v>
       </c>
-      <c r="C194" s="132" t="s">
+      <c r="B194" s="150" t="s">
+        <v>855</v>
+      </c>
+      <c r="C194" s="133" t="s">
         <v>666</v>
       </c>
       <c r="D194" s="7"/>
@@ -16810,17 +16818,17 @@
     </row>
     <row r="195">
       <c r="A195" s="48" t="s">
-        <v>855</v>
-      </c>
-      <c r="B195" s="141" t="s">
         <v>856</v>
       </c>
-      <c r="C195" s="153" t="s">
+      <c r="B195" s="142" t="s">
+        <v>857</v>
+      </c>
+      <c r="C195" s="154" t="s">
         <v>666</v>
       </c>
       <c r="D195" s="7"/>
       <c r="E195" s="82" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="F195" s="85"/>
       <c r="G195" s="14" t="s">
@@ -16835,7 +16843,7 @@
     </row>
     <row r="196">
       <c r="A196" s="99" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="B196" s="83" t="s">
         <v>55</v>
@@ -16847,14 +16855,14 @@
         <v>57</v>
       </c>
       <c r="E196" s="85" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="F196" s="85"/>
       <c r="G196" s="82" t="s">
         <v>59</v>
       </c>
       <c r="H196" s="82" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="I196" s="7"/>
       <c r="J196" s="7"/>
@@ -16862,7 +16870,7 @@
     </row>
     <row r="197">
       <c r="A197" s="99" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="B197" s="83" t="s">
         <v>69</v>
@@ -16874,14 +16882,14 @@
         <v>71</v>
       </c>
       <c r="E197" s="85" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="F197" s="85"/>
       <c r="G197" s="82" t="s">
         <v>73</v>
       </c>
       <c r="H197" s="82" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="I197" s="7"/>
       <c r="J197" s="7"/>
@@ -16889,7 +16897,7 @@
     </row>
     <row r="198">
       <c r="A198" s="99" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="B198" s="83" t="s">
         <v>76</v>
@@ -16901,14 +16909,14 @@
         <v>78</v>
       </c>
       <c r="E198" s="85" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="F198" s="85"/>
       <c r="G198" s="82" t="s">
         <v>73</v>
       </c>
       <c r="H198" s="82" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="I198" s="7"/>
       <c r="J198" s="7"/>
@@ -16916,7 +16924,7 @@
     </row>
     <row r="199">
       <c r="A199" s="99" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="B199" s="83" t="s">
         <v>90</v>
@@ -16925,17 +16933,17 @@
         <v>91</v>
       </c>
       <c r="D199" s="85" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="E199" s="85" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="F199" s="85"/>
       <c r="G199" s="82" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="H199" s="82" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="I199" s="7"/>
       <c r="J199" s="7"/>
@@ -16943,7 +16951,7 @@
     </row>
     <row r="200">
       <c r="A200" s="99" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="B200" s="83" t="s">
         <v>97</v>
@@ -16955,14 +16963,14 @@
         <v>99</v>
       </c>
       <c r="E200" s="85" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="F200" s="85"/>
       <c r="G200" s="85" t="s">
         <v>101</v>
       </c>
       <c r="H200" s="85" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="I200" s="7"/>
       <c r="J200" s="7"/>
@@ -16970,7 +16978,7 @@
     </row>
     <row r="201">
       <c r="A201" s="99" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="B201" s="83" t="s">
         <v>117</v>
@@ -16982,14 +16990,14 @@
         <v>119</v>
       </c>
       <c r="E201" s="85" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="F201" s="85"/>
       <c r="G201" s="85" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="H201" s="85" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="I201" s="7"/>
       <c r="J201" s="7"/>
@@ -16997,7 +17005,7 @@
     </row>
     <row r="202">
       <c r="A202" s="99" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="B202" s="83" t="s">
         <v>111</v>
@@ -17009,14 +17017,14 @@
         <v>113</v>
       </c>
       <c r="E202" s="85" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="F202" s="85"/>
       <c r="G202" s="85" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="H202" s="85" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="I202" s="7"/>
       <c r="J202" s="7"/>
@@ -17024,10 +17032,10 @@
     </row>
     <row r="203">
       <c r="A203" s="99" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="B203" s="83" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="C203" s="85" t="s">
         <v>133</v>
@@ -17036,14 +17044,14 @@
         <v>134</v>
       </c>
       <c r="E203" s="85" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="F203" s="85"/>
       <c r="G203" s="96" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="H203" s="96" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="I203" s="7"/>
       <c r="J203" s="7"/>
@@ -17051,7 +17059,7 @@
     </row>
     <row r="204">
       <c r="A204" s="99" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="B204" s="83" t="s">
         <v>124</v>
@@ -17063,14 +17071,14 @@
         <v>126</v>
       </c>
       <c r="E204" s="85" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="F204" s="85"/>
       <c r="G204" s="85" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="H204" s="85" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="I204" s="7"/>
       <c r="J204" s="7"/>
@@ -17078,21 +17086,21 @@
     </row>
     <row r="205">
       <c r="A205" s="48" t="s">
-        <v>883</v>
-      </c>
-      <c r="B205" s="141" t="s">
         <v>884</v>
       </c>
-      <c r="C205" s="153" t="s">
+      <c r="B205" s="142" t="s">
+        <v>885</v>
+      </c>
+      <c r="C205" s="154" t="s">
         <v>666</v>
       </c>
-      <c r="D205" s="154"/>
+      <c r="D205" s="155"/>
       <c r="E205" s="82" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="F205" s="85"/>
       <c r="G205" s="14" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="H205" s="14" t="s">
         <v>178</v>
@@ -17103,7 +17111,7 @@
     </row>
     <row r="206">
       <c r="A206" s="99" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="B206" s="83" t="s">
         <v>55</v>
@@ -17115,14 +17123,14 @@
         <v>57</v>
       </c>
       <c r="E206" s="85" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="F206" s="85"/>
       <c r="G206" s="82" t="s">
         <v>59</v>
       </c>
       <c r="H206" s="82" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="I206" s="7"/>
       <c r="J206" s="7"/>
@@ -17130,7 +17138,7 @@
     </row>
     <row r="207">
       <c r="A207" s="99" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="B207" s="83" t="s">
         <v>69</v>
@@ -17142,14 +17150,14 @@
         <v>71</v>
       </c>
       <c r="E207" s="85" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="F207" s="85"/>
       <c r="G207" s="82" t="s">
         <v>73</v>
       </c>
       <c r="H207" s="82" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="I207" s="7"/>
       <c r="J207" s="7"/>
@@ -17157,7 +17165,7 @@
     </row>
     <row r="208">
       <c r="A208" s="99" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="B208" s="83" t="s">
         <v>76</v>
@@ -17169,14 +17177,14 @@
         <v>78</v>
       </c>
       <c r="E208" s="85" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="F208" s="85"/>
       <c r="G208" s="82" t="s">
         <v>73</v>
       </c>
       <c r="H208" s="82" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="I208" s="7"/>
       <c r="J208" s="7"/>
@@ -17184,7 +17192,7 @@
     </row>
     <row r="209">
       <c r="A209" s="99" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="B209" s="83" t="s">
         <v>90</v>
@@ -17193,17 +17201,17 @@
         <v>91</v>
       </c>
       <c r="D209" s="85" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="E209" s="85" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="F209" s="85"/>
       <c r="G209" s="82" t="s">
         <v>94</v>
       </c>
       <c r="H209" s="82" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="I209" s="7"/>
       <c r="J209" s="7"/>
@@ -17211,7 +17219,7 @@
     </row>
     <row r="210">
       <c r="A210" s="99" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="B210" s="83" t="s">
         <v>97</v>
@@ -17223,14 +17231,14 @@
         <v>99</v>
       </c>
       <c r="E210" s="85" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="F210" s="85"/>
       <c r="G210" s="82" t="s">
         <v>101</v>
       </c>
       <c r="H210" s="82" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="I210" s="7"/>
       <c r="J210" s="7"/>
@@ -17238,7 +17246,7 @@
     </row>
     <row r="211">
       <c r="A211" s="99" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="B211" s="83" t="s">
         <v>117</v>
@@ -17250,14 +17258,14 @@
         <v>119</v>
       </c>
       <c r="E211" s="85" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="F211" s="85"/>
       <c r="G211" s="85" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="H211" s="85" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="I211" s="7"/>
       <c r="J211" s="7"/>
@@ -17265,7 +17273,7 @@
     </row>
     <row r="212">
       <c r="A212" s="99" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="B212" s="83" t="s">
         <v>111</v>
@@ -17277,14 +17285,14 @@
         <v>113</v>
       </c>
       <c r="E212" s="85" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="F212" s="85"/>
       <c r="G212" s="85" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="H212" s="85" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="I212" s="7"/>
       <c r="J212" s="7"/>
@@ -17292,10 +17300,10 @@
     </row>
     <row r="213">
       <c r="A213" s="99" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="B213" s="83" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="C213" s="85" t="s">
         <v>133</v>
@@ -17304,14 +17312,14 @@
         <v>134</v>
       </c>
       <c r="E213" s="85" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="F213" s="85"/>
       <c r="G213" s="96" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="H213" s="96" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="I213" s="7"/>
       <c r="J213" s="7"/>
@@ -17319,7 +17327,7 @@
     </row>
     <row r="214">
       <c r="A214" s="99" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="B214" s="83" t="s">
         <v>124</v>
@@ -17331,14 +17339,14 @@
         <v>126</v>
       </c>
       <c r="E214" s="85" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="F214" s="85"/>
       <c r="G214" s="85" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="H214" s="85" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="I214" s="7"/>
       <c r="J214" s="7"/>
@@ -17346,26 +17354,26 @@
     </row>
     <row r="215">
       <c r="A215" s="48" t="s">
-        <v>911</v>
-      </c>
-      <c r="B215" s="141" t="s">
         <v>912</v>
       </c>
+      <c r="B215" s="142" t="s">
+        <v>913</v>
+      </c>
       <c r="C215" s="85" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="D215" s="85" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="E215" s="85" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="F215" s="85"/>
-      <c r="G215" s="151" t="s">
-        <v>916</v>
-      </c>
-      <c r="H215" s="152" t="s">
+      <c r="G215" s="152" t="s">
         <v>917</v>
+      </c>
+      <c r="H215" s="153" t="s">
+        <v>918</v>
       </c>
       <c r="I215" s="7"/>
       <c r="J215" s="7"/>
@@ -17373,15 +17381,15 @@
     </row>
     <row r="216">
       <c r="A216" s="48" t="s">
-        <v>918</v>
-      </c>
-      <c r="B216" s="141" t="s">
         <v>919</v>
+      </c>
+      <c r="B216" s="142" t="s">
+        <v>920</v>
       </c>
       <c r="C216" s="7"/>
       <c r="D216" s="7"/>
       <c r="E216" s="82" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="F216" s="85"/>
       <c r="G216" s="14" t="s">
@@ -17396,7 +17404,7 @@
     </row>
     <row r="217">
       <c r="A217" s="99" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="B217" s="83" t="s">
         <v>55</v>
@@ -17408,14 +17416,14 @@
         <v>57</v>
       </c>
       <c r="E217" s="85" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="F217" s="85"/>
       <c r="G217" s="82" t="s">
         <v>59</v>
       </c>
       <c r="H217" s="82" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="I217" s="7"/>
       <c r="J217" s="7"/>
@@ -17423,7 +17431,7 @@
     </row>
     <row r="218">
       <c r="A218" s="99" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="B218" s="83" t="s">
         <v>69</v>
@@ -17435,14 +17443,14 @@
         <v>71</v>
       </c>
       <c r="E218" s="85" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="F218" s="85"/>
       <c r="G218" s="82" t="s">
         <v>73</v>
       </c>
       <c r="H218" s="82" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="I218" s="7"/>
       <c r="J218" s="7"/>
@@ -17450,7 +17458,7 @@
     </row>
     <row r="219">
       <c r="A219" s="99" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="B219" s="83" t="s">
         <v>76</v>
@@ -17462,14 +17470,14 @@
         <v>78</v>
       </c>
       <c r="E219" s="85" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="F219" s="85"/>
       <c r="G219" s="82" t="s">
         <v>73</v>
       </c>
-      <c r="H219" s="137" t="s">
-        <v>929</v>
+      <c r="H219" s="138" t="s">
+        <v>930</v>
       </c>
       <c r="I219" s="7"/>
       <c r="J219" s="7"/>
@@ -17477,7 +17485,7 @@
     </row>
     <row r="220">
       <c r="A220" s="99" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="B220" s="83" t="s">
         <v>90</v>
@@ -17486,17 +17494,17 @@
         <v>91</v>
       </c>
       <c r="D220" s="85" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="E220" s="85" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="F220" s="85"/>
       <c r="G220" s="82" t="s">
         <v>94</v>
       </c>
-      <c r="H220" s="137" t="s">
-        <v>932</v>
+      <c r="H220" s="138" t="s">
+        <v>933</v>
       </c>
       <c r="I220" s="7"/>
       <c r="J220" s="7"/>
@@ -17504,7 +17512,7 @@
     </row>
     <row r="221">
       <c r="A221" s="99" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="B221" s="83" t="s">
         <v>97</v>
@@ -17516,14 +17524,14 @@
         <v>99</v>
       </c>
       <c r="E221" s="85" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="F221" s="85"/>
       <c r="G221" s="85" t="s">
         <v>101</v>
       </c>
       <c r="H221" s="85" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="I221" s="7"/>
       <c r="J221" s="7"/>
@@ -17531,7 +17539,7 @@
     </row>
     <row r="222">
       <c r="A222" s="99" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="B222" s="83" t="s">
         <v>117</v>
@@ -17543,14 +17551,14 @@
         <v>119</v>
       </c>
       <c r="E222" s="85" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="F222" s="85"/>
       <c r="G222" s="85" t="s">
-        <v>760</v>
-      </c>
-      <c r="H222" s="140" t="s">
         <v>761</v>
+      </c>
+      <c r="H222" s="141" t="s">
+        <v>762</v>
       </c>
       <c r="I222" s="7"/>
       <c r="J222" s="7"/>
@@ -17558,7 +17566,7 @@
     </row>
     <row r="223">
       <c r="A223" s="99" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="B223" s="83" t="s">
         <v>111</v>
@@ -17570,14 +17578,14 @@
         <v>113</v>
       </c>
       <c r="E223" s="85" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="F223" s="85"/>
       <c r="G223" s="85" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="H223" s="85" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="I223" s="7"/>
       <c r="J223" s="7"/>
@@ -17585,10 +17593,10 @@
     </row>
     <row r="224">
       <c r="A224" s="99" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="B224" s="83" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="C224" s="85" t="s">
         <v>133</v>
@@ -17597,14 +17605,14 @@
         <v>134</v>
       </c>
       <c r="E224" s="85" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="F224" s="85"/>
       <c r="G224" s="96" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="H224" s="96" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="I224" s="7"/>
       <c r="J224" s="7"/>
@@ -17612,7 +17620,7 @@
     </row>
     <row r="225">
       <c r="A225" s="99" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="B225" s="83" t="s">
         <v>124</v>
@@ -17624,14 +17632,14 @@
         <v>126</v>
       </c>
       <c r="E225" s="85" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="F225" s="85"/>
       <c r="G225" s="85" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="H225" s="85" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="I225" s="7"/>
       <c r="J225" s="7"/>
@@ -17639,26 +17647,26 @@
     </row>
     <row r="226">
       <c r="A226" s="126" t="s">
-        <v>945</v>
-      </c>
-      <c r="B226" s="149" t="s">
         <v>946</v>
       </c>
-      <c r="C226" s="155" t="s">
+      <c r="B226" s="150" t="s">
         <v>947</v>
       </c>
-      <c r="D226" s="155" t="s">
+      <c r="C226" s="156" t="s">
         <v>948</v>
       </c>
-      <c r="E226" s="156" t="s">
+      <c r="D226" s="156" t="s">
         <v>949</v>
       </c>
-      <c r="F226" s="156"/>
+      <c r="E226" s="157" t="s">
+        <v>950</v>
+      </c>
+      <c r="F226" s="157"/>
       <c r="G226" s="82" t="s">
-        <v>950</v>
-      </c>
-      <c r="H226" s="157" t="s">
         <v>951</v>
+      </c>
+      <c r="H226" s="158" t="s">
+        <v>952</v>
       </c>
       <c r="I226" s="7"/>
       <c r="J226" s="7"/>
@@ -17666,17 +17674,17 @@
     </row>
     <row r="227">
       <c r="A227" s="112" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="B227" s="108" t="s">
-        <v>953</v>
-      </c>
-      <c r="C227" s="158" t="s">
+        <v>954</v>
+      </c>
+      <c r="C227" s="159" t="s">
         <v>666</v>
       </c>
       <c r="D227" s="108"/>
       <c r="E227" s="108" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="F227" s="108"/>
       <c r="G227" s="108"/>
@@ -17687,22 +17695,22 @@
     </row>
     <row r="228">
       <c r="A228" s="112" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="B228" s="108" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="C228" s="108"/>
       <c r="D228" s="108"/>
       <c r="E228" s="108" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="F228" s="108"/>
       <c r="G228" s="108" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="H228" s="108" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="I228" s="7"/>
       <c r="J228" s="7"/>
@@ -17710,10 +17718,10 @@
     </row>
     <row r="229">
       <c r="A229" s="112" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="B229" s="90" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="C229" s="108" t="s">
         <v>666</v>
@@ -17729,22 +17737,22 @@
     </row>
     <row r="230">
       <c r="A230" s="112" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="B230" s="108" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="C230" s="108"/>
       <c r="D230" s="108"/>
       <c r="E230" s="108" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="F230" s="108"/>
       <c r="G230" s="108" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="H230" s="108" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="I230" s="7"/>
       <c r="J230" s="7"/>
@@ -17752,22 +17760,22 @@
     </row>
     <row r="231">
       <c r="A231" s="112" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="B231" s="108" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="C231" s="108"/>
       <c r="D231" s="108"/>
       <c r="E231" s="108" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="F231" s="108"/>
       <c r="G231" s="108" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="H231" s="108" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="I231" s="7"/>
       <c r="J231" s="7"/>
@@ -17775,22 +17783,22 @@
     </row>
     <row r="232">
       <c r="A232" s="112" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="B232" s="108" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="C232" s="108"/>
       <c r="D232" s="108"/>
       <c r="E232" s="108" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="F232" s="108"/>
       <c r="G232" s="108" t="s">
-        <v>958</v>
-      </c>
-      <c r="H232" s="159" t="s">
-        <v>973</v>
+        <v>959</v>
+      </c>
+      <c r="H232" s="160" t="s">
+        <v>974</v>
       </c>
       <c r="I232" s="7"/>
       <c r="J232" s="7"/>
@@ -17798,22 +17806,22 @@
     </row>
     <row r="233">
       <c r="A233" s="112" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="B233" s="108" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="C233" s="108"/>
       <c r="D233" s="108"/>
       <c r="E233" s="108" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="F233" s="108"/>
       <c r="G233" s="108" t="s">
-        <v>958</v>
-      </c>
-      <c r="H233" s="159" t="s">
-        <v>977</v>
+        <v>959</v>
+      </c>
+      <c r="H233" s="160" t="s">
+        <v>978</v>
       </c>
       <c r="I233" s="7"/>
       <c r="J233" s="7"/>
@@ -17821,12 +17829,12 @@
     </row>
     <row r="234">
       <c r="A234" s="112" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="B234" s="108" t="s">
-        <v>979</v>
-      </c>
-      <c r="C234" s="158" t="s">
+        <v>980</v>
+      </c>
+      <c r="C234" s="159" t="s">
         <v>666</v>
       </c>
       <c r="D234" s="108"/>
@@ -17840,24 +17848,24 @@
     </row>
     <row r="235">
       <c r="A235" s="112" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="B235" s="108" t="s">
-        <v>981</v>
-      </c>
-      <c r="C235" s="160" t="s">
+        <v>982</v>
+      </c>
+      <c r="C235" s="161" t="s">
         <v>578</v>
       </c>
       <c r="D235" s="108"/>
       <c r="E235" s="108" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="F235" s="108"/>
       <c r="G235" s="108" t="s">
-        <v>958</v>
-      </c>
-      <c r="H235" s="161" t="s">
-        <v>983</v>
+        <v>959</v>
+      </c>
+      <c r="H235" s="162" t="s">
+        <v>984</v>
       </c>
       <c r="I235" s="7"/>
       <c r="J235" s="7"/>
@@ -17865,12 +17873,12 @@
     </row>
     <row r="236">
       <c r="A236" s="112" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="B236" s="108" t="s">
-        <v>985</v>
-      </c>
-      <c r="C236" s="158" t="s">
+        <v>986</v>
+      </c>
+      <c r="C236" s="159" t="s">
         <v>666</v>
       </c>
       <c r="D236" s="108"/>
@@ -17884,26 +17892,26 @@
     </row>
     <row r="237">
       <c r="A237" s="112" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="B237" s="108" t="s">
-        <v>987</v>
-      </c>
-      <c r="C237" s="158" t="s">
         <v>988</v>
       </c>
+      <c r="C237" s="159" t="s">
+        <v>989</v>
+      </c>
       <c r="D237" s="108" t="s">
-        <v>989</v>
-      </c>
-      <c r="E237" s="162" t="s">
         <v>990</v>
+      </c>
+      <c r="E237" s="163" t="s">
+        <v>991</v>
       </c>
       <c r="F237" s="108"/>
       <c r="G237" s="108" t="s">
-        <v>991</v>
-      </c>
-      <c r="H237" s="163" t="s">
         <v>992</v>
+      </c>
+      <c r="H237" s="164" t="s">
+        <v>993</v>
       </c>
       <c r="I237" s="7"/>
       <c r="J237" s="7"/>
@@ -17990,7 +17998,7 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="164" t="s">
+      <c r="A1" s="165" t="s">
         <v>32</v>
       </c>
       <c r="B1" s="26" t="s">
@@ -18010,21 +18018,21 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="165" t="s">
+      <c r="A2" s="166" t="s">
         <v>375</v>
       </c>
-      <c r="B2" s="166" t="s">
+      <c r="B2" s="167" t="s">
         <v>376</v>
       </c>
-      <c r="C2" s="167" t="s">
-        <v>993</v>
-      </c>
-      <c r="D2" s="167"/>
-      <c r="E2" s="166" t="s">
+      <c r="C2" s="168" t="s">
         <v>994</v>
       </c>
-      <c r="F2" s="166" t="s">
+      <c r="D2" s="168"/>
+      <c r="E2" s="167" t="s">
         <v>995</v>
+      </c>
+      <c r="F2" s="167" t="s">
+        <v>996</v>
       </c>
     </row>
     <row r="3">
@@ -18035,34 +18043,34 @@
         <v>376</v>
       </c>
       <c r="C3" s="85" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="D3" s="85"/>
       <c r="E3" s="39" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="F3" s="39" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="19" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="B4" s="82" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="C4" s="85" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="D4" s="85" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="E4" s="39" t="s">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="F4" s="39" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="5">
@@ -18073,7 +18081,7 @@
         <v>653</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>655</v>
@@ -18082,56 +18090,56 @@
         <v>661</v>
       </c>
       <c r="F5" s="39" t="s">
-        <v>1005</v>
-      </c>
-      <c r="G5" s="168"/>
-      <c r="H5" s="168"/>
-      <c r="I5" s="168"/>
-      <c r="J5" s="168"/>
-      <c r="K5" s="168"/>
-      <c r="L5" s="168"/>
-      <c r="M5" s="168"/>
-      <c r="N5" s="168"/>
-      <c r="O5" s="168"/>
-      <c r="P5" s="168"/>
-      <c r="Q5" s="168"/>
-      <c r="R5" s="168"/>
-      <c r="S5" s="168"/>
-      <c r="T5" s="168"/>
-      <c r="U5" s="168"/>
-      <c r="V5" s="168"/>
-      <c r="W5" s="168"/>
-      <c r="X5" s="168"/>
-      <c r="Y5" s="168"/>
-      <c r="Z5" s="168"/>
+        <v>1006</v>
+      </c>
+      <c r="G5" s="169"/>
+      <c r="H5" s="169"/>
+      <c r="I5" s="169"/>
+      <c r="J5" s="169"/>
+      <c r="K5" s="169"/>
+      <c r="L5" s="169"/>
+      <c r="M5" s="169"/>
+      <c r="N5" s="169"/>
+      <c r="O5" s="169"/>
+      <c r="P5" s="169"/>
+      <c r="Q5" s="169"/>
+      <c r="R5" s="169"/>
+      <c r="S5" s="169"/>
+      <c r="T5" s="169"/>
+      <c r="U5" s="169"/>
+      <c r="V5" s="169"/>
+      <c r="W5" s="169"/>
+      <c r="X5" s="169"/>
+      <c r="Y5" s="169"/>
+      <c r="Z5" s="169"/>
     </row>
     <row r="6">
       <c r="A6" s="7"/>
       <c r="B6" s="82"/>
-      <c r="C6" s="169"/>
+      <c r="C6" s="170"/>
       <c r="D6" s="7"/>
       <c r="E6" s="39"/>
       <c r="F6" s="39"/>
-      <c r="G6" s="168"/>
-      <c r="H6" s="168"/>
-      <c r="I6" s="168"/>
-      <c r="J6" s="168"/>
-      <c r="K6" s="168"/>
-      <c r="L6" s="168"/>
-      <c r="M6" s="168"/>
-      <c r="N6" s="168"/>
-      <c r="O6" s="168"/>
-      <c r="P6" s="168"/>
-      <c r="Q6" s="168"/>
-      <c r="R6" s="168"/>
-      <c r="S6" s="168"/>
-      <c r="T6" s="168"/>
-      <c r="U6" s="168"/>
-      <c r="V6" s="168"/>
-      <c r="W6" s="168"/>
-      <c r="X6" s="168"/>
-      <c r="Y6" s="168"/>
-      <c r="Z6" s="168"/>
+      <c r="G6" s="169"/>
+      <c r="H6" s="169"/>
+      <c r="I6" s="169"/>
+      <c r="J6" s="169"/>
+      <c r="K6" s="169"/>
+      <c r="L6" s="169"/>
+      <c r="M6" s="169"/>
+      <c r="N6" s="169"/>
+      <c r="O6" s="169"/>
+      <c r="P6" s="169"/>
+      <c r="Q6" s="169"/>
+      <c r="R6" s="169"/>
+      <c r="S6" s="169"/>
+      <c r="T6" s="169"/>
+      <c r="U6" s="169"/>
+      <c r="V6" s="169"/>
+      <c r="W6" s="169"/>
+      <c r="X6" s="169"/>
+      <c r="Y6" s="169"/>
+      <c r="Z6" s="169"/>
     </row>
     <row r="7">
       <c r="A7" s="19"/>
@@ -22142,108 +22150,108 @@
   </cols>
   <sheetData>
     <row r="2">
-      <c r="A2" s="170" t="s">
-        <v>1006</v>
-      </c>
-      <c r="B2" s="171" t="s">
+      <c r="A2" s="171" t="s">
         <v>1007</v>
       </c>
+      <c r="B2" s="172" t="s">
+        <v>1008</v>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" s="172" t="s">
-        <v>1008</v>
-      </c>
-      <c r="B3" s="171" t="s">
+      <c r="A3" s="173" t="s">
         <v>1009</v>
       </c>
+      <c r="B3" s="172" t="s">
+        <v>1010</v>
+      </c>
     </row>
     <row r="4">
-      <c r="A4" s="173" t="s">
-        <v>1010</v>
+      <c r="A4" s="174" t="s">
+        <v>1011</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="174" t="s">
-        <v>1011</v>
-      </c>
-      <c r="B6" s="171" t="s">
+      <c r="A6" s="175" t="s">
         <v>1012</v>
       </c>
+      <c r="B6" s="172" t="s">
+        <v>1013</v>
+      </c>
     </row>
     <row r="7">
-      <c r="B7" s="171" t="s">
-        <v>1013</v>
+      <c r="B7" s="172" t="s">
+        <v>1014</v>
       </c>
     </row>
     <row r="8">
-      <c r="B8" s="171"/>
+      <c r="B8" s="172"/>
     </row>
     <row r="9">
-      <c r="B9" s="171"/>
+      <c r="B9" s="172"/>
     </row>
     <row r="10">
-      <c r="A10" s="174" t="s">
-        <v>1014</v>
+      <c r="A10" s="175" t="s">
+        <v>1015</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="174" t="s">
-        <v>1015</v>
-      </c>
-      <c r="B11" s="175" t="s">
+      <c r="A11" s="175" t="s">
         <v>1016</v>
       </c>
+      <c r="B11" s="176" t="s">
+        <v>1017</v>
+      </c>
     </row>
     <row r="12">
-      <c r="B12" s="176" t="s">
-        <v>1017</v>
+      <c r="B12" s="177" t="s">
+        <v>1018</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="177"/>
-      <c r="B13" s="178" t="s">
-        <v>1018</v>
+      <c r="A13" s="178"/>
+      <c r="B13" s="179" t="s">
+        <v>1019</v>
       </c>
     </row>
     <row r="14">
-      <c r="B14" s="179" t="s">
-        <v>1019</v>
+      <c r="B14" s="180" t="s">
+        <v>1020</v>
       </c>
     </row>
     <row r="15">
-      <c r="B15" s="180" t="s">
-        <v>1020</v>
+      <c r="B15" s="181" t="s">
+        <v>1021</v>
       </c>
     </row>
     <row r="16">
-      <c r="B16" s="181" t="s">
-        <v>1021</v>
+      <c r="B16" s="182" t="s">
+        <v>1022</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="174"/>
+      <c r="A17" s="175"/>
       <c r="B17" s="28"/>
     </row>
     <row r="18">
-      <c r="A18" s="174" t="s">
-        <v>1022</v>
-      </c>
-      <c r="B18" s="182" t="s">
+      <c r="A18" s="175" t="s">
         <v>1023</v>
+      </c>
+      <c r="B18" s="183" t="s">
+        <v>1024</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="7" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="B19" s="123"/>
     </row>
     <row r="21">
-      <c r="A21" s="174" t="s">
-        <v>1025</v>
-      </c>
-      <c r="B21" s="183" t="s">
+      <c r="A21" s="175" t="s">
         <v>1026</v>
+      </c>
+      <c r="B21" s="184" t="s">
+        <v>1027</v>
       </c>
     </row>
   </sheetData>
@@ -22269,57 +22277,57 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="36" t="s">
-        <v>1028</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="4" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="36" t="s">
-        <v>1030</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="4" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="4" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="4" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="36" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="184" t="s">
-        <v>1035</v>
+      <c r="A9" s="185" t="s">
+        <v>1036</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="4" t="s">
-        <v>1036</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="4" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="12">
@@ -22348,65 +22356,65 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>1027</v>
-      </c>
-      <c r="B1" s="185" t="s">
-        <v>1038</v>
+        <v>1028</v>
+      </c>
+      <c r="B1" s="186" t="s">
+        <v>1039</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="4" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="4" t="s">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="B3" s="7"/>
     </row>
     <row r="4">
       <c r="A4" s="4" t="s">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="B4" s="7"/>
     </row>
     <row r="5">
       <c r="A5" s="4" t="s">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="B5" s="7"/>
     </row>
     <row r="6">
       <c r="A6" s="4" t="s">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="B6" s="7"/>
     </row>
     <row r="7">
       <c r="A7" s="4" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="B7" s="7"/>
     </row>
     <row r="8">
       <c r="A8" s="4" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="B8" s="7"/>
     </row>
     <row r="9">
       <c r="A9" s="4" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="B9" s="7"/>
     </row>
     <row r="10">
       <c r="A10" s="6" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
     </row>
   </sheetData>
@@ -22425,7 +22433,7 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="175"/>
+      <c r="A1" s="176"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -22449,36 +22457,36 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="186" t="s">
-        <v>1049</v>
-      </c>
-      <c r="C1" s="186" t="s">
+      <c r="A1" s="187" t="s">
         <v>1050</v>
       </c>
+      <c r="C1" s="187" t="s">
+        <v>1051</v>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="174" t="s">
-        <v>1051</v>
-      </c>
-      <c r="B2" s="174" t="s">
+      <c r="A2" s="175" t="s">
         <v>1052</v>
       </c>
-      <c r="C2" s="174" t="s">
+      <c r="B2" s="175" t="s">
         <v>1053</v>
       </c>
-      <c r="D2" s="174" t="s">
+      <c r="C2" s="175" t="s">
         <v>1054</v>
+      </c>
+      <c r="D2" s="175" t="s">
+        <v>1055</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="39" t="s">
-        <v>1055</v>
+        <v>1056</v>
       </c>
       <c r="B3" s="39" t="s">
-        <v>1056</v>
+        <v>1057</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>1057</v>
+        <v>1058</v>
       </c>
       <c r="D3" s="4" t="str">
         <f t="shared" ref="D3:D4" si="1">RIGHT(A3,LEN(A3) - (FIND(" == ",A3) + 3))</f>
@@ -22487,13 +22495,13 @@
     </row>
     <row r="4">
       <c r="A4" s="39" t="s">
+        <v>1059</v>
+      </c>
+      <c r="B4" s="39" t="s">
+        <v>1057</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>1058</v>
-      </c>
-      <c r="B4" s="39" t="s">
-        <v>1056</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>1057</v>
       </c>
       <c r="D4" s="4" t="str">
         <f t="shared" si="1"/>
@@ -22502,185 +22510,185 @@
     </row>
     <row r="5">
       <c r="A5" s="39" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="B5" s="39" t="s">
-        <v>1060</v>
+        <v>1061</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>1057</v>
+        <v>1058</v>
       </c>
       <c r="D5" s="7"/>
     </row>
     <row r="6">
       <c r="A6" s="4" t="s">
-        <v>1061</v>
+        <v>1062</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>1057</v>
+        <v>1058</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>1063</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="4" t="s">
-        <v>1064</v>
+        <v>1065</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>1065</v>
+        <v>1066</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>1057</v>
-      </c>
-      <c r="D7" s="187" t="s">
-        <v>1066</v>
+        <v>1058</v>
+      </c>
+      <c r="D7" s="188" t="s">
+        <v>1067</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="4" t="s">
-        <v>1067</v>
+        <v>1068</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>1057</v>
+        <v>1058</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>1069</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="82" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>1071</v>
+        <v>1072</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>1057</v>
+        <v>1058</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>1072</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="82" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>1071</v>
+        <v>1072</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>1057</v>
+        <v>1058</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>1074</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="82" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>1057</v>
+        <v>1058</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>1077</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="82" t="s">
-        <v>1078</v>
+        <v>1079</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>1057</v>
+        <v>1058</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>1079</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="188" t="s">
-        <v>1080</v>
-      </c>
-      <c r="B13" s="188" t="s">
-        <v>1060</v>
-      </c>
-      <c r="C13" s="189" t="s">
-        <v>1057</v>
-      </c>
-      <c r="D13" s="189" t="s">
+      <c r="A13" s="189" t="s">
         <v>1081</v>
       </c>
-      <c r="E13" s="190"/>
-      <c r="F13" s="190"/>
-      <c r="G13" s="190"/>
-      <c r="H13" s="190"/>
-      <c r="I13" s="190"/>
-      <c r="J13" s="190"/>
-      <c r="K13" s="190"/>
-      <c r="L13" s="190"/>
-      <c r="M13" s="190"/>
-      <c r="N13" s="190"/>
-      <c r="O13" s="190"/>
-      <c r="P13" s="190"/>
-      <c r="Q13" s="190"/>
-      <c r="R13" s="190"/>
-      <c r="S13" s="190"/>
-      <c r="T13" s="190"/>
-      <c r="U13" s="190"/>
-      <c r="V13" s="190"/>
-      <c r="W13" s="190"/>
-      <c r="X13" s="190"/>
-      <c r="Y13" s="190"/>
-      <c r="Z13" s="190"/>
+      <c r="B13" s="189" t="s">
+        <v>1061</v>
+      </c>
+      <c r="C13" s="190" t="s">
+        <v>1058</v>
+      </c>
+      <c r="D13" s="190" t="s">
+        <v>1082</v>
+      </c>
+      <c r="E13" s="191"/>
+      <c r="F13" s="191"/>
+      <c r="G13" s="191"/>
+      <c r="H13" s="191"/>
+      <c r="I13" s="191"/>
+      <c r="J13" s="191"/>
+      <c r="K13" s="191"/>
+      <c r="L13" s="191"/>
+      <c r="M13" s="191"/>
+      <c r="N13" s="191"/>
+      <c r="O13" s="191"/>
+      <c r="P13" s="191"/>
+      <c r="Q13" s="191"/>
+      <c r="R13" s="191"/>
+      <c r="S13" s="191"/>
+      <c r="T13" s="191"/>
+      <c r="U13" s="191"/>
+      <c r="V13" s="191"/>
+      <c r="W13" s="191"/>
+      <c r="X13" s="191"/>
+      <c r="Y13" s="191"/>
+      <c r="Z13" s="191"/>
     </row>
     <row r="14">
-      <c r="A14" s="188" t="s">
-        <v>1082</v>
-      </c>
-      <c r="B14" s="188" t="s">
-        <v>1060</v>
-      </c>
-      <c r="C14" s="189" t="s">
-        <v>1057</v>
-      </c>
-      <c r="D14" s="189" t="s">
+      <c r="A14" s="189" t="s">
         <v>1083</v>
       </c>
-      <c r="E14" s="190"/>
-      <c r="F14" s="190"/>
-      <c r="G14" s="190"/>
-      <c r="H14" s="190"/>
-      <c r="I14" s="190"/>
-      <c r="J14" s="190"/>
-      <c r="K14" s="190"/>
-      <c r="L14" s="190"/>
-      <c r="M14" s="190"/>
-      <c r="N14" s="190"/>
-      <c r="O14" s="190"/>
-      <c r="P14" s="190"/>
-      <c r="Q14" s="190"/>
-      <c r="R14" s="190"/>
-      <c r="S14" s="190"/>
-      <c r="T14" s="190"/>
-      <c r="U14" s="190"/>
-      <c r="V14" s="190"/>
-      <c r="W14" s="190"/>
-      <c r="X14" s="190"/>
-      <c r="Y14" s="190"/>
-      <c r="Z14" s="190"/>
+      <c r="B14" s="189" t="s">
+        <v>1061</v>
+      </c>
+      <c r="C14" s="190" t="s">
+        <v>1058</v>
+      </c>
+      <c r="D14" s="190" t="s">
+        <v>1084</v>
+      </c>
+      <c r="E14" s="191"/>
+      <c r="F14" s="191"/>
+      <c r="G14" s="191"/>
+      <c r="H14" s="191"/>
+      <c r="I14" s="191"/>
+      <c r="J14" s="191"/>
+      <c r="K14" s="191"/>
+      <c r="L14" s="191"/>
+      <c r="M14" s="191"/>
+      <c r="N14" s="191"/>
+      <c r="O14" s="191"/>
+      <c r="P14" s="191"/>
+      <c r="Q14" s="191"/>
+      <c r="R14" s="191"/>
+      <c r="S14" s="191"/>
+      <c r="T14" s="191"/>
+      <c r="U14" s="191"/>
+      <c r="V14" s="191"/>
+      <c r="W14" s="191"/>
+      <c r="X14" s="191"/>
+      <c r="Y14" s="191"/>
+      <c r="Z14" s="191"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -22708,52 +22716,52 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="186" t="s">
-        <v>1049</v>
+      <c r="A1" s="187" t="s">
+        <v>1050</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="174" t="s">
-        <v>1051</v>
-      </c>
-      <c r="B2" s="174" t="s">
+      <c r="A2" s="175" t="s">
         <v>1052</v>
       </c>
-      <c r="C2" s="174" t="s">
+      <c r="B2" s="175" t="s">
         <v>1053</v>
       </c>
-      <c r="D2" s="174" t="s">
+      <c r="C2" s="175" t="s">
         <v>1054</v>
       </c>
+      <c r="D2" s="175" t="s">
+        <v>1055</v>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" s="171" t="s">
-        <v>1084</v>
-      </c>
-      <c r="B3" s="171" t="s">
+      <c r="A3" s="172" t="s">
         <v>1085</v>
       </c>
+      <c r="B3" s="172" t="s">
+        <v>1086</v>
+      </c>
     </row>
     <row r="4">
-      <c r="A4" s="171" t="s">
-        <v>1086</v>
-      </c>
-      <c r="B4" s="171" t="s">
+      <c r="A4" s="172" t="s">
         <v>1087</v>
       </c>
+      <c r="B4" s="172" t="s">
+        <v>1088</v>
+      </c>
     </row>
     <row r="5">
-      <c r="A5" s="171" t="s">
+      <c r="A5" s="172" t="s">
+        <v>1089</v>
+      </c>
+      <c r="B5" s="172" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C5" s="192" t="s">
         <v>1088</v>
       </c>
-      <c r="B5" s="171" t="s">
-        <v>1089</v>
-      </c>
-      <c r="C5" s="191" t="s">
-        <v>1087</v>
-      </c>
-      <c r="D5" s="171" t="s">
-        <v>1090</v>
+      <c r="D5" s="172" t="s">
+        <v>1091</v>
       </c>
     </row>
   </sheetData>

--- a/mappings/package_F23/transformation/conceptual_mappings.xlsx
+++ b/mappings/package_F23/transformation/conceptual_mappings.xlsx
@@ -398,7 +398,7 @@
     <t>Mapping Version</t>
   </si>
   <si>
-    <t>5.5.0</t>
+    <t>5.6.0</t>
   </si>
   <si>
     <r>
@@ -4530,10 +4530,10 @@
     <t>Information about tenders</t>
   </si>
   <si>
-    <t>epo:SubmissionStatisticalInformation / epo:Lot</t>
-  </si>
-  <si>
-    <t>?this epo:concernsSubmissionsForLot ?value .</t>
+    <t>epo:SubmissionStatisticalInformation / epo:LotAwardOutcome</t>
+  </si>
+  <si>
+    <t>?this epo:summarisesInformationForLotAwardOutcome ?value .</t>
   </si>
   <si>
     <t>V.2.2.1</t>
@@ -17369,7 +17369,7 @@
         <v>916</v>
       </c>
       <c r="F215" s="85"/>
-      <c r="G215" s="152" t="s">
+      <c r="G215" s="82" t="s">
         <v>917</v>
       </c>
       <c r="H215" s="153" t="s">

--- a/mappings/package_F23/transformation/conceptual_mappings.xlsx
+++ b/mappings/package_F23/transformation/conceptual_mappings.xlsx
@@ -363,7 +363,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1551" uniqueCount="1092">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1580" uniqueCount="1095">
   <si>
     <t>Field</t>
   </si>
@@ -398,7 +398,7 @@
     <t>Mapping Version</t>
   </si>
   <si>
-    <t>5.6.0</t>
+    <t>6.0.0</t>
   </si>
   <si>
     <r>
@@ -549,6 +549,9 @@
     <t>?this epo:hasLegalBasis ?value</t>
   </si>
   <si>
+    <t>gen_dangling_individuals.ask.rq, gen_empty_individuals.ask.rq</t>
+  </si>
+  <si>
     <t>Section I</t>
   </si>
   <si>
@@ -627,6 +630,9 @@
     </r>
   </si>
   <si>
+    <t>gen_language_tags_exist.ask.rq</t>
+  </si>
+  <si>
     <t>I.1.2</t>
   </si>
   <si>
@@ -682,6 +688,9 @@
       </rPr>
       <t xml:space="preserve"> .</t>
     </r>
+  </si>
+  <si>
+    <t>gen_unique_ids.ask.rq</t>
   </si>
   <si>
     <t>I.1.3</t>
@@ -1374,7 +1383,38 @@
     <t>CONTRACTING_BODY/DOCUMENT_RESTRICTED</t>
   </si>
   <si>
-    <t>?this epo:isProcurementDocumentRestricted true .</t>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+      </rPr>
+      <t>?this</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve"> epo:isProcurementDocumentRestricted </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+      </rPr>
+      <t>true</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve"> .</t>
+    </r>
   </si>
   <si>
     <t>I.3.2.1</t>
@@ -2611,9 +2651,6 @@
     <t>?this epo:hasTitle ?value .</t>
   </si>
   <si>
-    <t>epo:Procedure epo:hasTitle Text</t>
-  </si>
-  <si>
     <t>II.1.1.1</t>
   </si>
   <si>
@@ -3540,24 +3577,10 @@
     <r>
       <rPr>
         <rFont val="Arial"/>
-        <color rgb="FF000000"/>
-      </rPr>
-      <t>?this</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
         <b/>
         <color rgb="FF000000"/>
       </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FF000000"/>
-      </rPr>
-      <t xml:space="preserve">epo:isUsingEUFunds </t>
+      <t xml:space="preserve">?this </t>
     </r>
     <r>
       <rPr>
@@ -3565,19 +3588,7 @@
         <b/>
         <color rgb="FF000000"/>
       </rPr>
-      <t>true .</t>
-    </r>
-  </si>
-  <si>
-    <t>OBJECT_CONTRACT/OBJECT_DESCR/NO_EU_PROGR_RELATED</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FF000000"/>
-      </rPr>
-      <t>?this</t>
+      <t xml:space="preserve">epo:isUsingEUFunds </t>
     </r>
     <r>
       <rPr>
@@ -3585,50 +3596,28 @@
         <b/>
         <color rgb="FF000000"/>
       </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FF000000"/>
-      </rPr>
-      <t>epo:isUsingEUFunds</t>
-    </r>
+      <t>true .</t>
+    </r>
+  </si>
+  <si>
+    <t>OBJECT_CONTRACT/OBJECT_DESCR/NO_EU_PROGR_RELATED</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <rFont val="Arial"/>
         <b/>
         <color rgb="FF000000"/>
       </rPr>
-      <t xml:space="preserve"> false .</t>
-    </r>
-  </si>
-  <si>
-    <t>II.2.13.2</t>
-  </si>
-  <si>
-    <t>Identification of the project</t>
-  </si>
-  <si>
-    <t>BT-5011</t>
-  </si>
-  <si>
-    <t>Contract EU Funds Identifier</t>
-  </si>
-  <si>
-    <t>OBJECT_CONTRACT/OBJECT_DESCR/EU_PROGR_RELATED/P</t>
-  </si>
-  <si>
-    <t>epo:Lot / epo:Fund / rdf:langString</t>
-  </si>
-  <si>
+      <t xml:space="preserve">?this </t>
+    </r>
     <r>
       <rPr>
         <rFont val="Arial"/>
         <b/>
         <color rgb="FF000000"/>
       </rPr>
-      <t>?this epo:isFundedBy /</t>
+      <t>epo:isUsingEUFunds</t>
     </r>
     <r>
       <rPr>
@@ -3636,7 +3625,40 @@
         <b/>
         <color rgb="FF000000"/>
       </rPr>
-      <t xml:space="preserve"> epo:hasDescription ?</t>
+      <t xml:space="preserve"> false .</t>
+    </r>
+  </si>
+  <si>
+    <t>II.2.13.2</t>
+  </si>
+  <si>
+    <t>Identification of the project</t>
+  </si>
+  <si>
+    <t>BT-5011</t>
+  </si>
+  <si>
+    <t>Contract EU Funds Identifier</t>
+  </si>
+  <si>
+    <t>epo:Lot / epo:Fund / rdf:langString</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color rgb="FF000000"/>
+      </rPr>
+      <t>?this</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color rgb="FF000000"/>
+      </rPr>
+      <t xml:space="preserve"> epo:isFundedBy / epo:hasDescription ?</t>
     </r>
     <r>
       <rPr>
@@ -4464,7 +4486,7 @@
     <t>?this epo:comprisesTenderAwardOutcome / epo:indicatesAwardOfLotToWinner ?value</t>
   </si>
   <si>
-    <t>Winner is created only if there is a contractor identified through the `AWARD_CONTRACT/AWARDED_CONTRACT/CONTRACTORS/CONTRACTOR` XPath</t>
+    <t>Winner is created only if there is a contractor identified through the `AWARD_CONTRACT/AWARDED_CONTRACT/CONTRACTORS/CONTRACTOR` or (in earlier versions of XML) `AWARD_CONTRACT/AWARDED_CONTRACT/CONTRACTOR` XPath</t>
   </si>
   <si>
     <t>V.2.1</t>
@@ -4536,6 +4558,9 @@
     <t>?this epo:summarisesInformationForLotAwardOutcome ?value .</t>
   </si>
   <si>
+    <t>iss_gh_map237_submissionStatInfo_relations.ask.rq</t>
+  </si>
+  <si>
     <t>V.2.2.1</t>
   </si>
   <si>
@@ -4700,7 +4725,8 @@
     <t>BT-768</t>
   </si>
   <si>
-    <t>AWARD_CONTRACT/AWARDED_CONTRACT/CONTRACTORS/AWARDED_TO_GROUP</t>
+    <t>AWARD_CONTRACT/AWARDED_CONTRACT/CONTRACTORS/AWARDED_TO_GROUP
+AWARD_CONTRACT/AWARDED_CONTRACT/AWARDED_TO_GROUP</t>
   </si>
   <si>
     <t>epo:OrganisationGroup / org:Organization</t>
@@ -4718,7 +4744,8 @@
     <t>V.2.3.1</t>
   </si>
   <si>
-    <t>AWARD_CONTRACT/AWARDED_CONTRACT/CONTRACTORS/CONTRACTOR/ADDRESS_CONTRACTOR/OFFICIALNAME</t>
+    <t>AWARD_CONTRACT/AWARDED_CONTRACT/CONTRACTORS/CONTRACTOR/ADDRESS_CONTRACTOR/OFFICIALNAME
+AWARD_CONTRACT/AWARDED_CONTRACT/CONTRACTOR/ADDRESS_CONTRACTOR/OFFICIALNAME</t>
   </si>
   <si>
     <r>
@@ -4763,7 +4790,8 @@
     <t>V.2.3.2</t>
   </si>
   <si>
-    <t>AWARD_CONTRACT/AWARDED_CONTRACT/CONTRACTORS/CONTRACTOR/ADDRESS_CONTRACTOR/NATIONALID</t>
+    <t>AWARD_CONTRACT/AWARDED_CONTRACT/CONTRACTORS/CONTRACTOR/ADDRESS_CONTRACTOR/NATIONALID
+AWARD_CONTRACT/AWARDED_CONTRACT/CONTRACTOR/ADDRESS_CONTRACTOR/NATIONALID</t>
   </si>
   <si>
     <r>
@@ -4808,7 +4836,8 @@
     <t>V.2.3.3</t>
   </si>
   <si>
-    <t>AWARD_CONTRACT/AWARDED_CONTRACT/CONTRACTORS/CONTRACTOR/ADDRESS_CONTRACTOR/ADDRESS</t>
+    <t>AWARD_CONTRACT/AWARDED_CONTRACT/CONTRACTORS/CONTRACTOR/ADDRESS_CONTRACTOR/ADDRESS
+AWARD_CONTRACT/AWARDED_CONTRACT/CONTRACTOR/ADDRESS_CONTRACTOR/ADDRESS</t>
   </si>
   <si>
     <r>
@@ -4853,7 +4882,8 @@
     <t>V.2.3.4</t>
   </si>
   <si>
-    <t>AWARD_CONTRACT/AWARDED_CONTRACT/CONTRACTORS/CONTRACTOR/ADDRESS_CONTRACTOR/TOWN</t>
+    <t>AWARD_CONTRACT/AWARDED_CONTRACT/CONTRACTORS/CONTRACTOR/ADDRESS_CONTRACTOR/TOWN
+AWARD_CONTRACT/AWARDED_CONTRACT/CONTRACTOR/ADDRESS_CONTRACTOR/TOWN</t>
   </si>
   <si>
     <r>
@@ -4898,10 +4928,12 @@
     <t>V.2.3.5</t>
   </si>
   <si>
-    <t>AWARD_CONTRACT/AWARDED_CONTRACT/CONTRACTORS/CONTRACTOR/ADDRESS_CONTRACTOR/NUTS/@CODE</t>
-  </si>
-  <si>
-    <t>AWARD_CONTRACT/AWARDED_CONTRACT/CONTRACTORS/CONTRACTOR/ADDRESS_CONTRACTOR/*:NUTS/@CODE</t>
+    <t>AWARD_CONTRACT/AWARDED_CONTRACT/CONTRACTORS/CONTRACTOR/ADDRESS_CONTRACTOR/NUTS/@CODE
+AWARD_CONTRACT/AWARDED_CONTRACT/CONTRACTOR/ADDRESS_CONTRACTOR/NUTS/@CODE</t>
+  </si>
+  <si>
+    <t>AWARD_CONTRACT/AWARDED_CONTRACT/CONTRACTORS/CONTRACTOR/ADDRESS_CONTRACTOR/*:NUTS/@CODE
+AWARD_CONTRACT/AWARDED_CONTRACT/CONTRACTOR/ADDRESS_CONTRACTOR/*:NUTS/@CODE</t>
   </si>
   <si>
     <r>
@@ -4949,7 +4981,8 @@
     <t>Organisation Post Code</t>
   </si>
   <si>
-    <t>AWARD_CONTRACT/AWARDED_CONTRACT/CONTRACTORS/CONTRACTOR/ADDRESS_CONTRACTOR/POSTAL_CODE</t>
+    <t>AWARD_CONTRACT/AWARDED_CONTRACT/CONTRACTORS/CONTRACTOR/ADDRESS_CONTRACTOR/POSTAL_CODE
+AWARD_CONTRACT/AWARDED_CONTRACT/CONTRACTOR/ADDRESS_CONTRACTOR/POSTAL_CODE</t>
   </si>
   <si>
     <r>
@@ -4994,7 +5027,8 @@
     <t>V.2.3.7</t>
   </si>
   <si>
-    <t>AWARD_CONTRACT/AWARDED_CONTRACT/CONTRACTORS/CONTRACTOR/ADDRESS_CONTRACTOR/COUNTRY</t>
+    <t>AWARD_CONTRACT/AWARDED_CONTRACT/CONTRACTORS/CONTRACTOR/ADDRESS_CONTRACTOR/COUNTRY
+AWARD_CONTRACT/AWARDED_CONTRACT/CONTRACTOR/ADDRESS_CONTRACTOR/COUNTRY</t>
   </si>
   <si>
     <r>
@@ -5039,7 +5073,8 @@
     <t>V.2.3.8</t>
   </si>
   <si>
-    <t>AWARD_CONTRACT/AWARDED_CONTRACT/CONTRACTORS/CONTRACTOR/ADDRESS_CONTRACTOR/E_MAIL</t>
+    <t>AWARD_CONTRACT/AWARDED_CONTRACT/CONTRACTORS/CONTRACTOR/ADDRESS_CONTRACTOR/E_MAIL
+AWARD_CONTRACT/AWARDED_CONTRACT/CONTRACTOR/ADDRESS_CONTRACTOR/E_MAIL</t>
   </si>
   <si>
     <t>epo:AgentInRole (from CL1) / org:Organization (from CL2) / cpov:ContactPoint / xsd:anyURI</t>
@@ -5051,7 +5086,8 @@
     <t>V.2.3.9</t>
   </si>
   <si>
-    <t>AWARD_CONTRACT/AWARDED_CONTRACT/CONTRACTORS/CONTRACTOR/ADDRESS_CONTRACTOR/PHONE</t>
+    <t>AWARD_CONTRACT/AWARDED_CONTRACT/CONTRACTORS/CONTRACTOR/ADDRESS_CONTRACTOR/PHONE
+AWARD_CONTRACT/AWARDED_CONTRACT/CONTRACTOR/ADDRESS_CONTRACTOR/PHONE</t>
   </si>
   <si>
     <t>epo:AgentInRole (from CL1) / org:Organization (from CL2) / cpov:ContactPoint / rdf:langString</t>
@@ -5066,7 +5102,8 @@
     <t>Internet Addresses (URL)</t>
   </si>
   <si>
-    <t>AWARD_CONTRACT/AWARDED_CONTRACT/CONTRACTORS/CONTRACTOR/ADDRESS_CONTRACTOR/URL</t>
+    <t>AWARD_CONTRACT/AWARDED_CONTRACT/CONTRACTORS/CONTRACTOR/ADDRESS_CONTRACTOR/URL
+AWARD_CONTRACT/AWARDED_CONTRACT/CONTRACTOR/ADDRESS_CONTRACTOR/URL</t>
   </si>
   <si>
     <r>
@@ -5096,7 +5133,8 @@
     <t>V.2.3.11</t>
   </si>
   <si>
-    <t>AWARD_CONTRACT/AWARDED_CONTRACT/CONTRACTORS/CONTRACTOR/ADDRESS_CONTRACTOR/FAX</t>
+    <t>AWARD_CONTRACT/AWARDED_CONTRACT/CONTRACTORS/CONTRACTOR/ADDRESS_CONTRACTOR/FAX
+AWARD_CONTRACT/AWARDED_CONTRACT/CONTRACTOR/ADDRESS_CONTRACTOR/FAX</t>
   </si>
   <si>
     <t>?this epo:playedBy / epo:hasPrimaryContactPoint / epo:hasFax ?value .</t>
@@ -5114,7 +5152,8 @@
     <t>Winner Size</t>
   </si>
   <si>
-    <t>AWARD_CONTRACT/AWARDED_CONTRACT/CONTRACTORS/CONTRACTOR/SME</t>
+    <t>AWARD_CONTRACT/AWARDED_CONTRACT/CONTRACTORS/CONTRACTOR/SME
+AWARD_CONTRACT/AWARDED_CONTRACT/CONTRACTOR/SME</t>
   </si>
   <si>
     <t>epo:AgentInRole (from CL1) / org:Organization (from CL2)  / at-voc:economic-operator-size</t>
@@ -5164,7 +5203,9 @@
     <t>Initial estimated total value of the contract/lot</t>
   </si>
   <si>
-    <t>AWARD_CONTRACT/AWARDED_CONTRACT/VALUES/VAL_ESTIMATED_TOTAL</t>
+    <t>AWARD_CONTRACT/AWARDED_CONTRACT/VALUES/VAL_ESTIMATED_TOTAL
+AWARD_CONTRACT/AWARDED_CONTRACT/VALUE/VAL_ESTIMATED_TOTAL
+AWARD_CONTRACT/AWARDED_CONTRACT/VAL_ESTIMATED_TOTAL</t>
   </si>
   <si>
     <r>
@@ -5209,7 +5250,9 @@
     <t>V.2.4.1.1</t>
   </si>
   <si>
-    <t>AWARD_CONTRACT/AWARDED_CONTRACT/VALUES/VAL_ESTIMATED_TOTAL/@CURRENCY</t>
+    <t>AWARD_CONTRACT/AWARDED_CONTRACT/VALUES/VAL_ESTIMATED_TOTAL/@CURRENCY
+AWARD_CONTRACT/AWARDED_CONTRACT/VALUE/VAL_ESTIMATED_TOTAL/@CURRENCY
+AWARD_CONTRACT/AWARDED_CONTRACT/VAL_ESTIMATED_TOTAL/@CURRENCY</t>
   </si>
   <si>
     <t>epo:Lot / epo:MonetaryValue / at-voc:currency (from currency.json)</t>
@@ -5266,7 +5309,9 @@
     <t>Tender Value</t>
   </si>
   <si>
-    <t>AWARD_CONTRACT/AWARDED_CONTRACT/VALUES/VAL_TOTAL</t>
+    <t>AWARD_CONTRACT/AWARDED_CONTRACT/VALUES/VAL_TOTAL
+AWARD_CONTRACT/AWARDED_CONTRACT/VALUE/VAL_TOTAL
+AWARD_CONTRACT/AWARDED_CONTRACT/VAL_TOTAL</t>
   </si>
   <si>
     <t>epo:LotAwardOutcome / epo:MonetaryValue / xsd:decimal</t>
@@ -5307,7 +5352,9 @@
     <t>V.2.4.2.1</t>
   </si>
   <si>
-    <t>AWARD_CONTRACT/AWARDED_CONTRACT/VALUES/VAL_TOTAL/@CURRENCY</t>
+    <t>AWARD_CONTRACT/AWARDED_CONTRACT/VALUES/VAL_TOTAL/@CURRENCY
+AWARD_CONTRACT/AWARDED_CONTRACT/VALUE/VAL_TOTAL/@CURRENCY
+AWARD_CONTRACT/AWARDED_CONTRACT/VAL_TOTAL/@CURRENCY</t>
   </si>
   <si>
     <t>epo:LotAwardOutcome / epo:MonetaryValue / at-voc:currency (from currency.json)</t>
@@ -6740,6 +6787,9 @@
       </rPr>
       <t>value</t>
     </r>
+  </si>
+  <si>
+    <t>iss_gh_map275_language_tag_exists.ask.rq</t>
   </si>
   <si>
     <t>see BT-557 | BT-157</t>
@@ -7597,6 +7647,9 @@
     <xf borderId="0" fillId="7" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
+    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
     <xf borderId="7" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
@@ -7637,6 +7690,9 @@
     <xf borderId="0" fillId="11" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
     <xf borderId="0" fillId="12" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
@@ -7668,9 +7724,6 @@
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="7" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="9" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -7715,6 +7768,9 @@
     <xf borderId="7" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
+    <xf borderId="7" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
     <xf borderId="0" fillId="7" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
@@ -7732,9 +7788,6 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="6" fontId="13" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
@@ -7763,6 +7816,9 @@
     <xf borderId="0" fillId="15" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="bottom"/>
     </xf>
+    <xf borderId="0" fillId="4" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
     <xf borderId="0" fillId="9" fontId="12" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="bottom"/>
     </xf>
@@ -7770,9 +7826,6 @@
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="4" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -7851,9 +7904,6 @@
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="8" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="7" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="10" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
@@ -11503,7 +11553,9 @@
       <c r="H3" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="I3" s="4"/>
+      <c r="I3" s="4" t="s">
+        <v>47</v>
+      </c>
       <c r="J3" s="4"/>
       <c r="K3" s="7"/>
       <c r="L3" s="28"/>
@@ -11516,10 +11568,10 @@
     </row>
     <row r="4">
       <c r="A4" s="33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B4" s="34" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
@@ -11540,22 +11592,22 @@
     </row>
     <row r="5">
       <c r="A5" s="37" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B5" s="38" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
       <c r="E5" s="39" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="40" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H5" s="36" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
@@ -11570,28 +11622,30 @@
     </row>
     <row r="6">
       <c r="A6" s="41" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B6" s="42" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C6" s="43" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D6" s="43" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E6" s="43" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F6" s="43"/>
       <c r="G6" s="43" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H6" s="43" t="s">
-        <v>60</v>
-      </c>
-      <c r="I6" s="4"/>
+        <v>61</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>62</v>
+      </c>
       <c r="J6" s="4"/>
       <c r="K6" s="7"/>
       <c r="L6" s="28"/>
@@ -11604,28 +11658,30 @@
     </row>
     <row r="7">
       <c r="A7" s="44" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B7" s="42" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C7" s="45" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D7" s="45" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E7" s="45" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F7" s="45"/>
       <c r="G7" s="45" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="H7" s="45" t="s">
-        <v>67</v>
-      </c>
-      <c r="I7" s="4"/>
+        <v>69</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>70</v>
+      </c>
       <c r="J7" s="4"/>
       <c r="K7" s="7"/>
       <c r="L7" s="28"/>
@@ -11638,26 +11694,26 @@
     </row>
     <row r="8">
       <c r="A8" s="46" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B8" s="47" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="H8" s="39" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
@@ -11672,26 +11728,26 @@
     </row>
     <row r="9">
       <c r="A9" s="48" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B9" s="47" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="F9" s="4"/>
       <c r="G9" s="4" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="H9" s="39" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
@@ -11706,28 +11762,28 @@
     </row>
     <row r="10">
       <c r="A10" s="48" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B10" s="47" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C10" s="36" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D10" s="36" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="G10" s="36" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="H10" s="49" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
@@ -11742,26 +11798,26 @@
     </row>
     <row r="11">
       <c r="A11" s="48" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B11" s="47" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="F11" s="4"/>
       <c r="G11" s="4" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="H11" s="39" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
@@ -11776,26 +11832,26 @@
     </row>
     <row r="12">
       <c r="A12" s="44" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B12" s="42" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C12" s="43" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D12" s="43" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="E12" s="43" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="F12" s="43"/>
       <c r="G12" s="43" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="H12" s="45" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
@@ -11810,28 +11866,30 @@
     </row>
     <row r="13">
       <c r="A13" s="48" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B13" s="47" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="F13" s="4"/>
       <c r="G13" s="36" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="H13" s="49" t="s">
-        <v>109</v>
-      </c>
-      <c r="I13" s="4"/>
+        <v>112</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>62</v>
+      </c>
       <c r="J13" s="4"/>
       <c r="K13" s="7"/>
       <c r="L13" s="28"/>
@@ -11844,26 +11902,26 @@
     </row>
     <row r="14">
       <c r="A14" s="48" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B14" s="47" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="F14" s="4"/>
       <c r="G14" s="36" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="H14" s="50" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
@@ -11878,26 +11936,26 @@
     </row>
     <row r="15">
       <c r="A15" s="46" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B15" s="47" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="F15" s="4"/>
       <c r="G15" s="36" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="H15" s="49" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
@@ -11912,26 +11970,26 @@
     </row>
     <row r="16">
       <c r="A16" s="48" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B16" s="47" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="F16" s="4"/>
       <c r="G16" s="36" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="H16" s="49" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
@@ -11946,10 +12004,10 @@
     </row>
     <row r="17">
       <c r="A17" s="46" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="B17" s="47" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
@@ -11970,26 +12028,26 @@
     </row>
     <row r="18">
       <c r="A18" s="51" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="B18" s="52" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C18" s="53" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="D18" s="43" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="E18" s="43" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="F18" s="43"/>
       <c r="G18" s="45" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="H18" s="45" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
@@ -12004,26 +12062,26 @@
     </row>
     <row r="19">
       <c r="A19" s="54" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B19" s="55" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="F19" s="4"/>
       <c r="G19" s="4" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="H19" s="49" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
@@ -12038,24 +12096,24 @@
     </row>
     <row r="20">
       <c r="A20" s="37" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="B20" s="38" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
       <c r="E20" s="56" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="F20" s="40" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="G20" s="40" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="H20" s="40" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
@@ -12070,24 +12128,24 @@
     </row>
     <row r="21">
       <c r="A21" s="46" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="B21" s="47" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="C21" s="49" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="D21" s="49"/>
       <c r="E21" s="49" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="F21" s="49"/>
       <c r="G21" s="49" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="H21" s="49" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="I21" s="4"/>
       <c r="J21" s="4"/>
@@ -12102,26 +12160,26 @@
     </row>
     <row r="22">
       <c r="A22" s="54" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="B22" s="55" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="C22" s="49" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="D22" s="49"/>
       <c r="E22" s="49" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="F22" s="49" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="G22" s="49" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="H22" s="49" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="I22" s="4"/>
       <c r="J22" s="4"/>
@@ -12136,92 +12194,92 @@
     </row>
     <row r="23">
       <c r="A23" s="46" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="B23" s="47" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="C23" s="49" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="D23" s="49"/>
       <c r="E23" s="49" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="F23" s="49"/>
       <c r="G23" s="49" t="s">
-        <v>154</v>
-      </c>
-      <c r="H23" s="49" t="s">
-        <v>166</v>
+        <v>157</v>
+      </c>
+      <c r="H23" s="57" t="s">
+        <v>169</v>
       </c>
       <c r="I23" s="4"/>
       <c r="J23" s="4"/>
       <c r="K23" s="7"/>
-      <c r="L23" s="57"/>
-      <c r="M23" s="57"/>
-      <c r="N23" s="57"/>
-      <c r="O23" s="57"/>
-      <c r="P23" s="57"/>
-      <c r="Q23" s="57"/>
-      <c r="R23" s="57"/>
-      <c r="S23" s="58"/>
-      <c r="T23" s="58"/>
-      <c r="U23" s="58"/>
-      <c r="V23" s="58"/>
-      <c r="W23" s="58"/>
-      <c r="X23" s="58"/>
-      <c r="Y23" s="58"/>
-      <c r="Z23" s="58"/>
+      <c r="L23" s="58"/>
+      <c r="M23" s="58"/>
+      <c r="N23" s="58"/>
+      <c r="O23" s="58"/>
+      <c r="P23" s="58"/>
+      <c r="Q23" s="58"/>
+      <c r="R23" s="58"/>
+      <c r="S23" s="59"/>
+      <c r="T23" s="59"/>
+      <c r="U23" s="59"/>
+      <c r="V23" s="59"/>
+      <c r="W23" s="59"/>
+      <c r="X23" s="59"/>
+      <c r="Y23" s="59"/>
+      <c r="Z23" s="59"/>
     </row>
     <row r="24">
       <c r="A24" s="54" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="B24" s="55" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="C24" s="36" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="D24" s="49"/>
-      <c r="E24" s="59" t="s">
-        <v>159</v>
+      <c r="E24" s="60" t="s">
+        <v>162</v>
       </c>
       <c r="F24" s="49" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="G24" s="49" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="H24" s="49" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="I24" s="4"/>
       <c r="J24" s="4"/>
       <c r="K24" s="7"/>
-      <c r="L24" s="57"/>
-      <c r="M24" s="57"/>
-      <c r="N24" s="57"/>
-      <c r="O24" s="57"/>
-      <c r="P24" s="57"/>
-      <c r="Q24" s="57"/>
-      <c r="R24" s="57"/>
-      <c r="S24" s="58"/>
-      <c r="T24" s="58"/>
-      <c r="U24" s="58"/>
-      <c r="V24" s="58"/>
-      <c r="W24" s="58"/>
-      <c r="X24" s="58"/>
-      <c r="Y24" s="58"/>
-      <c r="Z24" s="58"/>
+      <c r="L24" s="58"/>
+      <c r="M24" s="58"/>
+      <c r="N24" s="58"/>
+      <c r="O24" s="58"/>
+      <c r="P24" s="58"/>
+      <c r="Q24" s="58"/>
+      <c r="R24" s="58"/>
+      <c r="S24" s="59"/>
+      <c r="T24" s="59"/>
+      <c r="U24" s="59"/>
+      <c r="V24" s="59"/>
+      <c r="W24" s="59"/>
+      <c r="X24" s="59"/>
+      <c r="Y24" s="59"/>
+      <c r="Z24" s="59"/>
     </row>
     <row r="25">
       <c r="A25" s="46" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="B25" s="47" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="C25" s="49"/>
       <c r="D25" s="49"/>
@@ -12242,24 +12300,24 @@
     </row>
     <row r="26">
       <c r="A26" s="54" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="B26" s="55" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="D26" s="4"/>
       <c r="E26" s="4" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="F26" s="4"/>
       <c r="G26" s="40" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H26" s="40" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="I26" s="4"/>
       <c r="J26" s="4"/>
@@ -12273,25 +12331,25 @@
       <c r="R26" s="28"/>
     </row>
     <row r="27">
-      <c r="A27" s="60" t="s">
-        <v>174</v>
-      </c>
-      <c r="B27" s="61" t="s">
-        <v>175</v>
-      </c>
-      <c r="C27" s="62" t="s">
-        <v>176</v>
-      </c>
-      <c r="D27" s="62"/>
-      <c r="E27" s="63" t="s">
+      <c r="A27" s="61" t="s">
         <v>177</v>
+      </c>
+      <c r="B27" s="62" t="s">
+        <v>178</v>
+      </c>
+      <c r="C27" s="63" t="s">
+        <v>179</v>
+      </c>
+      <c r="D27" s="63"/>
+      <c r="E27" s="64" t="s">
+        <v>180</v>
       </c>
       <c r="F27" s="4"/>
       <c r="G27" s="40" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="H27" s="40" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="I27" s="4"/>
       <c r="J27" s="4"/>
@@ -12306,28 +12364,28 @@
     </row>
     <row r="28">
       <c r="A28" s="54" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="B28" s="55" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="D28" s="4"/>
       <c r="E28" s="4" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="F28" s="4"/>
-      <c r="G28" s="64" t="s">
-        <v>52</v>
-      </c>
-      <c r="H28" s="64" t="s">
-        <v>178</v>
+      <c r="G28" s="65" t="s">
+        <v>53</v>
+      </c>
+      <c r="H28" s="65" t="s">
+        <v>181</v>
       </c>
       <c r="I28" s="4"/>
       <c r="J28" s="4"/>
-      <c r="K28" s="65"/>
+      <c r="K28" s="66"/>
       <c r="L28" s="28"/>
       <c r="M28" s="28"/>
       <c r="N28" s="28"/>
@@ -12337,71 +12395,75 @@
       <c r="R28" s="28"/>
     </row>
     <row r="29">
-      <c r="A29" s="66" t="s">
-        <v>184</v>
-      </c>
-      <c r="B29" s="67" t="s">
-        <v>55</v>
+      <c r="A29" s="67" t="s">
+        <v>187</v>
+      </c>
+      <c r="B29" s="68" t="s">
+        <v>56</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="F29" s="4"/>
-      <c r="G29" s="64" t="s">
-        <v>59</v>
-      </c>
-      <c r="H29" s="68" t="s">
-        <v>186</v>
-      </c>
-      <c r="I29" s="4"/>
+      <c r="G29" s="65" t="s">
+        <v>60</v>
+      </c>
+      <c r="H29" s="69" t="s">
+        <v>189</v>
+      </c>
+      <c r="I29" s="39" t="s">
+        <v>62</v>
+      </c>
       <c r="J29" s="4"/>
       <c r="K29" s="7"/>
-      <c r="L29" s="57"/>
-      <c r="M29" s="57"/>
-      <c r="N29" s="57"/>
-      <c r="O29" s="57"/>
-      <c r="P29" s="57"/>
-      <c r="Q29" s="57"/>
-      <c r="R29" s="57"/>
-      <c r="S29" s="58"/>
-      <c r="T29" s="58"/>
-      <c r="U29" s="58"/>
-      <c r="V29" s="58"/>
-      <c r="W29" s="58"/>
-      <c r="X29" s="58"/>
-      <c r="Y29" s="58"/>
-      <c r="Z29" s="58"/>
+      <c r="L29" s="58"/>
+      <c r="M29" s="58"/>
+      <c r="N29" s="58"/>
+      <c r="O29" s="58"/>
+      <c r="P29" s="58"/>
+      <c r="Q29" s="58"/>
+      <c r="R29" s="58"/>
+      <c r="S29" s="59"/>
+      <c r="T29" s="59"/>
+      <c r="U29" s="59"/>
+      <c r="V29" s="59"/>
+      <c r="W29" s="59"/>
+      <c r="X29" s="59"/>
+      <c r="Y29" s="59"/>
+      <c r="Z29" s="59"/>
     </row>
     <row r="30">
-      <c r="A30" s="66" t="s">
-        <v>187</v>
-      </c>
-      <c r="B30" s="67" t="s">
-        <v>62</v>
+      <c r="A30" s="67" t="s">
+        <v>190</v>
+      </c>
+      <c r="B30" s="68" t="s">
+        <v>64</v>
       </c>
       <c r="C30" s="49" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D30" s="49" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E30" s="49" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="F30" s="49"/>
-      <c r="G30" s="64" t="s">
-        <v>66</v>
-      </c>
-      <c r="H30" s="68" t="s">
-        <v>189</v>
-      </c>
-      <c r="I30" s="4"/>
+      <c r="G30" s="65" t="s">
+        <v>68</v>
+      </c>
+      <c r="H30" s="69" t="s">
+        <v>192</v>
+      </c>
+      <c r="I30" s="39" t="s">
+        <v>70</v>
+      </c>
       <c r="J30" s="4"/>
       <c r="K30" s="7"/>
       <c r="L30" s="28"/>
@@ -12413,27 +12475,27 @@
       <c r="R30" s="28"/>
     </row>
     <row r="31">
-      <c r="A31" s="66" t="s">
-        <v>190</v>
-      </c>
-      <c r="B31" s="67" t="s">
-        <v>69</v>
+      <c r="A31" s="67" t="s">
+        <v>193</v>
+      </c>
+      <c r="B31" s="68" t="s">
+        <v>72</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="F31" s="4"/>
-      <c r="G31" s="64" t="s">
-        <v>73</v>
-      </c>
-      <c r="H31" s="68" t="s">
-        <v>192</v>
+      <c r="G31" s="65" t="s">
+        <v>76</v>
+      </c>
+      <c r="H31" s="69" t="s">
+        <v>195</v>
       </c>
       <c r="I31" s="4"/>
       <c r="J31" s="4"/>
@@ -12447,27 +12509,27 @@
       <c r="R31" s="28"/>
     </row>
     <row r="32">
-      <c r="A32" s="66" t="s">
-        <v>193</v>
-      </c>
-      <c r="B32" s="67" t="s">
+      <c r="A32" s="67" t="s">
+        <v>196</v>
+      </c>
+      <c r="B32" s="68" t="s">
+        <v>79</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="F32" s="4"/>
+      <c r="G32" s="65" t="s">
         <v>76</v>
       </c>
-      <c r="C32" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="E32" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="F32" s="4"/>
-      <c r="G32" s="64" t="s">
-        <v>73</v>
-      </c>
-      <c r="H32" s="68" t="s">
-        <v>195</v>
+      <c r="H32" s="69" t="s">
+        <v>198</v>
       </c>
       <c r="I32" s="4"/>
       <c r="J32" s="4"/>
@@ -12481,29 +12543,29 @@
       <c r="R32" s="28"/>
     </row>
     <row r="33">
-      <c r="A33" s="66" t="s">
-        <v>196</v>
-      </c>
-      <c r="B33" s="67" t="s">
-        <v>82</v>
+      <c r="A33" s="67" t="s">
+        <v>199</v>
+      </c>
+      <c r="B33" s="68" t="s">
+        <v>85</v>
       </c>
       <c r="C33" s="49" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D33" s="49" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="E33" s="39" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="F33" s="39" t="s">
-        <v>198</v>
-      </c>
-      <c r="G33" s="64" t="s">
-        <v>87</v>
-      </c>
-      <c r="H33" s="68" t="s">
-        <v>199</v>
+        <v>201</v>
+      </c>
+      <c r="G33" s="65" t="s">
+        <v>90</v>
+      </c>
+      <c r="H33" s="69" t="s">
+        <v>202</v>
       </c>
       <c r="I33" s="4"/>
       <c r="J33" s="4"/>
@@ -12517,27 +12579,27 @@
       <c r="R33" s="28"/>
     </row>
     <row r="34">
-      <c r="A34" s="66" t="s">
-        <v>200</v>
-      </c>
-      <c r="B34" s="67" t="s">
-        <v>90</v>
+      <c r="A34" s="67" t="s">
+        <v>203</v>
+      </c>
+      <c r="B34" s="68" t="s">
+        <v>93</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="F34" s="4"/>
-      <c r="G34" s="64" t="s">
-        <v>94</v>
-      </c>
-      <c r="H34" s="68" t="s">
-        <v>202</v>
+      <c r="G34" s="65" t="s">
+        <v>97</v>
+      </c>
+      <c r="H34" s="69" t="s">
+        <v>205</v>
       </c>
       <c r="I34" s="4"/>
       <c r="J34" s="4"/>
@@ -12551,71 +12613,73 @@
       <c r="R34" s="28"/>
     </row>
     <row r="35">
-      <c r="A35" s="66" t="s">
-        <v>203</v>
-      </c>
-      <c r="B35" s="67" t="s">
-        <v>97</v>
+      <c r="A35" s="67" t="s">
+        <v>206</v>
+      </c>
+      <c r="B35" s="68" t="s">
+        <v>100</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="F35" s="4"/>
-      <c r="G35" s="69" t="s">
-        <v>101</v>
-      </c>
-      <c r="H35" s="70" t="s">
-        <v>205</v>
+      <c r="G35" s="70" t="s">
+        <v>104</v>
+      </c>
+      <c r="H35" s="71" t="s">
+        <v>208</v>
       </c>
       <c r="I35" s="4"/>
       <c r="J35" s="4"/>
       <c r="K35" s="7"/>
-      <c r="L35" s="57"/>
-      <c r="M35" s="57"/>
-      <c r="N35" s="57"/>
-      <c r="O35" s="57"/>
-      <c r="P35" s="57"/>
-      <c r="Q35" s="57"/>
-      <c r="R35" s="57"/>
-      <c r="S35" s="58"/>
-      <c r="T35" s="58"/>
-      <c r="U35" s="58"/>
-      <c r="V35" s="58"/>
-      <c r="W35" s="58"/>
-      <c r="X35" s="58"/>
-      <c r="Y35" s="58"/>
-      <c r="Z35" s="58"/>
+      <c r="L35" s="58"/>
+      <c r="M35" s="58"/>
+      <c r="N35" s="58"/>
+      <c r="O35" s="58"/>
+      <c r="P35" s="58"/>
+      <c r="Q35" s="58"/>
+      <c r="R35" s="58"/>
+      <c r="S35" s="59"/>
+      <c r="T35" s="59"/>
+      <c r="U35" s="59"/>
+      <c r="V35" s="59"/>
+      <c r="W35" s="59"/>
+      <c r="X35" s="59"/>
+      <c r="Y35" s="59"/>
+      <c r="Z35" s="59"/>
     </row>
     <row r="36">
-      <c r="A36" s="66" t="s">
-        <v>206</v>
-      </c>
-      <c r="B36" s="67" t="s">
-        <v>104</v>
+      <c r="A36" s="67" t="s">
+        <v>209</v>
+      </c>
+      <c r="B36" s="68" t="s">
+        <v>107</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="F36" s="4"/>
-      <c r="G36" s="64" t="s">
-        <v>108</v>
-      </c>
-      <c r="H36" s="68" t="s">
-        <v>208</v>
-      </c>
-      <c r="I36" s="7"/>
+      <c r="G36" s="65" t="s">
+        <v>111</v>
+      </c>
+      <c r="H36" s="69" t="s">
+        <v>211</v>
+      </c>
+      <c r="I36" s="72" t="s">
+        <v>62</v>
+      </c>
       <c r="J36" s="7"/>
       <c r="K36" s="7"/>
       <c r="L36" s="28"/>
@@ -12627,27 +12691,27 @@
       <c r="R36" s="28"/>
     </row>
     <row r="37">
-      <c r="A37" s="66" t="s">
-        <v>209</v>
-      </c>
-      <c r="B37" s="71" t="s">
+      <c r="A37" s="67" t="s">
+        <v>212</v>
+      </c>
+      <c r="B37" s="73" t="s">
+        <v>114</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="F37" s="7"/>
+      <c r="G37" s="70" t="s">
         <v>111</v>
       </c>
-      <c r="C37" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="D37" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="E37" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="F37" s="7"/>
-      <c r="G37" s="69" t="s">
-        <v>108</v>
-      </c>
-      <c r="H37" s="70" t="s">
-        <v>211</v>
+      <c r="H37" s="71" t="s">
+        <v>214</v>
       </c>
       <c r="I37" s="7"/>
       <c r="J37" s="7"/>
@@ -12661,27 +12725,27 @@
       <c r="R37" s="28"/>
     </row>
     <row r="38">
-      <c r="A38" s="66" t="s">
-        <v>212</v>
-      </c>
-      <c r="B38" s="67" t="s">
-        <v>117</v>
+      <c r="A38" s="67" t="s">
+        <v>215</v>
+      </c>
+      <c r="B38" s="68" t="s">
+        <v>120</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="F38" s="4"/>
-      <c r="G38" s="64" t="s">
-        <v>121</v>
-      </c>
-      <c r="H38" s="68" t="s">
-        <v>214</v>
+      <c r="G38" s="65" t="s">
+        <v>124</v>
+      </c>
+      <c r="H38" s="69" t="s">
+        <v>217</v>
       </c>
       <c r="I38" s="7"/>
       <c r="J38" s="7"/>
@@ -12695,27 +12759,27 @@
       <c r="R38" s="28"/>
     </row>
     <row r="39">
-      <c r="A39" s="66" t="s">
-        <v>215</v>
-      </c>
-      <c r="B39" s="67" t="s">
-        <v>124</v>
+      <c r="A39" s="67" t="s">
+        <v>218</v>
+      </c>
+      <c r="B39" s="68" t="s">
+        <v>127</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="F39" s="4"/>
-      <c r="G39" s="64" t="s">
-        <v>108</v>
-      </c>
-      <c r="H39" s="68" t="s">
-        <v>217</v>
+      <c r="G39" s="65" t="s">
+        <v>111</v>
+      </c>
+      <c r="H39" s="69" t="s">
+        <v>220</v>
       </c>
       <c r="I39" s="7"/>
       <c r="J39" s="7"/>
@@ -12729,11 +12793,11 @@
       <c r="R39" s="28"/>
     </row>
     <row r="40">
-      <c r="A40" s="66" t="s">
-        <v>218</v>
-      </c>
-      <c r="B40" s="67" t="s">
-        <v>130</v>
+      <c r="A40" s="67" t="s">
+        <v>221</v>
+      </c>
+      <c r="B40" s="68" t="s">
+        <v>133</v>
       </c>
       <c r="C40" s="4"/>
       <c r="D40" s="4"/>
@@ -12744,48 +12808,48 @@
       <c r="I40" s="7"/>
       <c r="J40" s="7"/>
       <c r="K40" s="7"/>
-      <c r="L40" s="57"/>
-      <c r="M40" s="57"/>
-      <c r="N40" s="57"/>
-      <c r="O40" s="57"/>
-      <c r="P40" s="57"/>
-      <c r="Q40" s="57"/>
-      <c r="R40" s="57"/>
-      <c r="S40" s="58"/>
-      <c r="T40" s="58"/>
-      <c r="U40" s="58"/>
-      <c r="V40" s="58"/>
-      <c r="W40" s="58"/>
-      <c r="X40" s="58"/>
-      <c r="Y40" s="58"/>
-      <c r="Z40" s="58"/>
+      <c r="L40" s="58"/>
+      <c r="M40" s="58"/>
+      <c r="N40" s="58"/>
+      <c r="O40" s="58"/>
+      <c r="P40" s="58"/>
+      <c r="Q40" s="58"/>
+      <c r="R40" s="58"/>
+      <c r="S40" s="59"/>
+      <c r="T40" s="59"/>
+      <c r="U40" s="59"/>
+      <c r="V40" s="59"/>
+      <c r="W40" s="59"/>
+      <c r="X40" s="59"/>
+      <c r="Y40" s="59"/>
+      <c r="Z40" s="59"/>
     </row>
     <row r="41">
-      <c r="A41" s="72" t="s">
-        <v>219</v>
+      <c r="A41" s="74" t="s">
+        <v>222</v>
       </c>
       <c r="B41" s="43" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C41" s="53" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="D41" s="43" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="E41" s="43" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="F41" s="43"/>
-      <c r="G41" s="73" t="s">
-        <v>121</v>
-      </c>
-      <c r="H41" s="73" t="s">
-        <v>221</v>
-      </c>
-      <c r="I41" s="65"/>
-      <c r="J41" s="65"/>
-      <c r="K41" s="65"/>
+      <c r="G41" s="75" t="s">
+        <v>124</v>
+      </c>
+      <c r="H41" s="75" t="s">
+        <v>224</v>
+      </c>
+      <c r="I41" s="66"/>
+      <c r="J41" s="66"/>
+      <c r="K41" s="66"/>
       <c r="L41" s="28"/>
       <c r="M41" s="28"/>
       <c r="N41" s="28"/>
@@ -12795,27 +12859,27 @@
       <c r="R41" s="28"/>
     </row>
     <row r="42">
-      <c r="A42" s="74" t="s">
-        <v>222</v>
+      <c r="A42" s="76" t="s">
+        <v>225</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="E42" s="39" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="F42" s="4"/>
-      <c r="G42" s="64" t="s">
-        <v>142</v>
-      </c>
-      <c r="H42" s="64" t="s">
-        <v>224</v>
+      <c r="G42" s="65" t="s">
+        <v>145</v>
+      </c>
+      <c r="H42" s="65" t="s">
+        <v>227</v>
       </c>
       <c r="I42" s="7"/>
       <c r="J42" s="7"/>
@@ -12830,10 +12894,10 @@
     </row>
     <row r="43">
       <c r="A43" s="46" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="B43" s="47" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="C43" s="4"/>
       <c r="D43" s="4"/>
@@ -12854,24 +12918,24 @@
     </row>
     <row r="44">
       <c r="A44" s="54" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="B44" s="55" t="s">
-        <v>228</v>
-      </c>
-      <c r="C44" s="75" t="s">
-        <v>229</v>
-      </c>
-      <c r="D44" s="76"/>
+        <v>231</v>
+      </c>
+      <c r="C44" s="77" t="s">
+        <v>232</v>
+      </c>
+      <c r="D44" s="78"/>
       <c r="E44" s="40" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="F44" s="40"/>
       <c r="G44" s="40" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="H44" s="40" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="I44" s="7"/>
       <c r="J44" s="7"/>
@@ -12886,24 +12950,24 @@
     </row>
     <row r="45">
       <c r="A45" s="54" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="B45" s="55" t="s">
-        <v>234</v>
-      </c>
-      <c r="C45" s="75" t="s">
-        <v>235</v>
-      </c>
-      <c r="D45" s="76"/>
+        <v>237</v>
+      </c>
+      <c r="C45" s="77" t="s">
+        <v>238</v>
+      </c>
+      <c r="D45" s="78"/>
       <c r="E45" s="40" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="F45" s="40"/>
       <c r="G45" s="40" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H45" s="40" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="I45" s="7"/>
       <c r="J45" s="7"/>
@@ -12917,28 +12981,28 @@
       <c r="R45" s="28"/>
     </row>
     <row r="46">
-      <c r="A46" s="77" t="s">
-        <v>233</v>
-      </c>
-      <c r="B46" s="78" t="s">
-        <v>234</v>
-      </c>
-      <c r="C46" s="79"/>
-      <c r="D46" s="79"/>
-      <c r="E46" s="80" t="s">
+      <c r="A46" s="79" t="s">
         <v>236</v>
       </c>
-      <c r="F46" s="81"/>
-      <c r="G46" s="81" t="s">
-        <v>179</v>
-      </c>
-      <c r="H46" s="81" t="s">
-        <v>180</v>
+      <c r="B46" s="80" t="s">
+        <v>237</v>
+      </c>
+      <c r="C46" s="81"/>
+      <c r="D46" s="81"/>
+      <c r="E46" s="82" t="s">
+        <v>239</v>
+      </c>
+      <c r="F46" s="83"/>
+      <c r="G46" s="83" t="s">
+        <v>182</v>
+      </c>
+      <c r="H46" s="83" t="s">
+        <v>183</v>
       </c>
       <c r="I46" s="7"/>
       <c r="J46" s="7"/>
-      <c r="K46" s="82" t="s">
-        <v>237</v>
+      <c r="K46" s="72" t="s">
+        <v>240</v>
       </c>
       <c r="L46" s="28"/>
       <c r="M46" s="28"/>
@@ -12950,24 +13014,24 @@
     </row>
     <row r="47">
       <c r="A47" s="54" t="s">
+        <v>241</v>
+      </c>
+      <c r="B47" s="55" t="s">
+        <v>242</v>
+      </c>
+      <c r="C47" s="77" t="s">
         <v>238</v>
       </c>
-      <c r="B47" s="55" t="s">
-        <v>239</v>
-      </c>
-      <c r="C47" s="75" t="s">
-        <v>235</v>
-      </c>
-      <c r="D47" s="76"/>
+      <c r="D47" s="78"/>
       <c r="E47" s="40" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="F47" s="40"/>
       <c r="G47" s="40" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H47" s="40" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="I47" s="4"/>
       <c r="J47" s="4"/>
@@ -12981,29 +13045,31 @@
       <c r="R47" s="28"/>
     </row>
     <row r="48">
-      <c r="A48" s="66" t="s">
-        <v>241</v>
-      </c>
-      <c r="B48" s="67" t="s">
-        <v>55</v>
-      </c>
-      <c r="C48" s="75" t="s">
+      <c r="A48" s="67" t="s">
+        <v>244</v>
+      </c>
+      <c r="B48" s="68" t="s">
         <v>56</v>
       </c>
+      <c r="C48" s="77" t="s">
+        <v>57</v>
+      </c>
       <c r="D48" s="55" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E48" s="40" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="F48" s="40"/>
       <c r="G48" s="40" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H48" s="40" t="s">
-        <v>243</v>
-      </c>
-      <c r="I48" s="4"/>
+        <v>246</v>
+      </c>
+      <c r="I48" s="39" t="s">
+        <v>62</v>
+      </c>
       <c r="J48" s="4"/>
       <c r="K48" s="7"/>
       <c r="L48" s="28"/>
@@ -13015,69 +13081,71 @@
       <c r="R48" s="28"/>
     </row>
     <row r="49">
-      <c r="A49" s="66" t="s">
-        <v>244</v>
-      </c>
-      <c r="B49" s="67" t="s">
-        <v>62</v>
-      </c>
-      <c r="C49" s="75" t="s">
-        <v>63</v>
+      <c r="A49" s="67" t="s">
+        <v>247</v>
+      </c>
+      <c r="B49" s="68" t="s">
+        <v>64</v>
+      </c>
+      <c r="C49" s="77" t="s">
+        <v>65</v>
       </c>
       <c r="D49" s="55" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E49" s="40" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="F49" s="40"/>
       <c r="G49" s="40" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="H49" s="40" t="s">
-        <v>246</v>
-      </c>
-      <c r="I49" s="7"/>
+        <v>249</v>
+      </c>
+      <c r="I49" s="72" t="s">
+        <v>70</v>
+      </c>
       <c r="J49" s="7"/>
       <c r="K49" s="7"/>
-      <c r="L49" s="57"/>
-      <c r="M49" s="57"/>
-      <c r="N49" s="57"/>
-      <c r="O49" s="57"/>
-      <c r="P49" s="57"/>
-      <c r="Q49" s="57"/>
-      <c r="R49" s="57"/>
-      <c r="S49" s="58"/>
-      <c r="T49" s="58"/>
-      <c r="U49" s="58"/>
-      <c r="V49" s="58"/>
-      <c r="W49" s="58"/>
-      <c r="X49" s="58"/>
-      <c r="Y49" s="58"/>
-      <c r="Z49" s="58"/>
+      <c r="L49" s="58"/>
+      <c r="M49" s="58"/>
+      <c r="N49" s="58"/>
+      <c r="O49" s="58"/>
+      <c r="P49" s="58"/>
+      <c r="Q49" s="58"/>
+      <c r="R49" s="58"/>
+      <c r="S49" s="59"/>
+      <c r="T49" s="59"/>
+      <c r="U49" s="59"/>
+      <c r="V49" s="59"/>
+      <c r="W49" s="59"/>
+      <c r="X49" s="59"/>
+      <c r="Y49" s="59"/>
+      <c r="Z49" s="59"/>
     </row>
     <row r="50">
-      <c r="A50" s="66" t="s">
-        <v>247</v>
-      </c>
-      <c r="B50" s="67" t="s">
-        <v>69</v>
-      </c>
-      <c r="C50" s="75" t="s">
-        <v>70</v>
+      <c r="A50" s="67" t="s">
+        <v>250</v>
+      </c>
+      <c r="B50" s="68" t="s">
+        <v>72</v>
+      </c>
+      <c r="C50" s="77" t="s">
+        <v>73</v>
       </c>
       <c r="D50" s="55" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E50" s="40" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="F50" s="40"/>
       <c r="G50" s="40" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="H50" s="40" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="I50" s="7"/>
       <c r="J50" s="7"/>
@@ -13091,27 +13159,27 @@
       <c r="R50" s="28"/>
     </row>
     <row r="51">
-      <c r="A51" s="66" t="s">
-        <v>250</v>
-      </c>
-      <c r="B51" s="67" t="s">
-        <v>76</v>
-      </c>
-      <c r="C51" s="75" t="s">
-        <v>77</v>
+      <c r="A51" s="67" t="s">
+        <v>253</v>
+      </c>
+      <c r="B51" s="68" t="s">
+        <v>79</v>
+      </c>
+      <c r="C51" s="77" t="s">
+        <v>80</v>
       </c>
       <c r="D51" s="55" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="E51" s="40" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="F51" s="40"/>
       <c r="G51" s="40" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="H51" s="40" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="I51" s="7"/>
       <c r="J51" s="7"/>
@@ -13125,29 +13193,29 @@
       <c r="R51" s="28"/>
     </row>
     <row r="52">
-      <c r="A52" s="66" t="s">
-        <v>253</v>
-      </c>
-      <c r="B52" s="67" t="s">
-        <v>82</v>
-      </c>
-      <c r="C52" s="75" t="s">
-        <v>83</v>
+      <c r="A52" s="67" t="s">
+        <v>256</v>
+      </c>
+      <c r="B52" s="68" t="s">
+        <v>85</v>
+      </c>
+      <c r="C52" s="77" t="s">
+        <v>86</v>
       </c>
       <c r="D52" s="55" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="E52" s="40" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="F52" s="40" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="G52" s="40" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="H52" s="40" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="I52" s="7"/>
       <c r="J52" s="7"/>
@@ -13161,27 +13229,27 @@
       <c r="R52" s="28"/>
     </row>
     <row r="53">
-      <c r="A53" s="66" t="s">
-        <v>257</v>
-      </c>
-      <c r="B53" s="67" t="s">
-        <v>90</v>
-      </c>
-      <c r="C53" s="75" t="s">
-        <v>91</v>
-      </c>
-      <c r="D53" s="83" t="s">
-        <v>92</v>
+      <c r="A53" s="67" t="s">
+        <v>260</v>
+      </c>
+      <c r="B53" s="68" t="s">
+        <v>93</v>
+      </c>
+      <c r="C53" s="77" t="s">
+        <v>94</v>
+      </c>
+      <c r="D53" s="84" t="s">
+        <v>95</v>
       </c>
       <c r="E53" s="40" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="F53" s="40"/>
       <c r="G53" s="40" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="H53" s="40" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="I53" s="7"/>
       <c r="J53" s="7"/>
@@ -13195,27 +13263,27 @@
       <c r="R53" s="28"/>
     </row>
     <row r="54">
-      <c r="A54" s="66" t="s">
-        <v>260</v>
-      </c>
-      <c r="B54" s="67" t="s">
-        <v>97</v>
-      </c>
-      <c r="C54" s="84" t="s">
-        <v>98</v>
-      </c>
-      <c r="D54" s="83" t="s">
-        <v>99</v>
+      <c r="A54" s="67" t="s">
+        <v>263</v>
+      </c>
+      <c r="B54" s="68" t="s">
+        <v>100</v>
+      </c>
+      <c r="C54" s="85" t="s">
+        <v>101</v>
+      </c>
+      <c r="D54" s="84" t="s">
+        <v>102</v>
       </c>
       <c r="E54" s="40" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="F54" s="40"/>
-      <c r="G54" s="81" t="s">
-        <v>101</v>
-      </c>
-      <c r="H54" s="81" t="s">
-        <v>262</v>
+      <c r="G54" s="83" t="s">
+        <v>104</v>
+      </c>
+      <c r="H54" s="83" t="s">
+        <v>265</v>
       </c>
       <c r="I54" s="7"/>
       <c r="J54" s="7"/>
@@ -13229,29 +13297,31 @@
       <c r="R54" s="28"/>
     </row>
     <row r="55">
-      <c r="A55" s="66" t="s">
-        <v>263</v>
-      </c>
-      <c r="B55" s="67" t="s">
-        <v>104</v>
-      </c>
-      <c r="C55" s="75" t="s">
-        <v>105</v>
-      </c>
-      <c r="D55" s="83" t="s">
-        <v>106</v>
+      <c r="A55" s="67" t="s">
+        <v>266</v>
+      </c>
+      <c r="B55" s="68" t="s">
+        <v>107</v>
+      </c>
+      <c r="C55" s="77" t="s">
+        <v>108</v>
+      </c>
+      <c r="D55" s="84" t="s">
+        <v>109</v>
       </c>
       <c r="E55" s="40" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="F55" s="40"/>
-      <c r="G55" s="81" t="s">
-        <v>108</v>
-      </c>
-      <c r="H55" s="81" t="s">
-        <v>265</v>
-      </c>
-      <c r="I55" s="7"/>
+      <c r="G55" s="83" t="s">
+        <v>111</v>
+      </c>
+      <c r="H55" s="83" t="s">
+        <v>268</v>
+      </c>
+      <c r="I55" s="72" t="s">
+        <v>62</v>
+      </c>
       <c r="J55" s="7"/>
       <c r="K55" s="7"/>
       <c r="L55" s="28"/>
@@ -13263,27 +13333,27 @@
       <c r="R55" s="28"/>
     </row>
     <row r="56">
-      <c r="A56" s="66" t="s">
-        <v>266</v>
-      </c>
-      <c r="B56" s="67" t="s">
-        <v>111</v>
-      </c>
-      <c r="C56" s="75" t="s">
-        <v>112</v>
+      <c r="A56" s="67" t="s">
+        <v>269</v>
+      </c>
+      <c r="B56" s="68" t="s">
+        <v>114</v>
+      </c>
+      <c r="C56" s="77" t="s">
+        <v>115</v>
       </c>
       <c r="D56" s="55" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="E56" s="40" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="F56" s="40"/>
       <c r="G56" s="40" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="H56" s="40" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="I56" s="7"/>
       <c r="J56" s="7"/>
@@ -13297,27 +13367,27 @@
       <c r="R56" s="28"/>
     </row>
     <row r="57">
-      <c r="A57" s="66" t="s">
-        <v>269</v>
-      </c>
-      <c r="B57" s="67" t="s">
-        <v>117</v>
-      </c>
-      <c r="C57" s="75" t="s">
-        <v>118</v>
+      <c r="A57" s="67" t="s">
+        <v>272</v>
+      </c>
+      <c r="B57" s="68" t="s">
+        <v>120</v>
+      </c>
+      <c r="C57" s="77" t="s">
+        <v>121</v>
       </c>
       <c r="D57" s="55" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="E57" s="40" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="F57" s="40"/>
       <c r="G57" s="40" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="H57" s="40" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="I57" s="7"/>
       <c r="J57" s="7"/>
@@ -13331,27 +13401,27 @@
       <c r="R57" s="28"/>
     </row>
     <row r="58">
-      <c r="A58" s="66" t="s">
-        <v>272</v>
-      </c>
-      <c r="B58" s="67" t="s">
-        <v>124</v>
-      </c>
-      <c r="C58" s="75" t="s">
-        <v>125</v>
+      <c r="A58" s="67" t="s">
+        <v>275</v>
+      </c>
+      <c r="B58" s="68" t="s">
+        <v>127</v>
+      </c>
+      <c r="C58" s="77" t="s">
+        <v>128</v>
       </c>
       <c r="D58" s="55" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="E58" s="40" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="F58" s="40"/>
       <c r="G58" s="40" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="H58" s="40" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="I58" s="7"/>
       <c r="J58" s="7"/>
@@ -13365,14 +13435,14 @@
       <c r="R58" s="28"/>
     </row>
     <row r="59">
-      <c r="A59" s="66" t="s">
-        <v>275</v>
-      </c>
-      <c r="B59" s="67" t="s">
-        <v>130</v>
-      </c>
-      <c r="C59" s="75"/>
-      <c r="D59" s="76"/>
+      <c r="A59" s="67" t="s">
+        <v>278</v>
+      </c>
+      <c r="B59" s="68" t="s">
+        <v>133</v>
+      </c>
+      <c r="C59" s="77"/>
+      <c r="D59" s="78"/>
       <c r="E59" s="40"/>
       <c r="F59" s="40"/>
       <c r="G59" s="40"/>
@@ -13389,27 +13459,27 @@
       <c r="R59" s="28"/>
     </row>
     <row r="60">
-      <c r="A60" s="74" t="s">
-        <v>276</v>
+      <c r="A60" s="76" t="s">
+        <v>279</v>
       </c>
       <c r="B60" s="39" t="s">
-        <v>132</v>
-      </c>
-      <c r="C60" s="84" t="s">
-        <v>133</v>
-      </c>
-      <c r="D60" s="83" t="s">
-        <v>134</v>
+        <v>135</v>
+      </c>
+      <c r="C60" s="85" t="s">
+        <v>136</v>
+      </c>
+      <c r="D60" s="84" t="s">
+        <v>137</v>
       </c>
       <c r="E60" s="40" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="F60" s="40"/>
       <c r="G60" s="40" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="H60" s="40" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="I60" s="7"/>
       <c r="J60" s="7"/>
@@ -13423,27 +13493,27 @@
       <c r="R60" s="28"/>
     </row>
     <row r="61">
-      <c r="A61" s="74" t="s">
-        <v>279</v>
+      <c r="A61" s="76" t="s">
+        <v>282</v>
       </c>
       <c r="B61" s="39" t="s">
-        <v>138</v>
-      </c>
-      <c r="C61" s="84" t="s">
-        <v>139</v>
-      </c>
-      <c r="D61" s="83" t="s">
-        <v>140</v>
+        <v>141</v>
+      </c>
+      <c r="C61" s="85" t="s">
+        <v>142</v>
+      </c>
+      <c r="D61" s="84" t="s">
+        <v>143</v>
       </c>
       <c r="E61" s="40" t="s">
-        <v>280</v>
-      </c>
-      <c r="F61" s="81"/>
+        <v>283</v>
+      </c>
+      <c r="F61" s="83"/>
       <c r="G61" s="40" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="H61" s="40" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="I61" s="7"/>
       <c r="J61" s="7"/>
@@ -13458,24 +13528,24 @@
     </row>
     <row r="62">
       <c r="A62" s="46" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="B62" s="47" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="C62" s="14" t="s">
-        <v>284</v>
-      </c>
-      <c r="D62" s="85"/>
+        <v>287</v>
+      </c>
+      <c r="D62" s="86"/>
       <c r="E62" s="49" t="s">
-        <v>285</v>
-      </c>
-      <c r="F62" s="85"/>
+        <v>288</v>
+      </c>
+      <c r="F62" s="86"/>
       <c r="G62" s="49" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="H62" s="49" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="I62" s="7"/>
       <c r="J62" s="7"/>
@@ -13490,31 +13560,31 @@
     </row>
     <row r="63">
       <c r="A63" s="37" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="B63" s="38" t="s">
-        <v>289</v>
-      </c>
-      <c r="C63" s="86" t="s">
-        <v>290</v>
-      </c>
-      <c r="D63" s="87" t="s">
-        <v>291</v>
-      </c>
-      <c r="E63" s="59" t="s">
         <v>292</v>
       </c>
-      <c r="F63" s="87"/>
-      <c r="G63" s="87" t="s">
+      <c r="C63" s="87" t="s">
         <v>293</v>
       </c>
-      <c r="H63" s="88" t="s">
+      <c r="D63" s="88" t="s">
         <v>294</v>
+      </c>
+      <c r="E63" s="60" t="s">
+        <v>295</v>
+      </c>
+      <c r="F63" s="88"/>
+      <c r="G63" s="88" t="s">
+        <v>296</v>
+      </c>
+      <c r="H63" s="89" t="s">
+        <v>297</v>
       </c>
       <c r="I63" s="7"/>
       <c r="J63" s="7"/>
       <c r="K63" s="7" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="L63" s="28"/>
       <c r="M63" s="28"/>
@@ -13526,20 +13596,20 @@
     </row>
     <row r="64">
       <c r="A64" s="48" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="B64" s="47"/>
       <c r="C64" s="4"/>
       <c r="D64" s="4"/>
       <c r="E64" s="40" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="F64" s="40"/>
       <c r="G64" s="40" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="H64" s="40" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="I64" s="7"/>
       <c r="J64" s="7"/>
@@ -13554,31 +13624,31 @@
     </row>
     <row r="65">
       <c r="A65" s="37" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="B65" s="38" t="s">
-        <v>301</v>
-      </c>
-      <c r="C65" s="87" t="s">
-        <v>302</v>
-      </c>
-      <c r="D65" s="87" t="s">
-        <v>303</v>
-      </c>
-      <c r="E65" s="89" t="s">
         <v>304</v>
       </c>
-      <c r="F65" s="90"/>
-      <c r="G65" s="91" t="s">
+      <c r="C65" s="88" t="s">
         <v>305</v>
       </c>
-      <c r="H65" s="92" t="s">
+      <c r="D65" s="88" t="s">
         <v>306</v>
+      </c>
+      <c r="E65" s="90" t="s">
+        <v>307</v>
+      </c>
+      <c r="F65" s="91"/>
+      <c r="G65" s="92" t="s">
+        <v>308</v>
+      </c>
+      <c r="H65" s="93" t="s">
+        <v>309</v>
       </c>
       <c r="I65" s="7"/>
       <c r="J65" s="7"/>
       <c r="K65" s="7" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="L65" s="28"/>
       <c r="M65" s="28"/>
@@ -13590,20 +13660,20 @@
     </row>
     <row r="66">
       <c r="A66" s="48" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="B66" s="47"/>
       <c r="C66" s="4"/>
       <c r="D66" s="4"/>
       <c r="E66" s="40" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="F66" s="40"/>
       <c r="G66" s="40" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="H66" s="40" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="I66" s="7"/>
       <c r="J66" s="7"/>
@@ -13618,26 +13688,26 @@
     </row>
     <row r="67">
       <c r="A67" s="37" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="B67" s="38" t="s">
-        <v>311</v>
-      </c>
-      <c r="C67" s="87" t="s">
-        <v>302</v>
-      </c>
-      <c r="D67" s="87" t="s">
-        <v>303</v>
-      </c>
-      <c r="E67" s="59" t="s">
-        <v>312</v>
-      </c>
-      <c r="F67" s="87"/>
-      <c r="G67" s="93" t="s">
+        <v>314</v>
+      </c>
+      <c r="C67" s="88" t="s">
         <v>305</v>
       </c>
-      <c r="H67" s="93" t="s">
-        <v>313</v>
+      <c r="D67" s="88" t="s">
+        <v>306</v>
+      </c>
+      <c r="E67" s="60" t="s">
+        <v>315</v>
+      </c>
+      <c r="F67" s="88"/>
+      <c r="G67" s="94" t="s">
+        <v>308</v>
+      </c>
+      <c r="H67" s="94" t="s">
+        <v>316</v>
       </c>
       <c r="I67" s="7"/>
       <c r="J67" s="7"/>
@@ -13652,20 +13722,20 @@
     </row>
     <row r="68">
       <c r="A68" s="46" t="s">
-        <v>314</v>
-      </c>
-      <c r="B68" s="94"/>
+        <v>317</v>
+      </c>
+      <c r="B68" s="95"/>
       <c r="C68" s="40"/>
       <c r="D68" s="40"/>
-      <c r="E68" s="81" t="s">
-        <v>315</v>
-      </c>
-      <c r="F68" s="81"/>
-      <c r="G68" s="81" t="s">
-        <v>298</v>
-      </c>
-      <c r="H68" s="81" t="s">
-        <v>316</v>
+      <c r="E68" s="83" t="s">
+        <v>318</v>
+      </c>
+      <c r="F68" s="83"/>
+      <c r="G68" s="83" t="s">
+        <v>301</v>
+      </c>
+      <c r="H68" s="83" t="s">
+        <v>319</v>
       </c>
       <c r="I68" s="7"/>
       <c r="J68" s="7"/>
@@ -13680,10 +13750,10 @@
     </row>
     <row r="69">
       <c r="A69" s="33" t="s">
-        <v>317</v>
-      </c>
-      <c r="B69" s="95" t="s">
-        <v>318</v>
+        <v>320</v>
+      </c>
+      <c r="B69" s="96" t="s">
+        <v>321</v>
       </c>
       <c r="C69" s="4"/>
       <c r="D69" s="4"/>
@@ -13704,10 +13774,10 @@
     </row>
     <row r="70">
       <c r="A70" s="37" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="B70" s="38" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="C70" s="4"/>
       <c r="D70" s="4"/>
@@ -13728,33 +13798,31 @@
     </row>
     <row r="71">
       <c r="A71" s="46" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="B71" s="47" t="s">
         <v>6</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="D71" s="4" t="s">
         <v>6</v>
       </c>
       <c r="E71" s="4" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="F71" s="4"/>
       <c r="G71" s="4" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="H71" s="4" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="I71" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="J71" s="7" t="s">
-        <v>326</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="J71" s="7"/>
       <c r="K71" s="7"/>
       <c r="L71" s="28"/>
       <c r="M71" s="28"/>
@@ -13766,30 +13834,32 @@
     </row>
     <row r="72">
       <c r="A72" s="51" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="B72" s="52" t="s">
-        <v>328</v>
-      </c>
-      <c r="C72" s="96" t="s">
-        <v>329</v>
-      </c>
-      <c r="D72" s="96" t="s">
         <v>330</v>
       </c>
+      <c r="C72" s="97" t="s">
+        <v>331</v>
+      </c>
+      <c r="D72" s="97" t="s">
+        <v>332</v>
+      </c>
       <c r="E72" s="45" t="s">
-        <v>331</v>
-      </c>
-      <c r="F72" s="96"/>
+        <v>333</v>
+      </c>
+      <c r="F72" s="97"/>
       <c r="G72" s="45" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="H72" s="45" t="s">
-        <v>333</v>
-      </c>
-      <c r="I72" s="65"/>
-      <c r="J72" s="65"/>
-      <c r="K72" s="65"/>
+        <v>335</v>
+      </c>
+      <c r="I72" s="98" t="s">
+        <v>70</v>
+      </c>
+      <c r="J72" s="66"/>
+      <c r="K72" s="7"/>
       <c r="L72" s="28"/>
       <c r="M72" s="28"/>
       <c r="N72" s="28"/>
@@ -13800,26 +13870,26 @@
     </row>
     <row r="73">
       <c r="A73" s="48" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="B73" s="47" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="F73" s="7"/>
       <c r="G73" s="4" t="s">
-        <v>339</v>
-      </c>
-      <c r="H73" s="97" t="s">
-        <v>340</v>
+        <v>341</v>
+      </c>
+      <c r="H73" s="99" t="s">
+        <v>342</v>
       </c>
       <c r="I73" s="7"/>
       <c r="J73" s="7"/>
@@ -13834,26 +13904,26 @@
     </row>
     <row r="74">
       <c r="A74" s="54" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="B74" s="55" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="F74" s="4"/>
       <c r="G74" s="4" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="H74" s="4" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="I74" s="7"/>
       <c r="J74" s="7"/>
@@ -13868,26 +13938,26 @@
     </row>
     <row r="75">
       <c r="A75" s="46" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="B75" s="47" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="F75" s="4"/>
       <c r="G75" s="4" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="H75" s="39" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="I75" s="7"/>
       <c r="J75" s="7"/>
@@ -13902,28 +13972,30 @@
     </row>
     <row r="76">
       <c r="A76" s="46" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="B76" s="47" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="C76" s="36" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="D76" s="49" t="s">
         <v>8</v>
       </c>
       <c r="E76" s="36" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="F76" s="36"/>
       <c r="G76" s="36" t="s">
-        <v>324</v>
-      </c>
-      <c r="H76" s="98" t="s">
-        <v>358</v>
-      </c>
-      <c r="I76" s="7"/>
+        <v>327</v>
+      </c>
+      <c r="H76" s="100" t="s">
+        <v>360</v>
+      </c>
+      <c r="I76" s="7" t="s">
+        <v>62</v>
+      </c>
       <c r="J76" s="7"/>
       <c r="K76" s="7"/>
       <c r="L76" s="28"/>
@@ -13936,17 +14008,17 @@
     </row>
     <row r="77">
       <c r="A77" s="48" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="B77" s="47" t="s">
-        <v>360</v>
-      </c>
-      <c r="C77" s="86"/>
-      <c r="D77" s="86"/>
-      <c r="E77" s="87"/>
-      <c r="F77" s="90"/>
-      <c r="G77" s="86"/>
-      <c r="H77" s="86"/>
+        <v>362</v>
+      </c>
+      <c r="C77" s="87"/>
+      <c r="D77" s="87"/>
+      <c r="E77" s="88"/>
+      <c r="F77" s="91"/>
+      <c r="G77" s="87"/>
+      <c r="H77" s="87"/>
       <c r="I77" s="7"/>
       <c r="J77" s="7"/>
       <c r="K77" s="7"/>
@@ -13959,27 +14031,27 @@
       <c r="R77" s="28"/>
     </row>
     <row r="78">
-      <c r="A78" s="99" t="s">
-        <v>361</v>
+      <c r="A78" s="101" t="s">
+        <v>363</v>
       </c>
       <c r="B78" s="55" t="s">
-        <v>362</v>
-      </c>
-      <c r="C78" s="86" t="s">
-        <v>363</v>
-      </c>
-      <c r="D78" s="86" t="s">
         <v>364</v>
       </c>
-      <c r="E78" s="87" t="s">
+      <c r="C78" s="87" t="s">
         <v>365</v>
       </c>
-      <c r="F78" s="87"/>
-      <c r="G78" s="86" t="s">
+      <c r="D78" s="87" t="s">
         <v>366</v>
       </c>
-      <c r="H78" s="86" t="s">
+      <c r="E78" s="88" t="s">
         <v>367</v>
+      </c>
+      <c r="F78" s="88"/>
+      <c r="G78" s="87" t="s">
+        <v>368</v>
+      </c>
+      <c r="H78" s="87" t="s">
+        <v>369</v>
       </c>
       <c r="I78" s="7"/>
       <c r="J78" s="7"/>
@@ -13993,23 +14065,23 @@
       <c r="R78" s="28"/>
     </row>
     <row r="79">
-      <c r="A79" s="99" t="s">
-        <v>368</v>
+      <c r="A79" s="101" t="s">
+        <v>370</v>
       </c>
       <c r="B79" s="55" t="s">
-        <v>369</v>
-      </c>
-      <c r="C79" s="86"/>
-      <c r="D79" s="86"/>
-      <c r="E79" s="87" t="s">
-        <v>370</v>
-      </c>
-      <c r="F79" s="87"/>
-      <c r="G79" s="86" t="s">
         <v>371</v>
       </c>
-      <c r="H79" s="87" t="s">
+      <c r="C79" s="87"/>
+      <c r="D79" s="87"/>
+      <c r="E79" s="88" t="s">
         <v>372</v>
+      </c>
+      <c r="F79" s="88"/>
+      <c r="G79" s="87" t="s">
+        <v>373</v>
+      </c>
+      <c r="H79" s="88" t="s">
+        <v>374</v>
       </c>
       <c r="I79" s="7"/>
       <c r="J79" s="7"/>
@@ -14024,10 +14096,10 @@
     </row>
     <row r="80">
       <c r="A80" s="46" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="B80" s="47" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="C80" s="4"/>
       <c r="D80" s="4"/>
@@ -14048,10 +14120,10 @@
     </row>
     <row r="81">
       <c r="A81" s="54" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="B81" s="55" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="C81" s="4"/>
       <c r="D81" s="4"/>
@@ -14071,25 +14143,25 @@
       <c r="R81" s="28"/>
     </row>
     <row r="82">
-      <c r="A82" s="66" t="s">
-        <v>377</v>
-      </c>
-      <c r="B82" s="67" t="s">
-        <v>378</v>
+      <c r="A82" s="67" t="s">
+        <v>379</v>
+      </c>
+      <c r="B82" s="68" t="s">
+        <v>380</v>
       </c>
       <c r="C82" s="4"/>
       <c r="D82" s="4" t="s">
-        <v>379</v>
-      </c>
-      <c r="E82" s="100" t="s">
-        <v>380</v>
+        <v>381</v>
+      </c>
+      <c r="E82" s="102" t="s">
+        <v>382</v>
       </c>
       <c r="F82" s="4"/>
       <c r="G82" s="4" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="H82" s="4" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="I82" s="7"/>
       <c r="J82" s="7"/>
@@ -14103,25 +14175,25 @@
       <c r="R82" s="28"/>
     </row>
     <row r="83">
-      <c r="A83" s="66" t="s">
-        <v>383</v>
-      </c>
-      <c r="B83" s="67" t="s">
-        <v>384</v>
+      <c r="A83" s="67" t="s">
+        <v>385</v>
+      </c>
+      <c r="B83" s="68" t="s">
+        <v>386</v>
       </c>
       <c r="C83" s="4"/>
-      <c r="D83" s="101" t="s">
-        <v>385</v>
+      <c r="D83" s="103" t="s">
+        <v>387</v>
       </c>
       <c r="E83" s="4" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="F83" s="7"/>
       <c r="G83" s="4" t="s">
-        <v>387</v>
-      </c>
-      <c r="H83" s="102" t="s">
-        <v>388</v>
+        <v>389</v>
+      </c>
+      <c r="H83" s="104" t="s">
+        <v>390</v>
       </c>
       <c r="I83" s="7"/>
       <c r="J83" s="7"/>
@@ -14135,25 +14207,25 @@
       <c r="R83" s="28"/>
     </row>
     <row r="84">
-      <c r="A84" s="66" t="s">
-        <v>389</v>
-      </c>
-      <c r="B84" s="67" t="s">
-        <v>390</v>
+      <c r="A84" s="67" t="s">
+        <v>391</v>
+      </c>
+      <c r="B84" s="68" t="s">
+        <v>392</v>
       </c>
       <c r="C84" s="4"/>
       <c r="D84" s="4" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="E84" s="4" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="F84" s="4"/>
       <c r="G84" s="4" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="H84" s="4" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="I84" s="7"/>
       <c r="J84" s="7"/>
@@ -14168,24 +14240,24 @@
     </row>
     <row r="85">
       <c r="A85" s="54" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="B85" s="55" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="D85" s="4"/>
       <c r="E85" s="4" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="F85" s="4"/>
       <c r="G85" s="4" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="H85" s="4" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="I85" s="7"/>
       <c r="J85" s="7"/>
@@ -14200,24 +14272,24 @@
     </row>
     <row r="86">
       <c r="A86" s="54" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="B86" s="55" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="D86" s="4"/>
       <c r="E86" s="4" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="F86" s="4"/>
       <c r="G86" s="4" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="H86" s="4" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="I86" s="7"/>
       <c r="J86" s="7"/>
@@ -14232,22 +14304,22 @@
     </row>
     <row r="87">
       <c r="A87" s="46" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="B87" s="47" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="C87" s="4"/>
       <c r="D87" s="4"/>
-      <c r="E87" s="82" t="s">
-        <v>405</v>
+      <c r="E87" s="72" t="s">
+        <v>407</v>
       </c>
       <c r="F87" s="7"/>
       <c r="G87" s="14" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="H87" s="14" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="I87" s="7"/>
       <c r="J87" s="7"/>
@@ -14255,26 +14327,26 @@
     </row>
     <row r="88">
       <c r="A88" s="54" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="B88" s="55" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="C88" s="36" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="D88" s="36" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="E88" s="36" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="F88" s="36"/>
       <c r="G88" s="36" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="H88" s="36" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="I88" s="7"/>
       <c r="J88" s="7"/>
@@ -14282,26 +14354,26 @@
     </row>
     <row r="89">
       <c r="A89" s="54" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="B89" s="55" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="C89" s="36" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="D89" s="36" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="E89" s="36" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="F89" s="36"/>
       <c r="G89" s="36" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="H89" s="49" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="I89" s="7"/>
       <c r="J89" s="7"/>
@@ -14309,26 +14381,26 @@
     </row>
     <row r="90">
       <c r="A90" s="54" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="B90" s="55" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="C90" s="36" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="D90" s="36" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="E90" s="36" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="F90" s="36"/>
       <c r="G90" s="36" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="H90" s="36" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="I90" s="7"/>
       <c r="J90" s="7"/>
@@ -14336,22 +14408,22 @@
     </row>
     <row r="91">
       <c r="A91" s="54" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="B91" s="55" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="C91" s="14"/>
       <c r="D91" s="14"/>
       <c r="E91" s="36" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="F91" s="14"/>
       <c r="G91" s="36" t="s">
-        <v>427</v>
-      </c>
-      <c r="H91" s="103" t="s">
-        <v>428</v>
+        <v>429</v>
+      </c>
+      <c r="H91" s="57" t="s">
+        <v>430</v>
       </c>
       <c r="I91" s="7"/>
       <c r="J91" s="7"/>
@@ -14359,45 +14431,45 @@
     </row>
     <row r="92">
       <c r="A92" s="37" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="B92" s="38" t="s">
         <v>8</v>
       </c>
       <c r="C92" s="7"/>
       <c r="D92" s="7"/>
-      <c r="E92" s="89" t="s">
-        <v>405</v>
+      <c r="E92" s="90" t="s">
+        <v>407</v>
       </c>
       <c r="F92" s="7"/>
       <c r="G92" s="7" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="H92" s="7" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="I92" s="7"/>
       <c r="J92" s="7"/>
       <c r="K92" s="7"/>
     </row>
     <row r="93">
-      <c r="A93" s="104" t="s">
-        <v>429</v>
-      </c>
-      <c r="B93" s="105" t="s">
+      <c r="A93" s="105" t="s">
+        <v>431</v>
+      </c>
+      <c r="B93" s="106" t="s">
         <v>8</v>
       </c>
       <c r="C93" s="7"/>
       <c r="D93" s="7"/>
-      <c r="E93" s="89" t="s">
-        <v>405</v>
+      <c r="E93" s="90" t="s">
+        <v>407</v>
       </c>
       <c r="F93" s="7"/>
-      <c r="G93" s="81" t="s">
-        <v>432</v>
-      </c>
-      <c r="H93" s="81" t="s">
-        <v>433</v>
+      <c r="G93" s="83" t="s">
+        <v>434</v>
+      </c>
+      <c r="H93" s="83" t="s">
+        <v>435</v>
       </c>
       <c r="I93" s="7"/>
       <c r="J93" s="7"/>
@@ -14405,64 +14477,68 @@
     </row>
     <row r="94">
       <c r="A94" s="46" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="B94" s="47" t="s">
         <v>6</v>
       </c>
       <c r="C94" s="49" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="D94" s="49" t="s">
         <v>6</v>
       </c>
       <c r="E94" s="49" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="F94" s="49"/>
       <c r="G94" s="36" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="H94" s="49" t="s">
-        <v>437</v>
-      </c>
-      <c r="I94" s="7"/>
+        <v>439</v>
+      </c>
+      <c r="I94" s="7" t="s">
+        <v>62</v>
+      </c>
       <c r="J94" s="7"/>
       <c r="K94" s="7"/>
     </row>
     <row r="95">
       <c r="A95" s="54" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="B95" s="55" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="C95" s="49" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="D95" s="49" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="E95" s="49" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="F95" s="49"/>
       <c r="G95" s="36" t="s">
-        <v>443</v>
-      </c>
-      <c r="H95" s="98" t="s">
-        <v>444</v>
-      </c>
-      <c r="I95" s="7"/>
+        <v>445</v>
+      </c>
+      <c r="H95" s="100" t="s">
+        <v>446</v>
+      </c>
+      <c r="I95" s="7" t="s">
+        <v>70</v>
+      </c>
       <c r="J95" s="7"/>
       <c r="K95" s="7"/>
     </row>
     <row r="96">
       <c r="A96" s="46" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="B96" s="47" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="C96" s="4"/>
       <c r="D96" s="4"/>
@@ -14476,26 +14552,26 @@
     </row>
     <row r="97">
       <c r="A97" s="54" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="B97" s="55" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="D97" s="4" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="E97" s="4" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="F97" s="4"/>
       <c r="G97" s="4" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="H97" s="4" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="I97" s="7"/>
       <c r="J97" s="7"/>
@@ -14503,26 +14579,26 @@
     </row>
     <row r="98">
       <c r="A98" s="54" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="B98" s="55" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="D98" s="4" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="E98" s="4" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="F98" s="4"/>
       <c r="G98" s="4" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="H98" s="4" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="I98" s="7"/>
       <c r="J98" s="7"/>
@@ -14530,10 +14606,10 @@
     </row>
     <row r="99">
       <c r="A99" s="46" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="B99" s="47" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="C99" s="4"/>
       <c r="D99" s="4"/>
@@ -14547,28 +14623,28 @@
     </row>
     <row r="100">
       <c r="A100" s="54" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="B100" s="55" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="D100" s="4" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="E100" s="4" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="F100" s="4" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="G100" s="36" t="s">
-        <v>461</v>
-      </c>
-      <c r="H100" s="103" t="s">
-        <v>462</v>
+        <v>463</v>
+      </c>
+      <c r="H100" s="57" t="s">
+        <v>464</v>
       </c>
       <c r="I100" s="7"/>
       <c r="J100" s="7"/>
@@ -14576,97 +14652,101 @@
     </row>
     <row r="101">
       <c r="A101" s="54" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="B101" s="55" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="C101" s="36" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="D101" s="36" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="E101" s="4" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="F101" s="4"/>
       <c r="G101" s="36" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="H101" s="36" t="s">
-        <v>469</v>
-      </c>
-      <c r="I101" s="7"/>
+        <v>471</v>
+      </c>
+      <c r="I101" s="7" t="s">
+        <v>62</v>
+      </c>
       <c r="J101" s="7"/>
       <c r="K101" s="7"/>
     </row>
     <row r="102">
       <c r="A102" s="46" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="B102" s="47" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="C102" s="36" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="D102" s="36" t="s">
         <v>8</v>
       </c>
       <c r="E102" s="4" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="F102" s="4"/>
       <c r="G102" s="4" t="s">
-        <v>436</v>
-      </c>
-      <c r="H102" s="106" t="s">
-        <v>473</v>
-      </c>
-      <c r="I102" s="7"/>
+        <v>438</v>
+      </c>
+      <c r="H102" s="107" t="s">
+        <v>475</v>
+      </c>
+      <c r="I102" s="7" t="s">
+        <v>62</v>
+      </c>
       <c r="J102" s="7"/>
       <c r="K102" s="7"/>
     </row>
     <row r="103">
       <c r="A103" s="46" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="B103" s="47" t="s">
-        <v>475</v>
-      </c>
-      <c r="C103" s="107"/>
-      <c r="D103" s="107"/>
-      <c r="E103" s="75"/>
-      <c r="F103" s="107"/>
-      <c r="G103" s="75"/>
-      <c r="H103" s="75"/>
+        <v>477</v>
+      </c>
+      <c r="C103" s="108"/>
+      <c r="D103" s="108"/>
+      <c r="E103" s="77"/>
+      <c r="F103" s="108"/>
+      <c r="G103" s="77"/>
+      <c r="H103" s="77"/>
       <c r="I103" s="7"/>
       <c r="J103" s="7"/>
       <c r="K103" s="7"/>
     </row>
     <row r="104">
       <c r="A104" s="54" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="B104" s="55" t="s">
-        <v>362</v>
-      </c>
-      <c r="C104" s="107" t="s">
-        <v>477</v>
+        <v>364</v>
+      </c>
+      <c r="C104" s="108" t="s">
+        <v>479</v>
       </c>
       <c r="D104" s="4" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="E104" s="4" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="F104" s="4"/>
       <c r="G104" s="40" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="H104" s="40" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="I104" s="7"/>
       <c r="J104" s="7"/>
@@ -14674,24 +14754,24 @@
     </row>
     <row r="105">
       <c r="A105" s="54" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="B105" s="55" t="s">
-        <v>369</v>
-      </c>
-      <c r="C105" s="107" t="s">
-        <v>176</v>
+        <v>371</v>
+      </c>
+      <c r="C105" s="108" t="s">
+        <v>179</v>
       </c>
       <c r="D105" s="4"/>
       <c r="E105" s="4" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="F105" s="4"/>
       <c r="G105" s="40" t="s">
-        <v>483</v>
-      </c>
-      <c r="H105" s="97" t="s">
-        <v>484</v>
+        <v>485</v>
+      </c>
+      <c r="H105" s="99" t="s">
+        <v>486</v>
       </c>
       <c r="I105" s="7"/>
       <c r="J105" s="7"/>
@@ -14699,143 +14779,143 @@
     </row>
     <row r="106">
       <c r="A106" s="48" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="B106" s="47" t="s">
-        <v>486</v>
-      </c>
-      <c r="C106" s="86"/>
-      <c r="D106" s="108"/>
-      <c r="E106" s="108"/>
-      <c r="F106" s="108"/>
-      <c r="G106" s="108"/>
-      <c r="H106" s="108"/>
-      <c r="I106" s="108"/>
-      <c r="J106" s="108"/>
-      <c r="K106" s="90"/>
+        <v>488</v>
+      </c>
+      <c r="C106" s="87"/>
+      <c r="D106" s="109"/>
+      <c r="E106" s="109"/>
+      <c r="F106" s="109"/>
+      <c r="G106" s="109"/>
+      <c r="H106" s="109"/>
+      <c r="I106" s="109"/>
+      <c r="J106" s="109"/>
+      <c r="K106" s="91"/>
     </row>
     <row r="107">
-      <c r="A107" s="99" t="s">
-        <v>487</v>
+      <c r="A107" s="101" t="s">
+        <v>489</v>
       </c>
       <c r="B107" s="55" t="s">
-        <v>488</v>
-      </c>
-      <c r="C107" s="86" t="s">
-        <v>489</v>
-      </c>
-      <c r="D107" s="86" t="s">
         <v>490</v>
       </c>
-      <c r="E107" s="86" t="s">
+      <c r="C107" s="87" t="s">
         <v>491</v>
       </c>
-      <c r="F107" s="86"/>
-      <c r="G107" s="86" t="s">
+      <c r="D107" s="87" t="s">
         <v>492</v>
       </c>
-      <c r="H107" s="109" t="s">
+      <c r="E107" s="87" t="s">
         <v>493</v>
       </c>
-      <c r="I107" s="108"/>
-      <c r="J107" s="108"/>
-      <c r="K107" s="90"/>
+      <c r="F107" s="87"/>
+      <c r="G107" s="87" t="s">
+        <v>494</v>
+      </c>
+      <c r="H107" s="110" t="s">
+        <v>495</v>
+      </c>
+      <c r="I107" s="109"/>
+      <c r="J107" s="109"/>
+      <c r="K107" s="91"/>
     </row>
     <row r="108">
-      <c r="A108" s="110" t="s">
-        <v>494</v>
-      </c>
-      <c r="B108" s="111"/>
-      <c r="C108" s="86"/>
-      <c r="D108" s="86"/>
-      <c r="E108" s="86" t="s">
-        <v>495</v>
-      </c>
-      <c r="F108" s="86" t="s">
+      <c r="A108" s="111" t="s">
         <v>496</v>
       </c>
-      <c r="G108" s="86" t="s">
+      <c r="B108" s="112"/>
+      <c r="C108" s="87"/>
+      <c r="D108" s="87"/>
+      <c r="E108" s="87" t="s">
         <v>497</v>
       </c>
-      <c r="H108" s="109" t="s">
+      <c r="F108" s="87" t="s">
         <v>498</v>
       </c>
-      <c r="I108" s="108"/>
-      <c r="J108" s="108"/>
-      <c r="K108" s="90"/>
+      <c r="G108" s="87" t="s">
+        <v>499</v>
+      </c>
+      <c r="H108" s="110" t="s">
+        <v>500</v>
+      </c>
+      <c r="I108" s="109"/>
+      <c r="J108" s="109"/>
+      <c r="K108" s="91"/>
     </row>
     <row r="109">
-      <c r="A109" s="110" t="s">
+      <c r="A109" s="111" t="s">
+        <v>501</v>
+      </c>
+      <c r="B109" s="112"/>
+      <c r="C109" s="87"/>
+      <c r="D109" s="109"/>
+      <c r="E109" s="90" t="s">
+        <v>497</v>
+      </c>
+      <c r="F109" s="109" t="s">
+        <v>502</v>
+      </c>
+      <c r="G109" s="109" t="s">
         <v>499</v>
       </c>
-      <c r="B109" s="111"/>
-      <c r="C109" s="86"/>
-      <c r="D109" s="108"/>
-      <c r="E109" s="89" t="s">
-        <v>495</v>
-      </c>
-      <c r="F109" s="108" t="s">
-        <v>500</v>
-      </c>
-      <c r="G109" s="108" t="s">
-        <v>497</v>
-      </c>
-      <c r="H109" s="108" t="s">
-        <v>501</v>
-      </c>
-      <c r="I109" s="108"/>
-      <c r="J109" s="108"/>
-      <c r="K109" s="90"/>
+      <c r="H109" s="109" t="s">
+        <v>503</v>
+      </c>
+      <c r="I109" s="109"/>
+      <c r="J109" s="109"/>
+      <c r="K109" s="91"/>
     </row>
     <row r="110">
-      <c r="A110" s="99" t="s">
-        <v>502</v>
+      <c r="A110" s="101" t="s">
+        <v>504</v>
       </c>
       <c r="B110" s="55" t="s">
-        <v>503</v>
-      </c>
-      <c r="C110" s="86" t="s">
-        <v>504</v>
-      </c>
-      <c r="D110" s="86" t="s">
         <v>505</v>
       </c>
-      <c r="E110" s="86" t="s">
+      <c r="C110" s="87" t="s">
         <v>506</v>
       </c>
-      <c r="F110" s="86"/>
-      <c r="G110" s="86" t="s">
+      <c r="D110" s="87" t="s">
         <v>507</v>
       </c>
-      <c r="H110" s="86" t="s">
+      <c r="E110" s="87" t="s">
         <v>508</v>
       </c>
-      <c r="I110" s="108"/>
-      <c r="J110" s="108"/>
-      <c r="K110" s="90"/>
+      <c r="F110" s="87"/>
+      <c r="G110" s="87" t="s">
+        <v>509</v>
+      </c>
+      <c r="H110" s="87" t="s">
+        <v>510</v>
+      </c>
+      <c r="I110" s="109"/>
+      <c r="J110" s="109"/>
+      <c r="K110" s="91"/>
     </row>
     <row r="111">
-      <c r="A111" s="99" t="s">
+      <c r="A111" s="101" t="s">
+        <v>511</v>
+      </c>
+      <c r="B111" s="55" t="s">
+        <v>512</v>
+      </c>
+      <c r="C111" s="87" t="s">
+        <v>513</v>
+      </c>
+      <c r="D111" s="87" t="s">
+        <v>514</v>
+      </c>
+      <c r="E111" s="113" t="s">
+        <v>515</v>
+      </c>
+      <c r="F111" s="113"/>
+      <c r="G111" s="87" t="s">
         <v>509</v>
       </c>
-      <c r="B111" s="55" t="s">
-        <v>510</v>
-      </c>
-      <c r="C111" s="86" t="s">
-        <v>511</v>
-      </c>
-      <c r="D111" s="86" t="s">
-        <v>512</v>
-      </c>
-      <c r="E111" s="112" t="s">
-        <v>513</v>
-      </c>
-      <c r="F111" s="112"/>
-      <c r="G111" s="86" t="s">
-        <v>507</v>
-      </c>
-      <c r="H111" s="86" t="s">
-        <v>514</v>
+      <c r="H111" s="87" t="s">
+        <v>516</v>
       </c>
       <c r="I111" s="7"/>
       <c r="J111" s="7"/>
@@ -14843,10 +14923,10 @@
     </row>
     <row r="112">
       <c r="A112" s="48" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="B112" s="47" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="C112" s="7"/>
       <c r="D112" s="7"/>
@@ -14859,124 +14939,128 @@
       <c r="K112" s="7"/>
     </row>
     <row r="113">
-      <c r="A113" s="99" t="s">
-        <v>517</v>
+      <c r="A113" s="101" t="s">
+        <v>519</v>
       </c>
       <c r="B113" s="55" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="C113" s="36" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="D113" s="49" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="E113" s="49" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="F113" s="39"/>
       <c r="G113" s="49" t="s">
-        <v>522</v>
-      </c>
-      <c r="H113" s="50" t="s">
-        <v>523</v>
+        <v>524</v>
+      </c>
+      <c r="H113" s="114" t="s">
+        <v>525</v>
       </c>
       <c r="I113" s="7"/>
       <c r="J113" s="7"/>
       <c r="K113" s="7"/>
     </row>
     <row r="114">
-      <c r="A114" s="113" t="s">
-        <v>517</v>
-      </c>
-      <c r="B114" s="61" t="s">
-        <v>518</v>
-      </c>
-      <c r="C114" s="114" t="s">
+      <c r="A114" s="115" t="s">
         <v>519</v>
       </c>
-      <c r="D114" s="115" t="s">
+      <c r="B114" s="62" t="s">
         <v>520</v>
       </c>
+      <c r="C114" s="116" t="s">
+        <v>521</v>
+      </c>
+      <c r="D114" s="117" t="s">
+        <v>522</v>
+      </c>
       <c r="E114" s="49" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="F114" s="39"/>
       <c r="G114" s="49" t="s">
-        <v>522</v>
-      </c>
-      <c r="H114" s="50" t="s">
-        <v>525</v>
+        <v>524</v>
+      </c>
+      <c r="H114" s="114" t="s">
+        <v>527</v>
       </c>
       <c r="I114" s="7"/>
       <c r="J114" s="7"/>
       <c r="K114" s="7"/>
     </row>
     <row r="115">
-      <c r="A115" s="99" t="s">
-        <v>526</v>
+      <c r="A115" s="101" t="s">
+        <v>528</v>
       </c>
       <c r="B115" s="55" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="C115" s="36" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="D115" s="49" t="s">
-        <v>529</v>
-      </c>
-      <c r="E115" s="49" t="s">
-        <v>530</v>
+        <v>531</v>
+      </c>
+      <c r="E115" s="60" t="s">
+        <v>523</v>
       </c>
       <c r="F115" s="49"/>
       <c r="G115" s="49" t="s">
-        <v>531</v>
-      </c>
-      <c r="H115" s="116" t="s">
         <v>532</v>
       </c>
-      <c r="I115" s="7"/>
+      <c r="H115" s="114" t="s">
+        <v>533</v>
+      </c>
+      <c r="I115" s="7" t="s">
+        <v>62</v>
+      </c>
       <c r="J115" s="7"/>
       <c r="K115" s="7"/>
     </row>
     <row r="116">
       <c r="A116" s="48" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="B116" s="47" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="C116" s="7" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="D116" s="7" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="E116" s="19" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="F116" s="19"/>
       <c r="G116" s="4" t="s">
-        <v>436</v>
-      </c>
-      <c r="H116" s="117" t="s">
-        <v>538</v>
-      </c>
-      <c r="I116" s="7"/>
+        <v>438</v>
+      </c>
+      <c r="H116" s="118" t="s">
+        <v>539</v>
+      </c>
+      <c r="I116" s="7" t="s">
+        <v>62</v>
+      </c>
       <c r="J116" s="7"/>
       <c r="K116" s="7"/>
     </row>
     <row r="117">
       <c r="A117" s="33" t="s">
-        <v>539</v>
-      </c>
-      <c r="B117" s="95" t="s">
         <v>540</v>
+      </c>
+      <c r="B117" s="96" t="s">
+        <v>541</v>
       </c>
       <c r="C117" s="36"/>
       <c r="D117" s="36"/>
-      <c r="E117" s="118"/>
-      <c r="F117" s="119"/>
+      <c r="E117" s="119"/>
+      <c r="F117" s="120"/>
       <c r="G117" s="49"/>
       <c r="H117" s="49"/>
       <c r="I117" s="7"/>
@@ -14985,27 +15069,27 @@
     </row>
     <row r="118">
       <c r="A118" s="37" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="B118" s="38" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="C118" s="36"/>
       <c r="D118" s="14"/>
-      <c r="E118" s="85"/>
+      <c r="E118" s="86"/>
       <c r="F118" s="14"/>
-      <c r="G118" s="85"/>
-      <c r="H118" s="85"/>
+      <c r="G118" s="86"/>
+      <c r="H118" s="86"/>
       <c r="I118" s="7"/>
       <c r="J118" s="7"/>
       <c r="K118" s="7"/>
     </row>
     <row r="119">
       <c r="A119" s="46" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="B119" s="47" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="C119" s="36"/>
       <c r="D119" s="36"/>
@@ -15019,35 +15103,37 @@
     </row>
     <row r="120">
       <c r="A120" s="54" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="B120" s="55" t="s">
-        <v>546</v>
-      </c>
-      <c r="C120" s="120" t="s">
         <v>547</v>
+      </c>
+      <c r="C120" s="121" t="s">
+        <v>548</v>
       </c>
       <c r="D120" s="14"/>
       <c r="E120" s="49" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="F120" s="36"/>
       <c r="G120" s="49" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="H120" s="4" t="s">
-        <v>550</v>
-      </c>
-      <c r="I120" s="7"/>
+        <v>551</v>
+      </c>
+      <c r="I120" s="7" t="s">
+        <v>62</v>
+      </c>
       <c r="J120" s="7"/>
       <c r="K120" s="7"/>
     </row>
     <row r="121">
       <c r="A121" s="46" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="B121" s="47" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="C121" s="14"/>
       <c r="D121" s="14"/>
@@ -15061,26 +15147,26 @@
     </row>
     <row r="122">
       <c r="A122" s="54" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="B122" s="55" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="C122" s="14" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="D122" s="14"/>
-      <c r="E122" s="118" t="s">
-        <v>556</v>
-      </c>
-      <c r="F122" s="119" t="s">
+      <c r="E122" s="119" t="s">
         <v>557</v>
       </c>
+      <c r="F122" s="120" t="s">
+        <v>558</v>
+      </c>
       <c r="G122" s="49" t="s">
-        <v>558</v>
-      </c>
-      <c r="H122" s="121" t="s">
         <v>559</v>
+      </c>
+      <c r="H122" s="122" t="s">
+        <v>560</v>
       </c>
       <c r="I122" s="7"/>
       <c r="J122" s="7"/>
@@ -15088,26 +15174,26 @@
     </row>
     <row r="123">
       <c r="A123" s="54" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="B123" s="55" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="C123" s="14" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="D123" s="14"/>
-      <c r="E123" s="118" t="s">
-        <v>563</v>
-      </c>
-      <c r="F123" s="119" t="s">
-        <v>557</v>
+      <c r="E123" s="119" t="s">
+        <v>564</v>
+      </c>
+      <c r="F123" s="120" t="s">
+        <v>558</v>
       </c>
       <c r="G123" s="49" t="s">
-        <v>564</v>
-      </c>
-      <c r="H123" s="121" t="s">
         <v>565</v>
+      </c>
+      <c r="H123" s="122" t="s">
+        <v>566</v>
       </c>
       <c r="I123" s="7"/>
       <c r="J123" s="7"/>
@@ -15115,10 +15201,10 @@
     </row>
     <row r="124">
       <c r="A124" s="37" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="B124" s="38" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="C124" s="14"/>
       <c r="D124" s="14"/>
@@ -15132,10 +15218,10 @@
     </row>
     <row r="125">
       <c r="A125" s="46" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="B125" s="47" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="C125" s="14"/>
       <c r="D125" s="14"/>
@@ -15149,26 +15235,26 @@
     </row>
     <row r="126">
       <c r="A126" s="54" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="B126" s="55" t="s">
-        <v>571</v>
-      </c>
-      <c r="C126" s="122" t="s">
         <v>572</v>
       </c>
-      <c r="D126" s="122"/>
-      <c r="E126" s="84" t="s">
+      <c r="C126" s="123" t="s">
         <v>573</v>
       </c>
-      <c r="F126" s="122" t="s">
-        <v>557</v>
+      <c r="D126" s="123"/>
+      <c r="E126" s="85" t="s">
+        <v>574</v>
+      </c>
+      <c r="F126" s="123" t="s">
+        <v>558</v>
       </c>
       <c r="G126" s="7" t="s">
-        <v>574</v>
-      </c>
-      <c r="H126" s="82" t="s">
         <v>575</v>
+      </c>
+      <c r="H126" s="72" t="s">
+        <v>576</v>
       </c>
       <c r="I126" s="7"/>
       <c r="J126" s="7"/>
@@ -15176,49 +15262,51 @@
     </row>
     <row r="127">
       <c r="A127" s="54" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="B127" s="55" t="s">
-        <v>577</v>
-      </c>
-      <c r="C127" s="123" t="s">
         <v>578</v>
       </c>
-      <c r="D127" s="122"/>
-      <c r="E127" s="84" t="s">
+      <c r="C127" s="124" t="s">
         <v>579</v>
       </c>
-      <c r="F127" s="122"/>
+      <c r="D127" s="123"/>
+      <c r="E127" s="85" t="s">
+        <v>580</v>
+      </c>
+      <c r="F127" s="123"/>
       <c r="G127" s="4" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="H127" s="4" t="s">
-        <v>550</v>
-      </c>
-      <c r="I127" s="7"/>
+        <v>551</v>
+      </c>
+      <c r="I127" s="7" t="s">
+        <v>62</v>
+      </c>
       <c r="J127" s="7"/>
       <c r="K127" s="7"/>
     </row>
     <row r="128">
       <c r="A128" s="46" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="B128" s="47" t="s">
-        <v>581</v>
-      </c>
-      <c r="C128" s="123" t="s">
         <v>582</v>
       </c>
-      <c r="D128" s="122"/>
-      <c r="E128" s="75" t="s">
+      <c r="C128" s="124" t="s">
         <v>583</v>
       </c>
-      <c r="F128" s="107"/>
+      <c r="D128" s="123"/>
+      <c r="E128" s="77" t="s">
+        <v>584</v>
+      </c>
+      <c r="F128" s="108"/>
       <c r="G128" s="4" t="s">
-        <v>584</v>
-      </c>
-      <c r="H128" s="124" t="s">
         <v>585</v>
+      </c>
+      <c r="H128" s="125" t="s">
+        <v>586</v>
       </c>
       <c r="I128" s="7"/>
       <c r="J128" s="7"/>
@@ -15226,10 +15314,10 @@
     </row>
     <row r="129">
       <c r="A129" s="46" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="B129" s="47" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="C129" s="14"/>
       <c r="D129" s="14"/>
@@ -15243,26 +15331,26 @@
     </row>
     <row r="130">
       <c r="A130" s="54" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="B130" s="55" t="s">
-        <v>589</v>
-      </c>
-      <c r="C130" s="122" t="s">
         <v>590</v>
       </c>
-      <c r="D130" s="122"/>
-      <c r="E130" s="75" t="s">
+      <c r="C130" s="123" t="s">
         <v>591</v>
       </c>
-      <c r="F130" s="107" t="s">
-        <v>557</v>
+      <c r="D130" s="123"/>
+      <c r="E130" s="77" t="s">
+        <v>592</v>
+      </c>
+      <c r="F130" s="108" t="s">
+        <v>558</v>
       </c>
       <c r="G130" s="4" t="s">
-        <v>592</v>
-      </c>
-      <c r="H130" s="124" t="s">
         <v>593</v>
+      </c>
+      <c r="H130" s="125" t="s">
+        <v>594</v>
       </c>
       <c r="I130" s="7"/>
       <c r="J130" s="7"/>
@@ -15270,42 +15358,42 @@
     </row>
     <row r="131">
       <c r="A131" s="54" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="B131" s="55" t="s">
-        <v>589</v>
-      </c>
-      <c r="C131" s="122" t="s">
         <v>590</v>
       </c>
-      <c r="D131" s="122"/>
-      <c r="E131" s="89" t="s">
+      <c r="C131" s="123" t="s">
         <v>591</v>
       </c>
-      <c r="F131" s="122" t="s">
-        <v>594</v>
+      <c r="D131" s="123"/>
+      <c r="E131" s="90" t="s">
+        <v>592</v>
+      </c>
+      <c r="F131" s="123" t="s">
+        <v>595</v>
       </c>
       <c r="G131" s="7" t="s">
-        <v>592</v>
-      </c>
-      <c r="H131" s="82" t="s">
-        <v>595</v>
+        <v>593</v>
+      </c>
+      <c r="H131" s="72" t="s">
+        <v>596</v>
       </c>
       <c r="I131" s="7"/>
       <c r="J131" s="7"/>
       <c r="K131" s="7"/>
     </row>
     <row r="132">
-      <c r="A132" s="125" t="s">
-        <v>596</v>
-      </c>
-      <c r="B132" s="95" t="s">
+      <c r="A132" s="126" t="s">
         <v>597</v>
+      </c>
+      <c r="B132" s="96" t="s">
+        <v>598</v>
       </c>
       <c r="C132" s="7"/>
       <c r="D132" s="7"/>
       <c r="E132" s="39" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="F132" s="4"/>
       <c r="G132" s="40"/>
@@ -15315,8 +15403,8 @@
       <c r="K132" s="7"/>
     </row>
     <row r="133">
-      <c r="A133" s="126" t="s">
-        <v>599</v>
+      <c r="A133" s="127" t="s">
+        <v>600</v>
       </c>
       <c r="B133" s="38" t="s">
         <v>8</v>
@@ -15333,10 +15421,10 @@
     </row>
     <row r="134">
       <c r="A134" s="48" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="B134" s="47" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="C134" s="7"/>
       <c r="D134" s="7"/>
@@ -15349,48 +15437,48 @@
       <c r="K134" s="7"/>
     </row>
     <row r="135">
-      <c r="A135" s="99" t="s">
-        <v>602</v>
+      <c r="A135" s="101" t="s">
+        <v>603</v>
       </c>
       <c r="B135" s="55" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="C135" s="7"/>
       <c r="D135" s="7"/>
       <c r="E135" s="39" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="F135" s="4" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="G135" s="4" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="H135" s="4" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="I135" s="7"/>
       <c r="J135" s="7"/>
       <c r="K135" s="7"/>
     </row>
     <row r="136">
-      <c r="A136" s="99" t="s">
-        <v>608</v>
+      <c r="A136" s="101" t="s">
+        <v>609</v>
       </c>
       <c r="B136" s="55" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="C136" s="7"/>
       <c r="D136" s="7"/>
       <c r="E136" s="39" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="F136" s="4"/>
       <c r="G136" s="36" t="s">
-        <v>611</v>
-      </c>
-      <c r="H136" s="127" t="s">
         <v>612</v>
+      </c>
+      <c r="H136" s="128" t="s">
+        <v>613</v>
       </c>
       <c r="I136" s="7"/>
       <c r="J136" s="7"/>
@@ -15398,35 +15486,35 @@
     </row>
     <row r="137">
       <c r="A137" s="46" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="B137" s="47" t="s">
-        <v>614</v>
-      </c>
-      <c r="C137" s="122" t="s">
         <v>615</v>
       </c>
-      <c r="D137" s="84"/>
-      <c r="E137" s="75" t="s">
+      <c r="C137" s="123" t="s">
         <v>616</v>
+      </c>
+      <c r="D137" s="85"/>
+      <c r="E137" s="77" t="s">
+        <v>617</v>
       </c>
       <c r="F137" s="4"/>
       <c r="G137" s="4" t="s">
-        <v>324</v>
-      </c>
-      <c r="H137" s="102" t="s">
-        <v>617</v>
+        <v>327</v>
+      </c>
+      <c r="H137" s="104" t="s">
+        <v>618</v>
       </c>
       <c r="I137" s="7"/>
       <c r="J137" s="7"/>
       <c r="K137" s="7"/>
     </row>
     <row r="138">
-      <c r="A138" s="126" t="s">
-        <v>618</v>
+      <c r="A138" s="127" t="s">
+        <v>619</v>
       </c>
       <c r="B138" s="38" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="C138" s="7"/>
       <c r="D138" s="7"/>
@@ -15440,47 +15528,49 @@
     </row>
     <row r="139">
       <c r="A139" s="48" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="B139" s="47" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="C139" s="14"/>
       <c r="D139" s="14"/>
       <c r="E139" s="49" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="F139" s="36"/>
       <c r="G139" s="49" t="s">
-        <v>623</v>
-      </c>
-      <c r="H139" s="103" t="s">
         <v>624</v>
       </c>
-      <c r="I139" s="7"/>
+      <c r="H139" s="57" t="s">
+        <v>625</v>
+      </c>
+      <c r="I139" s="7" t="s">
+        <v>70</v>
+      </c>
       <c r="J139" s="7"/>
       <c r="K139" s="7"/>
     </row>
     <row r="140">
       <c r="A140" s="46" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="B140" s="47" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="C140" s="7" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="D140" s="7"/>
-      <c r="E140" s="59" t="s">
-        <v>627</v>
+      <c r="E140" s="60" t="s">
+        <v>628</v>
       </c>
       <c r="F140" s="4"/>
       <c r="G140" s="4" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="H140" s="39" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="I140" s="7"/>
       <c r="J140" s="7"/>
@@ -15488,24 +15578,24 @@
     </row>
     <row r="141">
       <c r="A141" s="54" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="B141" s="55" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="C141" s="4" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="D141" s="7"/>
-      <c r="E141" s="59" t="s">
-        <v>632</v>
+      <c r="E141" s="60" t="s">
+        <v>633</v>
       </c>
       <c r="F141" s="4"/>
       <c r="G141" s="4" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="H141" s="39" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="I141" s="7"/>
       <c r="J141" s="7"/>
@@ -15513,47 +15603,47 @@
     </row>
     <row r="142">
       <c r="A142" s="46" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="B142" s="47" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="C142" s="7" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="D142" s="7"/>
       <c r="E142" s="39" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="F142" s="7"/>
       <c r="G142" s="4" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="H142" s="39" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="I142" s="7"/>
       <c r="J142" s="7"/>
       <c r="K142" s="7"/>
     </row>
     <row r="143">
-      <c r="A143" s="125" t="s">
-        <v>640</v>
-      </c>
-      <c r="B143" s="95" t="s">
+      <c r="A143" s="126" t="s">
         <v>641</v>
+      </c>
+      <c r="B143" s="96" t="s">
+        <v>642</v>
       </c>
       <c r="C143" s="7"/>
       <c r="D143" s="7"/>
-      <c r="E143" s="128" t="s">
-        <v>642</v>
+      <c r="E143" s="129" t="s">
+        <v>643</v>
       </c>
       <c r="F143" s="4"/>
       <c r="G143" s="4" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="H143" s="4" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="I143" s="7"/>
       <c r="J143" s="7"/>
@@ -15561,125 +15651,127 @@
     </row>
     <row r="144">
       <c r="A144" s="48" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="B144" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="C144" s="85" t="s">
-        <v>646</v>
-      </c>
-      <c r="D144" s="85" t="s">
+      <c r="C144" s="86" t="s">
         <v>647</v>
       </c>
+      <c r="D144" s="86" t="s">
+        <v>648</v>
+      </c>
       <c r="E144" s="49" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="F144" s="49" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="G144" s="4" t="s">
-        <v>650</v>
-      </c>
-      <c r="H144" s="106" t="s">
         <v>651</v>
       </c>
-      <c r="I144" s="7"/>
+      <c r="H144" s="107" t="s">
+        <v>652</v>
+      </c>
+      <c r="I144" s="7" t="s">
+        <v>62</v>
+      </c>
       <c r="J144" s="7"/>
       <c r="K144" s="7"/>
     </row>
     <row r="145">
       <c r="A145" s="48" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="B145" s="47" t="s">
-        <v>653</v>
-      </c>
-      <c r="C145" s="85" t="s">
         <v>654</v>
       </c>
-      <c r="D145" s="85" t="s">
+      <c r="C145" s="86" t="s">
         <v>655</v>
       </c>
-      <c r="E145" s="59" t="s">
+      <c r="D145" s="86" t="s">
         <v>656</v>
+      </c>
+      <c r="E145" s="60" t="s">
+        <v>657</v>
       </c>
       <c r="F145" s="4"/>
       <c r="G145" s="4" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="H145" s="39" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="I145" s="7"/>
       <c r="J145" s="7"/>
       <c r="K145" s="7"/>
     </row>
     <row r="146">
-      <c r="A146" s="129" t="s">
-        <v>652</v>
-      </c>
-      <c r="B146" s="130" t="s">
+      <c r="A146" s="130" t="s">
         <v>653</v>
       </c>
-      <c r="C146" s="131" t="s">
+      <c r="B146" s="131" t="s">
         <v>654</v>
       </c>
-      <c r="D146" s="132" t="s">
+      <c r="C146" s="132" t="s">
         <v>655</v>
       </c>
-      <c r="E146" s="59" t="s">
+      <c r="D146" s="133" t="s">
         <v>656</v>
+      </c>
+      <c r="E146" s="60" t="s">
+        <v>657</v>
       </c>
       <c r="F146" s="4"/>
       <c r="G146" s="4" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="H146" s="39" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="I146" s="7"/>
       <c r="J146" s="7"/>
       <c r="K146" s="7"/>
     </row>
     <row r="147">
-      <c r="A147" s="129" t="s">
-        <v>652</v>
-      </c>
-      <c r="B147" s="130" t="s">
+      <c r="A147" s="130" t="s">
         <v>653</v>
       </c>
-      <c r="C147" s="131" t="s">
+      <c r="B147" s="131" t="s">
         <v>654</v>
       </c>
-      <c r="D147" s="131" t="s">
+      <c r="C147" s="132" t="s">
         <v>655</v>
       </c>
-      <c r="E147" s="59" t="s">
-        <v>661</v>
+      <c r="D147" s="132" t="s">
+        <v>656</v>
+      </c>
+      <c r="E147" s="60" t="s">
+        <v>662</v>
       </c>
       <c r="F147" s="4"/>
       <c r="G147" s="4" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="H147" s="39" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="I147" s="7"/>
       <c r="J147" s="7"/>
       <c r="K147" s="7"/>
     </row>
     <row r="148">
-      <c r="A148" s="126" t="s">
-        <v>664</v>
+      <c r="A148" s="127" t="s">
+        <v>665</v>
       </c>
       <c r="B148" s="38" t="s">
-        <v>665</v>
-      </c>
-      <c r="C148" s="133" t="s">
         <v>666</v>
       </c>
-      <c r="D148" s="85"/>
+      <c r="C148" s="134" t="s">
+        <v>667</v>
+      </c>
+      <c r="D148" s="86"/>
       <c r="E148" s="4"/>
       <c r="F148" s="4"/>
       <c r="G148" s="4"/>
@@ -15690,13 +15782,13 @@
     </row>
     <row r="149">
       <c r="A149" s="46" t="s">
+        <v>668</v>
+      </c>
+      <c r="B149" s="47" t="s">
+        <v>669</v>
+      </c>
+      <c r="C149" s="135" t="s">
         <v>667</v>
-      </c>
-      <c r="B149" s="47" t="s">
-        <v>668</v>
-      </c>
-      <c r="C149" s="134" t="s">
-        <v>666</v>
       </c>
       <c r="D149" s="7"/>
       <c r="E149" s="4"/>
@@ -15708,93 +15800,93 @@
       <c r="K149" s="7"/>
     </row>
     <row r="150">
-      <c r="A150" s="99" t="s">
-        <v>669</v>
+      <c r="A150" s="101" t="s">
+        <v>670</v>
       </c>
       <c r="B150" s="55" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="C150" s="49" t="s">
-        <v>671</v>
-      </c>
-      <c r="D150" s="85" t="s">
         <v>672</v>
       </c>
+      <c r="D150" s="86" t="s">
+        <v>673</v>
+      </c>
       <c r="E150" s="49" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="F150" s="49"/>
       <c r="G150" s="36" t="s">
-        <v>674</v>
-      </c>
-      <c r="H150" s="98" t="s">
         <v>675</v>
+      </c>
+      <c r="H150" s="100" t="s">
+        <v>676</v>
       </c>
       <c r="I150" s="7"/>
       <c r="J150" s="7"/>
       <c r="K150" s="7"/>
     </row>
     <row r="151">
-      <c r="A151" s="99" t="s">
-        <v>676</v>
+      <c r="A151" s="101" t="s">
+        <v>677</v>
       </c>
       <c r="B151" s="55" t="s">
-        <v>677</v>
-      </c>
-      <c r="C151" s="85" t="s">
-        <v>671</v>
-      </c>
-      <c r="D151" s="85" t="s">
+        <v>678</v>
+      </c>
+      <c r="C151" s="86" t="s">
         <v>672</v>
       </c>
+      <c r="D151" s="86" t="s">
+        <v>673</v>
+      </c>
       <c r="E151" s="49" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="F151" s="49"/>
       <c r="G151" s="4" t="s">
-        <v>674</v>
-      </c>
-      <c r="H151" s="124" t="s">
-        <v>679</v>
+        <v>675</v>
+      </c>
+      <c r="H151" s="125" t="s">
+        <v>680</v>
       </c>
       <c r="I151" s="7"/>
       <c r="J151" s="7"/>
       <c r="K151" s="7"/>
     </row>
     <row r="152">
-      <c r="A152" s="99" t="s">
-        <v>680</v>
+      <c r="A152" s="101" t="s">
+        <v>681</v>
       </c>
       <c r="B152" s="55" t="s">
-        <v>681</v>
-      </c>
-      <c r="C152" s="135" t="s">
-        <v>578</v>
-      </c>
-      <c r="D152" s="85"/>
+        <v>682</v>
+      </c>
+      <c r="C152" s="136" t="s">
+        <v>579</v>
+      </c>
+      <c r="D152" s="86"/>
       <c r="E152" s="40" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="F152" s="40"/>
       <c r="G152" s="40" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="H152" s="40" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="I152" s="7"/>
       <c r="J152" s="7"/>
       <c r="K152" s="7"/>
     </row>
     <row r="153">
-      <c r="A153" s="126" t="s">
-        <v>685</v>
+      <c r="A153" s="127" t="s">
+        <v>686</v>
       </c>
       <c r="B153" s="38" t="s">
-        <v>686</v>
-      </c>
-      <c r="C153" s="134" t="s">
-        <v>666</v>
+        <v>687</v>
+      </c>
+      <c r="C153" s="135" t="s">
+        <v>667</v>
       </c>
       <c r="D153" s="7"/>
       <c r="E153" s="4"/>
@@ -15806,71 +15898,71 @@
       <c r="K153" s="7"/>
     </row>
     <row r="154">
-      <c r="A154" s="99" t="s">
-        <v>687</v>
+      <c r="A154" s="101" t="s">
+        <v>688</v>
       </c>
       <c r="B154" s="55"/>
-      <c r="C154" s="85"/>
+      <c r="C154" s="86"/>
       <c r="D154" s="7"/>
-      <c r="E154" s="59" t="s">
-        <v>656</v>
+      <c r="E154" s="60" t="s">
+        <v>657</v>
       </c>
       <c r="F154" s="49"/>
       <c r="G154" s="36" t="s">
-        <v>688</v>
-      </c>
-      <c r="H154" s="98" t="s">
         <v>689</v>
+      </c>
+      <c r="H154" s="100" t="s">
+        <v>690</v>
       </c>
       <c r="I154" s="7"/>
       <c r="J154" s="7"/>
       <c r="K154" s="7"/>
     </row>
     <row r="155">
-      <c r="A155" s="99" t="s">
-        <v>687</v>
-      </c>
-      <c r="B155" s="76"/>
-      <c r="C155" s="85"/>
+      <c r="A155" s="101" t="s">
+        <v>688</v>
+      </c>
+      <c r="B155" s="78"/>
+      <c r="C155" s="86"/>
       <c r="D155" s="7"/>
-      <c r="E155" s="59" t="s">
-        <v>656</v>
+      <c r="E155" s="60" t="s">
+        <v>657</v>
       </c>
       <c r="F155" s="49"/>
       <c r="G155" s="36" t="s">
-        <v>690</v>
-      </c>
-      <c r="H155" s="98" t="s">
         <v>691</v>
+      </c>
+      <c r="H155" s="100" t="s">
+        <v>692</v>
       </c>
       <c r="I155" s="7"/>
       <c r="J155" s="7"/>
       <c r="K155" s="7" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="48" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="B156" s="47" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="C156" s="7" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="D156" s="7" t="s">
-        <v>696</v>
-      </c>
-      <c r="E156" s="89" t="s">
         <v>697</v>
+      </c>
+      <c r="E156" s="90" t="s">
+        <v>698</v>
       </c>
       <c r="F156" s="7"/>
       <c r="G156" s="39" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="H156" s="39" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="I156" s="7"/>
       <c r="J156" s="7"/>
@@ -15878,166 +15970,168 @@
     </row>
     <row r="157">
       <c r="A157" s="48" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="B157" s="47" t="s">
-        <v>701</v>
-      </c>
-      <c r="C157" s="136"/>
-      <c r="D157" s="136"/>
-      <c r="E157" s="59" t="s">
-        <v>656</v>
-      </c>
-      <c r="F157" s="137"/>
+        <v>702</v>
+      </c>
+      <c r="C157" s="137"/>
+      <c r="D157" s="137"/>
+      <c r="E157" s="60" t="s">
+        <v>657</v>
+      </c>
+      <c r="F157" s="138"/>
       <c r="G157" s="49" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="H157" s="36" t="s">
-        <v>703</v>
-      </c>
-      <c r="I157" s="7"/>
+        <v>704</v>
+      </c>
+      <c r="I157" s="7" t="s">
+        <v>705</v>
+      </c>
       <c r="J157" s="7"/>
       <c r="K157" s="7"/>
     </row>
     <row r="158">
-      <c r="A158" s="99" t="s">
-        <v>704</v>
+      <c r="A158" s="101" t="s">
+        <v>706</v>
       </c>
       <c r="B158" s="55" t="s">
-        <v>705</v>
-      </c>
-      <c r="C158" s="85" t="s">
-        <v>706</v>
-      </c>
-      <c r="D158" s="85" t="s">
         <v>707</v>
       </c>
+      <c r="C158" s="86" t="s">
+        <v>708</v>
+      </c>
+      <c r="D158" s="86" t="s">
+        <v>709</v>
+      </c>
       <c r="E158" s="49" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="F158" s="49"/>
       <c r="G158" s="36" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="H158" s="36" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
       <c r="I158" s="7"/>
       <c r="J158" s="7"/>
       <c r="K158" s="7"/>
     </row>
     <row r="159">
-      <c r="A159" s="99" t="s">
-        <v>711</v>
+      <c r="A159" s="101" t="s">
+        <v>713</v>
       </c>
       <c r="B159" s="55" t="s">
-        <v>712</v>
-      </c>
-      <c r="C159" s="85"/>
-      <c r="D159" s="85"/>
+        <v>714</v>
+      </c>
+      <c r="C159" s="86"/>
+      <c r="D159" s="86"/>
       <c r="E159" s="49" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="F159" s="49"/>
       <c r="G159" s="4" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="H159" s="39" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="I159" s="7"/>
       <c r="J159" s="7"/>
       <c r="K159" s="7"/>
     </row>
     <row r="160">
-      <c r="A160" s="99" t="s">
-        <v>716</v>
+      <c r="A160" s="101" t="s">
+        <v>718</v>
       </c>
       <c r="B160" s="55" t="s">
-        <v>717</v>
-      </c>
-      <c r="C160" s="85"/>
-      <c r="D160" s="85"/>
+        <v>719</v>
+      </c>
+      <c r="C160" s="86"/>
+      <c r="D160" s="86"/>
       <c r="E160" s="49" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="F160" s="49"/>
       <c r="G160" s="4" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="H160" s="39" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
       <c r="I160" s="7"/>
       <c r="J160" s="7"/>
       <c r="K160" s="7"/>
     </row>
     <row r="161">
-      <c r="A161" s="99" t="s">
-        <v>720</v>
-      </c>
-      <c r="B161" s="83" t="s">
-        <v>721</v>
-      </c>
-      <c r="C161" s="85"/>
-      <c r="D161" s="85"/>
-      <c r="E161" s="85" t="s">
+      <c r="A161" s="101" t="s">
         <v>722</v>
       </c>
-      <c r="F161" s="85"/>
+      <c r="B161" s="84" t="s">
+        <v>723</v>
+      </c>
+      <c r="C161" s="86"/>
+      <c r="D161" s="86"/>
+      <c r="E161" s="86" t="s">
+        <v>724</v>
+      </c>
+      <c r="F161" s="86"/>
       <c r="G161" s="7" t="s">
-        <v>714</v>
-      </c>
-      <c r="H161" s="138" t="s">
-        <v>723</v>
+        <v>716</v>
+      </c>
+      <c r="H161" s="139" t="s">
+        <v>725</v>
       </c>
       <c r="I161" s="7"/>
       <c r="J161" s="7"/>
       <c r="K161" s="7"/>
     </row>
     <row r="162">
-      <c r="A162" s="99" t="s">
-        <v>724</v>
-      </c>
-      <c r="B162" s="83" t="s">
-        <v>725</v>
-      </c>
-      <c r="C162" s="85"/>
-      <c r="D162" s="85"/>
-      <c r="E162" s="85" t="s">
+      <c r="A162" s="101" t="s">
         <v>726</v>
       </c>
-      <c r="F162" s="85"/>
+      <c r="B162" s="84" t="s">
+        <v>727</v>
+      </c>
+      <c r="C162" s="86"/>
+      <c r="D162" s="86"/>
+      <c r="E162" s="86" t="s">
+        <v>728</v>
+      </c>
+      <c r="F162" s="86"/>
       <c r="G162" s="7" t="s">
-        <v>714</v>
-      </c>
-      <c r="H162" s="139" t="s">
-        <v>727</v>
+        <v>716</v>
+      </c>
+      <c r="H162" s="140" t="s">
+        <v>729</v>
       </c>
       <c r="I162" s="7"/>
       <c r="J162" s="7"/>
       <c r="K162" s="7"/>
     </row>
     <row r="163">
-      <c r="A163" s="99" t="s">
-        <v>728</v>
-      </c>
-      <c r="B163" s="83" t="s">
-        <v>729</v>
-      </c>
-      <c r="C163" s="140" t="s">
+      <c r="A163" s="101" t="s">
         <v>730</v>
       </c>
-      <c r="D163" s="85"/>
-      <c r="E163" s="85" t="s">
+      <c r="B163" s="84" t="s">
         <v>731</v>
       </c>
-      <c r="F163" s="82"/>
+      <c r="C163" s="141" t="s">
+        <v>732</v>
+      </c>
+      <c r="D163" s="86"/>
+      <c r="E163" s="86" t="s">
+        <v>733</v>
+      </c>
+      <c r="F163" s="72"/>
       <c r="G163" s="14" t="s">
-        <v>732</v>
-      </c>
-      <c r="H163" s="141" t="s">
-        <v>733</v>
+        <v>734</v>
+      </c>
+      <c r="H163" s="142" t="s">
+        <v>735</v>
       </c>
       <c r="I163" s="7"/>
       <c r="J163" s="7"/>
@@ -16045,17 +16139,17 @@
     </row>
     <row r="164">
       <c r="A164" s="48" t="s">
-        <v>734</v>
-      </c>
-      <c r="B164" s="142" t="s">
-        <v>735</v>
-      </c>
-      <c r="C164" s="133" t="s">
-        <v>666</v>
-      </c>
-      <c r="D164" s="85"/>
-      <c r="E164" s="82"/>
-      <c r="F164" s="85"/>
+        <v>736</v>
+      </c>
+      <c r="B164" s="143" t="s">
+        <v>737</v>
+      </c>
+      <c r="C164" s="134" t="s">
+        <v>667</v>
+      </c>
+      <c r="D164" s="86"/>
+      <c r="E164" s="72"/>
+      <c r="F164" s="86"/>
       <c r="G164" s="14"/>
       <c r="H164" s="14"/>
       <c r="I164" s="7"/>
@@ -16063,326 +16157,330 @@
       <c r="K164" s="7"/>
     </row>
     <row r="165">
-      <c r="A165" s="99" t="s">
-        <v>736</v>
-      </c>
-      <c r="B165" s="83" t="s">
-        <v>55</v>
+      <c r="A165" s="101" t="s">
+        <v>738</v>
+      </c>
+      <c r="B165" s="84" t="s">
+        <v>56</v>
       </c>
       <c r="C165" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="D165" s="85" t="s">
         <v>57</v>
       </c>
-      <c r="E165" s="85" t="s">
-        <v>737</v>
-      </c>
-      <c r="F165" s="85"/>
-      <c r="G165" s="143" t="s">
-        <v>59</v>
-      </c>
-      <c r="H165" s="143" t="s">
-        <v>738</v>
-      </c>
-      <c r="I165" s="7"/>
+      <c r="D165" s="86" t="s">
+        <v>58</v>
+      </c>
+      <c r="E165" s="86" t="s">
+        <v>739</v>
+      </c>
+      <c r="F165" s="86"/>
+      <c r="G165" s="98" t="s">
+        <v>60</v>
+      </c>
+      <c r="H165" s="98" t="s">
+        <v>740</v>
+      </c>
+      <c r="I165" s="7" t="s">
+        <v>62</v>
+      </c>
       <c r="J165" s="7"/>
       <c r="K165" s="7"/>
     </row>
     <row r="166">
-      <c r="A166" s="99" t="s">
-        <v>739</v>
-      </c>
-      <c r="B166" s="83" t="s">
-        <v>62</v>
+      <c r="A166" s="101" t="s">
+        <v>741</v>
+      </c>
+      <c r="B166" s="84" t="s">
+        <v>64</v>
       </c>
       <c r="C166" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="D166" s="85" t="s">
-        <v>64</v>
-      </c>
-      <c r="E166" s="85" t="s">
-        <v>740</v>
-      </c>
-      <c r="F166" s="85"/>
-      <c r="G166" s="96" t="s">
+        <v>65</v>
+      </c>
+      <c r="D166" s="86" t="s">
         <v>66</v>
       </c>
-      <c r="H166" s="96" t="s">
-        <v>741</v>
-      </c>
-      <c r="I166" s="7"/>
+      <c r="E166" s="86" t="s">
+        <v>742</v>
+      </c>
+      <c r="F166" s="86"/>
+      <c r="G166" s="97" t="s">
+        <v>68</v>
+      </c>
+      <c r="H166" s="97" t="s">
+        <v>743</v>
+      </c>
+      <c r="I166" s="7" t="s">
+        <v>70</v>
+      </c>
       <c r="J166" s="7"/>
       <c r="K166" s="7"/>
     </row>
     <row r="167">
-      <c r="A167" s="99" t="s">
-        <v>742</v>
-      </c>
-      <c r="B167" s="83" t="s">
-        <v>69</v>
+      <c r="A167" s="101" t="s">
+        <v>744</v>
+      </c>
+      <c r="B167" s="84" t="s">
+        <v>72</v>
       </c>
       <c r="C167" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="D167" s="85" t="s">
-        <v>71</v>
-      </c>
-      <c r="E167" s="85" t="s">
-        <v>743</v>
-      </c>
-      <c r="F167" s="85"/>
+        <v>73</v>
+      </c>
+      <c r="D167" s="86" t="s">
+        <v>74</v>
+      </c>
+      <c r="E167" s="86" t="s">
+        <v>745</v>
+      </c>
+      <c r="F167" s="86"/>
       <c r="G167" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="H167" s="82" t="s">
-        <v>744</v>
+        <v>76</v>
+      </c>
+      <c r="H167" s="72" t="s">
+        <v>746</v>
       </c>
       <c r="I167" s="7"/>
       <c r="J167" s="7"/>
       <c r="K167" s="7"/>
     </row>
     <row r="168">
-      <c r="A168" s="99" t="s">
-        <v>745</v>
-      </c>
-      <c r="B168" s="83" t="s">
+      <c r="A168" s="101" t="s">
+        <v>747</v>
+      </c>
+      <c r="B168" s="84" t="s">
+        <v>79</v>
+      </c>
+      <c r="C168" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="D168" s="86" t="s">
+        <v>81</v>
+      </c>
+      <c r="E168" s="86" t="s">
+        <v>748</v>
+      </c>
+      <c r="F168" s="86"/>
+      <c r="G168" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="C168" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="D168" s="85" t="s">
-        <v>78</v>
-      </c>
-      <c r="E168" s="85" t="s">
-        <v>746</v>
-      </c>
-      <c r="F168" s="85"/>
-      <c r="G168" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="H168" s="82" t="s">
-        <v>747</v>
+      <c r="H168" s="72" t="s">
+        <v>749</v>
       </c>
       <c r="I168" s="7"/>
       <c r="J168" s="7"/>
       <c r="K168" s="7"/>
     </row>
     <row r="169">
-      <c r="A169" s="99" t="s">
-        <v>748</v>
-      </c>
-      <c r="B169" s="83" t="s">
-        <v>82</v>
+      <c r="A169" s="101" t="s">
+        <v>750</v>
+      </c>
+      <c r="B169" s="84" t="s">
+        <v>85</v>
       </c>
       <c r="C169" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="D169" s="85" t="s">
-        <v>84</v>
-      </c>
-      <c r="E169" s="82" t="s">
-        <v>749</v>
-      </c>
-      <c r="F169" s="82" t="s">
-        <v>750</v>
+        <v>86</v>
+      </c>
+      <c r="D169" s="86" t="s">
+        <v>87</v>
+      </c>
+      <c r="E169" s="72" t="s">
+        <v>751</v>
+      </c>
+      <c r="F169" s="72" t="s">
+        <v>752</v>
       </c>
       <c r="G169" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="H169" s="85" t="s">
-        <v>751</v>
+        <v>90</v>
+      </c>
+      <c r="H169" s="86" t="s">
+        <v>753</v>
       </c>
       <c r="I169" s="7"/>
       <c r="J169" s="7"/>
       <c r="K169" s="7"/>
     </row>
     <row r="170">
-      <c r="A170" s="99" t="s">
-        <v>752</v>
-      </c>
-      <c r="B170" s="83" t="s">
-        <v>90</v>
+      <c r="A170" s="101" t="s">
+        <v>754</v>
+      </c>
+      <c r="B170" s="84" t="s">
+        <v>93</v>
       </c>
       <c r="C170" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="D170" s="85" t="s">
-        <v>753</v>
-      </c>
-      <c r="E170" s="118" t="s">
-        <v>754</v>
-      </c>
-      <c r="F170" s="118"/>
+        <v>94</v>
+      </c>
+      <c r="D170" s="86" t="s">
+        <v>755</v>
+      </c>
+      <c r="E170" s="119" t="s">
+        <v>756</v>
+      </c>
+      <c r="F170" s="119"/>
       <c r="G170" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="H170" s="82" t="s">
-        <v>755</v>
+        <v>97</v>
+      </c>
+      <c r="H170" s="72" t="s">
+        <v>757</v>
       </c>
       <c r="I170" s="7"/>
       <c r="J170" s="7"/>
       <c r="K170" s="7"/>
     </row>
     <row r="171">
-      <c r="A171" s="99" t="s">
-        <v>756</v>
-      </c>
-      <c r="B171" s="83" t="s">
-        <v>97</v>
+      <c r="A171" s="101" t="s">
+        <v>758</v>
+      </c>
+      <c r="B171" s="84" t="s">
+        <v>100</v>
       </c>
       <c r="C171" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="D171" s="85" t="s">
-        <v>99</v>
-      </c>
-      <c r="E171" s="118" t="s">
-        <v>757</v>
-      </c>
-      <c r="F171" s="85"/>
-      <c r="G171" s="143" t="s">
         <v>101</v>
       </c>
-      <c r="H171" s="143" t="s">
-        <v>758</v>
+      <c r="D171" s="86" t="s">
+        <v>102</v>
+      </c>
+      <c r="E171" s="119" t="s">
+        <v>759</v>
+      </c>
+      <c r="F171" s="86"/>
+      <c r="G171" s="98" t="s">
+        <v>104</v>
+      </c>
+      <c r="H171" s="98" t="s">
+        <v>760</v>
       </c>
       <c r="I171" s="7"/>
       <c r="J171" s="7"/>
       <c r="K171" s="7"/>
     </row>
     <row r="172">
-      <c r="A172" s="99" t="s">
-        <v>759</v>
-      </c>
-      <c r="B172" s="83" t="s">
-        <v>117</v>
+      <c r="A172" s="101" t="s">
+        <v>761</v>
+      </c>
+      <c r="B172" s="84" t="s">
+        <v>120</v>
       </c>
       <c r="C172" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="D172" s="85" t="s">
-        <v>119</v>
-      </c>
-      <c r="E172" s="85" t="s">
-        <v>760</v>
-      </c>
-      <c r="F172" s="85"/>
-      <c r="G172" s="85" t="s">
-        <v>761</v>
-      </c>
-      <c r="H172" s="85" t="s">
+        <v>121</v>
+      </c>
+      <c r="D172" s="86" t="s">
+        <v>122</v>
+      </c>
+      <c r="E172" s="86" t="s">
         <v>762</v>
+      </c>
+      <c r="F172" s="86"/>
+      <c r="G172" s="86" t="s">
+        <v>763</v>
+      </c>
+      <c r="H172" s="86" t="s">
+        <v>764</v>
       </c>
       <c r="I172" s="7"/>
       <c r="J172" s="7"/>
       <c r="K172" s="7"/>
     </row>
     <row r="173">
-      <c r="A173" s="99" t="s">
-        <v>763</v>
-      </c>
-      <c r="B173" s="83" t="s">
-        <v>111</v>
+      <c r="A173" s="101" t="s">
+        <v>765</v>
+      </c>
+      <c r="B173" s="84" t="s">
+        <v>114</v>
       </c>
       <c r="C173" s="14" t="s">
-        <v>112</v>
-      </c>
-      <c r="D173" s="85" t="s">
-        <v>113</v>
-      </c>
-      <c r="E173" s="85" t="s">
-        <v>764</v>
-      </c>
-      <c r="F173" s="85"/>
-      <c r="G173" s="85" t="s">
-        <v>765</v>
-      </c>
-      <c r="H173" s="85" t="s">
+        <v>115</v>
+      </c>
+      <c r="D173" s="86" t="s">
+        <v>116</v>
+      </c>
+      <c r="E173" s="86" t="s">
         <v>766</v>
+      </c>
+      <c r="F173" s="86"/>
+      <c r="G173" s="86" t="s">
+        <v>767</v>
+      </c>
+      <c r="H173" s="86" t="s">
+        <v>768</v>
       </c>
       <c r="I173" s="7"/>
       <c r="J173" s="7"/>
       <c r="K173" s="7"/>
     </row>
     <row r="174">
-      <c r="A174" s="99" t="s">
-        <v>767</v>
-      </c>
-      <c r="B174" s="83" t="s">
-        <v>768</v>
-      </c>
-      <c r="C174" s="85" t="s">
-        <v>133</v>
-      </c>
-      <c r="D174" s="85" t="s">
-        <v>134</v>
-      </c>
-      <c r="E174" s="85" t="s">
+      <c r="A174" s="101" t="s">
         <v>769</v>
       </c>
-      <c r="F174" s="85"/>
-      <c r="G174" s="96" t="s">
-        <v>761</v>
-      </c>
-      <c r="H174" s="96" t="s">
+      <c r="B174" s="84" t="s">
         <v>770</v>
+      </c>
+      <c r="C174" s="86" t="s">
+        <v>136</v>
+      </c>
+      <c r="D174" s="86" t="s">
+        <v>137</v>
+      </c>
+      <c r="E174" s="86" t="s">
+        <v>771</v>
+      </c>
+      <c r="F174" s="86"/>
+      <c r="G174" s="97" t="s">
+        <v>763</v>
+      </c>
+      <c r="H174" s="97" t="s">
+        <v>772</v>
       </c>
       <c r="I174" s="7"/>
       <c r="J174" s="7"/>
       <c r="K174" s="7"/>
     </row>
     <row r="175">
-      <c r="A175" s="99" t="s">
-        <v>771</v>
-      </c>
-      <c r="B175" s="83" t="s">
-        <v>124</v>
+      <c r="A175" s="101" t="s">
+        <v>773</v>
+      </c>
+      <c r="B175" s="84" t="s">
+        <v>127</v>
       </c>
       <c r="C175" s="14" t="s">
-        <v>125</v>
-      </c>
-      <c r="D175" s="85" t="s">
-        <v>126</v>
-      </c>
-      <c r="E175" s="85" t="s">
-        <v>772</v>
-      </c>
-      <c r="F175" s="85"/>
-      <c r="G175" s="85" t="s">
-        <v>765</v>
-      </c>
-      <c r="H175" s="85" t="s">
-        <v>773</v>
+        <v>128</v>
+      </c>
+      <c r="D175" s="86" t="s">
+        <v>129</v>
+      </c>
+      <c r="E175" s="86" t="s">
+        <v>774</v>
+      </c>
+      <c r="F175" s="86"/>
+      <c r="G175" s="86" t="s">
+        <v>767</v>
+      </c>
+      <c r="H175" s="86" t="s">
+        <v>775</v>
       </c>
       <c r="I175" s="7"/>
       <c r="J175" s="7"/>
       <c r="K175" s="7"/>
     </row>
     <row r="176">
-      <c r="A176" s="99" t="s">
-        <v>774</v>
-      </c>
-      <c r="B176" s="83" t="s">
-        <v>775</v>
+      <c r="A176" s="101" t="s">
+        <v>776</v>
+      </c>
+      <c r="B176" s="84" t="s">
+        <v>777</v>
       </c>
       <c r="C176" s="14" t="s">
-        <v>776</v>
-      </c>
-      <c r="D176" s="85" t="s">
-        <v>777</v>
+        <v>778</v>
+      </c>
+      <c r="D176" s="86" t="s">
+        <v>779</v>
       </c>
       <c r="E176" s="144" t="s">
-        <v>778</v>
-      </c>
-      <c r="F176" s="74"/>
+        <v>780</v>
+      </c>
+      <c r="F176" s="76"/>
       <c r="G176" s="7" t="s">
-        <v>779</v>
+        <v>781</v>
       </c>
       <c r="H176" s="145" t="s">
-        <v>780</v>
+        <v>782</v>
       </c>
       <c r="I176" s="7"/>
       <c r="J176" s="7"/>
@@ -16391,17 +16489,17 @@
     <row r="177">
       <c r="A177" s="19"/>
       <c r="B177" s="7"/>
-      <c r="C177" s="85"/>
-      <c r="D177" s="85"/>
+      <c r="C177" s="86"/>
+      <c r="D177" s="86"/>
       <c r="E177" s="144" t="s">
-        <v>778</v>
-      </c>
-      <c r="F177" s="74"/>
-      <c r="G177" s="143" t="s">
-        <v>781</v>
-      </c>
-      <c r="H177" s="143" t="s">
-        <v>782</v>
+        <v>780</v>
+      </c>
+      <c r="F177" s="76"/>
+      <c r="G177" s="98" t="s">
+        <v>783</v>
+      </c>
+      <c r="H177" s="98" t="s">
+        <v>784</v>
       </c>
       <c r="I177" s="7"/>
       <c r="J177" s="7"/>
@@ -16409,13 +16507,13 @@
     </row>
     <row r="178">
       <c r="A178" s="48" t="s">
-        <v>783</v>
-      </c>
-      <c r="B178" s="142" t="s">
-        <v>784</v>
-      </c>
-      <c r="C178" s="134" t="s">
-        <v>666</v>
+        <v>785</v>
+      </c>
+      <c r="B178" s="143" t="s">
+        <v>786</v>
+      </c>
+      <c r="C178" s="135" t="s">
+        <v>667</v>
       </c>
       <c r="D178" s="7"/>
       <c r="E178" s="19"/>
@@ -16427,246 +16525,246 @@
       <c r="K178" s="7"/>
     </row>
     <row r="179">
-      <c r="A179" s="99" t="s">
-        <v>785</v>
-      </c>
-      <c r="B179" s="83" t="s">
-        <v>786</v>
-      </c>
-      <c r="C179" s="85" t="s">
-        <v>477</v>
-      </c>
-      <c r="D179" s="85" t="s">
-        <v>364</v>
-      </c>
-      <c r="E179" s="118" t="s">
+      <c r="A179" s="101" t="s">
         <v>787</v>
       </c>
-      <c r="F179" s="118"/>
+      <c r="B179" s="84" t="s">
+        <v>788</v>
+      </c>
+      <c r="C179" s="86" t="s">
+        <v>479</v>
+      </c>
+      <c r="D179" s="86" t="s">
+        <v>366</v>
+      </c>
+      <c r="E179" s="119" t="s">
+        <v>789</v>
+      </c>
+      <c r="F179" s="119"/>
       <c r="G179" s="14" t="s">
-        <v>479</v>
-      </c>
-      <c r="H179" s="85" t="s">
-        <v>788</v>
+        <v>481</v>
+      </c>
+      <c r="H179" s="86" t="s">
+        <v>790</v>
       </c>
       <c r="I179" s="7"/>
       <c r="J179" s="7"/>
       <c r="K179" s="7"/>
     </row>
     <row r="180">
-      <c r="A180" s="110" t="s">
-        <v>789</v>
-      </c>
-      <c r="B180" s="71" t="s">
-        <v>369</v>
+      <c r="A180" s="111" t="s">
+        <v>791</v>
+      </c>
+      <c r="B180" s="73" t="s">
+        <v>371</v>
       </c>
       <c r="C180" s="146" t="s">
-        <v>176</v>
-      </c>
-      <c r="D180" s="85"/>
-      <c r="E180" s="118" t="s">
-        <v>790</v>
-      </c>
-      <c r="F180" s="118"/>
+        <v>179</v>
+      </c>
+      <c r="D180" s="86"/>
+      <c r="E180" s="119" t="s">
+        <v>792</v>
+      </c>
+      <c r="F180" s="119"/>
       <c r="G180" s="14" t="s">
-        <v>791</v>
-      </c>
-      <c r="H180" s="85" t="s">
-        <v>792</v>
+        <v>793</v>
+      </c>
+      <c r="H180" s="86" t="s">
+        <v>794</v>
       </c>
       <c r="I180" s="7"/>
       <c r="J180" s="7"/>
       <c r="K180" s="7"/>
     </row>
     <row r="181">
-      <c r="A181" s="99" t="s">
-        <v>793</v>
-      </c>
-      <c r="B181" s="83" t="s">
-        <v>794</v>
-      </c>
-      <c r="C181" s="85" t="s">
+      <c r="A181" s="101" t="s">
         <v>795</v>
       </c>
-      <c r="D181" s="85" t="s">
+      <c r="B181" s="84" t="s">
         <v>796</v>
       </c>
-      <c r="E181" s="118" t="s">
+      <c r="C181" s="86" t="s">
         <v>797</v>
       </c>
-      <c r="F181" s="118"/>
+      <c r="D181" s="86" t="s">
+        <v>798</v>
+      </c>
+      <c r="E181" s="119" t="s">
+        <v>799</v>
+      </c>
+      <c r="F181" s="119"/>
       <c r="G181" s="7" t="s">
-        <v>798</v>
-      </c>
-      <c r="H181" s="82" t="s">
-        <v>799</v>
+        <v>800</v>
+      </c>
+      <c r="H181" s="72" t="s">
+        <v>801</v>
       </c>
       <c r="I181" s="7"/>
       <c r="J181" s="7"/>
       <c r="K181" s="7"/>
     </row>
     <row r="182">
-      <c r="A182" s="110" t="s">
-        <v>800</v>
-      </c>
-      <c r="B182" s="71" t="s">
-        <v>369</v>
+      <c r="A182" s="111" t="s">
+        <v>802</v>
+      </c>
+      <c r="B182" s="73" t="s">
+        <v>371</v>
       </c>
       <c r="C182" s="146" t="s">
-        <v>176</v>
-      </c>
-      <c r="D182" s="85"/>
-      <c r="E182" s="85" t="s">
-        <v>801</v>
-      </c>
-      <c r="F182" s="85"/>
+        <v>179</v>
+      </c>
+      <c r="D182" s="86"/>
+      <c r="E182" s="86" t="s">
+        <v>803</v>
+      </c>
+      <c r="F182" s="86"/>
       <c r="G182" s="7" t="s">
-        <v>802</v>
-      </c>
-      <c r="H182" s="82" t="s">
-        <v>803</v>
+        <v>804</v>
+      </c>
+      <c r="H182" s="72" t="s">
+        <v>805</v>
       </c>
       <c r="I182" s="7"/>
       <c r="J182" s="7"/>
       <c r="K182" s="7"/>
     </row>
     <row r="183">
-      <c r="A183" s="99" t="s">
-        <v>804</v>
-      </c>
-      <c r="B183" s="83" t="s">
-        <v>805</v>
-      </c>
-      <c r="C183" s="108" t="s">
+      <c r="A183" s="101" t="s">
         <v>806</v>
       </c>
-      <c r="D183" s="108" t="s">
+      <c r="B183" s="84" t="s">
         <v>807</v>
       </c>
+      <c r="C183" s="109" t="s">
+        <v>808</v>
+      </c>
+      <c r="D183" s="109" t="s">
+        <v>809</v>
+      </c>
       <c r="E183" s="147" t="s">
-        <v>808</v>
+        <v>810</v>
       </c>
       <c r="F183" s="147"/>
-      <c r="G183" s="90" t="s">
-        <v>809</v>
-      </c>
-      <c r="H183" s="90" t="s">
-        <v>810</v>
+      <c r="G183" s="91" t="s">
+        <v>811</v>
+      </c>
+      <c r="H183" s="91" t="s">
+        <v>812</v>
       </c>
       <c r="I183" s="7"/>
       <c r="J183" s="7"/>
       <c r="K183" s="7"/>
     </row>
     <row r="184">
-      <c r="A184" s="110" t="s">
-        <v>811</v>
-      </c>
-      <c r="B184" s="71" t="s">
-        <v>369</v>
+      <c r="A184" s="111" t="s">
+        <v>813</v>
+      </c>
+      <c r="B184" s="73" t="s">
+        <v>371</v>
       </c>
       <c r="C184" s="148" t="s">
-        <v>176</v>
-      </c>
-      <c r="D184" s="108"/>
+        <v>179</v>
+      </c>
+      <c r="D184" s="109"/>
       <c r="E184" s="147" t="s">
-        <v>812</v>
-      </c>
-      <c r="F184" s="108"/>
-      <c r="G184" s="90" t="s">
-        <v>813</v>
-      </c>
-      <c r="H184" s="90" t="s">
         <v>814</v>
+      </c>
+      <c r="F184" s="109"/>
+      <c r="G184" s="91" t="s">
+        <v>815</v>
+      </c>
+      <c r="H184" s="91" t="s">
+        <v>816</v>
       </c>
       <c r="I184" s="7"/>
       <c r="J184" s="7"/>
       <c r="K184" s="7"/>
     </row>
     <row r="185">
-      <c r="A185" s="99" t="s">
-        <v>815</v>
-      </c>
-      <c r="B185" s="83" t="s">
-        <v>816</v>
-      </c>
-      <c r="C185" s="108" t="s">
+      <c r="A185" s="101" t="s">
         <v>817</v>
       </c>
-      <c r="D185" s="108" t="s">
+      <c r="B185" s="84" t="s">
         <v>818</v>
       </c>
-      <c r="E185" s="90" t="s">
+      <c r="C185" s="109" t="s">
         <v>819</v>
       </c>
-      <c r="F185" s="90"/>
-      <c r="G185" s="90" t="s">
-        <v>809</v>
-      </c>
-      <c r="H185" s="90" t="s">
+      <c r="D185" s="109" t="s">
         <v>820</v>
+      </c>
+      <c r="E185" s="91" t="s">
+        <v>821</v>
+      </c>
+      <c r="F185" s="91"/>
+      <c r="G185" s="91" t="s">
+        <v>811</v>
+      </c>
+      <c r="H185" s="91" t="s">
+        <v>822</v>
       </c>
       <c r="I185" s="7"/>
       <c r="J185" s="7"/>
       <c r="K185" s="7"/>
     </row>
     <row r="186">
-      <c r="A186" s="110" t="s">
-        <v>821</v>
-      </c>
-      <c r="B186" s="71" t="s">
-        <v>369</v>
+      <c r="A186" s="111" t="s">
+        <v>823</v>
+      </c>
+      <c r="B186" s="73" t="s">
+        <v>371</v>
       </c>
       <c r="C186" s="148" t="s">
-        <v>176</v>
-      </c>
-      <c r="D186" s="108"/>
-      <c r="E186" s="108" t="s">
-        <v>822</v>
-      </c>
-      <c r="F186" s="108"/>
-      <c r="G186" s="90" t="s">
-        <v>813</v>
-      </c>
-      <c r="H186" s="90" t="s">
-        <v>823</v>
+        <v>179</v>
+      </c>
+      <c r="D186" s="109"/>
+      <c r="E186" s="109" t="s">
+        <v>824</v>
+      </c>
+      <c r="F186" s="109"/>
+      <c r="G186" s="91" t="s">
+        <v>815</v>
+      </c>
+      <c r="H186" s="91" t="s">
+        <v>825</v>
       </c>
       <c r="I186" s="7"/>
       <c r="J186" s="7"/>
       <c r="K186" s="7"/>
     </row>
     <row r="187">
-      <c r="A187" s="99" t="s">
-        <v>824</v>
-      </c>
-      <c r="B187" s="83" t="s">
-        <v>825</v>
-      </c>
-      <c r="C187" s="108" t="s">
+      <c r="A187" s="101" t="s">
         <v>826</v>
       </c>
-      <c r="D187" s="108" t="s">
+      <c r="B187" s="84" t="s">
         <v>827</v>
       </c>
-      <c r="E187" s="108" t="s">
+      <c r="C187" s="109" t="s">
         <v>828</v>
       </c>
-      <c r="F187" s="108"/>
-      <c r="G187" s="108" t="s">
+      <c r="D187" s="109" t="s">
         <v>829</v>
       </c>
-      <c r="H187" s="108" t="s">
+      <c r="E187" s="109" t="s">
         <v>830</v>
+      </c>
+      <c r="F187" s="109"/>
+      <c r="G187" s="109" t="s">
+        <v>831</v>
+      </c>
+      <c r="H187" s="109" t="s">
+        <v>832</v>
       </c>
       <c r="I187" s="7"/>
       <c r="J187" s="7"/>
       <c r="K187" s="7"/>
     </row>
     <row r="188">
-      <c r="A188" s="125" t="s">
-        <v>831</v>
+      <c r="A188" s="126" t="s">
+        <v>833</v>
       </c>
       <c r="B188" s="149" t="s">
-        <v>832</v>
+        <v>834</v>
       </c>
       <c r="C188" s="7"/>
       <c r="D188" s="7"/>
@@ -16680,41 +16778,41 @@
     </row>
     <row r="189">
       <c r="A189" s="37" t="s">
-        <v>833</v>
+        <v>835</v>
       </c>
       <c r="B189" s="150" t="s">
-        <v>834</v>
-      </c>
-      <c r="C189" s="122"/>
-      <c r="D189" s="84"/>
+        <v>836</v>
+      </c>
+      <c r="C189" s="123"/>
+      <c r="D189" s="85"/>
       <c r="E189" s="151"/>
-      <c r="F189" s="119"/>
-      <c r="G189" s="85"/>
-      <c r="H189" s="85"/>
+      <c r="F189" s="120"/>
+      <c r="G189" s="86"/>
+      <c r="H189" s="86"/>
       <c r="I189" s="7"/>
       <c r="J189" s="7"/>
       <c r="K189" s="7"/>
     </row>
     <row r="190">
       <c r="A190" s="46" t="s">
-        <v>835</v>
-      </c>
-      <c r="B190" s="142" t="s">
-        <v>836</v>
-      </c>
-      <c r="C190" s="122" t="s">
         <v>837</v>
       </c>
-      <c r="D190" s="84"/>
+      <c r="B190" s="143" t="s">
+        <v>838</v>
+      </c>
+      <c r="C190" s="123" t="s">
+        <v>839</v>
+      </c>
+      <c r="D190" s="85"/>
       <c r="E190" s="151" t="s">
-        <v>838</v>
-      </c>
-      <c r="F190" s="119"/>
+        <v>840</v>
+      </c>
+      <c r="F190" s="120"/>
       <c r="G190" s="7" t="s">
-        <v>839</v>
+        <v>841</v>
       </c>
       <c r="H190" s="32" t="s">
-        <v>840</v>
+        <v>842</v>
       </c>
       <c r="I190" s="7"/>
       <c r="J190" s="7"/>
@@ -16722,24 +16820,24 @@
     </row>
     <row r="191">
       <c r="A191" s="46" t="s">
+        <v>843</v>
+      </c>
+      <c r="B191" s="143" t="s">
+        <v>844</v>
+      </c>
+      <c r="C191" s="123" t="s">
+        <v>845</v>
+      </c>
+      <c r="D191" s="85"/>
+      <c r="E191" s="151" t="s">
+        <v>846</v>
+      </c>
+      <c r="F191" s="120"/>
+      <c r="G191" s="7" t="s">
         <v>841</v>
       </c>
-      <c r="B191" s="142" t="s">
-        <v>842</v>
-      </c>
-      <c r="C191" s="122" t="s">
-        <v>843</v>
-      </c>
-      <c r="D191" s="84"/>
-      <c r="E191" s="151" t="s">
-        <v>844</v>
-      </c>
-      <c r="F191" s="119"/>
-      <c r="G191" s="7" t="s">
-        <v>839</v>
-      </c>
       <c r="H191" s="32" t="s">
-        <v>845</v>
+        <v>847</v>
       </c>
       <c r="I191" s="7"/>
       <c r="J191" s="7"/>
@@ -16747,69 +16845,71 @@
     </row>
     <row r="192">
       <c r="A192" s="46" t="s">
-        <v>846</v>
-      </c>
-      <c r="B192" s="142" t="s">
-        <v>847</v>
-      </c>
-      <c r="C192" s="122" t="s">
         <v>848</v>
       </c>
-      <c r="D192" s="84"/>
+      <c r="B192" s="143" t="s">
+        <v>849</v>
+      </c>
+      <c r="C192" s="123" t="s">
+        <v>850</v>
+      </c>
+      <c r="D192" s="85"/>
       <c r="E192" s="151" t="s">
-        <v>849</v>
-      </c>
-      <c r="F192" s="119"/>
+        <v>851</v>
+      </c>
+      <c r="F192" s="120"/>
       <c r="G192" s="7" t="s">
-        <v>839</v>
+        <v>841</v>
       </c>
       <c r="H192" s="32" t="s">
-        <v>850</v>
+        <v>852</v>
       </c>
       <c r="I192" s="7"/>
       <c r="J192" s="7"/>
       <c r="K192" s="7"/>
     </row>
     <row r="193">
-      <c r="A193" s="126" t="s">
-        <v>851</v>
+      <c r="A193" s="127" t="s">
+        <v>853</v>
       </c>
       <c r="B193" s="150" t="s">
-        <v>534</v>
-      </c>
-      <c r="C193" s="85" t="s">
         <v>535</v>
       </c>
+      <c r="C193" s="86" t="s">
+        <v>536</v>
+      </c>
       <c r="D193" s="7" t="s">
-        <v>536</v>
-      </c>
-      <c r="E193" s="118" t="s">
-        <v>852</v>
-      </c>
-      <c r="F193" s="118"/>
+        <v>537</v>
+      </c>
+      <c r="E193" s="119" t="s">
+        <v>854</v>
+      </c>
+      <c r="F193" s="119"/>
       <c r="G193" s="152" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="H193" s="153" t="s">
-        <v>853</v>
-      </c>
-      <c r="I193" s="7"/>
+        <v>855</v>
+      </c>
+      <c r="I193" s="7" t="s">
+        <v>62</v>
+      </c>
       <c r="J193" s="7"/>
       <c r="K193" s="7"/>
     </row>
     <row r="194">
-      <c r="A194" s="126" t="s">
-        <v>854</v>
+      <c r="A194" s="127" t="s">
+        <v>856</v>
       </c>
       <c r="B194" s="150" t="s">
-        <v>855</v>
-      </c>
-      <c r="C194" s="133" t="s">
-        <v>666</v>
+        <v>857</v>
+      </c>
+      <c r="C194" s="134" t="s">
+        <v>667</v>
       </c>
       <c r="D194" s="7"/>
-      <c r="E194" s="119"/>
-      <c r="F194" s="119"/>
+      <c r="E194" s="120"/>
+      <c r="F194" s="120"/>
       <c r="G194" s="7"/>
       <c r="H194" s="7"/>
       <c r="I194" s="7"/>
@@ -16818,267 +16918,269 @@
     </row>
     <row r="195">
       <c r="A195" s="48" t="s">
-        <v>856</v>
-      </c>
-      <c r="B195" s="142" t="s">
-        <v>857</v>
+        <v>858</v>
+      </c>
+      <c r="B195" s="143" t="s">
+        <v>859</v>
       </c>
       <c r="C195" s="154" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="D195" s="7"/>
-      <c r="E195" s="82" t="s">
-        <v>858</v>
-      </c>
-      <c r="F195" s="85"/>
+      <c r="E195" s="72" t="s">
+        <v>860</v>
+      </c>
+      <c r="F195" s="86"/>
       <c r="G195" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H195" s="14" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="I195" s="7"/>
       <c r="J195" s="7"/>
       <c r="K195" s="7"/>
     </row>
     <row r="196">
-      <c r="A196" s="99" t="s">
-        <v>859</v>
-      </c>
-      <c r="B196" s="83" t="s">
-        <v>55</v>
-      </c>
-      <c r="C196" s="85" t="s">
+      <c r="A196" s="101" t="s">
+        <v>861</v>
+      </c>
+      <c r="B196" s="84" t="s">
         <v>56</v>
       </c>
-      <c r="D196" s="85" t="s">
+      <c r="C196" s="86" t="s">
         <v>57</v>
       </c>
-      <c r="E196" s="85" t="s">
-        <v>860</v>
-      </c>
-      <c r="F196" s="85"/>
-      <c r="G196" s="82" t="s">
-        <v>59</v>
-      </c>
-      <c r="H196" s="82" t="s">
-        <v>861</v>
-      </c>
-      <c r="I196" s="7"/>
+      <c r="D196" s="86" t="s">
+        <v>58</v>
+      </c>
+      <c r="E196" s="86" t="s">
+        <v>862</v>
+      </c>
+      <c r="F196" s="86"/>
+      <c r="G196" s="72" t="s">
+        <v>60</v>
+      </c>
+      <c r="H196" s="72" t="s">
+        <v>863</v>
+      </c>
+      <c r="I196" s="7" t="s">
+        <v>62</v>
+      </c>
       <c r="J196" s="7"/>
       <c r="K196" s="7"/>
     </row>
     <row r="197">
-      <c r="A197" s="99" t="s">
-        <v>862</v>
-      </c>
-      <c r="B197" s="83" t="s">
-        <v>69</v>
-      </c>
-      <c r="C197" s="85" t="s">
-        <v>70</v>
-      </c>
-      <c r="D197" s="85" t="s">
-        <v>71</v>
-      </c>
-      <c r="E197" s="85" t="s">
-        <v>863</v>
-      </c>
-      <c r="F197" s="85"/>
-      <c r="G197" s="82" t="s">
+      <c r="A197" s="101" t="s">
+        <v>864</v>
+      </c>
+      <c r="B197" s="84" t="s">
+        <v>72</v>
+      </c>
+      <c r="C197" s="86" t="s">
         <v>73</v>
       </c>
-      <c r="H197" s="82" t="s">
-        <v>864</v>
+      <c r="D197" s="86" t="s">
+        <v>74</v>
+      </c>
+      <c r="E197" s="86" t="s">
+        <v>865</v>
+      </c>
+      <c r="F197" s="86"/>
+      <c r="G197" s="72" t="s">
+        <v>76</v>
+      </c>
+      <c r="H197" s="72" t="s">
+        <v>866</v>
       </c>
       <c r="I197" s="7"/>
       <c r="J197" s="7"/>
       <c r="K197" s="7"/>
     </row>
     <row r="198">
-      <c r="A198" s="99" t="s">
-        <v>865</v>
-      </c>
-      <c r="B198" s="83" t="s">
+      <c r="A198" s="101" t="s">
+        <v>867</v>
+      </c>
+      <c r="B198" s="84" t="s">
+        <v>79</v>
+      </c>
+      <c r="C198" s="86" t="s">
+        <v>80</v>
+      </c>
+      <c r="D198" s="86" t="s">
+        <v>81</v>
+      </c>
+      <c r="E198" s="86" t="s">
+        <v>868</v>
+      </c>
+      <c r="F198" s="86"/>
+      <c r="G198" s="72" t="s">
         <v>76</v>
       </c>
-      <c r="C198" s="85" t="s">
-        <v>77</v>
-      </c>
-      <c r="D198" s="85" t="s">
-        <v>78</v>
-      </c>
-      <c r="E198" s="85" t="s">
-        <v>866</v>
-      </c>
-      <c r="F198" s="85"/>
-      <c r="G198" s="82" t="s">
-        <v>73</v>
-      </c>
-      <c r="H198" s="82" t="s">
-        <v>867</v>
+      <c r="H198" s="72" t="s">
+        <v>869</v>
       </c>
       <c r="I198" s="7"/>
       <c r="J198" s="7"/>
       <c r="K198" s="7"/>
     </row>
     <row r="199">
-      <c r="A199" s="99" t="s">
-        <v>868</v>
-      </c>
-      <c r="B199" s="83" t="s">
-        <v>90</v>
-      </c>
-      <c r="C199" s="85" t="s">
-        <v>91</v>
-      </c>
-      <c r="D199" s="85" t="s">
-        <v>753</v>
-      </c>
-      <c r="E199" s="85" t="s">
-        <v>869</v>
-      </c>
-      <c r="F199" s="85"/>
-      <c r="G199" s="82" t="s">
+      <c r="A199" s="101" t="s">
         <v>870</v>
       </c>
-      <c r="H199" s="82" t="s">
+      <c r="B199" s="84" t="s">
+        <v>93</v>
+      </c>
+      <c r="C199" s="86" t="s">
+        <v>94</v>
+      </c>
+      <c r="D199" s="86" t="s">
+        <v>755</v>
+      </c>
+      <c r="E199" s="86" t="s">
         <v>871</v>
+      </c>
+      <c r="F199" s="86"/>
+      <c r="G199" s="72" t="s">
+        <v>872</v>
+      </c>
+      <c r="H199" s="72" t="s">
+        <v>873</v>
       </c>
       <c r="I199" s="7"/>
       <c r="J199" s="7"/>
       <c r="K199" s="7"/>
     </row>
     <row r="200">
-      <c r="A200" s="99" t="s">
-        <v>872</v>
-      </c>
-      <c r="B200" s="83" t="s">
-        <v>97</v>
-      </c>
-      <c r="C200" s="85" t="s">
-        <v>98</v>
-      </c>
-      <c r="D200" s="85" t="s">
-        <v>99</v>
-      </c>
-      <c r="E200" s="85" t="s">
-        <v>873</v>
-      </c>
-      <c r="F200" s="85"/>
-      <c r="G200" s="85" t="s">
+      <c r="A200" s="101" t="s">
+        <v>874</v>
+      </c>
+      <c r="B200" s="84" t="s">
+        <v>100</v>
+      </c>
+      <c r="C200" s="86" t="s">
         <v>101</v>
       </c>
-      <c r="H200" s="85" t="s">
-        <v>874</v>
+      <c r="D200" s="86" t="s">
+        <v>102</v>
+      </c>
+      <c r="E200" s="86" t="s">
+        <v>875</v>
+      </c>
+      <c r="F200" s="86"/>
+      <c r="G200" s="86" t="s">
+        <v>104</v>
+      </c>
+      <c r="H200" s="86" t="s">
+        <v>876</v>
       </c>
       <c r="I200" s="7"/>
       <c r="J200" s="7"/>
       <c r="K200" s="7"/>
     </row>
     <row r="201">
-      <c r="A201" s="99" t="s">
-        <v>875</v>
-      </c>
-      <c r="B201" s="83" t="s">
-        <v>117</v>
-      </c>
-      <c r="C201" s="85" t="s">
-        <v>118</v>
-      </c>
-      <c r="D201" s="85" t="s">
-        <v>119</v>
-      </c>
-      <c r="E201" s="85" t="s">
-        <v>876</v>
-      </c>
-      <c r="F201" s="85"/>
-      <c r="G201" s="85" t="s">
-        <v>761</v>
-      </c>
-      <c r="H201" s="85" t="s">
-        <v>762</v>
+      <c r="A201" s="101" t="s">
+        <v>877</v>
+      </c>
+      <c r="B201" s="84" t="s">
+        <v>120</v>
+      </c>
+      <c r="C201" s="86" t="s">
+        <v>121</v>
+      </c>
+      <c r="D201" s="86" t="s">
+        <v>122</v>
+      </c>
+      <c r="E201" s="86" t="s">
+        <v>878</v>
+      </c>
+      <c r="F201" s="86"/>
+      <c r="G201" s="86" t="s">
+        <v>763</v>
+      </c>
+      <c r="H201" s="86" t="s">
+        <v>764</v>
       </c>
       <c r="I201" s="7"/>
       <c r="J201" s="7"/>
       <c r="K201" s="7"/>
     </row>
     <row r="202">
-      <c r="A202" s="99" t="s">
-        <v>877</v>
-      </c>
-      <c r="B202" s="83" t="s">
-        <v>111</v>
-      </c>
-      <c r="C202" s="85" t="s">
-        <v>112</v>
-      </c>
-      <c r="D202" s="85" t="s">
-        <v>113</v>
-      </c>
-      <c r="E202" s="85" t="s">
-        <v>878</v>
-      </c>
-      <c r="F202" s="85"/>
-      <c r="G202" s="85" t="s">
-        <v>765</v>
-      </c>
-      <c r="H202" s="85" t="s">
-        <v>766</v>
+      <c r="A202" s="101" t="s">
+        <v>879</v>
+      </c>
+      <c r="B202" s="84" t="s">
+        <v>114</v>
+      </c>
+      <c r="C202" s="86" t="s">
+        <v>115</v>
+      </c>
+      <c r="D202" s="86" t="s">
+        <v>116</v>
+      </c>
+      <c r="E202" s="86" t="s">
+        <v>880</v>
+      </c>
+      <c r="F202" s="86"/>
+      <c r="G202" s="86" t="s">
+        <v>767</v>
+      </c>
+      <c r="H202" s="86" t="s">
+        <v>768</v>
       </c>
       <c r="I202" s="7"/>
       <c r="J202" s="7"/>
       <c r="K202" s="7"/>
     </row>
     <row r="203">
-      <c r="A203" s="99" t="s">
-        <v>879</v>
-      </c>
-      <c r="B203" s="83" t="s">
-        <v>768</v>
-      </c>
-      <c r="C203" s="85" t="s">
-        <v>133</v>
-      </c>
-      <c r="D203" s="85" t="s">
-        <v>134</v>
-      </c>
-      <c r="E203" s="85" t="s">
-        <v>880</v>
-      </c>
-      <c r="F203" s="85"/>
-      <c r="G203" s="96" t="s">
-        <v>761</v>
-      </c>
-      <c r="H203" s="96" t="s">
+      <c r="A203" s="101" t="s">
         <v>881</v>
+      </c>
+      <c r="B203" s="84" t="s">
+        <v>770</v>
+      </c>
+      <c r="C203" s="86" t="s">
+        <v>136</v>
+      </c>
+      <c r="D203" s="86" t="s">
+        <v>137</v>
+      </c>
+      <c r="E203" s="86" t="s">
+        <v>882</v>
+      </c>
+      <c r="F203" s="86"/>
+      <c r="G203" s="97" t="s">
+        <v>763</v>
+      </c>
+      <c r="H203" s="97" t="s">
+        <v>883</v>
       </c>
       <c r="I203" s="7"/>
       <c r="J203" s="7"/>
       <c r="K203" s="7"/>
     </row>
     <row r="204">
-      <c r="A204" s="99" t="s">
-        <v>882</v>
-      </c>
-      <c r="B204" s="83" t="s">
-        <v>124</v>
-      </c>
-      <c r="C204" s="85" t="s">
-        <v>125</v>
-      </c>
-      <c r="D204" s="85" t="s">
-        <v>126</v>
-      </c>
-      <c r="E204" s="85" t="s">
-        <v>883</v>
-      </c>
-      <c r="F204" s="85"/>
-      <c r="G204" s="85" t="s">
-        <v>765</v>
-      </c>
-      <c r="H204" s="85" t="s">
-        <v>773</v>
+      <c r="A204" s="101" t="s">
+        <v>884</v>
+      </c>
+      <c r="B204" s="84" t="s">
+        <v>127</v>
+      </c>
+      <c r="C204" s="86" t="s">
+        <v>128</v>
+      </c>
+      <c r="D204" s="86" t="s">
+        <v>129</v>
+      </c>
+      <c r="E204" s="86" t="s">
+        <v>885</v>
+      </c>
+      <c r="F204" s="86"/>
+      <c r="G204" s="86" t="s">
+        <v>767</v>
+      </c>
+      <c r="H204" s="86" t="s">
+        <v>775</v>
       </c>
       <c r="I204" s="7"/>
       <c r="J204" s="7"/>
@@ -17086,267 +17188,269 @@
     </row>
     <row r="205">
       <c r="A205" s="48" t="s">
-        <v>884</v>
-      </c>
-      <c r="B205" s="142" t="s">
-        <v>885</v>
+        <v>886</v>
+      </c>
+      <c r="B205" s="143" t="s">
+        <v>887</v>
       </c>
       <c r="C205" s="154" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="D205" s="155"/>
-      <c r="E205" s="82" t="s">
-        <v>886</v>
-      </c>
-      <c r="F205" s="85"/>
+      <c r="E205" s="72" t="s">
+        <v>888</v>
+      </c>
+      <c r="F205" s="86"/>
       <c r="G205" s="14" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="H205" s="14" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="I205" s="7"/>
       <c r="J205" s="7"/>
       <c r="K205" s="7"/>
     </row>
     <row r="206">
-      <c r="A206" s="99" t="s">
-        <v>888</v>
-      </c>
-      <c r="B206" s="83" t="s">
-        <v>55</v>
-      </c>
-      <c r="C206" s="85" t="s">
+      <c r="A206" s="101" t="s">
+        <v>890</v>
+      </c>
+      <c r="B206" s="84" t="s">
         <v>56</v>
       </c>
-      <c r="D206" s="85" t="s">
+      <c r="C206" s="86" t="s">
         <v>57</v>
       </c>
-      <c r="E206" s="85" t="s">
-        <v>889</v>
-      </c>
-      <c r="F206" s="85"/>
-      <c r="G206" s="82" t="s">
-        <v>59</v>
-      </c>
-      <c r="H206" s="82" t="s">
-        <v>890</v>
-      </c>
-      <c r="I206" s="7"/>
+      <c r="D206" s="86" t="s">
+        <v>58</v>
+      </c>
+      <c r="E206" s="86" t="s">
+        <v>891</v>
+      </c>
+      <c r="F206" s="86"/>
+      <c r="G206" s="72" t="s">
+        <v>60</v>
+      </c>
+      <c r="H206" s="72" t="s">
+        <v>892</v>
+      </c>
+      <c r="I206" s="7" t="s">
+        <v>62</v>
+      </c>
       <c r="J206" s="7"/>
       <c r="K206" s="7"/>
     </row>
     <row r="207">
-      <c r="A207" s="99" t="s">
-        <v>891</v>
-      </c>
-      <c r="B207" s="83" t="s">
-        <v>69</v>
-      </c>
-      <c r="C207" s="85" t="s">
-        <v>70</v>
-      </c>
-      <c r="D207" s="85" t="s">
-        <v>71</v>
-      </c>
-      <c r="E207" s="85" t="s">
-        <v>892</v>
-      </c>
-      <c r="F207" s="85"/>
-      <c r="G207" s="82" t="s">
+      <c r="A207" s="101" t="s">
+        <v>893</v>
+      </c>
+      <c r="B207" s="84" t="s">
+        <v>72</v>
+      </c>
+      <c r="C207" s="86" t="s">
         <v>73</v>
       </c>
-      <c r="H207" s="82" t="s">
-        <v>893</v>
+      <c r="D207" s="86" t="s">
+        <v>74</v>
+      </c>
+      <c r="E207" s="86" t="s">
+        <v>894</v>
+      </c>
+      <c r="F207" s="86"/>
+      <c r="G207" s="72" t="s">
+        <v>76</v>
+      </c>
+      <c r="H207" s="72" t="s">
+        <v>895</v>
       </c>
       <c r="I207" s="7"/>
       <c r="J207" s="7"/>
       <c r="K207" s="7"/>
     </row>
     <row r="208">
-      <c r="A208" s="99" t="s">
-        <v>894</v>
-      </c>
-      <c r="B208" s="83" t="s">
+      <c r="A208" s="101" t="s">
+        <v>896</v>
+      </c>
+      <c r="B208" s="84" t="s">
+        <v>79</v>
+      </c>
+      <c r="C208" s="86" t="s">
+        <v>80</v>
+      </c>
+      <c r="D208" s="86" t="s">
+        <v>81</v>
+      </c>
+      <c r="E208" s="86" t="s">
+        <v>897</v>
+      </c>
+      <c r="F208" s="86"/>
+      <c r="G208" s="72" t="s">
         <v>76</v>
       </c>
-      <c r="C208" s="85" t="s">
-        <v>77</v>
-      </c>
-      <c r="D208" s="85" t="s">
-        <v>78</v>
-      </c>
-      <c r="E208" s="85" t="s">
-        <v>895</v>
-      </c>
-      <c r="F208" s="85"/>
-      <c r="G208" s="82" t="s">
-        <v>73</v>
-      </c>
-      <c r="H208" s="82" t="s">
-        <v>896</v>
+      <c r="H208" s="72" t="s">
+        <v>898</v>
       </c>
       <c r="I208" s="7"/>
       <c r="J208" s="7"/>
       <c r="K208" s="7"/>
     </row>
     <row r="209">
-      <c r="A209" s="99" t="s">
-        <v>897</v>
-      </c>
-      <c r="B209" s="83" t="s">
-        <v>90</v>
-      </c>
-      <c r="C209" s="85" t="s">
-        <v>91</v>
-      </c>
-      <c r="D209" s="85" t="s">
-        <v>753</v>
-      </c>
-      <c r="E209" s="85" t="s">
-        <v>898</v>
-      </c>
-      <c r="F209" s="85"/>
-      <c r="G209" s="82" t="s">
+      <c r="A209" s="101" t="s">
+        <v>899</v>
+      </c>
+      <c r="B209" s="84" t="s">
+        <v>93</v>
+      </c>
+      <c r="C209" s="86" t="s">
         <v>94</v>
       </c>
-      <c r="H209" s="82" t="s">
-        <v>899</v>
+      <c r="D209" s="86" t="s">
+        <v>755</v>
+      </c>
+      <c r="E209" s="86" t="s">
+        <v>900</v>
+      </c>
+      <c r="F209" s="86"/>
+      <c r="G209" s="72" t="s">
+        <v>97</v>
+      </c>
+      <c r="H209" s="72" t="s">
+        <v>901</v>
       </c>
       <c r="I209" s="7"/>
       <c r="J209" s="7"/>
       <c r="K209" s="7"/>
     </row>
     <row r="210">
-      <c r="A210" s="99" t="s">
-        <v>900</v>
-      </c>
-      <c r="B210" s="83" t="s">
-        <v>97</v>
-      </c>
-      <c r="C210" s="85" t="s">
-        <v>98</v>
-      </c>
-      <c r="D210" s="85" t="s">
-        <v>99</v>
-      </c>
-      <c r="E210" s="85" t="s">
-        <v>901</v>
-      </c>
-      <c r="F210" s="85"/>
-      <c r="G210" s="82" t="s">
+      <c r="A210" s="101" t="s">
+        <v>902</v>
+      </c>
+      <c r="B210" s="84" t="s">
+        <v>100</v>
+      </c>
+      <c r="C210" s="86" t="s">
         <v>101</v>
       </c>
-      <c r="H210" s="82" t="s">
-        <v>902</v>
+      <c r="D210" s="86" t="s">
+        <v>102</v>
+      </c>
+      <c r="E210" s="86" t="s">
+        <v>903</v>
+      </c>
+      <c r="F210" s="86"/>
+      <c r="G210" s="72" t="s">
+        <v>104</v>
+      </c>
+      <c r="H210" s="72" t="s">
+        <v>904</v>
       </c>
       <c r="I210" s="7"/>
       <c r="J210" s="7"/>
       <c r="K210" s="7"/>
     </row>
     <row r="211">
-      <c r="A211" s="99" t="s">
-        <v>903</v>
-      </c>
-      <c r="B211" s="83" t="s">
-        <v>117</v>
-      </c>
-      <c r="C211" s="85" t="s">
-        <v>118</v>
-      </c>
-      <c r="D211" s="85" t="s">
-        <v>119</v>
-      </c>
-      <c r="E211" s="85" t="s">
-        <v>904</v>
-      </c>
-      <c r="F211" s="85"/>
-      <c r="G211" s="85" t="s">
-        <v>761</v>
-      </c>
-      <c r="H211" s="85" t="s">
-        <v>762</v>
+      <c r="A211" s="101" t="s">
+        <v>905</v>
+      </c>
+      <c r="B211" s="84" t="s">
+        <v>120</v>
+      </c>
+      <c r="C211" s="86" t="s">
+        <v>121</v>
+      </c>
+      <c r="D211" s="86" t="s">
+        <v>122</v>
+      </c>
+      <c r="E211" s="86" t="s">
+        <v>906</v>
+      </c>
+      <c r="F211" s="86"/>
+      <c r="G211" s="86" t="s">
+        <v>763</v>
+      </c>
+      <c r="H211" s="86" t="s">
+        <v>764</v>
       </c>
       <c r="I211" s="7"/>
       <c r="J211" s="7"/>
       <c r="K211" s="7"/>
     </row>
     <row r="212">
-      <c r="A212" s="99" t="s">
-        <v>905</v>
-      </c>
-      <c r="B212" s="83" t="s">
-        <v>111</v>
-      </c>
-      <c r="C212" s="85" t="s">
-        <v>112</v>
-      </c>
-      <c r="D212" s="85" t="s">
-        <v>113</v>
-      </c>
-      <c r="E212" s="85" t="s">
-        <v>906</v>
-      </c>
-      <c r="F212" s="85"/>
-      <c r="G212" s="85" t="s">
-        <v>765</v>
-      </c>
-      <c r="H212" s="85" t="s">
-        <v>766</v>
+      <c r="A212" s="101" t="s">
+        <v>907</v>
+      </c>
+      <c r="B212" s="84" t="s">
+        <v>114</v>
+      </c>
+      <c r="C212" s="86" t="s">
+        <v>115</v>
+      </c>
+      <c r="D212" s="86" t="s">
+        <v>116</v>
+      </c>
+      <c r="E212" s="86" t="s">
+        <v>908</v>
+      </c>
+      <c r="F212" s="86"/>
+      <c r="G212" s="86" t="s">
+        <v>767</v>
+      </c>
+      <c r="H212" s="86" t="s">
+        <v>768</v>
       </c>
       <c r="I212" s="7"/>
       <c r="J212" s="7"/>
       <c r="K212" s="7"/>
     </row>
     <row r="213">
-      <c r="A213" s="99" t="s">
-        <v>907</v>
-      </c>
-      <c r="B213" s="83" t="s">
-        <v>768</v>
-      </c>
-      <c r="C213" s="85" t="s">
-        <v>133</v>
-      </c>
-      <c r="D213" s="85" t="s">
-        <v>134</v>
-      </c>
-      <c r="E213" s="85" t="s">
-        <v>908</v>
-      </c>
-      <c r="F213" s="85"/>
-      <c r="G213" s="96" t="s">
-        <v>761</v>
-      </c>
-      <c r="H213" s="96" t="s">
+      <c r="A213" s="101" t="s">
         <v>909</v>
+      </c>
+      <c r="B213" s="84" t="s">
+        <v>770</v>
+      </c>
+      <c r="C213" s="86" t="s">
+        <v>136</v>
+      </c>
+      <c r="D213" s="86" t="s">
+        <v>137</v>
+      </c>
+      <c r="E213" s="86" t="s">
+        <v>910</v>
+      </c>
+      <c r="F213" s="86"/>
+      <c r="G213" s="97" t="s">
+        <v>763</v>
+      </c>
+      <c r="H213" s="97" t="s">
+        <v>911</v>
       </c>
       <c r="I213" s="7"/>
       <c r="J213" s="7"/>
       <c r="K213" s="7"/>
     </row>
     <row r="214">
-      <c r="A214" s="99" t="s">
-        <v>910</v>
-      </c>
-      <c r="B214" s="83" t="s">
-        <v>124</v>
-      </c>
-      <c r="C214" s="85" t="s">
-        <v>125</v>
-      </c>
-      <c r="D214" s="85" t="s">
-        <v>126</v>
-      </c>
-      <c r="E214" s="85" t="s">
-        <v>911</v>
-      </c>
-      <c r="F214" s="85"/>
-      <c r="G214" s="85" t="s">
-        <v>765</v>
-      </c>
-      <c r="H214" s="85" t="s">
-        <v>773</v>
+      <c r="A214" s="101" t="s">
+        <v>912</v>
+      </c>
+      <c r="B214" s="84" t="s">
+        <v>127</v>
+      </c>
+      <c r="C214" s="86" t="s">
+        <v>128</v>
+      </c>
+      <c r="D214" s="86" t="s">
+        <v>129</v>
+      </c>
+      <c r="E214" s="86" t="s">
+        <v>913</v>
+      </c>
+      <c r="F214" s="86"/>
+      <c r="G214" s="86" t="s">
+        <v>767</v>
+      </c>
+      <c r="H214" s="86" t="s">
+        <v>775</v>
       </c>
       <c r="I214" s="7"/>
       <c r="J214" s="7"/>
@@ -17354,26 +17458,26 @@
     </row>
     <row r="215">
       <c r="A215" s="48" t="s">
-        <v>912</v>
-      </c>
-      <c r="B215" s="142" t="s">
-        <v>913</v>
-      </c>
-      <c r="C215" s="85" t="s">
         <v>914</v>
       </c>
-      <c r="D215" s="85" t="s">
+      <c r="B215" s="143" t="s">
         <v>915</v>
       </c>
-      <c r="E215" s="85" t="s">
+      <c r="C215" s="86" t="s">
         <v>916</v>
       </c>
-      <c r="F215" s="85"/>
-      <c r="G215" s="82" t="s">
+      <c r="D215" s="86" t="s">
         <v>917</v>
       </c>
+      <c r="E215" s="86" t="s">
+        <v>918</v>
+      </c>
+      <c r="F215" s="86"/>
+      <c r="G215" s="72" t="s">
+        <v>919</v>
+      </c>
       <c r="H215" s="153" t="s">
-        <v>918</v>
+        <v>920</v>
       </c>
       <c r="I215" s="7"/>
       <c r="J215" s="7"/>
@@ -17381,539 +17485,543 @@
     </row>
     <row r="216">
       <c r="A216" s="48" t="s">
-        <v>919</v>
-      </c>
-      <c r="B216" s="142" t="s">
-        <v>920</v>
+        <v>921</v>
+      </c>
+      <c r="B216" s="143" t="s">
+        <v>922</v>
       </c>
       <c r="C216" s="7"/>
       <c r="D216" s="7"/>
-      <c r="E216" s="82" t="s">
-        <v>921</v>
-      </c>
-      <c r="F216" s="85"/>
+      <c r="E216" s="72" t="s">
+        <v>923</v>
+      </c>
+      <c r="F216" s="86"/>
       <c r="G216" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H216" s="14" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="I216" s="7"/>
       <c r="J216" s="7"/>
       <c r="K216" s="7"/>
     </row>
     <row r="217">
-      <c r="A217" s="99" t="s">
-        <v>922</v>
-      </c>
-      <c r="B217" s="83" t="s">
-        <v>55</v>
-      </c>
-      <c r="C217" s="85" t="s">
+      <c r="A217" s="101" t="s">
+        <v>924</v>
+      </c>
+      <c r="B217" s="84" t="s">
         <v>56</v>
       </c>
-      <c r="D217" s="85" t="s">
+      <c r="C217" s="86" t="s">
         <v>57</v>
       </c>
-      <c r="E217" s="85" t="s">
-        <v>923</v>
-      </c>
-      <c r="F217" s="85"/>
-      <c r="G217" s="82" t="s">
-        <v>59</v>
-      </c>
-      <c r="H217" s="82" t="s">
-        <v>924</v>
-      </c>
-      <c r="I217" s="7"/>
+      <c r="D217" s="86" t="s">
+        <v>58</v>
+      </c>
+      <c r="E217" s="86" t="s">
+        <v>925</v>
+      </c>
+      <c r="F217" s="86"/>
+      <c r="G217" s="72" t="s">
+        <v>60</v>
+      </c>
+      <c r="H217" s="72" t="s">
+        <v>926</v>
+      </c>
+      <c r="I217" s="7" t="s">
+        <v>62</v>
+      </c>
       <c r="J217" s="7"/>
       <c r="K217" s="7"/>
     </row>
     <row r="218">
-      <c r="A218" s="99" t="s">
-        <v>925</v>
-      </c>
-      <c r="B218" s="83" t="s">
-        <v>69</v>
-      </c>
-      <c r="C218" s="85" t="s">
-        <v>70</v>
-      </c>
-      <c r="D218" s="85" t="s">
-        <v>71</v>
-      </c>
-      <c r="E218" s="85" t="s">
-        <v>926</v>
-      </c>
-      <c r="F218" s="85"/>
-      <c r="G218" s="82" t="s">
+      <c r="A218" s="101" t="s">
+        <v>927</v>
+      </c>
+      <c r="B218" s="84" t="s">
+        <v>72</v>
+      </c>
+      <c r="C218" s="86" t="s">
         <v>73</v>
       </c>
-      <c r="H218" s="82" t="s">
-        <v>927</v>
+      <c r="D218" s="86" t="s">
+        <v>74</v>
+      </c>
+      <c r="E218" s="86" t="s">
+        <v>928</v>
+      </c>
+      <c r="F218" s="86"/>
+      <c r="G218" s="72" t="s">
+        <v>76</v>
+      </c>
+      <c r="H218" s="72" t="s">
+        <v>929</v>
       </c>
       <c r="I218" s="7"/>
       <c r="J218" s="7"/>
       <c r="K218" s="7"/>
     </row>
     <row r="219">
-      <c r="A219" s="99" t="s">
-        <v>928</v>
-      </c>
-      <c r="B219" s="83" t="s">
+      <c r="A219" s="101" t="s">
+        <v>930</v>
+      </c>
+      <c r="B219" s="84" t="s">
+        <v>79</v>
+      </c>
+      <c r="C219" s="86" t="s">
+        <v>80</v>
+      </c>
+      <c r="D219" s="86" t="s">
+        <v>81</v>
+      </c>
+      <c r="E219" s="86" t="s">
+        <v>931</v>
+      </c>
+      <c r="F219" s="86"/>
+      <c r="G219" s="72" t="s">
         <v>76</v>
       </c>
-      <c r="C219" s="85" t="s">
-        <v>77</v>
-      </c>
-      <c r="D219" s="85" t="s">
-        <v>78</v>
-      </c>
-      <c r="E219" s="85" t="s">
-        <v>929</v>
-      </c>
-      <c r="F219" s="85"/>
-      <c r="G219" s="82" t="s">
-        <v>73</v>
-      </c>
-      <c r="H219" s="138" t="s">
-        <v>930</v>
+      <c r="H219" s="139" t="s">
+        <v>932</v>
       </c>
       <c r="I219" s="7"/>
       <c r="J219" s="7"/>
       <c r="K219" s="7"/>
     </row>
     <row r="220">
-      <c r="A220" s="99" t="s">
-        <v>931</v>
-      </c>
-      <c r="B220" s="83" t="s">
-        <v>90</v>
-      </c>
-      <c r="C220" s="85" t="s">
-        <v>91</v>
-      </c>
-      <c r="D220" s="85" t="s">
-        <v>753</v>
-      </c>
-      <c r="E220" s="85" t="s">
-        <v>932</v>
-      </c>
-      <c r="F220" s="85"/>
-      <c r="G220" s="82" t="s">
+      <c r="A220" s="101" t="s">
+        <v>933</v>
+      </c>
+      <c r="B220" s="84" t="s">
+        <v>93</v>
+      </c>
+      <c r="C220" s="86" t="s">
         <v>94</v>
       </c>
-      <c r="H220" s="138" t="s">
-        <v>933</v>
+      <c r="D220" s="86" t="s">
+        <v>755</v>
+      </c>
+      <c r="E220" s="86" t="s">
+        <v>934</v>
+      </c>
+      <c r="F220" s="86"/>
+      <c r="G220" s="72" t="s">
+        <v>97</v>
+      </c>
+      <c r="H220" s="139" t="s">
+        <v>935</v>
       </c>
       <c r="I220" s="7"/>
       <c r="J220" s="7"/>
       <c r="K220" s="7"/>
     </row>
     <row r="221">
-      <c r="A221" s="99" t="s">
-        <v>934</v>
-      </c>
-      <c r="B221" s="83" t="s">
-        <v>97</v>
-      </c>
-      <c r="C221" s="85" t="s">
-        <v>98</v>
-      </c>
-      <c r="D221" s="85" t="s">
-        <v>99</v>
-      </c>
-      <c r="E221" s="85" t="s">
-        <v>935</v>
-      </c>
-      <c r="F221" s="85"/>
-      <c r="G221" s="85" t="s">
+      <c r="A221" s="101" t="s">
+        <v>936</v>
+      </c>
+      <c r="B221" s="84" t="s">
+        <v>100</v>
+      </c>
+      <c r="C221" s="86" t="s">
         <v>101</v>
       </c>
-      <c r="H221" s="85" t="s">
-        <v>936</v>
+      <c r="D221" s="86" t="s">
+        <v>102</v>
+      </c>
+      <c r="E221" s="86" t="s">
+        <v>937</v>
+      </c>
+      <c r="F221" s="86"/>
+      <c r="G221" s="86" t="s">
+        <v>104</v>
+      </c>
+      <c r="H221" s="86" t="s">
+        <v>938</v>
       </c>
       <c r="I221" s="7"/>
       <c r="J221" s="7"/>
       <c r="K221" s="7"/>
     </row>
     <row r="222">
-      <c r="A222" s="99" t="s">
-        <v>937</v>
-      </c>
-      <c r="B222" s="83" t="s">
-        <v>117</v>
-      </c>
-      <c r="C222" s="85" t="s">
-        <v>118</v>
-      </c>
-      <c r="D222" s="85" t="s">
-        <v>119</v>
-      </c>
-      <c r="E222" s="85" t="s">
-        <v>938</v>
-      </c>
-      <c r="F222" s="85"/>
-      <c r="G222" s="85" t="s">
-        <v>761</v>
-      </c>
-      <c r="H222" s="141" t="s">
-        <v>762</v>
+      <c r="A222" s="101" t="s">
+        <v>939</v>
+      </c>
+      <c r="B222" s="84" t="s">
+        <v>120</v>
+      </c>
+      <c r="C222" s="86" t="s">
+        <v>121</v>
+      </c>
+      <c r="D222" s="86" t="s">
+        <v>122</v>
+      </c>
+      <c r="E222" s="86" t="s">
+        <v>940</v>
+      </c>
+      <c r="F222" s="86"/>
+      <c r="G222" s="86" t="s">
+        <v>763</v>
+      </c>
+      <c r="H222" s="142" t="s">
+        <v>764</v>
       </c>
       <c r="I222" s="7"/>
       <c r="J222" s="7"/>
       <c r="K222" s="7"/>
     </row>
     <row r="223">
-      <c r="A223" s="99" t="s">
-        <v>939</v>
-      </c>
-      <c r="B223" s="83" t="s">
-        <v>111</v>
-      </c>
-      <c r="C223" s="85" t="s">
-        <v>112</v>
-      </c>
-      <c r="D223" s="85" t="s">
-        <v>113</v>
-      </c>
-      <c r="E223" s="85" t="s">
-        <v>940</v>
-      </c>
-      <c r="F223" s="85"/>
-      <c r="G223" s="85" t="s">
-        <v>765</v>
-      </c>
-      <c r="H223" s="85" t="s">
-        <v>766</v>
+      <c r="A223" s="101" t="s">
+        <v>941</v>
+      </c>
+      <c r="B223" s="84" t="s">
+        <v>114</v>
+      </c>
+      <c r="C223" s="86" t="s">
+        <v>115</v>
+      </c>
+      <c r="D223" s="86" t="s">
+        <v>116</v>
+      </c>
+      <c r="E223" s="86" t="s">
+        <v>942</v>
+      </c>
+      <c r="F223" s="86"/>
+      <c r="G223" s="86" t="s">
+        <v>767</v>
+      </c>
+      <c r="H223" s="86" t="s">
+        <v>768</v>
       </c>
       <c r="I223" s="7"/>
       <c r="J223" s="7"/>
       <c r="K223" s="7"/>
     </row>
     <row r="224">
-      <c r="A224" s="99" t="s">
-        <v>941</v>
-      </c>
-      <c r="B224" s="83" t="s">
-        <v>768</v>
-      </c>
-      <c r="C224" s="85" t="s">
-        <v>133</v>
-      </c>
-      <c r="D224" s="85" t="s">
-        <v>134</v>
-      </c>
-      <c r="E224" s="85" t="s">
-        <v>942</v>
-      </c>
-      <c r="F224" s="85"/>
-      <c r="G224" s="96" t="s">
-        <v>761</v>
-      </c>
-      <c r="H224" s="96" t="s">
+      <c r="A224" s="101" t="s">
         <v>943</v>
+      </c>
+      <c r="B224" s="84" t="s">
+        <v>770</v>
+      </c>
+      <c r="C224" s="86" t="s">
+        <v>136</v>
+      </c>
+      <c r="D224" s="86" t="s">
+        <v>137</v>
+      </c>
+      <c r="E224" s="86" t="s">
+        <v>944</v>
+      </c>
+      <c r="F224" s="86"/>
+      <c r="G224" s="97" t="s">
+        <v>763</v>
+      </c>
+      <c r="H224" s="97" t="s">
+        <v>945</v>
       </c>
       <c r="I224" s="7"/>
       <c r="J224" s="7"/>
       <c r="K224" s="7"/>
     </row>
     <row r="225">
-      <c r="A225" s="99" t="s">
-        <v>944</v>
-      </c>
-      <c r="B225" s="83" t="s">
-        <v>124</v>
-      </c>
-      <c r="C225" s="85" t="s">
-        <v>125</v>
-      </c>
-      <c r="D225" s="85" t="s">
-        <v>126</v>
-      </c>
-      <c r="E225" s="85" t="s">
-        <v>945</v>
-      </c>
-      <c r="F225" s="85"/>
-      <c r="G225" s="85" t="s">
-        <v>765</v>
-      </c>
-      <c r="H225" s="85" t="s">
-        <v>773</v>
+      <c r="A225" s="101" t="s">
+        <v>946</v>
+      </c>
+      <c r="B225" s="84" t="s">
+        <v>127</v>
+      </c>
+      <c r="C225" s="86" t="s">
+        <v>128</v>
+      </c>
+      <c r="D225" s="86" t="s">
+        <v>129</v>
+      </c>
+      <c r="E225" s="86" t="s">
+        <v>947</v>
+      </c>
+      <c r="F225" s="86"/>
+      <c r="G225" s="86" t="s">
+        <v>767</v>
+      </c>
+      <c r="H225" s="86" t="s">
+        <v>775</v>
       </c>
       <c r="I225" s="7"/>
       <c r="J225" s="7"/>
       <c r="K225" s="7"/>
     </row>
     <row r="226">
-      <c r="A226" s="126" t="s">
-        <v>946</v>
+      <c r="A226" s="127" t="s">
+        <v>948</v>
       </c>
       <c r="B226" s="150" t="s">
-        <v>947</v>
+        <v>949</v>
       </c>
       <c r="C226" s="156" t="s">
-        <v>948</v>
+        <v>950</v>
       </c>
       <c r="D226" s="156" t="s">
-        <v>949</v>
+        <v>951</v>
       </c>
       <c r="E226" s="157" t="s">
-        <v>950</v>
+        <v>952</v>
       </c>
       <c r="F226" s="157"/>
-      <c r="G226" s="82" t="s">
-        <v>951</v>
+      <c r="G226" s="72" t="s">
+        <v>953</v>
       </c>
       <c r="H226" s="158" t="s">
-        <v>952</v>
+        <v>954</v>
       </c>
       <c r="I226" s="7"/>
       <c r="J226" s="7"/>
       <c r="K226" s="7"/>
     </row>
     <row r="227">
-      <c r="A227" s="112" t="s">
-        <v>953</v>
-      </c>
-      <c r="B227" s="108" t="s">
-        <v>954</v>
+      <c r="A227" s="127" t="s">
+        <v>955</v>
+      </c>
+      <c r="B227" s="150" t="s">
+        <v>956</v>
       </c>
       <c r="C227" s="159" t="s">
-        <v>666</v>
-      </c>
-      <c r="D227" s="108"/>
-      <c r="E227" s="108" t="s">
-        <v>955</v>
-      </c>
-      <c r="F227" s="108"/>
-      <c r="G227" s="108"/>
-      <c r="H227" s="108"/>
+        <v>667</v>
+      </c>
+      <c r="D227" s="109"/>
+      <c r="E227" s="109" t="s">
+        <v>957</v>
+      </c>
+      <c r="F227" s="109"/>
+      <c r="G227" s="109"/>
+      <c r="H227" s="109"/>
       <c r="I227" s="7"/>
       <c r="J227" s="7"/>
       <c r="K227" s="7"/>
     </row>
     <row r="228">
-      <c r="A228" s="112" t="s">
-        <v>956</v>
-      </c>
-      <c r="B228" s="108" t="s">
-        <v>957</v>
-      </c>
-      <c r="C228" s="108"/>
-      <c r="D228" s="108"/>
-      <c r="E228" s="108" t="s">
+      <c r="A228" s="48" t="s">
         <v>958</v>
       </c>
-      <c r="F228" s="108"/>
-      <c r="G228" s="108" t="s">
+      <c r="B228" s="143" t="s">
         <v>959</v>
       </c>
-      <c r="H228" s="108" t="s">
+      <c r="C228" s="109"/>
+      <c r="D228" s="109"/>
+      <c r="E228" s="109" t="s">
         <v>960</v>
+      </c>
+      <c r="F228" s="109"/>
+      <c r="G228" s="109" t="s">
+        <v>961</v>
+      </c>
+      <c r="H228" s="109" t="s">
+        <v>962</v>
       </c>
       <c r="I228" s="7"/>
       <c r="J228" s="7"/>
       <c r="K228" s="7"/>
     </row>
     <row r="229">
-      <c r="A229" s="112" t="s">
-        <v>961</v>
-      </c>
-      <c r="B229" s="90" t="s">
-        <v>962</v>
-      </c>
-      <c r="C229" s="108" t="s">
-        <v>666</v>
-      </c>
-      <c r="D229" s="108"/>
-      <c r="E229" s="108"/>
-      <c r="F229" s="108"/>
-      <c r="G229" s="108"/>
-      <c r="H229" s="108"/>
+      <c r="A229" s="48" t="s">
+        <v>963</v>
+      </c>
+      <c r="B229" s="143" t="s">
+        <v>964</v>
+      </c>
+      <c r="C229" s="109" t="s">
+        <v>667</v>
+      </c>
+      <c r="D229" s="109"/>
+      <c r="E229" s="109"/>
+      <c r="F229" s="109"/>
+      <c r="G229" s="109"/>
+      <c r="H229" s="109"/>
       <c r="I229" s="7"/>
       <c r="J229" s="7"/>
       <c r="K229" s="7"/>
     </row>
     <row r="230">
-      <c r="A230" s="112" t="s">
-        <v>963</v>
-      </c>
-      <c r="B230" s="108" t="s">
-        <v>964</v>
-      </c>
-      <c r="C230" s="108"/>
-      <c r="D230" s="108"/>
-      <c r="E230" s="108" t="s">
+      <c r="A230" s="101" t="s">
         <v>965</v>
       </c>
-      <c r="F230" s="108"/>
-      <c r="G230" s="108" t="s">
-        <v>959</v>
-      </c>
-      <c r="H230" s="108" t="s">
+      <c r="B230" s="84" t="s">
         <v>966</v>
+      </c>
+      <c r="C230" s="109"/>
+      <c r="D230" s="109"/>
+      <c r="E230" s="109" t="s">
+        <v>967</v>
+      </c>
+      <c r="F230" s="109"/>
+      <c r="G230" s="109" t="s">
+        <v>961</v>
+      </c>
+      <c r="H230" s="109" t="s">
+        <v>968</v>
       </c>
       <c r="I230" s="7"/>
       <c r="J230" s="7"/>
       <c r="K230" s="7"/>
     </row>
     <row r="231">
-      <c r="A231" s="112" t="s">
-        <v>967</v>
-      </c>
-      <c r="B231" s="108" t="s">
-        <v>968</v>
-      </c>
-      <c r="C231" s="108"/>
-      <c r="D231" s="108"/>
-      <c r="E231" s="108" t="s">
+      <c r="A231" s="101" t="s">
         <v>969</v>
       </c>
-      <c r="F231" s="108"/>
-      <c r="G231" s="108" t="s">
-        <v>959</v>
-      </c>
-      <c r="H231" s="108" t="s">
+      <c r="B231" s="84" t="s">
         <v>970</v>
+      </c>
+      <c r="C231" s="109"/>
+      <c r="D231" s="109"/>
+      <c r="E231" s="109" t="s">
+        <v>971</v>
+      </c>
+      <c r="F231" s="109"/>
+      <c r="G231" s="109" t="s">
+        <v>961</v>
+      </c>
+      <c r="H231" s="109" t="s">
+        <v>972</v>
       </c>
       <c r="I231" s="7"/>
       <c r="J231" s="7"/>
       <c r="K231" s="7"/>
     </row>
     <row r="232">
-      <c r="A232" s="112" t="s">
-        <v>971</v>
-      </c>
-      <c r="B232" s="108" t="s">
-        <v>972</v>
-      </c>
-      <c r="C232" s="108"/>
-      <c r="D232" s="108"/>
-      <c r="E232" s="108" t="s">
+      <c r="A232" s="101" t="s">
         <v>973</v>
       </c>
-      <c r="F232" s="108"/>
-      <c r="G232" s="108" t="s">
-        <v>959</v>
+      <c r="B232" s="84" t="s">
+        <v>974</v>
+      </c>
+      <c r="C232" s="109"/>
+      <c r="D232" s="109"/>
+      <c r="E232" s="109" t="s">
+        <v>975</v>
+      </c>
+      <c r="F232" s="109"/>
+      <c r="G232" s="109" t="s">
+        <v>961</v>
       </c>
       <c r="H232" s="160" t="s">
-        <v>974</v>
+        <v>976</v>
       </c>
       <c r="I232" s="7"/>
       <c r="J232" s="7"/>
       <c r="K232" s="7"/>
     </row>
     <row r="233">
-      <c r="A233" s="112" t="s">
-        <v>975</v>
-      </c>
-      <c r="B233" s="108" t="s">
-        <v>976</v>
-      </c>
-      <c r="C233" s="108"/>
-      <c r="D233" s="108"/>
-      <c r="E233" s="108" t="s">
+      <c r="A233" s="101" t="s">
         <v>977</v>
       </c>
-      <c r="F233" s="108"/>
-      <c r="G233" s="108" t="s">
-        <v>959</v>
+      <c r="B233" s="84" t="s">
+        <v>978</v>
+      </c>
+      <c r="C233" s="109"/>
+      <c r="D233" s="109"/>
+      <c r="E233" s="109" t="s">
+        <v>979</v>
+      </c>
+      <c r="F233" s="109"/>
+      <c r="G233" s="109" t="s">
+        <v>961</v>
       </c>
       <c r="H233" s="160" t="s">
-        <v>978</v>
+        <v>980</v>
       </c>
       <c r="I233" s="7"/>
       <c r="J233" s="7"/>
       <c r="K233" s="7"/>
     </row>
     <row r="234">
-      <c r="A234" s="112" t="s">
-        <v>979</v>
-      </c>
-      <c r="B234" s="108" t="s">
-        <v>980</v>
+      <c r="A234" s="127" t="s">
+        <v>981</v>
+      </c>
+      <c r="B234" s="150" t="s">
+        <v>982</v>
       </c>
       <c r="C234" s="159" t="s">
-        <v>666</v>
-      </c>
-      <c r="D234" s="108"/>
-      <c r="E234" s="108"/>
-      <c r="F234" s="108"/>
-      <c r="G234" s="108"/>
-      <c r="H234" s="108"/>
+        <v>667</v>
+      </c>
+      <c r="D234" s="109"/>
+      <c r="E234" s="109"/>
+      <c r="F234" s="109"/>
+      <c r="G234" s="109"/>
+      <c r="H234" s="109"/>
       <c r="I234" s="7"/>
       <c r="J234" s="7"/>
       <c r="K234" s="7"/>
     </row>
     <row r="235">
-      <c r="A235" s="112" t="s">
-        <v>981</v>
-      </c>
-      <c r="B235" s="108" t="s">
-        <v>982</v>
+      <c r="A235" s="48" t="s">
+        <v>983</v>
+      </c>
+      <c r="B235" s="143" t="s">
+        <v>984</v>
       </c>
       <c r="C235" s="161" t="s">
-        <v>578</v>
-      </c>
-      <c r="D235" s="108"/>
-      <c r="E235" s="108" t="s">
-        <v>983</v>
-      </c>
-      <c r="F235" s="108"/>
-      <c r="G235" s="108" t="s">
-        <v>959</v>
+        <v>579</v>
+      </c>
+      <c r="D235" s="109"/>
+      <c r="E235" s="109" t="s">
+        <v>985</v>
+      </c>
+      <c r="F235" s="109"/>
+      <c r="G235" s="109" t="s">
+        <v>961</v>
       </c>
       <c r="H235" s="162" t="s">
-        <v>984</v>
+        <v>986</v>
       </c>
       <c r="I235" s="7"/>
       <c r="J235" s="7"/>
       <c r="K235" s="7"/>
     </row>
     <row r="236">
-      <c r="A236" s="112" t="s">
-        <v>985</v>
-      </c>
-      <c r="B236" s="108" t="s">
-        <v>986</v>
+      <c r="A236" s="127" t="s">
+        <v>987</v>
+      </c>
+      <c r="B236" s="150" t="s">
+        <v>988</v>
       </c>
       <c r="C236" s="159" t="s">
-        <v>666</v>
-      </c>
-      <c r="D236" s="108"/>
-      <c r="E236" s="108"/>
-      <c r="F236" s="108"/>
-      <c r="G236" s="108"/>
-      <c r="H236" s="108"/>
+        <v>667</v>
+      </c>
+      <c r="D236" s="109"/>
+      <c r="E236" s="109"/>
+      <c r="F236" s="109"/>
+      <c r="G236" s="109"/>
+      <c r="H236" s="109"/>
       <c r="I236" s="7"/>
       <c r="J236" s="7"/>
       <c r="K236" s="7"/>
     </row>
     <row r="237">
-      <c r="A237" s="112" t="s">
-        <v>987</v>
-      </c>
-      <c r="B237" s="108" t="s">
-        <v>988</v>
+      <c r="A237" s="48" t="s">
+        <v>989</v>
+      </c>
+      <c r="B237" s="143" t="s">
+        <v>990</v>
       </c>
       <c r="C237" s="159" t="s">
-        <v>989</v>
-      </c>
-      <c r="D237" s="108" t="s">
-        <v>990</v>
+        <v>991</v>
+      </c>
+      <c r="D237" s="109" t="s">
+        <v>992</v>
       </c>
       <c r="E237" s="163" t="s">
-        <v>991</v>
-      </c>
-      <c r="F237" s="108"/>
-      <c r="G237" s="108" t="s">
-        <v>992</v>
+        <v>993</v>
+      </c>
+      <c r="F237" s="109"/>
+      <c r="G237" s="109" t="s">
+        <v>994</v>
       </c>
       <c r="H237" s="164" t="s">
-        <v>993</v>
-      </c>
-      <c r="I237" s="7"/>
+        <v>995</v>
+      </c>
+      <c r="I237" s="7" t="s">
+        <v>996</v>
+      </c>
       <c r="J237" s="7"/>
       <c r="K237" s="7"/>
     </row>
@@ -18019,78 +18127,78 @@
     </row>
     <row r="2">
       <c r="A2" s="166" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="B2" s="167" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="C2" s="168" t="s">
-        <v>994</v>
+        <v>997</v>
       </c>
       <c r="D2" s="168"/>
       <c r="E2" s="167" t="s">
-        <v>995</v>
+        <v>998</v>
       </c>
       <c r="F2" s="167" t="s">
-        <v>996</v>
+        <v>999</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="19" t="s">
-        <v>375</v>
-      </c>
-      <c r="B3" s="82" t="s">
-        <v>376</v>
-      </c>
-      <c r="C3" s="85" t="s">
-        <v>994</v>
-      </c>
-      <c r="D3" s="85"/>
+        <v>377</v>
+      </c>
+      <c r="B3" s="72" t="s">
+        <v>378</v>
+      </c>
+      <c r="C3" s="86" t="s">
+        <v>997</v>
+      </c>
+      <c r="D3" s="86"/>
       <c r="E3" s="39" t="s">
-        <v>997</v>
+        <v>1000</v>
       </c>
       <c r="F3" s="39" t="s">
-        <v>998</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="19" t="s">
-        <v>999</v>
-      </c>
-      <c r="B4" s="82" t="s">
-        <v>1000</v>
-      </c>
-      <c r="C4" s="85" t="s">
-        <v>1001</v>
-      </c>
-      <c r="D4" s="85" t="s">
         <v>1002</v>
       </c>
+      <c r="B4" s="72" t="s">
+        <v>1003</v>
+      </c>
+      <c r="C4" s="86" t="s">
+        <v>1004</v>
+      </c>
+      <c r="D4" s="86" t="s">
+        <v>1005</v>
+      </c>
       <c r="E4" s="39" t="s">
-        <v>1003</v>
+        <v>1006</v>
       </c>
       <c r="F4" s="39" t="s">
-        <v>1004</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="4" t="s">
-        <v>652</v>
-      </c>
-      <c r="B5" s="82" t="s">
         <v>653</v>
       </c>
+      <c r="B5" s="72" t="s">
+        <v>654</v>
+      </c>
       <c r="C5" s="7" t="s">
-        <v>1005</v>
+        <v>1008</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="E5" s="39" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="F5" s="39" t="s">
-        <v>1006</v>
+        <v>1009</v>
       </c>
       <c r="G5" s="169"/>
       <c r="H5" s="169"/>
@@ -18115,7 +18223,7 @@
     </row>
     <row r="6">
       <c r="A6" s="7"/>
-      <c r="B6" s="82"/>
+      <c r="B6" s="72"/>
       <c r="C6" s="170"/>
       <c r="D6" s="7"/>
       <c r="E6" s="39"/>
@@ -22151,36 +22259,36 @@
   <sheetData>
     <row r="2">
       <c r="A2" s="171" t="s">
-        <v>1007</v>
+        <v>1010</v>
       </c>
       <c r="B2" s="172" t="s">
-        <v>1008</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="173" t="s">
-        <v>1009</v>
+        <v>1012</v>
       </c>
       <c r="B3" s="172" t="s">
-        <v>1010</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="174" t="s">
-        <v>1011</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="175" t="s">
-        <v>1012</v>
+        <v>1015</v>
       </c>
       <c r="B6" s="172" t="s">
-        <v>1013</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="7">
       <c r="B7" s="172" t="s">
-        <v>1014</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="8">
@@ -22191,41 +22299,41 @@
     </row>
     <row r="10">
       <c r="A10" s="175" t="s">
-        <v>1015</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="175" t="s">
-        <v>1016</v>
+        <v>1019</v>
       </c>
       <c r="B11" s="176" t="s">
-        <v>1017</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="12">
       <c r="B12" s="177" t="s">
-        <v>1018</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="178"/>
       <c r="B13" s="179" t="s">
-        <v>1019</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="14">
       <c r="B14" s="180" t="s">
-        <v>1020</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="15">
       <c r="B15" s="181" t="s">
-        <v>1021</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="16">
       <c r="B16" s="182" t="s">
-        <v>1022</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="17">
@@ -22234,24 +22342,24 @@
     </row>
     <row r="18">
       <c r="A18" s="175" t="s">
-        <v>1023</v>
+        <v>1026</v>
       </c>
       <c r="B18" s="183" t="s">
-        <v>1024</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="7" t="s">
-        <v>1025</v>
-      </c>
-      <c r="B19" s="123"/>
+        <v>1028</v>
+      </c>
+      <c r="B19" s="124"/>
     </row>
     <row r="21">
       <c r="A21" s="175" t="s">
-        <v>1026</v>
+        <v>1029</v>
       </c>
       <c r="B21" s="184" t="s">
-        <v>1027</v>
+        <v>1030</v>
       </c>
     </row>
   </sheetData>
@@ -22277,57 +22385,57 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>1028</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="36" t="s">
-        <v>1029</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="4" t="s">
-        <v>1030</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="36" t="s">
-        <v>1031</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="4" t="s">
-        <v>1032</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="4" t="s">
-        <v>1033</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="4" t="s">
-        <v>1034</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="36" t="s">
-        <v>1035</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="185" t="s">
-        <v>1036</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="4" t="s">
-        <v>1037</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="4" t="s">
-        <v>1038</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="12">
@@ -22356,65 +22464,65 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>1028</v>
+        <v>1031</v>
       </c>
       <c r="B1" s="186" t="s">
-        <v>1039</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="4" t="s">
-        <v>1040</v>
+        <v>1043</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>1041</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="4" t="s">
-        <v>1042</v>
+        <v>1045</v>
       </c>
       <c r="B3" s="7"/>
     </row>
     <row r="4">
       <c r="A4" s="4" t="s">
-        <v>1043</v>
+        <v>1046</v>
       </c>
       <c r="B4" s="7"/>
     </row>
     <row r="5">
       <c r="A5" s="4" t="s">
-        <v>1044</v>
+        <v>1047</v>
       </c>
       <c r="B5" s="7"/>
     </row>
     <row r="6">
       <c r="A6" s="4" t="s">
-        <v>1045</v>
+        <v>1048</v>
       </c>
       <c r="B6" s="7"/>
     </row>
     <row r="7">
       <c r="A7" s="4" t="s">
-        <v>1046</v>
+        <v>1049</v>
       </c>
       <c r="B7" s="7"/>
     </row>
     <row r="8">
       <c r="A8" s="4" t="s">
-        <v>1047</v>
+        <v>1050</v>
       </c>
       <c r="B8" s="7"/>
     </row>
     <row r="9">
       <c r="A9" s="4" t="s">
-        <v>1048</v>
+        <v>1051</v>
       </c>
       <c r="B9" s="7"/>
     </row>
     <row r="10">
       <c r="A10" s="6" t="s">
-        <v>1049</v>
+        <v>1052</v>
       </c>
     </row>
   </sheetData>
@@ -22458,35 +22566,35 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="187" t="s">
-        <v>1050</v>
+        <v>1053</v>
       </c>
       <c r="C1" s="187" t="s">
-        <v>1051</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="175" t="s">
-        <v>1052</v>
+        <v>1055</v>
       </c>
       <c r="B2" s="175" t="s">
-        <v>1053</v>
+        <v>1056</v>
       </c>
       <c r="C2" s="175" t="s">
-        <v>1054</v>
+        <v>1057</v>
       </c>
       <c r="D2" s="175" t="s">
-        <v>1055</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="39" t="s">
-        <v>1056</v>
+        <v>1059</v>
       </c>
       <c r="B3" s="39" t="s">
-        <v>1057</v>
+        <v>1060</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>1058</v>
+        <v>1061</v>
       </c>
       <c r="D3" s="4" t="str">
         <f t="shared" ref="D3:D4" si="1">RIGHT(A3,LEN(A3) - (FIND(" == ",A3) + 3))</f>
@@ -22495,13 +22603,13 @@
     </row>
     <row r="4">
       <c r="A4" s="39" t="s">
-        <v>1059</v>
+        <v>1062</v>
       </c>
       <c r="B4" s="39" t="s">
-        <v>1057</v>
+        <v>1060</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>1058</v>
+        <v>1061</v>
       </c>
       <c r="D4" s="4" t="str">
         <f t="shared" si="1"/>
@@ -22510,126 +22618,126 @@
     </row>
     <row r="5">
       <c r="A5" s="39" t="s">
-        <v>1060</v>
+        <v>1063</v>
       </c>
       <c r="B5" s="39" t="s">
+        <v>1064</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>1061</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>1058</v>
       </c>
       <c r="D5" s="7"/>
     </row>
     <row r="6">
       <c r="A6" s="4" t="s">
-        <v>1062</v>
+        <v>1065</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>1063</v>
+        <v>1066</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>1058</v>
+        <v>1061</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>1064</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="4" t="s">
-        <v>1065</v>
+        <v>1068</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>1066</v>
+        <v>1069</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>1058</v>
+        <v>1061</v>
       </c>
       <c r="D7" s="188" t="s">
-        <v>1067</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="4" t="s">
-        <v>1068</v>
+        <v>1071</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>1069</v>
+        <v>1072</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>1058</v>
+        <v>1061</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>1070</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="82" t="s">
-        <v>1071</v>
+      <c r="A9" s="72" t="s">
+        <v>1074</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>1072</v>
+        <v>1075</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>1058</v>
+        <v>1061</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>1073</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="82" t="s">
-        <v>1074</v>
+      <c r="A10" s="72" t="s">
+        <v>1077</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>1072</v>
+        <v>1075</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>1058</v>
+        <v>1061</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>1075</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="82" t="s">
-        <v>1076</v>
+      <c r="A11" s="72" t="s">
+        <v>1079</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>1077</v>
+        <v>1080</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>1058</v>
+        <v>1061</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>1078</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="82" t="s">
-        <v>1079</v>
+      <c r="A12" s="72" t="s">
+        <v>1082</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>1077</v>
+        <v>1080</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>1058</v>
+        <v>1061</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>1080</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="189" t="s">
-        <v>1081</v>
+        <v>1084</v>
       </c>
       <c r="B13" s="189" t="s">
+        <v>1064</v>
+      </c>
+      <c r="C13" s="190" t="s">
         <v>1061</v>
       </c>
-      <c r="C13" s="190" t="s">
-        <v>1058</v>
-      </c>
       <c r="D13" s="190" t="s">
-        <v>1082</v>
+        <v>1085</v>
       </c>
       <c r="E13" s="191"/>
       <c r="F13" s="191"/>
@@ -22656,16 +22764,16 @@
     </row>
     <row r="14">
       <c r="A14" s="189" t="s">
-        <v>1083</v>
+        <v>1086</v>
       </c>
       <c r="B14" s="189" t="s">
+        <v>1064</v>
+      </c>
+      <c r="C14" s="190" t="s">
         <v>1061</v>
       </c>
-      <c r="C14" s="190" t="s">
-        <v>1058</v>
-      </c>
       <c r="D14" s="190" t="s">
-        <v>1084</v>
+        <v>1087</v>
       </c>
       <c r="E14" s="191"/>
       <c r="F14" s="191"/>
@@ -22717,51 +22825,51 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="187" t="s">
-        <v>1050</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="175" t="s">
-        <v>1052</v>
+        <v>1055</v>
       </c>
       <c r="B2" s="175" t="s">
-        <v>1053</v>
+        <v>1056</v>
       </c>
       <c r="C2" s="175" t="s">
-        <v>1054</v>
+        <v>1057</v>
       </c>
       <c r="D2" s="175" t="s">
-        <v>1055</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="172" t="s">
-        <v>1085</v>
+        <v>1088</v>
       </c>
       <c r="B3" s="172" t="s">
-        <v>1086</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="172" t="s">
-        <v>1087</v>
+        <v>1090</v>
       </c>
       <c r="B4" s="172" t="s">
-        <v>1088</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="172" t="s">
-        <v>1089</v>
+        <v>1092</v>
       </c>
       <c r="B5" s="172" t="s">
-        <v>1090</v>
+        <v>1093</v>
       </c>
       <c r="C5" s="192" t="s">
-        <v>1088</v>
+        <v>1091</v>
       </c>
       <c r="D5" s="172" t="s">
-        <v>1091</v>
+        <v>1094</v>
       </c>
     </row>
   </sheetData>

--- a/mappings/package_F23/transformation/conceptual_mappings.xlsx
+++ b/mappings/package_F23/transformation/conceptual_mappings.xlsx
@@ -398,7 +398,7 @@
     <t>Mapping Version</t>
   </si>
   <si>
-    <t>6.0.0</t>
+    <t>6.1.0</t>
   </si>
   <si>
     <r>
@@ -4486,7 +4486,7 @@
     <t>?this epo:comprisesTenderAwardOutcome / epo:indicatesAwardOfLotToWinner ?value</t>
   </si>
   <si>
-    <t>Winner is created only if there is a contractor identified through the `AWARD_CONTRACT/AWARDED_CONTRACT/CONTRACTORS/CONTRACTOR` or (in earlier versions of XML) `AWARD_CONTRACT/AWARDED_CONTRACT/CONTRACTOR` XPath</t>
+    <t>Winner is created only if there is a contractor identified by the `AWARD_CONTRACT/AWARDED_CONTRACT/CONTRACTORS/CONTRACTOR` (or in earlier versions of XML by the `AWARD_CONTRACT/AWARDED_CONTRACT/CONTRACTOR`) XPath</t>
   </si>
   <si>
     <t>V.2.1</t>
@@ -4573,7 +4573,8 @@
     <t>Received Submissions Count</t>
   </si>
   <si>
-    <t>AWARD_CONTRACT/AWARDED_CONTRACT/TENDERS/NB_TENDERS_RECEIVED</t>
+    <t>AWARD_CONTRACT/AWARDED_CONTRACT/TENDERS/NB_TENDERS_RECEIVED
+AWARD_CONTRACT/AWARDED_CONTRACT/NB_TENDERS_RECEIVED</t>
   </si>
   <si>
     <t xml:space="preserve"> epo:SubmissionStatisticalInformation / xsd:integer</t>
@@ -4588,7 +4589,8 @@
     <t>Number of tenders received from SMEs</t>
   </si>
   <si>
-    <t>AWARD_CONTRACT/AWARDED_CONTRACT/TENDERS/NB_TENDERS_RECEIVED_SME</t>
+    <t>AWARD_CONTRACT/AWARDED_CONTRACT/TENDERS/NB_TENDERS_RECEIVED_SME
+AWARD_CONTRACT/AWARDED_CONTRACT/NB_TENDERS_RECEIVED_SME</t>
   </si>
   <si>
     <t>epo:SubmissionStatisticalInformation / xsd:integer</t>
@@ -4632,7 +4634,8 @@
     <t>Number of tenders received from tenderers from other EU Member States</t>
   </si>
   <si>
-    <t>AWARD_CONTRACT/AWARDED_CONTRACT/TENDERS/NB_TENDERS_RECEIVED_OTHER_EU</t>
+    <t>AWARD_CONTRACT/AWARDED_CONTRACT/TENDERS/NB_TENDERS_RECEIVED_OTHER_EU
+AWARD_CONTRACT/AWARDED_CONTRACT/NB_TENDERS_RECEIVED_OTHER_EU</t>
   </si>
   <si>
     <r>
@@ -4673,7 +4676,8 @@
     <t>Number of tenders received from tenderers from non-EU Member States</t>
   </si>
   <si>
-    <t>AWARD_CONTRACT/AWARDED_CONTRACT/TENDERS/NB_TENDERS_RECEIVED_NON_EU</t>
+    <t>AWARD_CONTRACT/AWARDED_CONTRACT/TENDERS/NB_TENDERS_RECEIVED_NON_EU
+AWARD_CONTRACT/AWARDED_CONTRACT/NB_TENDERS_RECEIVED_NON_EU</t>
   </si>
   <si>
     <r>
@@ -4710,7 +4714,8 @@
     <t>Number of tenders received by electronic means</t>
   </si>
   <si>
-    <t>AWARD_CONTRACT/AWARDED_CONTRACT/TENDERS/NB_TENDERS_RECEIVED_EMEANS</t>
+    <t>AWARD_CONTRACT/AWARDED_CONTRACT/TENDERS/NB_TENDERS_RECEIVED_EMEANS
+AWARD_CONTRACT/AWARDED_CONTRACT/NB_TENDERS_RECEIVED_EMEANS</t>
   </si>
   <si>
     <t>?this epo:hasElectronicTenders ?value .</t>

--- a/mappings/package_F23/transformation/conceptual_mappings.xlsx
+++ b/mappings/package_F23/transformation/conceptual_mappings.xlsx
@@ -398,7 +398,7 @@
     <t>Mapping Version</t>
   </si>
   <si>
-    <t>6.1.0</t>
+    <t>6.1.1</t>
   </si>
   <si>
     <r>
@@ -6951,7 +6951,7 @@
     <t>s2_object.rml.ttl</t>
   </si>
   <si>
-    <t>s3_ legal_economic_financia.rml.ttl</t>
+    <t>s3_legal_economic_financial.rml.ttl</t>
   </si>
   <si>
     <t>s4_procedure.rml.ttl</t>
@@ -22496,7 +22496,7 @@
       <c r="B4" s="7"/>
     </row>
     <row r="5">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="172" t="s">
         <v>1047</v>
       </c>
       <c r="B5" s="7"/>

--- a/mappings/package_F23/transformation/conceptual_mappings.xlsx
+++ b/mappings/package_F23/transformation/conceptual_mappings.xlsx
@@ -363,7 +363,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1580" uniqueCount="1095">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1579" uniqueCount="1093">
   <si>
     <t>Field</t>
   </si>
@@ -398,7 +398,7 @@
     <t>Mapping Version</t>
   </si>
   <si>
-    <t>6.1.1</t>
+    <t>6.2.0</t>
   </si>
   <si>
     <r>
@@ -1275,7 +1275,7 @@
     <t>CONTRACTING_BODY/ADDRESS_CONTRACTING_BODY/URL_BUYER</t>
   </si>
   <si>
-    <t>epo:AgentInRole (from CL1) / epo:BuyerProfile / xsd:anyURI</t>
+    <t>epo:AgentInRole (from CL1) / xsd:anyURI</t>
   </si>
   <si>
     <r>
@@ -1298,7 +1298,7 @@
         <rFont val="Arial"/>
         <color theme="1"/>
       </rPr>
-      <t xml:space="preserve"> epo:hasBuyerProfile / epo:hasURL ?</t>
+      <t xml:space="preserve"> epo:hasBuyerProfile ?</t>
     </r>
     <r>
       <rPr>
@@ -2041,7 +2041,7 @@
         <rFont val="Arial"/>
         <color theme="1"/>
       </rPr>
-      <t xml:space="preserve"> epo:hasBuyerProfile / epo:hasURL ?</t>
+      <t xml:space="preserve"> epo:hasBuyerProfile ?</t>
     </r>
     <r>
       <rPr>
@@ -2264,7 +2264,7 @@
     <t>CONTRACTING_BODY/ADDRESS_PARTICIPATION/URL_BUYER</t>
   </si>
   <si>
-    <t>?this epo:hasBuyerProfile / epo:hasURL ?value .</t>
+    <t>?this epo:hasBuyerProfile ?value .</t>
   </si>
   <si>
     <t>I.3.5</t>
@@ -2467,7 +2467,7 @@
         <rFont val="Arial"/>
         <color theme="1"/>
       </rPr>
-      <t xml:space="preserve"> epo:hasMainActivityType ?</t>
+      <t xml:space="preserve"> epo:hasMainActivity ?</t>
     </r>
     <r>
       <rPr>
@@ -2560,7 +2560,7 @@
         <rFont val="Arial"/>
         <color theme="1"/>
       </rPr>
-      <t xml:space="preserve"> epo:hasMainActivityType ?</t>
+      <t xml:space="preserve"> epo:hasMainActivity ?</t>
     </r>
     <r>
       <rPr>
@@ -2726,7 +2726,7 @@
     <t>epo:Procedure / epo:Purpose / at-voc:cpv (from cpv.json)</t>
   </si>
   <si>
-    <t>?this epo:hasOverallPurpose / epo:hasMainClassification ?value .</t>
+    <t>?this epo:hasPurpose / epo:hasMainClassification ?value .</t>
   </si>
   <si>
     <t>II.1.2.1</t>
@@ -2765,10 +2765,24 @@
     <t>epo:Procedure / epo:Purpose / at-voc:contract-nature (from contract_nature.json)</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
+    <t>?this epo:hasPurpose / epo:hasContractNatureType ?value .</t>
+  </si>
+  <si>
+    <t>II.1.4</t>
+  </si>
+  <si>
+    <t>Short description</t>
+  </si>
+  <si>
+    <t>BT-24</t>
+  </si>
+  <si>
+    <t>OBJECT_CONTRACT/SHORT_DESCR</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
       </rPr>
       <t>?</t>
     </r>
@@ -2776,21 +2790,248 @@
       <rPr>
         <rFont val="Arial"/>
         <b/>
-        <color theme="1"/>
       </rPr>
       <t>this</t>
     </r>
     <r>
       <rPr>
         <rFont val="Arial"/>
-        <color theme="1"/>
-      </rPr>
-      <t xml:space="preserve"> epo:hasOverallPurpose / epo:hasContractNatureType ?</t>
+      </rPr>
+      <t xml:space="preserve"> epo:hasDescription</t>
     </r>
     <r>
       <rPr>
         <rFont val="Arial"/>
         <b/>
+      </rPr>
+      <t xml:space="preserve"> ?value .</t>
+    </r>
+  </si>
+  <si>
+    <t>II.1.5</t>
+  </si>
+  <si>
+    <t>Estimated total value</t>
+  </si>
+  <si>
+    <t>II.1.5.1</t>
+  </si>
+  <si>
+    <t>Value excluding VAT</t>
+  </si>
+  <si>
+    <t>BT-161</t>
+  </si>
+  <si>
+    <t>Estimated Value</t>
+  </si>
+  <si>
+    <t>OBJECT_CONTRACT/VAL_ESTIMATED_TOTAL</t>
+  </si>
+  <si>
+    <t>epo:Procedure / epo:MonetaryValue / xsd:decimal</t>
+  </si>
+  <si>
+    <t>?this epo:hasEstimatedValue / epo:hasAmountValue ?value .</t>
+  </si>
+  <si>
+    <t>II.1.5.2</t>
+  </si>
+  <si>
+    <t>Currency</t>
+  </si>
+  <si>
+    <t>OBJECT_CONTRACT/VAL_ESTIMATED_TOTAL/@CURRENCY</t>
+  </si>
+  <si>
+    <t>epo:Procedure / epo:MonetaryValue /at-voc:currency (from currency.json)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t>?</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+      </rPr>
+      <t>this</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve"> epo:hasEstimatedValue / epo:hasCurrency ?value .</t>
+    </r>
+  </si>
+  <si>
+    <t>II.1.6</t>
+  </si>
+  <si>
+    <t>Information about lots</t>
+  </si>
+  <si>
+    <t>II.1.6.1</t>
+  </si>
+  <si>
+    <t>This contract is divided into lots</t>
+  </si>
+  <si>
+    <t>II.1.6.1.1</t>
+  </si>
+  <si>
+    <t>Tenders may be submitted for all lots</t>
+  </si>
+  <si>
+    <t>Boolean</t>
+  </si>
+  <si>
+    <t>OBJECT_CONTRACT/LOT_DIVISION/LOT_ALL</t>
+  </si>
+  <si>
+    <t>epo:Procedure / epo:ProcedureTerm / xsd:boolean</t>
+  </si>
+  <si>
+    <t>?this epo:isSubjectToProcedureSpecificTerm / epo:isSubmissionForAllLotsAllowed ?value</t>
+  </si>
+  <si>
+    <t>II.1.6.1.2</t>
+  </si>
+  <si>
+    <t>Tenders may be submitted for maximum number of lots</t>
+  </si>
+  <si>
+    <t>nb_lot</t>
+  </si>
+  <si>
+    <t>OBJECT_CONTRACT/LOT_DIVISION/LOT_MAX_NUMBER</t>
+  </si>
+  <si>
+    <t>epo:Procedure / epo:ProcedureTerm / xsd:integer</t>
+  </si>
+  <si>
+    <t>?this epo:isSubjectToProcedureSpecificTerm / epo:hasMaximumLotSubmissionAllowed ?value</t>
+  </si>
+  <si>
+    <t>II.1.6.1.3</t>
+  </si>
+  <si>
+    <t>Tenders may be submitted for one lot only</t>
+  </si>
+  <si>
+    <t>OBJECT_CONTRACT/LOT_DIVISION/LOT_ONE_ONLY</t>
+  </si>
+  <si>
+    <t>?this epo:isSubjectToProcedureSpecificTerm / epo:isOneLotOnlyAllowed ?value</t>
+  </si>
+  <si>
+    <t>II.1.6.2</t>
+  </si>
+  <si>
+    <t>Maximum number of lots that may be awarded to one tenderer</t>
+  </si>
+  <si>
+    <t>BT-33</t>
+  </si>
+  <si>
+    <t>OBJECT_CONTRACT/LOT_DIVISION/LOT_MAX_ONE_TENDERER</t>
+  </si>
+  <si>
+    <t>?this epo:isSubjectToProcedureSpecificTerm / epo:hasMaximumNumberOfLotsToBeAwarded ?value</t>
+  </si>
+  <si>
+    <t>II.1.6.3</t>
+  </si>
+  <si>
+    <t>The contracting authority reserves the right to award contracts combining the following lots or groups of lots</t>
+  </si>
+  <si>
+    <t>OBJECT_CONTRACT/LOT_DIVISION/LOT_COMBINING_CONTRACT_RIGHT</t>
+  </si>
+  <si>
+    <t>epo:Procedure / epo:ProcedureTerm / rdf:langString</t>
+  </si>
+  <si>
+    <t>?this epo:isSubjectToProcedureSpecificTerm / epo:hasLotAwardCombination ?value</t>
+  </si>
+  <si>
+    <t>II.1.7</t>
+  </si>
+  <si>
+    <t>Total value of the procurement (Excluding VAT)</t>
+  </si>
+  <si>
+    <t>OBJECT_CONTRACT</t>
+  </si>
+  <si>
+    <t>epo:Notice / epo:NoticeAwardInformation</t>
+  </si>
+  <si>
+    <t>?this epo:announcesNoticeAwardInformation ?value .</t>
+  </si>
+  <si>
+    <t>II.1.7.1</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>OBJECT_CONTRACT/VAL_TOTAL</t>
+  </si>
+  <si>
+    <t>epo:Notice / epo:NoticeAwardInformation / epo:MonetaryValue / xsd:decimal</t>
+  </si>
+  <si>
+    <t>?this epo:announcesNoticeAwardInformation / epo:hasTotalAwardedValue / epo:hasAmountValue ?value .</t>
+  </si>
+  <si>
+    <t>II.1.7.2</t>
+  </si>
+  <si>
+    <t>Lowest offer</t>
+  </si>
+  <si>
+    <t>BT-710</t>
+  </si>
+  <si>
+    <t>Tender Value Lowest</t>
+  </si>
+  <si>
+    <t>OBJECT_CONTRACT/VAL_RANGE_TOTAL/LOW</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t>?</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+      </rPr>
+      <t>this</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve"> epo:announcesNoticeAwardInformation / epo:hasProcurementLowestReceivedTenderValue / epo:hasAmountValue ?</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
         <color theme="1"/>
       </rPr>
       <t>value</t>
@@ -2804,21 +3045,95 @@
     </r>
   </si>
   <si>
-    <t>II.1.4</t>
-  </si>
-  <si>
-    <t>Short description</t>
-  </si>
-  <si>
-    <t>BT-24</t>
-  </si>
-  <si>
-    <t>OBJECT_CONTRACT/SHORT_DESCR</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
+    <t>II.1.7.3</t>
+  </si>
+  <si>
+    <t>Highest offer</t>
+  </si>
+  <si>
+    <t>BT-711</t>
+  </si>
+  <si>
+    <t>Tender Value Highest</t>
+  </si>
+  <si>
+    <t>OBJECT_CONTRACT/VAL_RANGE_TOTAL/HIGH</t>
+  </si>
+  <si>
+    <t>?this epo:announcesNoticeAwardInformation / epo:hasProcurementHighestReceivedTenderValue / epo:hasAmountValue ?value .</t>
+  </si>
+  <si>
+    <t>II.1.7.4</t>
+  </si>
+  <si>
+    <t>OBJECT_CONTRACT/VAL_TOTAL/@CURRENCY</t>
+  </si>
+  <si>
+    <t>epo:Notice / epo:NoticeAwardInformation / epo:MonetaryValue / at-voc:currency (from currency.json)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve">{ </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve">?this epo:announcesNoticeAwardInformation / epo:hasTotalAwardedValue / epo:hasCurrency </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+      </rPr>
+      <t>?value</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve"> } UNION { ?this epo:announcesNoticeAwardInformation / epo:hasProcurementLowestReceivedTenderValue / epo:hasCurrency ?value } UNION  { ?this epo:announcesNoticeAwardInformation / epo:hasProcurementHighestReceivedTenderValue / epo:hasCurrency ?value } </t>
+    </r>
+  </si>
+  <si>
+    <t>II.2</t>
+  </si>
+  <si>
+    <t>epo:Notice / epo:Lot</t>
+  </si>
+  <si>
+    <t>?this epo:refersToLot ?value .</t>
+  </si>
+  <si>
+    <t>epo:Procedure / epo:Lot</t>
+  </si>
+  <si>
+    <t>?this epo:hasProcurementScopeDividedIntoLot ?value</t>
+  </si>
+  <si>
+    <t>II.2.1</t>
+  </si>
+  <si>
+    <t>OBJECT_CONTRACT/OBJECT_DESCR/TITLE</t>
+  </si>
+  <si>
+    <t>epo:Lot / rdf:langString</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
       </rPr>
       <t>?</t>
     </r>
@@ -2826,67 +3141,55 @@
       <rPr>
         <rFont val="Arial"/>
         <b/>
+        <color theme="1"/>
       </rPr>
       <t>this</t>
     </r>
     <r>
       <rPr>
         <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve"> epo:hasDescription</t>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve"> epo:hasTitle ?</t>
     </r>
     <r>
       <rPr>
         <rFont val="Arial"/>
         <b/>
-      </rPr>
-      <t xml:space="preserve"> ?value .</t>
-    </r>
-  </si>
-  <si>
-    <t>II.1.5</t>
-  </si>
-  <si>
-    <t>Estimated total value</t>
-  </si>
-  <si>
-    <t>II.1.5.1</t>
-  </si>
-  <si>
-    <t>Value excluding VAT</t>
-  </si>
-  <si>
-    <t>BT-161</t>
-  </si>
-  <si>
-    <t>Estimated Value</t>
-  </si>
-  <si>
-    <t>OBJECT_CONTRACT/VAL_ESTIMATED_TOTAL</t>
-  </si>
-  <si>
-    <t>epo:Procedure / epo:MonetaryValue / xsd:decimal</t>
-  </si>
-  <si>
-    <t>?this epo:hasEstimatedValue / epo:hasAmountValue ?value .</t>
-  </si>
-  <si>
-    <t>II.1.5.2</t>
-  </si>
-  <si>
-    <t>Currency</t>
-  </si>
-  <si>
-    <t>OBJECT_CONTRACT/VAL_ESTIMATED_TOTAL/@CURRENCY</t>
-  </si>
-  <si>
-    <t>epo:Procedure / MonetaryValue /at-voc:currency (from currency.json)</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
+        <color theme="1"/>
+      </rPr>
+      <t>value</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve"> .</t>
+    </r>
+  </si>
+  <si>
+    <t>II.2.1.1</t>
+  </si>
+  <si>
+    <t>Lot no</t>
+  </si>
+  <si>
+    <t>BT-137</t>
+  </si>
+  <si>
+    <t>Purpose Lot Identifier</t>
+  </si>
+  <si>
+    <t>OBJECT_CONTRACT/OBJECT_DESCR/LOT_NO</t>
+  </si>
+  <si>
+    <t>epo:Lot / epo:Identifier / xsd:string</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
       </rPr>
       <t>?</t>
     </r>
@@ -2894,152 +3197,179 @@
       <rPr>
         <rFont val="Arial"/>
         <b/>
-        <color theme="1"/>
       </rPr>
       <t>this</t>
     </r>
     <r>
       <rPr>
         <rFont val="Arial"/>
-        <color theme="1"/>
-      </rPr>
-      <t xml:space="preserve"> epo:hasEstimatedValue / epo:hasCurrency ?value .</t>
-    </r>
-  </si>
-  <si>
-    <t>II.1.6</t>
-  </si>
-  <si>
-    <t>Information about lots</t>
-  </si>
-  <si>
-    <t>II.1.6.1</t>
-  </si>
-  <si>
-    <t>This contract is divided into lots</t>
-  </si>
-  <si>
-    <t>II.1.6.1.1</t>
-  </si>
-  <si>
-    <t>Tenders may be submitted for all lots</t>
-  </si>
-  <si>
-    <t>Boolean</t>
-  </si>
-  <si>
-    <t>OBJECT_CONTRACT/LOT_DIVISION/LOT_ALL</t>
-  </si>
-  <si>
-    <t>epo:Procedure / epo:ProcedureTerm / xsd:boolean</t>
-  </si>
-  <si>
-    <t>?this epo:isSubjectToProcedureSpecificTerm / epo:isSubmissionForAllLotsAllowed ?value</t>
-  </si>
-  <si>
-    <t>II.1.6.1.2</t>
-  </si>
-  <si>
-    <t>Tenders may be submitted for maximum number of lots</t>
-  </si>
-  <si>
-    <t>nb_lot</t>
-  </si>
-  <si>
-    <t>OBJECT_CONTRACT/LOT_DIVISION/LOT_MAX_NUMBER</t>
-  </si>
-  <si>
-    <t>epo:Procedure / epo:ProcedureTerm / xsd:integer</t>
-  </si>
-  <si>
-    <t>?this epo:isSubjectToProcedureSpecificTerm / epo:hasMaximumLotSubmissionAllowed ?value</t>
-  </si>
-  <si>
-    <t>II.1.6.1.3</t>
-  </si>
-  <si>
-    <t>Tenders may be submitted for one lot only</t>
-  </si>
-  <si>
-    <t>OBJECT_CONTRACT/LOT_DIVISION/LOT_ONE_ONLY</t>
-  </si>
-  <si>
-    <t>?this epo:isSubjectToProcedureSpecificTerm / epo:isOneLotOnlyAllowed ?value</t>
-  </si>
-  <si>
-    <t>II.1.6.2</t>
-  </si>
-  <si>
-    <t>Maximum number of lots that may be awarded to one tenderer</t>
-  </si>
-  <si>
-    <t>BT-33</t>
-  </si>
-  <si>
-    <t>OBJECT_CONTRACT/LOT_DIVISION/LOT_MAX_ONE_TENDERER</t>
-  </si>
-  <si>
-    <t>?this epo:isSubjectToProcedureSpecificTerm / epo:hasMaximumNumberOfLotsToBeAwarded ?value</t>
-  </si>
-  <si>
-    <t>II.1.6.3</t>
-  </si>
-  <si>
-    <t>The contracting authority reserves the right to award contracts combining the following lots or groups of lots</t>
-  </si>
-  <si>
-    <t>OBJECT_CONTRACT/LOT_DIVISION/LOT_COMBINING_CONTRACT_RIGHT</t>
-  </si>
-  <si>
-    <t>epo:Procedure / epo:ProcedureTerm / rdf:langString</t>
-  </si>
-  <si>
-    <t>?this epo:isSubjectToProcedureSpecificTerm / epo:hasLotAwardCombination ?value</t>
-  </si>
-  <si>
-    <t>II.1.7</t>
-  </si>
-  <si>
-    <t>Total value of the procurement (Excluding VAT)</t>
-  </si>
-  <si>
-    <t>OBJECT_CONTRACT</t>
-  </si>
-  <si>
-    <t>epo:Notice / epo:NoticeAwardInformation</t>
-  </si>
-  <si>
-    <t>?this epo:announcesNoticeAwardInformation ?value .</t>
-  </si>
-  <si>
-    <t>II.1.7.1</t>
-  </si>
-  <si>
-    <t>Value</t>
-  </si>
-  <si>
-    <t>OBJECT_CONTRACT/VAL_TOTAL</t>
-  </si>
-  <si>
-    <t>epo:Notice / epo:NoticeAwardInformation / epo:MonetaryValue / xsd:decimal</t>
-  </si>
-  <si>
-    <t>?this epo:announcesNoticeAwardInformation / epo:hasTotalAwardedValue / epo:hasAmountValue ?value .</t>
-  </si>
-  <si>
-    <t>II.1.7.2</t>
-  </si>
-  <si>
-    <t>Lowest offer</t>
-  </si>
-  <si>
-    <t>BT-710</t>
-  </si>
-  <si>
-    <t>Tender Value Lowest</t>
-  </si>
-  <si>
-    <t>OBJECT_CONTRACT/VAL_RANGE_TOTAL/LOW</t>
+      </rPr>
+      <t xml:space="preserve"> epo:hasID / epo:hasIdentifierValue ?</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+      </rPr>
+      <t>value</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> .</t>
+    </r>
+  </si>
+  <si>
+    <t>II.2.2</t>
+  </si>
+  <si>
+    <t>Additional CPV code(s)</t>
+  </si>
+  <si>
+    <t>II.2.2.1</t>
+  </si>
+  <si>
+    <t>OBJECT_CONTRACT/OBJECT_DESCR/CPV_ADDITIONAL/CPV_CODE/@CODE</t>
+  </si>
+  <si>
+    <t>epo:Lot / epo:Purpose / at-voc:cpv (from cpv.json)</t>
+  </si>
+  <si>
+    <t>?this epo:hasPurpose / epo:hasAdditionalClassification ?value .</t>
+  </si>
+  <si>
+    <t>II.2.2.2</t>
+  </si>
+  <si>
+    <t>OBJECT_CONTRACT/OBJECT_DESCR/CPV_ADDITIONAL/CPV_SUPPLEMENTARY_CODE/@CODE</t>
+  </si>
+  <si>
+    <t>epo:Lot / epo:Purpose / at-voc:cpvsuppl (from cpvsuppl.json)</t>
+  </si>
+  <si>
+    <t>II.2.3</t>
+  </si>
+  <si>
+    <t>Place of performance</t>
+  </si>
+  <si>
+    <t>II.2.3.1</t>
+  </si>
+  <si>
+    <t>BT-5071</t>
+  </si>
+  <si>
+    <t>Place Performance Country Subdivision</t>
+  </si>
+  <si>
+    <t>OBJECT_CONTRACT/OBJECT_DESCR/NUTS/@CODE</t>
+  </si>
+  <si>
+    <t>OBJECT_CONTRACT/OBJECT_DESCR/*:NUTS/@CODE</t>
+  </si>
+  <si>
+    <t>epo:Lot / epo:ContractTerm / dct:Location / at-voc:nuts (from nuts.json)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+      </rPr>
+      <t>?this</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve"> epo:foreseesContractSpecificTerm / epo:definesSpecificPlaceOfPerformance / epo:hasNutsCode </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+      </rPr>
+      <t>?value .</t>
+    </r>
+  </si>
+  <si>
+    <t>II.2.3.2</t>
+  </si>
+  <si>
+    <t>Main site or place of performance</t>
+  </si>
+  <si>
+    <t>BT-728</t>
+  </si>
+  <si>
+    <t>Place Performance Additional Information</t>
+  </si>
+  <si>
+    <t>OBJECT_CONTRACT/OBJECT_DESCR/MAIN_SITE</t>
+  </si>
+  <si>
+    <t>epo:Lot / epo:ContractTerm / dct:Location / locn:Address / rdf:langString</t>
+  </si>
+  <si>
+    <t>?this epo:foreseesContractSpecificTerm / epo:definesSpecificPlaceOfPerformance / locn:address / locn:fullAddress ?value .</t>
+  </si>
+  <si>
+    <t>II.2.4</t>
+  </si>
+  <si>
+    <t>Description of the procurement</t>
+  </si>
+  <si>
+    <t>OBJECT_CONTRACT/OBJECT_DESCR/SHORT_DESCR</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+      </rPr>
+      <t>?this</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve"> epo:hasDescription </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+      </rPr>
+      <t>?value .</t>
+    </r>
+  </si>
+  <si>
+    <t>II.2.6</t>
+  </si>
+  <si>
+    <t>Estimated value</t>
+  </si>
+  <si>
+    <t>II.2.6.1</t>
+  </si>
+  <si>
+    <t>BT-27</t>
+  </si>
+  <si>
+    <t>OBJECT_CONTRACT/OBJECT_DESCR/VAL_OBJECT</t>
+  </si>
+  <si>
+    <t>epo:Lot / epo:MonetaryValue / xsd:decimal</t>
   </si>
   <si>
     <r>
@@ -3062,7 +3392,7 @@
         <rFont val="Arial"/>
         <color theme="1"/>
       </rPr>
-      <t xml:space="preserve"> epo:announcesNoticeAwardInformation / epo:hasProcurementLowestReceivedTenderValue / epo:hasAmountValue ?</t>
+      <t xml:space="preserve"> epo:hasEstimatedValue / epo:hasAmountValue ?</t>
     </r>
     <r>
       <rPr>
@@ -3081,379 +3411,13 @@
     </r>
   </si>
   <si>
-    <t>II.1.7.3</t>
-  </si>
-  <si>
-    <t>Highest offer</t>
-  </si>
-  <si>
-    <t>BT-711</t>
-  </si>
-  <si>
-    <t>Tender Value Highest</t>
-  </si>
-  <si>
-    <t>OBJECT_CONTRACT/VAL_RANGE_TOTAL/HIGH</t>
-  </si>
-  <si>
-    <t>?this epo:announcesNoticeAwardInformation / epo:hasProcurementHighestReceivedTenderValue / epo:hasAmountValue ?value .</t>
-  </si>
-  <si>
-    <t>II.1.7.4</t>
-  </si>
-  <si>
-    <t>OBJECT_CONTRACT/VAL_TOTAL/@CURRENCY</t>
-  </si>
-  <si>
-    <t>epo:Notice / epo:NoticeAwardInformation / epo:MonetaryValue / at-voc:currency (from currency.json)</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-      </rPr>
-      <t xml:space="preserve">{ </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-      </rPr>
-      <t xml:space="preserve">?this epo:announcesNoticeAwardInformation / epo:hasTotalAwardedValue / epo:hasCurrency </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-      </rPr>
-      <t>?value</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-      </rPr>
-      <t xml:space="preserve"> } UNION { ?this epo:announcesNoticeAwardInformation / epo:hasProcurementLowestReceivedTenderValue / epo:hasCurrency ?value } UNION  { ?this epo:announcesNoticeAwardInformation / epo:hasProcurementHighestReceivedTenderValue / epo:hasCurrency ?value } </t>
-    </r>
-  </si>
-  <si>
-    <t>II.2</t>
-  </si>
-  <si>
-    <t>epo:Notice / epo:Lot</t>
-  </si>
-  <si>
-    <t>?this epo:refersToLot ?value .</t>
-  </si>
-  <si>
-    <t>epo:Procedure / epo:Lot</t>
-  </si>
-  <si>
-    <t>?this epo:hasProcurementScopeDividedIntoLot ?value</t>
-  </si>
-  <si>
-    <t>II.2.1</t>
-  </si>
-  <si>
-    <t>OBJECT_CONTRACT/OBJECT_DESCR/TITLE</t>
-  </si>
-  <si>
-    <t>epo:Lot / rdf:langString</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
-      </rPr>
-      <t>?</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-      </rPr>
-      <t>this</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
-      </rPr>
-      <t xml:space="preserve"> epo:hasTitle ?</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-      </rPr>
-      <t>value</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
-      </rPr>
-      <t xml:space="preserve"> .</t>
-    </r>
-  </si>
-  <si>
-    <t>II.2.1.1</t>
-  </si>
-  <si>
-    <t>Lot no</t>
-  </si>
-  <si>
-    <t>BT-137</t>
-  </si>
-  <si>
-    <t>Purpose Lot Identifier</t>
-  </si>
-  <si>
-    <t>OBJECT_CONTRACT/OBJECT_DESCR/LOT_NO</t>
-  </si>
-  <si>
-    <t>epo:Lot / epo:Identifier / xsd:string</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>?</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b/>
-      </rPr>
-      <t>this</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve"> epo:hasID / epo:hasIdentifierValue ?</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b/>
-      </rPr>
-      <t>value</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve"> .</t>
-    </r>
-  </si>
-  <si>
-    <t>II.2.2</t>
-  </si>
-  <si>
-    <t>Additional CPV code(s)</t>
-  </si>
-  <si>
-    <t>II.2.2.1</t>
-  </si>
-  <si>
-    <t>OBJECT_CONTRACT/OBJECT_DESCR/CPV_ADDITIONAL/CPV_CODE/@CODE</t>
-  </si>
-  <si>
-    <t>epo:Lot / epo:Purpose / at-voc:cpv (from cpv.json)</t>
-  </si>
-  <si>
-    <t>?this epo:hasPurpose / epo:hasAdditionalClassification ?value .</t>
-  </si>
-  <si>
-    <t>II.2.2.2</t>
-  </si>
-  <si>
-    <t>OBJECT_CONTRACT/OBJECT_DESCR/CPV_ADDITIONAL/CPV_SUPPLEMENTARY_CODE/@CODE</t>
-  </si>
-  <si>
-    <t>epo:Lot / epo:Purpose / at-voc:cpvsuppl (from cpvsuppl.json)</t>
-  </si>
-  <si>
-    <t>II.2.3</t>
-  </si>
-  <si>
-    <t>Place of performance</t>
-  </si>
-  <si>
-    <t>II.2.3.1</t>
-  </si>
-  <si>
-    <t>BT-5071</t>
-  </si>
-  <si>
-    <t>Place Performance Country Subdivision</t>
-  </si>
-  <si>
-    <t>OBJECT_CONTRACT/OBJECT_DESCR/NUTS/@CODE</t>
-  </si>
-  <si>
-    <t>OBJECT_CONTRACT/OBJECT_DESCR/*:NUTS/@CODE</t>
-  </si>
-  <si>
-    <t>epo:Lot / epo:ContractTerm / dct:Location / at-voc:nuts (from nuts.json)</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-      </rPr>
-      <t>?this</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-      </rPr>
-      <t xml:space="preserve"> epo:foreseesContractSpecificTerm / epo:definesSpecificPlaceOfPerformance / epo:hasNutsCode </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-      </rPr>
-      <t>?value .</t>
-    </r>
-  </si>
-  <si>
-    <t>II.2.3.2</t>
-  </si>
-  <si>
-    <t>Main site or place of performance</t>
-  </si>
-  <si>
-    <t>BT-728</t>
-  </si>
-  <si>
-    <t>Place Performance Additional Information</t>
-  </si>
-  <si>
-    <t>OBJECT_CONTRACT/OBJECT_DESCR/MAIN_SITE</t>
-  </si>
-  <si>
-    <t>epo:Lot / epo:ContractTerm / dct:Location / locn:Address / rdf:langString</t>
-  </si>
-  <si>
-    <t>?this epo:foreseesContractSpecificTerm / epo:definesSpecificPlaceOfPerformance / locn:address / locn:fullAddress ?value .</t>
-  </si>
-  <si>
-    <t>II.2.4</t>
-  </si>
-  <si>
-    <t>Description of the procurement</t>
-  </si>
-  <si>
-    <t>OBJECT_CONTRACT/OBJECT_DESCR/SHORT_DESCR</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-      </rPr>
-      <t>?this</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-      </rPr>
-      <t xml:space="preserve"> epo:hasDescription </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-      </rPr>
-      <t>?value .</t>
-    </r>
-  </si>
-  <si>
-    <t>II.2.6</t>
-  </si>
-  <si>
-    <t>Estimated value</t>
-  </si>
-  <si>
-    <t>II.2.6.1</t>
-  </si>
-  <si>
-    <t>BT-27</t>
-  </si>
-  <si>
-    <t>OBJECT_CONTRACT/OBJECT_DESCR/VAL_OBJECT</t>
-  </si>
-  <si>
-    <t>epo:Lot / epo:MonetaryValue / xsd:decimal</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
-      </rPr>
-      <t>?</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-      </rPr>
-      <t>this</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
-      </rPr>
-      <t xml:space="preserve"> epo:hasEstimatedValue / epo:hasAmountValue ?</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-      </rPr>
-      <t>value</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
-      </rPr>
-      <t xml:space="preserve"> .</t>
-    </r>
-  </si>
-  <si>
     <t>II.2.6.2</t>
   </si>
   <si>
     <t>OBJECT_CONTRACT/OBJECT_DESCR/VAL_OBJECT/@CURRENCY</t>
   </si>
   <si>
-    <t>epo:Lot / MonetaryValue /at-voc:currency (from currency.json)</t>
+    <t>epo:Lot / epo:MonetaryValue /at-voc:currency (from currency.json)</t>
   </si>
   <si>
     <t>?this epo:hasEstimatedValue / epo:hasCurrency ?value .</t>
@@ -3526,7 +3490,7 @@
     <t>OBJECT_CONTRACT/OBJECT_DESCR/DATE_START</t>
   </si>
   <si>
-    <t>epo:Lot / epo:ContractTerm / epo:Period / xsd:datetime</t>
+    <t>epo:Lot / epo:ContractTerm / epo:Period / xsd:dateTime</t>
   </si>
   <si>
     <t>?this epo:foreseesContractSpecificTerm / epo:definesContractPeriod / epo:hasBeginning ?value .</t>
@@ -4076,7 +4040,7 @@
     <t>PROCEDURE/DATE_RECEIPT_TENDERS</t>
   </si>
   <si>
-    <t>epo:Procedure / epo:SubmissionTerm / xsd:datetime</t>
+    <t>epo:Procedure / epo:SubmissionTerm / xsd:dateTime</t>
   </si>
   <si>
     <r>
@@ -4147,7 +4111,7 @@
         <rFont val="Arial"/>
         <color theme="1"/>
       </rPr>
-      <t xml:space="preserve"> epo:isSubjectToProcedureSpecificTerm  / epo:hasReceiptExpressionsDeadline ?</t>
+      <t xml:space="preserve"> epo:isSubjectToProcedureSpecificTerm  / epo:hasReceiptExpressionDeadline ?</t>
     </r>
     <r>
       <rPr>
@@ -4305,35 +4269,7 @@
     <t>epo:Contract / epo:LotAwardOutcome / at-voc:winner-selection-status</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
-      </rPr>
-      <t>?this</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
-      </rPr>
-      <t xml:space="preserve"> epo:includesLotAwardOutcome / epo:hasAwardStatus   </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
-      </rPr>
-      <t>&lt;http://publications.europa.eu/resource/authority/winner-selection-status/selec-w&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
-      </rPr>
-      <t xml:space="preserve"> .
-</t>
-    </r>
+    <t>?this epo:resultsFromLotAwardOutcome / epo:hasAwardStatus   &lt;http://publications.europa.eu/resource/authority/winner-selection-status/selec-w&gt; .</t>
   </si>
   <si>
     <t>epo:Contract</t>
@@ -5808,9 +5744,6 @@
     <t>COMPLEMENTARY_INFO/ADDRESS_REVIEW_BODY/POSTAL_CODE</t>
   </si>
   <si>
-    <t>epo:AgentInRole (from CL1)  / org:Organizationn (from CL2) / locn:Address / rdf:langString</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <rFont val="Arial"/>
@@ -6925,9 +6858,6 @@
   </si>
   <si>
     <t>buyer_legal_type.csv</t>
-  </si>
-  <si>
-    <t>award_criterion_type.json</t>
   </si>
   <si>
     <t>legal_basis.json</t>
@@ -7102,7 +7032,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
   </numFmts>
-  <fonts count="36">
+  <fonts count="35">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -7258,10 +7188,6 @@
       <color rgb="FF999999"/>
       <name val="Arial"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
     </font>
     <font>
       <i/>
@@ -7486,7 +7412,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="193">
+  <cellXfs count="191">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -7756,9 +7682,6 @@
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="8" fillId="15" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="8" fillId="15" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="6" fillId="15" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -8032,16 +7955,13 @@
     <xf borderId="0" fillId="0" fontId="31" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="32" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="33" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="32" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="34" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="33" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="18" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
@@ -8051,7 +7971,7 @@
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="18" fontId="6" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="4" fontId="35" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="4" fontId="34" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -13647,7 +13567,7 @@
       <c r="G65" s="92" t="s">
         <v>308</v>
       </c>
-      <c r="H65" s="93" t="s">
+      <c r="H65" s="92" t="s">
         <v>309</v>
       </c>
       <c r="I65" s="7"/>
@@ -13708,10 +13628,10 @@
         <v>315</v>
       </c>
       <c r="F67" s="88"/>
-      <c r="G67" s="94" t="s">
+      <c r="G67" s="93" t="s">
         <v>308</v>
       </c>
-      <c r="H67" s="94" t="s">
+      <c r="H67" s="93" t="s">
         <v>316</v>
       </c>
       <c r="I67" s="7"/>
@@ -13729,7 +13649,7 @@
       <c r="A68" s="46" t="s">
         <v>317</v>
       </c>
-      <c r="B68" s="95"/>
+      <c r="B68" s="94"/>
       <c r="C68" s="40"/>
       <c r="D68" s="40"/>
       <c r="E68" s="83" t="s">
@@ -13757,7 +13677,7 @@
       <c r="A69" s="33" t="s">
         <v>320</v>
       </c>
-      <c r="B69" s="96" t="s">
+      <c r="B69" s="95" t="s">
         <v>321</v>
       </c>
       <c r="C69" s="4"/>
@@ -13844,23 +13764,23 @@
       <c r="B72" s="52" t="s">
         <v>330</v>
       </c>
-      <c r="C72" s="97" t="s">
+      <c r="C72" s="96" t="s">
         <v>331</v>
       </c>
-      <c r="D72" s="97" t="s">
+      <c r="D72" s="96" t="s">
         <v>332</v>
       </c>
       <c r="E72" s="45" t="s">
         <v>333</v>
       </c>
-      <c r="F72" s="97"/>
+      <c r="F72" s="96"/>
       <c r="G72" s="45" t="s">
         <v>334</v>
       </c>
       <c r="H72" s="45" t="s">
         <v>335</v>
       </c>
-      <c r="I72" s="98" t="s">
+      <c r="I72" s="97" t="s">
         <v>70</v>
       </c>
       <c r="J72" s="66"/>
@@ -13893,7 +13813,7 @@
       <c r="G73" s="4" t="s">
         <v>341</v>
       </c>
-      <c r="H73" s="99" t="s">
+      <c r="H73" s="98" t="s">
         <v>342</v>
       </c>
       <c r="I73" s="7"/>
@@ -13961,7 +13881,7 @@
       <c r="G75" s="4" t="s">
         <v>354</v>
       </c>
-      <c r="H75" s="39" t="s">
+      <c r="H75" s="4" t="s">
         <v>355</v>
       </c>
       <c r="I75" s="7"/>
@@ -13995,7 +13915,7 @@
       <c r="G76" s="36" t="s">
         <v>327</v>
       </c>
-      <c r="H76" s="100" t="s">
+      <c r="H76" s="99" t="s">
         <v>360</v>
       </c>
       <c r="I76" s="7" t="s">
@@ -14036,7 +13956,7 @@
       <c r="R77" s="28"/>
     </row>
     <row r="78">
-      <c r="A78" s="101" t="s">
+      <c r="A78" s="100" t="s">
         <v>363</v>
       </c>
       <c r="B78" s="55" t="s">
@@ -14070,7 +13990,7 @@
       <c r="R78" s="28"/>
     </row>
     <row r="79">
-      <c r="A79" s="101" t="s">
+      <c r="A79" s="100" t="s">
         <v>370</v>
       </c>
       <c r="B79" s="55" t="s">
@@ -14082,7 +14002,7 @@
         <v>372</v>
       </c>
       <c r="F79" s="88"/>
-      <c r="G79" s="87" t="s">
+      <c r="G79" s="88" t="s">
         <v>373</v>
       </c>
       <c r="H79" s="88" t="s">
@@ -14158,7 +14078,7 @@
       <c r="D82" s="4" t="s">
         <v>381</v>
       </c>
-      <c r="E82" s="102" t="s">
+      <c r="E82" s="101" t="s">
         <v>382</v>
       </c>
       <c r="F82" s="4"/>
@@ -14187,7 +14107,7 @@
         <v>386</v>
       </c>
       <c r="C83" s="4"/>
-      <c r="D83" s="103" t="s">
+      <c r="D83" s="102" t="s">
         <v>387</v>
       </c>
       <c r="E83" s="4" t="s">
@@ -14197,7 +14117,7 @@
       <c r="G83" s="4" t="s">
         <v>389</v>
       </c>
-      <c r="H83" s="104" t="s">
+      <c r="H83" s="103" t="s">
         <v>390</v>
       </c>
       <c r="I83" s="7"/>
@@ -14458,10 +14378,10 @@
       <c r="K92" s="7"/>
     </row>
     <row r="93">
-      <c r="A93" s="105" t="s">
+      <c r="A93" s="104" t="s">
         <v>431</v>
       </c>
-      <c r="B93" s="106" t="s">
+      <c r="B93" s="105" t="s">
         <v>8</v>
       </c>
       <c r="C93" s="7"/>
@@ -14529,7 +14449,7 @@
       <c r="G95" s="36" t="s">
         <v>445</v>
       </c>
-      <c r="H95" s="100" t="s">
+      <c r="H95" s="99" t="s">
         <v>446</v>
       </c>
       <c r="I95" s="7" t="s">
@@ -14704,7 +14624,7 @@
       <c r="G102" s="4" t="s">
         <v>438</v>
       </c>
-      <c r="H102" s="107" t="s">
+      <c r="H102" s="106" t="s">
         <v>475</v>
       </c>
       <c r="I102" s="7" t="s">
@@ -14720,10 +14640,10 @@
       <c r="B103" s="47" t="s">
         <v>477</v>
       </c>
-      <c r="C103" s="108"/>
-      <c r="D103" s="108"/>
+      <c r="C103" s="107"/>
+      <c r="D103" s="107"/>
       <c r="E103" s="77"/>
-      <c r="F103" s="108"/>
+      <c r="F103" s="107"/>
       <c r="G103" s="77"/>
       <c r="H103" s="77"/>
       <c r="I103" s="7"/>
@@ -14737,7 +14657,7 @@
       <c r="B104" s="55" t="s">
         <v>364</v>
       </c>
-      <c r="C104" s="108" t="s">
+      <c r="C104" s="107" t="s">
         <v>479</v>
       </c>
       <c r="D104" s="4" t="s">
@@ -14764,7 +14684,7 @@
       <c r="B105" s="55" t="s">
         <v>371</v>
       </c>
-      <c r="C105" s="108" t="s">
+      <c r="C105" s="107" t="s">
         <v>179</v>
       </c>
       <c r="D105" s="4"/>
@@ -14775,7 +14695,7 @@
       <c r="G105" s="40" t="s">
         <v>485</v>
       </c>
-      <c r="H105" s="99" t="s">
+      <c r="H105" s="98" t="s">
         <v>486</v>
       </c>
       <c r="I105" s="7"/>
@@ -14790,17 +14710,17 @@
         <v>488</v>
       </c>
       <c r="C106" s="87"/>
-      <c r="D106" s="109"/>
-      <c r="E106" s="109"/>
-      <c r="F106" s="109"/>
-      <c r="G106" s="109"/>
-      <c r="H106" s="109"/>
-      <c r="I106" s="109"/>
-      <c r="J106" s="109"/>
+      <c r="D106" s="108"/>
+      <c r="E106" s="108"/>
+      <c r="F106" s="108"/>
+      <c r="G106" s="108"/>
+      <c r="H106" s="108"/>
+      <c r="I106" s="108"/>
+      <c r="J106" s="108"/>
       <c r="K106" s="91"/>
     </row>
     <row r="107">
-      <c r="A107" s="101" t="s">
+      <c r="A107" s="100" t="s">
         <v>489</v>
       </c>
       <c r="B107" s="55" t="s">
@@ -14819,18 +14739,18 @@
       <c r="G107" s="87" t="s">
         <v>494</v>
       </c>
-      <c r="H107" s="110" t="s">
+      <c r="H107" s="109" t="s">
         <v>495</v>
       </c>
-      <c r="I107" s="109"/>
-      <c r="J107" s="109"/>
+      <c r="I107" s="108"/>
+      <c r="J107" s="108"/>
       <c r="K107" s="91"/>
     </row>
     <row r="108">
-      <c r="A108" s="111" t="s">
+      <c r="A108" s="110" t="s">
         <v>496</v>
       </c>
-      <c r="B108" s="112"/>
+      <c r="B108" s="111"/>
       <c r="C108" s="87"/>
       <c r="D108" s="87"/>
       <c r="E108" s="87" t="s">
@@ -14842,38 +14762,38 @@
       <c r="G108" s="87" t="s">
         <v>499</v>
       </c>
-      <c r="H108" s="110" t="s">
+      <c r="H108" s="109" t="s">
         <v>500</v>
       </c>
-      <c r="I108" s="109"/>
-      <c r="J108" s="109"/>
+      <c r="I108" s="108"/>
+      <c r="J108" s="108"/>
       <c r="K108" s="91"/>
     </row>
     <row r="109">
-      <c r="A109" s="111" t="s">
+      <c r="A109" s="110" t="s">
         <v>501</v>
       </c>
-      <c r="B109" s="112"/>
+      <c r="B109" s="111"/>
       <c r="C109" s="87"/>
-      <c r="D109" s="109"/>
+      <c r="D109" s="108"/>
       <c r="E109" s="90" t="s">
         <v>497</v>
       </c>
-      <c r="F109" s="109" t="s">
+      <c r="F109" s="108" t="s">
         <v>502</v>
       </c>
-      <c r="G109" s="109" t="s">
+      <c r="G109" s="108" t="s">
         <v>499</v>
       </c>
-      <c r="H109" s="109" t="s">
+      <c r="H109" s="108" t="s">
         <v>503</v>
       </c>
-      <c r="I109" s="109"/>
-      <c r="J109" s="109"/>
+      <c r="I109" s="108"/>
+      <c r="J109" s="108"/>
       <c r="K109" s="91"/>
     </row>
     <row r="110">
-      <c r="A110" s="101" t="s">
+      <c r="A110" s="100" t="s">
         <v>504</v>
       </c>
       <c r="B110" s="55" t="s">
@@ -14889,18 +14809,18 @@
         <v>508</v>
       </c>
       <c r="F110" s="87"/>
-      <c r="G110" s="87" t="s">
+      <c r="G110" s="88" t="s">
         <v>509</v>
       </c>
       <c r="H110" s="87" t="s">
         <v>510</v>
       </c>
-      <c r="I110" s="109"/>
-      <c r="J110" s="109"/>
+      <c r="I110" s="108"/>
+      <c r="J110" s="108"/>
       <c r="K110" s="91"/>
     </row>
     <row r="111">
-      <c r="A111" s="101" t="s">
+      <c r="A111" s="100" t="s">
         <v>511</v>
       </c>
       <c r="B111" s="55" t="s">
@@ -14912,11 +14832,11 @@
       <c r="D111" s="87" t="s">
         <v>514</v>
       </c>
-      <c r="E111" s="113" t="s">
+      <c r="E111" s="112" t="s">
         <v>515</v>
       </c>
-      <c r="F111" s="113"/>
-      <c r="G111" s="87" t="s">
+      <c r="F111" s="112"/>
+      <c r="G111" s="88" t="s">
         <v>509</v>
       </c>
       <c r="H111" s="87" t="s">
@@ -14944,7 +14864,7 @@
       <c r="K112" s="7"/>
     </row>
     <row r="113">
-      <c r="A113" s="101" t="s">
+      <c r="A113" s="100" t="s">
         <v>519</v>
       </c>
       <c r="B113" s="55" t="s">
@@ -14963,7 +14883,7 @@
       <c r="G113" s="49" t="s">
         <v>524</v>
       </c>
-      <c r="H113" s="114" t="s">
+      <c r="H113" s="113" t="s">
         <v>525</v>
       </c>
       <c r="I113" s="7"/>
@@ -14971,16 +14891,16 @@
       <c r="K113" s="7"/>
     </row>
     <row r="114">
-      <c r="A114" s="115" t="s">
+      <c r="A114" s="114" t="s">
         <v>519</v>
       </c>
       <c r="B114" s="62" t="s">
         <v>520</v>
       </c>
-      <c r="C114" s="116" t="s">
+      <c r="C114" s="115" t="s">
         <v>521</v>
       </c>
-      <c r="D114" s="117" t="s">
+      <c r="D114" s="116" t="s">
         <v>522</v>
       </c>
       <c r="E114" s="49" t="s">
@@ -14990,7 +14910,7 @@
       <c r="G114" s="49" t="s">
         <v>524</v>
       </c>
-      <c r="H114" s="114" t="s">
+      <c r="H114" s="113" t="s">
         <v>527</v>
       </c>
       <c r="I114" s="7"/>
@@ -14998,7 +14918,7 @@
       <c r="K114" s="7"/>
     </row>
     <row r="115">
-      <c r="A115" s="101" t="s">
+      <c r="A115" s="100" t="s">
         <v>528</v>
       </c>
       <c r="B115" s="55" t="s">
@@ -15017,7 +14937,7 @@
       <c r="G115" s="49" t="s">
         <v>532</v>
       </c>
-      <c r="H115" s="114" t="s">
+      <c r="H115" s="113" t="s">
         <v>533</v>
       </c>
       <c r="I115" s="7" t="s">
@@ -15046,7 +14966,7 @@
       <c r="G116" s="4" t="s">
         <v>438</v>
       </c>
-      <c r="H116" s="118" t="s">
+      <c r="H116" s="117" t="s">
         <v>539</v>
       </c>
       <c r="I116" s="7" t="s">
@@ -15059,13 +14979,13 @@
       <c r="A117" s="33" t="s">
         <v>540</v>
       </c>
-      <c r="B117" s="96" t="s">
+      <c r="B117" s="95" t="s">
         <v>541</v>
       </c>
       <c r="C117" s="36"/>
       <c r="D117" s="36"/>
-      <c r="E117" s="119"/>
-      <c r="F117" s="120"/>
+      <c r="E117" s="118"/>
+      <c r="F117" s="119"/>
       <c r="G117" s="49"/>
       <c r="H117" s="49"/>
       <c r="I117" s="7"/>
@@ -15113,7 +15033,7 @@
       <c r="B120" s="55" t="s">
         <v>547</v>
       </c>
-      <c r="C120" s="121" t="s">
+      <c r="C120" s="120" t="s">
         <v>548</v>
       </c>
       <c r="D120" s="14"/>
@@ -15161,16 +15081,16 @@
         <v>556</v>
       </c>
       <c r="D122" s="14"/>
-      <c r="E122" s="119" t="s">
+      <c r="E122" s="118" t="s">
         <v>557</v>
       </c>
-      <c r="F122" s="120" t="s">
+      <c r="F122" s="119" t="s">
         <v>558</v>
       </c>
       <c r="G122" s="49" t="s">
         <v>559</v>
       </c>
-      <c r="H122" s="122" t="s">
+      <c r="H122" s="121" t="s">
         <v>560</v>
       </c>
       <c r="I122" s="7"/>
@@ -15188,16 +15108,16 @@
         <v>563</v>
       </c>
       <c r="D123" s="14"/>
-      <c r="E123" s="119" t="s">
+      <c r="E123" s="118" t="s">
         <v>564</v>
       </c>
-      <c r="F123" s="120" t="s">
+      <c r="F123" s="119" t="s">
         <v>558</v>
       </c>
       <c r="G123" s="49" t="s">
         <v>565</v>
       </c>
-      <c r="H123" s="122" t="s">
+      <c r="H123" s="121" t="s">
         <v>566</v>
       </c>
       <c r="I123" s="7"/>
@@ -15245,14 +15165,14 @@
       <c r="B126" s="55" t="s">
         <v>572</v>
       </c>
-      <c r="C126" s="123" t="s">
+      <c r="C126" s="122" t="s">
         <v>573</v>
       </c>
-      <c r="D126" s="123"/>
+      <c r="D126" s="122"/>
       <c r="E126" s="85" t="s">
         <v>574</v>
       </c>
-      <c r="F126" s="123" t="s">
+      <c r="F126" s="122" t="s">
         <v>558</v>
       </c>
       <c r="G126" s="7" t="s">
@@ -15272,14 +15192,14 @@
       <c r="B127" s="55" t="s">
         <v>578</v>
       </c>
-      <c r="C127" s="124" t="s">
+      <c r="C127" s="123" t="s">
         <v>579</v>
       </c>
-      <c r="D127" s="123"/>
+      <c r="D127" s="122"/>
       <c r="E127" s="85" t="s">
         <v>580</v>
       </c>
-      <c r="F127" s="123"/>
+      <c r="F127" s="122"/>
       <c r="G127" s="4" t="s">
         <v>550</v>
       </c>
@@ -15299,18 +15219,18 @@
       <c r="B128" s="47" t="s">
         <v>582</v>
       </c>
-      <c r="C128" s="124" t="s">
+      <c r="C128" s="123" t="s">
         <v>583</v>
       </c>
-      <c r="D128" s="123"/>
+      <c r="D128" s="122"/>
       <c r="E128" s="77" t="s">
         <v>584</v>
       </c>
-      <c r="F128" s="108"/>
+      <c r="F128" s="107"/>
       <c r="G128" s="4" t="s">
         <v>585</v>
       </c>
-      <c r="H128" s="125" t="s">
+      <c r="H128" s="124" t="s">
         <v>586</v>
       </c>
       <c r="I128" s="7"/>
@@ -15341,20 +15261,20 @@
       <c r="B130" s="55" t="s">
         <v>590</v>
       </c>
-      <c r="C130" s="123" t="s">
+      <c r="C130" s="122" t="s">
         <v>591</v>
       </c>
-      <c r="D130" s="123"/>
+      <c r="D130" s="122"/>
       <c r="E130" s="77" t="s">
         <v>592</v>
       </c>
-      <c r="F130" s="108" t="s">
+      <c r="F130" s="107" t="s">
         <v>558</v>
       </c>
       <c r="G130" s="4" t="s">
         <v>593</v>
       </c>
-      <c r="H130" s="125" t="s">
+      <c r="H130" s="124" t="s">
         <v>594</v>
       </c>
       <c r="I130" s="7"/>
@@ -15368,14 +15288,14 @@
       <c r="B131" s="55" t="s">
         <v>590</v>
       </c>
-      <c r="C131" s="123" t="s">
+      <c r="C131" s="122" t="s">
         <v>591</v>
       </c>
-      <c r="D131" s="123"/>
+      <c r="D131" s="122"/>
       <c r="E131" s="90" t="s">
         <v>592</v>
       </c>
-      <c r="F131" s="123" t="s">
+      <c r="F131" s="122" t="s">
         <v>595</v>
       </c>
       <c r="G131" s="7" t="s">
@@ -15389,10 +15309,10 @@
       <c r="K131" s="7"/>
     </row>
     <row r="132">
-      <c r="A132" s="126" t="s">
+      <c r="A132" s="125" t="s">
         <v>597</v>
       </c>
-      <c r="B132" s="96" t="s">
+      <c r="B132" s="95" t="s">
         <v>598</v>
       </c>
       <c r="C132" s="7"/>
@@ -15408,7 +15328,7 @@
       <c r="K132" s="7"/>
     </row>
     <row r="133">
-      <c r="A133" s="127" t="s">
+      <c r="A133" s="126" t="s">
         <v>600</v>
       </c>
       <c r="B133" s="38" t="s">
@@ -15442,7 +15362,7 @@
       <c r="K134" s="7"/>
     </row>
     <row r="135">
-      <c r="A135" s="101" t="s">
+      <c r="A135" s="100" t="s">
         <v>603</v>
       </c>
       <c r="B135" s="55" t="s">
@@ -15450,16 +15370,16 @@
       </c>
       <c r="C135" s="7"/>
       <c r="D135" s="7"/>
-      <c r="E135" s="39" t="s">
+      <c r="E135" s="40" t="s">
         <v>605</v>
       </c>
-      <c r="F135" s="4" t="s">
+      <c r="F135" s="40" t="s">
         <v>606</v>
       </c>
-      <c r="G135" s="4" t="s">
+      <c r="G135" s="40" t="s">
         <v>607</v>
       </c>
-      <c r="H135" s="4" t="s">
+      <c r="H135" s="40" t="s">
         <v>608</v>
       </c>
       <c r="I135" s="7"/>
@@ -15467,7 +15387,7 @@
       <c r="K135" s="7"/>
     </row>
     <row r="136">
-      <c r="A136" s="101" t="s">
+      <c r="A136" s="100" t="s">
         <v>609</v>
       </c>
       <c r="B136" s="55" t="s">
@@ -15482,7 +15402,7 @@
       <c r="G136" s="36" t="s">
         <v>612</v>
       </c>
-      <c r="H136" s="128" t="s">
+      <c r="H136" s="127" t="s">
         <v>613</v>
       </c>
       <c r="I136" s="7"/>
@@ -15496,7 +15416,7 @@
       <c r="B137" s="47" t="s">
         <v>615</v>
       </c>
-      <c r="C137" s="123" t="s">
+      <c r="C137" s="122" t="s">
         <v>616</v>
       </c>
       <c r="D137" s="85"/>
@@ -15507,7 +15427,7 @@
       <c r="G137" s="4" t="s">
         <v>327</v>
       </c>
-      <c r="H137" s="104" t="s">
+      <c r="H137" s="103" t="s">
         <v>618</v>
       </c>
       <c r="I137" s="7"/>
@@ -15515,7 +15435,7 @@
       <c r="K137" s="7"/>
     </row>
     <row r="138">
-      <c r="A138" s="127" t="s">
+      <c r="A138" s="126" t="s">
         <v>619</v>
       </c>
       <c r="B138" s="38" t="s">
@@ -15571,7 +15491,7 @@
         <v>628</v>
       </c>
       <c r="F140" s="4"/>
-      <c r="G140" s="4" t="s">
+      <c r="G140" s="39" t="s">
         <v>629</v>
       </c>
       <c r="H140" s="39" t="s">
@@ -15596,7 +15516,7 @@
         <v>633</v>
       </c>
       <c r="F141" s="4"/>
-      <c r="G141" s="4" t="s">
+      <c r="G141" s="39" t="s">
         <v>629</v>
       </c>
       <c r="H141" s="39" t="s">
@@ -15632,15 +15552,15 @@
       <c r="K142" s="7"/>
     </row>
     <row r="143">
-      <c r="A143" s="126" t="s">
+      <c r="A143" s="125" t="s">
         <v>641</v>
       </c>
-      <c r="B143" s="96" t="s">
+      <c r="B143" s="95" t="s">
         <v>642</v>
       </c>
       <c r="C143" s="7"/>
       <c r="D143" s="7"/>
-      <c r="E143" s="129" t="s">
+      <c r="E143" s="128" t="s">
         <v>643</v>
       </c>
       <c r="F143" s="4"/>
@@ -15676,7 +15596,7 @@
       <c r="G144" s="4" t="s">
         <v>651</v>
       </c>
-      <c r="H144" s="107" t="s">
+      <c r="H144" s="106" t="s">
         <v>652</v>
       </c>
       <c r="I144" s="7" t="s">
@@ -15713,16 +15633,16 @@
       <c r="K145" s="7"/>
     </row>
     <row r="146">
-      <c r="A146" s="130" t="s">
+      <c r="A146" s="129" t="s">
         <v>653</v>
       </c>
-      <c r="B146" s="131" t="s">
+      <c r="B146" s="130" t="s">
         <v>654</v>
       </c>
-      <c r="C146" s="132" t="s">
+      <c r="C146" s="131" t="s">
         <v>655</v>
       </c>
-      <c r="D146" s="133" t="s">
+      <c r="D146" s="132" t="s">
         <v>656</v>
       </c>
       <c r="E146" s="60" t="s">
@@ -15740,16 +15660,16 @@
       <c r="K146" s="7"/>
     </row>
     <row r="147">
-      <c r="A147" s="130" t="s">
+      <c r="A147" s="129" t="s">
         <v>653</v>
       </c>
-      <c r="B147" s="131" t="s">
+      <c r="B147" s="130" t="s">
         <v>654</v>
       </c>
-      <c r="C147" s="132" t="s">
+      <c r="C147" s="131" t="s">
         <v>655</v>
       </c>
-      <c r="D147" s="132" t="s">
+      <c r="D147" s="131" t="s">
         <v>656</v>
       </c>
       <c r="E147" s="60" t="s">
@@ -15767,13 +15687,13 @@
       <c r="K147" s="7"/>
     </row>
     <row r="148">
-      <c r="A148" s="127" t="s">
+      <c r="A148" s="126" t="s">
         <v>665</v>
       </c>
       <c r="B148" s="38" t="s">
         <v>666</v>
       </c>
-      <c r="C148" s="134" t="s">
+      <c r="C148" s="133" t="s">
         <v>667</v>
       </c>
       <c r="D148" s="86"/>
@@ -15792,7 +15712,7 @@
       <c r="B149" s="47" t="s">
         <v>669</v>
       </c>
-      <c r="C149" s="135" t="s">
+      <c r="C149" s="134" t="s">
         <v>667</v>
       </c>
       <c r="D149" s="7"/>
@@ -15805,7 +15725,7 @@
       <c r="K149" s="7"/>
     </row>
     <row r="150">
-      <c r="A150" s="101" t="s">
+      <c r="A150" s="100" t="s">
         <v>670</v>
       </c>
       <c r="B150" s="55" t="s">
@@ -15824,7 +15744,7 @@
       <c r="G150" s="36" t="s">
         <v>675</v>
       </c>
-      <c r="H150" s="100" t="s">
+      <c r="H150" s="99" t="s">
         <v>676</v>
       </c>
       <c r="I150" s="7"/>
@@ -15832,7 +15752,7 @@
       <c r="K150" s="7"/>
     </row>
     <row r="151">
-      <c r="A151" s="101" t="s">
+      <c r="A151" s="100" t="s">
         <v>677</v>
       </c>
       <c r="B151" s="55" t="s">
@@ -15851,7 +15771,7 @@
       <c r="G151" s="4" t="s">
         <v>675</v>
       </c>
-      <c r="H151" s="125" t="s">
+      <c r="H151" s="124" t="s">
         <v>680</v>
       </c>
       <c r="I151" s="7"/>
@@ -15859,13 +15779,13 @@
       <c r="K151" s="7"/>
     </row>
     <row r="152">
-      <c r="A152" s="101" t="s">
+      <c r="A152" s="100" t="s">
         <v>681</v>
       </c>
       <c r="B152" s="55" t="s">
         <v>682</v>
       </c>
-      <c r="C152" s="136" t="s">
+      <c r="C152" s="135" t="s">
         <v>579</v>
       </c>
       <c r="D152" s="86"/>
@@ -15884,13 +15804,13 @@
       <c r="K152" s="7"/>
     </row>
     <row r="153">
-      <c r="A153" s="127" t="s">
+      <c r="A153" s="126" t="s">
         <v>686</v>
       </c>
       <c r="B153" s="38" t="s">
         <v>687</v>
       </c>
-      <c r="C153" s="135" t="s">
+      <c r="C153" s="134" t="s">
         <v>667</v>
       </c>
       <c r="D153" s="7"/>
@@ -15903,7 +15823,7 @@
       <c r="K153" s="7"/>
     </row>
     <row r="154">
-      <c r="A154" s="101" t="s">
+      <c r="A154" s="100" t="s">
         <v>688</v>
       </c>
       <c r="B154" s="55"/>
@@ -15916,7 +15836,7 @@
       <c r="G154" s="36" t="s">
         <v>689</v>
       </c>
-      <c r="H154" s="100" t="s">
+      <c r="H154" s="99" t="s">
         <v>690</v>
       </c>
       <c r="I154" s="7"/>
@@ -15924,7 +15844,7 @@
       <c r="K154" s="7"/>
     </row>
     <row r="155">
-      <c r="A155" s="101" t="s">
+      <c r="A155" s="100" t="s">
         <v>688</v>
       </c>
       <c r="B155" s="78"/>
@@ -15937,7 +15857,7 @@
       <c r="G155" s="36" t="s">
         <v>691</v>
       </c>
-      <c r="H155" s="100" t="s">
+      <c r="H155" s="99" t="s">
         <v>692</v>
       </c>
       <c r="I155" s="7"/>
@@ -15980,12 +15900,12 @@
       <c r="B157" s="47" t="s">
         <v>702</v>
       </c>
-      <c r="C157" s="137"/>
-      <c r="D157" s="137"/>
+      <c r="C157" s="136"/>
+      <c r="D157" s="136"/>
       <c r="E157" s="60" t="s">
         <v>657</v>
       </c>
-      <c r="F157" s="138"/>
+      <c r="F157" s="137"/>
       <c r="G157" s="49" t="s">
         <v>703</v>
       </c>
@@ -15999,7 +15919,7 @@
       <c r="K157" s="7"/>
     </row>
     <row r="158">
-      <c r="A158" s="101" t="s">
+      <c r="A158" s="100" t="s">
         <v>706</v>
       </c>
       <c r="B158" s="55" t="s">
@@ -16026,7 +15946,7 @@
       <c r="K158" s="7"/>
     </row>
     <row r="159">
-      <c r="A159" s="101" t="s">
+      <c r="A159" s="100" t="s">
         <v>713</v>
       </c>
       <c r="B159" s="55" t="s">
@@ -16049,7 +15969,7 @@
       <c r="K159" s="7"/>
     </row>
     <row r="160">
-      <c r="A160" s="101" t="s">
+      <c r="A160" s="100" t="s">
         <v>718</v>
       </c>
       <c r="B160" s="55" t="s">
@@ -16072,7 +15992,7 @@
       <c r="K160" s="7"/>
     </row>
     <row r="161">
-      <c r="A161" s="101" t="s">
+      <c r="A161" s="100" t="s">
         <v>722</v>
       </c>
       <c r="B161" s="84" t="s">
@@ -16087,7 +16007,7 @@
       <c r="G161" s="7" t="s">
         <v>716</v>
       </c>
-      <c r="H161" s="139" t="s">
+      <c r="H161" s="138" t="s">
         <v>725</v>
       </c>
       <c r="I161" s="7"/>
@@ -16095,7 +16015,7 @@
       <c r="K161" s="7"/>
     </row>
     <row r="162">
-      <c r="A162" s="101" t="s">
+      <c r="A162" s="100" t="s">
         <v>726</v>
       </c>
       <c r="B162" s="84" t="s">
@@ -16110,7 +16030,7 @@
       <c r="G162" s="7" t="s">
         <v>716</v>
       </c>
-      <c r="H162" s="140" t="s">
+      <c r="H162" s="139" t="s">
         <v>729</v>
       </c>
       <c r="I162" s="7"/>
@@ -16118,13 +16038,13 @@
       <c r="K162" s="7"/>
     </row>
     <row r="163">
-      <c r="A163" s="101" t="s">
+      <c r="A163" s="100" t="s">
         <v>730</v>
       </c>
       <c r="B163" s="84" t="s">
         <v>731</v>
       </c>
-      <c r="C163" s="141" t="s">
+      <c r="C163" s="140" t="s">
         <v>732</v>
       </c>
       <c r="D163" s="86"/>
@@ -16135,7 +16055,7 @@
       <c r="G163" s="14" t="s">
         <v>734</v>
       </c>
-      <c r="H163" s="142" t="s">
+      <c r="H163" s="141" t="s">
         <v>735</v>
       </c>
       <c r="I163" s="7"/>
@@ -16146,10 +16066,10 @@
       <c r="A164" s="48" t="s">
         <v>736</v>
       </c>
-      <c r="B164" s="143" t="s">
+      <c r="B164" s="142" t="s">
         <v>737</v>
       </c>
-      <c r="C164" s="134" t="s">
+      <c r="C164" s="133" t="s">
         <v>667</v>
       </c>
       <c r="D164" s="86"/>
@@ -16162,7 +16082,7 @@
       <c r="K164" s="7"/>
     </row>
     <row r="165">
-      <c r="A165" s="101" t="s">
+      <c r="A165" s="100" t="s">
         <v>738</v>
       </c>
       <c r="B165" s="84" t="s">
@@ -16178,10 +16098,10 @@
         <v>739</v>
       </c>
       <c r="F165" s="86"/>
-      <c r="G165" s="98" t="s">
+      <c r="G165" s="97" t="s">
         <v>60</v>
       </c>
-      <c r="H165" s="98" t="s">
+      <c r="H165" s="97" t="s">
         <v>740</v>
       </c>
       <c r="I165" s="7" t="s">
@@ -16191,7 +16111,7 @@
       <c r="K165" s="7"/>
     </row>
     <row r="166">
-      <c r="A166" s="101" t="s">
+      <c r="A166" s="100" t="s">
         <v>741</v>
       </c>
       <c r="B166" s="84" t="s">
@@ -16207,10 +16127,10 @@
         <v>742</v>
       </c>
       <c r="F166" s="86"/>
-      <c r="G166" s="97" t="s">
+      <c r="G166" s="96" t="s">
         <v>68</v>
       </c>
-      <c r="H166" s="97" t="s">
+      <c r="H166" s="96" t="s">
         <v>743</v>
       </c>
       <c r="I166" s="7" t="s">
@@ -16220,7 +16140,7 @@
       <c r="K166" s="7"/>
     </row>
     <row r="167">
-      <c r="A167" s="101" t="s">
+      <c r="A167" s="100" t="s">
         <v>744</v>
       </c>
       <c r="B167" s="84" t="s">
@@ -16247,7 +16167,7 @@
       <c r="K167" s="7"/>
     </row>
     <row r="168">
-      <c r="A168" s="101" t="s">
+      <c r="A168" s="100" t="s">
         <v>747</v>
       </c>
       <c r="B168" s="84" t="s">
@@ -16274,7 +16194,7 @@
       <c r="K168" s="7"/>
     </row>
     <row r="169">
-      <c r="A169" s="101" t="s">
+      <c r="A169" s="100" t="s">
         <v>750</v>
       </c>
       <c r="B169" s="84" t="s">
@@ -16303,7 +16223,7 @@
       <c r="K169" s="7"/>
     </row>
     <row r="170">
-      <c r="A170" s="101" t="s">
+      <c r="A170" s="100" t="s">
         <v>754</v>
       </c>
       <c r="B170" s="84" t="s">
@@ -16315,10 +16235,10 @@
       <c r="D170" s="86" t="s">
         <v>755</v>
       </c>
-      <c r="E170" s="119" t="s">
+      <c r="E170" s="118" t="s">
         <v>756</v>
       </c>
-      <c r="F170" s="119"/>
+      <c r="F170" s="118"/>
       <c r="G170" s="7" t="s">
         <v>97</v>
       </c>
@@ -16330,7 +16250,7 @@
       <c r="K170" s="7"/>
     </row>
     <row r="171">
-      <c r="A171" s="101" t="s">
+      <c r="A171" s="100" t="s">
         <v>758</v>
       </c>
       <c r="B171" s="84" t="s">
@@ -16342,14 +16262,14 @@
       <c r="D171" s="86" t="s">
         <v>102</v>
       </c>
-      <c r="E171" s="119" t="s">
+      <c r="E171" s="118" t="s">
         <v>759</v>
       </c>
       <c r="F171" s="86"/>
-      <c r="G171" s="98" t="s">
+      <c r="G171" s="97" t="s">
         <v>104</v>
       </c>
-      <c r="H171" s="98" t="s">
+      <c r="H171" s="97" t="s">
         <v>760</v>
       </c>
       <c r="I171" s="7"/>
@@ -16357,7 +16277,7 @@
       <c r="K171" s="7"/>
     </row>
     <row r="172">
-      <c r="A172" s="101" t="s">
+      <c r="A172" s="100" t="s">
         <v>761</v>
       </c>
       <c r="B172" s="84" t="s">
@@ -16384,7 +16304,7 @@
       <c r="K172" s="7"/>
     </row>
     <row r="173">
-      <c r="A173" s="101" t="s">
+      <c r="A173" s="100" t="s">
         <v>765</v>
       </c>
       <c r="B173" s="84" t="s">
@@ -16411,7 +16331,7 @@
       <c r="K173" s="7"/>
     </row>
     <row r="174">
-      <c r="A174" s="101" t="s">
+      <c r="A174" s="100" t="s">
         <v>769</v>
       </c>
       <c r="B174" s="84" t="s">
@@ -16427,10 +16347,10 @@
         <v>771</v>
       </c>
       <c r="F174" s="86"/>
-      <c r="G174" s="97" t="s">
+      <c r="G174" s="96" t="s">
         <v>763</v>
       </c>
-      <c r="H174" s="97" t="s">
+      <c r="H174" s="96" t="s">
         <v>772</v>
       </c>
       <c r="I174" s="7"/>
@@ -16438,7 +16358,7 @@
       <c r="K174" s="7"/>
     </row>
     <row r="175">
-      <c r="A175" s="101" t="s">
+      <c r="A175" s="100" t="s">
         <v>773</v>
       </c>
       <c r="B175" s="84" t="s">
@@ -16465,7 +16385,7 @@
       <c r="K175" s="7"/>
     </row>
     <row r="176">
-      <c r="A176" s="101" t="s">
+      <c r="A176" s="100" t="s">
         <v>776</v>
       </c>
       <c r="B176" s="84" t="s">
@@ -16477,14 +16397,14 @@
       <c r="D176" s="86" t="s">
         <v>779</v>
       </c>
-      <c r="E176" s="144" t="s">
+      <c r="E176" s="143" t="s">
         <v>780</v>
       </c>
       <c r="F176" s="76"/>
       <c r="G176" s="7" t="s">
         <v>781</v>
       </c>
-      <c r="H176" s="145" t="s">
+      <c r="H176" s="144" t="s">
         <v>782</v>
       </c>
       <c r="I176" s="7"/>
@@ -16496,14 +16416,14 @@
       <c r="B177" s="7"/>
       <c r="C177" s="86"/>
       <c r="D177" s="86"/>
-      <c r="E177" s="144" t="s">
+      <c r="E177" s="143" t="s">
         <v>780</v>
       </c>
       <c r="F177" s="76"/>
-      <c r="G177" s="98" t="s">
+      <c r="G177" s="97" t="s">
         <v>783</v>
       </c>
-      <c r="H177" s="98" t="s">
+      <c r="H177" s="97" t="s">
         <v>784</v>
       </c>
       <c r="I177" s="7"/>
@@ -16514,10 +16434,10 @@
       <c r="A178" s="48" t="s">
         <v>785</v>
       </c>
-      <c r="B178" s="143" t="s">
+      <c r="B178" s="142" t="s">
         <v>786</v>
       </c>
-      <c r="C178" s="135" t="s">
+      <c r="C178" s="134" t="s">
         <v>667</v>
       </c>
       <c r="D178" s="7"/>
@@ -16530,7 +16450,7 @@
       <c r="K178" s="7"/>
     </row>
     <row r="179">
-      <c r="A179" s="101" t="s">
+      <c r="A179" s="100" t="s">
         <v>787</v>
       </c>
       <c r="B179" s="84" t="s">
@@ -16542,10 +16462,10 @@
       <c r="D179" s="86" t="s">
         <v>366</v>
       </c>
-      <c r="E179" s="119" t="s">
+      <c r="E179" s="118" t="s">
         <v>789</v>
       </c>
-      <c r="F179" s="119"/>
+      <c r="F179" s="118"/>
       <c r="G179" s="14" t="s">
         <v>481</v>
       </c>
@@ -16557,20 +16477,20 @@
       <c r="K179" s="7"/>
     </row>
     <row r="180">
-      <c r="A180" s="111" t="s">
+      <c r="A180" s="110" t="s">
         <v>791</v>
       </c>
       <c r="B180" s="73" t="s">
         <v>371</v>
       </c>
-      <c r="C180" s="146" t="s">
+      <c r="C180" s="145" t="s">
         <v>179</v>
       </c>
       <c r="D180" s="86"/>
-      <c r="E180" s="119" t="s">
+      <c r="E180" s="118" t="s">
         <v>792</v>
       </c>
-      <c r="F180" s="119"/>
+      <c r="F180" s="118"/>
       <c r="G180" s="14" t="s">
         <v>793</v>
       </c>
@@ -16582,7 +16502,7 @@
       <c r="K180" s="7"/>
     </row>
     <row r="181">
-      <c r="A181" s="101" t="s">
+      <c r="A181" s="100" t="s">
         <v>795</v>
       </c>
       <c r="B181" s="84" t="s">
@@ -16594,10 +16514,10 @@
       <c r="D181" s="86" t="s">
         <v>798</v>
       </c>
-      <c r="E181" s="119" t="s">
+      <c r="E181" s="118" t="s">
         <v>799</v>
       </c>
-      <c r="F181" s="119"/>
+      <c r="F181" s="118"/>
       <c r="G181" s="7" t="s">
         <v>800</v>
       </c>
@@ -16609,13 +16529,13 @@
       <c r="K181" s="7"/>
     </row>
     <row r="182">
-      <c r="A182" s="111" t="s">
+      <c r="A182" s="110" t="s">
         <v>802</v>
       </c>
       <c r="B182" s="73" t="s">
         <v>371</v>
       </c>
-      <c r="C182" s="146" t="s">
+      <c r="C182" s="145" t="s">
         <v>179</v>
       </c>
       <c r="D182" s="86"/>
@@ -16634,22 +16554,22 @@
       <c r="K182" s="7"/>
     </row>
     <row r="183">
-      <c r="A183" s="101" t="s">
+      <c r="A183" s="100" t="s">
         <v>806</v>
       </c>
       <c r="B183" s="84" t="s">
         <v>807</v>
       </c>
-      <c r="C183" s="109" t="s">
+      <c r="C183" s="108" t="s">
         <v>808</v>
       </c>
-      <c r="D183" s="109" t="s">
+      <c r="D183" s="108" t="s">
         <v>809</v>
       </c>
-      <c r="E183" s="147" t="s">
+      <c r="E183" s="146" t="s">
         <v>810</v>
       </c>
-      <c r="F183" s="147"/>
+      <c r="F183" s="146"/>
       <c r="G183" s="91" t="s">
         <v>811</v>
       </c>
@@ -16661,20 +16581,20 @@
       <c r="K183" s="7"/>
     </row>
     <row r="184">
-      <c r="A184" s="111" t="s">
+      <c r="A184" s="110" t="s">
         <v>813</v>
       </c>
       <c r="B184" s="73" t="s">
         <v>371</v>
       </c>
-      <c r="C184" s="148" t="s">
+      <c r="C184" s="147" t="s">
         <v>179</v>
       </c>
-      <c r="D184" s="109"/>
-      <c r="E184" s="147" t="s">
+      <c r="D184" s="108"/>
+      <c r="E184" s="146" t="s">
         <v>814</v>
       </c>
-      <c r="F184" s="109"/>
+      <c r="F184" s="108"/>
       <c r="G184" s="91" t="s">
         <v>815</v>
       </c>
@@ -16686,16 +16606,16 @@
       <c r="K184" s="7"/>
     </row>
     <row r="185">
-      <c r="A185" s="101" t="s">
+      <c r="A185" s="100" t="s">
         <v>817</v>
       </c>
       <c r="B185" s="84" t="s">
         <v>818</v>
       </c>
-      <c r="C185" s="109" t="s">
+      <c r="C185" s="108" t="s">
         <v>819</v>
       </c>
-      <c r="D185" s="109" t="s">
+      <c r="D185" s="108" t="s">
         <v>820</v>
       </c>
       <c r="E185" s="91" t="s">
@@ -16713,20 +16633,20 @@
       <c r="K185" s="7"/>
     </row>
     <row r="186">
-      <c r="A186" s="111" t="s">
+      <c r="A186" s="110" t="s">
         <v>823</v>
       </c>
       <c r="B186" s="73" t="s">
         <v>371</v>
       </c>
-      <c r="C186" s="148" t="s">
+      <c r="C186" s="147" t="s">
         <v>179</v>
       </c>
-      <c r="D186" s="109"/>
-      <c r="E186" s="109" t="s">
+      <c r="D186" s="108"/>
+      <c r="E186" s="108" t="s">
         <v>824</v>
       </c>
-      <c r="F186" s="109"/>
+      <c r="F186" s="108"/>
       <c r="G186" s="91" t="s">
         <v>815</v>
       </c>
@@ -16738,26 +16658,26 @@
       <c r="K186" s="7"/>
     </row>
     <row r="187">
-      <c r="A187" s="101" t="s">
+      <c r="A187" s="100" t="s">
         <v>826</v>
       </c>
       <c r="B187" s="84" t="s">
         <v>827</v>
       </c>
-      <c r="C187" s="109" t="s">
+      <c r="C187" s="108" t="s">
         <v>828</v>
       </c>
-      <c r="D187" s="109" t="s">
+      <c r="D187" s="108" t="s">
         <v>829</v>
       </c>
-      <c r="E187" s="109" t="s">
+      <c r="E187" s="108" t="s">
         <v>830</v>
       </c>
-      <c r="F187" s="109"/>
-      <c r="G187" s="109" t="s">
+      <c r="F187" s="108"/>
+      <c r="G187" s="108" t="s">
         <v>831</v>
       </c>
-      <c r="H187" s="109" t="s">
+      <c r="H187" s="108" t="s">
         <v>832</v>
       </c>
       <c r="I187" s="7"/>
@@ -16765,10 +16685,10 @@
       <c r="K187" s="7"/>
     </row>
     <row r="188">
-      <c r="A188" s="126" t="s">
+      <c r="A188" s="125" t="s">
         <v>833</v>
       </c>
-      <c r="B188" s="149" t="s">
+      <c r="B188" s="148" t="s">
         <v>834</v>
       </c>
       <c r="C188" s="7"/>
@@ -16785,13 +16705,13 @@
       <c r="A189" s="37" t="s">
         <v>835</v>
       </c>
-      <c r="B189" s="150" t="s">
+      <c r="B189" s="149" t="s">
         <v>836</v>
       </c>
-      <c r="C189" s="123"/>
+      <c r="C189" s="122"/>
       <c r="D189" s="85"/>
-      <c r="E189" s="151"/>
-      <c r="F189" s="120"/>
+      <c r="E189" s="150"/>
+      <c r="F189" s="119"/>
       <c r="G189" s="86"/>
       <c r="H189" s="86"/>
       <c r="I189" s="7"/>
@@ -16802,17 +16722,17 @@
       <c r="A190" s="46" t="s">
         <v>837</v>
       </c>
-      <c r="B190" s="143" t="s">
+      <c r="B190" s="142" t="s">
         <v>838</v>
       </c>
-      <c r="C190" s="123" t="s">
+      <c r="C190" s="122" t="s">
         <v>839</v>
       </c>
       <c r="D190" s="85"/>
-      <c r="E190" s="151" t="s">
+      <c r="E190" s="150" t="s">
         <v>840</v>
       </c>
-      <c r="F190" s="120"/>
+      <c r="F190" s="119"/>
       <c r="G190" s="7" t="s">
         <v>841</v>
       </c>
@@ -16827,17 +16747,17 @@
       <c r="A191" s="46" t="s">
         <v>843</v>
       </c>
-      <c r="B191" s="143" t="s">
+      <c r="B191" s="142" t="s">
         <v>844</v>
       </c>
-      <c r="C191" s="123" t="s">
+      <c r="C191" s="122" t="s">
         <v>845</v>
       </c>
       <c r="D191" s="85"/>
-      <c r="E191" s="151" t="s">
+      <c r="E191" s="150" t="s">
         <v>846</v>
       </c>
-      <c r="F191" s="120"/>
+      <c r="F191" s="119"/>
       <c r="G191" s="7" t="s">
         <v>841</v>
       </c>
@@ -16852,17 +16772,17 @@
       <c r="A192" s="46" t="s">
         <v>848</v>
       </c>
-      <c r="B192" s="143" t="s">
+      <c r="B192" s="142" t="s">
         <v>849</v>
       </c>
-      <c r="C192" s="123" t="s">
+      <c r="C192" s="122" t="s">
         <v>850</v>
       </c>
       <c r="D192" s="85"/>
-      <c r="E192" s="151" t="s">
+      <c r="E192" s="150" t="s">
         <v>851</v>
       </c>
-      <c r="F192" s="120"/>
+      <c r="F192" s="119"/>
       <c r="G192" s="7" t="s">
         <v>841</v>
       </c>
@@ -16874,10 +16794,10 @@
       <c r="K192" s="7"/>
     </row>
     <row r="193">
-      <c r="A193" s="127" t="s">
+      <c r="A193" s="126" t="s">
         <v>853</v>
       </c>
-      <c r="B193" s="150" t="s">
+      <c r="B193" s="149" t="s">
         <v>535</v>
       </c>
       <c r="C193" s="86" t="s">
@@ -16886,14 +16806,14 @@
       <c r="D193" s="7" t="s">
         <v>537</v>
       </c>
-      <c r="E193" s="119" t="s">
+      <c r="E193" s="118" t="s">
         <v>854</v>
       </c>
-      <c r="F193" s="119"/>
-      <c r="G193" s="152" t="s">
+      <c r="F193" s="118"/>
+      <c r="G193" s="151" t="s">
         <v>327</v>
       </c>
-      <c r="H193" s="153" t="s">
+      <c r="H193" s="152" t="s">
         <v>855</v>
       </c>
       <c r="I193" s="7" t="s">
@@ -16903,18 +16823,18 @@
       <c r="K193" s="7"/>
     </row>
     <row r="194">
-      <c r="A194" s="127" t="s">
+      <c r="A194" s="126" t="s">
         <v>856</v>
       </c>
-      <c r="B194" s="150" t="s">
+      <c r="B194" s="149" t="s">
         <v>857</v>
       </c>
-      <c r="C194" s="134" t="s">
+      <c r="C194" s="133" t="s">
         <v>667</v>
       </c>
       <c r="D194" s="7"/>
-      <c r="E194" s="120"/>
-      <c r="F194" s="120"/>
+      <c r="E194" s="119"/>
+      <c r="F194" s="119"/>
       <c r="G194" s="7"/>
       <c r="H194" s="7"/>
       <c r="I194" s="7"/>
@@ -16925,10 +16845,10 @@
       <c r="A195" s="48" t="s">
         <v>858</v>
       </c>
-      <c r="B195" s="143" t="s">
+      <c r="B195" s="142" t="s">
         <v>859</v>
       </c>
-      <c r="C195" s="154" t="s">
+      <c r="C195" s="153" t="s">
         <v>667</v>
       </c>
       <c r="D195" s="7"/>
@@ -16947,7 +16867,7 @@
       <c r="K195" s="7"/>
     </row>
     <row r="196">
-      <c r="A196" s="101" t="s">
+      <c r="A196" s="100" t="s">
         <v>861</v>
       </c>
       <c r="B196" s="84" t="s">
@@ -16976,7 +16896,7 @@
       <c r="K196" s="7"/>
     </row>
     <row r="197">
-      <c r="A197" s="101" t="s">
+      <c r="A197" s="100" t="s">
         <v>864</v>
       </c>
       <c r="B197" s="84" t="s">
@@ -17003,7 +16923,7 @@
       <c r="K197" s="7"/>
     </row>
     <row r="198">
-      <c r="A198" s="101" t="s">
+      <c r="A198" s="100" t="s">
         <v>867</v>
       </c>
       <c r="B198" s="84" t="s">
@@ -17030,7 +16950,7 @@
       <c r="K198" s="7"/>
     </row>
     <row r="199">
-      <c r="A199" s="101" t="s">
+      <c r="A199" s="100" t="s">
         <v>870</v>
       </c>
       <c r="B199" s="84" t="s">
@@ -17047,18 +16967,18 @@
       </c>
       <c r="F199" s="86"/>
       <c r="G199" s="72" t="s">
+        <v>97</v>
+      </c>
+      <c r="H199" s="72" t="s">
         <v>872</v>
-      </c>
-      <c r="H199" s="72" t="s">
-        <v>873</v>
       </c>
       <c r="I199" s="7"/>
       <c r="J199" s="7"/>
       <c r="K199" s="7"/>
     </row>
     <row r="200">
-      <c r="A200" s="101" t="s">
-        <v>874</v>
+      <c r="A200" s="100" t="s">
+        <v>873</v>
       </c>
       <c r="B200" s="84" t="s">
         <v>100</v>
@@ -17070,22 +16990,22 @@
         <v>102</v>
       </c>
       <c r="E200" s="86" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="F200" s="86"/>
       <c r="G200" s="86" t="s">
         <v>104</v>
       </c>
       <c r="H200" s="86" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="I200" s="7"/>
       <c r="J200" s="7"/>
       <c r="K200" s="7"/>
     </row>
     <row r="201">
-      <c r="A201" s="101" t="s">
-        <v>877</v>
+      <c r="A201" s="100" t="s">
+        <v>876</v>
       </c>
       <c r="B201" s="84" t="s">
         <v>120</v>
@@ -17097,7 +17017,7 @@
         <v>122</v>
       </c>
       <c r="E201" s="86" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="F201" s="86"/>
       <c r="G201" s="86" t="s">
@@ -17111,8 +17031,8 @@
       <c r="K201" s="7"/>
     </row>
     <row r="202">
-      <c r="A202" s="101" t="s">
-        <v>879</v>
+      <c r="A202" s="100" t="s">
+        <v>878</v>
       </c>
       <c r="B202" s="84" t="s">
         <v>114</v>
@@ -17124,7 +17044,7 @@
         <v>116</v>
       </c>
       <c r="E202" s="86" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="F202" s="86"/>
       <c r="G202" s="86" t="s">
@@ -17138,8 +17058,8 @@
       <c r="K202" s="7"/>
     </row>
     <row r="203">
-      <c r="A203" s="101" t="s">
-        <v>881</v>
+      <c r="A203" s="100" t="s">
+        <v>880</v>
       </c>
       <c r="B203" s="84" t="s">
         <v>770</v>
@@ -17151,22 +17071,22 @@
         <v>137</v>
       </c>
       <c r="E203" s="86" t="s">
+        <v>881</v>
+      </c>
+      <c r="F203" s="86"/>
+      <c r="G203" s="96" t="s">
+        <v>763</v>
+      </c>
+      <c r="H203" s="96" t="s">
         <v>882</v>
-      </c>
-      <c r="F203" s="86"/>
-      <c r="G203" s="97" t="s">
-        <v>763</v>
-      </c>
-      <c r="H203" s="97" t="s">
-        <v>883</v>
       </c>
       <c r="I203" s="7"/>
       <c r="J203" s="7"/>
       <c r="K203" s="7"/>
     </row>
     <row r="204">
-      <c r="A204" s="101" t="s">
-        <v>884</v>
+      <c r="A204" s="100" t="s">
+        <v>883</v>
       </c>
       <c r="B204" s="84" t="s">
         <v>127</v>
@@ -17178,7 +17098,7 @@
         <v>129</v>
       </c>
       <c r="E204" s="86" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="F204" s="86"/>
       <c r="G204" s="86" t="s">
@@ -17193,21 +17113,21 @@
     </row>
     <row r="205">
       <c r="A205" s="48" t="s">
+        <v>885</v>
+      </c>
+      <c r="B205" s="142" t="s">
         <v>886</v>
       </c>
-      <c r="B205" s="143" t="s">
+      <c r="C205" s="153" t="s">
+        <v>667</v>
+      </c>
+      <c r="D205" s="154"/>
+      <c r="E205" s="72" t="s">
         <v>887</v>
-      </c>
-      <c r="C205" s="154" t="s">
-        <v>667</v>
-      </c>
-      <c r="D205" s="155"/>
-      <c r="E205" s="72" t="s">
-        <v>888</v>
       </c>
       <c r="F205" s="86"/>
       <c r="G205" s="14" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="H205" s="14" t="s">
         <v>181</v>
@@ -17217,8 +17137,8 @@
       <c r="K205" s="7"/>
     </row>
     <row r="206">
-      <c r="A206" s="101" t="s">
-        <v>890</v>
+      <c r="A206" s="100" t="s">
+        <v>889</v>
       </c>
       <c r="B206" s="84" t="s">
         <v>56</v>
@@ -17230,14 +17150,14 @@
         <v>58</v>
       </c>
       <c r="E206" s="86" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="F206" s="86"/>
       <c r="G206" s="72" t="s">
         <v>60</v>
       </c>
       <c r="H206" s="72" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="I206" s="7" t="s">
         <v>62</v>
@@ -17246,8 +17166,8 @@
       <c r="K206" s="7"/>
     </row>
     <row r="207">
-      <c r="A207" s="101" t="s">
-        <v>893</v>
+      <c r="A207" s="100" t="s">
+        <v>892</v>
       </c>
       <c r="B207" s="84" t="s">
         <v>72</v>
@@ -17259,22 +17179,22 @@
         <v>74</v>
       </c>
       <c r="E207" s="86" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="F207" s="86"/>
       <c r="G207" s="72" t="s">
         <v>76</v>
       </c>
       <c r="H207" s="72" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="I207" s="7"/>
       <c r="J207" s="7"/>
       <c r="K207" s="7"/>
     </row>
     <row r="208">
-      <c r="A208" s="101" t="s">
-        <v>896</v>
+      <c r="A208" s="100" t="s">
+        <v>895</v>
       </c>
       <c r="B208" s="84" t="s">
         <v>79</v>
@@ -17286,22 +17206,22 @@
         <v>81</v>
       </c>
       <c r="E208" s="86" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="F208" s="86"/>
       <c r="G208" s="72" t="s">
         <v>76</v>
       </c>
       <c r="H208" s="72" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="I208" s="7"/>
       <c r="J208" s="7"/>
       <c r="K208" s="7"/>
     </row>
     <row r="209">
-      <c r="A209" s="101" t="s">
-        <v>899</v>
+      <c r="A209" s="100" t="s">
+        <v>898</v>
       </c>
       <c r="B209" s="84" t="s">
         <v>93</v>
@@ -17313,22 +17233,22 @@
         <v>755</v>
       </c>
       <c r="E209" s="86" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="F209" s="86"/>
       <c r="G209" s="72" t="s">
         <v>97</v>
       </c>
       <c r="H209" s="72" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="I209" s="7"/>
       <c r="J209" s="7"/>
       <c r="K209" s="7"/>
     </row>
     <row r="210">
-      <c r="A210" s="101" t="s">
-        <v>902</v>
+      <c r="A210" s="100" t="s">
+        <v>901</v>
       </c>
       <c r="B210" s="84" t="s">
         <v>100</v>
@@ -17340,22 +17260,22 @@
         <v>102</v>
       </c>
       <c r="E210" s="86" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="F210" s="86"/>
       <c r="G210" s="72" t="s">
         <v>104</v>
       </c>
       <c r="H210" s="72" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="I210" s="7"/>
       <c r="J210" s="7"/>
       <c r="K210" s="7"/>
     </row>
     <row r="211">
-      <c r="A211" s="101" t="s">
-        <v>905</v>
+      <c r="A211" s="100" t="s">
+        <v>904</v>
       </c>
       <c r="B211" s="84" t="s">
         <v>120</v>
@@ -17367,7 +17287,7 @@
         <v>122</v>
       </c>
       <c r="E211" s="86" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="F211" s="86"/>
       <c r="G211" s="86" t="s">
@@ -17381,8 +17301,8 @@
       <c r="K211" s="7"/>
     </row>
     <row r="212">
-      <c r="A212" s="101" t="s">
-        <v>907</v>
+      <c r="A212" s="100" t="s">
+        <v>906</v>
       </c>
       <c r="B212" s="84" t="s">
         <v>114</v>
@@ -17394,7 +17314,7 @@
         <v>116</v>
       </c>
       <c r="E212" s="86" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="F212" s="86"/>
       <c r="G212" s="86" t="s">
@@ -17408,8 +17328,8 @@
       <c r="K212" s="7"/>
     </row>
     <row r="213">
-      <c r="A213" s="101" t="s">
-        <v>909</v>
+      <c r="A213" s="100" t="s">
+        <v>908</v>
       </c>
       <c r="B213" s="84" t="s">
         <v>770</v>
@@ -17421,22 +17341,22 @@
         <v>137</v>
       </c>
       <c r="E213" s="86" t="s">
+        <v>909</v>
+      </c>
+      <c r="F213" s="86"/>
+      <c r="G213" s="96" t="s">
+        <v>763</v>
+      </c>
+      <c r="H213" s="96" t="s">
         <v>910</v>
-      </c>
-      <c r="F213" s="86"/>
-      <c r="G213" s="97" t="s">
-        <v>763</v>
-      </c>
-      <c r="H213" s="97" t="s">
-        <v>911</v>
       </c>
       <c r="I213" s="7"/>
       <c r="J213" s="7"/>
       <c r="K213" s="7"/>
     </row>
     <row r="214">
-      <c r="A214" s="101" t="s">
-        <v>912</v>
+      <c r="A214" s="100" t="s">
+        <v>911</v>
       </c>
       <c r="B214" s="84" t="s">
         <v>127</v>
@@ -17448,7 +17368,7 @@
         <v>129</v>
       </c>
       <c r="E214" s="86" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="F214" s="86"/>
       <c r="G214" s="86" t="s">
@@ -17463,26 +17383,26 @@
     </row>
     <row r="215">
       <c r="A215" s="48" t="s">
+        <v>913</v>
+      </c>
+      <c r="B215" s="142" t="s">
         <v>914</v>
       </c>
-      <c r="B215" s="143" t="s">
+      <c r="C215" s="86" t="s">
         <v>915</v>
       </c>
-      <c r="C215" s="86" t="s">
+      <c r="D215" s="86" t="s">
         <v>916</v>
       </c>
-      <c r="D215" s="86" t="s">
+      <c r="E215" s="86" t="s">
         <v>917</v>
-      </c>
-      <c r="E215" s="86" t="s">
-        <v>918</v>
       </c>
       <c r="F215" s="86"/>
       <c r="G215" s="72" t="s">
+        <v>918</v>
+      </c>
+      <c r="H215" s="152" t="s">
         <v>919</v>
-      </c>
-      <c r="H215" s="153" t="s">
-        <v>920</v>
       </c>
       <c r="I215" s="7"/>
       <c r="J215" s="7"/>
@@ -17490,15 +17410,15 @@
     </row>
     <row r="216">
       <c r="A216" s="48" t="s">
+        <v>920</v>
+      </c>
+      <c r="B216" s="142" t="s">
         <v>921</v>
-      </c>
-      <c r="B216" s="143" t="s">
-        <v>922</v>
       </c>
       <c r="C216" s="7"/>
       <c r="D216" s="7"/>
       <c r="E216" s="72" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="F216" s="86"/>
       <c r="G216" s="14" t="s">
@@ -17512,8 +17432,8 @@
       <c r="K216" s="7"/>
     </row>
     <row r="217">
-      <c r="A217" s="101" t="s">
-        <v>924</v>
+      <c r="A217" s="100" t="s">
+        <v>923</v>
       </c>
       <c r="B217" s="84" t="s">
         <v>56</v>
@@ -17525,14 +17445,14 @@
         <v>58</v>
       </c>
       <c r="E217" s="86" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="F217" s="86"/>
       <c r="G217" s="72" t="s">
         <v>60</v>
       </c>
       <c r="H217" s="72" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="I217" s="7" t="s">
         <v>62</v>
@@ -17541,8 +17461,8 @@
       <c r="K217" s="7"/>
     </row>
     <row r="218">
-      <c r="A218" s="101" t="s">
-        <v>927</v>
+      <c r="A218" s="100" t="s">
+        <v>926</v>
       </c>
       <c r="B218" s="84" t="s">
         <v>72</v>
@@ -17554,22 +17474,22 @@
         <v>74</v>
       </c>
       <c r="E218" s="86" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="F218" s="86"/>
       <c r="G218" s="72" t="s">
         <v>76</v>
       </c>
       <c r="H218" s="72" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="I218" s="7"/>
       <c r="J218" s="7"/>
       <c r="K218" s="7"/>
     </row>
     <row r="219">
-      <c r="A219" s="101" t="s">
-        <v>930</v>
+      <c r="A219" s="100" t="s">
+        <v>929</v>
       </c>
       <c r="B219" s="84" t="s">
         <v>79</v>
@@ -17581,22 +17501,22 @@
         <v>81</v>
       </c>
       <c r="E219" s="86" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="F219" s="86"/>
       <c r="G219" s="72" t="s">
         <v>76</v>
       </c>
-      <c r="H219" s="139" t="s">
-        <v>932</v>
+      <c r="H219" s="138" t="s">
+        <v>931</v>
       </c>
       <c r="I219" s="7"/>
       <c r="J219" s="7"/>
       <c r="K219" s="7"/>
     </row>
     <row r="220">
-      <c r="A220" s="101" t="s">
-        <v>933</v>
+      <c r="A220" s="100" t="s">
+        <v>932</v>
       </c>
       <c r="B220" s="84" t="s">
         <v>93</v>
@@ -17608,22 +17528,22 @@
         <v>755</v>
       </c>
       <c r="E220" s="86" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="F220" s="86"/>
       <c r="G220" s="72" t="s">
         <v>97</v>
       </c>
-      <c r="H220" s="139" t="s">
-        <v>935</v>
+      <c r="H220" s="138" t="s">
+        <v>934</v>
       </c>
       <c r="I220" s="7"/>
       <c r="J220" s="7"/>
       <c r="K220" s="7"/>
     </row>
     <row r="221">
-      <c r="A221" s="101" t="s">
-        <v>936</v>
+      <c r="A221" s="100" t="s">
+        <v>935</v>
       </c>
       <c r="B221" s="84" t="s">
         <v>100</v>
@@ -17635,22 +17555,22 @@
         <v>102</v>
       </c>
       <c r="E221" s="86" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="F221" s="86"/>
       <c r="G221" s="86" t="s">
         <v>104</v>
       </c>
       <c r="H221" s="86" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="I221" s="7"/>
       <c r="J221" s="7"/>
       <c r="K221" s="7"/>
     </row>
     <row r="222">
-      <c r="A222" s="101" t="s">
-        <v>939</v>
+      <c r="A222" s="100" t="s">
+        <v>938</v>
       </c>
       <c r="B222" s="84" t="s">
         <v>120</v>
@@ -17662,13 +17582,13 @@
         <v>122</v>
       </c>
       <c r="E222" s="86" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="F222" s="86"/>
       <c r="G222" s="86" t="s">
         <v>763</v>
       </c>
-      <c r="H222" s="142" t="s">
+      <c r="H222" s="141" t="s">
         <v>764</v>
       </c>
       <c r="I222" s="7"/>
@@ -17676,8 +17596,8 @@
       <c r="K222" s="7"/>
     </row>
     <row r="223">
-      <c r="A223" s="101" t="s">
-        <v>941</v>
+      <c r="A223" s="100" t="s">
+        <v>940</v>
       </c>
       <c r="B223" s="84" t="s">
         <v>114</v>
@@ -17689,7 +17609,7 @@
         <v>116</v>
       </c>
       <c r="E223" s="86" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="F223" s="86"/>
       <c r="G223" s="86" t="s">
@@ -17703,8 +17623,8 @@
       <c r="K223" s="7"/>
     </row>
     <row r="224">
-      <c r="A224" s="101" t="s">
-        <v>943</v>
+      <c r="A224" s="100" t="s">
+        <v>942</v>
       </c>
       <c r="B224" s="84" t="s">
         <v>770</v>
@@ -17716,22 +17636,22 @@
         <v>137</v>
       </c>
       <c r="E224" s="86" t="s">
+        <v>943</v>
+      </c>
+      <c r="F224" s="86"/>
+      <c r="G224" s="96" t="s">
+        <v>763</v>
+      </c>
+      <c r="H224" s="96" t="s">
         <v>944</v>
-      </c>
-      <c r="F224" s="86"/>
-      <c r="G224" s="97" t="s">
-        <v>763</v>
-      </c>
-      <c r="H224" s="97" t="s">
-        <v>945</v>
       </c>
       <c r="I224" s="7"/>
       <c r="J224" s="7"/>
       <c r="K224" s="7"/>
     </row>
     <row r="225">
-      <c r="A225" s="101" t="s">
-        <v>946</v>
+      <c r="A225" s="100" t="s">
+        <v>945</v>
       </c>
       <c r="B225" s="84" t="s">
         <v>127</v>
@@ -17743,7 +17663,7 @@
         <v>129</v>
       </c>
       <c r="E225" s="86" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="F225" s="86"/>
       <c r="G225" s="86" t="s">
@@ -17757,71 +17677,71 @@
       <c r="K225" s="7"/>
     </row>
     <row r="226">
-      <c r="A226" s="127" t="s">
+      <c r="A226" s="126" t="s">
+        <v>947</v>
+      </c>
+      <c r="B226" s="149" t="s">
         <v>948</v>
       </c>
-      <c r="B226" s="150" t="s">
+      <c r="C226" s="155" t="s">
         <v>949</v>
       </c>
-      <c r="C226" s="156" t="s">
+      <c r="D226" s="155" t="s">
         <v>950</v>
       </c>
-      <c r="D226" s="156" t="s">
+      <c r="E226" s="156" t="s">
         <v>951</v>
       </c>
-      <c r="E226" s="157" t="s">
+      <c r="F226" s="156"/>
+      <c r="G226" s="72" t="s">
         <v>952</v>
       </c>
-      <c r="F226" s="157"/>
-      <c r="G226" s="72" t="s">
+      <c r="H226" s="157" t="s">
         <v>953</v>
-      </c>
-      <c r="H226" s="158" t="s">
-        <v>954</v>
       </c>
       <c r="I226" s="7"/>
       <c r="J226" s="7"/>
       <c r="K226" s="7"/>
     </row>
     <row r="227">
-      <c r="A227" s="127" t="s">
+      <c r="A227" s="126" t="s">
+        <v>954</v>
+      </c>
+      <c r="B227" s="149" t="s">
         <v>955</v>
       </c>
-      <c r="B227" s="150" t="s">
+      <c r="C227" s="158" t="s">
+        <v>667</v>
+      </c>
+      <c r="D227" s="108"/>
+      <c r="E227" s="108" t="s">
         <v>956</v>
       </c>
-      <c r="C227" s="159" t="s">
-        <v>667</v>
-      </c>
-      <c r="D227" s="109"/>
-      <c r="E227" s="109" t="s">
-        <v>957</v>
-      </c>
-      <c r="F227" s="109"/>
-      <c r="G227" s="109"/>
-      <c r="H227" s="109"/>
+      <c r="F227" s="108"/>
+      <c r="G227" s="108"/>
+      <c r="H227" s="108"/>
       <c r="I227" s="7"/>
       <c r="J227" s="7"/>
       <c r="K227" s="7"/>
     </row>
     <row r="228">
       <c r="A228" s="48" t="s">
+        <v>957</v>
+      </c>
+      <c r="B228" s="142" t="s">
         <v>958</v>
       </c>
-      <c r="B228" s="143" t="s">
+      <c r="C228" s="108"/>
+      <c r="D228" s="108"/>
+      <c r="E228" s="108" t="s">
         <v>959</v>
       </c>
-      <c r="C228" s="109"/>
-      <c r="D228" s="109"/>
-      <c r="E228" s="109" t="s">
+      <c r="F228" s="108"/>
+      <c r="G228" s="108" t="s">
         <v>960</v>
       </c>
-      <c r="F228" s="109"/>
-      <c r="G228" s="109" t="s">
+      <c r="H228" s="108" t="s">
         <v>961</v>
-      </c>
-      <c r="H228" s="109" t="s">
-        <v>962</v>
       </c>
       <c r="I228" s="7"/>
       <c r="J228" s="7"/>
@@ -17829,203 +17749,203 @@
     </row>
     <row r="229">
       <c r="A229" s="48" t="s">
+        <v>962</v>
+      </c>
+      <c r="B229" s="142" t="s">
         <v>963</v>
       </c>
-      <c r="B229" s="143" t="s">
-        <v>964</v>
-      </c>
-      <c r="C229" s="109" t="s">
+      <c r="C229" s="108" t="s">
         <v>667</v>
       </c>
-      <c r="D229" s="109"/>
-      <c r="E229" s="109"/>
-      <c r="F229" s="109"/>
-      <c r="G229" s="109"/>
-      <c r="H229" s="109"/>
+      <c r="D229" s="108"/>
+      <c r="E229" s="108"/>
+      <c r="F229" s="108"/>
+      <c r="G229" s="108"/>
+      <c r="H229" s="108"/>
       <c r="I229" s="7"/>
       <c r="J229" s="7"/>
       <c r="K229" s="7"/>
     </row>
     <row r="230">
-      <c r="A230" s="101" t="s">
+      <c r="A230" s="100" t="s">
+        <v>964</v>
+      </c>
+      <c r="B230" s="84" t="s">
         <v>965</v>
       </c>
-      <c r="B230" s="84" t="s">
+      <c r="C230" s="108"/>
+      <c r="D230" s="108"/>
+      <c r="E230" s="108" t="s">
         <v>966</v>
       </c>
-      <c r="C230" s="109"/>
-      <c r="D230" s="109"/>
-      <c r="E230" s="109" t="s">
+      <c r="F230" s="108"/>
+      <c r="G230" s="108" t="s">
+        <v>960</v>
+      </c>
+      <c r="H230" s="108" t="s">
         <v>967</v>
-      </c>
-      <c r="F230" s="109"/>
-      <c r="G230" s="109" t="s">
-        <v>961</v>
-      </c>
-      <c r="H230" s="109" t="s">
-        <v>968</v>
       </c>
       <c r="I230" s="7"/>
       <c r="J230" s="7"/>
       <c r="K230" s="7"/>
     </row>
     <row r="231">
-      <c r="A231" s="101" t="s">
+      <c r="A231" s="100" t="s">
+        <v>968</v>
+      </c>
+      <c r="B231" s="84" t="s">
         <v>969</v>
       </c>
-      <c r="B231" s="84" t="s">
+      <c r="C231" s="108"/>
+      <c r="D231" s="108"/>
+      <c r="E231" s="108" t="s">
         <v>970</v>
       </c>
-      <c r="C231" s="109"/>
-      <c r="D231" s="109"/>
-      <c r="E231" s="109" t="s">
+      <c r="F231" s="108"/>
+      <c r="G231" s="108" t="s">
+        <v>960</v>
+      </c>
+      <c r="H231" s="108" t="s">
         <v>971</v>
-      </c>
-      <c r="F231" s="109"/>
-      <c r="G231" s="109" t="s">
-        <v>961</v>
-      </c>
-      <c r="H231" s="109" t="s">
-        <v>972</v>
       </c>
       <c r="I231" s="7"/>
       <c r="J231" s="7"/>
       <c r="K231" s="7"/>
     </row>
     <row r="232">
-      <c r="A232" s="101" t="s">
+      <c r="A232" s="100" t="s">
+        <v>972</v>
+      </c>
+      <c r="B232" s="84" t="s">
         <v>973</v>
       </c>
-      <c r="B232" s="84" t="s">
+      <c r="C232" s="108"/>
+      <c r="D232" s="108"/>
+      <c r="E232" s="108" t="s">
         <v>974</v>
       </c>
-      <c r="C232" s="109"/>
-      <c r="D232" s="109"/>
-      <c r="E232" s="109" t="s">
+      <c r="F232" s="108"/>
+      <c r="G232" s="108" t="s">
+        <v>960</v>
+      </c>
+      <c r="H232" s="159" t="s">
         <v>975</v>
-      </c>
-      <c r="F232" s="109"/>
-      <c r="G232" s="109" t="s">
-        <v>961</v>
-      </c>
-      <c r="H232" s="160" t="s">
-        <v>976</v>
       </c>
       <c r="I232" s="7"/>
       <c r="J232" s="7"/>
       <c r="K232" s="7"/>
     </row>
     <row r="233">
-      <c r="A233" s="101" t="s">
+      <c r="A233" s="100" t="s">
+        <v>976</v>
+      </c>
+      <c r="B233" s="84" t="s">
         <v>977</v>
       </c>
-      <c r="B233" s="84" t="s">
+      <c r="C233" s="108"/>
+      <c r="D233" s="108"/>
+      <c r="E233" s="108" t="s">
         <v>978</v>
       </c>
-      <c r="C233" s="109"/>
-      <c r="D233" s="109"/>
-      <c r="E233" s="109" t="s">
+      <c r="F233" s="108"/>
+      <c r="G233" s="108" t="s">
+        <v>960</v>
+      </c>
+      <c r="H233" s="159" t="s">
         <v>979</v>
-      </c>
-      <c r="F233" s="109"/>
-      <c r="G233" s="109" t="s">
-        <v>961</v>
-      </c>
-      <c r="H233" s="160" t="s">
-        <v>980</v>
       </c>
       <c r="I233" s="7"/>
       <c r="J233" s="7"/>
       <c r="K233" s="7"/>
     </row>
     <row r="234">
-      <c r="A234" s="127" t="s">
+      <c r="A234" s="126" t="s">
+        <v>980</v>
+      </c>
+      <c r="B234" s="149" t="s">
         <v>981</v>
       </c>
-      <c r="B234" s="150" t="s">
-        <v>982</v>
-      </c>
-      <c r="C234" s="159" t="s">
+      <c r="C234" s="158" t="s">
         <v>667</v>
       </c>
-      <c r="D234" s="109"/>
-      <c r="E234" s="109"/>
-      <c r="F234" s="109"/>
-      <c r="G234" s="109"/>
-      <c r="H234" s="109"/>
+      <c r="D234" s="108"/>
+      <c r="E234" s="108"/>
+      <c r="F234" s="108"/>
+      <c r="G234" s="108"/>
+      <c r="H234" s="108"/>
       <c r="I234" s="7"/>
       <c r="J234" s="7"/>
       <c r="K234" s="7"/>
     </row>
     <row r="235">
       <c r="A235" s="48" t="s">
+        <v>982</v>
+      </c>
+      <c r="B235" s="142" t="s">
         <v>983</v>
       </c>
-      <c r="B235" s="143" t="s">
+      <c r="C235" s="160" t="s">
+        <v>579</v>
+      </c>
+      <c r="D235" s="108"/>
+      <c r="E235" s="108" t="s">
         <v>984</v>
       </c>
-      <c r="C235" s="161" t="s">
-        <v>579</v>
-      </c>
-      <c r="D235" s="109"/>
-      <c r="E235" s="109" t="s">
+      <c r="F235" s="108"/>
+      <c r="G235" s="108" t="s">
+        <v>960</v>
+      </c>
+      <c r="H235" s="161" t="s">
         <v>985</v>
-      </c>
-      <c r="F235" s="109"/>
-      <c r="G235" s="109" t="s">
-        <v>961</v>
-      </c>
-      <c r="H235" s="162" t="s">
-        <v>986</v>
       </c>
       <c r="I235" s="7"/>
       <c r="J235" s="7"/>
       <c r="K235" s="7"/>
     </row>
     <row r="236">
-      <c r="A236" s="127" t="s">
+      <c r="A236" s="126" t="s">
+        <v>986</v>
+      </c>
+      <c r="B236" s="149" t="s">
         <v>987</v>
       </c>
-      <c r="B236" s="150" t="s">
-        <v>988</v>
-      </c>
-      <c r="C236" s="159" t="s">
+      <c r="C236" s="158" t="s">
         <v>667</v>
       </c>
-      <c r="D236" s="109"/>
-      <c r="E236" s="109"/>
-      <c r="F236" s="109"/>
-      <c r="G236" s="109"/>
-      <c r="H236" s="109"/>
+      <c r="D236" s="108"/>
+      <c r="E236" s="108"/>
+      <c r="F236" s="108"/>
+      <c r="G236" s="108"/>
+      <c r="H236" s="108"/>
       <c r="I236" s="7"/>
       <c r="J236" s="7"/>
       <c r="K236" s="7"/>
     </row>
     <row r="237">
       <c r="A237" s="48" t="s">
+        <v>988</v>
+      </c>
+      <c r="B237" s="142" t="s">
         <v>989</v>
       </c>
-      <c r="B237" s="143" t="s">
+      <c r="C237" s="158" t="s">
         <v>990</v>
       </c>
-      <c r="C237" s="159" t="s">
+      <c r="D237" s="108" t="s">
         <v>991</v>
       </c>
-      <c r="D237" s="109" t="s">
+      <c r="E237" s="162" t="s">
         <v>992</v>
       </c>
-      <c r="E237" s="163" t="s">
+      <c r="F237" s="108"/>
+      <c r="G237" s="108" t="s">
         <v>993</v>
       </c>
-      <c r="F237" s="109"/>
-      <c r="G237" s="109" t="s">
+      <c r="H237" s="163" t="s">
         <v>994</v>
       </c>
-      <c r="H237" s="164" t="s">
+      <c r="I237" s="7" t="s">
         <v>995</v>
-      </c>
-      <c r="I237" s="7" t="s">
-        <v>996</v>
       </c>
       <c r="J237" s="7"/>
       <c r="K237" s="7"/>
@@ -18111,7 +18031,7 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="165" t="s">
+      <c r="A1" s="164" t="s">
         <v>32</v>
       </c>
       <c r="B1" s="26" t="s">
@@ -18131,21 +18051,21 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="166" t="s">
+      <c r="A2" s="165" t="s">
         <v>377</v>
       </c>
-      <c r="B2" s="167" t="s">
+      <c r="B2" s="166" t="s">
         <v>378</v>
       </c>
-      <c r="C2" s="168" t="s">
+      <c r="C2" s="167" t="s">
+        <v>996</v>
+      </c>
+      <c r="D2" s="167"/>
+      <c r="E2" s="166" t="s">
         <v>997</v>
       </c>
-      <c r="D2" s="168"/>
-      <c r="E2" s="167" t="s">
+      <c r="F2" s="166" t="s">
         <v>998</v>
-      </c>
-      <c r="F2" s="167" t="s">
-        <v>999</v>
       </c>
     </row>
     <row r="3">
@@ -18156,34 +18076,34 @@
         <v>378</v>
       </c>
       <c r="C3" s="86" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="D3" s="86"/>
       <c r="E3" s="39" t="s">
+        <v>999</v>
+      </c>
+      <c r="F3" s="39" t="s">
         <v>1000</v>
-      </c>
-      <c r="F3" s="39" t="s">
-        <v>1001</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="19" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B4" s="72" t="s">
         <v>1002</v>
       </c>
-      <c r="B4" s="72" t="s">
+      <c r="C4" s="86" t="s">
         <v>1003</v>
       </c>
-      <c r="C4" s="86" t="s">
+      <c r="D4" s="86" t="s">
         <v>1004</v>
       </c>
-      <c r="D4" s="86" t="s">
+      <c r="E4" s="39" t="s">
         <v>1005</v>
       </c>
-      <c r="E4" s="39" t="s">
+      <c r="F4" s="39" t="s">
         <v>1006</v>
-      </c>
-      <c r="F4" s="39" t="s">
-        <v>1007</v>
       </c>
     </row>
     <row r="5">
@@ -18194,7 +18114,7 @@
         <v>654</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>656</v>
@@ -18203,56 +18123,56 @@
         <v>662</v>
       </c>
       <c r="F5" s="39" t="s">
-        <v>1009</v>
-      </c>
-      <c r="G5" s="169"/>
-      <c r="H5" s="169"/>
-      <c r="I5" s="169"/>
-      <c r="J5" s="169"/>
-      <c r="K5" s="169"/>
-      <c r="L5" s="169"/>
-      <c r="M5" s="169"/>
-      <c r="N5" s="169"/>
-      <c r="O5" s="169"/>
-      <c r="P5" s="169"/>
-      <c r="Q5" s="169"/>
-      <c r="R5" s="169"/>
-      <c r="S5" s="169"/>
-      <c r="T5" s="169"/>
-      <c r="U5" s="169"/>
-      <c r="V5" s="169"/>
-      <c r="W5" s="169"/>
-      <c r="X5" s="169"/>
-      <c r="Y5" s="169"/>
-      <c r="Z5" s="169"/>
+        <v>1008</v>
+      </c>
+      <c r="G5" s="168"/>
+      <c r="H5" s="168"/>
+      <c r="I5" s="168"/>
+      <c r="J5" s="168"/>
+      <c r="K5" s="168"/>
+      <c r="L5" s="168"/>
+      <c r="M5" s="168"/>
+      <c r="N5" s="168"/>
+      <c r="O5" s="168"/>
+      <c r="P5" s="168"/>
+      <c r="Q5" s="168"/>
+      <c r="R5" s="168"/>
+      <c r="S5" s="168"/>
+      <c r="T5" s="168"/>
+      <c r="U5" s="168"/>
+      <c r="V5" s="168"/>
+      <c r="W5" s="168"/>
+      <c r="X5" s="168"/>
+      <c r="Y5" s="168"/>
+      <c r="Z5" s="168"/>
     </row>
     <row r="6">
       <c r="A6" s="7"/>
       <c r="B6" s="72"/>
-      <c r="C6" s="170"/>
+      <c r="C6" s="169"/>
       <c r="D6" s="7"/>
       <c r="E6" s="39"/>
       <c r="F6" s="39"/>
-      <c r="G6" s="169"/>
-      <c r="H6" s="169"/>
-      <c r="I6" s="169"/>
-      <c r="J6" s="169"/>
-      <c r="K6" s="169"/>
-      <c r="L6" s="169"/>
-      <c r="M6" s="169"/>
-      <c r="N6" s="169"/>
-      <c r="O6" s="169"/>
-      <c r="P6" s="169"/>
-      <c r="Q6" s="169"/>
-      <c r="R6" s="169"/>
-      <c r="S6" s="169"/>
-      <c r="T6" s="169"/>
-      <c r="U6" s="169"/>
-      <c r="V6" s="169"/>
-      <c r="W6" s="169"/>
-      <c r="X6" s="169"/>
-      <c r="Y6" s="169"/>
-      <c r="Z6" s="169"/>
+      <c r="G6" s="168"/>
+      <c r="H6" s="168"/>
+      <c r="I6" s="168"/>
+      <c r="J6" s="168"/>
+      <c r="K6" s="168"/>
+      <c r="L6" s="168"/>
+      <c r="M6" s="168"/>
+      <c r="N6" s="168"/>
+      <c r="O6" s="168"/>
+      <c r="P6" s="168"/>
+      <c r="Q6" s="168"/>
+      <c r="R6" s="168"/>
+      <c r="S6" s="168"/>
+      <c r="T6" s="168"/>
+      <c r="U6" s="168"/>
+      <c r="V6" s="168"/>
+      <c r="W6" s="168"/>
+      <c r="X6" s="168"/>
+      <c r="Y6" s="168"/>
+      <c r="Z6" s="168"/>
     </row>
     <row r="7">
       <c r="A7" s="19"/>
@@ -22263,108 +22183,108 @@
   </cols>
   <sheetData>
     <row r="2">
-      <c r="A2" s="171" t="s">
+      <c r="A2" s="170" t="s">
+        <v>1009</v>
+      </c>
+      <c r="B2" s="171" t="s">
         <v>1010</v>
       </c>
-      <c r="B2" s="172" t="s">
+    </row>
+    <row r="3">
+      <c r="A3" s="172" t="s">
         <v>1011</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="173" t="s">
+      <c r="B3" s="171" t="s">
         <v>1012</v>
       </c>
-      <c r="B3" s="172" t="s">
+    </row>
+    <row r="4">
+      <c r="A4" s="173" t="s">
         <v>1013</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="174" t="s">
+    <row r="6">
+      <c r="A6" s="174" t="s">
         <v>1014</v>
       </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="175" t="s">
+      <c r="B6" s="171" t="s">
         <v>1015</v>
       </c>
-      <c r="B6" s="172" t="s">
+    </row>
+    <row r="7">
+      <c r="B7" s="171" t="s">
         <v>1016</v>
       </c>
     </row>
-    <row r="7">
-      <c r="B7" s="172" t="s">
+    <row r="8">
+      <c r="B8" s="171"/>
+    </row>
+    <row r="9">
+      <c r="B9" s="171"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="174" t="s">
         <v>1017</v>
       </c>
     </row>
-    <row r="8">
-      <c r="B8" s="172"/>
-    </row>
-    <row r="9">
-      <c r="B9" s="172"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="175" t="s">
+    <row r="11">
+      <c r="A11" s="174" t="s">
         <v>1018</v>
       </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="175" t="s">
+      <c r="B11" s="175" t="s">
         <v>1019</v>
       </c>
-      <c r="B11" s="176" t="s">
+    </row>
+    <row r="12">
+      <c r="B12" s="176" t="s">
         <v>1020</v>
       </c>
     </row>
-    <row r="12">
-      <c r="B12" s="177" t="s">
+    <row r="13">
+      <c r="A13" s="177"/>
+      <c r="B13" s="178" t="s">
         <v>1021</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="178"/>
-      <c r="B13" s="179" t="s">
+    <row r="14">
+      <c r="B14" s="179" t="s">
         <v>1022</v>
       </c>
     </row>
-    <row r="14">
-      <c r="B14" s="180" t="s">
+    <row r="15">
+      <c r="B15" s="180" t="s">
         <v>1023</v>
       </c>
     </row>
-    <row r="15">
-      <c r="B15" s="181" t="s">
+    <row r="16">
+      <c r="B16" s="181" t="s">
         <v>1024</v>
       </c>
     </row>
-    <row r="16">
-      <c r="B16" s="182" t="s">
+    <row r="17">
+      <c r="A17" s="174"/>
+      <c r="B17" s="28"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="174" t="s">
         <v>1025</v>
       </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="175"/>
-      <c r="B17" s="28"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="175" t="s">
+      <c r="B18" s="182" t="s">
         <v>1026</v>
-      </c>
-      <c r="B18" s="183" t="s">
-        <v>1027</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="7" t="s">
+        <v>1027</v>
+      </c>
+      <c r="B19" s="123"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="174" t="s">
         <v>1028</v>
       </c>
-      <c r="B19" s="124"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="175" t="s">
+      <c r="B21" s="183" t="s">
         <v>1029</v>
-      </c>
-      <c r="B21" s="184" t="s">
-        <v>1030</v>
       </c>
     </row>
   </sheetData>
@@ -22390,61 +22310,56 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="36" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="4" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="36" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="4" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="4" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="4" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="36" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="4" t="s">
         <v>1038</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="185" t="s">
-        <v>1039</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="4" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="4" t="s">
-        <v>1041</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="7"/>
+      <c r="A11" s="7"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -22469,65 +22384,65 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>1031</v>
-      </c>
-      <c r="B1" s="186" t="s">
-        <v>1042</v>
+        <v>1030</v>
+      </c>
+      <c r="B1" s="184" t="s">
+        <v>1040</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="4" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="4" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
       <c r="B3" s="7"/>
     </row>
     <row r="4">
       <c r="A4" s="4" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
       <c r="B4" s="7"/>
     </row>
     <row r="5">
-      <c r="A5" s="172" t="s">
-        <v>1047</v>
+      <c r="A5" s="171" t="s">
+        <v>1045</v>
       </c>
       <c r="B5" s="7"/>
     </row>
     <row r="6">
       <c r="A6" s="4" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="B6" s="7"/>
     </row>
     <row r="7">
       <c r="A7" s="4" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="B7" s="7"/>
     </row>
     <row r="8">
       <c r="A8" s="4" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="B8" s="7"/>
     </row>
     <row r="9">
       <c r="A9" s="4" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="B9" s="7"/>
     </row>
     <row r="10">
       <c r="A10" s="6" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
     </row>
   </sheetData>
@@ -22546,7 +22461,7 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="176"/>
+      <c r="A1" s="175"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -22570,36 +22485,36 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="187" t="s">
+      <c r="A1" s="185" t="s">
+        <v>1051</v>
+      </c>
+      <c r="C1" s="185" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="174" t="s">
         <v>1053</v>
       </c>
-      <c r="C1" s="187" t="s">
+      <c r="B2" s="174" t="s">
         <v>1054</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="175" t="s">
+      <c r="C2" s="174" t="s">
         <v>1055</v>
       </c>
-      <c r="B2" s="175" t="s">
+      <c r="D2" s="174" t="s">
         <v>1056</v>
-      </c>
-      <c r="C2" s="175" t="s">
-        <v>1057</v>
-      </c>
-      <c r="D2" s="175" t="s">
-        <v>1058</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="39" t="s">
+        <v>1057</v>
+      </c>
+      <c r="B3" s="39" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>1059</v>
-      </c>
-      <c r="B3" s="39" t="s">
-        <v>1060</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>1061</v>
       </c>
       <c r="D3" s="4" t="str">
         <f t="shared" ref="D3:D4" si="1">RIGHT(A3,LEN(A3) - (FIND(" == ",A3) + 3))</f>
@@ -22608,13 +22523,13 @@
     </row>
     <row r="4">
       <c r="A4" s="39" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
       <c r="B4" s="39" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
       <c r="D4" s="4" t="str">
         <f t="shared" si="1"/>
@@ -22623,185 +22538,185 @@
     </row>
     <row r="5">
       <c r="A5" s="39" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
       <c r="B5" s="39" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
       <c r="D5" s="7"/>
     </row>
     <row r="6">
       <c r="A6" s="4" t="s">
+        <v>1063</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>1064</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>1059</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>1065</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>1066</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>1061</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>1067</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="4" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>1067</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>1059</v>
+      </c>
+      <c r="D7" s="186" t="s">
         <v>1068</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>1069</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>1061</v>
-      </c>
-      <c r="D7" s="188" t="s">
-        <v>1070</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="4" t="s">
+        <v>1069</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>1070</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>1059</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>1071</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>1072</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>1061</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>1073</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="72" t="s">
+        <v>1072</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>1073</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>1059</v>
+      </c>
+      <c r="D9" s="7" t="s">
         <v>1074</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>1075</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>1061</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>1076</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="72" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="72" t="s">
+        <v>1077</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>1078</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>1059</v>
+      </c>
+      <c r="D11" s="7" t="s">
         <v>1079</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>1080</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>1061</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>1081</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="72" t="s">
+        <v>1080</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>1078</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>1059</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="187" t="s">
         <v>1082</v>
       </c>
-      <c r="B12" s="7" t="s">
-        <v>1080</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>1061</v>
-      </c>
-      <c r="D12" s="7" t="s">
+      <c r="B13" s="187" t="s">
+        <v>1062</v>
+      </c>
+      <c r="C13" s="188" t="s">
+        <v>1059</v>
+      </c>
+      <c r="D13" s="188" t="s">
         <v>1083</v>
       </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="189" t="s">
+      <c r="E13" s="189"/>
+      <c r="F13" s="189"/>
+      <c r="G13" s="189"/>
+      <c r="H13" s="189"/>
+      <c r="I13" s="189"/>
+      <c r="J13" s="189"/>
+      <c r="K13" s="189"/>
+      <c r="L13" s="189"/>
+      <c r="M13" s="189"/>
+      <c r="N13" s="189"/>
+      <c r="O13" s="189"/>
+      <c r="P13" s="189"/>
+      <c r="Q13" s="189"/>
+      <c r="R13" s="189"/>
+      <c r="S13" s="189"/>
+      <c r="T13" s="189"/>
+      <c r="U13" s="189"/>
+      <c r="V13" s="189"/>
+      <c r="W13" s="189"/>
+      <c r="X13" s="189"/>
+      <c r="Y13" s="189"/>
+      <c r="Z13" s="189"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="187" t="s">
         <v>1084</v>
       </c>
-      <c r="B13" s="189" t="s">
-        <v>1064</v>
-      </c>
-      <c r="C13" s="190" t="s">
-        <v>1061</v>
-      </c>
-      <c r="D13" s="190" t="s">
+      <c r="B14" s="187" t="s">
+        <v>1062</v>
+      </c>
+      <c r="C14" s="188" t="s">
+        <v>1059</v>
+      </c>
+      <c r="D14" s="188" t="s">
         <v>1085</v>
       </c>
-      <c r="E13" s="191"/>
-      <c r="F13" s="191"/>
-      <c r="G13" s="191"/>
-      <c r="H13" s="191"/>
-      <c r="I13" s="191"/>
-      <c r="J13" s="191"/>
-      <c r="K13" s="191"/>
-      <c r="L13" s="191"/>
-      <c r="M13" s="191"/>
-      <c r="N13" s="191"/>
-      <c r="O13" s="191"/>
-      <c r="P13" s="191"/>
-      <c r="Q13" s="191"/>
-      <c r="R13" s="191"/>
-      <c r="S13" s="191"/>
-      <c r="T13" s="191"/>
-      <c r="U13" s="191"/>
-      <c r="V13" s="191"/>
-      <c r="W13" s="191"/>
-      <c r="X13" s="191"/>
-      <c r="Y13" s="191"/>
-      <c r="Z13" s="191"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="189" t="s">
-        <v>1086</v>
-      </c>
-      <c r="B14" s="189" t="s">
-        <v>1064</v>
-      </c>
-      <c r="C14" s="190" t="s">
-        <v>1061</v>
-      </c>
-      <c r="D14" s="190" t="s">
-        <v>1087</v>
-      </c>
-      <c r="E14" s="191"/>
-      <c r="F14" s="191"/>
-      <c r="G14" s="191"/>
-      <c r="H14" s="191"/>
-      <c r="I14" s="191"/>
-      <c r="J14" s="191"/>
-      <c r="K14" s="191"/>
-      <c r="L14" s="191"/>
-      <c r="M14" s="191"/>
-      <c r="N14" s="191"/>
-      <c r="O14" s="191"/>
-      <c r="P14" s="191"/>
-      <c r="Q14" s="191"/>
-      <c r="R14" s="191"/>
-      <c r="S14" s="191"/>
-      <c r="T14" s="191"/>
-      <c r="U14" s="191"/>
-      <c r="V14" s="191"/>
-      <c r="W14" s="191"/>
-      <c r="X14" s="191"/>
-      <c r="Y14" s="191"/>
-      <c r="Z14" s="191"/>
+      <c r="E14" s="189"/>
+      <c r="F14" s="189"/>
+      <c r="G14" s="189"/>
+      <c r="H14" s="189"/>
+      <c r="I14" s="189"/>
+      <c r="J14" s="189"/>
+      <c r="K14" s="189"/>
+      <c r="L14" s="189"/>
+      <c r="M14" s="189"/>
+      <c r="N14" s="189"/>
+      <c r="O14" s="189"/>
+      <c r="P14" s="189"/>
+      <c r="Q14" s="189"/>
+      <c r="R14" s="189"/>
+      <c r="S14" s="189"/>
+      <c r="T14" s="189"/>
+      <c r="U14" s="189"/>
+      <c r="V14" s="189"/>
+      <c r="W14" s="189"/>
+      <c r="X14" s="189"/>
+      <c r="Y14" s="189"/>
+      <c r="Z14" s="189"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -22829,52 +22744,52 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="187" t="s">
+      <c r="A1" s="185" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="174" t="s">
         <v>1053</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="175" t="s">
+      <c r="B2" s="174" t="s">
+        <v>1054</v>
+      </c>
+      <c r="C2" s="174" t="s">
         <v>1055</v>
       </c>
-      <c r="B2" s="175" t="s">
+      <c r="D2" s="174" t="s">
         <v>1056</v>
       </c>
-      <c r="C2" s="175" t="s">
-        <v>1057</v>
-      </c>
-      <c r="D2" s="175" t="s">
-        <v>1058</v>
-      </c>
     </row>
     <row r="3">
-      <c r="A3" s="172" t="s">
+      <c r="A3" s="171" t="s">
+        <v>1086</v>
+      </c>
+      <c r="B3" s="171" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="171" t="s">
         <v>1088</v>
       </c>
-      <c r="B3" s="172" t="s">
+      <c r="B4" s="171" t="s">
         <v>1089</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="172" t="s">
+    <row r="5">
+      <c r="A5" s="171" t="s">
         <v>1090</v>
       </c>
-      <c r="B4" s="172" t="s">
+      <c r="B5" s="171" t="s">
         <v>1091</v>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="172" t="s">
+      <c r="C5" s="190" t="s">
+        <v>1089</v>
+      </c>
+      <c r="D5" s="171" t="s">
         <v>1092</v>
-      </c>
-      <c r="B5" s="172" t="s">
-        <v>1093</v>
-      </c>
-      <c r="C5" s="192" t="s">
-        <v>1091</v>
-      </c>
-      <c r="D5" s="172" t="s">
-        <v>1094</v>
       </c>
     </row>
   </sheetData>

--- a/mappings/package_F23/transformation/conceptual_mappings.xlsx
+++ b/mappings/package_F23/transformation/conceptual_mappings.xlsx
@@ -363,7 +363,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1579" uniqueCount="1093">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1573" uniqueCount="1089">
   <si>
     <t>Field</t>
   </si>
@@ -398,7 +398,7 @@
     <t>Mapping Version</t>
   </si>
   <si>
-    <t>6.2.0</t>
+    <t>6.3.0</t>
   </si>
   <si>
     <r>
@@ -4037,7 +4037,8 @@
     <t>Time limit for submission of applications or receipt of tenders (Date/Time)</t>
   </si>
   <si>
-    <t>PROCEDURE/DATE_RECEIPT_TENDERS</t>
+    <t>PROCEDURE/DATE_RECEIPT_TENDERS
+PROCEDURE/TIME_RECEIPT_TENDERS</t>
   </si>
   <si>
     <t>epo:Procedure / epo:SubmissionTerm / xsd:dateTime</t>
@@ -4064,54 +4065,6 @@
         <color theme="1"/>
       </rPr>
       <t xml:space="preserve"> epo:isSubjectToProcedureSpecificTerm  / epo:hasReceiptDeadline ?</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-      </rPr>
-      <t>value</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
-      </rPr>
-      <t xml:space="preserve"> .</t>
-    </r>
-  </si>
-  <si>
-    <t>IV.2.2.1</t>
-  </si>
-  <si>
-    <t>BT-630</t>
-  </si>
-  <si>
-    <t>PROCEDURE/TIME_RECEIPT_TENDERS</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
-      </rPr>
-      <t>?</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-      </rPr>
-      <t>this</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
-      </rPr>
-      <t xml:space="preserve"> epo:isSubjectToProcedureSpecificTerm  / epo:hasReceiptExpressionDeadline ?</t>
     </r>
     <r>
       <rPr>
@@ -4446,7 +4399,6 @@
     <r>
       <rPr>
         <rFont val="Arial"/>
-        <color theme="1"/>
       </rPr>
       <t>?</t>
     </r>
@@ -4454,14 +4406,12 @@
       <rPr>
         <rFont val="Arial"/>
         <b/>
-        <color theme="1"/>
       </rPr>
       <t>this</t>
     </r>
     <r>
       <rPr>
         <rFont val="Arial"/>
-        <color theme="1"/>
       </rPr>
       <t xml:space="preserve"> epo:hasAwardDecisionDate ?</t>
     </r>
@@ -4469,14 +4419,12 @@
       <rPr>
         <rFont val="Arial"/>
         <b/>
-        <color theme="1"/>
       </rPr>
       <t>value</t>
     </r>
     <r>
       <rPr>
         <rFont val="Arial"/>
-        <color theme="1"/>
       </rPr>
       <t xml:space="preserve"> .</t>
     </r>
@@ -4619,6 +4567,7 @@
     <r>
       <rPr>
         <rFont val="Arial"/>
+        <color theme="1"/>
       </rPr>
       <t>?</t>
     </r>
@@ -4626,12 +4575,14 @@
       <rPr>
         <rFont val="Arial"/>
         <b/>
+        <color theme="1"/>
       </rPr>
       <t xml:space="preserve">this </t>
     </r>
     <r>
       <rPr>
         <rFont val="Arial"/>
+        <color theme="1"/>
       </rPr>
       <t>epo:hasReceivedNonEUTenders ?</t>
     </r>
@@ -4639,6 +4590,7 @@
       <rPr>
         <rFont val="Arial"/>
         <b/>
+        <color theme="1"/>
       </rPr>
       <t>value .</t>
     </r>
@@ -6290,6 +6242,7 @@
     <r>
       <rPr>
         <rFont val="Arial"/>
+        <color theme="1"/>
       </rPr>
       <t>?</t>
     </r>
@@ -6297,12 +6250,14 @@
       <rPr>
         <rFont val="Arial"/>
         <b/>
+        <color theme="1"/>
       </rPr>
       <t>this</t>
     </r>
     <r>
       <rPr>
         <rFont val="Arial"/>
+        <color theme="1"/>
       </rPr>
       <t xml:space="preserve"> epo:playedBy / legal:registeredAddress / locn:postName ?</t>
     </r>
@@ -6310,12 +6265,14 @@
       <rPr>
         <rFont val="Arial"/>
         <b/>
+        <color theme="1"/>
       </rPr>
       <t>value</t>
     </r>
     <r>
       <rPr>
         <rFont val="Arial"/>
+        <color theme="1"/>
       </rPr>
       <t xml:space="preserve"> .</t>
     </r>
@@ -6370,7 +6327,6 @@
     <r>
       <rPr>
         <rFont val="Arial"/>
-        <color theme="1"/>
       </rPr>
       <t>?</t>
     </r>
@@ -6378,14 +6334,12 @@
       <rPr>
         <rFont val="Arial"/>
         <b/>
-        <color theme="1"/>
       </rPr>
       <t>this</t>
     </r>
     <r>
       <rPr>
         <rFont val="Arial"/>
-        <color theme="1"/>
       </rPr>
       <t xml:space="preserve"> epo:playedBy / legal:registeredAddress / epo:hasCountryCode ?</t>
     </r>
@@ -6393,14 +6347,12 @@
       <rPr>
         <rFont val="Arial"/>
         <b/>
-        <color theme="1"/>
       </rPr>
       <t>value</t>
     </r>
     <r>
       <rPr>
         <rFont val="Arial"/>
-        <color theme="1"/>
       </rPr>
       <t xml:space="preserve"> .</t>
     </r>
@@ -7032,7 +6984,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
   </numFmts>
-  <fonts count="35">
+  <fonts count="36">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -7151,12 +7103,17 @@
     </font>
     <font>
       <u/>
+      <color rgb="FF1155CC"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
     </font>
     <font>
       <u/>
-      <color rgb="FF1155CC"/>
+      <color rgb="FF0000FF"/>
       <name val="Arial"/>
     </font>
     <font>
@@ -7816,28 +7773,25 @@
     <xf borderId="0" fillId="16" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="16" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="23" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="24" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="4" fontId="23" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="8" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="24" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
     <xf borderId="0" fillId="10" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="25" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="7" fillId="0" fontId="25" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -7870,10 +7824,13 @@
     <xf borderId="0" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="26" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
     <xf borderId="0" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="26" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="4" fontId="27" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -7882,16 +7839,16 @@
     <xf quotePrefix="1" borderId="0" fillId="15" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="15" fontId="27" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="15" fontId="28" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf quotePrefix="1" borderId="0" fillId="15" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="15" fontId="28" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="15" fontId="29" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="15" fontId="26" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="15" fontId="27" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="15" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -7909,23 +7866,23 @@
     <xf borderId="11" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="29" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="30" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="30" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="10" fillId="0" fontId="31" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="30" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="31" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="30" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="31" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="30" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="31" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -7952,16 +7909,16 @@
     <xf borderId="0" fillId="17" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="31" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="32" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="32" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="33" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="33" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="34" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="18" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
@@ -7971,7 +7928,7 @@
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="18" fontId="6" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="4" fontId="34" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="4" fontId="35" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -15502,131 +15459,133 @@
       <c r="K140" s="7"/>
     </row>
     <row r="141">
-      <c r="A141" s="54" t="s">
+      <c r="A141" s="46" t="s">
         <v>631</v>
       </c>
-      <c r="B141" s="55" t="s">
-        <v>627</v>
+      <c r="B141" s="47" t="s">
+        <v>632</v>
       </c>
       <c r="C141" s="4" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="D141" s="7"/>
-      <c r="E141" s="60" t="s">
-        <v>633</v>
+      <c r="E141" s="39" t="s">
+        <v>634</v>
       </c>
       <c r="F141" s="4"/>
-      <c r="G141" s="39" t="s">
-        <v>629</v>
+      <c r="G141" s="4" t="s">
+        <v>635</v>
       </c>
       <c r="H141" s="39" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="I141" s="7"/>
       <c r="J141" s="7"/>
       <c r="K141" s="7"/>
     </row>
     <row r="142">
-      <c r="A142" s="46" t="s">
-        <v>635</v>
-      </c>
-      <c r="B142" s="47" t="s">
-        <v>636</v>
-      </c>
-      <c r="C142" s="7" t="s">
+      <c r="A142" s="125" t="s">
         <v>637</v>
       </c>
+      <c r="B142" s="95" t="s">
+        <v>638</v>
+      </c>
+      <c r="C142" s="7"/>
       <c r="D142" s="7"/>
-      <c r="E142" s="39" t="s">
-        <v>638</v>
+      <c r="E142" s="128" t="s">
+        <v>639</v>
       </c>
       <c r="F142" s="7"/>
       <c r="G142" s="4" t="s">
-        <v>639</v>
-      </c>
-      <c r="H142" s="39" t="s">
         <v>640</v>
+      </c>
+      <c r="H142" s="4" t="s">
+        <v>641</v>
       </c>
       <c r="I142" s="7"/>
       <c r="J142" s="7"/>
       <c r="K142" s="7"/>
     </row>
     <row r="143">
-      <c r="A143" s="125" t="s">
-        <v>641</v>
-      </c>
-      <c r="B143" s="95" t="s">
+      <c r="A143" s="48" t="s">
         <v>642</v>
       </c>
-      <c r="C143" s="7"/>
-      <c r="D143" s="7"/>
-      <c r="E143" s="128" t="s">
+      <c r="B143" s="47" t="s">
+        <v>6</v>
+      </c>
+      <c r="C143" s="86" t="s">
         <v>643</v>
       </c>
-      <c r="F143" s="4"/>
+      <c r="D143" s="86" t="s">
+        <v>644</v>
+      </c>
+      <c r="E143" s="49" t="s">
+        <v>645</v>
+      </c>
+      <c r="F143" s="49" t="s">
+        <v>646</v>
+      </c>
       <c r="G143" s="4" t="s">
-        <v>644</v>
-      </c>
-      <c r="H143" s="4" t="s">
-        <v>645</v>
-      </c>
-      <c r="I143" s="7"/>
+        <v>647</v>
+      </c>
+      <c r="H143" s="106" t="s">
+        <v>648</v>
+      </c>
+      <c r="I143" s="7" t="s">
+        <v>62</v>
+      </c>
       <c r="J143" s="7"/>
       <c r="K143" s="7"/>
     </row>
     <row r="144">
       <c r="A144" s="48" t="s">
-        <v>646</v>
+        <v>649</v>
       </c>
       <c r="B144" s="47" t="s">
-        <v>6</v>
+        <v>650</v>
       </c>
       <c r="C144" s="86" t="s">
-        <v>647</v>
+        <v>651</v>
       </c>
       <c r="D144" s="86" t="s">
-        <v>648</v>
-      </c>
-      <c r="E144" s="49" t="s">
-        <v>649</v>
-      </c>
-      <c r="F144" s="49" t="s">
-        <v>650</v>
-      </c>
+        <v>652</v>
+      </c>
+      <c r="E144" s="60" t="s">
+        <v>653</v>
+      </c>
+      <c r="F144" s="4"/>
       <c r="G144" s="4" t="s">
-        <v>651</v>
-      </c>
-      <c r="H144" s="106" t="s">
-        <v>652</v>
-      </c>
-      <c r="I144" s="7" t="s">
-        <v>62</v>
-      </c>
+        <v>654</v>
+      </c>
+      <c r="H144" s="39" t="s">
+        <v>655</v>
+      </c>
+      <c r="I144" s="7"/>
       <c r="J144" s="7"/>
       <c r="K144" s="7"/>
     </row>
     <row r="145">
-      <c r="A145" s="48" t="s">
+      <c r="A145" s="129" t="s">
+        <v>649</v>
+      </c>
+      <c r="B145" s="130" t="s">
+        <v>650</v>
+      </c>
+      <c r="C145" s="131" t="s">
+        <v>651</v>
+      </c>
+      <c r="D145" s="132" t="s">
+        <v>652</v>
+      </c>
+      <c r="E145" s="60" t="s">
         <v>653</v>
-      </c>
-      <c r="B145" s="47" t="s">
-        <v>654</v>
-      </c>
-      <c r="C145" s="86" t="s">
-        <v>655</v>
-      </c>
-      <c r="D145" s="86" t="s">
-        <v>656</v>
-      </c>
-      <c r="E145" s="60" t="s">
-        <v>657</v>
       </c>
       <c r="F145" s="4"/>
       <c r="G145" s="4" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="H145" s="39" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="I145" s="7"/>
       <c r="J145" s="7"/>
@@ -15634,69 +15593,61 @@
     </row>
     <row r="146">
       <c r="A146" s="129" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="B146" s="130" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="C146" s="131" t="s">
-        <v>655</v>
-      </c>
-      <c r="D146" s="132" t="s">
-        <v>656</v>
+        <v>651</v>
+      </c>
+      <c r="D146" s="131" t="s">
+        <v>652</v>
       </c>
       <c r="E146" s="60" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="F146" s="4"/>
       <c r="G146" s="4" t="s">
+        <v>659</v>
+      </c>
+      <c r="H146" s="39" t="s">
         <v>660</v>
-      </c>
-      <c r="H146" s="39" t="s">
-        <v>661</v>
       </c>
       <c r="I146" s="7"/>
       <c r="J146" s="7"/>
       <c r="K146" s="7"/>
     </row>
     <row r="147">
-      <c r="A147" s="129" t="s">
-        <v>653</v>
-      </c>
-      <c r="B147" s="130" t="s">
-        <v>654</v>
-      </c>
-      <c r="C147" s="131" t="s">
-        <v>655</v>
-      </c>
-      <c r="D147" s="131" t="s">
-        <v>656</v>
-      </c>
-      <c r="E147" s="60" t="s">
+      <c r="A147" s="126" t="s">
+        <v>661</v>
+      </c>
+      <c r="B147" s="38" t="s">
         <v>662</v>
       </c>
+      <c r="C147" s="133" t="s">
+        <v>663</v>
+      </c>
+      <c r="D147" s="86"/>
+      <c r="E147" s="4"/>
       <c r="F147" s="4"/>
-      <c r="G147" s="4" t="s">
-        <v>663</v>
-      </c>
-      <c r="H147" s="39" t="s">
-        <v>664</v>
-      </c>
+      <c r="G147" s="4"/>
+      <c r="H147" s="4"/>
       <c r="I147" s="7"/>
       <c r="J147" s="7"/>
       <c r="K147" s="7"/>
     </row>
     <row r="148">
-      <c r="A148" s="126" t="s">
+      <c r="A148" s="46" t="s">
+        <v>664</v>
+      </c>
+      <c r="B148" s="47" t="s">
         <v>665</v>
       </c>
-      <c r="B148" s="38" t="s">
-        <v>666</v>
-      </c>
-      <c r="C148" s="133" t="s">
-        <v>667</v>
-      </c>
-      <c r="D148" s="86"/>
+      <c r="C148" s="134" t="s">
+        <v>663</v>
+      </c>
+      <c r="D148" s="7"/>
       <c r="E148" s="4"/>
       <c r="F148" s="4"/>
       <c r="G148" s="4"/>
@@ -15706,45 +15657,53 @@
       <c r="K148" s="7"/>
     </row>
     <row r="149">
-      <c r="A149" s="46" t="s">
+      <c r="A149" s="100" t="s">
+        <v>666</v>
+      </c>
+      <c r="B149" s="55" t="s">
+        <v>667</v>
+      </c>
+      <c r="C149" s="86" t="s">
         <v>668</v>
       </c>
-      <c r="B149" s="47" t="s">
+      <c r="D149" s="86" t="s">
         <v>669</v>
       </c>
-      <c r="C149" s="134" t="s">
-        <v>667</v>
-      </c>
-      <c r="D149" s="7"/>
-      <c r="E149" s="4"/>
-      <c r="F149" s="4"/>
-      <c r="G149" s="4"/>
-      <c r="H149" s="4"/>
+      <c r="E149" s="49" t="s">
+        <v>670</v>
+      </c>
+      <c r="F149" s="49"/>
+      <c r="G149" s="36" t="s">
+        <v>671</v>
+      </c>
+      <c r="H149" s="99" t="s">
+        <v>672</v>
+      </c>
       <c r="I149" s="7"/>
       <c r="J149" s="7"/>
       <c r="K149" s="7"/>
     </row>
     <row r="150">
       <c r="A150" s="100" t="s">
-        <v>670</v>
+        <v>673</v>
       </c>
       <c r="B150" s="55" t="s">
+        <v>674</v>
+      </c>
+      <c r="C150" s="49" t="s">
+        <v>668</v>
+      </c>
+      <c r="D150" s="86" t="s">
+        <v>669</v>
+      </c>
+      <c r="E150" s="49" t="s">
+        <v>675</v>
+      </c>
+      <c r="F150" s="49"/>
+      <c r="G150" s="4" t="s">
         <v>671</v>
       </c>
-      <c r="C150" s="49" t="s">
-        <v>672</v>
-      </c>
-      <c r="D150" s="86" t="s">
-        <v>673</v>
-      </c>
-      <c r="E150" s="49" t="s">
-        <v>674</v>
-      </c>
-      <c r="F150" s="49"/>
-      <c r="G150" s="36" t="s">
-        <v>675</v>
-      </c>
-      <c r="H150" s="99" t="s">
+      <c r="H150" s="124" t="s">
         <v>676</v>
       </c>
       <c r="I150" s="7"/>
@@ -15758,188 +15717,184 @@
       <c r="B151" s="55" t="s">
         <v>678</v>
       </c>
-      <c r="C151" s="86" t="s">
-        <v>672</v>
-      </c>
-      <c r="D151" s="86" t="s">
-        <v>673</v>
-      </c>
-      <c r="E151" s="49" t="s">
+      <c r="C151" s="135" t="s">
+        <v>579</v>
+      </c>
+      <c r="D151" s="86"/>
+      <c r="E151" s="40" t="s">
         <v>679</v>
       </c>
-      <c r="F151" s="49"/>
-      <c r="G151" s="4" t="s">
-        <v>675</v>
-      </c>
-      <c r="H151" s="124" t="s">
+      <c r="F151" s="40"/>
+      <c r="G151" s="40" t="s">
         <v>680</v>
+      </c>
+      <c r="H151" s="98" t="s">
+        <v>681</v>
       </c>
       <c r="I151" s="7"/>
       <c r="J151" s="7"/>
       <c r="K151" s="7"/>
     </row>
     <row r="152">
-      <c r="A152" s="100" t="s">
-        <v>681</v>
-      </c>
-      <c r="B152" s="55" t="s">
+      <c r="A152" s="126" t="s">
         <v>682</v>
       </c>
-      <c r="C152" s="135" t="s">
-        <v>579</v>
-      </c>
-      <c r="D152" s="86"/>
-      <c r="E152" s="40" t="s">
+      <c r="B152" s="38" t="s">
         <v>683</v>
       </c>
-      <c r="F152" s="40"/>
-      <c r="G152" s="40" t="s">
-        <v>684</v>
-      </c>
-      <c r="H152" s="40" t="s">
-        <v>685</v>
-      </c>
+      <c r="C152" s="134" t="s">
+        <v>663</v>
+      </c>
+      <c r="D152" s="7"/>
+      <c r="E152" s="4"/>
+      <c r="F152" s="4"/>
+      <c r="G152" s="4"/>
+      <c r="H152" s="4"/>
       <c r="I152" s="7"/>
       <c r="J152" s="7"/>
       <c r="K152" s="7"/>
     </row>
     <row r="153">
-      <c r="A153" s="126" t="s">
+      <c r="A153" s="100" t="s">
+        <v>684</v>
+      </c>
+      <c r="B153" s="55"/>
+      <c r="C153" s="86"/>
+      <c r="D153" s="7"/>
+      <c r="E153" s="60" t="s">
+        <v>653</v>
+      </c>
+      <c r="F153" s="49"/>
+      <c r="G153" s="36" t="s">
+        <v>685</v>
+      </c>
+      <c r="H153" s="49" t="s">
         <v>686</v>
       </c>
-      <c r="B153" s="38" t="s">
-        <v>687</v>
-      </c>
-      <c r="C153" s="134" t="s">
-        <v>667</v>
-      </c>
-      <c r="D153" s="7"/>
-      <c r="E153" s="4"/>
-      <c r="F153" s="4"/>
-      <c r="G153" s="4"/>
-      <c r="H153" s="4"/>
       <c r="I153" s="7"/>
       <c r="J153" s="7"/>
       <c r="K153" s="7"/>
     </row>
     <row r="154">
       <c r="A154" s="100" t="s">
-        <v>688</v>
-      </c>
-      <c r="B154" s="55"/>
+        <v>684</v>
+      </c>
+      <c r="B154" s="78"/>
       <c r="C154" s="86"/>
       <c r="D154" s="7"/>
       <c r="E154" s="60" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="F154" s="49"/>
       <c r="G154" s="36" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="H154" s="99" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="I154" s="7"/>
       <c r="J154" s="7"/>
-      <c r="K154" s="7"/>
+      <c r="K154" s="7" t="s">
+        <v>689</v>
+      </c>
     </row>
     <row r="155">
-      <c r="A155" s="100" t="s">
-        <v>688</v>
-      </c>
-      <c r="B155" s="78"/>
-      <c r="C155" s="86"/>
-      <c r="D155" s="7"/>
+      <c r="A155" s="48" t="s">
+        <v>690</v>
+      </c>
+      <c r="B155" s="47" t="s">
+        <v>691</v>
+      </c>
+      <c r="C155" s="7" t="s">
+        <v>692</v>
+      </c>
+      <c r="D155" s="7" t="s">
+        <v>693</v>
+      </c>
       <c r="E155" s="60" t="s">
-        <v>657</v>
-      </c>
-      <c r="F155" s="49"/>
-      <c r="G155" s="36" t="s">
-        <v>691</v>
-      </c>
-      <c r="H155" s="99" t="s">
-        <v>692</v>
+        <v>694</v>
+      </c>
+      <c r="F155" s="4"/>
+      <c r="G155" s="39" t="s">
+        <v>695</v>
+      </c>
+      <c r="H155" s="124" t="s">
+        <v>696</v>
       </c>
       <c r="I155" s="7"/>
       <c r="J155" s="7"/>
-      <c r="K155" s="7" t="s">
-        <v>693</v>
-      </c>
+      <c r="K155" s="7"/>
     </row>
     <row r="156">
       <c r="A156" s="48" t="s">
-        <v>694</v>
+        <v>697</v>
       </c>
       <c r="B156" s="47" t="s">
-        <v>695</v>
-      </c>
-      <c r="C156" s="7" t="s">
-        <v>696</v>
-      </c>
-      <c r="D156" s="7" t="s">
-        <v>697</v>
-      </c>
+        <v>698</v>
+      </c>
+      <c r="C156" s="136"/>
+      <c r="D156" s="136"/>
       <c r="E156" s="90" t="s">
-        <v>698</v>
-      </c>
-      <c r="F156" s="7"/>
-      <c r="G156" s="39" t="s">
+        <v>653</v>
+      </c>
+      <c r="F156" s="136"/>
+      <c r="G156" s="49" t="s">
         <v>699</v>
       </c>
-      <c r="H156" s="39" t="s">
+      <c r="H156" s="36" t="s">
         <v>700</v>
       </c>
-      <c r="I156" s="7"/>
+      <c r="I156" s="7" t="s">
+        <v>701</v>
+      </c>
       <c r="J156" s="7"/>
       <c r="K156" s="7"/>
     </row>
     <row r="157">
-      <c r="A157" s="48" t="s">
-        <v>701</v>
-      </c>
-      <c r="B157" s="47" t="s">
+      <c r="A157" s="100" t="s">
         <v>702</v>
       </c>
-      <c r="C157" s="136"/>
-      <c r="D157" s="136"/>
-      <c r="E157" s="60" t="s">
-        <v>657</v>
-      </c>
-      <c r="F157" s="137"/>
-      <c r="G157" s="49" t="s">
+      <c r="B157" s="55" t="s">
         <v>703</v>
       </c>
+      <c r="C157" s="86" t="s">
+        <v>704</v>
+      </c>
+      <c r="D157" s="86" t="s">
+        <v>705</v>
+      </c>
+      <c r="E157" s="49" t="s">
+        <v>706</v>
+      </c>
+      <c r="F157" s="49"/>
+      <c r="G157" s="36" t="s">
+        <v>707</v>
+      </c>
       <c r="H157" s="36" t="s">
-        <v>704</v>
-      </c>
-      <c r="I157" s="7" t="s">
-        <v>705</v>
-      </c>
+        <v>708</v>
+      </c>
+      <c r="I157" s="7"/>
       <c r="J157" s="7"/>
       <c r="K157" s="7"/>
     </row>
     <row r="158">
       <c r="A158" s="100" t="s">
-        <v>706</v>
+        <v>709</v>
       </c>
       <c r="B158" s="55" t="s">
-        <v>707</v>
-      </c>
-      <c r="C158" s="86" t="s">
-        <v>708</v>
-      </c>
-      <c r="D158" s="86" t="s">
-        <v>709</v>
-      </c>
+        <v>710</v>
+      </c>
+      <c r="C158" s="86"/>
+      <c r="D158" s="86"/>
       <c r="E158" s="49" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="F158" s="49"/>
-      <c r="G158" s="36" t="s">
-        <v>711</v>
-      </c>
-      <c r="H158" s="36" t="s">
+      <c r="G158" s="4" t="s">
         <v>712</v>
+      </c>
+      <c r="H158" s="39" t="s">
+        <v>713</v>
       </c>
       <c r="I158" s="7"/>
       <c r="J158" s="7"/>
@@ -15947,19 +15902,19 @@
     </row>
     <row r="159">
       <c r="A159" s="100" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="B159" s="55" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="C159" s="86"/>
       <c r="D159" s="86"/>
       <c r="E159" s="49" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="F159" s="49"/>
       <c r="G159" s="4" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="H159" s="39" t="s">
         <v>717</v>
@@ -15982,7 +15937,7 @@
       </c>
       <c r="F160" s="49"/>
       <c r="G160" s="4" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="H160" s="39" t="s">
         <v>721</v>
@@ -16005,9 +15960,9 @@
       </c>
       <c r="F161" s="86"/>
       <c r="G161" s="7" t="s">
-        <v>716</v>
-      </c>
-      <c r="H161" s="138" t="s">
+        <v>712</v>
+      </c>
+      <c r="H161" s="137" t="s">
         <v>725</v>
       </c>
       <c r="I161" s="7"/>
@@ -16021,146 +15976,150 @@
       <c r="B162" s="84" t="s">
         <v>727</v>
       </c>
-      <c r="C162" s="86"/>
+      <c r="C162" s="138" t="s">
+        <v>728</v>
+      </c>
       <c r="D162" s="86"/>
       <c r="E162" s="86" t="s">
-        <v>728</v>
-      </c>
-      <c r="F162" s="86"/>
-      <c r="G162" s="7" t="s">
-        <v>716</v>
+        <v>729</v>
+      </c>
+      <c r="F162" s="72"/>
+      <c r="G162" s="14" t="s">
+        <v>730</v>
       </c>
       <c r="H162" s="139" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="I162" s="7"/>
       <c r="J162" s="7"/>
       <c r="K162" s="7"/>
     </row>
     <row r="163">
-      <c r="A163" s="100" t="s">
-        <v>730</v>
-      </c>
-      <c r="B163" s="84" t="s">
-        <v>731</v>
-      </c>
-      <c r="C163" s="140" t="s">
+      <c r="A163" s="48" t="s">
         <v>732</v>
       </c>
+      <c r="B163" s="140" t="s">
+        <v>733</v>
+      </c>
+      <c r="C163" s="133" t="s">
+        <v>663</v>
+      </c>
       <c r="D163" s="86"/>
-      <c r="E163" s="86" t="s">
-        <v>733</v>
-      </c>
-      <c r="F163" s="72"/>
-      <c r="G163" s="14" t="s">
-        <v>734</v>
-      </c>
-      <c r="H163" s="141" t="s">
-        <v>735</v>
-      </c>
+      <c r="E163" s="72"/>
+      <c r="F163" s="86"/>
+      <c r="G163" s="14"/>
+      <c r="H163" s="14"/>
       <c r="I163" s="7"/>
       <c r="J163" s="7"/>
       <c r="K163" s="7"/>
     </row>
     <row r="164">
-      <c r="A164" s="48" t="s">
+      <c r="A164" s="100" t="s">
+        <v>734</v>
+      </c>
+      <c r="B164" s="84" t="s">
+        <v>56</v>
+      </c>
+      <c r="C164" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="D164" s="86" t="s">
+        <v>58</v>
+      </c>
+      <c r="E164" s="86" t="s">
+        <v>735</v>
+      </c>
+      <c r="F164" s="86"/>
+      <c r="G164" s="97" t="s">
+        <v>60</v>
+      </c>
+      <c r="H164" s="97" t="s">
         <v>736</v>
       </c>
-      <c r="B164" s="142" t="s">
-        <v>737</v>
-      </c>
-      <c r="C164" s="133" t="s">
-        <v>667</v>
-      </c>
-      <c r="D164" s="86"/>
-      <c r="E164" s="72"/>
-      <c r="F164" s="86"/>
-      <c r="G164" s="14"/>
-      <c r="H164" s="14"/>
-      <c r="I164" s="7"/>
+      <c r="I164" s="7" t="s">
+        <v>62</v>
+      </c>
       <c r="J164" s="7"/>
       <c r="K164" s="7"/>
     </row>
     <row r="165">
       <c r="A165" s="100" t="s">
+        <v>737</v>
+      </c>
+      <c r="B165" s="84" t="s">
+        <v>64</v>
+      </c>
+      <c r="C165" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="D165" s="86" t="s">
+        <v>66</v>
+      </c>
+      <c r="E165" s="86" t="s">
         <v>738</v>
       </c>
-      <c r="B165" s="84" t="s">
-        <v>56</v>
-      </c>
-      <c r="C165" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="D165" s="86" t="s">
-        <v>58</v>
-      </c>
-      <c r="E165" s="86" t="s">
+      <c r="F165" s="86"/>
+      <c r="G165" s="96" t="s">
+        <v>68</v>
+      </c>
+      <c r="H165" s="96" t="s">
         <v>739</v>
       </c>
-      <c r="F165" s="86"/>
-      <c r="G165" s="97" t="s">
-        <v>60</v>
-      </c>
-      <c r="H165" s="97" t="s">
-        <v>740</v>
-      </c>
       <c r="I165" s="7" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="J165" s="7"/>
       <c r="K165" s="7"/>
     </row>
     <row r="166">
       <c r="A166" s="100" t="s">
+        <v>740</v>
+      </c>
+      <c r="B166" s="84" t="s">
+        <v>72</v>
+      </c>
+      <c r="C166" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="D166" s="86" t="s">
+        <v>74</v>
+      </c>
+      <c r="E166" s="86" t="s">
         <v>741</v>
       </c>
-      <c r="B166" s="84" t="s">
-        <v>64</v>
-      </c>
-      <c r="C166" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="D166" s="86" t="s">
-        <v>66</v>
-      </c>
-      <c r="E166" s="86" t="s">
+      <c r="F166" s="86"/>
+      <c r="G166" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="H166" s="72" t="s">
         <v>742</v>
       </c>
-      <c r="F166" s="86"/>
-      <c r="G166" s="96" t="s">
-        <v>68</v>
-      </c>
-      <c r="H166" s="96" t="s">
-        <v>743</v>
-      </c>
-      <c r="I166" s="7" t="s">
-        <v>70</v>
-      </c>
+      <c r="I166" s="7"/>
       <c r="J166" s="7"/>
       <c r="K166" s="7"/>
     </row>
     <row r="167">
       <c r="A167" s="100" t="s">
+        <v>743</v>
+      </c>
+      <c r="B167" s="84" t="s">
+        <v>79</v>
+      </c>
+      <c r="C167" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="D167" s="86" t="s">
+        <v>81</v>
+      </c>
+      <c r="E167" s="86" t="s">
         <v>744</v>
-      </c>
-      <c r="B167" s="84" t="s">
-        <v>72</v>
-      </c>
-      <c r="C167" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="D167" s="86" t="s">
-        <v>74</v>
-      </c>
-      <c r="E167" s="86" t="s">
-        <v>745</v>
       </c>
       <c r="F167" s="86"/>
       <c r="G167" s="7" t="s">
         <v>76</v>
       </c>
       <c r="H167" s="72" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="I167" s="7"/>
       <c r="J167" s="7"/>
@@ -16168,25 +16127,27 @@
     </row>
     <row r="168">
       <c r="A168" s="100" t="s">
+        <v>746</v>
+      </c>
+      <c r="B168" s="84" t="s">
+        <v>85</v>
+      </c>
+      <c r="C168" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="D168" s="86" t="s">
+        <v>87</v>
+      </c>
+      <c r="E168" s="72" t="s">
         <v>747</v>
       </c>
-      <c r="B168" s="84" t="s">
-        <v>79</v>
-      </c>
-      <c r="C168" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="D168" s="86" t="s">
-        <v>81</v>
-      </c>
-      <c r="E168" s="86" t="s">
+      <c r="F168" s="72" t="s">
         <v>748</v>
       </c>
-      <c r="F168" s="86"/>
-      <c r="G168" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="H168" s="72" t="s">
+      <c r="G168" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="H168" s="86" t="s">
         <v>749</v>
       </c>
       <c r="I168" s="7"/>
@@ -16198,24 +16159,22 @@
         <v>750</v>
       </c>
       <c r="B169" s="84" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="C169" s="14" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="D169" s="86" t="s">
-        <v>87</v>
-      </c>
-      <c r="E169" s="72" t="s">
         <v>751</v>
       </c>
-      <c r="F169" s="72" t="s">
+      <c r="E169" s="86" t="s">
         <v>752</v>
       </c>
-      <c r="G169" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="H169" s="86" t="s">
+      <c r="F169" s="86"/>
+      <c r="G169" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="H169" s="72" t="s">
         <v>753</v>
       </c>
       <c r="I169" s="7"/>
@@ -16227,23 +16186,23 @@
         <v>754</v>
       </c>
       <c r="B170" s="84" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="C170" s="14" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="D170" s="86" t="s">
+        <v>102</v>
+      </c>
+      <c r="E170" s="118" t="s">
         <v>755</v>
       </c>
-      <c r="E170" s="118" t="s">
+      <c r="F170" s="118"/>
+      <c r="G170" s="97" t="s">
+        <v>104</v>
+      </c>
+      <c r="H170" s="97" t="s">
         <v>756</v>
-      </c>
-      <c r="F170" s="118"/>
-      <c r="G170" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="H170" s="72" t="s">
-        <v>757</v>
       </c>
       <c r="I170" s="7"/>
       <c r="J170" s="7"/>
@@ -16251,25 +16210,25 @@
     </row>
     <row r="171">
       <c r="A171" s="100" t="s">
+        <v>757</v>
+      </c>
+      <c r="B171" s="84" t="s">
+        <v>120</v>
+      </c>
+      <c r="C171" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="D171" s="86" t="s">
+        <v>122</v>
+      </c>
+      <c r="E171" s="118" t="s">
         <v>758</v>
       </c>
-      <c r="B171" s="84" t="s">
-        <v>100</v>
-      </c>
-      <c r="C171" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="D171" s="86" t="s">
-        <v>102</v>
-      </c>
-      <c r="E171" s="118" t="s">
+      <c r="F171" s="86"/>
+      <c r="G171" s="86" t="s">
         <v>759</v>
       </c>
-      <c r="F171" s="86"/>
-      <c r="G171" s="97" t="s">
-        <v>104</v>
-      </c>
-      <c r="H171" s="97" t="s">
+      <c r="H171" s="86" t="s">
         <v>760</v>
       </c>
       <c r="I171" s="7"/>
@@ -16281,13 +16240,13 @@
         <v>761</v>
       </c>
       <c r="B172" s="84" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="C172" s="14" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="D172" s="86" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="E172" s="86" t="s">
         <v>762</v>
@@ -16308,22 +16267,22 @@
         <v>765</v>
       </c>
       <c r="B173" s="84" t="s">
-        <v>114</v>
-      </c>
-      <c r="C173" s="14" t="s">
-        <v>115</v>
+        <v>766</v>
+      </c>
+      <c r="C173" s="86" t="s">
+        <v>136</v>
       </c>
       <c r="D173" s="86" t="s">
-        <v>116</v>
+        <v>137</v>
       </c>
       <c r="E173" s="86" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="F173" s="86"/>
-      <c r="G173" s="86" t="s">
-        <v>767</v>
-      </c>
-      <c r="H173" s="86" t="s">
+      <c r="G173" s="96" t="s">
+        <v>759</v>
+      </c>
+      <c r="H173" s="96" t="s">
         <v>768</v>
       </c>
       <c r="I173" s="7"/>
@@ -16335,23 +16294,23 @@
         <v>769</v>
       </c>
       <c r="B174" s="84" t="s">
+        <v>127</v>
+      </c>
+      <c r="C174" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="D174" s="86" t="s">
+        <v>129</v>
+      </c>
+      <c r="E174" s="86" t="s">
         <v>770</v>
       </c>
-      <c r="C174" s="86" t="s">
-        <v>136</v>
-      </c>
-      <c r="D174" s="86" t="s">
-        <v>137</v>
-      </c>
-      <c r="E174" s="86" t="s">
+      <c r="F174" s="86"/>
+      <c r="G174" s="86" t="s">
+        <v>763</v>
+      </c>
+      <c r="H174" s="86" t="s">
         <v>771</v>
-      </c>
-      <c r="F174" s="86"/>
-      <c r="G174" s="96" t="s">
-        <v>763</v>
-      </c>
-      <c r="H174" s="96" t="s">
-        <v>772</v>
       </c>
       <c r="I174" s="7"/>
       <c r="J174" s="7"/>
@@ -16359,115 +16318,113 @@
     </row>
     <row r="175">
       <c r="A175" s="100" t="s">
+        <v>772</v>
+      </c>
+      <c r="B175" s="84" t="s">
         <v>773</v>
       </c>
-      <c r="B175" s="84" t="s">
-        <v>127</v>
-      </c>
       <c r="C175" s="14" t="s">
-        <v>128</v>
+        <v>774</v>
       </c>
       <c r="D175" s="86" t="s">
-        <v>129</v>
-      </c>
-      <c r="E175" s="86" t="s">
-        <v>774</v>
-      </c>
-      <c r="F175" s="86"/>
-      <c r="G175" s="86" t="s">
-        <v>767</v>
-      </c>
-      <c r="H175" s="86" t="s">
         <v>775</v>
+      </c>
+      <c r="E175" s="90" t="s">
+        <v>776</v>
+      </c>
+      <c r="F175" s="72"/>
+      <c r="G175" s="7" t="s">
+        <v>777</v>
+      </c>
+      <c r="H175" s="141" t="s">
+        <v>778</v>
       </c>
       <c r="I175" s="7"/>
       <c r="J175" s="7"/>
       <c r="K175" s="7"/>
     </row>
     <row r="176">
-      <c r="A176" s="100" t="s">
+      <c r="A176" s="19"/>
+      <c r="B176" s="7"/>
+      <c r="C176" s="86"/>
+      <c r="D176" s="86"/>
+      <c r="E176" s="142" t="s">
         <v>776</v>
       </c>
-      <c r="B176" s="84" t="s">
-        <v>777</v>
-      </c>
-      <c r="C176" s="14" t="s">
-        <v>778</v>
-      </c>
-      <c r="D176" s="86" t="s">
+      <c r="F176" s="76"/>
+      <c r="G176" s="97" t="s">
         <v>779</v>
       </c>
-      <c r="E176" s="143" t="s">
+      <c r="H176" s="143" t="s">
         <v>780</v>
-      </c>
-      <c r="F176" s="76"/>
-      <c r="G176" s="7" t="s">
-        <v>781</v>
-      </c>
-      <c r="H176" s="144" t="s">
-        <v>782</v>
       </c>
       <c r="I176" s="7"/>
       <c r="J176" s="7"/>
       <c r="K176" s="7"/>
     </row>
     <row r="177">
-      <c r="A177" s="19"/>
-      <c r="B177" s="7"/>
-      <c r="C177" s="86"/>
-      <c r="D177" s="86"/>
-      <c r="E177" s="143" t="s">
-        <v>780</v>
-      </c>
-      <c r="F177" s="76"/>
-      <c r="G177" s="97" t="s">
-        <v>783</v>
-      </c>
-      <c r="H177" s="97" t="s">
-        <v>784</v>
-      </c>
+      <c r="A177" s="48" t="s">
+        <v>781</v>
+      </c>
+      <c r="B177" s="140" t="s">
+        <v>782</v>
+      </c>
+      <c r="C177" s="134" t="s">
+        <v>663</v>
+      </c>
+      <c r="D177" s="7"/>
+      <c r="E177" s="19"/>
+      <c r="F177" s="19"/>
+      <c r="G177" s="7"/>
+      <c r="H177" s="7"/>
       <c r="I177" s="7"/>
       <c r="J177" s="7"/>
       <c r="K177" s="7"/>
     </row>
     <row r="178">
-      <c r="A178" s="48" t="s">
+      <c r="A178" s="100" t="s">
+        <v>783</v>
+      </c>
+      <c r="B178" s="84" t="s">
+        <v>784</v>
+      </c>
+      <c r="C178" s="86" t="s">
+        <v>479</v>
+      </c>
+      <c r="D178" s="86" t="s">
+        <v>366</v>
+      </c>
+      <c r="E178" s="118" t="s">
         <v>785</v>
       </c>
-      <c r="B178" s="142" t="s">
+      <c r="F178" s="118"/>
+      <c r="G178" s="14" t="s">
+        <v>481</v>
+      </c>
+      <c r="H178" s="86" t="s">
         <v>786</v>
       </c>
-      <c r="C178" s="134" t="s">
-        <v>667</v>
-      </c>
-      <c r="D178" s="7"/>
-      <c r="E178" s="19"/>
-      <c r="F178" s="19"/>
-      <c r="G178" s="7"/>
-      <c r="H178" s="7"/>
       <c r="I178" s="7"/>
       <c r="J178" s="7"/>
       <c r="K178" s="7"/>
     </row>
     <row r="179">
-      <c r="A179" s="100" t="s">
+      <c r="A179" s="110" t="s">
         <v>787</v>
       </c>
-      <c r="B179" s="84" t="s">
+      <c r="B179" s="73" t="s">
+        <v>371</v>
+      </c>
+      <c r="C179" s="144" t="s">
+        <v>179</v>
+      </c>
+      <c r="D179" s="86"/>
+      <c r="E179" s="118" t="s">
         <v>788</v>
-      </c>
-      <c r="C179" s="86" t="s">
-        <v>479</v>
-      </c>
-      <c r="D179" s="86" t="s">
-        <v>366</v>
-      </c>
-      <c r="E179" s="118" t="s">
-        <v>789</v>
       </c>
       <c r="F179" s="118"/>
       <c r="G179" s="14" t="s">
-        <v>481</v>
+        <v>789</v>
       </c>
       <c r="H179" s="86" t="s">
         <v>790</v>
@@ -16477,43 +16434,43 @@
       <c r="K179" s="7"/>
     </row>
     <row r="180">
-      <c r="A180" s="110" t="s">
+      <c r="A180" s="100" t="s">
         <v>791</v>
       </c>
-      <c r="B180" s="73" t="s">
-        <v>371</v>
-      </c>
-      <c r="C180" s="145" t="s">
-        <v>179</v>
-      </c>
-      <c r="D180" s="86"/>
+      <c r="B180" s="84" t="s">
+        <v>792</v>
+      </c>
+      <c r="C180" s="86" t="s">
+        <v>793</v>
+      </c>
+      <c r="D180" s="86" t="s">
+        <v>794</v>
+      </c>
       <c r="E180" s="118" t="s">
-        <v>792</v>
+        <v>795</v>
       </c>
       <c r="F180" s="118"/>
-      <c r="G180" s="14" t="s">
-        <v>793</v>
-      </c>
-      <c r="H180" s="86" t="s">
-        <v>794</v>
+      <c r="G180" s="7" t="s">
+        <v>796</v>
+      </c>
+      <c r="H180" s="72" t="s">
+        <v>797</v>
       </c>
       <c r="I180" s="7"/>
       <c r="J180" s="7"/>
       <c r="K180" s="7"/>
     </row>
     <row r="181">
-      <c r="A181" s="100" t="s">
-        <v>795</v>
-      </c>
-      <c r="B181" s="84" t="s">
-        <v>796</v>
-      </c>
-      <c r="C181" s="86" t="s">
-        <v>797</v>
-      </c>
-      <c r="D181" s="86" t="s">
+      <c r="A181" s="110" t="s">
         <v>798</v>
       </c>
+      <c r="B181" s="73" t="s">
+        <v>371</v>
+      </c>
+      <c r="C181" s="144" t="s">
+        <v>179</v>
+      </c>
+      <c r="D181" s="86"/>
       <c r="E181" s="118" t="s">
         <v>799</v>
       </c>
@@ -16529,47 +16486,47 @@
       <c r="K181" s="7"/>
     </row>
     <row r="182">
-      <c r="A182" s="110" t="s">
+      <c r="A182" s="100" t="s">
         <v>802</v>
       </c>
-      <c r="B182" s="73" t="s">
-        <v>371</v>
-      </c>
-      <c r="C182" s="145" t="s">
-        <v>179</v>
-      </c>
-      <c r="D182" s="86"/>
-      <c r="E182" s="86" t="s">
+      <c r="B182" s="84" t="s">
         <v>803</v>
       </c>
-      <c r="F182" s="86"/>
-      <c r="G182" s="7" t="s">
+      <c r="C182" s="108" t="s">
         <v>804</v>
       </c>
-      <c r="H182" s="72" t="s">
+      <c r="D182" s="108" t="s">
         <v>805</v>
+      </c>
+      <c r="E182" s="145" t="s">
+        <v>806</v>
+      </c>
+      <c r="F182" s="145"/>
+      <c r="G182" s="91" t="s">
+        <v>807</v>
+      </c>
+      <c r="H182" s="91" t="s">
+        <v>808</v>
       </c>
       <c r="I182" s="7"/>
       <c r="J182" s="7"/>
       <c r="K182" s="7"/>
     </row>
     <row r="183">
-      <c r="A183" s="100" t="s">
-        <v>806</v>
-      </c>
-      <c r="B183" s="84" t="s">
-        <v>807</v>
-      </c>
-      <c r="C183" s="108" t="s">
-        <v>808</v>
-      </c>
-      <c r="D183" s="108" t="s">
+      <c r="A183" s="110" t="s">
         <v>809</v>
       </c>
-      <c r="E183" s="146" t="s">
+      <c r="B183" s="73" t="s">
+        <v>371</v>
+      </c>
+      <c r="C183" s="146" t="s">
+        <v>179</v>
+      </c>
+      <c r="D183" s="108"/>
+      <c r="E183" s="145" t="s">
         <v>810</v>
       </c>
-      <c r="F183" s="146"/>
+      <c r="F183" s="112"/>
       <c r="G183" s="91" t="s">
         <v>811</v>
       </c>
@@ -16581,163 +16538,163 @@
       <c r="K183" s="7"/>
     </row>
     <row r="184">
-      <c r="A184" s="110" t="s">
+      <c r="A184" s="100" t="s">
         <v>813</v>
       </c>
-      <c r="B184" s="73" t="s">
-        <v>371</v>
-      </c>
-      <c r="C184" s="147" t="s">
-        <v>179</v>
-      </c>
-      <c r="D184" s="108"/>
-      <c r="E184" s="146" t="s">
+      <c r="B184" s="84" t="s">
         <v>814</v>
       </c>
-      <c r="F184" s="108"/>
+      <c r="C184" s="108" t="s">
+        <v>815</v>
+      </c>
+      <c r="D184" s="108" t="s">
+        <v>816</v>
+      </c>
+      <c r="E184" s="145" t="s">
+        <v>817</v>
+      </c>
+      <c r="F184" s="91"/>
       <c r="G184" s="91" t="s">
-        <v>815</v>
+        <v>807</v>
       </c>
       <c r="H184" s="91" t="s">
-        <v>816</v>
+        <v>818</v>
       </c>
       <c r="I184" s="7"/>
       <c r="J184" s="7"/>
       <c r="K184" s="7"/>
     </row>
     <row r="185">
-      <c r="A185" s="100" t="s">
-        <v>817</v>
-      </c>
-      <c r="B185" s="84" t="s">
-        <v>818</v>
-      </c>
-      <c r="C185" s="108" t="s">
+      <c r="A185" s="110" t="s">
         <v>819</v>
       </c>
-      <c r="D185" s="108" t="s">
+      <c r="B185" s="73" t="s">
+        <v>371</v>
+      </c>
+      <c r="C185" s="146" t="s">
+        <v>179</v>
+      </c>
+      <c r="D185" s="108"/>
+      <c r="E185" s="108" t="s">
         <v>820</v>
       </c>
-      <c r="E185" s="91" t="s">
-        <v>821</v>
-      </c>
-      <c r="F185" s="91"/>
+      <c r="F185" s="108"/>
       <c r="G185" s="91" t="s">
         <v>811</v>
       </c>
       <c r="H185" s="91" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="I185" s="7"/>
       <c r="J185" s="7"/>
       <c r="K185" s="7"/>
     </row>
     <row r="186">
-      <c r="A186" s="110" t="s">
+      <c r="A186" s="100" t="s">
+        <v>822</v>
+      </c>
+      <c r="B186" s="84" t="s">
         <v>823</v>
       </c>
-      <c r="B186" s="73" t="s">
-        <v>371</v>
-      </c>
-      <c r="C186" s="147" t="s">
-        <v>179</v>
-      </c>
-      <c r="D186" s="108"/>
+      <c r="C186" s="108" t="s">
+        <v>824</v>
+      </c>
+      <c r="D186" s="108" t="s">
+        <v>825</v>
+      </c>
       <c r="E186" s="108" t="s">
-        <v>824</v>
+        <v>826</v>
       </c>
       <c r="F186" s="108"/>
-      <c r="G186" s="91" t="s">
-        <v>815</v>
-      </c>
-      <c r="H186" s="91" t="s">
-        <v>825</v>
+      <c r="G186" s="108" t="s">
+        <v>827</v>
+      </c>
+      <c r="H186" s="108" t="s">
+        <v>828</v>
       </c>
       <c r="I186" s="7"/>
       <c r="J186" s="7"/>
       <c r="K186" s="7"/>
     </row>
     <row r="187">
-      <c r="A187" s="100" t="s">
-        <v>826</v>
-      </c>
-      <c r="B187" s="84" t="s">
-        <v>827</v>
-      </c>
-      <c r="C187" s="108" t="s">
-        <v>828</v>
-      </c>
-      <c r="D187" s="108" t="s">
+      <c r="A187" s="125" t="s">
         <v>829</v>
       </c>
-      <c r="E187" s="108" t="s">
+      <c r="B187" s="147" t="s">
         <v>830</v>
       </c>
-      <c r="F187" s="108"/>
-      <c r="G187" s="108" t="s">
-        <v>831</v>
-      </c>
-      <c r="H187" s="108" t="s">
-        <v>832</v>
-      </c>
+      <c r="C187" s="7"/>
+      <c r="D187" s="7"/>
+      <c r="E187" s="7"/>
+      <c r="F187" s="7"/>
+      <c r="G187" s="7"/>
+      <c r="H187" s="7"/>
       <c r="I187" s="7"/>
       <c r="J187" s="7"/>
       <c r="K187" s="7"/>
     </row>
     <row r="188">
-      <c r="A188" s="125" t="s">
-        <v>833</v>
+      <c r="A188" s="37" t="s">
+        <v>831</v>
       </c>
       <c r="B188" s="148" t="s">
-        <v>834</v>
-      </c>
-      <c r="C188" s="7"/>
-      <c r="D188" s="7"/>
-      <c r="E188" s="7"/>
-      <c r="F188" s="7"/>
-      <c r="G188" s="7"/>
-      <c r="H188" s="7"/>
+        <v>832</v>
+      </c>
+      <c r="C188" s="122"/>
+      <c r="D188" s="85"/>
+      <c r="E188" s="149"/>
+      <c r="F188" s="119"/>
+      <c r="G188" s="86"/>
+      <c r="H188" s="86"/>
       <c r="I188" s="7"/>
       <c r="J188" s="7"/>
       <c r="K188" s="7"/>
     </row>
     <row r="189">
-      <c r="A189" s="37" t="s">
+      <c r="A189" s="46" t="s">
+        <v>833</v>
+      </c>
+      <c r="B189" s="140" t="s">
+        <v>834</v>
+      </c>
+      <c r="C189" s="122" t="s">
         <v>835</v>
       </c>
-      <c r="B189" s="149" t="s">
+      <c r="D189" s="85"/>
+      <c r="E189" s="149" t="s">
         <v>836</v>
       </c>
-      <c r="C189" s="122"/>
-      <c r="D189" s="85"/>
-      <c r="E189" s="150"/>
       <c r="F189" s="119"/>
-      <c r="G189" s="86"/>
-      <c r="H189" s="86"/>
+      <c r="G189" s="7" t="s">
+        <v>837</v>
+      </c>
+      <c r="H189" s="32" t="s">
+        <v>838</v>
+      </c>
       <c r="I189" s="7"/>
       <c r="J189" s="7"/>
       <c r="K189" s="7"/>
     </row>
     <row r="190">
       <c r="A190" s="46" t="s">
-        <v>837</v>
-      </c>
-      <c r="B190" s="142" t="s">
-        <v>838</v>
+        <v>839</v>
+      </c>
+      <c r="B190" s="140" t="s">
+        <v>840</v>
       </c>
       <c r="C190" s="122" t="s">
-        <v>839</v>
+        <v>841</v>
       </c>
       <c r="D190" s="85"/>
-      <c r="E190" s="150" t="s">
-        <v>840</v>
+      <c r="E190" s="149" t="s">
+        <v>842</v>
       </c>
       <c r="F190" s="119"/>
       <c r="G190" s="7" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
       <c r="H190" s="32" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="I190" s="7"/>
       <c r="J190" s="7"/>
@@ -16745,178 +16702,180 @@
     </row>
     <row r="191">
       <c r="A191" s="46" t="s">
-        <v>843</v>
-      </c>
-      <c r="B191" s="142" t="s">
         <v>844</v>
       </c>
+      <c r="B191" s="140" t="s">
+        <v>845</v>
+      </c>
       <c r="C191" s="122" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="D191" s="85"/>
-      <c r="E191" s="150" t="s">
-        <v>846</v>
+      <c r="E191" s="149" t="s">
+        <v>847</v>
       </c>
       <c r="F191" s="119"/>
       <c r="G191" s="7" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
       <c r="H191" s="32" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="I191" s="7"/>
       <c r="J191" s="7"/>
       <c r="K191" s="7"/>
     </row>
     <row r="192">
-      <c r="A192" s="46" t="s">
-        <v>848</v>
-      </c>
-      <c r="B192" s="142" t="s">
+      <c r="A192" s="126" t="s">
         <v>849</v>
       </c>
-      <c r="C192" s="122" t="s">
+      <c r="B192" s="148" t="s">
+        <v>535</v>
+      </c>
+      <c r="C192" s="86" t="s">
+        <v>536</v>
+      </c>
+      <c r="D192" s="7" t="s">
+        <v>537</v>
+      </c>
+      <c r="E192" s="118" t="s">
         <v>850</v>
       </c>
-      <c r="D192" s="85"/>
-      <c r="E192" s="150" t="s">
+      <c r="F192" s="118"/>
+      <c r="G192" s="150" t="s">
+        <v>327</v>
+      </c>
+      <c r="H192" s="151" t="s">
         <v>851</v>
       </c>
-      <c r="F192" s="119"/>
-      <c r="G192" s="7" t="s">
-        <v>841</v>
-      </c>
-      <c r="H192" s="32" t="s">
-        <v>852</v>
-      </c>
-      <c r="I192" s="7"/>
+      <c r="I192" s="7" t="s">
+        <v>62</v>
+      </c>
       <c r="J192" s="7"/>
       <c r="K192" s="7"/>
     </row>
     <row r="193">
       <c r="A193" s="126" t="s">
+        <v>852</v>
+      </c>
+      <c r="B193" s="148" t="s">
         <v>853</v>
       </c>
-      <c r="B193" s="149" t="s">
-        <v>535</v>
-      </c>
-      <c r="C193" s="86" t="s">
-        <v>536</v>
-      </c>
-      <c r="D193" s="7" t="s">
-        <v>537</v>
-      </c>
-      <c r="E193" s="118" t="s">
-        <v>854</v>
-      </c>
-      <c r="F193" s="118"/>
-      <c r="G193" s="151" t="s">
-        <v>327</v>
-      </c>
-      <c r="H193" s="152" t="s">
-        <v>855</v>
-      </c>
-      <c r="I193" s="7" t="s">
-        <v>62</v>
-      </c>
+      <c r="C193" s="133" t="s">
+        <v>663</v>
+      </c>
+      <c r="D193" s="7"/>
+      <c r="E193" s="119"/>
+      <c r="F193" s="119"/>
+      <c r="G193" s="7"/>
+      <c r="H193" s="7"/>
+      <c r="I193" s="7"/>
       <c r="J193" s="7"/>
       <c r="K193" s="7"/>
     </row>
     <row r="194">
-      <c r="A194" s="126" t="s">
+      <c r="A194" s="48" t="s">
+        <v>854</v>
+      </c>
+      <c r="B194" s="140" t="s">
+        <v>855</v>
+      </c>
+      <c r="C194" s="152" t="s">
+        <v>663</v>
+      </c>
+      <c r="D194" s="7"/>
+      <c r="E194" s="76" t="s">
         <v>856</v>
       </c>
-      <c r="B194" s="149" t="s">
-        <v>857</v>
-      </c>
-      <c r="C194" s="133" t="s">
-        <v>667</v>
-      </c>
-      <c r="D194" s="7"/>
-      <c r="E194" s="119"/>
-      <c r="F194" s="119"/>
-      <c r="G194" s="7"/>
-      <c r="H194" s="7"/>
+      <c r="F194" s="118"/>
+      <c r="G194" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="H194" s="14" t="s">
+        <v>181</v>
+      </c>
       <c r="I194" s="7"/>
       <c r="J194" s="7"/>
       <c r="K194" s="7"/>
     </row>
     <row r="195">
-      <c r="A195" s="48" t="s">
+      <c r="A195" s="100" t="s">
+        <v>857</v>
+      </c>
+      <c r="B195" s="84" t="s">
+        <v>56</v>
+      </c>
+      <c r="C195" s="86" t="s">
+        <v>57</v>
+      </c>
+      <c r="D195" s="86" t="s">
+        <v>58</v>
+      </c>
+      <c r="E195" s="86" t="s">
         <v>858</v>
       </c>
-      <c r="B195" s="142" t="s">
+      <c r="F195" s="86"/>
+      <c r="G195" s="72" t="s">
+        <v>60</v>
+      </c>
+      <c r="H195" s="72" t="s">
         <v>859</v>
       </c>
-      <c r="C195" s="153" t="s">
-        <v>667</v>
-      </c>
-      <c r="D195" s="7"/>
-      <c r="E195" s="72" t="s">
-        <v>860</v>
-      </c>
-      <c r="F195" s="86"/>
-      <c r="G195" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="H195" s="14" t="s">
-        <v>181</v>
-      </c>
-      <c r="I195" s="7"/>
+      <c r="I195" s="7" t="s">
+        <v>62</v>
+      </c>
       <c r="J195" s="7"/>
       <c r="K195" s="7"/>
     </row>
     <row r="196">
       <c r="A196" s="100" t="s">
+        <v>860</v>
+      </c>
+      <c r="B196" s="84" t="s">
+        <v>72</v>
+      </c>
+      <c r="C196" s="86" t="s">
+        <v>73</v>
+      </c>
+      <c r="D196" s="86" t="s">
+        <v>74</v>
+      </c>
+      <c r="E196" s="86" t="s">
         <v>861</v>
-      </c>
-      <c r="B196" s="84" t="s">
-        <v>56</v>
-      </c>
-      <c r="C196" s="86" t="s">
-        <v>57</v>
-      </c>
-      <c r="D196" s="86" t="s">
-        <v>58</v>
-      </c>
-      <c r="E196" s="86" t="s">
-        <v>862</v>
       </c>
       <c r="F196" s="86"/>
       <c r="G196" s="72" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="H196" s="72" t="s">
-        <v>863</v>
-      </c>
-      <c r="I196" s="7" t="s">
-        <v>62</v>
-      </c>
+        <v>862</v>
+      </c>
+      <c r="I196" s="7"/>
       <c r="J196" s="7"/>
       <c r="K196" s="7"/>
     </row>
     <row r="197">
       <c r="A197" s="100" t="s">
+        <v>863</v>
+      </c>
+      <c r="B197" s="84" t="s">
+        <v>79</v>
+      </c>
+      <c r="C197" s="86" t="s">
+        <v>80</v>
+      </c>
+      <c r="D197" s="86" t="s">
+        <v>81</v>
+      </c>
+      <c r="E197" s="86" t="s">
         <v>864</v>
-      </c>
-      <c r="B197" s="84" t="s">
-        <v>72</v>
-      </c>
-      <c r="C197" s="86" t="s">
-        <v>73</v>
-      </c>
-      <c r="D197" s="86" t="s">
-        <v>74</v>
-      </c>
-      <c r="E197" s="86" t="s">
-        <v>865</v>
       </c>
       <c r="F197" s="86"/>
       <c r="G197" s="72" t="s">
         <v>76</v>
       </c>
       <c r="H197" s="72" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="I197" s="7"/>
       <c r="J197" s="7"/>
@@ -16924,26 +16883,26 @@
     </row>
     <row r="198">
       <c r="A198" s="100" t="s">
+        <v>866</v>
+      </c>
+      <c r="B198" s="84" t="s">
+        <v>93</v>
+      </c>
+      <c r="C198" s="86" t="s">
+        <v>94</v>
+      </c>
+      <c r="D198" s="86" t="s">
+        <v>751</v>
+      </c>
+      <c r="E198" s="86" t="s">
         <v>867</v>
-      </c>
-      <c r="B198" s="84" t="s">
-        <v>79</v>
-      </c>
-      <c r="C198" s="86" t="s">
-        <v>80</v>
-      </c>
-      <c r="D198" s="86" t="s">
-        <v>81</v>
-      </c>
-      <c r="E198" s="86" t="s">
-        <v>868</v>
       </c>
       <c r="F198" s="86"/>
       <c r="G198" s="72" t="s">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="H198" s="72" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="I198" s="7"/>
       <c r="J198" s="7"/>
@@ -16951,26 +16910,26 @@
     </row>
     <row r="199">
       <c r="A199" s="100" t="s">
+        <v>869</v>
+      </c>
+      <c r="B199" s="84" t="s">
+        <v>100</v>
+      </c>
+      <c r="C199" s="86" t="s">
+        <v>101</v>
+      </c>
+      <c r="D199" s="86" t="s">
+        <v>102</v>
+      </c>
+      <c r="E199" s="86" t="s">
         <v>870</v>
       </c>
-      <c r="B199" s="84" t="s">
-        <v>93</v>
-      </c>
-      <c r="C199" s="86" t="s">
-        <v>94</v>
-      </c>
-      <c r="D199" s="86" t="s">
-        <v>755</v>
-      </c>
-      <c r="E199" s="86" t="s">
+      <c r="F199" s="86"/>
+      <c r="G199" s="86" t="s">
+        <v>104</v>
+      </c>
+      <c r="H199" s="86" t="s">
         <v>871</v>
-      </c>
-      <c r="F199" s="86"/>
-      <c r="G199" s="72" t="s">
-        <v>97</v>
-      </c>
-      <c r="H199" s="72" t="s">
-        <v>872</v>
       </c>
       <c r="I199" s="7"/>
       <c r="J199" s="7"/>
@@ -16978,26 +16937,26 @@
     </row>
     <row r="200">
       <c r="A200" s="100" t="s">
+        <v>872</v>
+      </c>
+      <c r="B200" s="84" t="s">
+        <v>120</v>
+      </c>
+      <c r="C200" s="86" t="s">
+        <v>121</v>
+      </c>
+      <c r="D200" s="86" t="s">
+        <v>122</v>
+      </c>
+      <c r="E200" s="86" t="s">
         <v>873</v>
-      </c>
-      <c r="B200" s="84" t="s">
-        <v>100</v>
-      </c>
-      <c r="C200" s="86" t="s">
-        <v>101</v>
-      </c>
-      <c r="D200" s="86" t="s">
-        <v>102</v>
-      </c>
-      <c r="E200" s="86" t="s">
-        <v>874</v>
       </c>
       <c r="F200" s="86"/>
       <c r="G200" s="86" t="s">
-        <v>104</v>
+        <v>759</v>
       </c>
       <c r="H200" s="86" t="s">
-        <v>875</v>
+        <v>760</v>
       </c>
       <c r="I200" s="7"/>
       <c r="J200" s="7"/>
@@ -17005,19 +16964,19 @@
     </row>
     <row r="201">
       <c r="A201" s="100" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="B201" s="84" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="C201" s="86" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="D201" s="86" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="E201" s="86" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="F201" s="86"/>
       <c r="G201" s="86" t="s">
@@ -17032,26 +16991,26 @@
     </row>
     <row r="202">
       <c r="A202" s="100" t="s">
+        <v>876</v>
+      </c>
+      <c r="B202" s="84" t="s">
+        <v>766</v>
+      </c>
+      <c r="C202" s="86" t="s">
+        <v>136</v>
+      </c>
+      <c r="D202" s="86" t="s">
+        <v>137</v>
+      </c>
+      <c r="E202" s="86" t="s">
+        <v>877</v>
+      </c>
+      <c r="F202" s="86"/>
+      <c r="G202" s="96" t="s">
+        <v>759</v>
+      </c>
+      <c r="H202" s="96" t="s">
         <v>878</v>
-      </c>
-      <c r="B202" s="84" t="s">
-        <v>114</v>
-      </c>
-      <c r="C202" s="86" t="s">
-        <v>115</v>
-      </c>
-      <c r="D202" s="86" t="s">
-        <v>116</v>
-      </c>
-      <c r="E202" s="86" t="s">
-        <v>879</v>
-      </c>
-      <c r="F202" s="86"/>
-      <c r="G202" s="86" t="s">
-        <v>767</v>
-      </c>
-      <c r="H202" s="86" t="s">
-        <v>768</v>
       </c>
       <c r="I202" s="7"/>
       <c r="J202" s="7"/>
@@ -17059,134 +17018,134 @@
     </row>
     <row r="203">
       <c r="A203" s="100" t="s">
+        <v>879</v>
+      </c>
+      <c r="B203" s="84" t="s">
+        <v>127</v>
+      </c>
+      <c r="C203" s="86" t="s">
+        <v>128</v>
+      </c>
+      <c r="D203" s="86" t="s">
+        <v>129</v>
+      </c>
+      <c r="E203" s="86" t="s">
         <v>880</v>
       </c>
-      <c r="B203" s="84" t="s">
-        <v>770</v>
-      </c>
-      <c r="C203" s="86" t="s">
-        <v>136</v>
-      </c>
-      <c r="D203" s="86" t="s">
-        <v>137</v>
-      </c>
-      <c r="E203" s="86" t="s">
-        <v>881</v>
-      </c>
       <c r="F203" s="86"/>
-      <c r="G203" s="96" t="s">
+      <c r="G203" s="86" t="s">
         <v>763</v>
       </c>
-      <c r="H203" s="96" t="s">
-        <v>882</v>
+      <c r="H203" s="86" t="s">
+        <v>771</v>
       </c>
       <c r="I203" s="7"/>
       <c r="J203" s="7"/>
       <c r="K203" s="7"/>
     </row>
     <row r="204">
-      <c r="A204" s="100" t="s">
+      <c r="A204" s="48" t="s">
+        <v>881</v>
+      </c>
+      <c r="B204" s="140" t="s">
+        <v>882</v>
+      </c>
+      <c r="C204" s="152" t="s">
+        <v>663</v>
+      </c>
+      <c r="D204" s="153"/>
+      <c r="E204" s="72" t="s">
         <v>883</v>
       </c>
-      <c r="B204" s="84" t="s">
-        <v>127</v>
-      </c>
-      <c r="C204" s="86" t="s">
-        <v>128</v>
-      </c>
-      <c r="D204" s="86" t="s">
-        <v>129</v>
-      </c>
-      <c r="E204" s="86" t="s">
+      <c r="F204" s="86"/>
+      <c r="G204" s="14" t="s">
         <v>884</v>
       </c>
-      <c r="F204" s="86"/>
-      <c r="G204" s="86" t="s">
-        <v>767</v>
-      </c>
-      <c r="H204" s="86" t="s">
-        <v>775</v>
+      <c r="H204" s="14" t="s">
+        <v>181</v>
       </c>
       <c r="I204" s="7"/>
       <c r="J204" s="7"/>
       <c r="K204" s="7"/>
     </row>
     <row r="205">
-      <c r="A205" s="48" t="s">
+      <c r="A205" s="100" t="s">
         <v>885</v>
       </c>
-      <c r="B205" s="142" t="s">
+      <c r="B205" s="84" t="s">
+        <v>56</v>
+      </c>
+      <c r="C205" s="86" t="s">
+        <v>57</v>
+      </c>
+      <c r="D205" s="86" t="s">
+        <v>58</v>
+      </c>
+      <c r="E205" s="86" t="s">
         <v>886</v>
       </c>
-      <c r="C205" s="153" t="s">
-        <v>667</v>
-      </c>
-      <c r="D205" s="154"/>
-      <c r="E205" s="72" t="s">
+      <c r="F205" s="86"/>
+      <c r="G205" s="72" t="s">
+        <v>60</v>
+      </c>
+      <c r="H205" s="72" t="s">
         <v>887</v>
       </c>
-      <c r="F205" s="86"/>
-      <c r="G205" s="14" t="s">
-        <v>888</v>
-      </c>
-      <c r="H205" s="14" t="s">
-        <v>181</v>
-      </c>
-      <c r="I205" s="7"/>
+      <c r="I205" s="7" t="s">
+        <v>62</v>
+      </c>
       <c r="J205" s="7"/>
       <c r="K205" s="7"/>
     </row>
     <row r="206">
       <c r="A206" s="100" t="s">
+        <v>888</v>
+      </c>
+      <c r="B206" s="84" t="s">
+        <v>72</v>
+      </c>
+      <c r="C206" s="86" t="s">
+        <v>73</v>
+      </c>
+      <c r="D206" s="86" t="s">
+        <v>74</v>
+      </c>
+      <c r="E206" s="86" t="s">
         <v>889</v>
-      </c>
-      <c r="B206" s="84" t="s">
-        <v>56</v>
-      </c>
-      <c r="C206" s="86" t="s">
-        <v>57</v>
-      </c>
-      <c r="D206" s="86" t="s">
-        <v>58</v>
-      </c>
-      <c r="E206" s="86" t="s">
-        <v>890</v>
       </c>
       <c r="F206" s="86"/>
       <c r="G206" s="72" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="H206" s="72" t="s">
-        <v>891</v>
-      </c>
-      <c r="I206" s="7" t="s">
-        <v>62</v>
-      </c>
+        <v>890</v>
+      </c>
+      <c r="I206" s="7"/>
       <c r="J206" s="7"/>
       <c r="K206" s="7"/>
     </row>
     <row r="207">
       <c r="A207" s="100" t="s">
+        <v>891</v>
+      </c>
+      <c r="B207" s="84" t="s">
+        <v>79</v>
+      </c>
+      <c r="C207" s="86" t="s">
+        <v>80</v>
+      </c>
+      <c r="D207" s="86" t="s">
+        <v>81</v>
+      </c>
+      <c r="E207" s="86" t="s">
         <v>892</v>
-      </c>
-      <c r="B207" s="84" t="s">
-        <v>72</v>
-      </c>
-      <c r="C207" s="86" t="s">
-        <v>73</v>
-      </c>
-      <c r="D207" s="86" t="s">
-        <v>74</v>
-      </c>
-      <c r="E207" s="86" t="s">
-        <v>893</v>
       </c>
       <c r="F207" s="86"/>
       <c r="G207" s="72" t="s">
         <v>76</v>
       </c>
       <c r="H207" s="72" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="I207" s="7"/>
       <c r="J207" s="7"/>
@@ -17194,26 +17153,26 @@
     </row>
     <row r="208">
       <c r="A208" s="100" t="s">
+        <v>894</v>
+      </c>
+      <c r="B208" s="84" t="s">
+        <v>93</v>
+      </c>
+      <c r="C208" s="86" t="s">
+        <v>94</v>
+      </c>
+      <c r="D208" s="86" t="s">
+        <v>751</v>
+      </c>
+      <c r="E208" s="86" t="s">
         <v>895</v>
-      </c>
-      <c r="B208" s="84" t="s">
-        <v>79</v>
-      </c>
-      <c r="C208" s="86" t="s">
-        <v>80</v>
-      </c>
-      <c r="D208" s="86" t="s">
-        <v>81</v>
-      </c>
-      <c r="E208" s="86" t="s">
-        <v>896</v>
       </c>
       <c r="F208" s="86"/>
       <c r="G208" s="72" t="s">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="H208" s="72" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="I208" s="7"/>
       <c r="J208" s="7"/>
@@ -17221,26 +17180,26 @@
     </row>
     <row r="209">
       <c r="A209" s="100" t="s">
+        <v>897</v>
+      </c>
+      <c r="B209" s="84" t="s">
+        <v>100</v>
+      </c>
+      <c r="C209" s="86" t="s">
+        <v>101</v>
+      </c>
+      <c r="D209" s="86" t="s">
+        <v>102</v>
+      </c>
+      <c r="E209" s="86" t="s">
         <v>898</v>
-      </c>
-      <c r="B209" s="84" t="s">
-        <v>93</v>
-      </c>
-      <c r="C209" s="86" t="s">
-        <v>94</v>
-      </c>
-      <c r="D209" s="86" t="s">
-        <v>755</v>
-      </c>
-      <c r="E209" s="86" t="s">
-        <v>899</v>
       </c>
       <c r="F209" s="86"/>
       <c r="G209" s="72" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="H209" s="72" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="I209" s="7"/>
       <c r="J209" s="7"/>
@@ -17248,26 +17207,26 @@
     </row>
     <row r="210">
       <c r="A210" s="100" t="s">
+        <v>900</v>
+      </c>
+      <c r="B210" s="84" t="s">
+        <v>120</v>
+      </c>
+      <c r="C210" s="86" t="s">
+        <v>121</v>
+      </c>
+      <c r="D210" s="86" t="s">
+        <v>122</v>
+      </c>
+      <c r="E210" s="86" t="s">
         <v>901</v>
       </c>
-      <c r="B210" s="84" t="s">
-        <v>100</v>
-      </c>
-      <c r="C210" s="86" t="s">
-        <v>101</v>
-      </c>
-      <c r="D210" s="86" t="s">
-        <v>102</v>
-      </c>
-      <c r="E210" s="86" t="s">
-        <v>902</v>
-      </c>
       <c r="F210" s="86"/>
-      <c r="G210" s="72" t="s">
-        <v>104</v>
-      </c>
-      <c r="H210" s="72" t="s">
-        <v>903</v>
+      <c r="G210" s="86" t="s">
+        <v>759</v>
+      </c>
+      <c r="H210" s="86" t="s">
+        <v>760</v>
       </c>
       <c r="I210" s="7"/>
       <c r="J210" s="7"/>
@@ -17275,19 +17234,19 @@
     </row>
     <row r="211">
       <c r="A211" s="100" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="B211" s="84" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="C211" s="86" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="D211" s="86" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="E211" s="86" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="F211" s="86"/>
       <c r="G211" s="86" t="s">
@@ -17302,26 +17261,26 @@
     </row>
     <row r="212">
       <c r="A212" s="100" t="s">
+        <v>904</v>
+      </c>
+      <c r="B212" s="84" t="s">
+        <v>766</v>
+      </c>
+      <c r="C212" s="86" t="s">
+        <v>136</v>
+      </c>
+      <c r="D212" s="86" t="s">
+        <v>137</v>
+      </c>
+      <c r="E212" s="86" t="s">
+        <v>905</v>
+      </c>
+      <c r="F212" s="86"/>
+      <c r="G212" s="96" t="s">
+        <v>759</v>
+      </c>
+      <c r="H212" s="96" t="s">
         <v>906</v>
-      </c>
-      <c r="B212" s="84" t="s">
-        <v>114</v>
-      </c>
-      <c r="C212" s="86" t="s">
-        <v>115</v>
-      </c>
-      <c r="D212" s="86" t="s">
-        <v>116</v>
-      </c>
-      <c r="E212" s="86" t="s">
-        <v>907</v>
-      </c>
-      <c r="F212" s="86"/>
-      <c r="G212" s="86" t="s">
-        <v>767</v>
-      </c>
-      <c r="H212" s="86" t="s">
-        <v>768</v>
       </c>
       <c r="I212" s="7"/>
       <c r="J212" s="7"/>
@@ -17329,53 +17288,53 @@
     </row>
     <row r="213">
       <c r="A213" s="100" t="s">
+        <v>907</v>
+      </c>
+      <c r="B213" s="84" t="s">
+        <v>127</v>
+      </c>
+      <c r="C213" s="86" t="s">
+        <v>128</v>
+      </c>
+      <c r="D213" s="86" t="s">
+        <v>129</v>
+      </c>
+      <c r="E213" s="86" t="s">
         <v>908</v>
       </c>
-      <c r="B213" s="84" t="s">
-        <v>770</v>
-      </c>
-      <c r="C213" s="86" t="s">
-        <v>136</v>
-      </c>
-      <c r="D213" s="86" t="s">
-        <v>137</v>
-      </c>
-      <c r="E213" s="86" t="s">
-        <v>909</v>
-      </c>
       <c r="F213" s="86"/>
-      <c r="G213" s="96" t="s">
+      <c r="G213" s="86" t="s">
         <v>763</v>
       </c>
-      <c r="H213" s="96" t="s">
-        <v>910</v>
+      <c r="H213" s="86" t="s">
+        <v>771</v>
       </c>
       <c r="I213" s="7"/>
       <c r="J213" s="7"/>
       <c r="K213" s="7"/>
     </row>
     <row r="214">
-      <c r="A214" s="100" t="s">
+      <c r="A214" s="48" t="s">
+        <v>909</v>
+      </c>
+      <c r="B214" s="140" t="s">
+        <v>910</v>
+      </c>
+      <c r="C214" s="86" t="s">
         <v>911</v>
       </c>
-      <c r="B214" s="84" t="s">
-        <v>127</v>
-      </c>
-      <c r="C214" s="86" t="s">
-        <v>128</v>
-      </c>
       <c r="D214" s="86" t="s">
-        <v>129</v>
+        <v>912</v>
       </c>
       <c r="E214" s="86" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="F214" s="86"/>
-      <c r="G214" s="86" t="s">
-        <v>767</v>
-      </c>
-      <c r="H214" s="86" t="s">
-        <v>775</v>
+      <c r="G214" s="72" t="s">
+        <v>914</v>
+      </c>
+      <c r="H214" s="151" t="s">
+        <v>915</v>
       </c>
       <c r="I214" s="7"/>
       <c r="J214" s="7"/>
@@ -17383,105 +17342,105 @@
     </row>
     <row r="215">
       <c r="A215" s="48" t="s">
-        <v>913</v>
-      </c>
-      <c r="B215" s="142" t="s">
-        <v>914</v>
-      </c>
-      <c r="C215" s="86" t="s">
-        <v>915</v>
-      </c>
-      <c r="D215" s="86" t="s">
         <v>916</v>
       </c>
-      <c r="E215" s="86" t="s">
+      <c r="B215" s="140" t="s">
         <v>917</v>
       </c>
+      <c r="C215" s="7"/>
+      <c r="D215" s="7"/>
+      <c r="E215" s="72" t="s">
+        <v>918</v>
+      </c>
       <c r="F215" s="86"/>
-      <c r="G215" s="72" t="s">
-        <v>918</v>
-      </c>
-      <c r="H215" s="152" t="s">
-        <v>919</v>
+      <c r="G215" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="H215" s="14" t="s">
+        <v>181</v>
       </c>
       <c r="I215" s="7"/>
       <c r="J215" s="7"/>
       <c r="K215" s="7"/>
     </row>
     <row r="216">
-      <c r="A216" s="48" t="s">
+      <c r="A216" s="100" t="s">
+        <v>919</v>
+      </c>
+      <c r="B216" s="84" t="s">
+        <v>56</v>
+      </c>
+      <c r="C216" s="86" t="s">
+        <v>57</v>
+      </c>
+      <c r="D216" s="86" t="s">
+        <v>58</v>
+      </c>
+      <c r="E216" s="86" t="s">
         <v>920</v>
       </c>
-      <c r="B216" s="142" t="s">
+      <c r="F216" s="86"/>
+      <c r="G216" s="72" t="s">
+        <v>60</v>
+      </c>
+      <c r="H216" s="72" t="s">
         <v>921</v>
       </c>
-      <c r="C216" s="7"/>
-      <c r="D216" s="7"/>
-      <c r="E216" s="72" t="s">
-        <v>922</v>
-      </c>
-      <c r="F216" s="86"/>
-      <c r="G216" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="H216" s="14" t="s">
-        <v>181</v>
-      </c>
-      <c r="I216" s="7"/>
+      <c r="I216" s="7" t="s">
+        <v>62</v>
+      </c>
       <c r="J216" s="7"/>
       <c r="K216" s="7"/>
     </row>
     <row r="217">
       <c r="A217" s="100" t="s">
+        <v>922</v>
+      </c>
+      <c r="B217" s="84" t="s">
+        <v>72</v>
+      </c>
+      <c r="C217" s="86" t="s">
+        <v>73</v>
+      </c>
+      <c r="D217" s="86" t="s">
+        <v>74</v>
+      </c>
+      <c r="E217" s="86" t="s">
         <v>923</v>
-      </c>
-      <c r="B217" s="84" t="s">
-        <v>56</v>
-      </c>
-      <c r="C217" s="86" t="s">
-        <v>57</v>
-      </c>
-      <c r="D217" s="86" t="s">
-        <v>58</v>
-      </c>
-      <c r="E217" s="86" t="s">
-        <v>924</v>
       </c>
       <c r="F217" s="86"/>
       <c r="G217" s="72" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="H217" s="72" t="s">
-        <v>925</v>
-      </c>
-      <c r="I217" s="7" t="s">
-        <v>62</v>
-      </c>
+        <v>924</v>
+      </c>
+      <c r="I217" s="7"/>
       <c r="J217" s="7"/>
       <c r="K217" s="7"/>
     </row>
     <row r="218">
       <c r="A218" s="100" t="s">
+        <v>925</v>
+      </c>
+      <c r="B218" s="84" t="s">
+        <v>79</v>
+      </c>
+      <c r="C218" s="86" t="s">
+        <v>80</v>
+      </c>
+      <c r="D218" s="86" t="s">
+        <v>81</v>
+      </c>
+      <c r="E218" s="86" t="s">
         <v>926</v>
-      </c>
-      <c r="B218" s="84" t="s">
-        <v>72</v>
-      </c>
-      <c r="C218" s="86" t="s">
-        <v>73</v>
-      </c>
-      <c r="D218" s="86" t="s">
-        <v>74</v>
-      </c>
-      <c r="E218" s="86" t="s">
-        <v>927</v>
       </c>
       <c r="F218" s="86"/>
       <c r="G218" s="72" t="s">
         <v>76</v>
       </c>
       <c r="H218" s="72" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="I218" s="7"/>
       <c r="J218" s="7"/>
@@ -17489,26 +17448,26 @@
     </row>
     <row r="219">
       <c r="A219" s="100" t="s">
+        <v>928</v>
+      </c>
+      <c r="B219" s="84" t="s">
+        <v>93</v>
+      </c>
+      <c r="C219" s="86" t="s">
+        <v>94</v>
+      </c>
+      <c r="D219" s="86" t="s">
+        <v>751</v>
+      </c>
+      <c r="E219" s="86" t="s">
         <v>929</v>
-      </c>
-      <c r="B219" s="84" t="s">
-        <v>79</v>
-      </c>
-      <c r="C219" s="86" t="s">
-        <v>80</v>
-      </c>
-      <c r="D219" s="86" t="s">
-        <v>81</v>
-      </c>
-      <c r="E219" s="86" t="s">
-        <v>930</v>
       </c>
       <c r="F219" s="86"/>
       <c r="G219" s="72" t="s">
-        <v>76</v>
-      </c>
-      <c r="H219" s="138" t="s">
-        <v>931</v>
+        <v>97</v>
+      </c>
+      <c r="H219" s="154" t="s">
+        <v>930</v>
       </c>
       <c r="I219" s="7"/>
       <c r="J219" s="7"/>
@@ -17516,26 +17475,26 @@
     </row>
     <row r="220">
       <c r="A220" s="100" t="s">
+        <v>931</v>
+      </c>
+      <c r="B220" s="84" t="s">
+        <v>100</v>
+      </c>
+      <c r="C220" s="86" t="s">
+        <v>101</v>
+      </c>
+      <c r="D220" s="86" t="s">
+        <v>102</v>
+      </c>
+      <c r="E220" s="86" t="s">
         <v>932</v>
       </c>
-      <c r="B220" s="84" t="s">
-        <v>93</v>
-      </c>
-      <c r="C220" s="86" t="s">
-        <v>94</v>
-      </c>
-      <c r="D220" s="86" t="s">
-        <v>755</v>
-      </c>
-      <c r="E220" s="86" t="s">
+      <c r="F220" s="86"/>
+      <c r="G220" s="86" t="s">
+        <v>104</v>
+      </c>
+      <c r="H220" s="139" t="s">
         <v>933</v>
-      </c>
-      <c r="F220" s="86"/>
-      <c r="G220" s="72" t="s">
-        <v>97</v>
-      </c>
-      <c r="H220" s="138" t="s">
-        <v>934</v>
       </c>
       <c r="I220" s="7"/>
       <c r="J220" s="7"/>
@@ -17543,26 +17502,26 @@
     </row>
     <row r="221">
       <c r="A221" s="100" t="s">
+        <v>934</v>
+      </c>
+      <c r="B221" s="84" t="s">
+        <v>120</v>
+      </c>
+      <c r="C221" s="86" t="s">
+        <v>121</v>
+      </c>
+      <c r="D221" s="86" t="s">
+        <v>122</v>
+      </c>
+      <c r="E221" s="86" t="s">
         <v>935</v>
-      </c>
-      <c r="B221" s="84" t="s">
-        <v>100</v>
-      </c>
-      <c r="C221" s="86" t="s">
-        <v>101</v>
-      </c>
-      <c r="D221" s="86" t="s">
-        <v>102</v>
-      </c>
-      <c r="E221" s="86" t="s">
-        <v>936</v>
       </c>
       <c r="F221" s="86"/>
       <c r="G221" s="86" t="s">
-        <v>104</v>
+        <v>759</v>
       </c>
       <c r="H221" s="86" t="s">
-        <v>937</v>
+        <v>760</v>
       </c>
       <c r="I221" s="7"/>
       <c r="J221" s="7"/>
@@ -17570,25 +17529,25 @@
     </row>
     <row r="222">
       <c r="A222" s="100" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="B222" s="84" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="C222" s="86" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="D222" s="86" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="E222" s="86" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="F222" s="86"/>
       <c r="G222" s="86" t="s">
         <v>763</v>
       </c>
-      <c r="H222" s="141" t="s">
+      <c r="H222" s="139" t="s">
         <v>764</v>
       </c>
       <c r="I222" s="7"/>
@@ -17597,26 +17556,26 @@
     </row>
     <row r="223">
       <c r="A223" s="100" t="s">
+        <v>938</v>
+      </c>
+      <c r="B223" s="84" t="s">
+        <v>766</v>
+      </c>
+      <c r="C223" s="86" t="s">
+        <v>136</v>
+      </c>
+      <c r="D223" s="86" t="s">
+        <v>137</v>
+      </c>
+      <c r="E223" s="86" t="s">
+        <v>939</v>
+      </c>
+      <c r="F223" s="86"/>
+      <c r="G223" s="96" t="s">
+        <v>759</v>
+      </c>
+      <c r="H223" s="96" t="s">
         <v>940</v>
-      </c>
-      <c r="B223" s="84" t="s">
-        <v>114</v>
-      </c>
-      <c r="C223" s="86" t="s">
-        <v>115</v>
-      </c>
-      <c r="D223" s="86" t="s">
-        <v>116</v>
-      </c>
-      <c r="E223" s="86" t="s">
-        <v>941</v>
-      </c>
-      <c r="F223" s="86"/>
-      <c r="G223" s="86" t="s">
-        <v>767</v>
-      </c>
-      <c r="H223" s="86" t="s">
-        <v>768</v>
       </c>
       <c r="I223" s="7"/>
       <c r="J223" s="7"/>
@@ -17624,53 +17583,53 @@
     </row>
     <row r="224">
       <c r="A224" s="100" t="s">
+        <v>941</v>
+      </c>
+      <c r="B224" s="84" t="s">
+        <v>127</v>
+      </c>
+      <c r="C224" s="86" t="s">
+        <v>128</v>
+      </c>
+      <c r="D224" s="86" t="s">
+        <v>129</v>
+      </c>
+      <c r="E224" s="86" t="s">
         <v>942</v>
       </c>
-      <c r="B224" s="84" t="s">
-        <v>770</v>
-      </c>
-      <c r="C224" s="86" t="s">
-        <v>136</v>
-      </c>
-      <c r="D224" s="86" t="s">
-        <v>137</v>
-      </c>
-      <c r="E224" s="86" t="s">
-        <v>943</v>
-      </c>
       <c r="F224" s="86"/>
-      <c r="G224" s="96" t="s">
+      <c r="G224" s="86" t="s">
         <v>763</v>
       </c>
-      <c r="H224" s="96" t="s">
-        <v>944</v>
+      <c r="H224" s="86" t="s">
+        <v>771</v>
       </c>
       <c r="I224" s="7"/>
       <c r="J224" s="7"/>
       <c r="K224" s="7"/>
     </row>
     <row r="225">
-      <c r="A225" s="100" t="s">
+      <c r="A225" s="126" t="s">
+        <v>943</v>
+      </c>
+      <c r="B225" s="148" t="s">
+        <v>944</v>
+      </c>
+      <c r="C225" s="155" t="s">
         <v>945</v>
       </c>
-      <c r="B225" s="84" t="s">
-        <v>127</v>
-      </c>
-      <c r="C225" s="86" t="s">
-        <v>128</v>
-      </c>
-      <c r="D225" s="86" t="s">
-        <v>129</v>
-      </c>
-      <c r="E225" s="86" t="s">
+      <c r="D225" s="155" t="s">
         <v>946</v>
       </c>
-      <c r="F225" s="86"/>
-      <c r="G225" s="86" t="s">
-        <v>767</v>
-      </c>
-      <c r="H225" s="86" t="s">
-        <v>775</v>
+      <c r="E225" s="156" t="s">
+        <v>947</v>
+      </c>
+      <c r="F225" s="156"/>
+      <c r="G225" s="72" t="s">
+        <v>948</v>
+      </c>
+      <c r="H225" s="157" t="s">
+        <v>949</v>
       </c>
       <c r="I225" s="7"/>
       <c r="J225" s="7"/>
@@ -17678,90 +17637,86 @@
     </row>
     <row r="226">
       <c r="A226" s="126" t="s">
-        <v>947</v>
-      </c>
-      <c r="B226" s="149" t="s">
-        <v>948</v>
-      </c>
-      <c r="C226" s="155" t="s">
-        <v>949</v>
-      </c>
-      <c r="D226" s="155" t="s">
         <v>950</v>
       </c>
-      <c r="E226" s="156" t="s">
+      <c r="B226" s="148" t="s">
         <v>951</v>
       </c>
-      <c r="F226" s="156"/>
-      <c r="G226" s="72" t="s">
+      <c r="C226" s="158" t="s">
+        <v>663</v>
+      </c>
+      <c r="D226" s="108"/>
+      <c r="E226" s="108" t="s">
         <v>952</v>
       </c>
-      <c r="H226" s="157" t="s">
-        <v>953</v>
-      </c>
+      <c r="F226" s="108"/>
+      <c r="G226" s="108"/>
+      <c r="H226" s="108"/>
       <c r="I226" s="7"/>
       <c r="J226" s="7"/>
       <c r="K226" s="7"/>
     </row>
     <row r="227">
-      <c r="A227" s="126" t="s">
+      <c r="A227" s="48" t="s">
+        <v>953</v>
+      </c>
+      <c r="B227" s="140" t="s">
         <v>954</v>
       </c>
-      <c r="B227" s="149" t="s">
-        <v>955</v>
-      </c>
-      <c r="C227" s="158" t="s">
-        <v>667</v>
-      </c>
+      <c r="C227" s="108"/>
       <c r="D227" s="108"/>
       <c r="E227" s="108" t="s">
+        <v>955</v>
+      </c>
+      <c r="F227" s="108"/>
+      <c r="G227" s="108" t="s">
         <v>956</v>
       </c>
-      <c r="F227" s="108"/>
-      <c r="G227" s="108"/>
-      <c r="H227" s="108"/>
+      <c r="H227" s="108" t="s">
+        <v>957</v>
+      </c>
       <c r="I227" s="7"/>
       <c r="J227" s="7"/>
       <c r="K227" s="7"/>
     </row>
     <row r="228">
       <c r="A228" s="48" t="s">
-        <v>957</v>
-      </c>
-      <c r="B228" s="142" t="s">
         <v>958</v>
       </c>
-      <c r="C228" s="108"/>
+      <c r="B228" s="140" t="s">
+        <v>959</v>
+      </c>
+      <c r="C228" s="108" t="s">
+        <v>663</v>
+      </c>
       <c r="D228" s="108"/>
-      <c r="E228" s="108" t="s">
-        <v>959</v>
-      </c>
+      <c r="E228" s="108"/>
       <c r="F228" s="108"/>
-      <c r="G228" s="108" t="s">
-        <v>960</v>
-      </c>
-      <c r="H228" s="108" t="s">
-        <v>961</v>
-      </c>
+      <c r="G228" s="108"/>
+      <c r="H228" s="108"/>
       <c r="I228" s="7"/>
       <c r="J228" s="7"/>
       <c r="K228" s="7"/>
     </row>
     <row r="229">
-      <c r="A229" s="48" t="s">
+      <c r="A229" s="100" t="s">
+        <v>960</v>
+      </c>
+      <c r="B229" s="84" t="s">
+        <v>961</v>
+      </c>
+      <c r="C229" s="108"/>
+      <c r="D229" s="108"/>
+      <c r="E229" s="108" t="s">
         <v>962</v>
       </c>
-      <c r="B229" s="142" t="s">
+      <c r="F229" s="108"/>
+      <c r="G229" s="108" t="s">
+        <v>956</v>
+      </c>
+      <c r="H229" s="108" t="s">
         <v>963</v>
       </c>
-      <c r="C229" s="108" t="s">
-        <v>667</v>
-      </c>
-      <c r="D229" s="108"/>
-      <c r="E229" s="108"/>
-      <c r="F229" s="108"/>
-      <c r="G229" s="108"/>
-      <c r="H229" s="108"/>
       <c r="I229" s="7"/>
       <c r="J229" s="7"/>
       <c r="K229" s="7"/>
@@ -17780,7 +17735,7 @@
       </c>
       <c r="F230" s="108"/>
       <c r="G230" s="108" t="s">
-        <v>960</v>
+        <v>956</v>
       </c>
       <c r="H230" s="108" t="s">
         <v>967</v>
@@ -17803,9 +17758,9 @@
       </c>
       <c r="F231" s="108"/>
       <c r="G231" s="108" t="s">
-        <v>960</v>
-      </c>
-      <c r="H231" s="108" t="s">
+        <v>956</v>
+      </c>
+      <c r="H231" s="159" t="s">
         <v>971</v>
       </c>
       <c r="I231" s="7"/>
@@ -17826,7 +17781,7 @@
       </c>
       <c r="F232" s="108"/>
       <c r="G232" s="108" t="s">
-        <v>960</v>
+        <v>956</v>
       </c>
       <c r="H232" s="159" t="s">
         <v>975</v>
@@ -17836,119 +17791,96 @@
       <c r="K232" s="7"/>
     </row>
     <row r="233">
-      <c r="A233" s="100" t="s">
+      <c r="A233" s="126" t="s">
         <v>976</v>
       </c>
-      <c r="B233" s="84" t="s">
+      <c r="B233" s="148" t="s">
         <v>977</v>
       </c>
-      <c r="C233" s="108"/>
+      <c r="C233" s="158" t="s">
+        <v>663</v>
+      </c>
       <c r="D233" s="108"/>
-      <c r="E233" s="108" t="s">
-        <v>978</v>
-      </c>
+      <c r="E233" s="108"/>
       <c r="F233" s="108"/>
-      <c r="G233" s="108" t="s">
-        <v>960</v>
-      </c>
-      <c r="H233" s="159" t="s">
-        <v>979</v>
-      </c>
+      <c r="G233" s="108"/>
+      <c r="H233" s="108"/>
       <c r="I233" s="7"/>
       <c r="J233" s="7"/>
       <c r="K233" s="7"/>
     </row>
     <row r="234">
-      <c r="A234" s="126" t="s">
+      <c r="A234" s="48" t="s">
+        <v>978</v>
+      </c>
+      <c r="B234" s="140" t="s">
+        <v>979</v>
+      </c>
+      <c r="C234" s="160" t="s">
+        <v>579</v>
+      </c>
+      <c r="D234" s="108"/>
+      <c r="E234" s="108" t="s">
         <v>980</v>
       </c>
-      <c r="B234" s="149" t="s">
+      <c r="F234" s="108"/>
+      <c r="G234" s="108" t="s">
+        <v>956</v>
+      </c>
+      <c r="H234" s="161" t="s">
         <v>981</v>
       </c>
-      <c r="C234" s="158" t="s">
-        <v>667</v>
-      </c>
-      <c r="D234" s="108"/>
-      <c r="E234" s="108"/>
-      <c r="F234" s="108"/>
-      <c r="G234" s="108"/>
-      <c r="H234" s="108"/>
       <c r="I234" s="7"/>
       <c r="J234" s="7"/>
       <c r="K234" s="7"/>
     </row>
     <row r="235">
-      <c r="A235" s="48" t="s">
+      <c r="A235" s="126" t="s">
         <v>982</v>
       </c>
-      <c r="B235" s="142" t="s">
+      <c r="B235" s="148" t="s">
         <v>983</v>
       </c>
-      <c r="C235" s="160" t="s">
-        <v>579</v>
+      <c r="C235" s="158" t="s">
+        <v>663</v>
       </c>
       <c r="D235" s="108"/>
-      <c r="E235" s="108" t="s">
-        <v>984</v>
-      </c>
+      <c r="E235" s="108"/>
       <c r="F235" s="108"/>
-      <c r="G235" s="108" t="s">
-        <v>960</v>
-      </c>
-      <c r="H235" s="161" t="s">
-        <v>985</v>
-      </c>
+      <c r="G235" s="108"/>
+      <c r="H235" s="108"/>
       <c r="I235" s="7"/>
       <c r="J235" s="7"/>
       <c r="K235" s="7"/>
     </row>
     <row r="236">
-      <c r="A236" s="126" t="s">
+      <c r="A236" s="48" t="s">
+        <v>984</v>
+      </c>
+      <c r="B236" s="140" t="s">
+        <v>985</v>
+      </c>
+      <c r="C236" s="158" t="s">
         <v>986</v>
       </c>
-      <c r="B236" s="149" t="s">
+      <c r="D236" s="108" t="s">
         <v>987</v>
       </c>
-      <c r="C236" s="158" t="s">
-        <v>667</v>
-      </c>
-      <c r="D236" s="108"/>
-      <c r="E236" s="108"/>
+      <c r="E236" s="162" t="s">
+        <v>988</v>
+      </c>
       <c r="F236" s="108"/>
-      <c r="G236" s="108"/>
-      <c r="H236" s="108"/>
-      <c r="I236" s="7"/>
+      <c r="G236" s="108" t="s">
+        <v>989</v>
+      </c>
+      <c r="H236" s="163" t="s">
+        <v>990</v>
+      </c>
+      <c r="I236" s="7" t="s">
+        <v>991</v>
+      </c>
       <c r="J236" s="7"/>
       <c r="K236" s="7"/>
-    </row>
-    <row r="237">
-      <c r="A237" s="48" t="s">
-        <v>988</v>
-      </c>
-      <c r="B237" s="142" t="s">
-        <v>989</v>
-      </c>
-      <c r="C237" s="158" t="s">
-        <v>990</v>
-      </c>
-      <c r="D237" s="108" t="s">
-        <v>991</v>
-      </c>
-      <c r="E237" s="162" t="s">
-        <v>992</v>
-      </c>
-      <c r="F237" s="108"/>
-      <c r="G237" s="108" t="s">
-        <v>993</v>
-      </c>
-      <c r="H237" s="163" t="s">
-        <v>994</v>
-      </c>
-      <c r="I237" s="7" t="s">
-        <v>995</v>
-      </c>
-      <c r="J237" s="7"/>
-      <c r="K237" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -17994,23 +17926,24 @@
     <hyperlink r:id="rId12" ref="H130"/>
     <hyperlink r:id="rId13" ref="H136"/>
     <hyperlink r:id="rId14" ref="H137"/>
-    <hyperlink r:id="rId15" ref="H150"/>
-    <hyperlink r:id="rId16" ref="H151"/>
-    <hyperlink r:id="rId17" ref="H154"/>
-    <hyperlink r:id="rId18" ref="H155"/>
-    <hyperlink r:id="rId19" ref="H161"/>
-    <hyperlink r:id="rId20" ref="H162"/>
-    <hyperlink r:id="rId21" ref="H163"/>
-    <hyperlink r:id="rId22" ref="H176"/>
-    <hyperlink r:id="rId23" ref="H219"/>
-    <hyperlink r:id="rId24" ref="H220"/>
-    <hyperlink r:id="rId25" ref="H222"/>
-    <hyperlink r:id="rId26" ref="H232"/>
-    <hyperlink r:id="rId27" ref="H233"/>
-    <hyperlink r:id="rId28" ref="H235"/>
+    <hyperlink r:id="rId15" ref="H149"/>
+    <hyperlink r:id="rId16" ref="H150"/>
+    <hyperlink r:id="rId17" ref="H151"/>
+    <hyperlink r:id="rId18" ref="H154"/>
+    <hyperlink r:id="rId19" ref="H155"/>
+    <hyperlink r:id="rId20" ref="H161"/>
+    <hyperlink r:id="rId21" ref="H162"/>
+    <hyperlink r:id="rId22" ref="H175"/>
+    <hyperlink r:id="rId23" ref="H176"/>
+    <hyperlink r:id="rId24" ref="H219"/>
+    <hyperlink r:id="rId25" ref="H220"/>
+    <hyperlink r:id="rId26" ref="H222"/>
+    <hyperlink r:id="rId27" ref="H231"/>
+    <hyperlink r:id="rId28" ref="H232"/>
+    <hyperlink r:id="rId29" ref="H234"/>
   </hyperlinks>
-  <drawing r:id="rId29"/>
-  <legacyDrawing r:id="rId30"/>
+  <drawing r:id="rId30"/>
+  <legacyDrawing r:id="rId31"/>
 </worksheet>
 </file>
 
@@ -18058,14 +17991,14 @@
         <v>378</v>
       </c>
       <c r="C2" s="167" t="s">
-        <v>996</v>
+        <v>992</v>
       </c>
       <c r="D2" s="167"/>
       <c r="E2" s="166" t="s">
-        <v>997</v>
+        <v>993</v>
       </c>
       <c r="F2" s="166" t="s">
-        <v>998</v>
+        <v>994</v>
       </c>
     </row>
     <row r="3">
@@ -18076,54 +18009,54 @@
         <v>378</v>
       </c>
       <c r="C3" s="86" t="s">
-        <v>996</v>
+        <v>992</v>
       </c>
       <c r="D3" s="86"/>
       <c r="E3" s="39" t="s">
-        <v>999</v>
+        <v>995</v>
       </c>
       <c r="F3" s="39" t="s">
-        <v>1000</v>
+        <v>996</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="19" t="s">
+        <v>997</v>
+      </c>
+      <c r="B4" s="72" t="s">
+        <v>998</v>
+      </c>
+      <c r="C4" s="86" t="s">
+        <v>999</v>
+      </c>
+      <c r="D4" s="86" t="s">
+        <v>1000</v>
+      </c>
+      <c r="E4" s="39" t="s">
         <v>1001</v>
       </c>
-      <c r="B4" s="72" t="s">
+      <c r="F4" s="39" t="s">
         <v>1002</v>
-      </c>
-      <c r="C4" s="86" t="s">
-        <v>1003</v>
-      </c>
-      <c r="D4" s="86" t="s">
-        <v>1004</v>
-      </c>
-      <c r="E4" s="39" t="s">
-        <v>1005</v>
-      </c>
-      <c r="F4" s="39" t="s">
-        <v>1006</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="4" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="B5" s="72" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>1007</v>
+        <v>1003</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="E5" s="39" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="F5" s="39" t="s">
-        <v>1008</v>
+        <v>1004</v>
       </c>
       <c r="G5" s="168"/>
       <c r="H5" s="168"/>
@@ -22184,36 +22117,36 @@
   <sheetData>
     <row r="2">
       <c r="A2" s="170" t="s">
-        <v>1009</v>
+        <v>1005</v>
       </c>
       <c r="B2" s="171" t="s">
-        <v>1010</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="172" t="s">
-        <v>1011</v>
+        <v>1007</v>
       </c>
       <c r="B3" s="171" t="s">
-        <v>1012</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="173" t="s">
-        <v>1013</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="174" t="s">
-        <v>1014</v>
+        <v>1010</v>
       </c>
       <c r="B6" s="171" t="s">
-        <v>1015</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="7">
       <c r="B7" s="171" t="s">
-        <v>1016</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="8">
@@ -22224,41 +22157,41 @@
     </row>
     <row r="10">
       <c r="A10" s="174" t="s">
-        <v>1017</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="174" t="s">
-        <v>1018</v>
+        <v>1014</v>
       </c>
       <c r="B11" s="175" t="s">
-        <v>1019</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="12">
       <c r="B12" s="176" t="s">
-        <v>1020</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="177"/>
       <c r="B13" s="178" t="s">
-        <v>1021</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="14">
       <c r="B14" s="179" t="s">
-        <v>1022</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="15">
       <c r="B15" s="180" t="s">
-        <v>1023</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="16">
       <c r="B16" s="181" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="17">
@@ -22267,24 +22200,24 @@
     </row>
     <row r="18">
       <c r="A18" s="174" t="s">
-        <v>1025</v>
+        <v>1021</v>
       </c>
       <c r="B18" s="182" t="s">
-        <v>1026</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="7" t="s">
-        <v>1027</v>
+        <v>1023</v>
       </c>
       <c r="B19" s="123"/>
     </row>
     <row r="21">
       <c r="A21" s="174" t="s">
-        <v>1028</v>
+        <v>1024</v>
       </c>
       <c r="B21" s="183" t="s">
-        <v>1029</v>
+        <v>1025</v>
       </c>
     </row>
   </sheetData>
@@ -22310,52 +22243,52 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>1030</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="36" t="s">
-        <v>1031</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="4" t="s">
-        <v>1032</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="36" t="s">
-        <v>1033</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="4" t="s">
-        <v>1034</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="4" t="s">
-        <v>1035</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="4" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="36" t="s">
-        <v>1037</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="4" t="s">
-        <v>1038</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="4" t="s">
-        <v>1039</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="11">
@@ -22384,65 +22317,65 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>1030</v>
+        <v>1026</v>
       </c>
       <c r="B1" s="184" t="s">
-        <v>1040</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="4" t="s">
-        <v>1041</v>
+        <v>1037</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>1042</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="4" t="s">
-        <v>1043</v>
+        <v>1039</v>
       </c>
       <c r="B3" s="7"/>
     </row>
     <row r="4">
       <c r="A4" s="4" t="s">
-        <v>1044</v>
+        <v>1040</v>
       </c>
       <c r="B4" s="7"/>
     </row>
     <row r="5">
       <c r="A5" s="171" t="s">
-        <v>1045</v>
+        <v>1041</v>
       </c>
       <c r="B5" s="7"/>
     </row>
     <row r="6">
       <c r="A6" s="4" t="s">
-        <v>1046</v>
+        <v>1042</v>
       </c>
       <c r="B6" s="7"/>
     </row>
     <row r="7">
       <c r="A7" s="4" t="s">
-        <v>1047</v>
+        <v>1043</v>
       </c>
       <c r="B7" s="7"/>
     </row>
     <row r="8">
       <c r="A8" s="4" t="s">
-        <v>1048</v>
+        <v>1044</v>
       </c>
       <c r="B8" s="7"/>
     </row>
     <row r="9">
       <c r="A9" s="4" t="s">
-        <v>1049</v>
+        <v>1045</v>
       </c>
       <c r="B9" s="7"/>
     </row>
     <row r="10">
       <c r="A10" s="6" t="s">
-        <v>1050</v>
+        <v>1046</v>
       </c>
     </row>
   </sheetData>
@@ -22486,35 +22419,35 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="185" t="s">
-        <v>1051</v>
+        <v>1047</v>
       </c>
       <c r="C1" s="185" t="s">
-        <v>1052</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="174" t="s">
-        <v>1053</v>
+        <v>1049</v>
       </c>
       <c r="B2" s="174" t="s">
-        <v>1054</v>
+        <v>1050</v>
       </c>
       <c r="C2" s="174" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
       <c r="D2" s="174" t="s">
-        <v>1056</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="39" t="s">
-        <v>1057</v>
+        <v>1053</v>
       </c>
       <c r="B3" s="39" t="s">
-        <v>1058</v>
+        <v>1054</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>1059</v>
+        <v>1055</v>
       </c>
       <c r="D3" s="4" t="str">
         <f t="shared" ref="D3:D4" si="1">RIGHT(A3,LEN(A3) - (FIND(" == ",A3) + 3))</f>
@@ -22523,13 +22456,13 @@
     </row>
     <row r="4">
       <c r="A4" s="39" t="s">
-        <v>1060</v>
+        <v>1056</v>
       </c>
       <c r="B4" s="39" t="s">
-        <v>1058</v>
+        <v>1054</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>1059</v>
+        <v>1055</v>
       </c>
       <c r="D4" s="4" t="str">
         <f t="shared" si="1"/>
@@ -22538,126 +22471,126 @@
     </row>
     <row r="5">
       <c r="A5" s="39" t="s">
-        <v>1061</v>
+        <v>1057</v>
       </c>
       <c r="B5" s="39" t="s">
-        <v>1062</v>
+        <v>1058</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>1059</v>
+        <v>1055</v>
       </c>
       <c r="D5" s="7"/>
     </row>
     <row r="6">
       <c r="A6" s="4" t="s">
-        <v>1063</v>
+        <v>1059</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>1059</v>
+        <v>1055</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>1065</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="4" t="s">
-        <v>1066</v>
+        <v>1062</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>1067</v>
+        <v>1063</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>1059</v>
+        <v>1055</v>
       </c>
       <c r="D7" s="186" t="s">
-        <v>1068</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="4" t="s">
-        <v>1069</v>
+        <v>1065</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>1070</v>
+        <v>1066</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>1059</v>
+        <v>1055</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>1071</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="72" t="s">
-        <v>1072</v>
+        <v>1068</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>1073</v>
+        <v>1069</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>1059</v>
+        <v>1055</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>1074</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="72" t="s">
-        <v>1075</v>
+        <v>1071</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>1073</v>
+        <v>1069</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>1059</v>
+        <v>1055</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>1076</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="72" t="s">
-        <v>1077</v>
+        <v>1073</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>1078</v>
+        <v>1074</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>1059</v>
+        <v>1055</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>1079</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="72" t="s">
-        <v>1080</v>
+        <v>1076</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>1078</v>
+        <v>1074</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>1059</v>
+        <v>1055</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>1081</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="187" t="s">
-        <v>1082</v>
+        <v>1078</v>
       </c>
       <c r="B13" s="187" t="s">
-        <v>1062</v>
+        <v>1058</v>
       </c>
       <c r="C13" s="188" t="s">
-        <v>1059</v>
+        <v>1055</v>
       </c>
       <c r="D13" s="188" t="s">
-        <v>1083</v>
+        <v>1079</v>
       </c>
       <c r="E13" s="189"/>
       <c r="F13" s="189"/>
@@ -22684,16 +22617,16 @@
     </row>
     <row r="14">
       <c r="A14" s="187" t="s">
-        <v>1084</v>
+        <v>1080</v>
       </c>
       <c r="B14" s="187" t="s">
-        <v>1062</v>
+        <v>1058</v>
       </c>
       <c r="C14" s="188" t="s">
-        <v>1059</v>
+        <v>1055</v>
       </c>
       <c r="D14" s="188" t="s">
-        <v>1085</v>
+        <v>1081</v>
       </c>
       <c r="E14" s="189"/>
       <c r="F14" s="189"/>
@@ -22745,51 +22678,51 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="185" t="s">
-        <v>1051</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="174" t="s">
-        <v>1053</v>
+        <v>1049</v>
       </c>
       <c r="B2" s="174" t="s">
-        <v>1054</v>
+        <v>1050</v>
       </c>
       <c r="C2" s="174" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
       <c r="D2" s="174" t="s">
-        <v>1056</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="171" t="s">
-        <v>1086</v>
+        <v>1082</v>
       </c>
       <c r="B3" s="171" t="s">
-        <v>1087</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="171" t="s">
-        <v>1088</v>
+        <v>1084</v>
       </c>
       <c r="B4" s="171" t="s">
-        <v>1089</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="171" t="s">
-        <v>1090</v>
+        <v>1086</v>
       </c>
       <c r="B5" s="171" t="s">
-        <v>1091</v>
+        <v>1087</v>
       </c>
       <c r="C5" s="190" t="s">
-        <v>1089</v>
+        <v>1085</v>
       </c>
       <c r="D5" s="171" t="s">
-        <v>1092</v>
+        <v>1088</v>
       </c>
     </row>
   </sheetData>

--- a/mappings/package_F23/transformation/conceptual_mappings.xlsx
+++ b/mappings/package_F23/transformation/conceptual_mappings.xlsx
@@ -398,7 +398,7 @@
     <t>Mapping Version</t>
   </si>
   <si>
-    <t>6.3.2</t>
+    <t>6.4.0</t>
   </si>
   <si>
     <r>
@@ -731,7 +731,7 @@
         <rFont val="Arial"/>
         <color theme="1"/>
       </rPr>
-      <t xml:space="preserve"> epo:playedBy / legal:registeredAddress / locn:thoroughfare ?</t>
+      <t xml:space="preserve"> epo:playedBy / cv:registeredAddress / locn:thoroughfare ?</t>
     </r>
     <r>
       <rPr>
@@ -785,7 +785,7 @@
         <rFont val="Arial"/>
         <color theme="1"/>
       </rPr>
-      <t xml:space="preserve"> epo:playedBy / legal:registeredAddress / locn:postName ?</t>
+      <t xml:space="preserve"> epo:playedBy / cv:registeredAddress / locn:postName ?</t>
     </r>
     <r>
       <rPr>
@@ -845,7 +845,7 @@
         <rFont val="Arial"/>
         <color theme="1"/>
       </rPr>
-      <t xml:space="preserve"> epo:playedBy / legal:registeredAddress / epo:hasNutsCode ?</t>
+      <t xml:space="preserve"> epo:playedBy / cv:registeredAddress / epo:hasNutsCode ?</t>
     </r>
     <r>
       <rPr>
@@ -902,7 +902,7 @@
         <rFont val="Arial"/>
         <color theme="1"/>
       </rPr>
-      <t xml:space="preserve"> epo:playedBy / legal:registeredAddress / locn:postCode ?</t>
+      <t xml:space="preserve"> epo:playedBy / cv:registeredAddress / locn:postCode ?</t>
     </r>
     <r>
       <rPr>
@@ -959,7 +959,7 @@
         <rFont val="Arial"/>
         <color theme="1"/>
       </rPr>
-      <t xml:space="preserve"> epo:playedBy / legal:registeredAddress / epo:hasCountryCode ?</t>
+      <t xml:space="preserve"> epo:playedBy / cv:registeredAddress / epo:hasCountryCode ?</t>
     </r>
     <r>
       <rPr>
@@ -1585,7 +1585,7 @@
         <rFont val="Arial"/>
         <color theme="1"/>
       </rPr>
-      <t xml:space="preserve"> epo:playedBy / legal:registeredAddress / locn:thoroughfare ?</t>
+      <t xml:space="preserve"> epo:playedBy / cv:registeredAddress / locn:thoroughfare ?</t>
     </r>
     <r>
       <rPr>
@@ -1630,7 +1630,7 @@
         <rFont val="Arial"/>
         <color theme="1"/>
       </rPr>
-      <t xml:space="preserve"> epo:playedBy / legal:registeredAddress / locn:postName ?</t>
+      <t xml:space="preserve"> epo:playedBy / cv:registeredAddress / locn:postName ?</t>
     </r>
     <r>
       <rPr>
@@ -1678,7 +1678,7 @@
         <rFont val="Arial"/>
         <color theme="1"/>
       </rPr>
-      <t xml:space="preserve"> epo:playedBy / legal:registeredAddress / epo:hasNutsCode ?</t>
+      <t xml:space="preserve"> epo:playedBy / cv:registeredAddress / epo:hasNutsCode ?</t>
     </r>
     <r>
       <rPr>
@@ -1723,7 +1723,7 @@
         <rFont val="Arial"/>
         <color theme="1"/>
       </rPr>
-      <t xml:space="preserve"> epo:playedBy / legal:registeredAddress / locn:postCode ?</t>
+      <t xml:space="preserve"> epo:playedBy / cv:registeredAddress / locn:postCode ?</t>
     </r>
     <r>
       <rPr>
@@ -1768,7 +1768,7 @@
         <rFont val="Arial"/>
         <color theme="1"/>
       </rPr>
-      <t xml:space="preserve"> epo:playedBy / legal:registeredAddress / epo:hasCountryCode ?</t>
+      <t xml:space="preserve"> epo:playedBy / cv:registeredAddress / epo:hasCountryCode ?</t>
     </r>
     <r>
       <rPr>
@@ -2123,7 +2123,7 @@
     <t>CONTRACTING_BODY/ADDRESS_PARTICIPATION/ADDRESS</t>
   </si>
   <si>
-    <t>?this epo:playedBy / legal:registeredAddress / locn:thoroughfare ?value .</t>
+    <t>?this epo:playedBy / cv:registeredAddress / locn:thoroughfare ?value .</t>
   </si>
   <si>
     <t>I.3.4.3.4</t>
@@ -2132,7 +2132,7 @@
     <t>CONTRACTING_BODY/ADDRESS_PARTICIPATION/TOWN</t>
   </si>
   <si>
-    <t>?this epo:playedBy / legal:registeredAddress / locn:postName ?value .</t>
+    <t>?this epo:playedBy / cv:registeredAddress / locn:postName ?value .</t>
   </si>
   <si>
     <t>I.3.4.3.5</t>
@@ -2144,7 +2144,7 @@
     <t>CONTRACTING_BODY/ADDRESS_PARTICIPATION/*:NUTS/@CODE</t>
   </si>
   <si>
-    <t>?this epo:playedBy / legal:registeredAddress / epo:hasNutsCode ?value .</t>
+    <t>?this epo:playedBy / cv:registeredAddress / epo:hasNutsCode ?value .</t>
   </si>
   <si>
     <t>I.3.4.3.6</t>
@@ -2153,7 +2153,7 @@
     <t>CONTRACTING_BODY/ADDRESS_PARTICIPATION/POSTAL_CODE</t>
   </si>
   <si>
-    <t>?this epo:playedBy / legal:registeredAddress / locn:postCode ?value .</t>
+    <t>?this epo:playedBy / cv:registeredAddress / locn:postCode ?value .</t>
   </si>
   <si>
     <t>I.3.4.3.7</t>
@@ -2162,7 +2162,7 @@
     <t>CONTRACTING_BODY/ADDRESS_PARTICIPATION/COUNTRY</t>
   </si>
   <si>
-    <t>?this epo:playedBy / legal:registeredAddress / epo:hasCountryCode ?value .</t>
+    <t>?this epo:playedBy / cv:registeredAddress / epo:hasCountryCode ?value .</t>
   </si>
   <si>
     <t>I.3.4.3.8</t>
@@ -4705,7 +4705,7 @@
         <rFont val="Arial"/>
         <color theme="1"/>
       </rPr>
-      <t xml:space="preserve"> epo:playedBy / legal:registeredAddress / locn:thoroughfare ?</t>
+      <t xml:space="preserve"> epo:playedBy / cv:registeredAddress / locn:thoroughfare ?</t>
     </r>
     <r>
       <rPr>
@@ -4751,7 +4751,7 @@
         <rFont val="Arial"/>
         <color theme="1"/>
       </rPr>
-      <t xml:space="preserve"> epo:playedBy / legal:registeredAddress / locn:postName ?</t>
+      <t xml:space="preserve"> epo:playedBy / cv:registeredAddress / locn:postName ?</t>
     </r>
     <r>
       <rPr>
@@ -4801,7 +4801,7 @@
         <rFont val="Arial"/>
         <color theme="1"/>
       </rPr>
-      <t xml:space="preserve"> epo:playedBy / legal:registeredAddress / epo:hasNutsCode ?</t>
+      <t xml:space="preserve"> epo:playedBy / cv:registeredAddress / epo:hasNutsCode ?</t>
     </r>
     <r>
       <rPr>
@@ -4850,7 +4850,7 @@
         <rFont val="Arial"/>
         <color theme="1"/>
       </rPr>
-      <t xml:space="preserve"> epo:playedBy / legal:registeredAddress / locn:postCode ?</t>
+      <t xml:space="preserve"> epo:playedBy / cv:registeredAddress / locn:postCode ?</t>
     </r>
     <r>
       <rPr>
@@ -4896,7 +4896,7 @@
         <rFont val="Arial"/>
         <color theme="1"/>
       </rPr>
-      <t xml:space="preserve"> epo:playedBy / legal:registeredAddress / epo:hasCountryCode ?</t>
+      <t xml:space="preserve"> epo:playedBy / cv:registeredAddress / epo:hasCountryCode ?</t>
     </r>
     <r>
       <rPr>
@@ -5573,7 +5573,7 @@
         <rFont val="Arial"/>
         <color theme="1"/>
       </rPr>
-      <t xml:space="preserve"> epo:playedBy / legal:registeredAddress / locn:thoroughfare ?</t>
+      <t xml:space="preserve"> epo:playedBy / cv:registeredAddress / locn:thoroughfare ?</t>
     </r>
     <r>
       <rPr>
@@ -5618,7 +5618,7 @@
         <rFont val="Arial"/>
         <color theme="1"/>
       </rPr>
-      <t xml:space="preserve"> epo:playedBy / legal:registeredAddress / locn:postName ?</t>
+      <t xml:space="preserve"> epo:playedBy / cv:registeredAddress / locn:postName ?</t>
     </r>
     <r>
       <rPr>
@@ -5663,7 +5663,7 @@
         <rFont val="Arial"/>
         <color theme="1"/>
       </rPr>
-      <t xml:space="preserve"> epo:playedBy / legal:registeredAddress / locn:postCode ?</t>
+      <t xml:space="preserve"> epo:playedBy / cv:registeredAddress / locn:postCode ?</t>
     </r>
     <r>
       <rPr>
@@ -5708,7 +5708,7 @@
         <rFont val="Arial"/>
         <color theme="1"/>
       </rPr>
-      <t xml:space="preserve"> epo:playedBy / legal:registeredAddress / epo:hasCountryCode ?</t>
+      <t xml:space="preserve"> epo:playedBy / cv:registeredAddress / epo:hasCountryCode ?</t>
     </r>
     <r>
       <rPr>
@@ -5858,7 +5858,7 @@
         <rFont val="Arial"/>
         <color theme="1"/>
       </rPr>
-      <t xml:space="preserve"> epo:playedBy / legal:registeredAddress / locn:thoroughfare ?</t>
+      <t xml:space="preserve"> epo:playedBy / cv:registeredAddress / locn:thoroughfare ?</t>
     </r>
     <r>
       <rPr>
@@ -5903,7 +5903,7 @@
         <rFont val="Arial"/>
         <color theme="1"/>
       </rPr>
-      <t xml:space="preserve"> epo:playedBy / legal:registeredAddress / locn:postName ?</t>
+      <t xml:space="preserve"> epo:playedBy / cv:registeredAddress / locn:postName ?</t>
     </r>
     <r>
       <rPr>
@@ -5948,7 +5948,7 @@
         <rFont val="Arial"/>
         <color theme="1"/>
       </rPr>
-      <t xml:space="preserve"> epo:playedBy / legal:registeredAddress / locn:postCode ?</t>
+      <t xml:space="preserve"> epo:playedBy / cv:registeredAddress / locn:postCode ?</t>
     </r>
     <r>
       <rPr>
@@ -5993,7 +5993,7 @@
         <rFont val="Arial"/>
         <color theme="1"/>
       </rPr>
-      <t xml:space="preserve"> epo:playedBy / legal:registeredAddress / epo:hasCountryCode ?</t>
+      <t xml:space="preserve"> epo:playedBy / cv:registeredAddress / epo:hasCountryCode ?</t>
     </r>
     <r>
       <rPr>
@@ -6161,7 +6161,7 @@
         <rFont val="Arial"/>
         <color theme="1"/>
       </rPr>
-      <t xml:space="preserve"> epo:playedBy / legal:registeredAddress / locn:thoroughfare ?</t>
+      <t xml:space="preserve"> epo:playedBy / cv:registeredAddress / locn:thoroughfare ?</t>
     </r>
     <r>
       <rPr>
@@ -6206,7 +6206,7 @@
         <rFont val="Arial"/>
         <color theme="1"/>
       </rPr>
-      <t xml:space="preserve"> epo:playedBy / legal:registeredAddress / locn:postName ?</t>
+      <t xml:space="preserve"> epo:playedBy / cv:registeredAddress / locn:postName ?</t>
     </r>
     <r>
       <rPr>
@@ -6251,7 +6251,7 @@
         <rFont val="Arial"/>
         <color theme="1"/>
       </rPr>
-      <t xml:space="preserve"> epo:playedBy / legal:registeredAddress / locn:postCode ?</t>
+      <t xml:space="preserve"> epo:playedBy / cv:registeredAddress / locn:postCode ?</t>
     </r>
     <r>
       <rPr>
@@ -6296,7 +6296,7 @@
         <rFont val="Arial"/>
         <color theme="1"/>
       </rPr>
-      <t xml:space="preserve"> epo:playedBy / legal:registeredAddress / epo:hasCountryCode ?</t>
+      <t xml:space="preserve"> epo:playedBy / cv:registeredAddress / epo:hasCountryCode ?</t>
     </r>
     <r>
       <rPr>

--- a/mappings/package_F23/transformation/conceptual_mappings.xlsx
+++ b/mappings/package_F23/transformation/conceptual_mappings.xlsx
@@ -363,7 +363,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1572" uniqueCount="1090">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1573" uniqueCount="1091">
   <si>
     <t>Field</t>
   </si>
@@ -398,7 +398,7 @@
     <t>Mapping Version</t>
   </si>
   <si>
-    <t>6.5.0</t>
+    <t>6.5.1</t>
   </si>
   <si>
     <r>
@@ -3402,7 +3402,7 @@
     <t>OBJECT_CONTRACT/OBJECT_DESCR/DURATION</t>
   </si>
   <si>
-    <t>epo:Lot / epo:ContractTerm / epo:Duration / xsd:decimal</t>
+    <t>epo:Lot / epo:ContractTerm / epo:SpecificDuration / xsd:decimal</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -3418,7 +3418,7 @@
     <t xml:space="preserve">If(.="MONTH") </t>
   </si>
   <si>
-    <t>epo:Lot / epo:ContractTerm / epo:Duration / time:TemporalUnit</t>
+    <t>epo:Lot / epo:ContractTerm / epo:SpecificDuration / time:TemporalUnit</t>
   </si>
   <si>
     <t>?this epo:foreseesContractSpecificTerm / epo:definesContractDuration / time:unitType time:unitMonth.</t>
@@ -3682,6 +3682,9 @@
   </si>
   <si>
     <t>BT-71</t>
+  </si>
+  <si>
+    <t>/</t>
   </si>
   <si>
     <t>LEFTI/RESTRICTED_SHELTERED_WORKSHOP</t>
@@ -14592,7 +14595,7 @@
         <v>488</v>
       </c>
       <c r="F105" s="98"/>
-      <c r="G105" s="98" t="s">
+      <c r="G105" s="90" t="s">
         <v>489</v>
       </c>
       <c r="H105" s="100" t="s">
@@ -14615,7 +14618,7 @@
       <c r="F106" s="88" t="s">
         <v>493</v>
       </c>
-      <c r="G106" s="88" t="s">
+      <c r="G106" s="89" t="s">
         <v>494</v>
       </c>
       <c r="H106" s="88" t="s">
@@ -14638,7 +14641,7 @@
       <c r="F107" s="98" t="s">
         <v>497</v>
       </c>
-      <c r="G107" s="98" t="s">
+      <c r="G107" s="90" t="s">
         <v>494</v>
       </c>
       <c r="H107" s="100" t="s">
@@ -14936,18 +14939,20 @@
       <c r="C120" s="14" t="s">
         <v>551</v>
       </c>
-      <c r="D120" s="14"/>
+      <c r="D120" s="87" t="s">
+        <v>552</v>
+      </c>
       <c r="E120" s="49" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="F120" s="36" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="G120" s="49" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="H120" s="118" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="I120" s="7"/>
       <c r="J120" s="7"/>
@@ -14955,26 +14960,26 @@
     </row>
     <row r="121">
       <c r="A121" s="54" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="B121" s="55" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="C121" s="14" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="D121" s="14"/>
       <c r="E121" s="49" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="F121" s="36" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="G121" s="49" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="H121" s="118" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="I121" s="7"/>
       <c r="J121" s="7"/>
@@ -14982,10 +14987,10 @@
     </row>
     <row r="122">
       <c r="A122" s="37" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="B122" s="38" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="C122" s="14"/>
       <c r="D122" s="14"/>
@@ -14999,10 +15004,10 @@
     </row>
     <row r="123">
       <c r="A123" s="46" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="B123" s="47" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="C123" s="14"/>
       <c r="D123" s="14"/>
@@ -15016,26 +15021,26 @@
     </row>
     <row r="124">
       <c r="A124" s="54" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="B124" s="55" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="C124" s="119" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="D124" s="119"/>
       <c r="E124" s="76" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="F124" s="106" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="G124" s="4" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="H124" s="39" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="I124" s="7"/>
       <c r="J124" s="7"/>
@@ -15043,17 +15048,17 @@
     </row>
     <row r="125">
       <c r="A125" s="54" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="B125" s="55" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="C125" s="84" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="D125" s="119"/>
       <c r="E125" s="76" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="F125" s="106"/>
       <c r="G125" s="4" t="s">
@@ -15070,24 +15075,24 @@
     </row>
     <row r="126">
       <c r="A126" s="46" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="B126" s="47" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="C126" s="84" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="D126" s="119"/>
       <c r="E126" s="83" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="F126" s="119"/>
       <c r="G126" s="7" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="H126" s="72" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="I126" s="7"/>
       <c r="J126" s="7"/>
@@ -15095,10 +15100,10 @@
     </row>
     <row r="127">
       <c r="A127" s="46" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="B127" s="47" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="C127" s="14"/>
       <c r="D127" s="14"/>
@@ -15112,26 +15117,26 @@
     </row>
     <row r="128">
       <c r="A128" s="54" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="B128" s="55" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="C128" s="119" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="D128" s="119"/>
       <c r="E128" s="76" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="F128" s="106" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="G128" s="4" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="H128" s="120" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="I128" s="7"/>
       <c r="J128" s="7"/>
@@ -15139,26 +15144,26 @@
     </row>
     <row r="129">
       <c r="A129" s="54" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="B129" s="55" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="C129" s="119" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="D129" s="119"/>
       <c r="E129" s="60" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="F129" s="106" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="G129" s="4" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="H129" s="39" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="I129" s="7"/>
       <c r="J129" s="7"/>
@@ -15166,15 +15171,15 @@
     </row>
     <row r="130">
       <c r="A130" s="121" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="B130" s="95" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="C130" s="7"/>
       <c r="D130" s="7"/>
       <c r="E130" s="39" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="F130" s="4"/>
       <c r="G130" s="40"/>
@@ -15185,7 +15190,7 @@
     </row>
     <row r="131">
       <c r="A131" s="122" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="B131" s="38" t="s">
         <v>8</v>
@@ -15202,10 +15207,10 @@
     </row>
     <row r="132">
       <c r="A132" s="48" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="B132" s="47" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="C132" s="7"/>
       <c r="D132" s="7"/>
@@ -15219,24 +15224,24 @@
     </row>
     <row r="133">
       <c r="A133" s="99" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="B133" s="55" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="C133" s="7"/>
       <c r="D133" s="7"/>
       <c r="E133" s="40" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="F133" s="40" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="G133" s="40" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="H133" s="40" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="I133" s="7"/>
       <c r="J133" s="7"/>
@@ -15244,22 +15249,22 @@
     </row>
     <row r="134">
       <c r="A134" s="99" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="B134" s="55" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C134" s="7"/>
       <c r="D134" s="7"/>
       <c r="E134" s="39" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="F134" s="4"/>
       <c r="G134" s="36" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="H134" s="123" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="I134" s="7"/>
       <c r="J134" s="7"/>
@@ -15267,24 +15272,24 @@
     </row>
     <row r="135">
       <c r="A135" s="46" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="B135" s="47" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="C135" s="119" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="D135" s="83"/>
       <c r="E135" s="76" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="F135" s="4"/>
       <c r="G135" s="4" t="s">
         <v>322</v>
       </c>
       <c r="H135" s="4" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="I135" s="7"/>
       <c r="J135" s="7"/>
@@ -15292,10 +15297,10 @@
     </row>
     <row r="136">
       <c r="A136" s="122" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="B136" s="38" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="C136" s="7"/>
       <c r="D136" s="7"/>
@@ -15309,22 +15314,22 @@
     </row>
     <row r="137">
       <c r="A137" s="48" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="B137" s="47" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="C137" s="14"/>
       <c r="D137" s="14"/>
       <c r="E137" s="49" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="F137" s="36"/>
       <c r="G137" s="49" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="H137" s="123" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="I137" s="7" t="s">
         <v>71</v>
@@ -15334,24 +15339,24 @@
     </row>
     <row r="138">
       <c r="A138" s="46" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="B138" s="47" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="C138" s="7" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="D138" s="7"/>
       <c r="E138" s="60" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="F138" s="4"/>
       <c r="G138" s="39" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="H138" s="39" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="I138" s="7"/>
       <c r="J138" s="7"/>
@@ -15359,24 +15364,24 @@
     </row>
     <row r="139">
       <c r="A139" s="46" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="B139" s="47" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="C139" s="7" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="D139" s="7"/>
       <c r="E139" s="39" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="F139" s="4"/>
       <c r="G139" s="4" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="H139" s="39" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="I139" s="7"/>
       <c r="J139" s="7"/>
@@ -15384,22 +15389,22 @@
     </row>
     <row r="140">
       <c r="A140" s="121" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="B140" s="95" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="C140" s="7"/>
       <c r="D140" s="7"/>
       <c r="E140" s="124" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="F140" s="4"/>
       <c r="G140" s="4" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="H140" s="4" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="I140" s="7"/>
       <c r="J140" s="7"/>
@@ -15407,28 +15412,28 @@
     </row>
     <row r="141">
       <c r="A141" s="48" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="B141" s="47" t="s">
         <v>6</v>
       </c>
       <c r="C141" s="49" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="D141" s="87" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="E141" s="49" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="F141" s="49" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="G141" s="4" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="H141" s="105" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="I141" s="7" t="s">
         <v>63</v>
@@ -15438,26 +15443,26 @@
     </row>
     <row r="142">
       <c r="A142" s="48" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="B142" s="47" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="C142" s="87" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="D142" s="87" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="E142" s="60" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="F142" s="7"/>
       <c r="G142" s="4" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="H142" s="39" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="I142" s="7"/>
       <c r="J142" s="7"/>
@@ -15465,26 +15470,26 @@
     </row>
     <row r="143">
       <c r="A143" s="125" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="B143" s="126" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="C143" s="113" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="D143" s="127" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="E143" s="60" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="F143" s="4"/>
       <c r="G143" s="4" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="H143" s="39" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="I143" s="7"/>
       <c r="J143" s="7"/>
@@ -15492,26 +15497,26 @@
     </row>
     <row r="144">
       <c r="A144" s="125" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="B144" s="126" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="C144" s="113" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="D144" s="113" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="E144" s="60" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="F144" s="4"/>
       <c r="G144" s="4" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="H144" s="39" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="I144" s="7"/>
       <c r="J144" s="7"/>
@@ -15519,13 +15524,13 @@
     </row>
     <row r="145">
       <c r="A145" s="122" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="B145" s="38" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="C145" s="128" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="D145" s="87"/>
       <c r="E145" s="4"/>
@@ -15538,13 +15543,13 @@
     </row>
     <row r="146">
       <c r="A146" s="46" t="s">
+        <v>660</v>
+      </c>
+      <c r="B146" s="47" t="s">
+        <v>661</v>
+      </c>
+      <c r="C146" s="129" t="s">
         <v>659</v>
-      </c>
-      <c r="B146" s="47" t="s">
-        <v>660</v>
-      </c>
-      <c r="C146" s="129" t="s">
-        <v>658</v>
       </c>
       <c r="D146" s="7"/>
       <c r="E146" s="4"/>
@@ -15557,26 +15562,26 @@
     </row>
     <row r="147">
       <c r="A147" s="99" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="B147" s="55" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="C147" s="87" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="D147" s="87" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="E147" s="49" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="F147" s="49"/>
       <c r="G147" s="36" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="H147" s="130" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="I147" s="7"/>
       <c r="J147" s="7"/>
@@ -15584,26 +15589,26 @@
     </row>
     <row r="148">
       <c r="A148" s="99" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="B148" s="55" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="C148" s="87" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="D148" s="87" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="E148" s="49" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="F148" s="49"/>
       <c r="G148" s="4" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="H148" s="120" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="I148" s="7"/>
       <c r="J148" s="7"/>
@@ -15611,24 +15616,24 @@
     </row>
     <row r="149">
       <c r="A149" s="99" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="B149" s="55" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="C149" s="131" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="D149" s="87"/>
       <c r="E149" s="40" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="F149" s="40"/>
       <c r="G149" s="40" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="H149" s="132" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="I149" s="7"/>
       <c r="J149" s="7"/>
@@ -15636,13 +15641,13 @@
     </row>
     <row r="150">
       <c r="A150" s="122" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="B150" s="38" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="C150" s="133" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="D150" s="7"/>
       <c r="E150" s="4"/>
@@ -15655,20 +15660,20 @@
     </row>
     <row r="151">
       <c r="A151" s="99" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="B151" s="55"/>
       <c r="C151" s="87"/>
       <c r="D151" s="7"/>
       <c r="E151" s="60" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="F151" s="49"/>
       <c r="G151" s="36" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="H151" s="130" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="I151" s="7"/>
       <c r="J151" s="7"/>
@@ -15676,49 +15681,49 @@
     </row>
     <row r="152">
       <c r="A152" s="99" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="B152" s="77"/>
       <c r="C152" s="87"/>
       <c r="D152" s="7"/>
       <c r="E152" s="60" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="F152" s="49"/>
       <c r="G152" s="36" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="H152" s="49" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="I152" s="7"/>
       <c r="J152" s="7"/>
       <c r="K152" s="7" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="48" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="B153" s="47" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="C153" s="7" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="D153" s="7" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="E153" s="60" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="F153" s="4"/>
       <c r="G153" s="39" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="H153" s="39" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="I153" s="7"/>
       <c r="J153" s="7"/>
@@ -15726,51 +15731,51 @@
     </row>
     <row r="154">
       <c r="A154" s="48" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="B154" s="47" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="C154" s="134"/>
       <c r="D154" s="134"/>
       <c r="E154" s="60" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="F154" s="135"/>
       <c r="G154" s="49" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="H154" s="136" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="I154" s="7" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="J154" s="7"/>
       <c r="K154" s="7"/>
     </row>
     <row r="155">
       <c r="A155" s="99" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="B155" s="55" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="C155" s="87" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="D155" s="87" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="E155" s="49" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="F155" s="49"/>
       <c r="G155" s="36" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="H155" s="136" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="I155" s="7"/>
       <c r="J155" s="7"/>
@@ -15778,22 +15783,22 @@
     </row>
     <row r="156">
       <c r="A156" s="99" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="B156" s="55" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="C156" s="87"/>
       <c r="D156" s="87"/>
       <c r="E156" s="87" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="F156" s="87"/>
       <c r="G156" s="4" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="H156" s="39" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="I156" s="7"/>
       <c r="J156" s="7"/>
@@ -15801,22 +15806,22 @@
     </row>
     <row r="157">
       <c r="A157" s="99" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="B157" s="55" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="C157" s="87"/>
       <c r="D157" s="87"/>
       <c r="E157" s="49" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="F157" s="49"/>
       <c r="G157" s="4" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="H157" s="39" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="I157" s="7"/>
       <c r="J157" s="7"/>
@@ -15824,22 +15829,22 @@
     </row>
     <row r="158">
       <c r="A158" s="99" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="B158" s="55" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="C158" s="87"/>
       <c r="D158" s="87"/>
       <c r="E158" s="49" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="F158" s="49"/>
       <c r="G158" s="4" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="H158" s="39" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="I158" s="7"/>
       <c r="J158" s="7"/>
@@ -15847,22 +15852,22 @@
     </row>
     <row r="159">
       <c r="A159" s="99" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="B159" s="55" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="C159" s="87"/>
       <c r="D159" s="87"/>
       <c r="E159" s="49" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="F159" s="49"/>
       <c r="G159" s="4" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="H159" s="4" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="I159" s="7"/>
       <c r="J159" s="7"/>
@@ -15870,24 +15875,24 @@
     </row>
     <row r="160">
       <c r="A160" s="99" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="B160" s="55" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="C160" s="137" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="D160" s="87"/>
       <c r="E160" s="49" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="F160" s="39"/>
       <c r="G160" s="36" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="H160" s="49" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="I160" s="7"/>
       <c r="J160" s="7"/>
@@ -15895,13 +15900,13 @@
     </row>
     <row r="161">
       <c r="A161" s="48" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="B161" s="138" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="C161" s="128" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="D161" s="87"/>
       <c r="E161" s="72"/>
@@ -15914,7 +15919,7 @@
     </row>
     <row r="162">
       <c r="A162" s="99" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="B162" s="82" t="s">
         <v>57</v>
@@ -15926,14 +15931,14 @@
         <v>59</v>
       </c>
       <c r="E162" s="87" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="F162" s="87"/>
       <c r="G162" s="96" t="s">
         <v>61</v>
       </c>
       <c r="H162" s="139" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="I162" s="7" t="s">
         <v>63</v>
@@ -15943,7 +15948,7 @@
     </row>
     <row r="163">
       <c r="A163" s="99" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="B163" s="82" t="s">
         <v>65</v>
@@ -15955,14 +15960,14 @@
         <v>67</v>
       </c>
       <c r="E163" s="87" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="F163" s="87"/>
       <c r="G163" s="140" t="s">
         <v>69</v>
       </c>
       <c r="H163" s="140" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="I163" s="7" t="s">
         <v>71</v>
@@ -15972,7 +15977,7 @@
     </row>
     <row r="164">
       <c r="A164" s="99" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="B164" s="82" t="s">
         <v>73</v>
@@ -15984,14 +15989,14 @@
         <v>75</v>
       </c>
       <c r="E164" s="87" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="F164" s="87"/>
       <c r="G164" s="7" t="s">
         <v>77</v>
       </c>
       <c r="H164" s="72" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="I164" s="7"/>
       <c r="J164" s="7"/>
@@ -15999,7 +16004,7 @@
     </row>
     <row r="165">
       <c r="A165" s="99" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="B165" s="82" t="s">
         <v>80</v>
@@ -16011,14 +16016,14 @@
         <v>82</v>
       </c>
       <c r="E165" s="87" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="F165" s="87"/>
       <c r="G165" s="7" t="s">
         <v>77</v>
       </c>
       <c r="H165" s="72" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="I165" s="7"/>
       <c r="J165" s="7"/>
@@ -16026,7 +16031,7 @@
     </row>
     <row r="166">
       <c r="A166" s="99" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="B166" s="82" t="s">
         <v>86</v>
@@ -16038,16 +16043,16 @@
         <v>88</v>
       </c>
       <c r="E166" s="72" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="F166" s="72" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="G166" s="14" t="s">
         <v>91</v>
       </c>
       <c r="H166" s="87" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="I166" s="7"/>
       <c r="J166" s="7"/>
@@ -16055,7 +16060,7 @@
     </row>
     <row r="167">
       <c r="A167" s="99" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="B167" s="82" t="s">
         <v>94</v>
@@ -16064,17 +16069,17 @@
         <v>95</v>
       </c>
       <c r="D167" s="87" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="E167" s="87" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="F167" s="87"/>
       <c r="G167" s="7" t="s">
         <v>98</v>
       </c>
       <c r="H167" s="72" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="I167" s="7"/>
       <c r="J167" s="7"/>
@@ -16082,7 +16087,7 @@
     </row>
     <row r="168">
       <c r="A168" s="99" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="B168" s="82" t="s">
         <v>101</v>
@@ -16094,14 +16099,14 @@
         <v>103</v>
       </c>
       <c r="E168" s="87" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="F168" s="87"/>
       <c r="G168" s="96" t="s">
         <v>105</v>
       </c>
       <c r="H168" s="96" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="I168" s="7"/>
       <c r="J168" s="7"/>
@@ -16109,7 +16114,7 @@
     </row>
     <row r="169">
       <c r="A169" s="99" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="B169" s="82" t="s">
         <v>121</v>
@@ -16121,14 +16126,14 @@
         <v>123</v>
       </c>
       <c r="E169" s="87" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="F169" s="87"/>
       <c r="G169" s="87" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="H169" s="87" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="I169" s="7"/>
       <c r="J169" s="7"/>
@@ -16136,7 +16141,7 @@
     </row>
     <row r="170">
       <c r="A170" s="99" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="B170" s="82" t="s">
         <v>115</v>
@@ -16148,14 +16153,14 @@
         <v>117</v>
       </c>
       <c r="E170" s="109" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="F170" s="109"/>
       <c r="G170" s="87" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="H170" s="87" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="I170" s="7"/>
       <c r="J170" s="7"/>
@@ -16163,10 +16168,10 @@
     </row>
     <row r="171">
       <c r="A171" s="99" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="B171" s="82" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="C171" s="87" t="s">
         <v>137</v>
@@ -16175,14 +16180,14 @@
         <v>138</v>
       </c>
       <c r="E171" s="109" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="F171" s="87"/>
       <c r="G171" s="140" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="H171" s="140" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="I171" s="7"/>
       <c r="J171" s="7"/>
@@ -16190,7 +16195,7 @@
     </row>
     <row r="172">
       <c r="A172" s="99" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="B172" s="82" t="s">
         <v>128</v>
@@ -16202,14 +16207,14 @@
         <v>130</v>
       </c>
       <c r="E172" s="87" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="F172" s="87"/>
       <c r="G172" s="87" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="H172" s="87" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="I172" s="7"/>
       <c r="J172" s="7"/>
@@ -16217,26 +16222,26 @@
     </row>
     <row r="173">
       <c r="A173" s="99" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="B173" s="82" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="C173" s="14" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="D173" s="87" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="E173" s="92" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="F173" s="72"/>
       <c r="G173" s="7" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="H173" s="141" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="I173" s="7"/>
       <c r="J173" s="7"/>
@@ -16248,14 +16253,14 @@
       <c r="C174" s="87"/>
       <c r="D174" s="87"/>
       <c r="E174" s="92" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="F174" s="72"/>
       <c r="G174" s="96" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="H174" s="96" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="I174" s="7"/>
       <c r="J174" s="7"/>
@@ -16263,13 +16268,13 @@
     </row>
     <row r="175">
       <c r="A175" s="48" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="B175" s="138" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="C175" s="129" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="D175" s="7"/>
       <c r="E175" s="7"/>
@@ -16282,10 +16287,10 @@
     </row>
     <row r="176">
       <c r="A176" s="99" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="B176" s="82" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="C176" s="87" t="s">
         <v>474</v>
@@ -16294,14 +16299,14 @@
         <v>361</v>
       </c>
       <c r="E176" s="109" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="F176" s="109"/>
       <c r="G176" s="14" t="s">
         <v>476</v>
       </c>
       <c r="H176" s="142" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="I176" s="7"/>
       <c r="J176" s="7"/>
@@ -16309,7 +16314,7 @@
     </row>
     <row r="177">
       <c r="A177" s="107" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="B177" s="73" t="s">
         <v>366</v>
@@ -16319,14 +16324,14 @@
       </c>
       <c r="D177" s="87"/>
       <c r="E177" s="109" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="F177" s="109"/>
       <c r="G177" s="14" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="H177" s="87" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="I177" s="7"/>
       <c r="J177" s="7"/>
@@ -16334,26 +16339,26 @@
     </row>
     <row r="178">
       <c r="A178" s="99" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="B178" s="82" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="C178" s="87" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="D178" s="87" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="E178" s="109" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="F178" s="109"/>
       <c r="G178" s="7" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="H178" s="72" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="I178" s="7"/>
       <c r="J178" s="7"/>
@@ -16361,7 +16366,7 @@
     </row>
     <row r="179">
       <c r="A179" s="107" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="B179" s="73" t="s">
         <v>366</v>
@@ -16371,14 +16376,14 @@
       </c>
       <c r="D179" s="87"/>
       <c r="E179" s="109" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="F179" s="109"/>
       <c r="G179" s="7" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="H179" s="72" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="I179" s="7"/>
       <c r="J179" s="7"/>
@@ -16386,26 +16391,26 @@
     </row>
     <row r="180">
       <c r="A180" s="99" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="B180" s="82" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="C180" s="88" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="D180" s="88" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="E180" s="144" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="F180" s="144"/>
       <c r="G180" s="89" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="H180" s="89" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="I180" s="7"/>
       <c r="J180" s="7"/>
@@ -16413,7 +16418,7 @@
     </row>
     <row r="181">
       <c r="A181" s="107" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="B181" s="73" t="s">
         <v>366</v>
@@ -16423,14 +16428,14 @@
       </c>
       <c r="D181" s="88"/>
       <c r="E181" s="144" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="F181" s="146"/>
       <c r="G181" s="89" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="H181" s="89" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="I181" s="7"/>
       <c r="J181" s="7"/>
@@ -16438,26 +16443,26 @@
     </row>
     <row r="182">
       <c r="A182" s="99" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="B182" s="82" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="C182" s="88" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="D182" s="88" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="E182" s="144" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="F182" s="144"/>
       <c r="G182" s="89" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="H182" s="89" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="I182" s="7"/>
       <c r="J182" s="7"/>
@@ -16465,7 +16470,7 @@
     </row>
     <row r="183">
       <c r="A183" s="107" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="B183" s="73" t="s">
         <v>366</v>
@@ -16475,14 +16480,14 @@
       </c>
       <c r="D183" s="88"/>
       <c r="E183" s="146" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="F183" s="146"/>
       <c r="G183" s="89" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="H183" s="89" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="I183" s="7"/>
       <c r="J183" s="7"/>
@@ -16490,26 +16495,26 @@
     </row>
     <row r="184">
       <c r="A184" s="99" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="B184" s="82" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="C184" s="88" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="D184" s="88" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="E184" s="146" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="F184" s="88"/>
       <c r="G184" s="88" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="H184" s="88" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="I184" s="7"/>
       <c r="J184" s="7"/>
@@ -16517,10 +16522,10 @@
     </row>
     <row r="185">
       <c r="A185" s="121" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="B185" s="147" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="C185" s="7"/>
       <c r="D185" s="7"/>
@@ -16534,10 +16539,10 @@
     </row>
     <row r="186">
       <c r="A186" s="37" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="B186" s="148" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="C186" s="119"/>
       <c r="D186" s="83"/>
@@ -16551,24 +16556,24 @@
     </row>
     <row r="187">
       <c r="A187" s="46" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="B187" s="138" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="C187" s="119" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="D187" s="83"/>
       <c r="E187" s="149" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="F187" s="116"/>
       <c r="G187" s="7" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="H187" s="32" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="I187" s="7"/>
       <c r="J187" s="7"/>
@@ -16576,24 +16581,24 @@
     </row>
     <row r="188">
       <c r="A188" s="46" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="B188" s="138" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="C188" s="119" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="D188" s="83"/>
       <c r="E188" s="149" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="F188" s="116"/>
       <c r="G188" s="7" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="H188" s="32" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="I188" s="7"/>
       <c r="J188" s="7"/>
@@ -16601,24 +16606,24 @@
     </row>
     <row r="189">
       <c r="A189" s="46" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="B189" s="138" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="C189" s="119" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="D189" s="83"/>
       <c r="E189" s="149" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="F189" s="116"/>
       <c r="G189" s="7" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="H189" s="32" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="I189" s="7"/>
       <c r="J189" s="7"/>
@@ -16626,7 +16631,7 @@
     </row>
     <row r="190">
       <c r="A190" s="122" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="B190" s="148" t="s">
         <v>530</v>
@@ -16638,14 +16643,14 @@
         <v>532</v>
       </c>
       <c r="E190" s="109" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="F190" s="109"/>
       <c r="G190" s="150" t="s">
         <v>322</v>
       </c>
       <c r="H190" s="151" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="I190" s="7" t="s">
         <v>63</v>
@@ -16655,13 +16660,13 @@
     </row>
     <row r="191">
       <c r="A191" s="122" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="B191" s="148" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="C191" s="128" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="D191" s="7"/>
       <c r="E191" s="116"/>
@@ -16674,17 +16679,17 @@
     </row>
     <row r="192">
       <c r="A192" s="48" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="B192" s="138" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="C192" s="152" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="D192" s="7"/>
       <c r="E192" s="86" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="F192" s="109"/>
       <c r="G192" s="14" t="s">
@@ -16699,7 +16704,7 @@
     </row>
     <row r="193">
       <c r="A193" s="99" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="B193" s="82" t="s">
         <v>57</v>
@@ -16711,14 +16716,14 @@
         <v>59</v>
       </c>
       <c r="E193" s="109" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="F193" s="109"/>
       <c r="G193" s="72" t="s">
         <v>61</v>
       </c>
       <c r="H193" s="72" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="I193" s="7" t="s">
         <v>63</v>
@@ -16728,7 +16733,7 @@
     </row>
     <row r="194">
       <c r="A194" s="99" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="B194" s="82" t="s">
         <v>73</v>
@@ -16740,14 +16745,14 @@
         <v>75</v>
       </c>
       <c r="E194" s="109" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="F194" s="109"/>
       <c r="G194" s="72" t="s">
         <v>77</v>
       </c>
       <c r="H194" s="72" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="I194" s="7"/>
       <c r="J194" s="7"/>
@@ -16755,7 +16760,7 @@
     </row>
     <row r="195">
       <c r="A195" s="99" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="B195" s="82" t="s">
         <v>80</v>
@@ -16767,14 +16772,14 @@
         <v>82</v>
       </c>
       <c r="E195" s="87" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="F195" s="87"/>
       <c r="G195" s="72" t="s">
         <v>77</v>
       </c>
       <c r="H195" s="72" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="I195" s="7"/>
       <c r="J195" s="7"/>
@@ -16782,7 +16787,7 @@
     </row>
     <row r="196">
       <c r="A196" s="99" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="B196" s="82" t="s">
         <v>94</v>
@@ -16791,17 +16796,17 @@
         <v>95</v>
       </c>
       <c r="D196" s="87" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="E196" s="87" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="F196" s="87"/>
       <c r="G196" s="72" t="s">
         <v>98</v>
       </c>
       <c r="H196" s="72" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="I196" s="7"/>
       <c r="J196" s="7"/>
@@ -16809,7 +16814,7 @@
     </row>
     <row r="197">
       <c r="A197" s="99" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="B197" s="82" t="s">
         <v>101</v>
@@ -16821,14 +16826,14 @@
         <v>103</v>
       </c>
       <c r="E197" s="87" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="F197" s="87"/>
       <c r="G197" s="87" t="s">
         <v>105</v>
       </c>
       <c r="H197" s="87" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="I197" s="7"/>
       <c r="J197" s="7"/>
@@ -16836,7 +16841,7 @@
     </row>
     <row r="198">
       <c r="A198" s="99" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="B198" s="82" t="s">
         <v>121</v>
@@ -16848,14 +16853,14 @@
         <v>123</v>
       </c>
       <c r="E198" s="87" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="F198" s="87"/>
       <c r="G198" s="87" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="H198" s="87" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="I198" s="7"/>
       <c r="J198" s="7"/>
@@ -16863,7 +16868,7 @@
     </row>
     <row r="199">
       <c r="A199" s="99" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="B199" s="82" t="s">
         <v>115</v>
@@ -16875,14 +16880,14 @@
         <v>117</v>
       </c>
       <c r="E199" s="87" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="F199" s="87"/>
       <c r="G199" s="87" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="H199" s="87" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="I199" s="7"/>
       <c r="J199" s="7"/>
@@ -16890,10 +16895,10 @@
     </row>
     <row r="200">
       <c r="A200" s="99" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="B200" s="82" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="C200" s="87" t="s">
         <v>137</v>
@@ -16902,14 +16907,14 @@
         <v>138</v>
       </c>
       <c r="E200" s="87" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="F200" s="87"/>
       <c r="G200" s="140" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="H200" s="140" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="I200" s="7"/>
       <c r="J200" s="7"/>
@@ -16917,7 +16922,7 @@
     </row>
     <row r="201">
       <c r="A201" s="99" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="B201" s="82" t="s">
         <v>128</v>
@@ -16929,14 +16934,14 @@
         <v>130</v>
       </c>
       <c r="E201" s="87" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="F201" s="87"/>
       <c r="G201" s="87" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="H201" s="87" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="I201" s="7"/>
       <c r="J201" s="7"/>
@@ -16944,21 +16949,21 @@
     </row>
     <row r="202">
       <c r="A202" s="48" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="B202" s="138" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="C202" s="152" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="D202" s="153"/>
       <c r="E202" s="72" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="F202" s="87"/>
       <c r="G202" s="14" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="H202" s="14" t="s">
         <v>182</v>
@@ -16969,7 +16974,7 @@
     </row>
     <row r="203">
       <c r="A203" s="99" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="B203" s="82" t="s">
         <v>57</v>
@@ -16981,14 +16986,14 @@
         <v>59</v>
       </c>
       <c r="E203" s="87" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="F203" s="87"/>
       <c r="G203" s="72" t="s">
         <v>61</v>
       </c>
       <c r="H203" s="72" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="I203" s="7" t="s">
         <v>63</v>
@@ -16998,7 +17003,7 @@
     </row>
     <row r="204">
       <c r="A204" s="99" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="B204" s="82" t="s">
         <v>73</v>
@@ -17010,14 +17015,14 @@
         <v>75</v>
       </c>
       <c r="E204" s="87" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="F204" s="87"/>
       <c r="G204" s="72" t="s">
         <v>77</v>
       </c>
       <c r="H204" s="72" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="I204" s="7"/>
       <c r="J204" s="7"/>
@@ -17025,7 +17030,7 @@
     </row>
     <row r="205">
       <c r="A205" s="99" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="B205" s="82" t="s">
         <v>80</v>
@@ -17037,14 +17042,14 @@
         <v>82</v>
       </c>
       <c r="E205" s="87" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="F205" s="87"/>
       <c r="G205" s="72" t="s">
         <v>77</v>
       </c>
       <c r="H205" s="72" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="I205" s="7"/>
       <c r="J205" s="7"/>
@@ -17052,7 +17057,7 @@
     </row>
     <row r="206">
       <c r="A206" s="99" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="B206" s="82" t="s">
         <v>94</v>
@@ -17061,17 +17066,17 @@
         <v>95</v>
       </c>
       <c r="D206" s="87" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="E206" s="87" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="F206" s="87"/>
       <c r="G206" s="72" t="s">
         <v>98</v>
       </c>
       <c r="H206" s="72" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="I206" s="7"/>
       <c r="J206" s="7"/>
@@ -17079,7 +17084,7 @@
     </row>
     <row r="207">
       <c r="A207" s="99" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="B207" s="82" t="s">
         <v>101</v>
@@ -17091,14 +17096,14 @@
         <v>103</v>
       </c>
       <c r="E207" s="87" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="F207" s="87"/>
       <c r="G207" s="72" t="s">
         <v>105</v>
       </c>
       <c r="H207" s="72" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="I207" s="7"/>
       <c r="J207" s="7"/>
@@ -17106,7 +17111,7 @@
     </row>
     <row r="208">
       <c r="A208" s="99" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="B208" s="82" t="s">
         <v>121</v>
@@ -17118,14 +17123,14 @@
         <v>123</v>
       </c>
       <c r="E208" s="87" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="F208" s="87"/>
       <c r="G208" s="87" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="H208" s="87" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="I208" s="7"/>
       <c r="J208" s="7"/>
@@ -17133,7 +17138,7 @@
     </row>
     <row r="209">
       <c r="A209" s="99" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="B209" s="82" t="s">
         <v>115</v>
@@ -17145,14 +17150,14 @@
         <v>117</v>
       </c>
       <c r="E209" s="87" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="F209" s="87"/>
       <c r="G209" s="87" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="H209" s="87" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="I209" s="7"/>
       <c r="J209" s="7"/>
@@ -17160,10 +17165,10 @@
     </row>
     <row r="210">
       <c r="A210" s="99" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="B210" s="82" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="C210" s="87" t="s">
         <v>137</v>
@@ -17172,14 +17177,14 @@
         <v>138</v>
       </c>
       <c r="E210" s="87" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="F210" s="87"/>
       <c r="G210" s="140" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="H210" s="140" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="I210" s="7"/>
       <c r="J210" s="7"/>
@@ -17187,7 +17192,7 @@
     </row>
     <row r="211">
       <c r="A211" s="99" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="B211" s="82" t="s">
         <v>128</v>
@@ -17199,14 +17204,14 @@
         <v>130</v>
       </c>
       <c r="E211" s="87" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="F211" s="87"/>
       <c r="G211" s="87" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="H211" s="87" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="I211" s="7"/>
       <c r="J211" s="7"/>
@@ -17214,26 +17219,26 @@
     </row>
     <row r="212">
       <c r="A212" s="48" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="B212" s="138" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="C212" s="87" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="D212" s="87" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="E212" s="87" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="F212" s="87"/>
       <c r="G212" s="72" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="H212" s="151" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="I212" s="7"/>
       <c r="J212" s="7"/>
@@ -17241,15 +17246,15 @@
     </row>
     <row r="213">
       <c r="A213" s="48" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="B213" s="138" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="C213" s="7"/>
       <c r="D213" s="7"/>
       <c r="E213" s="72" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="F213" s="87"/>
       <c r="G213" s="14" t="s">
@@ -17264,7 +17269,7 @@
     </row>
     <row r="214">
       <c r="A214" s="99" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="B214" s="82" t="s">
         <v>57</v>
@@ -17276,14 +17281,14 @@
         <v>59</v>
       </c>
       <c r="E214" s="87" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="F214" s="87"/>
       <c r="G214" s="72" t="s">
         <v>61</v>
       </c>
       <c r="H214" s="72" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="I214" s="7" t="s">
         <v>63</v>
@@ -17293,7 +17298,7 @@
     </row>
     <row r="215">
       <c r="A215" s="99" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="B215" s="82" t="s">
         <v>73</v>
@@ -17305,14 +17310,14 @@
         <v>75</v>
       </c>
       <c r="E215" s="87" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="F215" s="87"/>
       <c r="G215" s="72" t="s">
         <v>77</v>
       </c>
       <c r="H215" s="72" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="I215" s="7"/>
       <c r="J215" s="7"/>
@@ -17320,7 +17325,7 @@
     </row>
     <row r="216">
       <c r="A216" s="99" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="B216" s="82" t="s">
         <v>80</v>
@@ -17332,14 +17337,14 @@
         <v>82</v>
       </c>
       <c r="E216" s="87" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="F216" s="87"/>
       <c r="G216" s="72" t="s">
         <v>77</v>
       </c>
       <c r="H216" s="72" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="I216" s="7"/>
       <c r="J216" s="7"/>
@@ -17347,7 +17352,7 @@
     </row>
     <row r="217">
       <c r="A217" s="99" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="B217" s="82" t="s">
         <v>94</v>
@@ -17356,17 +17361,17 @@
         <v>95</v>
       </c>
       <c r="D217" s="87" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="E217" s="87" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="F217" s="87"/>
       <c r="G217" s="72" t="s">
         <v>98</v>
       </c>
       <c r="H217" s="72" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="I217" s="7"/>
       <c r="J217" s="7"/>
@@ -17374,7 +17379,7 @@
     </row>
     <row r="218">
       <c r="A218" s="99" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="B218" s="82" t="s">
         <v>101</v>
@@ -17386,14 +17391,14 @@
         <v>103</v>
       </c>
       <c r="E218" s="87" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="F218" s="87"/>
       <c r="G218" s="87" t="s">
         <v>105</v>
       </c>
       <c r="H218" s="87" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="I218" s="7"/>
       <c r="J218" s="7"/>
@@ -17401,7 +17406,7 @@
     </row>
     <row r="219">
       <c r="A219" s="99" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="B219" s="82" t="s">
         <v>121</v>
@@ -17413,14 +17418,14 @@
         <v>123</v>
       </c>
       <c r="E219" s="87" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="F219" s="87"/>
       <c r="G219" s="87" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="H219" s="142" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="I219" s="7"/>
       <c r="J219" s="7"/>
@@ -17428,7 +17433,7 @@
     </row>
     <row r="220">
       <c r="A220" s="99" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="B220" s="82" t="s">
         <v>115</v>
@@ -17440,14 +17445,14 @@
         <v>117</v>
       </c>
       <c r="E220" s="87" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="F220" s="87"/>
       <c r="G220" s="87" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="H220" s="142" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="I220" s="7"/>
       <c r="J220" s="7"/>
@@ -17455,10 +17460,10 @@
     </row>
     <row r="221">
       <c r="A221" s="99" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="B221" s="82" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="C221" s="87" t="s">
         <v>137</v>
@@ -17467,14 +17472,14 @@
         <v>138</v>
       </c>
       <c r="E221" s="87" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="F221" s="87"/>
       <c r="G221" s="140" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="H221" s="140" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="I221" s="7"/>
       <c r="J221" s="7"/>
@@ -17482,7 +17487,7 @@
     </row>
     <row r="222">
       <c r="A222" s="99" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="B222" s="82" t="s">
         <v>128</v>
@@ -17494,14 +17499,14 @@
         <v>130</v>
       </c>
       <c r="E222" s="87" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="F222" s="87"/>
       <c r="G222" s="87" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="H222" s="142" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="I222" s="7"/>
       <c r="J222" s="7"/>
@@ -17509,26 +17514,26 @@
     </row>
     <row r="223">
       <c r="A223" s="122" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="B223" s="148" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="C223" s="154" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="D223" s="154" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="E223" s="155" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="F223" s="155"/>
       <c r="G223" s="72" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="H223" s="156" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="I223" s="7"/>
       <c r="J223" s="7"/>
@@ -17536,17 +17541,17 @@
     </row>
     <row r="224">
       <c r="A224" s="122" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="B224" s="148" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="C224" s="157" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="D224" s="88"/>
       <c r="E224" s="88" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="F224" s="88"/>
       <c r="G224" s="88"/>
@@ -17557,22 +17562,22 @@
     </row>
     <row r="225">
       <c r="A225" s="48" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="B225" s="138" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="C225" s="88"/>
       <c r="D225" s="88"/>
       <c r="E225" s="88" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="F225" s="88"/>
       <c r="G225" s="88" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="H225" s="88" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="I225" s="7"/>
       <c r="J225" s="7"/>
@@ -17580,13 +17585,13 @@
     </row>
     <row r="226">
       <c r="A226" s="48" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="B226" s="138" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="C226" s="88" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="D226" s="88"/>
       <c r="E226" s="88"/>
@@ -17599,22 +17604,22 @@
     </row>
     <row r="227">
       <c r="A227" s="99" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="B227" s="82" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="C227" s="88"/>
       <c r="D227" s="88"/>
       <c r="E227" s="88" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="F227" s="88"/>
       <c r="G227" s="88" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="H227" s="88" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="I227" s="7"/>
       <c r="J227" s="7"/>
@@ -17622,22 +17627,22 @@
     </row>
     <row r="228">
       <c r="A228" s="99" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="B228" s="82" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="C228" s="88"/>
       <c r="D228" s="88"/>
       <c r="E228" s="88" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="F228" s="88"/>
       <c r="G228" s="88" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="H228" s="88" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="I228" s="7"/>
       <c r="J228" s="7"/>
@@ -17645,22 +17650,22 @@
     </row>
     <row r="229">
       <c r="A229" s="99" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="B229" s="82" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="C229" s="88"/>
       <c r="D229" s="88"/>
       <c r="E229" s="88" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="F229" s="88"/>
       <c r="G229" s="88" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="H229" s="158" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="I229" s="7"/>
       <c r="J229" s="7"/>
@@ -17668,22 +17673,22 @@
     </row>
     <row r="230">
       <c r="A230" s="99" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="B230" s="82" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="C230" s="88"/>
       <c r="D230" s="88"/>
       <c r="E230" s="88" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="F230" s="88"/>
       <c r="G230" s="88" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="H230" s="158" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="I230" s="7"/>
       <c r="J230" s="7"/>
@@ -17691,13 +17696,13 @@
     </row>
     <row r="231">
       <c r="A231" s="122" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="B231" s="148" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="C231" s="157" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="D231" s="88"/>
       <c r="E231" s="88"/>
@@ -17710,24 +17715,24 @@
     </row>
     <row r="232">
       <c r="A232" s="48" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="B232" s="138" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="C232" s="159" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="D232" s="88"/>
       <c r="E232" s="88" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="F232" s="88"/>
       <c r="G232" s="88" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="H232" s="160" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="I232" s="7"/>
       <c r="J232" s="7"/>
@@ -17735,13 +17740,13 @@
     </row>
     <row r="233">
       <c r="A233" s="122" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="B233" s="148" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="C233" s="157" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="D233" s="88"/>
       <c r="E233" s="88"/>
@@ -17754,29 +17759,29 @@
     </row>
     <row r="234">
       <c r="A234" s="48" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="B234" s="138" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="C234" s="157" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="D234" s="88" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="E234" s="161" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="F234" s="88"/>
       <c r="G234" s="88" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="H234" s="158" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="I234" s="7" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="J234" s="7"/>
       <c r="K234" s="7"/>
@@ -17884,7 +17889,7 @@
     </row>
     <row r="2">
       <c r="A2" s="19" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="B2" s="39" t="s">
         <v>142</v>
@@ -17896,15 +17901,15 @@
         <v>144</v>
       </c>
       <c r="E2" s="39" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="F2" s="39" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="19" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="B3" s="72" t="s">
         <v>142</v>
@@ -17916,10 +17921,10 @@
         <v>144</v>
       </c>
       <c r="E3" s="39" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="F3" s="39" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
     </row>
     <row r="4">
@@ -17930,14 +17935,14 @@
         <v>373</v>
       </c>
       <c r="C4" s="87" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="D4" s="87"/>
       <c r="E4" s="39" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="F4" s="39" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
     </row>
     <row r="5">
@@ -17948,14 +17953,14 @@
         <v>373</v>
       </c>
       <c r="C5" s="87" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="D5" s="87"/>
       <c r="E5" s="39" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="F5" s="39" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="G5" s="163"/>
       <c r="H5" s="163"/>
@@ -17980,22 +17985,22 @@
     </row>
     <row r="6">
       <c r="A6" s="19" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="B6" s="72" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="C6" s="87" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="D6" s="87" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="E6" s="39" t="s">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="F6" s="39" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="G6" s="163"/>
       <c r="H6" s="163"/>
@@ -18020,22 +18025,22 @@
     </row>
     <row r="7">
       <c r="A7" s="19" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="B7" s="39" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="E7" s="39" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="F7" s="39" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="8">
@@ -22040,36 +22045,36 @@
   <sheetData>
     <row r="2">
       <c r="A2" s="164" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="B2" s="165" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="166" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="B3" s="165" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="167" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="168" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="B6" s="165" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="7">
       <c r="B7" s="165" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="8">
@@ -22080,41 +22085,41 @@
     </row>
     <row r="10">
       <c r="A10" s="168" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="168" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="B11" s="169" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="12">
       <c r="B12" s="170" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="171"/>
       <c r="B13" s="172" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="14">
       <c r="B14" s="173" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="15">
       <c r="B15" s="174" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="16">
       <c r="B16" s="175" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="17">
@@ -22123,24 +22128,24 @@
     </row>
     <row r="18">
       <c r="A18" s="168" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="B18" s="176" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="7" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="B19" s="84"/>
     </row>
     <row r="21">
       <c r="A21" s="168" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="B21" s="177" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
     </row>
   </sheetData>
@@ -22166,52 +22171,52 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="36" t="s">
-        <v>1028</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="4" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="36" t="s">
-        <v>1030</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="4" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="4" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="4" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="36" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="4" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="4" t="s">
-        <v>1036</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="11">
@@ -22240,65 +22245,65 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="B1" s="178" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="4" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="4" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="B3" s="7"/>
     </row>
     <row r="4">
       <c r="A4" s="4" t="s">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="B4" s="7"/>
     </row>
     <row r="5">
       <c r="A5" s="165" t="s">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="B5" s="7"/>
     </row>
     <row r="6">
       <c r="A6" s="4" t="s">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="B6" s="7"/>
     </row>
     <row r="7">
       <c r="A7" s="4" t="s">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="B7" s="7"/>
     </row>
     <row r="8">
       <c r="A8" s="4" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="B8" s="7"/>
     </row>
     <row r="9">
       <c r="A9" s="4" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="B9" s="7"/>
     </row>
     <row r="10">
       <c r="A10" s="6" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
     </row>
   </sheetData>
@@ -22342,35 +22347,35 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="179" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="C1" s="179" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="168" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="B2" s="168" t="s">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="C2" s="168" t="s">
-        <v>1052</v>
+        <v>1053</v>
       </c>
       <c r="D2" s="168" t="s">
-        <v>1053</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="39" t="s">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="B3" s="39" t="s">
-        <v>1055</v>
+        <v>1056</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>1056</v>
+        <v>1057</v>
       </c>
       <c r="D3" s="4" t="str">
         <f t="shared" ref="D3:D4" si="1">RIGHT(A3,LEN(A3) - (FIND(" == ",A3) + 3))</f>
@@ -22379,13 +22384,13 @@
     </row>
     <row r="4">
       <c r="A4" s="39" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B4" s="39" t="s">
+        <v>1056</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>1057</v>
-      </c>
-      <c r="B4" s="39" t="s">
-        <v>1055</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>1056</v>
       </c>
       <c r="D4" s="4" t="str">
         <f t="shared" si="1"/>
@@ -22394,126 +22399,126 @@
     </row>
     <row r="5">
       <c r="A5" s="39" t="s">
-        <v>1058</v>
+        <v>1059</v>
       </c>
       <c r="B5" s="39" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>1056</v>
+        <v>1057</v>
       </c>
       <c r="D5" s="7"/>
     </row>
     <row r="6">
       <c r="A6" s="4" t="s">
-        <v>1060</v>
+        <v>1061</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>1061</v>
+        <v>1062</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>1056</v>
+        <v>1057</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="4" t="s">
-        <v>1063</v>
+        <v>1064</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>1064</v>
+        <v>1065</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>1056</v>
+        <v>1057</v>
       </c>
       <c r="D7" s="180" t="s">
-        <v>1065</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="4" t="s">
-        <v>1066</v>
+        <v>1067</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>1067</v>
+        <v>1068</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>1056</v>
+        <v>1057</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="72" t="s">
-        <v>1069</v>
+        <v>1070</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>1056</v>
+        <v>1057</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>1071</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="72" t="s">
-        <v>1072</v>
+        <v>1073</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>1056</v>
+        <v>1057</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="72" t="s">
-        <v>1074</v>
+        <v>1075</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>1056</v>
+        <v>1057</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="72" t="s">
-        <v>1077</v>
+        <v>1078</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>1056</v>
+        <v>1057</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>1078</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="181" t="s">
-        <v>1079</v>
+        <v>1080</v>
       </c>
       <c r="B13" s="181" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="C13" s="182" t="s">
-        <v>1056</v>
+        <v>1057</v>
       </c>
       <c r="D13" s="182" t="s">
-        <v>1080</v>
+        <v>1081</v>
       </c>
       <c r="E13" s="183"/>
       <c r="F13" s="183"/>
@@ -22540,16 +22545,16 @@
     </row>
     <row r="14">
       <c r="A14" s="181" t="s">
-        <v>1081</v>
+        <v>1082</v>
       </c>
       <c r="B14" s="181" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="C14" s="182" t="s">
-        <v>1056</v>
+        <v>1057</v>
       </c>
       <c r="D14" s="182" t="s">
-        <v>1082</v>
+        <v>1083</v>
       </c>
       <c r="E14" s="183"/>
       <c r="F14" s="183"/>
@@ -22601,51 +22606,51 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="179" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="168" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="B2" s="168" t="s">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="C2" s="168" t="s">
-        <v>1052</v>
+        <v>1053</v>
       </c>
       <c r="D2" s="168" t="s">
-        <v>1053</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="165" t="s">
-        <v>1083</v>
+        <v>1084</v>
       </c>
       <c r="B3" s="165" t="s">
-        <v>1084</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="165" t="s">
-        <v>1085</v>
+        <v>1086</v>
       </c>
       <c r="B4" s="165" t="s">
-        <v>1086</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="165" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B5" s="165" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C5" s="184" t="s">
         <v>1087</v>
       </c>
-      <c r="B5" s="165" t="s">
-        <v>1088</v>
-      </c>
-      <c r="C5" s="184" t="s">
-        <v>1086</v>
-      </c>
       <c r="D5" s="165" t="s">
-        <v>1089</v>
+        <v>1090</v>
       </c>
     </row>
   </sheetData>

--- a/mappings/package_F23/transformation/conceptual_mappings.xlsx
+++ b/mappings/package_F23/transformation/conceptual_mappings.xlsx
@@ -398,7 +398,7 @@
     <t>Mapping Version</t>
   </si>
   <si>
-    <t>6.5.1</t>
+    <t>6.6.0</t>
   </si>
   <si>
     <r>
@@ -474,7 +474,7 @@
     <t>Start Date</t>
   </si>
   <si>
-    <t>2020-10-08</t>
+    <t>2014-01-01</t>
   </si>
   <si>
     <t>one value, or empty cell</t>
@@ -486,7 +486,7 @@
     <t>Min XSD Version</t>
   </si>
   <si>
-    <t>R2.0.9.S03.E01</t>
+    <t>R2.0.9.S01.E01</t>
   </si>
   <si>
     <t>This fiels to be checked and updated if necessary</t>
@@ -8314,7 +8314,7 @@
       <c r="A14" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="4" t="s">
         <v>26</v>
       </c>
       <c r="C14" s="20" t="s">

--- a/mappings/package_F23/transformation/conceptual_mappings.xlsx
+++ b/mappings/package_F23/transformation/conceptual_mappings.xlsx
@@ -363,7 +363,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1573" uniqueCount="1091">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1586" uniqueCount="1097">
   <si>
     <t>Field</t>
   </si>
@@ -398,7 +398,7 @@
     <t>Mapping Version</t>
   </si>
   <si>
-    <t>6.6.0</t>
+    <t>6.6.1</t>
   </si>
   <si>
     <r>
@@ -3793,6 +3793,10 @@
     <t>?this epo:specifiesSelectionCriterion / epo:hasSelectionCriterionType &lt;http://publications.europa.eu/resource/authority/selection-criterion/sui-act&gt;.</t>
   </si>
   <si>
+    <t xml:space="preserve">In the future version of EPO this will be mapped to the "summary" criterion via the Procedure(!)
+</t>
+  </si>
+  <si>
     <t>III.2.1.2</t>
   </si>
   <si>
@@ -3805,6 +3809,9 @@
     <t>LEFTI/REFERENCE_TO_LAW</t>
   </si>
   <si>
+    <t>In the future version of EPO this will be mapped to the "summary" criterion via the Procedure(!)</t>
+  </si>
+  <si>
     <t>III.2.2</t>
   </si>
   <si>
@@ -3880,7 +3887,7 @@
     <t>PROCEDURE/PT_AWARD_CONTRACT_WITH_PRIOR_PUBLICATION</t>
   </si>
   <si>
-    <t>If(exists(.))</t>
+    <t>If(exists(PROCEDURE/NOTICE_NUMBER_OJ))</t>
   </si>
   <si>
     <t>epo:ResultNotice / epo:CompetitionNotice</t>
@@ -3889,13 +3896,28 @@
     <t>?this epo:refersToPrevious ?value .</t>
   </si>
   <si>
-    <t>IV.1.1.2</t>
-  </si>
-  <si>
-    <t>Award procedure without prior publication of a concession notice in the cases listed below (please complete Annex D4)</t>
-  </si>
-  <si>
-    <t>PROCEDURE/PT_AWARD_CONTRACT_WITHOUT_PUBLICATION</t>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve">The meaning of this mapping is that the </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+        <u/>
+      </rPr>
+      <t>previous</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve"> Notice instance, which we create when we map the `PROCEDURE/NOTICE_NUMBER_OJ` XPath, will get a secondary rdf:type : epo:CompetitionNotice.</t>
+    </r>
   </si>
   <si>
     <t>epo:Procedure / at-voc:procurement-procedure-type</t>
@@ -3922,6 +3944,85 @@
         <color rgb="FF1155CC"/>
         <u/>
       </rPr>
+      <t>http://publications.europa.eu/resource/authority/procurement-procedure-type/open</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+      </rPr>
+      <t>&gt; .</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve">This is an interim solution until more appropriate terms will be provided in the at-voc:procurement-procedure-type vocabulary.
+See comments on EPO GH issue #424: </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>https://github.com/OP-TED/ePO/issues/424#issuecomment-1386886542</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> 
+and on Mappings GH issue #260: </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>https://github.com/OP-TED/ted-rdf-mapping/issues/255#issuecomment-1386847</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve">021 </t>
+    </r>
+  </si>
+  <si>
+    <t>IV.1.1.2</t>
+  </si>
+  <si>
+    <t>Award procedure without prior publication of a concession notice in the cases listed below (please complete Annex D4)</t>
+  </si>
+  <si>
+    <t>PROCEDURE/PT_AWARD_CONTRACT_WITHOUT_PUBLICATION</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+      </rPr>
+      <t>?this</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+      </rPr>
+      <t xml:space="preserve"> epo:hasProcedureType &lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
       <t>http://publications.europa.eu/resource/authority/procurement-procedure-type/neg-wo-call</t>
     </r>
     <r>
@@ -3933,6 +4034,44 @@
     </r>
   </si>
   <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve">This is an interim solution until more appropriate terms will be provided in the at-voc:procurement-procedure-type vocabulary.
+See comments on EPO GH issue #424: </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>https://github.com/OP-TED/ePO/issues/424#issuecomment-1386886542</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> 
+and on Mappings GH issue #260: </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>https://github.com/OP-TED/ted-rdf-mapping/issues/255#issuecomment-1386847</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve">021 </t>
+    </r>
+  </si>
+  <si>
     <t>IV.1.11</t>
   </si>
   <si>
@@ -3970,6 +4109,7 @@
       <rPr>
         <rFont val="Arial"/>
         <b/>
+        <color theme="1"/>
       </rPr>
       <t xml:space="preserve">?this </t>
     </r>
@@ -3977,6 +4117,7 @@
       <rPr>
         <rFont val="Arial"/>
         <b val="0"/>
+        <color theme="1"/>
       </rPr>
       <t xml:space="preserve">epo:refersToPrevious / epo:hasID / epo:hasIdentifierValue </t>
     </r>
@@ -3984,6 +4125,7 @@
       <rPr>
         <rFont val="Arial"/>
         <b/>
+        <color theme="1"/>
       </rPr>
       <t>?value .</t>
     </r>
@@ -4290,7 +4432,7 @@
     <t>Notice reference</t>
   </si>
   <si>
-    <t>AWARD_CONTRACT/NO_AWARDED_CONTRACT/PROCUREMENT_DISCONTINUED/NO_DOC_EXT/@PUBLICATION</t>
+    <t>AWARD_CONTRACT/NO_AWARDED_CONTRACT/PROCUREMENT_DISCONTINUED/NO_DOC_EXT</t>
   </si>
   <si>
     <t>epo:LotAwardOutcome / rdf:langString</t>
@@ -4357,7 +4499,6 @@
     <r>
       <rPr>
         <rFont val="Arial"/>
-        <color theme="1"/>
       </rPr>
       <t>?</t>
     </r>
@@ -4365,14 +4506,12 @@
       <rPr>
         <rFont val="Arial"/>
         <b/>
-        <color theme="1"/>
       </rPr>
       <t>this</t>
     </r>
     <r>
       <rPr>
         <rFont val="Arial"/>
-        <color theme="1"/>
       </rPr>
       <t xml:space="preserve"> epo:hasAwardDecisionDate ?</t>
     </r>
@@ -4380,14 +4519,12 @@
       <rPr>
         <rFont val="Arial"/>
         <b/>
-        <color theme="1"/>
       </rPr>
       <t>value</t>
     </r>
     <r>
       <rPr>
         <rFont val="Arial"/>
-        <color theme="1"/>
       </rPr>
       <t xml:space="preserve"> .</t>
     </r>
@@ -4607,6 +4744,7 @@
     <r>
       <rPr>
         <rFont val="Arial"/>
+        <color theme="1"/>
       </rPr>
       <t>?</t>
     </r>
@@ -4614,12 +4752,14 @@
       <rPr>
         <rFont val="Arial"/>
         <b/>
+        <color theme="1"/>
       </rPr>
       <t>this</t>
     </r>
     <r>
       <rPr>
         <rFont val="Arial"/>
+        <color theme="1"/>
       </rPr>
       <t xml:space="preserve"> epo:playedBy / epo:hasLegalName ?</t>
     </r>
@@ -4627,12 +4767,14 @@
       <rPr>
         <rFont val="Arial"/>
         <b/>
+        <color theme="1"/>
       </rPr>
       <t>value</t>
     </r>
     <r>
       <rPr>
         <rFont val="Arial"/>
+        <color theme="1"/>
       </rPr>
       <t xml:space="preserve"> .</t>
     </r>
@@ -5062,6 +5204,7 @@
     <r>
       <rPr>
         <rFont val="Arial"/>
+        <color theme="1"/>
       </rPr>
       <t>?</t>
     </r>
@@ -5069,12 +5212,14 @@
       <rPr>
         <rFont val="Arial"/>
         <b/>
+        <color theme="1"/>
       </rPr>
       <t>this</t>
     </r>
     <r>
       <rPr>
         <rFont val="Arial"/>
+        <color theme="1"/>
       </rPr>
       <t xml:space="preserve"> epo:hasRestatedEstimatedValue / epo:hasAmountValue ?</t>
     </r>
@@ -5082,12 +5227,14 @@
       <rPr>
         <rFont val="Arial"/>
         <b/>
+        <color theme="1"/>
       </rPr>
       <t>value</t>
     </r>
     <r>
       <rPr>
         <rFont val="Arial"/>
+        <color theme="1"/>
       </rPr>
       <t xml:space="preserve"> .</t>
     </r>
@@ -6285,7 +6432,6 @@
     <r>
       <rPr>
         <rFont val="Arial"/>
-        <color theme="1"/>
       </rPr>
       <t>?</t>
     </r>
@@ -6293,14 +6439,12 @@
       <rPr>
         <rFont val="Arial"/>
         <b/>
-        <color theme="1"/>
       </rPr>
       <t>this</t>
     </r>
     <r>
       <rPr>
         <rFont val="Arial"/>
-        <color theme="1"/>
       </rPr>
       <t xml:space="preserve"> epo:playedBy / cv:registeredAddress / epo:hasCountryCode ?</t>
     </r>
@@ -6308,14 +6452,12 @@
       <rPr>
         <rFont val="Arial"/>
         <b/>
-        <color theme="1"/>
       </rPr>
       <t>value</t>
     </r>
     <r>
       <rPr>
         <rFont val="Arial"/>
-        <color theme="1"/>
       </rPr>
       <t xml:space="preserve"> .</t>
     </r>
@@ -6342,7 +6484,6 @@
     <r>
       <rPr>
         <rFont val="Arial"/>
-        <color theme="1"/>
       </rPr>
       <t>?this epo:playedBy / epo:hasPrimaryContactPoint / epo:hasInternetAddress ?</t>
     </r>
@@ -6350,14 +6491,12 @@
       <rPr>
         <rFont val="Arial"/>
         <b/>
-        <color theme="1"/>
       </rPr>
       <t>value</t>
     </r>
     <r>
       <rPr>
         <rFont val="Arial"/>
-        <color theme="1"/>
       </rPr>
       <t xml:space="preserve"> .</t>
     </r>
@@ -6965,7 +7104,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
   </numFmts>
-  <fonts count="35">
+  <fonts count="38">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -7042,6 +7181,11 @@
       <name val="Arial"/>
     </font>
     <font>
+      <u/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+    </font>
+    <font>
       <b/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -7052,6 +7196,12 @@
       <name val="Arial"/>
     </font>
     <font>
+      <strike/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <strike/>
       <u/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
@@ -7094,6 +7244,11 @@
     </font>
     <font>
       <color rgb="FF231F20"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <color rgb="FF0000FF"/>
       <name val="Arial"/>
     </font>
     <font>
@@ -7340,7 +7495,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="185">
+  <cellXfs count="190">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -7446,13 +7601,13 @@
     <xf borderId="0" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
     <xf borderId="0" fillId="6" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="6" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="7" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
@@ -7591,6 +7746,9 @@
     <xf borderId="0" fillId="7" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
+    <xf borderId="0" fillId="7" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
@@ -7625,7 +7783,7 @@
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="15" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
@@ -7641,6 +7799,9 @@
     </xf>
     <xf borderId="9" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="6" fontId="13" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
@@ -7663,7 +7824,7 @@
     <xf borderId="0" fillId="4" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="4" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="9" fontId="12" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
@@ -7675,10 +7836,10 @@
     <xf borderId="0" fillId="4" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="4" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="4" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
@@ -7687,13 +7848,19 @@
     <xf borderId="0" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="4" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="13" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="5" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
@@ -7702,7 +7869,10 @@
     <xf borderId="0" fillId="6" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="4" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="10" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -7723,17 +7893,11 @@
     <xf quotePrefix="1" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="4" fontId="23" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="7" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf quotePrefix="1" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="16" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment vertical="bottom"/>
@@ -7741,7 +7905,7 @@
     <xf borderId="0" fillId="16" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="4" fontId="24" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -7750,16 +7914,13 @@
     <xf borderId="0" fillId="8" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="7" fillId="0" fontId="23" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
     <xf borderId="7" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="24" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="4" fontId="25" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="25" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="26" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -7795,10 +7956,13 @@
     <xf borderId="0" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
+    <xf borderId="7" fillId="4" fontId="27" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
     <xf borderId="0" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="26" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="4" fontId="28" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -7807,35 +7971,41 @@
     <xf quotePrefix="1" borderId="0" fillId="15" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="15" fontId="27" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="15" fontId="29" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="15" fontId="30" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf quotePrefix="1" borderId="0" fillId="15" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
+    <xf borderId="0" fillId="15" fontId="31" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
     <xf borderId="0" fillId="15" fontId="28" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="15" fontId="26" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="15" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="10" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="29" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="10" fillId="0" fontId="30" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="32" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="10" fillId="0" fontId="33" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="30" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="33" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="30" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="33" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="30" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="33" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -7862,16 +8032,16 @@
     <xf borderId="0" fillId="17" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="31" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="34" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="32" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="35" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="33" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="36" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="18" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
@@ -7881,7 +8051,7 @@
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="18" fontId="6" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="4" fontId="34" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="4" fontId="37" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -11389,10 +11559,10 @@
       <c r="H3" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="I3" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="J3" s="4"/>
+      <c r="J3" s="37"/>
       <c r="K3" s="4" t="s">
         <v>48</v>
       </c>
@@ -11417,8 +11587,8 @@
       <c r="F4" s="4"/>
       <c r="G4" s="36"/>
       <c r="H4" s="36"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
+      <c r="I4" s="37"/>
+      <c r="J4" s="37"/>
       <c r="K4" s="7"/>
       <c r="L4" s="28"/>
       <c r="M4" s="28"/>
@@ -11429,15 +11599,15 @@
       <c r="R4" s="28"/>
     </row>
     <row r="5">
-      <c r="A5" s="37" t="s">
+      <c r="A5" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="B5" s="38" t="s">
+      <c r="B5" s="39" t="s">
         <v>52</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
-      <c r="E5" s="39" t="s">
+      <c r="E5" s="37" t="s">
         <v>53</v>
       </c>
       <c r="F5" s="4"/>
@@ -11447,8 +11617,8 @@
       <c r="H5" s="36" t="s">
         <v>55</v>
       </c>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
+      <c r="I5" s="37"/>
+      <c r="J5" s="37"/>
       <c r="K5" s="7"/>
       <c r="L5" s="28"/>
       <c r="M5" s="28"/>
@@ -11481,10 +11651,10 @@
       <c r="H6" s="43" t="s">
         <v>62</v>
       </c>
-      <c r="I6" s="4" t="s">
+      <c r="I6" s="37" t="s">
         <v>63</v>
       </c>
-      <c r="J6" s="4"/>
+      <c r="J6" s="37"/>
       <c r="K6" s="7"/>
       <c r="L6" s="28"/>
       <c r="M6" s="28"/>
@@ -11517,10 +11687,10 @@
       <c r="H7" s="45" t="s">
         <v>70</v>
       </c>
-      <c r="I7" s="4" t="s">
+      <c r="I7" s="37" t="s">
         <v>71</v>
       </c>
-      <c r="J7" s="4"/>
+      <c r="J7" s="37"/>
       <c r="K7" s="7"/>
       <c r="L7" s="28"/>
       <c r="M7" s="28"/>
@@ -11547,14 +11717,14 @@
         <v>76</v>
       </c>
       <c r="F8" s="4"/>
-      <c r="G8" s="4" t="s">
+      <c r="G8" s="37" t="s">
         <v>77</v>
       </c>
-      <c r="H8" s="39" t="s">
+      <c r="H8" s="37" t="s">
         <v>78</v>
       </c>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
+      <c r="I8" s="37"/>
+      <c r="J8" s="37"/>
       <c r="K8" s="7"/>
       <c r="L8" s="28"/>
       <c r="M8" s="28"/>
@@ -11581,14 +11751,14 @@
         <v>83</v>
       </c>
       <c r="F9" s="4"/>
-      <c r="G9" s="4" t="s">
+      <c r="G9" s="37" t="s">
         <v>77</v>
       </c>
-      <c r="H9" s="39" t="s">
+      <c r="H9" s="37" t="s">
         <v>84</v>
       </c>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
+      <c r="I9" s="37"/>
+      <c r="J9" s="37"/>
       <c r="K9" s="7"/>
       <c r="L9" s="28"/>
       <c r="M9" s="28"/>
@@ -11623,8 +11793,8 @@
       <c r="H10" s="49" t="s">
         <v>92</v>
       </c>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
+      <c r="I10" s="37"/>
+      <c r="J10" s="37"/>
       <c r="K10" s="7"/>
       <c r="L10" s="28"/>
       <c r="M10" s="28"/>
@@ -11651,14 +11821,14 @@
         <v>97</v>
       </c>
       <c r="F11" s="4"/>
-      <c r="G11" s="4" t="s">
+      <c r="G11" s="37" t="s">
         <v>98</v>
       </c>
-      <c r="H11" s="39" t="s">
+      <c r="H11" s="37" t="s">
         <v>99</v>
       </c>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
+      <c r="I11" s="37"/>
+      <c r="J11" s="37"/>
       <c r="K11" s="7"/>
       <c r="L11" s="28"/>
       <c r="M11" s="28"/>
@@ -11691,8 +11861,8 @@
       <c r="H12" s="45" t="s">
         <v>106</v>
       </c>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
+      <c r="I12" s="37"/>
+      <c r="J12" s="37"/>
       <c r="K12" s="7"/>
       <c r="L12" s="28"/>
       <c r="M12" s="28"/>
@@ -11725,10 +11895,10 @@
       <c r="H13" s="49" t="s">
         <v>113</v>
       </c>
-      <c r="I13" s="4" t="s">
+      <c r="I13" s="37" t="s">
         <v>63</v>
       </c>
-      <c r="J13" s="4"/>
+      <c r="J13" s="37"/>
       <c r="K13" s="7"/>
       <c r="L13" s="28"/>
       <c r="M13" s="28"/>
@@ -11761,8 +11931,8 @@
       <c r="H14" s="50" t="s">
         <v>119</v>
       </c>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
+      <c r="I14" s="37"/>
+      <c r="J14" s="37"/>
       <c r="K14" s="7"/>
       <c r="L14" s="28"/>
       <c r="M14" s="28"/>
@@ -11795,8 +11965,8 @@
       <c r="H15" s="49" t="s">
         <v>126</v>
       </c>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
+      <c r="I15" s="37"/>
+      <c r="J15" s="37"/>
       <c r="K15" s="7"/>
       <c r="L15" s="28"/>
       <c r="M15" s="28"/>
@@ -11829,8 +11999,8 @@
       <c r="H16" s="49" t="s">
         <v>132</v>
       </c>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
+      <c r="I16" s="37"/>
+      <c r="J16" s="37"/>
       <c r="K16" s="7"/>
       <c r="L16" s="28"/>
       <c r="M16" s="28"/>
@@ -11851,10 +12021,10 @@
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
+      <c r="G17" s="37"/>
+      <c r="H17" s="37"/>
+      <c r="I17" s="37"/>
+      <c r="J17" s="37"/>
       <c r="K17" s="7"/>
       <c r="L17" s="28"/>
       <c r="M17" s="28"/>
@@ -11887,8 +12057,8 @@
       <c r="H18" s="45" t="s">
         <v>140</v>
       </c>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
+      <c r="I18" s="37"/>
+      <c r="J18" s="37"/>
       <c r="K18" s="7"/>
       <c r="L18" s="28"/>
       <c r="M18" s="28"/>
@@ -11915,14 +12085,14 @@
         <v>145</v>
       </c>
       <c r="F19" s="4"/>
-      <c r="G19" s="4" t="s">
+      <c r="G19" s="37" t="s">
         <v>146</v>
       </c>
       <c r="H19" s="49" t="s">
         <v>147</v>
       </c>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
+      <c r="I19" s="37"/>
+      <c r="J19" s="37"/>
       <c r="K19" s="7"/>
       <c r="L19" s="28"/>
       <c r="M19" s="28"/>
@@ -11933,10 +12103,10 @@
       <c r="R19" s="28"/>
     </row>
     <row r="20">
-      <c r="A20" s="37" t="s">
+      <c r="A20" s="38" t="s">
         <v>148</v>
       </c>
-      <c r="B20" s="38" t="s">
+      <c r="B20" s="39" t="s">
         <v>149</v>
       </c>
       <c r="C20" s="4"/>
@@ -12255,7 +12425,7 @@
       <c r="H29" s="69" t="s">
         <v>190</v>
       </c>
-      <c r="I29" s="39" t="s">
+      <c r="I29" s="37" t="s">
         <v>63</v>
       </c>
       <c r="J29" s="4"/>
@@ -12299,7 +12469,7 @@
       <c r="H30" s="69" t="s">
         <v>193</v>
       </c>
-      <c r="I30" s="39" t="s">
+      <c r="I30" s="37" t="s">
         <v>71</v>
       </c>
       <c r="J30" s="4"/>
@@ -12393,10 +12563,10 @@
       <c r="D33" s="49" t="s">
         <v>88</v>
       </c>
-      <c r="E33" s="39" t="s">
+      <c r="E33" s="37" t="s">
         <v>201</v>
       </c>
-      <c r="F33" s="39" t="s">
+      <c r="F33" s="37" t="s">
         <v>202</v>
       </c>
       <c r="G33" s="65" t="s">
@@ -12708,7 +12878,7 @@
       <c r="E42" s="4"/>
       <c r="F42" s="4"/>
       <c r="G42" s="4"/>
-      <c r="H42" s="39"/>
+      <c r="H42" s="37"/>
       <c r="I42" s="7"/>
       <c r="J42" s="7"/>
       <c r="K42" s="7"/>
@@ -12734,7 +12904,7 @@
       <c r="E43" s="40" t="s">
         <v>231</v>
       </c>
-      <c r="F43" s="40"/>
+      <c r="F43" s="56"/>
       <c r="G43" s="40" t="s">
         <v>232</v>
       </c>
@@ -12766,7 +12936,7 @@
       <c r="E44" s="40" t="s">
         <v>237</v>
       </c>
-      <c r="F44" s="40"/>
+      <c r="F44" s="56"/>
       <c r="G44" s="40" t="s">
         <v>54</v>
       </c>
@@ -12796,7 +12966,7 @@
       <c r="E45" s="81" t="s">
         <v>237</v>
       </c>
-      <c r="F45" s="40"/>
+      <c r="F45" s="56"/>
       <c r="G45" s="40" t="s">
         <v>183</v>
       </c>
@@ -12830,7 +13000,7 @@
       <c r="E46" s="85" t="s">
         <v>241</v>
       </c>
-      <c r="F46" s="85"/>
+      <c r="F46" s="86"/>
       <c r="G46" s="85" t="s">
         <v>54</v>
       </c>
@@ -12864,14 +13034,14 @@
       <c r="E47" s="40" t="s">
         <v>243</v>
       </c>
-      <c r="F47" s="40"/>
+      <c r="F47" s="56"/>
       <c r="G47" s="40" t="s">
         <v>61</v>
       </c>
       <c r="H47" s="40" t="s">
         <v>244</v>
       </c>
-      <c r="I47" s="39" t="s">
+      <c r="I47" s="37" t="s">
         <v>63</v>
       </c>
       <c r="J47" s="4"/>
@@ -12900,14 +13070,14 @@
       <c r="E48" s="40" t="s">
         <v>246</v>
       </c>
-      <c r="F48" s="40"/>
+      <c r="F48" s="56"/>
       <c r="G48" s="40" t="s">
         <v>69</v>
       </c>
       <c r="H48" s="40" t="s">
         <v>247</v>
       </c>
-      <c r="I48" s="39" t="s">
+      <c r="I48" s="37" t="s">
         <v>71</v>
       </c>
       <c r="J48" s="4"/>
@@ -12936,7 +13106,7 @@
       <c r="E49" s="40" t="s">
         <v>249</v>
       </c>
-      <c r="F49" s="40"/>
+      <c r="F49" s="56"/>
       <c r="G49" s="40" t="s">
         <v>77</v>
       </c>
@@ -12978,7 +13148,7 @@
       <c r="E50" s="40" t="s">
         <v>252</v>
       </c>
-      <c r="F50" s="40"/>
+      <c r="F50" s="56"/>
       <c r="G50" s="40" t="s">
         <v>77</v>
       </c>
@@ -13048,7 +13218,7 @@
       <c r="E52" s="40" t="s">
         <v>259</v>
       </c>
-      <c r="F52" s="40"/>
+      <c r="F52" s="56"/>
       <c r="G52" s="40" t="s">
         <v>98</v>
       </c>
@@ -13082,7 +13252,7 @@
       <c r="E53" s="40" t="s">
         <v>262</v>
       </c>
-      <c r="F53" s="40"/>
+      <c r="F53" s="56"/>
       <c r="G53" s="40" t="s">
         <v>105</v>
       </c>
@@ -13116,7 +13286,7 @@
       <c r="E54" s="40" t="s">
         <v>265</v>
       </c>
-      <c r="F54" s="40"/>
+      <c r="F54" s="56"/>
       <c r="G54" s="85" t="s">
         <v>112</v>
       </c>
@@ -13152,7 +13322,7 @@
       <c r="E55" s="40" t="s">
         <v>268</v>
       </c>
-      <c r="F55" s="40"/>
+      <c r="F55" s="56"/>
       <c r="G55" s="85" t="s">
         <v>112</v>
       </c>
@@ -13186,7 +13356,7 @@
       <c r="E56" s="40" t="s">
         <v>271</v>
       </c>
-      <c r="F56" s="40"/>
+      <c r="F56" s="56"/>
       <c r="G56" s="40" t="s">
         <v>125</v>
       </c>
@@ -13220,7 +13390,7 @@
       <c r="E57" s="40" t="s">
         <v>274</v>
       </c>
-      <c r="F57" s="40"/>
+      <c r="F57" s="56"/>
       <c r="G57" s="40" t="s">
         <v>112</v>
       </c>
@@ -13248,7 +13418,7 @@
       <c r="C58" s="76"/>
       <c r="D58" s="77"/>
       <c r="E58" s="40"/>
-      <c r="F58" s="40"/>
+      <c r="F58" s="56"/>
       <c r="G58" s="40"/>
       <c r="H58" s="40"/>
       <c r="I58" s="7"/>
@@ -13263,10 +13433,10 @@
       <c r="R58" s="28"/>
     </row>
     <row r="59">
-      <c r="A59" s="86" t="s">
+      <c r="A59" s="87" t="s">
         <v>277</v>
       </c>
-      <c r="B59" s="39" t="s">
+      <c r="B59" s="37" t="s">
         <v>136</v>
       </c>
       <c r="C59" s="76" t="s">
@@ -13278,7 +13448,7 @@
       <c r="E59" s="40" t="s">
         <v>278</v>
       </c>
-      <c r="F59" s="40"/>
+      <c r="F59" s="56"/>
       <c r="G59" s="40" t="s">
         <v>125</v>
       </c>
@@ -13306,7 +13476,7 @@
       <c r="C60" s="14" t="s">
         <v>282</v>
       </c>
-      <c r="D60" s="87"/>
+      <c r="D60" s="88"/>
       <c r="E60" s="49" t="s">
         <v>283</v>
       </c>
@@ -13329,30 +13499,30 @@
       <c r="R60" s="28"/>
     </row>
     <row r="61">
-      <c r="A61" s="37" t="s">
+      <c r="A61" s="38" t="s">
         <v>286</v>
       </c>
-      <c r="B61" s="38" t="s">
+      <c r="B61" s="39" t="s">
         <v>287</v>
       </c>
-      <c r="C61" s="88" t="s">
+      <c r="C61" s="89" t="s">
         <v>288</v>
       </c>
-      <c r="D61" s="89" t="s">
+      <c r="D61" s="90" t="s">
         <v>289</v>
       </c>
       <c r="E61" s="60" t="s">
         <v>290</v>
       </c>
-      <c r="F61" s="89"/>
-      <c r="G61" s="90" t="s">
+      <c r="F61" s="90"/>
+      <c r="G61" s="91" t="s">
         <v>291</v>
       </c>
-      <c r="H61" s="90" t="s">
+      <c r="H61" s="91" t="s">
         <v>292</v>
       </c>
-      <c r="I61" s="7"/>
-      <c r="J61" s="7"/>
+      <c r="I61" s="72"/>
+      <c r="J61" s="72"/>
       <c r="K61" s="7" t="s">
         <v>293</v>
       </c>
@@ -13393,30 +13563,30 @@
       <c r="R62" s="28"/>
     </row>
     <row r="63">
-      <c r="A63" s="37" t="s">
+      <c r="A63" s="38" t="s">
         <v>298</v>
       </c>
-      <c r="B63" s="38" t="s">
+      <c r="B63" s="39" t="s">
         <v>299</v>
       </c>
-      <c r="C63" s="90" t="s">
+      <c r="C63" s="91" t="s">
         <v>300</v>
       </c>
-      <c r="D63" s="90" t="s">
+      <c r="D63" s="91" t="s">
         <v>301</v>
       </c>
       <c r="E63" s="60" t="s">
         <v>302</v>
       </c>
-      <c r="F63" s="90"/>
-      <c r="G63" s="91" t="s">
+      <c r="F63" s="91"/>
+      <c r="G63" s="92" t="s">
         <v>303</v>
       </c>
-      <c r="H63" s="91" t="s">
+      <c r="H63" s="92" t="s">
         <v>304</v>
       </c>
-      <c r="I63" s="7"/>
-      <c r="J63" s="7"/>
+      <c r="I63" s="72"/>
+      <c r="J63" s="72"/>
       <c r="K63" s="7" t="s">
         <v>293</v>
       </c>
@@ -13457,30 +13627,30 @@
       <c r="R64" s="28"/>
     </row>
     <row r="65">
-      <c r="A65" s="37" t="s">
+      <c r="A65" s="38" t="s">
         <v>308</v>
       </c>
-      <c r="B65" s="38" t="s">
+      <c r="B65" s="39" t="s">
         <v>309</v>
       </c>
-      <c r="C65" s="90" t="s">
+      <c r="C65" s="91" t="s">
         <v>300</v>
       </c>
-      <c r="D65" s="90" t="s">
+      <c r="D65" s="91" t="s">
         <v>301</v>
       </c>
-      <c r="E65" s="92" t="s">
+      <c r="E65" s="93" t="s">
         <v>310</v>
       </c>
-      <c r="F65" s="89"/>
-      <c r="G65" s="93" t="s">
+      <c r="F65" s="90"/>
+      <c r="G65" s="94" t="s">
         <v>303</v>
       </c>
-      <c r="H65" s="93" t="s">
+      <c r="H65" s="94" t="s">
         <v>311</v>
       </c>
-      <c r="I65" s="7"/>
-      <c r="J65" s="7"/>
+      <c r="I65" s="72"/>
+      <c r="J65" s="72"/>
       <c r="K65" s="7"/>
       <c r="L65" s="28"/>
       <c r="M65" s="28"/>
@@ -13494,21 +13664,21 @@
       <c r="A66" s="46" t="s">
         <v>312</v>
       </c>
-      <c r="B66" s="94"/>
-      <c r="C66" s="40"/>
-      <c r="D66" s="40"/>
+      <c r="B66" s="95"/>
+      <c r="C66" s="56"/>
+      <c r="D66" s="56"/>
       <c r="E66" s="40" t="s">
         <v>313</v>
       </c>
-      <c r="F66" s="40"/>
+      <c r="F66" s="56"/>
       <c r="G66" s="40" t="s">
         <v>296</v>
       </c>
       <c r="H66" s="40" t="s">
         <v>314</v>
       </c>
-      <c r="I66" s="7"/>
-      <c r="J66" s="7"/>
+      <c r="I66" s="72"/>
+      <c r="J66" s="72"/>
       <c r="K66" s="7"/>
       <c r="L66" s="28"/>
       <c r="M66" s="28"/>
@@ -13522,7 +13692,7 @@
       <c r="A67" s="33" t="s">
         <v>315</v>
       </c>
-      <c r="B67" s="95" t="s">
+      <c r="B67" s="96" t="s">
         <v>316</v>
       </c>
       <c r="C67" s="4"/>
@@ -13543,20 +13713,20 @@
       <c r="R67" s="28"/>
     </row>
     <row r="68">
-      <c r="A68" s="37" t="s">
+      <c r="A68" s="38" t="s">
         <v>317</v>
       </c>
-      <c r="B68" s="38" t="s">
+      <c r="B68" s="39" t="s">
         <v>318</v>
       </c>
       <c r="C68" s="4"/>
       <c r="D68" s="4"/>
       <c r="E68" s="72"/>
       <c r="F68" s="7"/>
-      <c r="G68" s="7"/>
-      <c r="H68" s="7"/>
-      <c r="I68" s="7"/>
-      <c r="J68" s="7"/>
+      <c r="G68" s="72"/>
+      <c r="H68" s="72"/>
+      <c r="I68" s="72"/>
+      <c r="J68" s="72"/>
       <c r="K68" s="7"/>
       <c r="L68" s="28"/>
       <c r="M68" s="28"/>
@@ -13583,16 +13753,16 @@
         <v>321</v>
       </c>
       <c r="F69" s="4"/>
-      <c r="G69" s="4" t="s">
+      <c r="G69" s="37" t="s">
         <v>322</v>
       </c>
-      <c r="H69" s="4" t="s">
+      <c r="H69" s="37" t="s">
         <v>323</v>
       </c>
-      <c r="I69" s="7" t="s">
+      <c r="I69" s="72" t="s">
         <v>63</v>
       </c>
-      <c r="J69" s="7"/>
+      <c r="J69" s="72"/>
       <c r="K69" s="7"/>
       <c r="L69" s="28"/>
       <c r="M69" s="28"/>
@@ -13625,7 +13795,7 @@
       <c r="H70" s="45" t="s">
         <v>330</v>
       </c>
-      <c r="I70" s="96" t="s">
+      <c r="I70" s="97" t="s">
         <v>71</v>
       </c>
       <c r="J70" s="66"/>
@@ -13655,7 +13825,7 @@
         <v>335</v>
       </c>
       <c r="F71" s="4"/>
-      <c r="G71" s="4" t="s">
+      <c r="G71" s="37" t="s">
         <v>336</v>
       </c>
       <c r="H71" s="40" t="s">
@@ -13689,10 +13859,10 @@
         <v>342</v>
       </c>
       <c r="F72" s="7"/>
-      <c r="G72" s="4" t="s">
+      <c r="G72" s="37" t="s">
         <v>343</v>
       </c>
-      <c r="H72" s="4" t="s">
+      <c r="H72" s="37" t="s">
         <v>337</v>
       </c>
       <c r="I72" s="7"/>
@@ -13723,10 +13893,10 @@
         <v>348</v>
       </c>
       <c r="F73" s="7"/>
-      <c r="G73" s="4" t="s">
+      <c r="G73" s="37" t="s">
         <v>349</v>
       </c>
-      <c r="H73" s="97" t="s">
+      <c r="H73" s="98" t="s">
         <v>350</v>
       </c>
       <c r="I73" s="7"/>
@@ -13763,7 +13933,7 @@
       <c r="H74" s="49" t="s">
         <v>355</v>
       </c>
-      <c r="I74" s="7" t="s">
+      <c r="I74" s="72" t="s">
         <v>63</v>
       </c>
       <c r="J74" s="7"/>
@@ -13783,12 +13953,12 @@
       <c r="B75" s="47" t="s">
         <v>357</v>
       </c>
-      <c r="C75" s="98"/>
-      <c r="D75" s="98"/>
-      <c r="E75" s="90"/>
-      <c r="F75" s="90"/>
-      <c r="G75" s="98"/>
-      <c r="H75" s="98"/>
+      <c r="C75" s="99"/>
+      <c r="D75" s="99"/>
+      <c r="E75" s="91"/>
+      <c r="F75" s="91"/>
+      <c r="G75" s="99"/>
+      <c r="H75" s="99"/>
       <c r="I75" s="7"/>
       <c r="J75" s="7"/>
       <c r="K75" s="7"/>
@@ -13801,26 +13971,26 @@
       <c r="R75" s="28"/>
     </row>
     <row r="76">
-      <c r="A76" s="99" t="s">
+      <c r="A76" s="100" t="s">
         <v>358</v>
       </c>
       <c r="B76" s="55" t="s">
         <v>359</v>
       </c>
-      <c r="C76" s="98" t="s">
+      <c r="C76" s="99" t="s">
         <v>360</v>
       </c>
-      <c r="D76" s="98" t="s">
+      <c r="D76" s="99" t="s">
         <v>361</v>
       </c>
-      <c r="E76" s="90" t="s">
+      <c r="E76" s="91" t="s">
         <v>362</v>
       </c>
-      <c r="F76" s="90"/>
-      <c r="G76" s="98" t="s">
+      <c r="F76" s="91"/>
+      <c r="G76" s="99" t="s">
         <v>363</v>
       </c>
-      <c r="H76" s="100" t="s">
+      <c r="H76" s="101" t="s">
         <v>364</v>
       </c>
       <c r="I76" s="7"/>
@@ -13835,22 +14005,22 @@
       <c r="R76" s="28"/>
     </row>
     <row r="77">
-      <c r="A77" s="99" t="s">
+      <c r="A77" s="100" t="s">
         <v>365</v>
       </c>
       <c r="B77" s="55" t="s">
         <v>366</v>
       </c>
-      <c r="C77" s="98"/>
-      <c r="D77" s="98"/>
-      <c r="E77" s="90" t="s">
+      <c r="C77" s="99"/>
+      <c r="D77" s="99"/>
+      <c r="E77" s="91" t="s">
         <v>367</v>
       </c>
-      <c r="F77" s="89"/>
-      <c r="G77" s="90" t="s">
+      <c r="F77" s="90"/>
+      <c r="G77" s="91" t="s">
         <v>368</v>
       </c>
-      <c r="H77" s="90" t="s">
+      <c r="H77" s="91" t="s">
         <v>369</v>
       </c>
       <c r="I77" s="7"/>
@@ -13923,7 +14093,7 @@
       <c r="D80" s="4" t="s">
         <v>376</v>
       </c>
-      <c r="E80" s="101" t="s">
+      <c r="E80" s="102" t="s">
         <v>377</v>
       </c>
       <c r="F80" s="4"/>
@@ -13952,7 +14122,7 @@
         <v>381</v>
       </c>
       <c r="C81" s="4"/>
-      <c r="D81" s="102" t="s">
+      <c r="D81" s="103" t="s">
         <v>382</v>
       </c>
       <c r="E81" s="4" t="s">
@@ -14026,7 +14196,7 @@
       <c r="G83" s="4" t="s">
         <v>384</v>
       </c>
-      <c r="H83" s="97" t="s">
+      <c r="H83" s="104" t="s">
         <v>394</v>
       </c>
       <c r="I83" s="7"/>
@@ -14081,7 +14251,7 @@
       </c>
       <c r="C85" s="4"/>
       <c r="D85" s="4"/>
-      <c r="E85" s="39" t="s">
+      <c r="E85" s="37" t="s">
         <v>402</v>
       </c>
       <c r="F85" s="4"/>
@@ -14156,7 +14326,7 @@
       <c r="G87" s="14" t="s">
         <v>408</v>
       </c>
-      <c r="H87" s="87" t="s">
+      <c r="H87" s="88" t="s">
         <v>415</v>
       </c>
       <c r="I87" s="7"/>
@@ -14214,10 +14384,10 @@
       <c r="K89" s="7"/>
     </row>
     <row r="90">
-      <c r="A90" s="37" t="s">
+      <c r="A90" s="38" t="s">
         <v>426</v>
       </c>
-      <c r="B90" s="38" t="s">
+      <c r="B90" s="39" t="s">
         <v>8</v>
       </c>
       <c r="C90" s="4"/>
@@ -14226,10 +14396,10 @@
         <v>402</v>
       </c>
       <c r="F90" s="4"/>
-      <c r="G90" s="4" t="s">
+      <c r="G90" s="37" t="s">
         <v>427</v>
       </c>
-      <c r="H90" s="4" t="s">
+      <c r="H90" s="37" t="s">
         <v>428</v>
       </c>
       <c r="I90" s="7"/>
@@ -14237,10 +14407,10 @@
       <c r="K90" s="7"/>
     </row>
     <row r="91">
-      <c r="A91" s="103" t="s">
+      <c r="A91" s="105" t="s">
         <v>426</v>
       </c>
-      <c r="B91" s="104" t="s">
+      <c r="B91" s="106" t="s">
         <v>8</v>
       </c>
       <c r="C91" s="7"/>
@@ -14266,23 +14436,23 @@
       <c r="B92" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="C92" s="87" t="s">
+      <c r="C92" s="88" t="s">
         <v>320</v>
       </c>
-      <c r="D92" s="87" t="s">
+      <c r="D92" s="88" t="s">
         <v>6</v>
       </c>
-      <c r="E92" s="87" t="s">
+      <c r="E92" s="88" t="s">
         <v>432</v>
       </c>
-      <c r="F92" s="87"/>
+      <c r="F92" s="88"/>
       <c r="G92" s="14" t="s">
         <v>433</v>
       </c>
-      <c r="H92" s="87" t="s">
+      <c r="H92" s="88" t="s">
         <v>434</v>
       </c>
-      <c r="I92" s="7" t="s">
+      <c r="I92" s="72" t="s">
         <v>63</v>
       </c>
       <c r="J92" s="7"/>
@@ -14295,23 +14465,23 @@
       <c r="B93" s="55" t="s">
         <v>436</v>
       </c>
-      <c r="C93" s="87" t="s">
+      <c r="C93" s="88" t="s">
         <v>437</v>
       </c>
-      <c r="D93" s="87" t="s">
+      <c r="D93" s="88" t="s">
         <v>438</v>
       </c>
-      <c r="E93" s="87" t="s">
+      <c r="E93" s="88" t="s">
         <v>439</v>
       </c>
-      <c r="F93" s="87"/>
+      <c r="F93" s="88"/>
       <c r="G93" s="14" t="s">
         <v>440</v>
       </c>
-      <c r="H93" s="87" t="s">
+      <c r="H93" s="88" t="s">
         <v>441</v>
       </c>
-      <c r="I93" s="7" t="s">
+      <c r="I93" s="72" t="s">
         <v>71</v>
       </c>
       <c r="J93" s="7"/>
@@ -14351,10 +14521,10 @@
         <v>445</v>
       </c>
       <c r="F95" s="4"/>
-      <c r="G95" s="4" t="s">
+      <c r="G95" s="37" t="s">
         <v>446</v>
       </c>
-      <c r="H95" s="97" t="s">
+      <c r="H95" s="98" t="s">
         <v>447</v>
       </c>
       <c r="I95" s="7"/>
@@ -14378,10 +14548,10 @@
         <v>449</v>
       </c>
       <c r="F96" s="4"/>
-      <c r="G96" s="4" t="s">
+      <c r="G96" s="37" t="s">
         <v>450</v>
       </c>
-      <c r="H96" s="4" t="s">
+      <c r="H96" s="37" t="s">
         <v>447</v>
       </c>
       <c r="I96" s="7"/>
@@ -14457,7 +14627,7 @@
       <c r="H99" s="36" t="s">
         <v>466</v>
       </c>
-      <c r="I99" s="7" t="s">
+      <c r="I99" s="72" t="s">
         <v>63</v>
       </c>
       <c r="J99" s="7"/>
@@ -14480,13 +14650,13 @@
         <v>469</v>
       </c>
       <c r="F100" s="4"/>
-      <c r="G100" s="4" t="s">
+      <c r="G100" s="37" t="s">
         <v>433</v>
       </c>
-      <c r="H100" s="105" t="s">
+      <c r="H100" s="107" t="s">
         <v>470</v>
       </c>
-      <c r="I100" s="7" t="s">
+      <c r="I100" s="72" t="s">
         <v>63</v>
       </c>
       <c r="J100" s="7"/>
@@ -14499,12 +14669,12 @@
       <c r="B101" s="47" t="s">
         <v>472</v>
       </c>
-      <c r="C101" s="106"/>
-      <c r="D101" s="106"/>
+      <c r="C101" s="108"/>
+      <c r="D101" s="108"/>
       <c r="E101" s="76"/>
-      <c r="F101" s="106"/>
-      <c r="G101" s="76"/>
-      <c r="H101" s="76"/>
+      <c r="F101" s="108"/>
+      <c r="G101" s="108"/>
+      <c r="H101" s="108"/>
       <c r="I101" s="7"/>
       <c r="J101" s="7"/>
       <c r="K101" s="7"/>
@@ -14516,7 +14686,7 @@
       <c r="B102" s="55" t="s">
         <v>359</v>
       </c>
-      <c r="C102" s="106" t="s">
+      <c r="C102" s="108" t="s">
         <v>474</v>
       </c>
       <c r="D102" s="4" t="s">
@@ -14543,7 +14713,7 @@
       <c r="B103" s="55" t="s">
         <v>366</v>
       </c>
-      <c r="C103" s="106" t="s">
+      <c r="C103" s="108" t="s">
         <v>180</v>
       </c>
       <c r="D103" s="4"/>
@@ -14568,137 +14738,137 @@
       <c r="B104" s="47" t="s">
         <v>483</v>
       </c>
-      <c r="C104" s="98"/>
-      <c r="D104" s="98"/>
-      <c r="E104" s="98"/>
-      <c r="F104" s="98"/>
-      <c r="G104" s="98"/>
-      <c r="H104" s="98"/>
-      <c r="I104" s="88"/>
-      <c r="J104" s="88"/>
-      <c r="K104" s="89"/>
+      <c r="C104" s="99"/>
+      <c r="D104" s="99"/>
+      <c r="E104" s="99"/>
+      <c r="F104" s="99"/>
+      <c r="G104" s="99"/>
+      <c r="H104" s="99"/>
+      <c r="I104" s="89"/>
+      <c r="J104" s="89"/>
+      <c r="K104" s="90"/>
     </row>
     <row r="105">
-      <c r="A105" s="99" t="s">
+      <c r="A105" s="100" t="s">
         <v>484</v>
       </c>
       <c r="B105" s="55" t="s">
         <v>485</v>
       </c>
-      <c r="C105" s="98" t="s">
+      <c r="C105" s="99" t="s">
         <v>486</v>
       </c>
-      <c r="D105" s="98" t="s">
+      <c r="D105" s="99" t="s">
         <v>487</v>
       </c>
-      <c r="E105" s="98" t="s">
+      <c r="E105" s="99" t="s">
         <v>488</v>
       </c>
-      <c r="F105" s="98"/>
-      <c r="G105" s="90" t="s">
+      <c r="F105" s="99"/>
+      <c r="G105" s="91" t="s">
         <v>489</v>
       </c>
-      <c r="H105" s="100" t="s">
+      <c r="H105" s="101" t="s">
         <v>490</v>
       </c>
-      <c r="I105" s="88"/>
-      <c r="J105" s="88"/>
-      <c r="K105" s="89"/>
+      <c r="I105" s="89"/>
+      <c r="J105" s="89"/>
+      <c r="K105" s="90"/>
     </row>
     <row r="106">
-      <c r="A106" s="107" t="s">
+      <c r="A106" s="109" t="s">
         <v>491</v>
       </c>
-      <c r="B106" s="108"/>
-      <c r="C106" s="98"/>
-      <c r="D106" s="88"/>
-      <c r="E106" s="88" t="s">
+      <c r="B106" s="110"/>
+      <c r="C106" s="99"/>
+      <c r="D106" s="89"/>
+      <c r="E106" s="89" t="s">
         <v>492</v>
       </c>
-      <c r="F106" s="88" t="s">
+      <c r="F106" s="89" t="s">
         <v>493</v>
       </c>
-      <c r="G106" s="89" t="s">
+      <c r="G106" s="90" t="s">
         <v>494</v>
       </c>
-      <c r="H106" s="88" t="s">
+      <c r="H106" s="89" t="s">
         <v>495</v>
       </c>
-      <c r="I106" s="88"/>
-      <c r="J106" s="88"/>
-      <c r="K106" s="89"/>
+      <c r="I106" s="89"/>
+      <c r="J106" s="89"/>
+      <c r="K106" s="90"/>
     </row>
     <row r="107">
-      <c r="A107" s="107" t="s">
+      <c r="A107" s="109" t="s">
         <v>496</v>
       </c>
-      <c r="B107" s="108"/>
-      <c r="C107" s="98"/>
-      <c r="D107" s="98"/>
+      <c r="B107" s="110"/>
+      <c r="C107" s="99"/>
+      <c r="D107" s="99"/>
       <c r="E107" s="60" t="s">
         <v>492</v>
       </c>
-      <c r="F107" s="98" t="s">
+      <c r="F107" s="99" t="s">
         <v>497</v>
       </c>
-      <c r="G107" s="90" t="s">
+      <c r="G107" s="91" t="s">
         <v>494</v>
       </c>
-      <c r="H107" s="100" t="s">
+      <c r="H107" s="101" t="s">
         <v>498</v>
       </c>
-      <c r="I107" s="88"/>
-      <c r="J107" s="88"/>
-      <c r="K107" s="89"/>
+      <c r="I107" s="89"/>
+      <c r="J107" s="89"/>
+      <c r="K107" s="90"/>
     </row>
     <row r="108">
-      <c r="A108" s="99" t="s">
+      <c r="A108" s="100" t="s">
         <v>499</v>
       </c>
       <c r="B108" s="55" t="s">
         <v>500</v>
       </c>
-      <c r="C108" s="98" t="s">
+      <c r="C108" s="99" t="s">
         <v>501</v>
       </c>
-      <c r="D108" s="98" t="s">
+      <c r="D108" s="99" t="s">
         <v>502</v>
       </c>
-      <c r="E108" s="98" t="s">
+      <c r="E108" s="99" t="s">
         <v>503</v>
       </c>
-      <c r="F108" s="98"/>
-      <c r="G108" s="90" t="s">
+      <c r="F108" s="99"/>
+      <c r="G108" s="91" t="s">
         <v>504</v>
       </c>
-      <c r="H108" s="100" t="s">
+      <c r="H108" s="101" t="s">
         <v>505</v>
       </c>
-      <c r="I108" s="88"/>
-      <c r="J108" s="88"/>
-      <c r="K108" s="89"/>
+      <c r="I108" s="89"/>
+      <c r="J108" s="89"/>
+      <c r="K108" s="90"/>
     </row>
     <row r="109">
-      <c r="A109" s="99" t="s">
+      <c r="A109" s="100" t="s">
         <v>506</v>
       </c>
       <c r="B109" s="55" t="s">
         <v>507</v>
       </c>
-      <c r="C109" s="98" t="s">
+      <c r="C109" s="99" t="s">
         <v>508</v>
       </c>
-      <c r="D109" s="88" t="s">
+      <c r="D109" s="89" t="s">
         <v>509</v>
       </c>
-      <c r="E109" s="88" t="s">
+      <c r="E109" s="89" t="s">
         <v>510</v>
       </c>
-      <c r="F109" s="88"/>
-      <c r="G109" s="89" t="s">
+      <c r="F109" s="89"/>
+      <c r="G109" s="90" t="s">
         <v>504</v>
       </c>
-      <c r="H109" s="88" t="s">
+      <c r="H109" s="89" t="s">
         <v>511</v>
       </c>
       <c r="I109" s="7"/>
@@ -14723,7 +14893,7 @@
       <c r="K110" s="7"/>
     </row>
     <row r="111">
-      <c r="A111" s="99" t="s">
+      <c r="A111" s="100" t="s">
         <v>514</v>
       </c>
       <c r="B111" s="55" t="s">
@@ -14735,14 +14905,14 @@
       <c r="D111" s="49" t="s">
         <v>517</v>
       </c>
-      <c r="E111" s="109" t="s">
+      <c r="E111" s="111" t="s">
         <v>518</v>
       </c>
-      <c r="F111" s="86"/>
+      <c r="F111" s="87"/>
       <c r="G111" s="49" t="s">
         <v>519</v>
       </c>
-      <c r="H111" s="110" t="s">
+      <c r="H111" s="112" t="s">
         <v>520</v>
       </c>
       <c r="I111" s="7"/>
@@ -14750,26 +14920,26 @@
       <c r="K111" s="7"/>
     </row>
     <row r="112">
-      <c r="A112" s="111" t="s">
+      <c r="A112" s="113" t="s">
         <v>514</v>
       </c>
       <c r="B112" s="62" t="s">
         <v>515</v>
       </c>
-      <c r="C112" s="112" t="s">
+      <c r="C112" s="114" t="s">
         <v>516</v>
       </c>
-      <c r="D112" s="113" t="s">
+      <c r="D112" s="115" t="s">
         <v>517</v>
       </c>
-      <c r="E112" s="87" t="s">
+      <c r="E112" s="88" t="s">
         <v>521</v>
       </c>
       <c r="F112" s="72"/>
-      <c r="G112" s="87" t="s">
+      <c r="G112" s="88" t="s">
         <v>519</v>
       </c>
-      <c r="H112" s="114" t="s">
+      <c r="H112" s="116" t="s">
         <v>522</v>
       </c>
       <c r="I112" s="7"/>
@@ -14777,7 +14947,7 @@
       <c r="K112" s="7"/>
     </row>
     <row r="113">
-      <c r="A113" s="99" t="s">
+      <c r="A113" s="100" t="s">
         <v>523</v>
       </c>
       <c r="B113" s="55" t="s">
@@ -14796,10 +14966,10 @@
       <c r="G113" s="49" t="s">
         <v>527</v>
       </c>
-      <c r="H113" s="110" t="s">
+      <c r="H113" s="112" t="s">
         <v>528</v>
       </c>
-      <c r="I113" s="7" t="s">
+      <c r="I113" s="72" t="s">
         <v>63</v>
       </c>
       <c r="J113" s="7"/>
@@ -14822,13 +14992,13 @@
         <v>533</v>
       </c>
       <c r="F114" s="4"/>
-      <c r="G114" s="4" t="s">
+      <c r="G114" s="37" t="s">
         <v>433</v>
       </c>
-      <c r="H114" s="115" t="s">
+      <c r="H114" s="117" t="s">
         <v>534</v>
       </c>
-      <c r="I114" s="7" t="s">
+      <c r="I114" s="72" t="s">
         <v>63</v>
       </c>
       <c r="J114" s="7"/>
@@ -14838,7 +15008,7 @@
       <c r="A115" s="33" t="s">
         <v>535</v>
       </c>
-      <c r="B115" s="95" t="s">
+      <c r="B115" s="96" t="s">
         <v>536</v>
       </c>
       <c r="C115" s="36"/>
@@ -14852,18 +15022,18 @@
       <c r="K115" s="7"/>
     </row>
     <row r="116">
-      <c r="A116" s="37" t="s">
+      <c r="A116" s="38" t="s">
         <v>537</v>
       </c>
-      <c r="B116" s="38" t="s">
+      <c r="B116" s="39" t="s">
         <v>538</v>
       </c>
       <c r="C116" s="14"/>
       <c r="D116" s="14"/>
-      <c r="E116" s="109"/>
-      <c r="F116" s="116"/>
+      <c r="E116" s="111"/>
+      <c r="F116" s="118"/>
       <c r="G116" s="49"/>
-      <c r="H116" s="87"/>
+      <c r="H116" s="88"/>
       <c r="I116" s="7"/>
       <c r="J116" s="7"/>
       <c r="K116" s="7"/>
@@ -14877,8 +15047,8 @@
       </c>
       <c r="C117" s="36"/>
       <c r="D117" s="36"/>
-      <c r="E117" s="109"/>
-      <c r="F117" s="116"/>
+      <c r="E117" s="111"/>
+      <c r="F117" s="118"/>
       <c r="G117" s="49"/>
       <c r="H117" s="49"/>
       <c r="I117" s="7"/>
@@ -14892,21 +15062,21 @@
       <c r="B118" s="55" t="s">
         <v>542</v>
       </c>
-      <c r="C118" s="117" t="s">
+      <c r="C118" s="119" t="s">
         <v>543</v>
       </c>
       <c r="D118" s="14"/>
-      <c r="E118" s="87" t="s">
+      <c r="E118" s="88" t="s">
         <v>544</v>
       </c>
       <c r="F118" s="14"/>
-      <c r="G118" s="87" t="s">
+      <c r="G118" s="88" t="s">
         <v>545</v>
       </c>
       <c r="H118" s="7" t="s">
         <v>546</v>
       </c>
-      <c r="I118" s="7" t="s">
+      <c r="I118" s="72" t="s">
         <v>63</v>
       </c>
       <c r="J118" s="7"/>
@@ -14939,7 +15109,7 @@
       <c r="C120" s="14" t="s">
         <v>551</v>
       </c>
-      <c r="D120" s="87" t="s">
+      <c r="D120" s="88" t="s">
         <v>552</v>
       </c>
       <c r="E120" s="49" t="s">
@@ -14951,7 +15121,7 @@
       <c r="G120" s="49" t="s">
         <v>555</v>
       </c>
-      <c r="H120" s="118" t="s">
+      <c r="H120" s="120" t="s">
         <v>556</v>
       </c>
       <c r="I120" s="7"/>
@@ -14978,7 +15148,7 @@
       <c r="G121" s="49" t="s">
         <v>561</v>
       </c>
-      <c r="H121" s="118" t="s">
+      <c r="H121" s="120" t="s">
         <v>562</v>
       </c>
       <c r="I121" s="7"/>
@@ -14986,15 +15156,15 @@
       <c r="K121" s="7"/>
     </row>
     <row r="122">
-      <c r="A122" s="37" t="s">
+      <c r="A122" s="38" t="s">
         <v>563</v>
       </c>
-      <c r="B122" s="38" t="s">
+      <c r="B122" s="39" t="s">
         <v>564</v>
       </c>
       <c r="C122" s="14"/>
       <c r="D122" s="14"/>
-      <c r="E122" s="109"/>
+      <c r="E122" s="111"/>
       <c r="F122" s="19"/>
       <c r="G122" s="4"/>
       <c r="H122" s="49"/>
@@ -15011,7 +15181,7 @@
       </c>
       <c r="C123" s="14"/>
       <c r="D123" s="14"/>
-      <c r="E123" s="109"/>
+      <c r="E123" s="111"/>
       <c r="F123" s="19"/>
       <c r="G123" s="4"/>
       <c r="H123" s="49"/>
@@ -15026,160 +15196,170 @@
       <c r="B124" s="55" t="s">
         <v>568</v>
       </c>
-      <c r="C124" s="119" t="s">
+      <c r="C124" s="121" t="s">
         <v>569</v>
       </c>
-      <c r="D124" s="119"/>
+      <c r="D124" s="121"/>
       <c r="E124" s="76" t="s">
         <v>570</v>
       </c>
-      <c r="F124" s="106" t="s">
+      <c r="F124" s="108" t="s">
         <v>554</v>
       </c>
-      <c r="G124" s="4" t="s">
+      <c r="G124" s="122" t="s">
         <v>571</v>
       </c>
-      <c r="H124" s="39" t="s">
+      <c r="H124" s="122" t="s">
         <v>572</v>
       </c>
       <c r="I124" s="7"/>
       <c r="J124" s="7"/>
-      <c r="K124" s="7"/>
+      <c r="K124" s="7" t="s">
+        <v>573</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" s="54" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="B125" s="55" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="C125" s="84" t="s">
-        <v>575</v>
-      </c>
-      <c r="D125" s="119"/>
+        <v>576</v>
+      </c>
+      <c r="D125" s="121"/>
       <c r="E125" s="76" t="s">
-        <v>576</v>
-      </c>
-      <c r="F125" s="106"/>
-      <c r="G125" s="4" t="s">
+        <v>577</v>
+      </c>
+      <c r="F125" s="108"/>
+      <c r="G125" s="122" t="s">
         <v>545</v>
       </c>
-      <c r="H125" s="4" t="s">
+      <c r="H125" s="122" t="s">
         <v>546</v>
       </c>
-      <c r="I125" s="7" t="s">
+      <c r="I125" s="72" t="s">
         <v>63</v>
       </c>
       <c r="J125" s="7"/>
-      <c r="K125" s="7"/>
+      <c r="K125" s="88" t="s">
+        <v>578</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" s="46" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="B126" s="47" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="C126" s="84" t="s">
-        <v>579</v>
-      </c>
-      <c r="D126" s="119"/>
+        <v>581</v>
+      </c>
+      <c r="D126" s="121"/>
       <c r="E126" s="83" t="s">
-        <v>580</v>
-      </c>
-      <c r="F126" s="119"/>
-      <c r="G126" s="7" t="s">
-        <v>581</v>
-      </c>
-      <c r="H126" s="72" t="s">
         <v>582</v>
+      </c>
+      <c r="F126" s="121"/>
+      <c r="G126" s="123" t="s">
+        <v>583</v>
+      </c>
+      <c r="H126" s="123" t="s">
+        <v>584</v>
       </c>
       <c r="I126" s="7"/>
       <c r="J126" s="7"/>
-      <c r="K126" s="7"/>
+      <c r="K126" s="88" t="s">
+        <v>578</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" s="46" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="B127" s="47" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="C127" s="14"/>
       <c r="D127" s="14"/>
-      <c r="E127" s="87"/>
+      <c r="E127" s="88"/>
       <c r="F127" s="14"/>
-      <c r="G127" s="49"/>
-      <c r="H127" s="49"/>
+      <c r="G127" s="36"/>
+      <c r="H127" s="36"/>
       <c r="I127" s="7"/>
       <c r="J127" s="7"/>
       <c r="K127" s="7"/>
     </row>
     <row r="128">
       <c r="A128" s="54" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="B128" s="55" t="s">
-        <v>586</v>
-      </c>
-      <c r="C128" s="119" t="s">
-        <v>587</v>
-      </c>
-      <c r="D128" s="119"/>
+        <v>588</v>
+      </c>
+      <c r="C128" s="121" t="s">
+        <v>589</v>
+      </c>
+      <c r="D128" s="121"/>
       <c r="E128" s="76" t="s">
-        <v>588</v>
-      </c>
-      <c r="F128" s="106" t="s">
+        <v>590</v>
+      </c>
+      <c r="F128" s="108" t="s">
         <v>554</v>
       </c>
-      <c r="G128" s="4" t="s">
-        <v>589</v>
-      </c>
-      <c r="H128" s="120" t="s">
-        <v>590</v>
+      <c r="G128" s="122" t="s">
+        <v>591</v>
+      </c>
+      <c r="H128" s="124" t="s">
+        <v>592</v>
       </c>
       <c r="I128" s="7"/>
       <c r="J128" s="7"/>
-      <c r="K128" s="7"/>
+      <c r="K128" s="88" t="s">
+        <v>578</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" s="54" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="B129" s="55" t="s">
-        <v>586</v>
-      </c>
-      <c r="C129" s="119" t="s">
-        <v>587</v>
-      </c>
-      <c r="D129" s="119"/>
+        <v>588</v>
+      </c>
+      <c r="C129" s="121" t="s">
+        <v>589</v>
+      </c>
+      <c r="D129" s="121"/>
       <c r="E129" s="60" t="s">
-        <v>588</v>
-      </c>
-      <c r="F129" s="106" t="s">
+        <v>590</v>
+      </c>
+      <c r="F129" s="108" t="s">
+        <v>593</v>
+      </c>
+      <c r="G129" s="122" t="s">
         <v>591</v>
       </c>
-      <c r="G129" s="4" t="s">
-        <v>589</v>
-      </c>
-      <c r="H129" s="39" t="s">
-        <v>592</v>
+      <c r="H129" s="122" t="s">
+        <v>594</v>
       </c>
       <c r="I129" s="7"/>
       <c r="J129" s="7"/>
-      <c r="K129" s="7"/>
+      <c r="K129" s="88" t="s">
+        <v>578</v>
+      </c>
     </row>
     <row r="130">
-      <c r="A130" s="121" t="s">
-        <v>593</v>
-      </c>
-      <c r="B130" s="95" t="s">
-        <v>594</v>
+      <c r="A130" s="125" t="s">
+        <v>595</v>
+      </c>
+      <c r="B130" s="96" t="s">
+        <v>596</v>
       </c>
       <c r="C130" s="7"/>
       <c r="D130" s="7"/>
-      <c r="E130" s="39" t="s">
-        <v>595</v>
+      <c r="E130" s="37" t="s">
+        <v>597</v>
       </c>
       <c r="F130" s="4"/>
       <c r="G130" s="40"/>
@@ -15189,10 +15369,10 @@
       <c r="K130" s="7"/>
     </row>
     <row r="131">
-      <c r="A131" s="122" t="s">
-        <v>596</v>
-      </c>
-      <c r="B131" s="38" t="s">
+      <c r="A131" s="126" t="s">
+        <v>598</v>
+      </c>
+      <c r="B131" s="39" t="s">
         <v>8</v>
       </c>
       <c r="C131" s="7"/>
@@ -15207,14 +15387,14 @@
     </row>
     <row r="132">
       <c r="A132" s="48" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="B132" s="47" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="C132" s="7"/>
       <c r="D132" s="7"/>
-      <c r="E132" s="39"/>
+      <c r="E132" s="37"/>
       <c r="F132" s="4"/>
       <c r="G132" s="4"/>
       <c r="H132" s="4"/>
@@ -15223,164 +15403,168 @@
       <c r="K132" s="7"/>
     </row>
     <row r="133">
-      <c r="A133" s="99" t="s">
-        <v>599</v>
+      <c r="A133" s="100" t="s">
+        <v>601</v>
       </c>
       <c r="B133" s="55" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="C133" s="7"/>
       <c r="D133" s="7"/>
-      <c r="E133" s="40" t="s">
-        <v>601</v>
-      </c>
-      <c r="F133" s="40" t="s">
-        <v>602</v>
-      </c>
-      <c r="G133" s="40" t="s">
+      <c r="E133" s="37" t="s">
         <v>603</v>
       </c>
-      <c r="H133" s="40" t="s">
+      <c r="F133" s="4" t="s">
         <v>604</v>
+      </c>
+      <c r="G133" s="4" t="s">
+        <v>605</v>
+      </c>
+      <c r="H133" s="4" t="s">
+        <v>606</v>
       </c>
       <c r="I133" s="7"/>
       <c r="J133" s="7"/>
-      <c r="K133" s="7"/>
+      <c r="K133" s="72" t="s">
+        <v>607</v>
+      </c>
     </row>
     <row r="134">
-      <c r="A134" s="99" t="s">
-        <v>605</v>
+      <c r="A134" s="100" t="s">
+        <v>601</v>
       </c>
       <c r="B134" s="55" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="C134" s="7"/>
       <c r="D134" s="7"/>
-      <c r="E134" s="39" t="s">
-        <v>607</v>
+      <c r="E134" s="60" t="s">
+        <v>603</v>
       </c>
       <c r="F134" s="4"/>
       <c r="G134" s="36" t="s">
         <v>608</v>
       </c>
-      <c r="H134" s="123" t="s">
+      <c r="H134" s="127" t="s">
         <v>609</v>
       </c>
       <c r="I134" s="7"/>
       <c r="J134" s="7"/>
-      <c r="K134" s="7"/>
+      <c r="K134" s="128" t="s">
+        <v>610</v>
+      </c>
     </row>
     <row r="135">
-      <c r="A135" s="46" t="s">
-        <v>610</v>
-      </c>
-      <c r="B135" s="47" t="s">
+      <c r="A135" s="100" t="s">
         <v>611</v>
       </c>
-      <c r="C135" s="119" t="s">
+      <c r="B135" s="55" t="s">
         <v>612</v>
       </c>
-      <c r="D135" s="83"/>
-      <c r="E135" s="76" t="s">
+      <c r="C135" s="7"/>
+      <c r="D135" s="7"/>
+      <c r="E135" s="37" t="s">
         <v>613</v>
       </c>
       <c r="F135" s="4"/>
-      <c r="G135" s="4" t="s">
-        <v>322</v>
-      </c>
-      <c r="H135" s="4" t="s">
+      <c r="G135" s="36" t="s">
+        <v>608</v>
+      </c>
+      <c r="H135" s="127" t="s">
         <v>614</v>
       </c>
       <c r="I135" s="7"/>
       <c r="J135" s="7"/>
-      <c r="K135" s="7"/>
+      <c r="K135" s="128" t="s">
+        <v>615</v>
+      </c>
     </row>
     <row r="136">
-      <c r="A136" s="122" t="s">
-        <v>615</v>
-      </c>
-      <c r="B136" s="38" t="s">
+      <c r="A136" s="46" t="s">
         <v>616</v>
       </c>
-      <c r="C136" s="7"/>
-      <c r="D136" s="7"/>
-      <c r="E136" s="4"/>
+      <c r="B136" s="47" t="s">
+        <v>617</v>
+      </c>
+      <c r="C136" s="121" t="s">
+        <v>618</v>
+      </c>
+      <c r="D136" s="83"/>
+      <c r="E136" s="76" t="s">
+        <v>619</v>
+      </c>
       <c r="F136" s="4"/>
-      <c r="G136" s="4"/>
-      <c r="H136" s="4"/>
+      <c r="G136" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="H136" s="4" t="s">
+        <v>620</v>
+      </c>
       <c r="I136" s="7"/>
       <c r="J136" s="7"/>
       <c r="K136" s="7"/>
     </row>
     <row r="137">
-      <c r="A137" s="48" t="s">
-        <v>617</v>
-      </c>
-      <c r="B137" s="47" t="s">
-        <v>618</v>
-      </c>
-      <c r="C137" s="14"/>
-      <c r="D137" s="14"/>
-      <c r="E137" s="49" t="s">
-        <v>619</v>
-      </c>
-      <c r="F137" s="36"/>
-      <c r="G137" s="49" t="s">
-        <v>620</v>
-      </c>
-      <c r="H137" s="123" t="s">
+      <c r="A137" s="126" t="s">
         <v>621</v>
       </c>
-      <c r="I137" s="7" t="s">
-        <v>71</v>
-      </c>
+      <c r="B137" s="39" t="s">
+        <v>622</v>
+      </c>
+      <c r="C137" s="7"/>
+      <c r="D137" s="7"/>
+      <c r="E137" s="4"/>
+      <c r="F137" s="4"/>
+      <c r="G137" s="4"/>
+      <c r="H137" s="4"/>
+      <c r="I137" s="7"/>
       <c r="J137" s="7"/>
       <c r="K137" s="7"/>
     </row>
     <row r="138">
-      <c r="A138" s="46" t="s">
-        <v>622</v>
+      <c r="A138" s="48" t="s">
+        <v>623</v>
       </c>
       <c r="B138" s="47" t="s">
-        <v>623</v>
-      </c>
-      <c r="C138" s="7" t="s">
-        <v>575</v>
-      </c>
-      <c r="D138" s="7"/>
-      <c r="E138" s="60" t="s">
         <v>624</v>
       </c>
-      <c r="F138" s="4"/>
-      <c r="G138" s="39" t="s">
+      <c r="C138" s="14"/>
+      <c r="D138" s="14"/>
+      <c r="E138" s="49" t="s">
         <v>625</v>
       </c>
-      <c r="H138" s="39" t="s">
+      <c r="F138" s="36"/>
+      <c r="G138" s="49" t="s">
         <v>626</v>
       </c>
-      <c r="I138" s="7"/>
+      <c r="H138" s="57" t="s">
+        <v>627</v>
+      </c>
+      <c r="I138" s="72" t="s">
+        <v>71</v>
+      </c>
       <c r="J138" s="7"/>
       <c r="K138" s="7"/>
     </row>
     <row r="139">
       <c r="A139" s="46" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="B139" s="47" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="C139" s="7" t="s">
-        <v>629</v>
+        <v>576</v>
       </c>
       <c r="D139" s="7"/>
-      <c r="E139" s="39" t="s">
+      <c r="E139" s="60" t="s">
         <v>630</v>
       </c>
       <c r="F139" s="4"/>
-      <c r="G139" s="4" t="s">
+      <c r="G139" s="37" t="s">
         <v>631</v>
       </c>
-      <c r="H139" s="39" t="s">
+      <c r="H139" s="37" t="s">
         <v>632</v>
       </c>
       <c r="I139" s="7"/>
@@ -15388,170 +15572,176 @@
       <c r="K139" s="7"/>
     </row>
     <row r="140">
-      <c r="A140" s="121" t="s">
+      <c r="A140" s="46" t="s">
         <v>633</v>
       </c>
-      <c r="B140" s="95" t="s">
+      <c r="B140" s="47" t="s">
         <v>634</v>
       </c>
-      <c r="C140" s="7"/>
+      <c r="C140" s="7" t="s">
+        <v>635</v>
+      </c>
       <c r="D140" s="7"/>
-      <c r="E140" s="124" t="s">
-        <v>635</v>
+      <c r="E140" s="37" t="s">
+        <v>636</v>
       </c>
       <c r="F140" s="4"/>
       <c r="G140" s="4" t="s">
-        <v>636</v>
-      </c>
-      <c r="H140" s="4" t="s">
         <v>637</v>
+      </c>
+      <c r="H140" s="37" t="s">
+        <v>638</v>
       </c>
       <c r="I140" s="7"/>
       <c r="J140" s="7"/>
       <c r="K140" s="7"/>
     </row>
     <row r="141">
-      <c r="A141" s="48" t="s">
-        <v>638</v>
-      </c>
-      <c r="B141" s="47" t="s">
-        <v>6</v>
-      </c>
-      <c r="C141" s="49" t="s">
+      <c r="A141" s="125" t="s">
         <v>639</v>
       </c>
-      <c r="D141" s="87" t="s">
+      <c r="B141" s="96" t="s">
         <v>640</v>
       </c>
-      <c r="E141" s="49" t="s">
+      <c r="C141" s="4"/>
+      <c r="D141" s="7"/>
+      <c r="E141" s="129" t="s">
         <v>641</v>
       </c>
-      <c r="F141" s="49" t="s">
+      <c r="F141" s="4"/>
+      <c r="G141" s="37" t="s">
         <v>642</v>
       </c>
-      <c r="G141" s="4" t="s">
+      <c r="H141" s="37" t="s">
         <v>643</v>
       </c>
-      <c r="H141" s="105" t="s">
-        <v>644</v>
-      </c>
-      <c r="I141" s="7" t="s">
-        <v>63</v>
-      </c>
+      <c r="I141" s="7"/>
       <c r="J141" s="7"/>
       <c r="K141" s="7"/>
     </row>
     <row r="142">
       <c r="A142" s="48" t="s">
+        <v>644</v>
+      </c>
+      <c r="B142" s="47" t="s">
+        <v>6</v>
+      </c>
+      <c r="C142" s="88" t="s">
         <v>645</v>
       </c>
-      <c r="B142" s="47" t="s">
+      <c r="D142" s="88" t="s">
         <v>646</v>
       </c>
-      <c r="C142" s="87" t="s">
+      <c r="E142" s="49" t="s">
         <v>647</v>
       </c>
-      <c r="D142" s="87" t="s">
+      <c r="F142" s="88" t="s">
         <v>648</v>
       </c>
-      <c r="E142" s="60" t="s">
+      <c r="G142" s="37" t="s">
         <v>649</v>
       </c>
-      <c r="F142" s="7"/>
-      <c r="G142" s="4" t="s">
+      <c r="H142" s="107" t="s">
         <v>650</v>
       </c>
-      <c r="H142" s="39" t="s">
-        <v>651</v>
-      </c>
-      <c r="I142" s="7"/>
+      <c r="I142" s="72" t="s">
+        <v>63</v>
+      </c>
       <c r="J142" s="7"/>
       <c r="K142" s="7"/>
     </row>
     <row r="143">
-      <c r="A143" s="125" t="s">
-        <v>645</v>
-      </c>
-      <c r="B143" s="126" t="s">
-        <v>646</v>
-      </c>
-      <c r="C143" s="113" t="s">
-        <v>647</v>
-      </c>
-      <c r="D143" s="127" t="s">
-        <v>648</v>
+      <c r="A143" s="48" t="s">
+        <v>651</v>
+      </c>
+      <c r="B143" s="47" t="s">
+        <v>652</v>
+      </c>
+      <c r="C143" s="88" t="s">
+        <v>653</v>
+      </c>
+      <c r="D143" s="88" t="s">
+        <v>654</v>
       </c>
       <c r="E143" s="60" t="s">
-        <v>649</v>
+        <v>655</v>
       </c>
       <c r="F143" s="4"/>
-      <c r="G143" s="4" t="s">
-        <v>652</v>
-      </c>
-      <c r="H143" s="39" t="s">
-        <v>653</v>
+      <c r="G143" s="37" t="s">
+        <v>656</v>
+      </c>
+      <c r="H143" s="37" t="s">
+        <v>657</v>
       </c>
       <c r="I143" s="7"/>
       <c r="J143" s="7"/>
       <c r="K143" s="7"/>
     </row>
     <row r="144">
-      <c r="A144" s="125" t="s">
-        <v>645</v>
-      </c>
-      <c r="B144" s="126" t="s">
-        <v>646</v>
-      </c>
-      <c r="C144" s="113" t="s">
-        <v>647</v>
-      </c>
-      <c r="D144" s="113" t="s">
-        <v>648</v>
+      <c r="A144" s="130" t="s">
+        <v>651</v>
+      </c>
+      <c r="B144" s="131" t="s">
+        <v>652</v>
+      </c>
+      <c r="C144" s="115" t="s">
+        <v>653</v>
+      </c>
+      <c r="D144" s="132" t="s">
+        <v>654</v>
       </c>
       <c r="E144" s="60" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="F144" s="4"/>
-      <c r="G144" s="4" t="s">
-        <v>655</v>
-      </c>
-      <c r="H144" s="39" t="s">
-        <v>656</v>
+      <c r="G144" s="37" t="s">
+        <v>658</v>
+      </c>
+      <c r="H144" s="37" t="s">
+        <v>659</v>
       </c>
       <c r="I144" s="7"/>
       <c r="J144" s="7"/>
       <c r="K144" s="7"/>
     </row>
     <row r="145">
-      <c r="A145" s="122" t="s">
-        <v>657</v>
-      </c>
-      <c r="B145" s="38" t="s">
-        <v>658</v>
-      </c>
-      <c r="C145" s="128" t="s">
-        <v>659</v>
-      </c>
-      <c r="D145" s="87"/>
-      <c r="E145" s="4"/>
+      <c r="A145" s="130" t="s">
+        <v>651</v>
+      </c>
+      <c r="B145" s="131" t="s">
+        <v>652</v>
+      </c>
+      <c r="C145" s="115" t="s">
+        <v>653</v>
+      </c>
+      <c r="D145" s="115" t="s">
+        <v>654</v>
+      </c>
+      <c r="E145" s="60" t="s">
+        <v>660</v>
+      </c>
       <c r="F145" s="4"/>
-      <c r="G145" s="4"/>
-      <c r="H145" s="4"/>
+      <c r="G145" s="37" t="s">
+        <v>661</v>
+      </c>
+      <c r="H145" s="37" t="s">
+        <v>662</v>
+      </c>
       <c r="I145" s="7"/>
       <c r="J145" s="7"/>
       <c r="K145" s="7"/>
     </row>
     <row r="146">
-      <c r="A146" s="46" t="s">
-        <v>660</v>
-      </c>
-      <c r="B146" s="47" t="s">
-        <v>661</v>
-      </c>
-      <c r="C146" s="129" t="s">
-        <v>659</v>
-      </c>
-      <c r="D146" s="7"/>
+      <c r="A146" s="126" t="s">
+        <v>663</v>
+      </c>
+      <c r="B146" s="39" t="s">
+        <v>664</v>
+      </c>
+      <c r="C146" s="133" t="s">
+        <v>665</v>
+      </c>
+      <c r="D146" s="88"/>
       <c r="E146" s="4"/>
       <c r="F146" s="4"/>
       <c r="G146" s="4"/>
@@ -15561,337 +15751,331 @@
       <c r="K146" s="7"/>
     </row>
     <row r="147">
-      <c r="A147" s="99" t="s">
-        <v>662</v>
-      </c>
-      <c r="B147" s="55" t="s">
-        <v>663</v>
-      </c>
-      <c r="C147" s="87" t="s">
-        <v>664</v>
-      </c>
-      <c r="D147" s="87" t="s">
+      <c r="A147" s="46" t="s">
+        <v>666</v>
+      </c>
+      <c r="B147" s="47" t="s">
+        <v>667</v>
+      </c>
+      <c r="C147" s="134" t="s">
         <v>665</v>
       </c>
-      <c r="E147" s="49" t="s">
-        <v>666</v>
-      </c>
-      <c r="F147" s="49"/>
-      <c r="G147" s="36" t="s">
-        <v>667</v>
-      </c>
-      <c r="H147" s="130" t="s">
-        <v>668</v>
-      </c>
+      <c r="D147" s="7"/>
+      <c r="E147" s="4"/>
+      <c r="F147" s="4"/>
+      <c r="G147" s="37"/>
+      <c r="H147" s="37"/>
       <c r="I147" s="7"/>
       <c r="J147" s="7"/>
       <c r="K147" s="7"/>
     </row>
     <row r="148">
-      <c r="A148" s="99" t="s">
+      <c r="A148" s="100" t="s">
+        <v>668</v>
+      </c>
+      <c r="B148" s="55" t="s">
         <v>669</v>
       </c>
-      <c r="B148" s="55" t="s">
+      <c r="C148" s="88" t="s">
         <v>670</v>
       </c>
-      <c r="C148" s="87" t="s">
-        <v>664</v>
-      </c>
-      <c r="D148" s="87" t="s">
-        <v>665</v>
+      <c r="D148" s="88" t="s">
+        <v>671</v>
       </c>
       <c r="E148" s="49" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="F148" s="49"/>
-      <c r="G148" s="4" t="s">
-        <v>667</v>
-      </c>
-      <c r="H148" s="120" t="s">
-        <v>672</v>
+      <c r="G148" s="36" t="s">
+        <v>673</v>
+      </c>
+      <c r="H148" s="135" t="s">
+        <v>674</v>
       </c>
       <c r="I148" s="7"/>
       <c r="J148" s="7"/>
       <c r="K148" s="7"/>
     </row>
     <row r="149">
-      <c r="A149" s="99" t="s">
+      <c r="A149" s="100" t="s">
+        <v>675</v>
+      </c>
+      <c r="B149" s="55" t="s">
+        <v>676</v>
+      </c>
+      <c r="C149" s="88" t="s">
+        <v>670</v>
+      </c>
+      <c r="D149" s="88" t="s">
+        <v>671</v>
+      </c>
+      <c r="E149" s="49" t="s">
+        <v>677</v>
+      </c>
+      <c r="F149" s="49"/>
+      <c r="G149" s="37" t="s">
         <v>673</v>
       </c>
-      <c r="B149" s="55" t="s">
-        <v>674</v>
-      </c>
-      <c r="C149" s="131" t="s">
-        <v>575</v>
-      </c>
-      <c r="D149" s="87"/>
-      <c r="E149" s="40" t="s">
-        <v>675</v>
-      </c>
-      <c r="F149" s="40"/>
-      <c r="G149" s="40" t="s">
-        <v>676</v>
-      </c>
-      <c r="H149" s="132" t="s">
-        <v>677</v>
+      <c r="H149" s="98" t="s">
+        <v>678</v>
       </c>
       <c r="I149" s="7"/>
       <c r="J149" s="7"/>
       <c r="K149" s="7"/>
     </row>
     <row r="150">
-      <c r="A150" s="122" t="s">
-        <v>678</v>
-      </c>
-      <c r="B150" s="38" t="s">
+      <c r="A150" s="100" t="s">
         <v>679</v>
       </c>
-      <c r="C150" s="133" t="s">
-        <v>659</v>
-      </c>
-      <c r="D150" s="7"/>
-      <c r="E150" s="4"/>
-      <c r="F150" s="4"/>
-      <c r="G150" s="4"/>
-      <c r="H150" s="4"/>
+      <c r="B150" s="55" t="s">
+        <v>680</v>
+      </c>
+      <c r="C150" s="136" t="s">
+        <v>576</v>
+      </c>
+      <c r="D150" s="88"/>
+      <c r="E150" s="40" t="s">
+        <v>681</v>
+      </c>
+      <c r="F150" s="40"/>
+      <c r="G150" s="40" t="s">
+        <v>682</v>
+      </c>
+      <c r="H150" s="40" t="s">
+        <v>683</v>
+      </c>
       <c r="I150" s="7"/>
       <c r="J150" s="7"/>
       <c r="K150" s="7"/>
     </row>
     <row r="151">
-      <c r="A151" s="99" t="s">
-        <v>680</v>
-      </c>
-      <c r="B151" s="55"/>
-      <c r="C151" s="87"/>
+      <c r="A151" s="126" t="s">
+        <v>684</v>
+      </c>
+      <c r="B151" s="39" t="s">
+        <v>685</v>
+      </c>
+      <c r="C151" s="134" t="s">
+        <v>665</v>
+      </c>
       <c r="D151" s="7"/>
-      <c r="E151" s="60" t="s">
-        <v>649</v>
-      </c>
-      <c r="F151" s="49"/>
-      <c r="G151" s="36" t="s">
-        <v>681</v>
-      </c>
-      <c r="H151" s="130" t="s">
-        <v>682</v>
-      </c>
+      <c r="E151" s="4"/>
+      <c r="F151" s="4"/>
+      <c r="G151" s="4"/>
+      <c r="H151" s="4"/>
       <c r="I151" s="7"/>
       <c r="J151" s="7"/>
       <c r="K151" s="7"/>
     </row>
     <row r="152">
-      <c r="A152" s="99" t="s">
-        <v>680</v>
-      </c>
-      <c r="B152" s="77"/>
-      <c r="C152" s="87"/>
+      <c r="A152" s="100" t="s">
+        <v>686</v>
+      </c>
+      <c r="B152" s="55"/>
+      <c r="C152" s="88"/>
       <c r="D152" s="7"/>
       <c r="E152" s="60" t="s">
-        <v>649</v>
+        <v>655</v>
       </c>
       <c r="F152" s="49"/>
       <c r="G152" s="36" t="s">
-        <v>683</v>
+        <v>687</v>
       </c>
       <c r="H152" s="49" t="s">
-        <v>684</v>
+        <v>688</v>
       </c>
       <c r="I152" s="7"/>
       <c r="J152" s="7"/>
-      <c r="K152" s="7" t="s">
-        <v>685</v>
-      </c>
+      <c r="K152" s="7"/>
     </row>
     <row r="153">
-      <c r="A153" s="48" t="s">
+      <c r="A153" s="100" t="s">
         <v>686</v>
       </c>
-      <c r="B153" s="47" t="s">
-        <v>687</v>
-      </c>
-      <c r="C153" s="7" t="s">
-        <v>688</v>
-      </c>
-      <c r="D153" s="7" t="s">
+      <c r="B153" s="77"/>
+      <c r="C153" s="88"/>
+      <c r="D153" s="7"/>
+      <c r="E153" s="60" t="s">
+        <v>655</v>
+      </c>
+      <c r="F153" s="49"/>
+      <c r="G153" s="36" t="s">
         <v>689</v>
       </c>
-      <c r="E153" s="60" t="s">
+      <c r="H153" s="49" t="s">
         <v>690</v>
-      </c>
-      <c r="F153" s="4"/>
-      <c r="G153" s="39" t="s">
-        <v>691</v>
-      </c>
-      <c r="H153" s="39" t="s">
-        <v>692</v>
       </c>
       <c r="I153" s="7"/>
       <c r="J153" s="7"/>
-      <c r="K153" s="7"/>
+      <c r="K153" s="7" t="s">
+        <v>691</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" s="48" t="s">
+        <v>692</v>
+      </c>
+      <c r="B154" s="47" t="s">
         <v>693</v>
       </c>
-      <c r="B154" s="47" t="s">
+      <c r="C154" s="7" t="s">
         <v>694</v>
       </c>
-      <c r="C154" s="134"/>
-      <c r="D154" s="134"/>
+      <c r="D154" s="7" t="s">
+        <v>695</v>
+      </c>
       <c r="E154" s="60" t="s">
-        <v>649</v>
-      </c>
-      <c r="F154" s="135"/>
-      <c r="G154" s="49" t="s">
-        <v>695</v>
-      </c>
-      <c r="H154" s="136" t="s">
         <v>696</v>
       </c>
-      <c r="I154" s="7" t="s">
+      <c r="F154" s="4"/>
+      <c r="G154" s="37" t="s">
         <v>697</v>
       </c>
+      <c r="H154" s="98" t="s">
+        <v>698</v>
+      </c>
+      <c r="I154" s="7"/>
       <c r="J154" s="7"/>
       <c r="K154" s="7"/>
     </row>
     <row r="155">
-      <c r="A155" s="99" t="s">
-        <v>698</v>
-      </c>
-      <c r="B155" s="55" t="s">
+      <c r="A155" s="48" t="s">
         <v>699</v>
       </c>
-      <c r="C155" s="87" t="s">
+      <c r="B155" s="47" t="s">
         <v>700</v>
       </c>
-      <c r="D155" s="87" t="s">
+      <c r="C155" s="137"/>
+      <c r="D155" s="137"/>
+      <c r="E155" s="60" t="s">
+        <v>655</v>
+      </c>
+      <c r="F155" s="138"/>
+      <c r="G155" s="49" t="s">
         <v>701</v>
       </c>
-      <c r="E155" s="49" t="s">
+      <c r="H155" s="139" t="s">
         <v>702</v>
       </c>
-      <c r="F155" s="49"/>
-      <c r="G155" s="36" t="s">
+      <c r="I155" s="72" t="s">
         <v>703</v>
       </c>
-      <c r="H155" s="136" t="s">
-        <v>704</v>
-      </c>
-      <c r="I155" s="7"/>
       <c r="J155" s="7"/>
       <c r="K155" s="7"/>
     </row>
     <row r="156">
-      <c r="A156" s="99" t="s">
+      <c r="A156" s="100" t="s">
+        <v>704</v>
+      </c>
+      <c r="B156" s="55" t="s">
         <v>705</v>
       </c>
-      <c r="B156" s="55" t="s">
+      <c r="C156" s="88" t="s">
         <v>706</v>
       </c>
-      <c r="C156" s="87"/>
-      <c r="D156" s="87"/>
-      <c r="E156" s="87" t="s">
+      <c r="D156" s="88" t="s">
         <v>707</v>
       </c>
-      <c r="F156" s="87"/>
-      <c r="G156" s="4" t="s">
+      <c r="E156" s="88" t="s">
         <v>708</v>
       </c>
-      <c r="H156" s="39" t="s">
+      <c r="F156" s="88"/>
+      <c r="G156" s="36" t="s">
         <v>709</v>
+      </c>
+      <c r="H156" s="36" t="s">
+        <v>710</v>
       </c>
       <c r="I156" s="7"/>
       <c r="J156" s="7"/>
       <c r="K156" s="7"/>
     </row>
     <row r="157">
-      <c r="A157" s="99" t="s">
-        <v>710</v>
+      <c r="A157" s="100" t="s">
+        <v>711</v>
       </c>
       <c r="B157" s="55" t="s">
-        <v>711</v>
-      </c>
-      <c r="C157" s="87"/>
-      <c r="D157" s="87"/>
+        <v>712</v>
+      </c>
+      <c r="C157" s="88"/>
+      <c r="D157" s="88"/>
       <c r="E157" s="49" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="F157" s="49"/>
-      <c r="G157" s="4" t="s">
-        <v>708</v>
-      </c>
-      <c r="H157" s="39" t="s">
-        <v>713</v>
+      <c r="G157" s="37" t="s">
+        <v>714</v>
+      </c>
+      <c r="H157" s="37" t="s">
+        <v>715</v>
       </c>
       <c r="I157" s="7"/>
       <c r="J157" s="7"/>
       <c r="K157" s="7"/>
     </row>
     <row r="158">
-      <c r="A158" s="99" t="s">
+      <c r="A158" s="100" t="s">
+        <v>716</v>
+      </c>
+      <c r="B158" s="55" t="s">
+        <v>717</v>
+      </c>
+      <c r="C158" s="88"/>
+      <c r="D158" s="88"/>
+      <c r="E158" s="49" t="s">
+        <v>718</v>
+      </c>
+      <c r="F158" s="49"/>
+      <c r="G158" s="37" t="s">
         <v>714</v>
       </c>
-      <c r="B158" s="55" t="s">
-        <v>715</v>
-      </c>
-      <c r="C158" s="87"/>
-      <c r="D158" s="87"/>
-      <c r="E158" s="49" t="s">
-        <v>716</v>
-      </c>
-      <c r="F158" s="49"/>
-      <c r="G158" s="4" t="s">
-        <v>708</v>
-      </c>
-      <c r="H158" s="39" t="s">
-        <v>717</v>
+      <c r="H158" s="37" t="s">
+        <v>719</v>
       </c>
       <c r="I158" s="7"/>
       <c r="J158" s="7"/>
       <c r="K158" s="7"/>
     </row>
     <row r="159">
-      <c r="A159" s="99" t="s">
-        <v>718</v>
+      <c r="A159" s="100" t="s">
+        <v>720</v>
       </c>
       <c r="B159" s="55" t="s">
-        <v>719</v>
-      </c>
-      <c r="C159" s="87"/>
-      <c r="D159" s="87"/>
+        <v>721</v>
+      </c>
+      <c r="C159" s="88"/>
+      <c r="D159" s="88"/>
       <c r="E159" s="49" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="F159" s="49"/>
-      <c r="G159" s="4" t="s">
-        <v>708</v>
-      </c>
-      <c r="H159" s="4" t="s">
-        <v>721</v>
+      <c r="G159" s="37" t="s">
+        <v>714</v>
+      </c>
+      <c r="H159" s="37" t="s">
+        <v>723</v>
       </c>
       <c r="I159" s="7"/>
       <c r="J159" s="7"/>
       <c r="K159" s="7"/>
     </row>
     <row r="160">
-      <c r="A160" s="99" t="s">
-        <v>722</v>
+      <c r="A160" s="100" t="s">
+        <v>724</v>
       </c>
       <c r="B160" s="55" t="s">
-        <v>723</v>
-      </c>
-      <c r="C160" s="137" t="s">
-        <v>724</v>
-      </c>
-      <c r="D160" s="87"/>
+        <v>725</v>
+      </c>
+      <c r="C160" s="88"/>
+      <c r="D160" s="88"/>
       <c r="E160" s="49" t="s">
-        <v>725</v>
-      </c>
-      <c r="F160" s="39"/>
-      <c r="G160" s="36" t="s">
         <v>726</v>
       </c>
-      <c r="H160" s="49" t="s">
+      <c r="F160" s="49"/>
+      <c r="G160" s="37" t="s">
+        <v>714</v>
+      </c>
+      <c r="H160" s="37" t="s">
         <v>727</v>
       </c>
       <c r="I160" s="7"/>
@@ -15899,569 +16083,567 @@
       <c r="K160" s="7"/>
     </row>
     <row r="161">
-      <c r="A161" s="48" t="s">
+      <c r="A161" s="100" t="s">
         <v>728</v>
       </c>
-      <c r="B161" s="138" t="s">
+      <c r="B161" s="82" t="s">
         <v>729</v>
       </c>
-      <c r="C161" s="128" t="s">
-        <v>659</v>
-      </c>
-      <c r="D161" s="87"/>
-      <c r="E161" s="72"/>
-      <c r="F161" s="87"/>
-      <c r="G161" s="14"/>
-      <c r="H161" s="14"/>
+      <c r="C161" s="140" t="s">
+        <v>730</v>
+      </c>
+      <c r="D161" s="88"/>
+      <c r="E161" s="88" t="s">
+        <v>731</v>
+      </c>
+      <c r="F161" s="72"/>
+      <c r="G161" s="14" t="s">
+        <v>732</v>
+      </c>
+      <c r="H161" s="88" t="s">
+        <v>733</v>
+      </c>
       <c r="I161" s="7"/>
       <c r="J161" s="7"/>
       <c r="K161" s="7"/>
     </row>
     <row r="162">
-      <c r="A162" s="99" t="s">
-        <v>730</v>
-      </c>
-      <c r="B162" s="82" t="s">
-        <v>57</v>
-      </c>
-      <c r="C162" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="D162" s="87" t="s">
-        <v>59</v>
-      </c>
-      <c r="E162" s="87" t="s">
-        <v>731</v>
-      </c>
-      <c r="F162" s="87"/>
-      <c r="G162" s="96" t="s">
-        <v>61</v>
-      </c>
-      <c r="H162" s="139" t="s">
-        <v>732</v>
-      </c>
-      <c r="I162" s="7" t="s">
-        <v>63</v>
-      </c>
+      <c r="A162" s="48" t="s">
+        <v>734</v>
+      </c>
+      <c r="B162" s="141" t="s">
+        <v>735</v>
+      </c>
+      <c r="C162" s="133" t="s">
+        <v>665</v>
+      </c>
+      <c r="D162" s="88"/>
+      <c r="E162" s="72"/>
+      <c r="F162" s="88"/>
+      <c r="G162" s="14"/>
+      <c r="H162" s="14"/>
+      <c r="I162" s="7"/>
       <c r="J162" s="7"/>
       <c r="K162" s="7"/>
     </row>
     <row r="163">
-      <c r="A163" s="99" t="s">
-        <v>733</v>
+      <c r="A163" s="100" t="s">
+        <v>736</v>
       </c>
       <c r="B163" s="82" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="C163" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="D163" s="87" t="s">
-        <v>67</v>
-      </c>
-      <c r="E163" s="87" t="s">
-        <v>734</v>
-      </c>
-      <c r="F163" s="87"/>
-      <c r="G163" s="140" t="s">
-        <v>69</v>
-      </c>
-      <c r="H163" s="140" t="s">
-        <v>735</v>
-      </c>
-      <c r="I163" s="7" t="s">
-        <v>71</v>
+        <v>58</v>
+      </c>
+      <c r="D163" s="88" t="s">
+        <v>59</v>
+      </c>
+      <c r="E163" s="88" t="s">
+        <v>737</v>
+      </c>
+      <c r="F163" s="88"/>
+      <c r="G163" s="97" t="s">
+        <v>61</v>
+      </c>
+      <c r="H163" s="97" t="s">
+        <v>738</v>
+      </c>
+      <c r="I163" s="72" t="s">
+        <v>63</v>
       </c>
       <c r="J163" s="7"/>
       <c r="K163" s="7"/>
     </row>
     <row r="164">
-      <c r="A164" s="99" t="s">
-        <v>736</v>
+      <c r="A164" s="100" t="s">
+        <v>739</v>
       </c>
       <c r="B164" s="82" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C164" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="D164" s="87" t="s">
-        <v>75</v>
-      </c>
-      <c r="E164" s="87" t="s">
-        <v>737</v>
-      </c>
-      <c r="F164" s="87"/>
-      <c r="G164" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="H164" s="72" t="s">
-        <v>738</v>
-      </c>
-      <c r="I164" s="7"/>
+        <v>66</v>
+      </c>
+      <c r="D164" s="88" t="s">
+        <v>67</v>
+      </c>
+      <c r="E164" s="88" t="s">
+        <v>740</v>
+      </c>
+      <c r="F164" s="88"/>
+      <c r="G164" s="142" t="s">
+        <v>69</v>
+      </c>
+      <c r="H164" s="142" t="s">
+        <v>741</v>
+      </c>
+      <c r="I164" s="72" t="s">
+        <v>71</v>
+      </c>
       <c r="J164" s="7"/>
       <c r="K164" s="7"/>
     </row>
     <row r="165">
-      <c r="A165" s="99" t="s">
-        <v>739</v>
+      <c r="A165" s="100" t="s">
+        <v>742</v>
       </c>
       <c r="B165" s="82" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="C165" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="D165" s="87" t="s">
-        <v>82</v>
-      </c>
-      <c r="E165" s="87" t="s">
-        <v>740</v>
-      </c>
-      <c r="F165" s="87"/>
-      <c r="G165" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="D165" s="88" t="s">
+        <v>75</v>
+      </c>
+      <c r="E165" s="88" t="s">
+        <v>743</v>
+      </c>
+      <c r="F165" s="88"/>
+      <c r="G165" s="72" t="s">
         <v>77</v>
       </c>
       <c r="H165" s="72" t="s">
-        <v>741</v>
+        <v>744</v>
       </c>
       <c r="I165" s="7"/>
       <c r="J165" s="7"/>
       <c r="K165" s="7"/>
     </row>
     <row r="166">
-      <c r="A166" s="99" t="s">
-        <v>742</v>
+      <c r="A166" s="100" t="s">
+        <v>745</v>
       </c>
       <c r="B166" s="82" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C166" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="D166" s="87" t="s">
-        <v>88</v>
-      </c>
-      <c r="E166" s="72" t="s">
-        <v>743</v>
-      </c>
-      <c r="F166" s="72" t="s">
-        <v>744</v>
-      </c>
-      <c r="G166" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="H166" s="87" t="s">
-        <v>745</v>
+        <v>81</v>
+      </c>
+      <c r="D166" s="88" t="s">
+        <v>82</v>
+      </c>
+      <c r="E166" s="88" t="s">
+        <v>746</v>
+      </c>
+      <c r="F166" s="88"/>
+      <c r="G166" s="72" t="s">
+        <v>77</v>
+      </c>
+      <c r="H166" s="72" t="s">
+        <v>747</v>
       </c>
       <c r="I166" s="7"/>
       <c r="J166" s="7"/>
       <c r="K166" s="7"/>
     </row>
     <row r="167">
-      <c r="A167" s="99" t="s">
-        <v>746</v>
+      <c r="A167" s="100" t="s">
+        <v>748</v>
       </c>
       <c r="B167" s="82" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="C167" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="D167" s="87" t="s">
-        <v>747</v>
-      </c>
-      <c r="E167" s="87" t="s">
-        <v>748</v>
-      </c>
-      <c r="F167" s="87"/>
-      <c r="G167" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="H167" s="72" t="s">
+        <v>87</v>
+      </c>
+      <c r="D167" s="88" t="s">
+        <v>88</v>
+      </c>
+      <c r="E167" s="72" t="s">
         <v>749</v>
+      </c>
+      <c r="F167" s="72" t="s">
+        <v>750</v>
+      </c>
+      <c r="G167" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="H167" s="88" t="s">
+        <v>751</v>
       </c>
       <c r="I167" s="7"/>
       <c r="J167" s="7"/>
       <c r="K167" s="7"/>
     </row>
     <row r="168">
-      <c r="A168" s="99" t="s">
-        <v>750</v>
+      <c r="A168" s="100" t="s">
+        <v>752</v>
       </c>
       <c r="B168" s="82" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="C168" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="D168" s="87" t="s">
-        <v>103</v>
-      </c>
-      <c r="E168" s="87" t="s">
-        <v>751</v>
-      </c>
-      <c r="F168" s="87"/>
-      <c r="G168" s="96" t="s">
-        <v>105</v>
-      </c>
-      <c r="H168" s="96" t="s">
-        <v>752</v>
+        <v>95</v>
+      </c>
+      <c r="D168" s="88" t="s">
+        <v>753</v>
+      </c>
+      <c r="E168" s="88" t="s">
+        <v>754</v>
+      </c>
+      <c r="F168" s="88"/>
+      <c r="G168" s="72" t="s">
+        <v>98</v>
+      </c>
+      <c r="H168" s="72" t="s">
+        <v>755</v>
       </c>
       <c r="I168" s="7"/>
       <c r="J168" s="7"/>
       <c r="K168" s="7"/>
     </row>
     <row r="169">
-      <c r="A169" s="99" t="s">
-        <v>753</v>
+      <c r="A169" s="100" t="s">
+        <v>756</v>
       </c>
       <c r="B169" s="82" t="s">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="C169" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="D169" s="87" t="s">
-        <v>123</v>
-      </c>
-      <c r="E169" s="87" t="s">
-        <v>754</v>
-      </c>
-      <c r="F169" s="87"/>
-      <c r="G169" s="87" t="s">
-        <v>755</v>
-      </c>
-      <c r="H169" s="87" t="s">
-        <v>756</v>
+        <v>102</v>
+      </c>
+      <c r="D169" s="88" t="s">
+        <v>103</v>
+      </c>
+      <c r="E169" s="88" t="s">
+        <v>757</v>
+      </c>
+      <c r="F169" s="88"/>
+      <c r="G169" s="97" t="s">
+        <v>105</v>
+      </c>
+      <c r="H169" s="97" t="s">
+        <v>758</v>
       </c>
       <c r="I169" s="7"/>
       <c r="J169" s="7"/>
       <c r="K169" s="7"/>
     </row>
     <row r="170">
-      <c r="A170" s="99" t="s">
-        <v>757</v>
+      <c r="A170" s="100" t="s">
+        <v>759</v>
       </c>
       <c r="B170" s="82" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="C170" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="D170" s="87" t="s">
-        <v>117</v>
-      </c>
-      <c r="E170" s="109" t="s">
-        <v>758</v>
-      </c>
-      <c r="F170" s="109"/>
-      <c r="G170" s="87" t="s">
-        <v>759</v>
-      </c>
-      <c r="H170" s="87" t="s">
+        <v>122</v>
+      </c>
+      <c r="D170" s="88" t="s">
+        <v>123</v>
+      </c>
+      <c r="E170" s="111" t="s">
         <v>760</v>
+      </c>
+      <c r="F170" s="111"/>
+      <c r="G170" s="88" t="s">
+        <v>761</v>
+      </c>
+      <c r="H170" s="88" t="s">
+        <v>762</v>
       </c>
       <c r="I170" s="7"/>
       <c r="J170" s="7"/>
       <c r="K170" s="7"/>
     </row>
     <row r="171">
-      <c r="A171" s="99" t="s">
-        <v>761</v>
+      <c r="A171" s="100" t="s">
+        <v>763</v>
       </c>
       <c r="B171" s="82" t="s">
-        <v>762</v>
-      </c>
-      <c r="C171" s="87" t="s">
-        <v>137</v>
-      </c>
-      <c r="D171" s="87" t="s">
-        <v>138</v>
-      </c>
-      <c r="E171" s="109" t="s">
-        <v>763</v>
-      </c>
-      <c r="F171" s="87"/>
-      <c r="G171" s="140" t="s">
-        <v>755</v>
-      </c>
-      <c r="H171" s="140" t="s">
+        <v>115</v>
+      </c>
+      <c r="C171" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="D171" s="88" t="s">
+        <v>117</v>
+      </c>
+      <c r="E171" s="111" t="s">
         <v>764</v>
+      </c>
+      <c r="F171" s="88"/>
+      <c r="G171" s="88" t="s">
+        <v>765</v>
+      </c>
+      <c r="H171" s="88" t="s">
+        <v>766</v>
       </c>
       <c r="I171" s="7"/>
       <c r="J171" s="7"/>
       <c r="K171" s="7"/>
     </row>
     <row r="172">
-      <c r="A172" s="99" t="s">
-        <v>765</v>
+      <c r="A172" s="100" t="s">
+        <v>767</v>
       </c>
       <c r="B172" s="82" t="s">
-        <v>128</v>
-      </c>
-      <c r="C172" s="14" t="s">
-        <v>129</v>
-      </c>
-      <c r="D172" s="87" t="s">
-        <v>130</v>
-      </c>
-      <c r="E172" s="87" t="s">
-        <v>766</v>
-      </c>
-      <c r="F172" s="87"/>
-      <c r="G172" s="87" t="s">
-        <v>759</v>
-      </c>
-      <c r="H172" s="87" t="s">
-        <v>767</v>
+        <v>768</v>
+      </c>
+      <c r="C172" s="88" t="s">
+        <v>137</v>
+      </c>
+      <c r="D172" s="88" t="s">
+        <v>138</v>
+      </c>
+      <c r="E172" s="88" t="s">
+        <v>769</v>
+      </c>
+      <c r="F172" s="88"/>
+      <c r="G172" s="142" t="s">
+        <v>761</v>
+      </c>
+      <c r="H172" s="142" t="s">
+        <v>770</v>
       </c>
       <c r="I172" s="7"/>
       <c r="J172" s="7"/>
       <c r="K172" s="7"/>
     </row>
     <row r="173">
-      <c r="A173" s="99" t="s">
-        <v>768</v>
+      <c r="A173" s="100" t="s">
+        <v>771</v>
       </c>
       <c r="B173" s="82" t="s">
-        <v>769</v>
+        <v>128</v>
       </c>
       <c r="C173" s="14" t="s">
-        <v>770</v>
-      </c>
-      <c r="D173" s="87" t="s">
-        <v>771</v>
-      </c>
-      <c r="E173" s="92" t="s">
+        <v>129</v>
+      </c>
+      <c r="D173" s="88" t="s">
+        <v>130</v>
+      </c>
+      <c r="E173" s="88" t="s">
         <v>772</v>
       </c>
-      <c r="F173" s="72"/>
-      <c r="G173" s="7" t="s">
+      <c r="F173" s="88"/>
+      <c r="G173" s="88" t="s">
+        <v>765</v>
+      </c>
+      <c r="H173" s="143" t="s">
         <v>773</v>
-      </c>
-      <c r="H173" s="141" t="s">
-        <v>774</v>
       </c>
       <c r="I173" s="7"/>
       <c r="J173" s="7"/>
       <c r="K173" s="7"/>
     </row>
     <row r="174">
-      <c r="A174" s="19"/>
-      <c r="B174" s="7"/>
-      <c r="C174" s="87"/>
-      <c r="D174" s="87"/>
-      <c r="E174" s="92" t="s">
-        <v>772</v>
+      <c r="A174" s="100" t="s">
+        <v>774</v>
+      </c>
+      <c r="B174" s="82" t="s">
+        <v>775</v>
+      </c>
+      <c r="C174" s="14" t="s">
+        <v>776</v>
+      </c>
+      <c r="D174" s="88" t="s">
+        <v>777</v>
+      </c>
+      <c r="E174" s="93" t="s">
+        <v>778</v>
       </c>
       <c r="F174" s="72"/>
-      <c r="G174" s="96" t="s">
-        <v>775</v>
-      </c>
-      <c r="H174" s="96" t="s">
-        <v>776</v>
+      <c r="G174" s="72" t="s">
+        <v>779</v>
+      </c>
+      <c r="H174" s="144" t="s">
+        <v>780</v>
       </c>
       <c r="I174" s="7"/>
       <c r="J174" s="7"/>
       <c r="K174" s="7"/>
     </row>
     <row r="175">
-      <c r="A175" s="48" t="s">
-        <v>777</v>
-      </c>
-      <c r="B175" s="138" t="s">
+      <c r="A175" s="19"/>
+      <c r="B175" s="7"/>
+      <c r="C175" s="88"/>
+      <c r="D175" s="88"/>
+      <c r="E175" s="93" t="s">
         <v>778</v>
       </c>
-      <c r="C175" s="129" t="s">
-        <v>659</v>
-      </c>
-      <c r="D175" s="7"/>
-      <c r="E175" s="7"/>
-      <c r="F175" s="7"/>
-      <c r="G175" s="7"/>
-      <c r="H175" s="7"/>
+      <c r="F175" s="72"/>
+      <c r="G175" s="97" t="s">
+        <v>781</v>
+      </c>
+      <c r="H175" s="97" t="s">
+        <v>782</v>
+      </c>
       <c r="I175" s="7"/>
       <c r="J175" s="7"/>
       <c r="K175" s="7"/>
     </row>
     <row r="176">
-      <c r="A176" s="99" t="s">
-        <v>779</v>
-      </c>
-      <c r="B176" s="82" t="s">
-        <v>780</v>
-      </c>
-      <c r="C176" s="87" t="s">
-        <v>474</v>
-      </c>
-      <c r="D176" s="87" t="s">
-        <v>361</v>
-      </c>
-      <c r="E176" s="109" t="s">
-        <v>781</v>
-      </c>
-      <c r="F176" s="109"/>
-      <c r="G176" s="14" t="s">
-        <v>476</v>
-      </c>
-      <c r="H176" s="142" t="s">
-        <v>782</v>
-      </c>
+      <c r="A176" s="48" t="s">
+        <v>783</v>
+      </c>
+      <c r="B176" s="141" t="s">
+        <v>784</v>
+      </c>
+      <c r="C176" s="134" t="s">
+        <v>665</v>
+      </c>
+      <c r="D176" s="7"/>
+      <c r="E176" s="19"/>
+      <c r="F176" s="19"/>
+      <c r="G176" s="7"/>
+      <c r="H176" s="7"/>
       <c r="I176" s="7"/>
       <c r="J176" s="7"/>
       <c r="K176" s="7"/>
     </row>
     <row r="177">
-      <c r="A177" s="107" t="s">
-        <v>783</v>
-      </c>
-      <c r="B177" s="73" t="s">
-        <v>366</v>
-      </c>
-      <c r="C177" s="143" t="s">
-        <v>180</v>
-      </c>
-      <c r="D177" s="87"/>
-      <c r="E177" s="109" t="s">
-        <v>784</v>
-      </c>
-      <c r="F177" s="109"/>
+      <c r="A177" s="100" t="s">
+        <v>785</v>
+      </c>
+      <c r="B177" s="82" t="s">
+        <v>786</v>
+      </c>
+      <c r="C177" s="88" t="s">
+        <v>474</v>
+      </c>
+      <c r="D177" s="88" t="s">
+        <v>361</v>
+      </c>
+      <c r="E177" s="111" t="s">
+        <v>787</v>
+      </c>
+      <c r="F177" s="111"/>
       <c r="G177" s="14" t="s">
-        <v>785</v>
-      </c>
-      <c r="H177" s="87" t="s">
-        <v>786</v>
+        <v>476</v>
+      </c>
+      <c r="H177" s="88" t="s">
+        <v>788</v>
       </c>
       <c r="I177" s="7"/>
       <c r="J177" s="7"/>
       <c r="K177" s="7"/>
     </row>
     <row r="178">
-      <c r="A178" s="99" t="s">
-        <v>787</v>
-      </c>
-      <c r="B178" s="82" t="s">
-        <v>788</v>
-      </c>
-      <c r="C178" s="87" t="s">
+      <c r="A178" s="109" t="s">
         <v>789</v>
       </c>
-      <c r="D178" s="87" t="s">
+      <c r="B178" s="73" t="s">
+        <v>366</v>
+      </c>
+      <c r="C178" s="145" t="s">
+        <v>180</v>
+      </c>
+      <c r="D178" s="88"/>
+      <c r="E178" s="111" t="s">
         <v>790</v>
       </c>
-      <c r="E178" s="109" t="s">
+      <c r="F178" s="111"/>
+      <c r="G178" s="14" t="s">
         <v>791</v>
       </c>
-      <c r="F178" s="109"/>
-      <c r="G178" s="7" t="s">
+      <c r="H178" s="88" t="s">
         <v>792</v>
-      </c>
-      <c r="H178" s="72" t="s">
-        <v>793</v>
       </c>
       <c r="I178" s="7"/>
       <c r="J178" s="7"/>
       <c r="K178" s="7"/>
     </row>
     <row r="179">
-      <c r="A179" s="107" t="s">
+      <c r="A179" s="100" t="s">
+        <v>793</v>
+      </c>
+      <c r="B179" s="82" t="s">
         <v>794</v>
       </c>
-      <c r="B179" s="73" t="s">
-        <v>366</v>
-      </c>
-      <c r="C179" s="143" t="s">
-        <v>180</v>
-      </c>
-      <c r="D179" s="87"/>
-      <c r="E179" s="109" t="s">
+      <c r="C179" s="88" t="s">
         <v>795</v>
       </c>
-      <c r="F179" s="109"/>
-      <c r="G179" s="7" t="s">
+      <c r="D179" s="88" t="s">
         <v>796</v>
       </c>
+      <c r="E179" s="111" t="s">
+        <v>797</v>
+      </c>
+      <c r="F179" s="111"/>
+      <c r="G179" s="72" t="s">
+        <v>798</v>
+      </c>
       <c r="H179" s="72" t="s">
-        <v>797</v>
+        <v>799</v>
       </c>
       <c r="I179" s="7"/>
       <c r="J179" s="7"/>
       <c r="K179" s="7"/>
     </row>
     <row r="180">
-      <c r="A180" s="99" t="s">
-        <v>798</v>
-      </c>
-      <c r="B180" s="82" t="s">
-        <v>799</v>
-      </c>
-      <c r="C180" s="88" t="s">
+      <c r="A180" s="109" t="s">
         <v>800</v>
       </c>
-      <c r="D180" s="88" t="s">
+      <c r="B180" s="73" t="s">
+        <v>366</v>
+      </c>
+      <c r="C180" s="145" t="s">
+        <v>180</v>
+      </c>
+      <c r="D180" s="88"/>
+      <c r="E180" s="111" t="s">
         <v>801</v>
       </c>
-      <c r="E180" s="144" t="s">
+      <c r="F180" s="111"/>
+      <c r="G180" s="72" t="s">
         <v>802</v>
       </c>
-      <c r="F180" s="144"/>
-      <c r="G180" s="89" t="s">
+      <c r="H180" s="72" t="s">
         <v>803</v>
-      </c>
-      <c r="H180" s="89" t="s">
-        <v>804</v>
       </c>
       <c r="I180" s="7"/>
       <c r="J180" s="7"/>
       <c r="K180" s="7"/>
     </row>
     <row r="181">
-      <c r="A181" s="107" t="s">
+      <c r="A181" s="100" t="s">
+        <v>804</v>
+      </c>
+      <c r="B181" s="82" t="s">
         <v>805</v>
       </c>
-      <c r="B181" s="73" t="s">
-        <v>366</v>
-      </c>
-      <c r="C181" s="145" t="s">
-        <v>180</v>
-      </c>
-      <c r="D181" s="88"/>
-      <c r="E181" s="144" t="s">
+      <c r="C181" s="89" t="s">
         <v>806</v>
       </c>
+      <c r="D181" s="89" t="s">
+        <v>807</v>
+      </c>
+      <c r="E181" s="146" t="s">
+        <v>808</v>
+      </c>
       <c r="F181" s="146"/>
-      <c r="G181" s="89" t="s">
-        <v>807</v>
-      </c>
-      <c r="H181" s="89" t="s">
-        <v>808</v>
+      <c r="G181" s="90" t="s">
+        <v>809</v>
+      </c>
+      <c r="H181" s="90" t="s">
+        <v>810</v>
       </c>
       <c r="I181" s="7"/>
       <c r="J181" s="7"/>
       <c r="K181" s="7"/>
     </row>
     <row r="182">
-      <c r="A182" s="99" t="s">
-        <v>809</v>
-      </c>
-      <c r="B182" s="82" t="s">
-        <v>810</v>
-      </c>
-      <c r="C182" s="88" t="s">
+      <c r="A182" s="109" t="s">
         <v>811</v>
       </c>
-      <c r="D182" s="88" t="s">
+      <c r="B182" s="73" t="s">
+        <v>366</v>
+      </c>
+      <c r="C182" s="147" t="s">
+        <v>180</v>
+      </c>
+      <c r="D182" s="89"/>
+      <c r="E182" s="146" t="s">
         <v>812</v>
       </c>
-      <c r="E182" s="144" t="s">
+      <c r="F182" s="148"/>
+      <c r="G182" s="90" t="s">
         <v>813</v>
       </c>
-      <c r="F182" s="144"/>
-      <c r="G182" s="89" t="s">
-        <v>803</v>
-      </c>
-      <c r="H182" s="89" t="s">
+      <c r="H182" s="90" t="s">
         <v>814</v>
       </c>
       <c r="I182" s="7"/>
@@ -16469,112 +16651,114 @@
       <c r="K182" s="7"/>
     </row>
     <row r="183">
-      <c r="A183" s="107" t="s">
+      <c r="A183" s="100" t="s">
         <v>815</v>
       </c>
-      <c r="B183" s="73" t="s">
-        <v>366</v>
-      </c>
-      <c r="C183" s="145" t="s">
-        <v>180</v>
-      </c>
-      <c r="D183" s="88"/>
+      <c r="B183" s="82" t="s">
+        <v>816</v>
+      </c>
+      <c r="C183" s="89" t="s">
+        <v>817</v>
+      </c>
+      <c r="D183" s="89" t="s">
+        <v>818</v>
+      </c>
       <c r="E183" s="146" t="s">
-        <v>816</v>
+        <v>819</v>
       </c>
       <c r="F183" s="146"/>
-      <c r="G183" s="89" t="s">
-        <v>807</v>
-      </c>
-      <c r="H183" s="89" t="s">
-        <v>817</v>
+      <c r="G183" s="90" t="s">
+        <v>809</v>
+      </c>
+      <c r="H183" s="90" t="s">
+        <v>820</v>
       </c>
       <c r="I183" s="7"/>
       <c r="J183" s="7"/>
       <c r="K183" s="7"/>
     </row>
     <row r="184">
-      <c r="A184" s="99" t="s">
-        <v>818</v>
-      </c>
-      <c r="B184" s="82" t="s">
-        <v>819</v>
-      </c>
-      <c r="C184" s="88" t="s">
-        <v>820</v>
-      </c>
-      <c r="D184" s="88" t="s">
+      <c r="A184" s="109" t="s">
         <v>821</v>
       </c>
-      <c r="E184" s="146" t="s">
+      <c r="B184" s="73" t="s">
+        <v>366</v>
+      </c>
+      <c r="C184" s="147" t="s">
+        <v>180</v>
+      </c>
+      <c r="D184" s="89"/>
+      <c r="E184" s="148" t="s">
         <v>822</v>
       </c>
-      <c r="F184" s="88"/>
-      <c r="G184" s="88" t="s">
+      <c r="F184" s="89"/>
+      <c r="G184" s="90" t="s">
+        <v>813</v>
+      </c>
+      <c r="H184" s="90" t="s">
         <v>823</v>
-      </c>
-      <c r="H184" s="88" t="s">
-        <v>824</v>
       </c>
       <c r="I184" s="7"/>
       <c r="J184" s="7"/>
       <c r="K184" s="7"/>
     </row>
     <row r="185">
-      <c r="A185" s="121" t="s">
+      <c r="A185" s="100" t="s">
+        <v>824</v>
+      </c>
+      <c r="B185" s="82" t="s">
         <v>825</v>
       </c>
-      <c r="B185" s="147" t="s">
+      <c r="C185" s="89" t="s">
         <v>826</v>
       </c>
-      <c r="C185" s="7"/>
-      <c r="D185" s="7"/>
-      <c r="E185" s="7"/>
-      <c r="F185" s="7"/>
-      <c r="G185" s="7"/>
-      <c r="H185" s="7"/>
+      <c r="D185" s="89" t="s">
+        <v>827</v>
+      </c>
+      <c r="E185" s="89" t="s">
+        <v>828</v>
+      </c>
+      <c r="F185" s="89"/>
+      <c r="G185" s="89" t="s">
+        <v>829</v>
+      </c>
+      <c r="H185" s="89" t="s">
+        <v>830</v>
+      </c>
       <c r="I185" s="7"/>
       <c r="J185" s="7"/>
       <c r="K185" s="7"/>
     </row>
     <row r="186">
-      <c r="A186" s="37" t="s">
-        <v>827</v>
-      </c>
-      <c r="B186" s="148" t="s">
-        <v>828</v>
-      </c>
-      <c r="C186" s="119"/>
-      <c r="D186" s="83"/>
-      <c r="E186" s="149"/>
-      <c r="F186" s="116"/>
-      <c r="G186" s="87"/>
-      <c r="H186" s="87"/>
+      <c r="A186" s="125" t="s">
+        <v>831</v>
+      </c>
+      <c r="B186" s="149" t="s">
+        <v>832</v>
+      </c>
+      <c r="C186" s="7"/>
+      <c r="D186" s="7"/>
+      <c r="E186" s="19"/>
+      <c r="F186" s="19"/>
+      <c r="G186" s="7"/>
+      <c r="H186" s="7"/>
       <c r="I186" s="7"/>
       <c r="J186" s="7"/>
       <c r="K186" s="7"/>
     </row>
     <row r="187">
-      <c r="A187" s="46" t="s">
-        <v>829</v>
-      </c>
-      <c r="B187" s="138" t="s">
-        <v>830</v>
-      </c>
-      <c r="C187" s="119" t="s">
-        <v>831</v>
-      </c>
+      <c r="A187" s="38" t="s">
+        <v>833</v>
+      </c>
+      <c r="B187" s="150" t="s">
+        <v>834</v>
+      </c>
+      <c r="C187" s="121"/>
       <c r="D187" s="83"/>
-      <c r="E187" s="149" t="s">
-        <v>832</v>
-      </c>
-      <c r="F187" s="116"/>
-      <c r="G187" s="7" t="s">
-        <v>833</v>
-      </c>
-      <c r="H187" s="32" t="s">
-        <v>834</v>
-      </c>
+      <c r="E187" s="151"/>
+      <c r="F187" s="118"/>
+      <c r="G187" s="88"/>
+      <c r="H187" s="88"/>
       <c r="I187" s="7"/>
       <c r="J187" s="7"/>
       <c r="K187" s="7"/>
@@ -16583,22 +16767,22 @@
       <c r="A188" s="46" t="s">
         <v>835</v>
       </c>
-      <c r="B188" s="138" t="s">
+      <c r="B188" s="141" t="s">
         <v>836</v>
       </c>
-      <c r="C188" s="119" t="s">
+      <c r="C188" s="121" t="s">
         <v>837</v>
       </c>
       <c r="D188" s="83"/>
-      <c r="E188" s="149" t="s">
+      <c r="E188" s="151" t="s">
         <v>838</v>
       </c>
-      <c r="F188" s="116"/>
+      <c r="F188" s="118"/>
       <c r="G188" s="7" t="s">
-        <v>833</v>
+        <v>839</v>
       </c>
       <c r="H188" s="32" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="I188" s="7"/>
       <c r="J188" s="7"/>
@@ -16606,639 +16790,637 @@
     </row>
     <row r="189">
       <c r="A189" s="46" t="s">
-        <v>840</v>
-      </c>
-      <c r="B189" s="138" t="s">
         <v>841</v>
       </c>
-      <c r="C189" s="119" t="s">
+      <c r="B189" s="141" t="s">
         <v>842</v>
       </c>
+      <c r="C189" s="121" t="s">
+        <v>843</v>
+      </c>
       <c r="D189" s="83"/>
-      <c r="E189" s="149" t="s">
-        <v>843</v>
-      </c>
-      <c r="F189" s="116"/>
+      <c r="E189" s="151" t="s">
+        <v>844</v>
+      </c>
+      <c r="F189" s="118"/>
       <c r="G189" s="7" t="s">
-        <v>833</v>
+        <v>839</v>
       </c>
       <c r="H189" s="32" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="I189" s="7"/>
       <c r="J189" s="7"/>
       <c r="K189" s="7"/>
     </row>
     <row r="190">
-      <c r="A190" s="122" t="s">
-        <v>845</v>
-      </c>
-      <c r="B190" s="148" t="s">
-        <v>530</v>
-      </c>
-      <c r="C190" s="87" t="s">
-        <v>531</v>
-      </c>
-      <c r="D190" s="7" t="s">
-        <v>532</v>
-      </c>
-      <c r="E190" s="109" t="s">
+      <c r="A190" s="46" t="s">
         <v>846</v>
       </c>
-      <c r="F190" s="109"/>
-      <c r="G190" s="150" t="s">
-        <v>322</v>
-      </c>
-      <c r="H190" s="151" t="s">
+      <c r="B190" s="141" t="s">
         <v>847</v>
       </c>
-      <c r="I190" s="7" t="s">
-        <v>63</v>
-      </c>
+      <c r="C190" s="121" t="s">
+        <v>848</v>
+      </c>
+      <c r="D190" s="83"/>
+      <c r="E190" s="151" t="s">
+        <v>849</v>
+      </c>
+      <c r="F190" s="118"/>
+      <c r="G190" s="7" t="s">
+        <v>839</v>
+      </c>
+      <c r="H190" s="32" t="s">
+        <v>850</v>
+      </c>
+      <c r="I190" s="7"/>
       <c r="J190" s="7"/>
       <c r="K190" s="7"/>
     </row>
     <row r="191">
-      <c r="A191" s="122" t="s">
-        <v>848</v>
-      </c>
-      <c r="B191" s="148" t="s">
-        <v>849</v>
-      </c>
-      <c r="C191" s="128" t="s">
-        <v>659</v>
-      </c>
-      <c r="D191" s="7"/>
-      <c r="E191" s="116"/>
-      <c r="F191" s="116"/>
-      <c r="G191" s="7"/>
-      <c r="H191" s="7"/>
-      <c r="I191" s="7"/>
+      <c r="A191" s="126" t="s">
+        <v>851</v>
+      </c>
+      <c r="B191" s="150" t="s">
+        <v>530</v>
+      </c>
+      <c r="C191" s="88" t="s">
+        <v>531</v>
+      </c>
+      <c r="D191" s="7" t="s">
+        <v>532</v>
+      </c>
+      <c r="E191" s="111" t="s">
+        <v>852</v>
+      </c>
+      <c r="F191" s="111"/>
+      <c r="G191" s="152" t="s">
+        <v>322</v>
+      </c>
+      <c r="H191" s="153" t="s">
+        <v>853</v>
+      </c>
+      <c r="I191" s="72" t="s">
+        <v>63</v>
+      </c>
       <c r="J191" s="7"/>
       <c r="K191" s="7"/>
     </row>
     <row r="192">
-      <c r="A192" s="48" t="s">
-        <v>850</v>
-      </c>
-      <c r="B192" s="138" t="s">
-        <v>851</v>
-      </c>
-      <c r="C192" s="152" t="s">
-        <v>659</v>
+      <c r="A192" s="126" t="s">
+        <v>854</v>
+      </c>
+      <c r="B192" s="150" t="s">
+        <v>855</v>
+      </c>
+      <c r="C192" s="133" t="s">
+        <v>665</v>
       </c>
       <c r="D192" s="7"/>
-      <c r="E192" s="86" t="s">
-        <v>852</v>
-      </c>
-      <c r="F192" s="109"/>
-      <c r="G192" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="H192" s="14" t="s">
-        <v>182</v>
-      </c>
+      <c r="E192" s="118"/>
+      <c r="F192" s="118"/>
+      <c r="G192" s="7"/>
+      <c r="H192" s="7"/>
       <c r="I192" s="7"/>
       <c r="J192" s="7"/>
       <c r="K192" s="7"/>
     </row>
     <row r="193">
-      <c r="A193" s="99" t="s">
-        <v>853</v>
-      </c>
-      <c r="B193" s="82" t="s">
-        <v>57</v>
-      </c>
-      <c r="C193" s="87" t="s">
-        <v>58</v>
-      </c>
-      <c r="D193" s="87" t="s">
-        <v>59</v>
-      </c>
-      <c r="E193" s="109" t="s">
-        <v>854</v>
-      </c>
-      <c r="F193" s="109"/>
-      <c r="G193" s="72" t="s">
-        <v>61</v>
-      </c>
-      <c r="H193" s="72" t="s">
-        <v>855</v>
-      </c>
-      <c r="I193" s="7" t="s">
-        <v>63</v>
-      </c>
+      <c r="A193" s="48" t="s">
+        <v>856</v>
+      </c>
+      <c r="B193" s="141" t="s">
+        <v>857</v>
+      </c>
+      <c r="C193" s="154" t="s">
+        <v>665</v>
+      </c>
+      <c r="D193" s="7"/>
+      <c r="E193" s="87" t="s">
+        <v>858</v>
+      </c>
+      <c r="F193" s="111"/>
+      <c r="G193" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="H193" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="I193" s="7"/>
       <c r="J193" s="7"/>
       <c r="K193" s="7"/>
     </row>
     <row r="194">
-      <c r="A194" s="99" t="s">
-        <v>856</v>
+      <c r="A194" s="100" t="s">
+        <v>859</v>
       </c>
       <c r="B194" s="82" t="s">
-        <v>73</v>
-      </c>
-      <c r="C194" s="87" t="s">
-        <v>74</v>
-      </c>
-      <c r="D194" s="87" t="s">
-        <v>75</v>
-      </c>
-      <c r="E194" s="109" t="s">
-        <v>857</v>
-      </c>
-      <c r="F194" s="109"/>
+        <v>57</v>
+      </c>
+      <c r="C194" s="88" t="s">
+        <v>58</v>
+      </c>
+      <c r="D194" s="88" t="s">
+        <v>59</v>
+      </c>
+      <c r="E194" s="111" t="s">
+        <v>860</v>
+      </c>
+      <c r="F194" s="111"/>
       <c r="G194" s="72" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="H194" s="72" t="s">
-        <v>858</v>
-      </c>
-      <c r="I194" s="7"/>
+        <v>861</v>
+      </c>
+      <c r="I194" s="72" t="s">
+        <v>63</v>
+      </c>
       <c r="J194" s="7"/>
       <c r="K194" s="7"/>
     </row>
     <row r="195">
-      <c r="A195" s="99" t="s">
-        <v>859</v>
+      <c r="A195" s="100" t="s">
+        <v>862</v>
       </c>
       <c r="B195" s="82" t="s">
-        <v>80</v>
-      </c>
-      <c r="C195" s="87" t="s">
-        <v>81</v>
-      </c>
-      <c r="D195" s="87" t="s">
-        <v>82</v>
-      </c>
-      <c r="E195" s="87" t="s">
-        <v>860</v>
-      </c>
-      <c r="F195" s="87"/>
+        <v>73</v>
+      </c>
+      <c r="C195" s="88" t="s">
+        <v>74</v>
+      </c>
+      <c r="D195" s="88" t="s">
+        <v>75</v>
+      </c>
+      <c r="E195" s="88" t="s">
+        <v>863</v>
+      </c>
+      <c r="F195" s="88"/>
       <c r="G195" s="72" t="s">
         <v>77</v>
       </c>
       <c r="H195" s="72" t="s">
-        <v>861</v>
+        <v>864</v>
       </c>
       <c r="I195" s="7"/>
       <c r="J195" s="7"/>
       <c r="K195" s="7"/>
     </row>
     <row r="196">
-      <c r="A196" s="99" t="s">
-        <v>862</v>
+      <c r="A196" s="100" t="s">
+        <v>865</v>
       </c>
       <c r="B196" s="82" t="s">
-        <v>94</v>
-      </c>
-      <c r="C196" s="87" t="s">
-        <v>95</v>
-      </c>
-      <c r="D196" s="87" t="s">
-        <v>747</v>
-      </c>
-      <c r="E196" s="87" t="s">
-        <v>863</v>
-      </c>
-      <c r="F196" s="87"/>
+        <v>80</v>
+      </c>
+      <c r="C196" s="88" t="s">
+        <v>81</v>
+      </c>
+      <c r="D196" s="88" t="s">
+        <v>82</v>
+      </c>
+      <c r="E196" s="88" t="s">
+        <v>866</v>
+      </c>
+      <c r="F196" s="88"/>
       <c r="G196" s="72" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="H196" s="72" t="s">
-        <v>864</v>
+        <v>867</v>
       </c>
       <c r="I196" s="7"/>
       <c r="J196" s="7"/>
       <c r="K196" s="7"/>
     </row>
     <row r="197">
-      <c r="A197" s="99" t="s">
-        <v>865</v>
+      <c r="A197" s="100" t="s">
+        <v>868</v>
       </c>
       <c r="B197" s="82" t="s">
-        <v>101</v>
-      </c>
-      <c r="C197" s="87" t="s">
-        <v>102</v>
-      </c>
-      <c r="D197" s="87" t="s">
-        <v>103</v>
-      </c>
-      <c r="E197" s="87" t="s">
-        <v>866</v>
-      </c>
-      <c r="F197" s="87"/>
-      <c r="G197" s="87" t="s">
-        <v>105</v>
-      </c>
-      <c r="H197" s="87" t="s">
-        <v>867</v>
+        <v>94</v>
+      </c>
+      <c r="C197" s="88" t="s">
+        <v>95</v>
+      </c>
+      <c r="D197" s="88" t="s">
+        <v>753</v>
+      </c>
+      <c r="E197" s="88" t="s">
+        <v>869</v>
+      </c>
+      <c r="F197" s="88"/>
+      <c r="G197" s="72" t="s">
+        <v>98</v>
+      </c>
+      <c r="H197" s="72" t="s">
+        <v>870</v>
       </c>
       <c r="I197" s="7"/>
       <c r="J197" s="7"/>
       <c r="K197" s="7"/>
     </row>
     <row r="198">
-      <c r="A198" s="99" t="s">
-        <v>868</v>
+      <c r="A198" s="100" t="s">
+        <v>871</v>
       </c>
       <c r="B198" s="82" t="s">
-        <v>121</v>
-      </c>
-      <c r="C198" s="87" t="s">
-        <v>122</v>
-      </c>
-      <c r="D198" s="87" t="s">
-        <v>123</v>
-      </c>
-      <c r="E198" s="87" t="s">
-        <v>869</v>
-      </c>
-      <c r="F198" s="87"/>
-      <c r="G198" s="87" t="s">
-        <v>755</v>
-      </c>
-      <c r="H198" s="87" t="s">
-        <v>756</v>
+        <v>101</v>
+      </c>
+      <c r="C198" s="88" t="s">
+        <v>102</v>
+      </c>
+      <c r="D198" s="88" t="s">
+        <v>103</v>
+      </c>
+      <c r="E198" s="88" t="s">
+        <v>872</v>
+      </c>
+      <c r="F198" s="88"/>
+      <c r="G198" s="88" t="s">
+        <v>105</v>
+      </c>
+      <c r="H198" s="88" t="s">
+        <v>873</v>
       </c>
       <c r="I198" s="7"/>
       <c r="J198" s="7"/>
       <c r="K198" s="7"/>
     </row>
     <row r="199">
-      <c r="A199" s="99" t="s">
-        <v>870</v>
+      <c r="A199" s="100" t="s">
+        <v>874</v>
       </c>
       <c r="B199" s="82" t="s">
-        <v>115</v>
-      </c>
-      <c r="C199" s="87" t="s">
-        <v>116</v>
-      </c>
-      <c r="D199" s="87" t="s">
-        <v>117</v>
-      </c>
-      <c r="E199" s="87" t="s">
-        <v>871</v>
-      </c>
-      <c r="F199" s="87"/>
-      <c r="G199" s="87" t="s">
-        <v>759</v>
-      </c>
-      <c r="H199" s="87" t="s">
-        <v>760</v>
+        <v>121</v>
+      </c>
+      <c r="C199" s="88" t="s">
+        <v>122</v>
+      </c>
+      <c r="D199" s="88" t="s">
+        <v>123</v>
+      </c>
+      <c r="E199" s="88" t="s">
+        <v>875</v>
+      </c>
+      <c r="F199" s="88"/>
+      <c r="G199" s="88" t="s">
+        <v>761</v>
+      </c>
+      <c r="H199" s="88" t="s">
+        <v>762</v>
       </c>
       <c r="I199" s="7"/>
       <c r="J199" s="7"/>
       <c r="K199" s="7"/>
     </row>
     <row r="200">
-      <c r="A200" s="99" t="s">
-        <v>872</v>
+      <c r="A200" s="100" t="s">
+        <v>876</v>
       </c>
       <c r="B200" s="82" t="s">
-        <v>762</v>
-      </c>
-      <c r="C200" s="87" t="s">
-        <v>137</v>
-      </c>
-      <c r="D200" s="87" t="s">
-        <v>138</v>
-      </c>
-      <c r="E200" s="87" t="s">
-        <v>873</v>
-      </c>
-      <c r="F200" s="87"/>
-      <c r="G200" s="140" t="s">
-        <v>755</v>
-      </c>
-      <c r="H200" s="140" t="s">
-        <v>874</v>
+        <v>115</v>
+      </c>
+      <c r="C200" s="88" t="s">
+        <v>116</v>
+      </c>
+      <c r="D200" s="88" t="s">
+        <v>117</v>
+      </c>
+      <c r="E200" s="88" t="s">
+        <v>877</v>
+      </c>
+      <c r="F200" s="88"/>
+      <c r="G200" s="88" t="s">
+        <v>765</v>
+      </c>
+      <c r="H200" s="88" t="s">
+        <v>766</v>
       </c>
       <c r="I200" s="7"/>
       <c r="J200" s="7"/>
       <c r="K200" s="7"/>
     </row>
     <row r="201">
-      <c r="A201" s="99" t="s">
-        <v>875</v>
+      <c r="A201" s="100" t="s">
+        <v>878</v>
       </c>
       <c r="B201" s="82" t="s">
-        <v>128</v>
-      </c>
-      <c r="C201" s="87" t="s">
-        <v>129</v>
-      </c>
-      <c r="D201" s="87" t="s">
-        <v>130</v>
-      </c>
-      <c r="E201" s="87" t="s">
-        <v>876</v>
-      </c>
-      <c r="F201" s="87"/>
-      <c r="G201" s="87" t="s">
-        <v>759</v>
-      </c>
-      <c r="H201" s="87" t="s">
-        <v>767</v>
+        <v>768</v>
+      </c>
+      <c r="C201" s="88" t="s">
+        <v>137</v>
+      </c>
+      <c r="D201" s="88" t="s">
+        <v>138</v>
+      </c>
+      <c r="E201" s="88" t="s">
+        <v>879</v>
+      </c>
+      <c r="F201" s="88"/>
+      <c r="G201" s="142" t="s">
+        <v>761</v>
+      </c>
+      <c r="H201" s="142" t="s">
+        <v>880</v>
       </c>
       <c r="I201" s="7"/>
       <c r="J201" s="7"/>
       <c r="K201" s="7"/>
     </row>
     <row r="202">
-      <c r="A202" s="48" t="s">
-        <v>877</v>
-      </c>
-      <c r="B202" s="138" t="s">
-        <v>878</v>
-      </c>
-      <c r="C202" s="152" t="s">
-        <v>659</v>
-      </c>
-      <c r="D202" s="153"/>
-      <c r="E202" s="72" t="s">
-        <v>879</v>
-      </c>
-      <c r="F202" s="87"/>
-      <c r="G202" s="14" t="s">
-        <v>880</v>
-      </c>
-      <c r="H202" s="14" t="s">
-        <v>182</v>
+      <c r="A202" s="100" t="s">
+        <v>881</v>
+      </c>
+      <c r="B202" s="82" t="s">
+        <v>128</v>
+      </c>
+      <c r="C202" s="88" t="s">
+        <v>129</v>
+      </c>
+      <c r="D202" s="88" t="s">
+        <v>130</v>
+      </c>
+      <c r="E202" s="88" t="s">
+        <v>882</v>
+      </c>
+      <c r="F202" s="88"/>
+      <c r="G202" s="88" t="s">
+        <v>765</v>
+      </c>
+      <c r="H202" s="88" t="s">
+        <v>773</v>
       </c>
       <c r="I202" s="7"/>
       <c r="J202" s="7"/>
       <c r="K202" s="7"/>
     </row>
     <row r="203">
-      <c r="A203" s="99" t="s">
-        <v>881</v>
-      </c>
-      <c r="B203" s="82" t="s">
-        <v>57</v>
-      </c>
-      <c r="C203" s="87" t="s">
-        <v>58</v>
-      </c>
-      <c r="D203" s="87" t="s">
-        <v>59</v>
-      </c>
-      <c r="E203" s="87" t="s">
-        <v>882</v>
-      </c>
-      <c r="F203" s="87"/>
-      <c r="G203" s="72" t="s">
-        <v>61</v>
-      </c>
-      <c r="H203" s="72" t="s">
+      <c r="A203" s="48" t="s">
         <v>883</v>
       </c>
-      <c r="I203" s="7" t="s">
-        <v>63</v>
-      </c>
+      <c r="B203" s="141" t="s">
+        <v>884</v>
+      </c>
+      <c r="C203" s="154" t="s">
+        <v>665</v>
+      </c>
+      <c r="D203" s="155"/>
+      <c r="E203" s="72" t="s">
+        <v>885</v>
+      </c>
+      <c r="F203" s="88"/>
+      <c r="G203" s="14" t="s">
+        <v>886</v>
+      </c>
+      <c r="H203" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="I203" s="7"/>
       <c r="J203" s="7"/>
       <c r="K203" s="7"/>
     </row>
     <row r="204">
-      <c r="A204" s="99" t="s">
-        <v>884</v>
+      <c r="A204" s="100" t="s">
+        <v>887</v>
       </c>
       <c r="B204" s="82" t="s">
-        <v>73</v>
-      </c>
-      <c r="C204" s="87" t="s">
-        <v>74</v>
-      </c>
-      <c r="D204" s="87" t="s">
-        <v>75</v>
-      </c>
-      <c r="E204" s="87" t="s">
-        <v>885</v>
-      </c>
-      <c r="F204" s="87"/>
+        <v>57</v>
+      </c>
+      <c r="C204" s="88" t="s">
+        <v>58</v>
+      </c>
+      <c r="D204" s="88" t="s">
+        <v>59</v>
+      </c>
+      <c r="E204" s="88" t="s">
+        <v>888</v>
+      </c>
+      <c r="F204" s="88"/>
       <c r="G204" s="72" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="H204" s="72" t="s">
-        <v>886</v>
-      </c>
-      <c r="I204" s="7"/>
+        <v>889</v>
+      </c>
+      <c r="I204" s="72" t="s">
+        <v>63</v>
+      </c>
       <c r="J204" s="7"/>
       <c r="K204" s="7"/>
     </row>
     <row r="205">
-      <c r="A205" s="99" t="s">
-        <v>887</v>
+      <c r="A205" s="100" t="s">
+        <v>890</v>
       </c>
       <c r="B205" s="82" t="s">
-        <v>80</v>
-      </c>
-      <c r="C205" s="87" t="s">
-        <v>81</v>
-      </c>
-      <c r="D205" s="87" t="s">
-        <v>82</v>
-      </c>
-      <c r="E205" s="87" t="s">
-        <v>888</v>
-      </c>
-      <c r="F205" s="87"/>
+        <v>73</v>
+      </c>
+      <c r="C205" s="88" t="s">
+        <v>74</v>
+      </c>
+      <c r="D205" s="88" t="s">
+        <v>75</v>
+      </c>
+      <c r="E205" s="88" t="s">
+        <v>891</v>
+      </c>
+      <c r="F205" s="88"/>
       <c r="G205" s="72" t="s">
         <v>77</v>
       </c>
       <c r="H205" s="72" t="s">
-        <v>889</v>
+        <v>892</v>
       </c>
       <c r="I205" s="7"/>
       <c r="J205" s="7"/>
       <c r="K205" s="7"/>
     </row>
     <row r="206">
-      <c r="A206" s="99" t="s">
-        <v>890</v>
+      <c r="A206" s="100" t="s">
+        <v>893</v>
       </c>
       <c r="B206" s="82" t="s">
-        <v>94</v>
-      </c>
-      <c r="C206" s="87" t="s">
-        <v>95</v>
-      </c>
-      <c r="D206" s="87" t="s">
-        <v>747</v>
-      </c>
-      <c r="E206" s="87" t="s">
-        <v>891</v>
-      </c>
-      <c r="F206" s="87"/>
+        <v>80</v>
+      </c>
+      <c r="C206" s="88" t="s">
+        <v>81</v>
+      </c>
+      <c r="D206" s="88" t="s">
+        <v>82</v>
+      </c>
+      <c r="E206" s="88" t="s">
+        <v>894</v>
+      </c>
+      <c r="F206" s="88"/>
       <c r="G206" s="72" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="H206" s="72" t="s">
-        <v>892</v>
+        <v>895</v>
       </c>
       <c r="I206" s="7"/>
       <c r="J206" s="7"/>
       <c r="K206" s="7"/>
     </row>
     <row r="207">
-      <c r="A207" s="99" t="s">
-        <v>893</v>
+      <c r="A207" s="100" t="s">
+        <v>896</v>
       </c>
       <c r="B207" s="82" t="s">
-        <v>101</v>
-      </c>
-      <c r="C207" s="87" t="s">
-        <v>102</v>
-      </c>
-      <c r="D207" s="87" t="s">
-        <v>103</v>
-      </c>
-      <c r="E207" s="87" t="s">
-        <v>894</v>
-      </c>
-      <c r="F207" s="87"/>
+        <v>94</v>
+      </c>
+      <c r="C207" s="88" t="s">
+        <v>95</v>
+      </c>
+      <c r="D207" s="88" t="s">
+        <v>753</v>
+      </c>
+      <c r="E207" s="88" t="s">
+        <v>897</v>
+      </c>
+      <c r="F207" s="88"/>
       <c r="G207" s="72" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="H207" s="72" t="s">
-        <v>895</v>
+        <v>898</v>
       </c>
       <c r="I207" s="7"/>
       <c r="J207" s="7"/>
       <c r="K207" s="7"/>
     </row>
     <row r="208">
-      <c r="A208" s="99" t="s">
-        <v>896</v>
+      <c r="A208" s="100" t="s">
+        <v>899</v>
       </c>
       <c r="B208" s="82" t="s">
-        <v>121</v>
-      </c>
-      <c r="C208" s="87" t="s">
-        <v>122</v>
-      </c>
-      <c r="D208" s="87" t="s">
-        <v>123</v>
-      </c>
-      <c r="E208" s="87" t="s">
-        <v>897</v>
-      </c>
-      <c r="F208" s="87"/>
-      <c r="G208" s="87" t="s">
-        <v>755</v>
-      </c>
-      <c r="H208" s="87" t="s">
-        <v>756</v>
+        <v>101</v>
+      </c>
+      <c r="C208" s="88" t="s">
+        <v>102</v>
+      </c>
+      <c r="D208" s="88" t="s">
+        <v>103</v>
+      </c>
+      <c r="E208" s="88" t="s">
+        <v>900</v>
+      </c>
+      <c r="F208" s="88"/>
+      <c r="G208" s="72" t="s">
+        <v>105</v>
+      </c>
+      <c r="H208" s="72" t="s">
+        <v>901</v>
       </c>
       <c r="I208" s="7"/>
       <c r="J208" s="7"/>
       <c r="K208" s="7"/>
     </row>
     <row r="209">
-      <c r="A209" s="99" t="s">
-        <v>898</v>
+      <c r="A209" s="100" t="s">
+        <v>902</v>
       </c>
       <c r="B209" s="82" t="s">
-        <v>115</v>
-      </c>
-      <c r="C209" s="87" t="s">
-        <v>116</v>
-      </c>
-      <c r="D209" s="87" t="s">
-        <v>117</v>
-      </c>
-      <c r="E209" s="87" t="s">
-        <v>899</v>
-      </c>
-      <c r="F209" s="87"/>
-      <c r="G209" s="87" t="s">
-        <v>759</v>
-      </c>
-      <c r="H209" s="87" t="s">
-        <v>760</v>
+        <v>121</v>
+      </c>
+      <c r="C209" s="88" t="s">
+        <v>122</v>
+      </c>
+      <c r="D209" s="88" t="s">
+        <v>123</v>
+      </c>
+      <c r="E209" s="88" t="s">
+        <v>903</v>
+      </c>
+      <c r="F209" s="88"/>
+      <c r="G209" s="88" t="s">
+        <v>761</v>
+      </c>
+      <c r="H209" s="88" t="s">
+        <v>762</v>
       </c>
       <c r="I209" s="7"/>
       <c r="J209" s="7"/>
       <c r="K209" s="7"/>
     </row>
     <row r="210">
-      <c r="A210" s="99" t="s">
-        <v>900</v>
+      <c r="A210" s="100" t="s">
+        <v>904</v>
       </c>
       <c r="B210" s="82" t="s">
-        <v>762</v>
-      </c>
-      <c r="C210" s="87" t="s">
-        <v>137</v>
-      </c>
-      <c r="D210" s="87" t="s">
-        <v>138</v>
-      </c>
-      <c r="E210" s="87" t="s">
-        <v>901</v>
-      </c>
-      <c r="F210" s="87"/>
-      <c r="G210" s="140" t="s">
-        <v>755</v>
-      </c>
-      <c r="H210" s="140" t="s">
-        <v>902</v>
+        <v>115</v>
+      </c>
+      <c r="C210" s="88" t="s">
+        <v>116</v>
+      </c>
+      <c r="D210" s="88" t="s">
+        <v>117</v>
+      </c>
+      <c r="E210" s="88" t="s">
+        <v>905</v>
+      </c>
+      <c r="F210" s="88"/>
+      <c r="G210" s="88" t="s">
+        <v>765</v>
+      </c>
+      <c r="H210" s="88" t="s">
+        <v>766</v>
       </c>
       <c r="I210" s="7"/>
       <c r="J210" s="7"/>
       <c r="K210" s="7"/>
     </row>
     <row r="211">
-      <c r="A211" s="99" t="s">
-        <v>903</v>
+      <c r="A211" s="100" t="s">
+        <v>906</v>
       </c>
       <c r="B211" s="82" t="s">
-        <v>128</v>
-      </c>
-      <c r="C211" s="87" t="s">
-        <v>129</v>
-      </c>
-      <c r="D211" s="87" t="s">
-        <v>130</v>
-      </c>
-      <c r="E211" s="87" t="s">
-        <v>904</v>
-      </c>
-      <c r="F211" s="87"/>
-      <c r="G211" s="87" t="s">
-        <v>759</v>
-      </c>
-      <c r="H211" s="87" t="s">
-        <v>767</v>
+        <v>768</v>
+      </c>
+      <c r="C211" s="88" t="s">
+        <v>137</v>
+      </c>
+      <c r="D211" s="88" t="s">
+        <v>138</v>
+      </c>
+      <c r="E211" s="88" t="s">
+        <v>907</v>
+      </c>
+      <c r="F211" s="88"/>
+      <c r="G211" s="142" t="s">
+        <v>761</v>
+      </c>
+      <c r="H211" s="142" t="s">
+        <v>908</v>
       </c>
       <c r="I211" s="7"/>
       <c r="J211" s="7"/>
       <c r="K211" s="7"/>
     </row>
     <row r="212">
-      <c r="A212" s="48" t="s">
-        <v>905</v>
-      </c>
-      <c r="B212" s="138" t="s">
-        <v>906</v>
-      </c>
-      <c r="C212" s="87" t="s">
-        <v>907</v>
-      </c>
-      <c r="D212" s="87" t="s">
-        <v>908</v>
-      </c>
-      <c r="E212" s="87" t="s">
+      <c r="A212" s="100" t="s">
         <v>909</v>
       </c>
-      <c r="F212" s="87"/>
-      <c r="G212" s="72" t="s">
+      <c r="B212" s="82" t="s">
+        <v>128</v>
+      </c>
+      <c r="C212" s="88" t="s">
+        <v>129</v>
+      </c>
+      <c r="D212" s="88" t="s">
+        <v>130</v>
+      </c>
+      <c r="E212" s="88" t="s">
         <v>910</v>
       </c>
-      <c r="H212" s="151" t="s">
-        <v>911</v>
+      <c r="F212" s="88"/>
+      <c r="G212" s="88" t="s">
+        <v>765</v>
+      </c>
+      <c r="H212" s="88" t="s">
+        <v>773</v>
       </c>
       <c r="I212" s="7"/>
       <c r="J212" s="7"/>
@@ -17246,545 +17428,572 @@
     </row>
     <row r="213">
       <c r="A213" s="48" t="s">
+        <v>911</v>
+      </c>
+      <c r="B213" s="141" t="s">
         <v>912</v>
       </c>
-      <c r="B213" s="138" t="s">
+      <c r="C213" s="88" t="s">
         <v>913</v>
       </c>
-      <c r="C213" s="7"/>
-      <c r="D213" s="7"/>
-      <c r="E213" s="72" t="s">
+      <c r="D213" s="88" t="s">
         <v>914</v>
       </c>
-      <c r="F213" s="87"/>
-      <c r="G213" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="H213" s="14" t="s">
-        <v>182</v>
+      <c r="E213" s="88" t="s">
+        <v>915</v>
+      </c>
+      <c r="F213" s="88"/>
+      <c r="G213" s="72" t="s">
+        <v>916</v>
+      </c>
+      <c r="H213" s="153" t="s">
+        <v>917</v>
       </c>
       <c r="I213" s="7"/>
       <c r="J213" s="7"/>
       <c r="K213" s="7"/>
     </row>
     <row r="214">
-      <c r="A214" s="99" t="s">
-        <v>915</v>
-      </c>
-      <c r="B214" s="82" t="s">
-        <v>57</v>
-      </c>
-      <c r="C214" s="87" t="s">
-        <v>58</v>
-      </c>
-      <c r="D214" s="87" t="s">
-        <v>59</v>
-      </c>
-      <c r="E214" s="87" t="s">
-        <v>916</v>
-      </c>
-      <c r="F214" s="87"/>
-      <c r="G214" s="72" t="s">
-        <v>61</v>
-      </c>
-      <c r="H214" s="72" t="s">
-        <v>917</v>
-      </c>
-      <c r="I214" s="7" t="s">
-        <v>63</v>
-      </c>
+      <c r="A214" s="48" t="s">
+        <v>918</v>
+      </c>
+      <c r="B214" s="141" t="s">
+        <v>919</v>
+      </c>
+      <c r="C214" s="7"/>
+      <c r="D214" s="7"/>
+      <c r="E214" s="72" t="s">
+        <v>920</v>
+      </c>
+      <c r="F214" s="88"/>
+      <c r="G214" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="H214" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="I214" s="7"/>
       <c r="J214" s="7"/>
       <c r="K214" s="7"/>
     </row>
     <row r="215">
-      <c r="A215" s="99" t="s">
-        <v>918</v>
+      <c r="A215" s="100" t="s">
+        <v>921</v>
       </c>
       <c r="B215" s="82" t="s">
-        <v>73</v>
-      </c>
-      <c r="C215" s="87" t="s">
-        <v>74</v>
-      </c>
-      <c r="D215" s="87" t="s">
-        <v>75</v>
-      </c>
-      <c r="E215" s="87" t="s">
-        <v>919</v>
-      </c>
-      <c r="F215" s="87"/>
+        <v>57</v>
+      </c>
+      <c r="C215" s="88" t="s">
+        <v>58</v>
+      </c>
+      <c r="D215" s="88" t="s">
+        <v>59</v>
+      </c>
+      <c r="E215" s="88" t="s">
+        <v>922</v>
+      </c>
+      <c r="F215" s="88"/>
       <c r="G215" s="72" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="H215" s="72" t="s">
-        <v>920</v>
-      </c>
-      <c r="I215" s="7"/>
+        <v>923</v>
+      </c>
+      <c r="I215" s="72" t="s">
+        <v>63</v>
+      </c>
       <c r="J215" s="7"/>
       <c r="K215" s="7"/>
     </row>
     <row r="216">
-      <c r="A216" s="99" t="s">
-        <v>921</v>
+      <c r="A216" s="100" t="s">
+        <v>924</v>
       </c>
       <c r="B216" s="82" t="s">
-        <v>80</v>
-      </c>
-      <c r="C216" s="87" t="s">
-        <v>81</v>
-      </c>
-      <c r="D216" s="87" t="s">
-        <v>82</v>
-      </c>
-      <c r="E216" s="87" t="s">
-        <v>922</v>
-      </c>
-      <c r="F216" s="87"/>
+        <v>73</v>
+      </c>
+      <c r="C216" s="88" t="s">
+        <v>74</v>
+      </c>
+      <c r="D216" s="88" t="s">
+        <v>75</v>
+      </c>
+      <c r="E216" s="88" t="s">
+        <v>925</v>
+      </c>
+      <c r="F216" s="88"/>
       <c r="G216" s="72" t="s">
         <v>77</v>
       </c>
       <c r="H216" s="72" t="s">
-        <v>923</v>
+        <v>926</v>
       </c>
       <c r="I216" s="7"/>
       <c r="J216" s="7"/>
       <c r="K216" s="7"/>
     </row>
     <row r="217">
-      <c r="A217" s="99" t="s">
-        <v>924</v>
+      <c r="A217" s="100" t="s">
+        <v>927</v>
       </c>
       <c r="B217" s="82" t="s">
-        <v>94</v>
-      </c>
-      <c r="C217" s="87" t="s">
-        <v>95</v>
-      </c>
-      <c r="D217" s="87" t="s">
-        <v>747</v>
-      </c>
-      <c r="E217" s="87" t="s">
-        <v>925</v>
-      </c>
-      <c r="F217" s="87"/>
+        <v>80</v>
+      </c>
+      <c r="C217" s="88" t="s">
+        <v>81</v>
+      </c>
+      <c r="D217" s="88" t="s">
+        <v>82</v>
+      </c>
+      <c r="E217" s="88" t="s">
+        <v>928</v>
+      </c>
+      <c r="F217" s="88"/>
       <c r="G217" s="72" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="H217" s="72" t="s">
-        <v>926</v>
+        <v>929</v>
       </c>
       <c r="I217" s="7"/>
       <c r="J217" s="7"/>
       <c r="K217" s="7"/>
     </row>
     <row r="218">
-      <c r="A218" s="99" t="s">
-        <v>927</v>
+      <c r="A218" s="100" t="s">
+        <v>930</v>
       </c>
       <c r="B218" s="82" t="s">
-        <v>101</v>
-      </c>
-      <c r="C218" s="87" t="s">
-        <v>102</v>
-      </c>
-      <c r="D218" s="87" t="s">
-        <v>103</v>
-      </c>
-      <c r="E218" s="87" t="s">
-        <v>928</v>
-      </c>
-      <c r="F218" s="87"/>
-      <c r="G218" s="87" t="s">
-        <v>105</v>
-      </c>
-      <c r="H218" s="87" t="s">
-        <v>929</v>
+        <v>94</v>
+      </c>
+      <c r="C218" s="88" t="s">
+        <v>95</v>
+      </c>
+      <c r="D218" s="88" t="s">
+        <v>753</v>
+      </c>
+      <c r="E218" s="88" t="s">
+        <v>931</v>
+      </c>
+      <c r="F218" s="88"/>
+      <c r="G218" s="72" t="s">
+        <v>98</v>
+      </c>
+      <c r="H218" s="72" t="s">
+        <v>932</v>
       </c>
       <c r="I218" s="7"/>
       <c r="J218" s="7"/>
       <c r="K218" s="7"/>
     </row>
     <row r="219">
-      <c r="A219" s="99" t="s">
-        <v>930</v>
+      <c r="A219" s="100" t="s">
+        <v>933</v>
       </c>
       <c r="B219" s="82" t="s">
-        <v>121</v>
-      </c>
-      <c r="C219" s="87" t="s">
-        <v>122</v>
-      </c>
-      <c r="D219" s="87" t="s">
-        <v>123</v>
-      </c>
-      <c r="E219" s="87" t="s">
-        <v>931</v>
-      </c>
-      <c r="F219" s="87"/>
-      <c r="G219" s="87" t="s">
-        <v>755</v>
-      </c>
-      <c r="H219" s="142" t="s">
-        <v>756</v>
+        <v>101</v>
+      </c>
+      <c r="C219" s="88" t="s">
+        <v>102</v>
+      </c>
+      <c r="D219" s="88" t="s">
+        <v>103</v>
+      </c>
+      <c r="E219" s="88" t="s">
+        <v>934</v>
+      </c>
+      <c r="F219" s="88"/>
+      <c r="G219" s="88" t="s">
+        <v>105</v>
+      </c>
+      <c r="H219" s="143" t="s">
+        <v>935</v>
       </c>
       <c r="I219" s="7"/>
       <c r="J219" s="7"/>
       <c r="K219" s="7"/>
     </row>
     <row r="220">
-      <c r="A220" s="99" t="s">
-        <v>932</v>
+      <c r="A220" s="100" t="s">
+        <v>936</v>
       </c>
       <c r="B220" s="82" t="s">
-        <v>115</v>
-      </c>
-      <c r="C220" s="87" t="s">
-        <v>116</v>
-      </c>
-      <c r="D220" s="87" t="s">
-        <v>117</v>
-      </c>
-      <c r="E220" s="87" t="s">
-        <v>933</v>
-      </c>
-      <c r="F220" s="87"/>
-      <c r="G220" s="87" t="s">
-        <v>759</v>
-      </c>
-      <c r="H220" s="142" t="s">
-        <v>760</v>
+        <v>121</v>
+      </c>
+      <c r="C220" s="88" t="s">
+        <v>122</v>
+      </c>
+      <c r="D220" s="88" t="s">
+        <v>123</v>
+      </c>
+      <c r="E220" s="88" t="s">
+        <v>937</v>
+      </c>
+      <c r="F220" s="88"/>
+      <c r="G220" s="88" t="s">
+        <v>761</v>
+      </c>
+      <c r="H220" s="143" t="s">
+        <v>762</v>
       </c>
       <c r="I220" s="7"/>
       <c r="J220" s="7"/>
       <c r="K220" s="7"/>
     </row>
     <row r="221">
-      <c r="A221" s="99" t="s">
-        <v>934</v>
+      <c r="A221" s="100" t="s">
+        <v>938</v>
       </c>
       <c r="B221" s="82" t="s">
-        <v>762</v>
-      </c>
-      <c r="C221" s="87" t="s">
-        <v>137</v>
-      </c>
-      <c r="D221" s="87" t="s">
-        <v>138</v>
-      </c>
-      <c r="E221" s="87" t="s">
-        <v>935</v>
-      </c>
-      <c r="F221" s="87"/>
-      <c r="G221" s="140" t="s">
-        <v>755</v>
-      </c>
-      <c r="H221" s="140" t="s">
-        <v>936</v>
+        <v>115</v>
+      </c>
+      <c r="C221" s="88" t="s">
+        <v>116</v>
+      </c>
+      <c r="D221" s="88" t="s">
+        <v>117</v>
+      </c>
+      <c r="E221" s="88" t="s">
+        <v>939</v>
+      </c>
+      <c r="F221" s="88"/>
+      <c r="G221" s="88" t="s">
+        <v>765</v>
+      </c>
+      <c r="H221" s="88" t="s">
+        <v>766</v>
       </c>
       <c r="I221" s="7"/>
       <c r="J221" s="7"/>
       <c r="K221" s="7"/>
     </row>
     <row r="222">
-      <c r="A222" s="99" t="s">
-        <v>937</v>
+      <c r="A222" s="100" t="s">
+        <v>940</v>
       </c>
       <c r="B222" s="82" t="s">
-        <v>128</v>
-      </c>
-      <c r="C222" s="87" t="s">
-        <v>129</v>
-      </c>
-      <c r="D222" s="87" t="s">
-        <v>130</v>
-      </c>
-      <c r="E222" s="87" t="s">
-        <v>938</v>
-      </c>
-      <c r="F222" s="87"/>
-      <c r="G222" s="87" t="s">
-        <v>759</v>
-      </c>
-      <c r="H222" s="142" t="s">
-        <v>767</v>
+        <v>768</v>
+      </c>
+      <c r="C222" s="88" t="s">
+        <v>137</v>
+      </c>
+      <c r="D222" s="88" t="s">
+        <v>138</v>
+      </c>
+      <c r="E222" s="88" t="s">
+        <v>941</v>
+      </c>
+      <c r="F222" s="88"/>
+      <c r="G222" s="142" t="s">
+        <v>761</v>
+      </c>
+      <c r="H222" s="156" t="s">
+        <v>942</v>
       </c>
       <c r="I222" s="7"/>
       <c r="J222" s="7"/>
       <c r="K222" s="7"/>
     </row>
     <row r="223">
-      <c r="A223" s="122" t="s">
-        <v>939</v>
-      </c>
-      <c r="B223" s="148" t="s">
-        <v>940</v>
-      </c>
-      <c r="C223" s="154" t="s">
-        <v>941</v>
-      </c>
-      <c r="D223" s="154" t="s">
-        <v>942</v>
-      </c>
-      <c r="E223" s="155" t="s">
+      <c r="A223" s="100" t="s">
         <v>943</v>
       </c>
-      <c r="F223" s="155"/>
-      <c r="G223" s="72" t="s">
+      <c r="B223" s="82" t="s">
+        <v>128</v>
+      </c>
+      <c r="C223" s="88" t="s">
+        <v>129</v>
+      </c>
+      <c r="D223" s="88" t="s">
+        <v>130</v>
+      </c>
+      <c r="E223" s="88" t="s">
         <v>944</v>
       </c>
-      <c r="H223" s="156" t="s">
-        <v>945</v>
+      <c r="F223" s="88"/>
+      <c r="G223" s="88" t="s">
+        <v>765</v>
+      </c>
+      <c r="H223" s="88" t="s">
+        <v>773</v>
       </c>
       <c r="I223" s="7"/>
       <c r="J223" s="7"/>
       <c r="K223" s="7"/>
     </row>
     <row r="224">
-      <c r="A224" s="122" t="s">
+      <c r="A224" s="126" t="s">
+        <v>945</v>
+      </c>
+      <c r="B224" s="150" t="s">
         <v>946</v>
       </c>
-      <c r="B224" s="148" t="s">
+      <c r="C224" s="157" t="s">
         <v>947</v>
       </c>
-      <c r="C224" s="157" t="s">
-        <v>659</v>
-      </c>
-      <c r="D224" s="88"/>
-      <c r="E224" s="88" t="s">
+      <c r="D224" s="157" t="s">
         <v>948</v>
       </c>
-      <c r="F224" s="88"/>
-      <c r="G224" s="88"/>
-      <c r="H224" s="88"/>
+      <c r="E224" s="158" t="s">
+        <v>949</v>
+      </c>
+      <c r="F224" s="158"/>
+      <c r="G224" s="72" t="s">
+        <v>950</v>
+      </c>
+      <c r="H224" s="159" t="s">
+        <v>951</v>
+      </c>
       <c r="I224" s="7"/>
       <c r="J224" s="7"/>
       <c r="K224" s="7"/>
     </row>
     <row r="225">
-      <c r="A225" s="48" t="s">
-        <v>949</v>
-      </c>
-      <c r="B225" s="138" t="s">
-        <v>950</v>
-      </c>
-      <c r="C225" s="88"/>
-      <c r="D225" s="88"/>
-      <c r="E225" s="88" t="s">
-        <v>951</v>
-      </c>
-      <c r="F225" s="88"/>
-      <c r="G225" s="88" t="s">
+      <c r="A225" s="126" t="s">
         <v>952</v>
       </c>
-      <c r="H225" s="88" t="s">
+      <c r="B225" s="150" t="s">
         <v>953</v>
       </c>
+      <c r="C225" s="160" t="s">
+        <v>665</v>
+      </c>
+      <c r="D225" s="89"/>
+      <c r="E225" s="89" t="s">
+        <v>954</v>
+      </c>
+      <c r="F225" s="89"/>
+      <c r="G225" s="89"/>
+      <c r="H225" s="89"/>
       <c r="I225" s="7"/>
       <c r="J225" s="7"/>
       <c r="K225" s="7"/>
     </row>
     <row r="226">
       <c r="A226" s="48" t="s">
-        <v>954</v>
-      </c>
-      <c r="B226" s="138" t="s">
         <v>955</v>
       </c>
-      <c r="C226" s="88" t="s">
-        <v>659</v>
-      </c>
-      <c r="D226" s="88"/>
-      <c r="E226" s="88"/>
-      <c r="F226" s="88"/>
-      <c r="G226" s="88"/>
-      <c r="H226" s="88"/>
+      <c r="B226" s="141" t="s">
+        <v>956</v>
+      </c>
+      <c r="C226" s="89"/>
+      <c r="D226" s="89"/>
+      <c r="E226" s="89" t="s">
+        <v>957</v>
+      </c>
+      <c r="F226" s="89"/>
+      <c r="G226" s="89" t="s">
+        <v>958</v>
+      </c>
+      <c r="H226" s="89" t="s">
+        <v>959</v>
+      </c>
       <c r="I226" s="7"/>
       <c r="J226" s="7"/>
       <c r="K226" s="7"/>
     </row>
     <row r="227">
-      <c r="A227" s="99" t="s">
-        <v>956</v>
-      </c>
-      <c r="B227" s="82" t="s">
-        <v>957</v>
-      </c>
-      <c r="C227" s="88"/>
-      <c r="D227" s="88"/>
-      <c r="E227" s="88" t="s">
-        <v>958</v>
-      </c>
-      <c r="F227" s="88"/>
-      <c r="G227" s="88" t="s">
-        <v>952</v>
-      </c>
-      <c r="H227" s="88" t="s">
-        <v>959</v>
-      </c>
+      <c r="A227" s="48" t="s">
+        <v>960</v>
+      </c>
+      <c r="B227" s="141" t="s">
+        <v>961</v>
+      </c>
+      <c r="C227" s="89" t="s">
+        <v>665</v>
+      </c>
+      <c r="D227" s="89"/>
+      <c r="E227" s="89"/>
+      <c r="F227" s="89"/>
+      <c r="G227" s="89"/>
+      <c r="H227" s="89"/>
       <c r="I227" s="7"/>
       <c r="J227" s="7"/>
       <c r="K227" s="7"/>
     </row>
     <row r="228">
-      <c r="A228" s="99" t="s">
-        <v>960</v>
+      <c r="A228" s="100" t="s">
+        <v>962</v>
       </c>
       <c r="B228" s="82" t="s">
-        <v>961</v>
-      </c>
-      <c r="C228" s="88"/>
-      <c r="D228" s="88"/>
-      <c r="E228" s="88" t="s">
-        <v>962</v>
-      </c>
-      <c r="F228" s="88"/>
-      <c r="G228" s="88" t="s">
-        <v>952</v>
-      </c>
-      <c r="H228" s="88" t="s">
         <v>963</v>
+      </c>
+      <c r="C228" s="89"/>
+      <c r="D228" s="89"/>
+      <c r="E228" s="89" t="s">
+        <v>964</v>
+      </c>
+      <c r="F228" s="89"/>
+      <c r="G228" s="89" t="s">
+        <v>958</v>
+      </c>
+      <c r="H228" s="89" t="s">
+        <v>965</v>
       </c>
       <c r="I228" s="7"/>
       <c r="J228" s="7"/>
       <c r="K228" s="7"/>
     </row>
     <row r="229">
-      <c r="A229" s="99" t="s">
-        <v>964</v>
+      <c r="A229" s="100" t="s">
+        <v>966</v>
       </c>
       <c r="B229" s="82" t="s">
-        <v>965</v>
-      </c>
-      <c r="C229" s="88"/>
-      <c r="D229" s="88"/>
-      <c r="E229" s="88" t="s">
-        <v>966</v>
-      </c>
-      <c r="F229" s="88"/>
-      <c r="G229" s="88" t="s">
-        <v>952</v>
-      </c>
-      <c r="H229" s="158" t="s">
         <v>967</v>
+      </c>
+      <c r="C229" s="89"/>
+      <c r="D229" s="89"/>
+      <c r="E229" s="89" t="s">
+        <v>968</v>
+      </c>
+      <c r="F229" s="89"/>
+      <c r="G229" s="89" t="s">
+        <v>958</v>
+      </c>
+      <c r="H229" s="161" t="s">
+        <v>969</v>
       </c>
       <c r="I229" s="7"/>
       <c r="J229" s="7"/>
       <c r="K229" s="7"/>
     </row>
     <row r="230">
-      <c r="A230" s="99" t="s">
-        <v>968</v>
+      <c r="A230" s="100" t="s">
+        <v>970</v>
       </c>
       <c r="B230" s="82" t="s">
-        <v>969</v>
-      </c>
-      <c r="C230" s="88"/>
-      <c r="D230" s="88"/>
-      <c r="E230" s="88" t="s">
-        <v>970</v>
-      </c>
-      <c r="F230" s="88"/>
-      <c r="G230" s="88" t="s">
-        <v>952</v>
-      </c>
-      <c r="H230" s="158" t="s">
         <v>971</v>
+      </c>
+      <c r="C230" s="89"/>
+      <c r="D230" s="89"/>
+      <c r="E230" s="89" t="s">
+        <v>972</v>
+      </c>
+      <c r="F230" s="89"/>
+      <c r="G230" s="89" t="s">
+        <v>958</v>
+      </c>
+      <c r="H230" s="162" t="s">
+        <v>973</v>
       </c>
       <c r="I230" s="7"/>
       <c r="J230" s="7"/>
       <c r="K230" s="7"/>
     </row>
     <row r="231">
-      <c r="A231" s="122" t="s">
-        <v>972</v>
-      </c>
-      <c r="B231" s="148" t="s">
-        <v>973</v>
-      </c>
-      <c r="C231" s="157" t="s">
-        <v>659</v>
-      </c>
-      <c r="D231" s="88"/>
-      <c r="E231" s="88"/>
-      <c r="F231" s="88"/>
-      <c r="G231" s="88"/>
-      <c r="H231" s="88"/>
+      <c r="A231" s="100" t="s">
+        <v>974</v>
+      </c>
+      <c r="B231" s="82" t="s">
+        <v>975</v>
+      </c>
+      <c r="C231" s="89"/>
+      <c r="D231" s="89"/>
+      <c r="E231" s="89" t="s">
+        <v>976</v>
+      </c>
+      <c r="F231" s="89"/>
+      <c r="G231" s="89" t="s">
+        <v>958</v>
+      </c>
+      <c r="H231" s="162" t="s">
+        <v>977</v>
+      </c>
       <c r="I231" s="7"/>
       <c r="J231" s="7"/>
       <c r="K231" s="7"/>
     </row>
     <row r="232">
-      <c r="A232" s="48" t="s">
-        <v>974</v>
-      </c>
-      <c r="B232" s="138" t="s">
-        <v>975</v>
-      </c>
-      <c r="C232" s="159" t="s">
-        <v>575</v>
-      </c>
-      <c r="D232" s="88"/>
-      <c r="E232" s="88" t="s">
-        <v>976</v>
-      </c>
-      <c r="F232" s="88"/>
-      <c r="G232" s="88" t="s">
-        <v>952</v>
-      </c>
-      <c r="H232" s="160" t="s">
-        <v>977</v>
-      </c>
+      <c r="A232" s="126" t="s">
+        <v>978</v>
+      </c>
+      <c r="B232" s="150" t="s">
+        <v>979</v>
+      </c>
+      <c r="C232" s="160" t="s">
+        <v>665</v>
+      </c>
+      <c r="D232" s="89"/>
+      <c r="E232" s="89"/>
+      <c r="F232" s="89"/>
+      <c r="G232" s="89"/>
+      <c r="H232" s="89"/>
       <c r="I232" s="7"/>
       <c r="J232" s="7"/>
       <c r="K232" s="7"/>
     </row>
     <row r="233">
-      <c r="A233" s="122" t="s">
-        <v>978</v>
-      </c>
-      <c r="B233" s="148" t="s">
-        <v>979</v>
-      </c>
-      <c r="C233" s="157" t="s">
-        <v>659</v>
-      </c>
-      <c r="D233" s="88"/>
-      <c r="E233" s="88"/>
-      <c r="F233" s="88"/>
-      <c r="G233" s="88"/>
-      <c r="H233" s="88"/>
+      <c r="A233" s="48" t="s">
+        <v>980</v>
+      </c>
+      <c r="B233" s="141" t="s">
+        <v>981</v>
+      </c>
+      <c r="C233" s="163" t="s">
+        <v>576</v>
+      </c>
+      <c r="D233" s="89"/>
+      <c r="E233" s="89" t="s">
+        <v>982</v>
+      </c>
+      <c r="F233" s="89"/>
+      <c r="G233" s="89" t="s">
+        <v>958</v>
+      </c>
+      <c r="H233" s="164" t="s">
+        <v>983</v>
+      </c>
       <c r="I233" s="7"/>
       <c r="J233" s="7"/>
       <c r="K233" s="7"/>
     </row>
     <row r="234">
-      <c r="A234" s="48" t="s">
-        <v>980</v>
-      </c>
-      <c r="B234" s="138" t="s">
-        <v>981</v>
-      </c>
-      <c r="C234" s="157" t="s">
-        <v>982</v>
-      </c>
-      <c r="D234" s="88" t="s">
-        <v>983</v>
-      </c>
-      <c r="E234" s="161" t="s">
+      <c r="A234" s="126" t="s">
         <v>984</v>
       </c>
-      <c r="F234" s="88"/>
-      <c r="G234" s="88" t="s">
+      <c r="B234" s="150" t="s">
         <v>985</v>
       </c>
-      <c r="H234" s="158" t="s">
-        <v>986</v>
-      </c>
-      <c r="I234" s="7" t="s">
-        <v>987</v>
-      </c>
+      <c r="C234" s="160" t="s">
+        <v>665</v>
+      </c>
+      <c r="D234" s="89"/>
+      <c r="E234" s="89"/>
+      <c r="F234" s="89"/>
+      <c r="G234" s="89"/>
+      <c r="H234" s="89"/>
+      <c r="I234" s="7"/>
       <c r="J234" s="7"/>
       <c r="K234" s="7"/>
+    </row>
+    <row r="235">
+      <c r="A235" s="48" t="s">
+        <v>986</v>
+      </c>
+      <c r="B235" s="141" t="s">
+        <v>987</v>
+      </c>
+      <c r="C235" s="160" t="s">
+        <v>988</v>
+      </c>
+      <c r="D235" s="89" t="s">
+        <v>989</v>
+      </c>
+      <c r="E235" s="165" t="s">
+        <v>990</v>
+      </c>
+      <c r="F235" s="89"/>
+      <c r="G235" s="89" t="s">
+        <v>991</v>
+      </c>
+      <c r="H235" s="166" t="s">
+        <v>992</v>
+      </c>
+      <c r="I235" s="72" t="s">
+        <v>993</v>
+      </c>
+      <c r="J235" s="7"/>
+      <c r="K235" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -17828,26 +18037,25 @@
     <hyperlink r:id="rId10" ref="H121"/>
     <hyperlink r:id="rId11" ref="H128"/>
     <hyperlink r:id="rId12" ref="H134"/>
-    <hyperlink r:id="rId13" ref="H137"/>
-    <hyperlink r:id="rId14" ref="H147"/>
-    <hyperlink r:id="rId15" ref="H148"/>
-    <hyperlink r:id="rId16" ref="H149"/>
-    <hyperlink r:id="rId17" ref="H151"/>
+    <hyperlink r:id="rId13" location="issuecomment-1386886542" ref="K134"/>
+    <hyperlink r:id="rId14" ref="H135"/>
+    <hyperlink r:id="rId15" location="issuecomment-1386886542" ref="K135"/>
+    <hyperlink r:id="rId16" ref="H148"/>
+    <hyperlink r:id="rId17" ref="H149"/>
     <hyperlink r:id="rId18" ref="H154"/>
     <hyperlink r:id="rId19" ref="H155"/>
-    <hyperlink r:id="rId20" ref="H162"/>
-    <hyperlink r:id="rId21" ref="H173"/>
-    <hyperlink r:id="rId22" ref="H176"/>
-    <hyperlink r:id="rId23" ref="H219"/>
-    <hyperlink r:id="rId24" ref="H220"/>
-    <hyperlink r:id="rId25" ref="H222"/>
-    <hyperlink r:id="rId26" ref="H229"/>
-    <hyperlink r:id="rId27" ref="H230"/>
-    <hyperlink r:id="rId28" ref="H232"/>
-    <hyperlink r:id="rId29" ref="H234"/>
+    <hyperlink r:id="rId20" ref="H173"/>
+    <hyperlink r:id="rId21" ref="H174"/>
+    <hyperlink r:id="rId22" ref="H219"/>
+    <hyperlink r:id="rId23" ref="H220"/>
+    <hyperlink r:id="rId24" ref="H222"/>
+    <hyperlink r:id="rId25" ref="H229"/>
+    <hyperlink r:id="rId26" ref="H230"/>
+    <hyperlink r:id="rId27" ref="H231"/>
+    <hyperlink r:id="rId28" ref="H233"/>
   </hyperlinks>
-  <drawing r:id="rId30"/>
-  <legacyDrawing r:id="rId31"/>
+  <drawing r:id="rId29"/>
+  <legacyDrawing r:id="rId30"/>
 </worksheet>
 </file>
 
@@ -17868,7 +18076,7 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="162" t="s">
+      <c r="A1" s="167" t="s">
         <v>32</v>
       </c>
       <c r="B1" s="26" t="s">
@@ -17889,42 +18097,42 @@
     </row>
     <row r="2">
       <c r="A2" s="19" t="s">
-        <v>988</v>
-      </c>
-      <c r="B2" s="39" t="s">
+        <v>994</v>
+      </c>
+      <c r="B2" s="37" t="s">
         <v>142</v>
       </c>
-      <c r="C2" s="87" t="s">
+      <c r="C2" s="88" t="s">
         <v>143</v>
       </c>
-      <c r="D2" s="87" t="s">
+      <c r="D2" s="88" t="s">
         <v>144</v>
       </c>
-      <c r="E2" s="39" t="s">
-        <v>989</v>
-      </c>
-      <c r="F2" s="39" t="s">
-        <v>990</v>
+      <c r="E2" s="37" t="s">
+        <v>995</v>
+      </c>
+      <c r="F2" s="37" t="s">
+        <v>996</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="19" t="s">
-        <v>991</v>
+        <v>997</v>
       </c>
       <c r="B3" s="72" t="s">
         <v>142</v>
       </c>
-      <c r="C3" s="87" t="s">
+      <c r="C3" s="88" t="s">
         <v>143</v>
       </c>
-      <c r="D3" s="87" t="s">
+      <c r="D3" s="88" t="s">
         <v>144</v>
       </c>
-      <c r="E3" s="39" t="s">
-        <v>992</v>
-      </c>
-      <c r="F3" s="39" t="s">
-        <v>993</v>
+      <c r="E3" s="37" t="s">
+        <v>998</v>
+      </c>
+      <c r="F3" s="37" t="s">
+        <v>999</v>
       </c>
     </row>
     <row r="4">
@@ -17934,15 +18142,15 @@
       <c r="B4" s="72" t="s">
         <v>373</v>
       </c>
-      <c r="C4" s="87" t="s">
-        <v>994</v>
-      </c>
-      <c r="D4" s="87"/>
-      <c r="E4" s="39" t="s">
-        <v>995</v>
-      </c>
-      <c r="F4" s="39" t="s">
-        <v>996</v>
+      <c r="C4" s="88" t="s">
+        <v>1000</v>
+      </c>
+      <c r="D4" s="88"/>
+      <c r="E4" s="37" t="s">
+        <v>1001</v>
+      </c>
+      <c r="F4" s="37" t="s">
+        <v>1002</v>
       </c>
     </row>
     <row r="5">
@@ -17952,95 +18160,95 @@
       <c r="B5" s="72" t="s">
         <v>373</v>
       </c>
-      <c r="C5" s="87" t="s">
-        <v>994</v>
-      </c>
-      <c r="D5" s="87"/>
-      <c r="E5" s="39" t="s">
-        <v>997</v>
-      </c>
-      <c r="F5" s="39" t="s">
-        <v>998</v>
-      </c>
-      <c r="G5" s="163"/>
-      <c r="H5" s="163"/>
-      <c r="I5" s="163"/>
-      <c r="J5" s="163"/>
-      <c r="K5" s="163"/>
-      <c r="L5" s="163"/>
-      <c r="M5" s="163"/>
-      <c r="N5" s="163"/>
-      <c r="O5" s="163"/>
-      <c r="P5" s="163"/>
-      <c r="Q5" s="163"/>
-      <c r="R5" s="163"/>
-      <c r="S5" s="163"/>
-      <c r="T5" s="163"/>
-      <c r="U5" s="163"/>
-      <c r="V5" s="163"/>
-      <c r="W5" s="163"/>
-      <c r="X5" s="163"/>
-      <c r="Y5" s="163"/>
-      <c r="Z5" s="163"/>
+      <c r="C5" s="88" t="s">
+        <v>1000</v>
+      </c>
+      <c r="D5" s="88"/>
+      <c r="E5" s="37" t="s">
+        <v>1003</v>
+      </c>
+      <c r="F5" s="37" t="s">
+        <v>1004</v>
+      </c>
+      <c r="G5" s="168"/>
+      <c r="H5" s="168"/>
+      <c r="I5" s="168"/>
+      <c r="J5" s="168"/>
+      <c r="K5" s="168"/>
+      <c r="L5" s="168"/>
+      <c r="M5" s="168"/>
+      <c r="N5" s="168"/>
+      <c r="O5" s="168"/>
+      <c r="P5" s="168"/>
+      <c r="Q5" s="168"/>
+      <c r="R5" s="168"/>
+      <c r="S5" s="168"/>
+      <c r="T5" s="168"/>
+      <c r="U5" s="168"/>
+      <c r="V5" s="168"/>
+      <c r="W5" s="168"/>
+      <c r="X5" s="168"/>
+      <c r="Y5" s="168"/>
+      <c r="Z5" s="168"/>
     </row>
     <row r="6">
       <c r="A6" s="19" t="s">
-        <v>999</v>
+        <v>1005</v>
       </c>
       <c r="B6" s="72" t="s">
-        <v>1000</v>
-      </c>
-      <c r="C6" s="87" t="s">
-        <v>1001</v>
-      </c>
-      <c r="D6" s="87" t="s">
-        <v>1002</v>
-      </c>
-      <c r="E6" s="39" t="s">
-        <v>1003</v>
-      </c>
-      <c r="F6" s="39" t="s">
-        <v>1004</v>
-      </c>
-      <c r="G6" s="163"/>
-      <c r="H6" s="163"/>
-      <c r="I6" s="163"/>
-      <c r="J6" s="163"/>
-      <c r="K6" s="163"/>
-      <c r="L6" s="163"/>
-      <c r="M6" s="163"/>
-      <c r="N6" s="163"/>
-      <c r="O6" s="163"/>
-      <c r="P6" s="163"/>
-      <c r="Q6" s="163"/>
-      <c r="R6" s="163"/>
-      <c r="S6" s="163"/>
-      <c r="T6" s="163"/>
-      <c r="U6" s="163"/>
-      <c r="V6" s="163"/>
-      <c r="W6" s="163"/>
-      <c r="X6" s="163"/>
-      <c r="Y6" s="163"/>
-      <c r="Z6" s="163"/>
+        <v>1006</v>
+      </c>
+      <c r="C6" s="88" t="s">
+        <v>1007</v>
+      </c>
+      <c r="D6" s="88" t="s">
+        <v>1008</v>
+      </c>
+      <c r="E6" s="37" t="s">
+        <v>1009</v>
+      </c>
+      <c r="F6" s="37" t="s">
+        <v>1010</v>
+      </c>
+      <c r="G6" s="168"/>
+      <c r="H6" s="168"/>
+      <c r="I6" s="168"/>
+      <c r="J6" s="168"/>
+      <c r="K6" s="168"/>
+      <c r="L6" s="168"/>
+      <c r="M6" s="168"/>
+      <c r="N6" s="168"/>
+      <c r="O6" s="168"/>
+      <c r="P6" s="168"/>
+      <c r="Q6" s="168"/>
+      <c r="R6" s="168"/>
+      <c r="S6" s="168"/>
+      <c r="T6" s="168"/>
+      <c r="U6" s="168"/>
+      <c r="V6" s="168"/>
+      <c r="W6" s="168"/>
+      <c r="X6" s="168"/>
+      <c r="Y6" s="168"/>
+      <c r="Z6" s="168"/>
     </row>
     <row r="7">
       <c r="A7" s="19" t="s">
-        <v>645</v>
-      </c>
-      <c r="B7" s="39" t="s">
-        <v>646</v>
+        <v>651</v>
+      </c>
+      <c r="B7" s="37" t="s">
+        <v>652</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>1005</v>
+        <v>1011</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>648</v>
-      </c>
-      <c r="E7" s="39" t="s">
         <v>654</v>
       </c>
-      <c r="F7" s="39" t="s">
-        <v>1006</v>
+      <c r="E7" s="37" t="s">
+        <v>660</v>
+      </c>
+      <c r="F7" s="37" t="s">
+        <v>1012</v>
       </c>
     </row>
     <row r="8">
@@ -22044,108 +22252,108 @@
   </cols>
   <sheetData>
     <row r="2">
-      <c r="A2" s="164" t="s">
-        <v>1007</v>
-      </c>
-      <c r="B2" s="165" t="s">
-        <v>1008</v>
+      <c r="A2" s="169" t="s">
+        <v>1013</v>
+      </c>
+      <c r="B2" s="170" t="s">
+        <v>1014</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="166" t="s">
-        <v>1009</v>
-      </c>
-      <c r="B3" s="165" t="s">
-        <v>1010</v>
+      <c r="A3" s="171" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B3" s="170" t="s">
+        <v>1016</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="167" t="s">
-        <v>1011</v>
+      <c r="A4" s="172" t="s">
+        <v>1017</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="168" t="s">
-        <v>1012</v>
-      </c>
-      <c r="B6" s="165" t="s">
-        <v>1013</v>
+      <c r="A6" s="173" t="s">
+        <v>1018</v>
+      </c>
+      <c r="B6" s="170" t="s">
+        <v>1019</v>
       </c>
     </row>
     <row r="7">
-      <c r="B7" s="165" t="s">
-        <v>1014</v>
+      <c r="B7" s="170" t="s">
+        <v>1020</v>
       </c>
     </row>
     <row r="8">
-      <c r="B8" s="165"/>
+      <c r="B8" s="170"/>
     </row>
     <row r="9">
-      <c r="B9" s="165"/>
+      <c r="B9" s="170"/>
     </row>
     <row r="10">
-      <c r="A10" s="168" t="s">
-        <v>1015</v>
+      <c r="A10" s="173" t="s">
+        <v>1021</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="168" t="s">
-        <v>1016</v>
-      </c>
-      <c r="B11" s="169" t="s">
-        <v>1017</v>
+      <c r="A11" s="173" t="s">
+        <v>1022</v>
+      </c>
+      <c r="B11" s="174" t="s">
+        <v>1023</v>
       </c>
     </row>
     <row r="12">
-      <c r="B12" s="170" t="s">
-        <v>1018</v>
+      <c r="B12" s="175" t="s">
+        <v>1024</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="171"/>
-      <c r="B13" s="172" t="s">
-        <v>1019</v>
+      <c r="A13" s="176"/>
+      <c r="B13" s="177" t="s">
+        <v>1025</v>
       </c>
     </row>
     <row r="14">
-      <c r="B14" s="173" t="s">
-        <v>1020</v>
+      <c r="B14" s="178" t="s">
+        <v>1026</v>
       </c>
     </row>
     <row r="15">
-      <c r="B15" s="174" t="s">
-        <v>1021</v>
+      <c r="B15" s="179" t="s">
+        <v>1027</v>
       </c>
     </row>
     <row r="16">
-      <c r="B16" s="175" t="s">
-        <v>1022</v>
+      <c r="B16" s="180" t="s">
+        <v>1028</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="168"/>
+      <c r="A17" s="173"/>
       <c r="B17" s="28"/>
     </row>
     <row r="18">
-      <c r="A18" s="168" t="s">
-        <v>1023</v>
-      </c>
-      <c r="B18" s="176" t="s">
-        <v>1024</v>
+      <c r="A18" s="173" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B18" s="181" t="s">
+        <v>1030</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="7" t="s">
-        <v>1025</v>
+        <v>1031</v>
       </c>
       <c r="B19" s="84"/>
     </row>
     <row r="21">
-      <c r="A21" s="168" t="s">
-        <v>1026</v>
-      </c>
-      <c r="B21" s="177" t="s">
-        <v>1027</v>
+      <c r="A21" s="173" t="s">
+        <v>1032</v>
+      </c>
+      <c r="B21" s="182" t="s">
+        <v>1033</v>
       </c>
     </row>
   </sheetData>
@@ -22171,52 +22379,52 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>1028</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="36" t="s">
-        <v>1029</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="4" t="s">
-        <v>1030</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="36" t="s">
-        <v>1031</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="4" t="s">
-        <v>1032</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="4" t="s">
-        <v>1033</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="4" t="s">
-        <v>1034</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="36" t="s">
-        <v>1035</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="4" t="s">
-        <v>1036</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="4" t="s">
-        <v>1037</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="11">
@@ -22245,65 +22453,65 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>1028</v>
-      </c>
-      <c r="B1" s="178" t="s">
-        <v>1038</v>
+        <v>1034</v>
+      </c>
+      <c r="B1" s="183" t="s">
+        <v>1044</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="4" t="s">
-        <v>1039</v>
+        <v>1045</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>1040</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="4" t="s">
-        <v>1041</v>
+        <v>1047</v>
       </c>
       <c r="B3" s="7"/>
     </row>
     <row r="4">
       <c r="A4" s="4" t="s">
-        <v>1042</v>
+        <v>1048</v>
       </c>
       <c r="B4" s="7"/>
     </row>
     <row r="5">
-      <c r="A5" s="165" t="s">
-        <v>1043</v>
+      <c r="A5" s="170" t="s">
+        <v>1049</v>
       </c>
       <c r="B5" s="7"/>
     </row>
     <row r="6">
       <c r="A6" s="4" t="s">
-        <v>1044</v>
+        <v>1050</v>
       </c>
       <c r="B6" s="7"/>
     </row>
     <row r="7">
       <c r="A7" s="4" t="s">
-        <v>1045</v>
+        <v>1051</v>
       </c>
       <c r="B7" s="7"/>
     </row>
     <row r="8">
       <c r="A8" s="4" t="s">
-        <v>1046</v>
+        <v>1052</v>
       </c>
       <c r="B8" s="7"/>
     </row>
     <row r="9">
       <c r="A9" s="4" t="s">
-        <v>1047</v>
+        <v>1053</v>
       </c>
       <c r="B9" s="7"/>
     </row>
     <row r="10">
       <c r="A10" s="6" t="s">
-        <v>1048</v>
+        <v>1054</v>
       </c>
     </row>
   </sheetData>
@@ -22322,7 +22530,7 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="169"/>
+      <c r="A1" s="174"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -22346,36 +22554,36 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="179" t="s">
-        <v>1049</v>
-      </c>
-      <c r="C1" s="179" t="s">
-        <v>1050</v>
+      <c r="A1" s="184" t="s">
+        <v>1055</v>
+      </c>
+      <c r="C1" s="184" t="s">
+        <v>1056</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="168" t="s">
-        <v>1051</v>
-      </c>
-      <c r="B2" s="168" t="s">
-        <v>1052</v>
-      </c>
-      <c r="C2" s="168" t="s">
-        <v>1053</v>
-      </c>
-      <c r="D2" s="168" t="s">
-        <v>1054</v>
+      <c r="A2" s="173" t="s">
+        <v>1057</v>
+      </c>
+      <c r="B2" s="173" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C2" s="173" t="s">
+        <v>1059</v>
+      </c>
+      <c r="D2" s="173" t="s">
+        <v>1060</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="39" t="s">
-        <v>1055</v>
-      </c>
-      <c r="B3" s="39" t="s">
-        <v>1056</v>
+      <c r="A3" s="37" t="s">
+        <v>1061</v>
+      </c>
+      <c r="B3" s="37" t="s">
+        <v>1062</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>1057</v>
+        <v>1063</v>
       </c>
       <c r="D3" s="4" t="str">
         <f t="shared" ref="D3:D4" si="1">RIGHT(A3,LEN(A3) - (FIND(" == ",A3) + 3))</f>
@@ -22383,14 +22591,14 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="39" t="s">
-        <v>1058</v>
-      </c>
-      <c r="B4" s="39" t="s">
-        <v>1056</v>
+      <c r="A4" s="37" t="s">
+        <v>1064</v>
+      </c>
+      <c r="B4" s="37" t="s">
+        <v>1062</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>1057</v>
+        <v>1063</v>
       </c>
       <c r="D4" s="4" t="str">
         <f t="shared" si="1"/>
@@ -22398,186 +22606,186 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="39" t="s">
-        <v>1059</v>
-      </c>
-      <c r="B5" s="39" t="s">
-        <v>1060</v>
+      <c r="A5" s="37" t="s">
+        <v>1065</v>
+      </c>
+      <c r="B5" s="37" t="s">
+        <v>1066</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>1057</v>
+        <v>1063</v>
       </c>
       <c r="D5" s="7"/>
     </row>
     <row r="6">
       <c r="A6" s="4" t="s">
-        <v>1061</v>
+        <v>1067</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>1062</v>
+        <v>1068</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>1057</v>
+        <v>1063</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>1063</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="4" t="s">
-        <v>1064</v>
+        <v>1070</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>1065</v>
+        <v>1071</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>1057</v>
-      </c>
-      <c r="D7" s="180" t="s">
-        <v>1066</v>
+        <v>1063</v>
+      </c>
+      <c r="D7" s="185" t="s">
+        <v>1072</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="4" t="s">
-        <v>1067</v>
+        <v>1073</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>1068</v>
+        <v>1074</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>1057</v>
+        <v>1063</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>1069</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="72" t="s">
-        <v>1070</v>
+        <v>1076</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>1071</v>
+        <v>1077</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>1057</v>
+        <v>1063</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>1072</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="72" t="s">
-        <v>1073</v>
+        <v>1079</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>1071</v>
+        <v>1077</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>1057</v>
+        <v>1063</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>1074</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="72" t="s">
-        <v>1075</v>
+        <v>1081</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>1076</v>
+        <v>1082</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>1057</v>
+        <v>1063</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>1077</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="72" t="s">
-        <v>1078</v>
+        <v>1084</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>1076</v>
+        <v>1082</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>1057</v>
+        <v>1063</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>1079</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="181" t="s">
-        <v>1080</v>
-      </c>
-      <c r="B13" s="181" t="s">
-        <v>1060</v>
-      </c>
-      <c r="C13" s="182" t="s">
-        <v>1057</v>
-      </c>
-      <c r="D13" s="182" t="s">
-        <v>1081</v>
-      </c>
-      <c r="E13" s="183"/>
-      <c r="F13" s="183"/>
-      <c r="G13" s="183"/>
-      <c r="H13" s="183"/>
-      <c r="I13" s="183"/>
-      <c r="J13" s="183"/>
-      <c r="K13" s="183"/>
-      <c r="L13" s="183"/>
-      <c r="M13" s="183"/>
-      <c r="N13" s="183"/>
-      <c r="O13" s="183"/>
-      <c r="P13" s="183"/>
-      <c r="Q13" s="183"/>
-      <c r="R13" s="183"/>
-      <c r="S13" s="183"/>
-      <c r="T13" s="183"/>
-      <c r="U13" s="183"/>
-      <c r="V13" s="183"/>
-      <c r="W13" s="183"/>
-      <c r="X13" s="183"/>
-      <c r="Y13" s="183"/>
-      <c r="Z13" s="183"/>
+      <c r="A13" s="186" t="s">
+        <v>1086</v>
+      </c>
+      <c r="B13" s="186" t="s">
+        <v>1066</v>
+      </c>
+      <c r="C13" s="187" t="s">
+        <v>1063</v>
+      </c>
+      <c r="D13" s="187" t="s">
+        <v>1087</v>
+      </c>
+      <c r="E13" s="188"/>
+      <c r="F13" s="188"/>
+      <c r="G13" s="188"/>
+      <c r="H13" s="188"/>
+      <c r="I13" s="188"/>
+      <c r="J13" s="188"/>
+      <c r="K13" s="188"/>
+      <c r="L13" s="188"/>
+      <c r="M13" s="188"/>
+      <c r="N13" s="188"/>
+      <c r="O13" s="188"/>
+      <c r="P13" s="188"/>
+      <c r="Q13" s="188"/>
+      <c r="R13" s="188"/>
+      <c r="S13" s="188"/>
+      <c r="T13" s="188"/>
+      <c r="U13" s="188"/>
+      <c r="V13" s="188"/>
+      <c r="W13" s="188"/>
+      <c r="X13" s="188"/>
+      <c r="Y13" s="188"/>
+      <c r="Z13" s="188"/>
     </row>
     <row r="14">
-      <c r="A14" s="181" t="s">
-        <v>1082</v>
-      </c>
-      <c r="B14" s="181" t="s">
-        <v>1060</v>
-      </c>
-      <c r="C14" s="182" t="s">
-        <v>1057</v>
-      </c>
-      <c r="D14" s="182" t="s">
-        <v>1083</v>
-      </c>
-      <c r="E14" s="183"/>
-      <c r="F14" s="183"/>
-      <c r="G14" s="183"/>
-      <c r="H14" s="183"/>
-      <c r="I14" s="183"/>
-      <c r="J14" s="183"/>
-      <c r="K14" s="183"/>
-      <c r="L14" s="183"/>
-      <c r="M14" s="183"/>
-      <c r="N14" s="183"/>
-      <c r="O14" s="183"/>
-      <c r="P14" s="183"/>
-      <c r="Q14" s="183"/>
-      <c r="R14" s="183"/>
-      <c r="S14" s="183"/>
-      <c r="T14" s="183"/>
-      <c r="U14" s="183"/>
-      <c r="V14" s="183"/>
-      <c r="W14" s="183"/>
-      <c r="X14" s="183"/>
-      <c r="Y14" s="183"/>
-      <c r="Z14" s="183"/>
+      <c r="A14" s="186" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B14" s="186" t="s">
+        <v>1066</v>
+      </c>
+      <c r="C14" s="187" t="s">
+        <v>1063</v>
+      </c>
+      <c r="D14" s="187" t="s">
+        <v>1089</v>
+      </c>
+      <c r="E14" s="188"/>
+      <c r="F14" s="188"/>
+      <c r="G14" s="188"/>
+      <c r="H14" s="188"/>
+      <c r="I14" s="188"/>
+      <c r="J14" s="188"/>
+      <c r="K14" s="188"/>
+      <c r="L14" s="188"/>
+      <c r="M14" s="188"/>
+      <c r="N14" s="188"/>
+      <c r="O14" s="188"/>
+      <c r="P14" s="188"/>
+      <c r="Q14" s="188"/>
+      <c r="R14" s="188"/>
+      <c r="S14" s="188"/>
+      <c r="T14" s="188"/>
+      <c r="U14" s="188"/>
+      <c r="V14" s="188"/>
+      <c r="W14" s="188"/>
+      <c r="X14" s="188"/>
+      <c r="Y14" s="188"/>
+      <c r="Z14" s="188"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -22605,52 +22813,52 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="179" t="s">
-        <v>1049</v>
+      <c r="A1" s="184" t="s">
+        <v>1055</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="168" t="s">
-        <v>1051</v>
-      </c>
-      <c r="B2" s="168" t="s">
-        <v>1052</v>
-      </c>
-      <c r="C2" s="168" t="s">
-        <v>1053</v>
-      </c>
-      <c r="D2" s="168" t="s">
-        <v>1054</v>
+      <c r="A2" s="173" t="s">
+        <v>1057</v>
+      </c>
+      <c r="B2" s="173" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C2" s="173" t="s">
+        <v>1059</v>
+      </c>
+      <c r="D2" s="173" t="s">
+        <v>1060</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="165" t="s">
-        <v>1084</v>
-      </c>
-      <c r="B3" s="165" t="s">
-        <v>1085</v>
+      <c r="A3" s="170" t="s">
+        <v>1090</v>
+      </c>
+      <c r="B3" s="170" t="s">
+        <v>1091</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="165" t="s">
-        <v>1086</v>
-      </c>
-      <c r="B4" s="165" t="s">
-        <v>1087</v>
+      <c r="A4" s="170" t="s">
+        <v>1092</v>
+      </c>
+      <c r="B4" s="170" t="s">
+        <v>1093</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="165" t="s">
-        <v>1088</v>
-      </c>
-      <c r="B5" s="165" t="s">
-        <v>1089</v>
-      </c>
-      <c r="C5" s="184" t="s">
-        <v>1087</v>
-      </c>
-      <c r="D5" s="165" t="s">
-        <v>1090</v>
+      <c r="A5" s="170" t="s">
+        <v>1094</v>
+      </c>
+      <c r="B5" s="170" t="s">
+        <v>1095</v>
+      </c>
+      <c r="C5" s="189" t="s">
+        <v>1093</v>
+      </c>
+      <c r="D5" s="170" t="s">
+        <v>1096</v>
       </c>
     </row>
   </sheetData>

--- a/mappings/package_F23/transformation/conceptual_mappings.xlsx
+++ b/mappings/package_F23/transformation/conceptual_mappings.xlsx
@@ -398,7 +398,7 @@
     <t>Mapping Version</t>
   </si>
   <si>
-    <t>6.7.3</t>
+    <t>6.8.1</t>
   </si>
   <si>
     <r>
